--- a/src/spz/templates/export/spanisch_hueber.xlsx
+++ b/src/spz/templates/export/spanisch_hueber.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10913"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10611"/>
   <workbookPr updateLinks="never" codeName="DieseArbeitsmappe" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tobiasdierich/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tobiasdierich/Code/spz/spz-signup-app/src/spz/templates/export/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{524F28D1-9EB1-404F-969D-312C71388BC5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{475673A3-10FA-B444-95C0-2AF06D47217D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RAWDATA" sheetId="11" r:id="rId1"/>
@@ -1179,35 +1179,6 @@
   </cellStyles>
   <dxfs count="21">
     <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.14999847407452621"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
@@ -1291,6 +1262,35 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1560,15 +1560,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{19575445-AF87-9C4C-A90B-781B0D917D17}" name="DATA" displayName="DATA" ref="B1:G2" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{19575445-AF87-9C4C-A90B-781B0D917D17}" name="DATA" displayName="DATA" ref="B1:G2" totalsRowShown="0" headerRowDxfId="20" dataDxfId="19">
   <autoFilter ref="B1:G2" xr:uid="{0266EB94-41F5-1844-A1C0-201A06E48483}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{35AF066B-2A02-E149-AFC5-C8AFAFF2494B}" name="Nachname" dataDxfId="7"/>
-    <tableColumn id="2" xr3:uid="{60CB5BB0-F6E5-904F-B247-49FAB33B0F37}" name="Vorname" dataDxfId="6"/>
-    <tableColumn id="3" xr3:uid="{778B7168-3AB4-0344-9541-15E3BBCB82BA}" name="Hochschule" dataDxfId="5"/>
-    <tableColumn id="4" xr3:uid="{DD21D536-3BEC-604D-B448-0CE51C06FC30}" name="Matrikelnummer" dataDxfId="4"/>
-    <tableColumn id="5" xr3:uid="{A40B17E2-3DD2-BE49-8DFF-669BB545C765}" name="E-Mail" dataDxfId="3"/>
-    <tableColumn id="6" xr3:uid="{9EFEBD6A-A228-8E49-8FF3-F051282C083A}" name="Telefon" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{35AF066B-2A02-E149-AFC5-C8AFAFF2494B}" name="Nachname" dataDxfId="18"/>
+    <tableColumn id="2" xr3:uid="{60CB5BB0-F6E5-904F-B247-49FAB33B0F37}" name="Vorname" dataDxfId="17"/>
+    <tableColumn id="3" xr3:uid="{778B7168-3AB4-0344-9541-15E3BBCB82BA}" name="Hochschule" dataDxfId="16"/>
+    <tableColumn id="4" xr3:uid="{DD21D536-3BEC-604D-B448-0CE51C06FC30}" name="Matrikelnummer" dataDxfId="15"/>
+    <tableColumn id="5" xr3:uid="{A40B17E2-3DD2-BE49-8DFF-669BB545C765}" name="E-Mail" dataDxfId="14"/>
+    <tableColumn id="6" xr3:uid="{9EFEBD6A-A228-8E49-8FF3-F051282C083A}" name="Telefon" dataDxfId="13"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -1578,21 +1578,21 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabelle1" displayName="Tabelle1" ref="A1:H26" totalsRowShown="0">
   <autoFilter ref="A1:H26" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Matrikelnummer" dataDxfId="15" totalsRowDxfId="14">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Matrikelnummer" dataDxfId="7" totalsRowDxfId="6">
       <calculatedColumnFormula>IF(Notenliste!D2=0," ",Notenliste!D2)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Status"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="LP" dataDxfId="13">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="LP" dataDxfId="5">
       <calculatedColumnFormula>IF(Notenliste!D2&lt;&gt;0,Notenliste!$B$33," ")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Note" dataDxfId="12" totalsRowDxfId="11">
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Note" dataDxfId="4" totalsRowDxfId="3">
       <calculatedColumnFormula>IF(Notenliste!F2="KP"," ",IF(Notenliste!F2="NB","nicht bestanden",Notenliste!F2))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Datum" dataDxfId="10">
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Datum" dataDxfId="2">
       <calculatedColumnFormula>IF(Notenliste!D2&lt;&gt;0,Notenliste!$B$37," ")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Individueller Titel deutsch" dataDxfId="9"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Individueller Titel englisch" dataDxfId="8"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Individueller Titel deutsch" dataDxfId="1"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Individueller Titel englisch" dataDxfId="0"/>
     <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Anmerkungen"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1923,8 +1923,8 @@
   <sheetPr codeName="Tabelle1"/>
   <dimension ref="A1:XFC26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:G2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.2"/>
@@ -2309,7 +2309,7 @@
       <c r="I26" s="43"/>
     </row>
   </sheetData>
-  <sheetProtection formatColumns="0" selectLockedCells="1"/>
+  <sheetProtection sheet="1" formatColumns="0" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
   <tableParts count="1">
@@ -2325,7 +2325,7 @@
   </sheetPr>
   <dimension ref="A1:WVR38"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
@@ -4965,27 +4965,27 @@
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <conditionalFormatting sqref="H2:H26">
-    <cfRule type="cellIs" dxfId="20" priority="9" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="12" priority="9" operator="greaterThan">
       <formula>$H$27</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:I26">
-    <cfRule type="cellIs" dxfId="19" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="11" priority="8" operator="greaterThan">
       <formula>$I$27</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J2:J26">
-    <cfRule type="cellIs" dxfId="18" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="10" priority="3" operator="greaterThan">
       <formula>$I$27</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L2:L26">
-    <cfRule type="cellIs" dxfId="17" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="9" priority="2" operator="greaterThan">
       <formula>$L$27</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M2:M26">
-    <cfRule type="cellIs" dxfId="16" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="8" priority="1" operator="greaterThan">
       <formula>$M$27</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8950,6 +8950,7 @@
       <c r="D22" s="95"/>
     </row>
   </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/src/spz/templates/export/spanisch_hueber.xlsx
+++ b/src/spz/templates/export/spanisch_hueber.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Hiwi\Datenbank\excel_templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17176047-218A-4C29-86AE-6F6EB25DC1C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56F23887-879E-44CD-8B54-1BDCB9D2AD34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-24120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RAWDATA" sheetId="11" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="129">
   <si>
     <t>Name</t>
   </si>
@@ -239,6 +239,9 @@
     <t>Datum:_________________________                Unterschrift:_______________________________________</t>
   </si>
   <si>
+    <t>Kursname Zusatz</t>
+  </si>
+  <si>
     <t>Spanisch 1</t>
   </si>
   <si>
@@ -549,22 +552,19 @@
     <t>course.ects_points</t>
   </si>
   <si>
-    <t>course.full_name</t>
-  </si>
-  <si>
-    <t>Kursname Zusatz:</t>
-  </si>
-  <si>
-    <t>course.level</t>
-  </si>
-  <si>
-    <t>course.full_name_english</t>
+    <t>course.name</t>
+  </si>
+  <si>
+    <t>course.alternative</t>
   </si>
   <si>
     <t>semester</t>
   </si>
   <si>
     <t>exam_date</t>
+  </si>
+  <si>
+    <t>course.name_english</t>
   </si>
 </sst>
 </file>
@@ -1161,6 +1161,33 @@
   </cellStyles>
   <dxfs count="21">
     <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <font>
         <condense val="0"/>
         <extend val="0"/>
@@ -1219,33 +1246,6 @@
           <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <protection locked="0" hidden="0"/>
@@ -1560,21 +1560,21 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabelle1" displayName="Tabelle1" ref="A1:H26" totalsRowShown="0">
   <autoFilter ref="A1:H26" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Matrikelnummer" dataDxfId="12" totalsRowDxfId="11">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Matrikelnummer" dataDxfId="7" totalsRowDxfId="6">
       <calculatedColumnFormula>IF(Notenliste!D2=0," ",Notenliste!D2)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Status"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="LP" dataDxfId="10">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="LP" dataDxfId="5">
       <calculatedColumnFormula>IF(Notenliste!D2&lt;&gt;0,Notenliste!$B$33," ")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Note" dataDxfId="9" totalsRowDxfId="8">
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Note" dataDxfId="4" totalsRowDxfId="3">
       <calculatedColumnFormula>IF(Notenliste!F2="KP"," ",IF(Notenliste!F2="NB","nicht bestanden",Notenliste!F2))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Datum" dataDxfId="7">
-      <calculatedColumnFormula>IF(Notenliste!D2&lt;&gt;0,Notenliste!$B$38," ")</calculatedColumnFormula>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Datum" dataDxfId="2">
+      <calculatedColumnFormula>IF(Notenliste!D2&lt;&gt;0,Notenliste!$B$37," ")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Individueller Titel deutsch" dataDxfId="6"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Individueller Titel englisch" dataDxfId="5"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Individueller Titel deutsch" dataDxfId="1"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Individueller Titel englisch" dataDxfId="0"/>
     <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Anmerkungen"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1958,22 +1958,22 @@
         <v>1</v>
       </c>
       <c r="B2" s="37" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C2" s="37" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D2" s="37" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E2" s="37" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F2" s="37" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="G2" s="37" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="H2" s="37"/>
       <c r="I2" s="37"/>
@@ -2305,16 +2305,16 @@
   <sheetPr codeName="Tabelle2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:WVR39"/>
+  <dimension ref="A1:WVR38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="13.95" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.44140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.33203125" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.44140625" style="3" customWidth="1"/>
     <col min="4" max="4" width="10.6640625" style="3" customWidth="1"/>
     <col min="5" max="5" width="11.44140625" style="11" customWidth="1"/>
@@ -2867,22 +2867,22 @@
       </c>
       <c r="G1" s="29"/>
       <c r="H1" s="70" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="I1" s="71" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="J1" s="71" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K1" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="L1" s="27" t="s">
         <v>56</v>
       </c>
-      <c r="L1" s="27" t="s">
-        <v>55</v>
-      </c>
       <c r="M1" s="27" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="N1" s="28" t="s">
         <v>8</v>
@@ -3030,23 +3030,23 @@
       <c r="R3" s="33"/>
       <c r="S3" s="4"/>
       <c r="T3" s="2">
-        <f>IF(N3&gt;0,$B$33,0)</f>
+        <f t="shared" ref="T3:T26" si="4">IF(N3&gt;0,$B$33,0)</f>
         <v>0</v>
       </c>
       <c r="U3" s="2">
-        <f>IF(N3&gt;0,$B$32,0)</f>
+        <f t="shared" ref="U3:U26" si="5">IF(N3&gt;0,$B$32,0)</f>
         <v>0</v>
       </c>
       <c r="V3" s="10">
-        <f t="shared" ref="V3:V26" si="4">IF(N3&gt;0,$F$28,0)</f>
+        <f t="shared" ref="V3:V26" si="6">IF(N3&gt;0,$F$28,0)</f>
         <v>0</v>
       </c>
       <c r="W3" s="1">
-        <f t="shared" ref="W3:W26" si="5">IF(N3&gt;0,$B$34,0)</f>
+        <f t="shared" ref="W3:W26" si="7">IF(N3&gt;0,$B$34,0)</f>
         <v>0</v>
       </c>
       <c r="X3" s="1">
-        <f t="shared" ref="X3:X26" si="6">IF(N3&gt;0,$B$31,0)</f>
+        <f t="shared" ref="X3:X26" si="8">IF(N3&gt;0,$B$31,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -3098,23 +3098,23 @@
       <c r="R4" s="33"/>
       <c r="S4" s="4"/>
       <c r="T4" s="2">
-        <f>IF(N4&gt;0,$B$33,0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="U4" s="2">
-        <f>IF(N4&gt;0,$B$32,0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="V4" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="W4" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="X4" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -3166,23 +3166,23 @@
       <c r="R5" s="33"/>
       <c r="S5" s="4"/>
       <c r="T5" s="2">
-        <f>IF(N5&gt;0,$B$33,0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="U5" s="2">
-        <f>IF(N5&gt;0,$B$32,0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="V5" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="W5" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="X5" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -3234,23 +3234,23 @@
       <c r="R6" s="33"/>
       <c r="S6" s="4"/>
       <c r="T6" s="2">
-        <f>IF(N6&gt;0,$B$33,0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="U6" s="2">
-        <f>IF(N6&gt;0,$B$32,0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="V6" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="W6" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="X6" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -3302,23 +3302,23 @@
       <c r="R7" s="33"/>
       <c r="S7" s="4"/>
       <c r="T7" s="2">
-        <f>IF(N7&gt;0,$B$33,0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="U7" s="2">
-        <f>IF(N7&gt;0,$B$32,0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="V7" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="W7" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="X7" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -3370,23 +3370,23 @@
       <c r="R8" s="33"/>
       <c r="S8" s="4"/>
       <c r="T8" s="2">
-        <f>IF(N8&gt;0,$B$33,0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="U8" s="2">
-        <f>IF(N8&gt;0,$B$32,0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="V8" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="W8" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="X8" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -3438,23 +3438,23 @@
       <c r="R9" s="33"/>
       <c r="S9" s="4"/>
       <c r="T9" s="2">
-        <f>IF(N9&gt;0,$B$33,0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="U9" s="2">
-        <f>IF(N9&gt;0,$B$32,0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="V9" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="W9" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="X9" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -3506,23 +3506,23 @@
       <c r="R10" s="33"/>
       <c r="S10" s="4"/>
       <c r="T10" s="2">
-        <f>IF(N10&gt;0,$B$33,0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="U10" s="2">
-        <f>IF(N10&gt;0,$B$32,0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="V10" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="W10" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="X10" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -3574,23 +3574,23 @@
       <c r="R11" s="33"/>
       <c r="S11" s="4"/>
       <c r="T11" s="2">
-        <f>IF(N11&gt;0,$B$33,0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="U11" s="2">
-        <f>IF(N11&gt;0,$B$32,0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="V11" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="W11" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="X11" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -3642,23 +3642,23 @@
       <c r="R12" s="33"/>
       <c r="S12" s="4"/>
       <c r="T12" s="2">
-        <f>IF(N12&gt;0,$B$33,0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="U12" s="2">
-        <f>IF(N12&gt;0,$B$32,0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="V12" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="W12" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="X12" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -3710,23 +3710,23 @@
       <c r="R13" s="33"/>
       <c r="S13" s="4"/>
       <c r="T13" s="2">
-        <f>IF(N13&gt;0,$B$33,0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="U13" s="2">
-        <f>IF(N13&gt;0,$B$32,0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="V13" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="W13" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="X13" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -3778,23 +3778,23 @@
       <c r="R14" s="33"/>
       <c r="S14" s="4"/>
       <c r="T14" s="2">
-        <f>IF(N14&gt;0,$B$33,0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="U14" s="2">
-        <f>IF(N14&gt;0,$B$32,0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="V14" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="W14" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="X14" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -3846,23 +3846,23 @@
       <c r="R15" s="33"/>
       <c r="S15" s="4"/>
       <c r="T15" s="2">
-        <f>IF(N15&gt;0,$B$33,0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="U15" s="2">
-        <f>IF(N15&gt;0,$B$32,0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="V15" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="W15" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="X15" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -3914,23 +3914,23 @@
       <c r="R16" s="33"/>
       <c r="S16" s="4"/>
       <c r="T16" s="2">
-        <f>IF(N16&gt;0,$B$33,0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="U16" s="2">
-        <f>IF(N16&gt;0,$B$32,0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="V16" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="W16" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="X16" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -3982,23 +3982,23 @@
       <c r="R17" s="33"/>
       <c r="S17" s="4"/>
       <c r="T17" s="2">
-        <f>IF(N17&gt;0,$B$33,0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="U17" s="2">
-        <f>IF(N17&gt;0,$B$32,0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="V17" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="W17" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="X17" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -4050,23 +4050,23 @@
       <c r="R18" s="33"/>
       <c r="S18" s="4"/>
       <c r="T18" s="2">
-        <f>IF(N18&gt;0,$B$33,0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="U18" s="2">
-        <f>IF(N18&gt;0,$B$32,0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="V18" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="W18" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="X18" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -4118,23 +4118,23 @@
       <c r="R19" s="33"/>
       <c r="S19" s="4"/>
       <c r="T19" s="2">
-        <f>IF(N19&gt;0,$B$33,0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="U19" s="2">
-        <f>IF(N19&gt;0,$B$32,0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="V19" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="W19" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="X19" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -4186,23 +4186,23 @@
       <c r="R20" s="33"/>
       <c r="S20" s="4"/>
       <c r="T20" s="2">
-        <f>IF(N20&gt;0,$B$33,0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="U20" s="2">
-        <f>IF(N20&gt;0,$B$32,0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="V20" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="W20" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="X20" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -4254,23 +4254,23 @@
       <c r="R21" s="33"/>
       <c r="S21" s="4"/>
       <c r="T21" s="2">
-        <f>IF(N21&gt;0,$B$33,0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="U21" s="2">
-        <f>IF(N21&gt;0,$B$32,0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="V21" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="W21" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="X21" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -4322,23 +4322,23 @@
       <c r="R22" s="33"/>
       <c r="S22" s="4"/>
       <c r="T22" s="2">
-        <f>IF(N22&gt;0,$B$33,0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="U22" s="2">
-        <f>IF(N22&gt;0,$B$32,0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="V22" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="W22" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="X22" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -4390,23 +4390,23 @@
       <c r="R23" s="33"/>
       <c r="S23" s="4"/>
       <c r="T23" s="2">
-        <f>IF(N23&gt;0,$B$33,0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="U23" s="2">
-        <f>IF(N23&gt;0,$B$32,0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="V23" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="W23" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="X23" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -4458,23 +4458,23 @@
       <c r="R24" s="33"/>
       <c r="S24" s="4"/>
       <c r="T24" s="2">
-        <f>IF(N24&gt;0,$B$33,0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="U24" s="2">
-        <f>IF(N24&gt;0,$B$32,0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="V24" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="W24" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="X24" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -4526,23 +4526,23 @@
       <c r="R25" s="33"/>
       <c r="S25" s="4"/>
       <c r="T25" s="2">
-        <f>IF(N25&gt;0,$B$33,0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="U25" s="2">
-        <f>IF(N25&gt;0,$B$32,0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="V25" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="W25" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="X25" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -4594,23 +4594,23 @@
       <c r="R26" s="33"/>
       <c r="S26" s="4"/>
       <c r="T26" s="2">
-        <f>IF(N26&gt;0,$B$33,0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="U26" s="2">
-        <f>IF(N26&gt;0,$B$32,0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="V26" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="W26" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="X26" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -4655,7 +4655,7 @@
     </row>
     <row r="28" spans="1:24" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F28" s="10" t="e">
         <f t="array" ref="F28">AVERAGE(IF(ISNUMBER(F2:F26),F2:F26))</f>
@@ -4663,27 +4663,27 @@
       </c>
       <c r="G28" s="4"/>
       <c r="H28" s="10" t="e">
-        <f t="shared" ref="H28:L28" si="7">AVERAGEIF(H2:H26,"&gt;0")</f>
+        <f t="shared" ref="H28:L28" si="9">AVERAGEIF(H2:H26,"&gt;0")</f>
         <v>#DIV/0!</v>
       </c>
       <c r="I28" s="10" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J28" s="10" t="e">
-        <f t="shared" ref="J28" si="8">AVERAGEIF(J2:J26,"&gt;0")</f>
+        <f t="shared" ref="J28" si="10">AVERAGEIF(J2:J26,"&gt;0")</f>
         <v>#DIV/0!</v>
       </c>
       <c r="K28" s="10" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
       <c r="L28" s="10" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M28" s="10" t="e">
-        <f t="shared" ref="M28" si="9">AVERAGEIF(M2:M26,"&gt;0")</f>
+        <f t="shared" ref="M28" si="11">AVERAGEIF(M2:M26,"&gt;0")</f>
         <v>#DIV/0!</v>
       </c>
       <c r="N28" s="10" t="e">
@@ -4714,11 +4714,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="I29" s="5" t="e">
-        <f t="shared" ref="I29" si="10">ROUNDUP(STDEVP(I2:I26),1)</f>
+        <f t="shared" ref="I29" si="12">ROUNDUP(STDEVP(I2:I26),1)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="J29" s="5" t="e">
-        <f t="shared" ref="J29" si="11">ROUNDUP(STDEVP(J2:J26),1)</f>
+        <f t="shared" ref="J29" si="13">ROUNDUP(STDEVP(J2:J26),1)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="K29" s="5"/>
@@ -4757,7 +4757,7 @@
         <v>13</v>
       </c>
       <c r="B31" s="35" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C31" s="23"/>
       <c r="E31" s="82" t="s">
@@ -4783,7 +4783,7 @@
         <v>14</v>
       </c>
       <c r="B32" s="36" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C32" s="23"/>
       <c r="D32" s="79"/>
@@ -4808,7 +4808,7 @@
         <v>15</v>
       </c>
       <c r="B33" s="36" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C33" s="23"/>
       <c r="D33" s="79"/>
@@ -4833,9 +4833,11 @@
         <v>16</v>
       </c>
       <c r="B34" s="35" t="s">
-        <v>123</v>
-      </c>
-      <c r="C34" s="80"/>
+        <v>124</v>
+      </c>
+      <c r="C34" s="80" t="s">
+        <v>128</v>
+      </c>
       <c r="D34" s="79"/>
       <c r="E34" s="82"/>
       <c r="F34" s="82"/>
@@ -4855,12 +4857,12 @@
     </row>
     <row r="35" spans="1:19" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
-        <v>124</v>
+        <v>44</v>
       </c>
       <c r="B35" s="35" t="s">
         <v>125</v>
       </c>
-      <c r="C35" s="80"/>
+      <c r="C35" s="23"/>
       <c r="D35" s="79"/>
       <c r="E35" s="82"/>
       <c r="F35" s="82"/>
@@ -4880,7 +4882,7 @@
     </row>
     <row r="36" spans="1:19" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
-        <v>66</v>
+        <v>30</v>
       </c>
       <c r="B36" s="35" t="s">
         <v>126</v>
@@ -4905,88 +4907,63 @@
     </row>
     <row r="37" spans="1:19" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B37" s="35" t="s">
+        <v>54</v>
+      </c>
+      <c r="B37" s="68" t="s">
         <v>127</v>
       </c>
       <c r="C37" s="23"/>
       <c r="D37" s="79"/>
-      <c r="E37" s="82"/>
-      <c r="F37" s="82"/>
-      <c r="G37" s="82"/>
-      <c r="H37" s="82"/>
-      <c r="I37" s="82"/>
-      <c r="J37" s="82"/>
-      <c r="K37" s="82"/>
-      <c r="L37" s="82"/>
-      <c r="M37" s="82"/>
-      <c r="N37" s="82"/>
-      <c r="O37" s="82"/>
-      <c r="P37" s="82"/>
-      <c r="Q37" s="82"/>
-      <c r="R37" s="82"/>
+      <c r="E37" s="79"/>
+      <c r="F37" s="79"/>
+      <c r="G37" s="79"/>
+      <c r="H37" s="79"/>
+      <c r="I37" s="79"/>
+      <c r="J37" s="79"/>
+      <c r="K37" s="79"/>
+      <c r="L37" s="79"/>
+      <c r="M37" s="79"/>
+      <c r="N37" s="79"/>
+      <c r="O37" s="22"/>
+      <c r="P37" s="31"/>
+      <c r="Q37" s="25"/>
+      <c r="R37" s="31"/>
       <c r="S37" s="31"/>
     </row>
-    <row r="38" spans="1:19" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="B38" s="68" t="s">
-        <v>128</v>
-      </c>
-      <c r="C38" s="23"/>
-      <c r="D38" s="79"/>
-      <c r="E38" s="79"/>
-      <c r="F38" s="79"/>
-      <c r="G38" s="79"/>
-      <c r="H38" s="79"/>
-      <c r="I38" s="79"/>
-      <c r="J38" s="79"/>
-      <c r="K38" s="79"/>
-      <c r="L38" s="79"/>
-      <c r="M38" s="79"/>
-      <c r="N38" s="79"/>
-      <c r="O38" s="22"/>
-      <c r="P38" s="31"/>
+    <row r="38" spans="1:19" ht="13.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P38" s="22"/>
       <c r="Q38" s="25"/>
-      <c r="R38" s="31"/>
-      <c r="S38" s="31"/>
-    </row>
-    <row r="39" spans="1:19" ht="13.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="P39" s="22"/>
-      <c r="Q39" s="25"/>
-      <c r="R39" s="22"/>
-      <c r="S39" s="22"/>
+      <c r="R38" s="22"/>
+      <c r="S38" s="22"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1" formatColumns="0" selectLockedCells="1"/>
   <mergeCells count="1">
-    <mergeCell ref="E31:R37"/>
+    <mergeCell ref="E31:R36"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <conditionalFormatting sqref="H2:H26">
-    <cfRule type="cellIs" dxfId="4" priority="9" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="12" priority="9" operator="greaterThan">
       <formula>$H$27</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:I26">
-    <cfRule type="cellIs" dxfId="3" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="11" priority="8" operator="greaterThan">
       <formula>$I$27</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J2:J26">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="10" priority="3" operator="greaterThan">
       <formula>$I$27</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L2:L26">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="9" priority="2" operator="greaterThan">
       <formula>$L$27</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M2:M26">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="8" priority="1" operator="greaterThan">
       <formula>$M$27</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5027,7 +5004,7 @@
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="83" t="str">
         <f>Notenliste!B34</f>
-        <v>course.full_name</v>
+        <v>course.name</v>
       </c>
       <c r="B1" s="83"/>
       <c r="C1" s="8" t="s">
@@ -5184,8 +5161,8 @@
   <sheetData>
     <row r="1" spans="1:15" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="84" t="str">
-        <f>Notenliste!B34&amp;Notenliste!B36</f>
-        <v>course.full_namecourse.full_name_english</v>
+        <f>Notenliste!B34&amp;Notenliste!B35</f>
+        <v>course.namecourse.alternative</v>
       </c>
       <c r="B1" s="84"/>
       <c r="C1" s="84"/>
@@ -5212,7 +5189,7 @@
       <c r="E2" s="85"/>
       <c r="F2" s="85"/>
       <c r="G2" s="86" t="str">
-        <f>"Semester: "&amp;Notenliste!B37</f>
+        <f>"Semester: "&amp;Notenliste!B36</f>
         <v>Semester: semester</v>
       </c>
       <c r="H2" s="86"/>
@@ -6877,8 +6854,8 @@
   <sheetData>
     <row r="1" spans="1:24" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="91" t="str">
-        <f>Notenliste!B34&amp;Notenliste!B36</f>
-        <v>course.full_namecourse.full_name_english</v>
+        <f>Notenliste!B34&amp;Notenliste!B35</f>
+        <v>course.namecourse.alternative</v>
       </c>
       <c r="B1" s="91"/>
       <c r="C1" s="91"/>
@@ -8108,25 +8085,25 @@
         <v>25</v>
       </c>
       <c r="B1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D1" s="67" t="s">
         <v>5</v>
       </c>
       <c r="E1" s="65" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
@@ -8143,7 +8120,7 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="E2" s="65" t="str">
-        <f>IF(Notenliste!D2&lt;&gt;0,Notenliste!$B$38," ")</f>
+        <f>IF(Notenliste!D2&lt;&gt;0,Notenliste!$B$37," ")</f>
         <v>exam_date</v>
       </c>
     </row>
@@ -8161,7 +8138,7 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="E3" s="65" t="str">
-        <f>IF(Notenliste!D3&lt;&gt;0,Notenliste!$B$38," ")</f>
+        <f>IF(Notenliste!D3&lt;&gt;0,Notenliste!$B$37," ")</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
@@ -8179,7 +8156,7 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="E4" s="65" t="str">
-        <f>IF(Notenliste!D4&lt;&gt;0,Notenliste!$B$38," ")</f>
+        <f>IF(Notenliste!D4&lt;&gt;0,Notenliste!$B$37," ")</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
@@ -8197,7 +8174,7 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="E5" s="65" t="str">
-        <f>IF(Notenliste!D5&lt;&gt;0,Notenliste!$B$38," ")</f>
+        <f>IF(Notenliste!D5&lt;&gt;0,Notenliste!$B$37," ")</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
@@ -8215,7 +8192,7 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="E6" s="65" t="str">
-        <f>IF(Notenliste!D6&lt;&gt;0,Notenliste!$B$38," ")</f>
+        <f>IF(Notenliste!D6&lt;&gt;0,Notenliste!$B$37," ")</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
@@ -8233,7 +8210,7 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="E7" s="65" t="str">
-        <f>IF(Notenliste!D7&lt;&gt;0,Notenliste!$B$38," ")</f>
+        <f>IF(Notenliste!D7&lt;&gt;0,Notenliste!$B$37," ")</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
@@ -8251,7 +8228,7 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="E8" s="65" t="str">
-        <f>IF(Notenliste!D8&lt;&gt;0,Notenliste!$B$38," ")</f>
+        <f>IF(Notenliste!D8&lt;&gt;0,Notenliste!$B$37," ")</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
@@ -8269,7 +8246,7 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="E9" s="65" t="str">
-        <f>IF(Notenliste!D9&lt;&gt;0,Notenliste!$B$38," ")</f>
+        <f>IF(Notenliste!D9&lt;&gt;0,Notenliste!$B$37," ")</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
@@ -8287,7 +8264,7 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="E10" s="65" t="str">
-        <f>IF(Notenliste!D10&lt;&gt;0,Notenliste!$B$38," ")</f>
+        <f>IF(Notenliste!D10&lt;&gt;0,Notenliste!$B$37," ")</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
@@ -8305,7 +8282,7 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="E11" s="65" t="str">
-        <f>IF(Notenliste!D11&lt;&gt;0,Notenliste!$B$38," ")</f>
+        <f>IF(Notenliste!D11&lt;&gt;0,Notenliste!$B$37," ")</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
@@ -8323,7 +8300,7 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="E12" s="65" t="str">
-        <f>IF(Notenliste!D12&lt;&gt;0,Notenliste!$B$38," ")</f>
+        <f>IF(Notenliste!D12&lt;&gt;0,Notenliste!$B$37," ")</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
@@ -8341,7 +8318,7 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="E13" s="65" t="str">
-        <f>IF(Notenliste!D13&lt;&gt;0,Notenliste!$B$38," ")</f>
+        <f>IF(Notenliste!D13&lt;&gt;0,Notenliste!$B$37," ")</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
@@ -8359,7 +8336,7 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="E14" s="65" t="str">
-        <f>IF(Notenliste!D14&lt;&gt;0,Notenliste!$B$38," ")</f>
+        <f>IF(Notenliste!D14&lt;&gt;0,Notenliste!$B$37," ")</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
@@ -8377,7 +8354,7 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="E15" s="65" t="str">
-        <f>IF(Notenliste!D15&lt;&gt;0,Notenliste!$B$38," ")</f>
+        <f>IF(Notenliste!D15&lt;&gt;0,Notenliste!$B$37," ")</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
@@ -8395,7 +8372,7 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="E16" s="65" t="str">
-        <f>IF(Notenliste!D16&lt;&gt;0,Notenliste!$B$38," ")</f>
+        <f>IF(Notenliste!D16&lt;&gt;0,Notenliste!$B$37," ")</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
@@ -8413,7 +8390,7 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="E17" s="65" t="str">
-        <f>IF(Notenliste!D17&lt;&gt;0,Notenliste!$B$38," ")</f>
+        <f>IF(Notenliste!D17&lt;&gt;0,Notenliste!$B$37," ")</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
@@ -8431,7 +8408,7 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="E18" s="65" t="str">
-        <f>IF(Notenliste!D18&lt;&gt;0,Notenliste!$B$38," ")</f>
+        <f>IF(Notenliste!D18&lt;&gt;0,Notenliste!$B$37," ")</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
@@ -8449,7 +8426,7 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="E19" s="65" t="str">
-        <f>IF(Notenliste!D19&lt;&gt;0,Notenliste!$B$38," ")</f>
+        <f>IF(Notenliste!D19&lt;&gt;0,Notenliste!$B$37," ")</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
@@ -8467,7 +8444,7 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="E20" s="65" t="str">
-        <f>IF(Notenliste!D20&lt;&gt;0,Notenliste!$B$38," ")</f>
+        <f>IF(Notenliste!D20&lt;&gt;0,Notenliste!$B$37," ")</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
@@ -8485,7 +8462,7 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="E21" s="65" t="str">
-        <f>IF(Notenliste!D21&lt;&gt;0,Notenliste!$B$38," ")</f>
+        <f>IF(Notenliste!D21&lt;&gt;0,Notenliste!$B$37," ")</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
@@ -8503,7 +8480,7 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="E22" s="65" t="str">
-        <f>IF(Notenliste!D22&lt;&gt;0,Notenliste!$B$38," ")</f>
+        <f>IF(Notenliste!D22&lt;&gt;0,Notenliste!$B$37," ")</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
@@ -8521,7 +8498,7 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="E23" s="65" t="str">
-        <f>IF(Notenliste!D23&lt;&gt;0,Notenliste!$B$38," ")</f>
+        <f>IF(Notenliste!D23&lt;&gt;0,Notenliste!$B$37," ")</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
@@ -8539,7 +8516,7 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="E24" s="65" t="str">
-        <f>IF(Notenliste!D24&lt;&gt;0,Notenliste!$B$38," ")</f>
+        <f>IF(Notenliste!D24&lt;&gt;0,Notenliste!$B$37," ")</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
@@ -8557,7 +8534,7 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="E25" s="65" t="str">
-        <f>IF(Notenliste!D25&lt;&gt;0,Notenliste!$B$38," ")</f>
+        <f>IF(Notenliste!D25&lt;&gt;0,Notenliste!$B$37," ")</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
@@ -8575,7 +8552,7 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="E26" s="65" t="str">
-        <f>IF(Notenliste!D26&lt;&gt;0,Notenliste!$B$38," ")</f>
+        <f>IF(Notenliste!D26&lt;&gt;0,Notenliste!$B$37," ")</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
@@ -8614,7 +8591,7 @@
   <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8634,13 +8611,13 @@
         <v>7</v>
       </c>
       <c r="B1" s="72" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D1" s="72" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F1" s="72" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H1" s="75" t="s">
         <v>38</v>
@@ -8648,187 +8625,187 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="73" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B2" s="73" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D2" s="81" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F2" s="73" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H2" s="78" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="73" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B3" s="73" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D3" s="73" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F3" s="73" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H3" s="78" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="73" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B4" s="73" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D4" s="73" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F4" s="73" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H4" s="78" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="73" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B5" s="73" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D5" s="73" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F5" s="73" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="H5" s="76"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="73" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B6" s="73" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D6" s="73" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F6" s="73" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="H6" s="76"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="73" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B7" s="73" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D7" s="73" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F7" s="73" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="H7" s="76"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="73" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B8" s="73" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D8" s="73" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F8" s="73" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H8" s="76"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="73" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B9" s="73" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D9" s="73" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F9" s="73" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H9" s="76"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="73" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B10" s="73" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D10" s="73" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F10" s="73" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="H10" s="76"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="73" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B11" s="73" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D11" s="73" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F11" s="73" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H11" s="76"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="73" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B12" s="73" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D12" s="73" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F12" s="73" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H12" s="76"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="73" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B13" s="73" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D13" s="73" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F13" s="73" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="H13" s="76"/>
     </row>
@@ -8836,10 +8813,10 @@
       <c r="A14" s="73"/>
       <c r="B14" s="73"/>
       <c r="D14" s="73" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F14" s="73" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="H14" s="76"/>
     </row>
@@ -8847,7 +8824,7 @@
       <c r="A15" s="73"/>
       <c r="B15" s="73"/>
       <c r="D15" s="73" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F15" s="73"/>
       <c r="H15" s="76"/>

--- a/src/spz/templates/export/spanisch_hueber.xlsx
+++ b/src/spz/templates/export/spanisch_hueber.xlsx
@@ -1,33 +1,38 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26026"/>
-  <workbookPr updateLinks="never" codeName="DieseArbeitsmappe" defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <workbookPr showInkAnnotation="0" updateLinks="never" codeName="DieseArbeitsmappe" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Hiwi\Datenbank\excel_templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s_hiwi\Documents\Datenbank\excel_templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56F23887-879E-44CD-8B54-1BDCB9D2AD34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="RAWDATA" sheetId="11" r:id="rId1"/>
     <sheet name="Notenliste" sheetId="9" r:id="rId2"/>
-    <sheet name="Notenverteilung" sheetId="8" r:id="rId3"/>
-    <sheet name="Printlist" sheetId="10" r:id="rId4"/>
-    <sheet name="Paricipantlist" sheetId="12" r:id="rId5"/>
-    <sheet name="Teilnehmer" sheetId="14" r:id="rId6"/>
-    <sheet name="Einstellungen" sheetId="15" r:id="rId7"/>
+    <sheet name="Extrapunkte" sheetId="16" r:id="rId3"/>
+    <sheet name="Notenverteilung" sheetId="8" r:id="rId4"/>
+    <sheet name="Printlist" sheetId="10" r:id="rId5"/>
+    <sheet name="Paricipantlist" sheetId="12" r:id="rId6"/>
+    <sheet name="Teilnehmer" sheetId="14" r:id="rId7"/>
+    <sheet name="Einstellungen" sheetId="15" r:id="rId8"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId9"/>
+  </externalReferences>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Notenliste!$H$1:$N$29</definedName>
     <definedName name="DOZENT">OFFSET(Einstellungen!$F$2,,,COUNTIF(Einstellungen!$F$2:$F$20,"&gt;"""),)</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">Extrapunkte!$A$1:$M$30</definedName>
     <definedName name="ECTS">OFFSET(Einstellungen!$H$2,,,COUNTIF(Einstellungen!$H$2:$H$20,"&gt;"""),)</definedName>
     <definedName name="KURSNAME">OFFSET(Einstellungen!$A$2,,,COUNTIF(Einstellungen!$A$2:$A$20,"&gt;"""),)</definedName>
     <definedName name="NIVEAU">OFFSET(Einstellungen!$D$2,,,COUNTIF(Einstellungen!$D$2:$D$22,"&gt;"""),)</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -43,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="140">
   <si>
     <t>Name</t>
   </si>
@@ -306,21 +311,6 @@
     </r>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Teil3
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Participación</t>
-    </r>
-  </si>
-  <si>
     <t>Niveau</t>
   </si>
   <si>
@@ -566,11 +556,59 @@
   <si>
     <t>course.name_english</t>
   </si>
+  <si>
+    <t>Ines Gallego Perez</t>
+  </si>
+  <si>
+    <t>Victor Rubio Moreno</t>
+  </si>
+  <si>
+    <t>Durchschnittt</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Teil3
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Com. Oral</t>
+    </r>
+  </si>
+  <si>
+    <t>Actividades</t>
+  </si>
+  <si>
+    <t>Comunicación Oral</t>
+  </si>
+  <si>
+    <t>Actividad 1</t>
+  </si>
+  <si>
+    <t>Actividad 2</t>
+  </si>
+  <si>
+    <t>Actividad 3</t>
+  </si>
+  <si>
+    <t>Actividad 4</t>
+  </si>
+  <si>
+    <t>Actividades Total</t>
+  </si>
+  <si>
+    <t>Com. Oral Total</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="#"/>
@@ -635,7 +673,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -681,6 +719,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -875,7 +919,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="99">
+  <cellXfs count="116">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
@@ -1103,8 +1147,53 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1" applyProtection="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1157,36 +1246,9 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
-    <cellStyle name="Standard 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Standard 2" xfId="1"/>
   </cellStyles>
   <dxfs count="21">
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
     <dxf>
       <font>
         <condense val="0"/>
@@ -1246,6 +1308,33 @@
           <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <protection locked="0" hidden="0"/>
@@ -1320,6 +1409,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1541,41 +1631,83 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="RAWDATA"/>
+      <sheetName val="Notenliste"/>
+      <sheetName val="Extrapunkte"/>
+      <sheetName val="Notenverteilung"/>
+      <sheetName val="Printlist"/>
+      <sheetName val="Paricipantlist"/>
+      <sheetName val="Teilnehmer"/>
+      <sheetName val="Einstellungen"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="2">
+          <cell r="B2" t="str">
+            <v>applicant.last_name</v>
+          </cell>
+          <cell r="C2" t="str">
+            <v>applicant.first_name</v>
+          </cell>
+          <cell r="D2" t="str">
+            <v>applicant.origin.short_name</v>
+          </cell>
+          <cell r="E2" t="str">
+            <v>applicant.tag</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{19575445-AF87-9C4C-A90B-781B0D917D17}" name="DATA" displayName="DATA" ref="B1:G2" totalsRowShown="0" headerRowDxfId="20" dataDxfId="19">
-  <autoFilter ref="B1:G2" xr:uid="{0266EB94-41F5-1844-A1C0-201A06E48483}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="DATA" displayName="DATA" ref="B1:G2" totalsRowShown="0" headerRowDxfId="20" dataDxfId="19">
+  <autoFilter ref="B1:G2"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{35AF066B-2A02-E149-AFC5-C8AFAFF2494B}" name="Nachname" dataDxfId="18"/>
-    <tableColumn id="2" xr3:uid="{60CB5BB0-F6E5-904F-B247-49FAB33B0F37}" name="Vorname" dataDxfId="17"/>
-    <tableColumn id="3" xr3:uid="{778B7168-3AB4-0344-9541-15E3BBCB82BA}" name="Hochschule" dataDxfId="16"/>
-    <tableColumn id="4" xr3:uid="{DD21D536-3BEC-604D-B448-0CE51C06FC30}" name="Matrikelnummer" dataDxfId="15"/>
-    <tableColumn id="5" xr3:uid="{A40B17E2-3DD2-BE49-8DFF-669BB545C765}" name="E-Mail" dataDxfId="14"/>
-    <tableColumn id="6" xr3:uid="{9EFEBD6A-A228-8E49-8FF3-F051282C083A}" name="Telefon" dataDxfId="13"/>
+    <tableColumn id="1" name="Nachname" dataDxfId="18"/>
+    <tableColumn id="2" name="Vorname" dataDxfId="17"/>
+    <tableColumn id="3" name="Hochschule" dataDxfId="16"/>
+    <tableColumn id="4" name="Matrikelnummer" dataDxfId="15"/>
+    <tableColumn id="5" name="E-Mail" dataDxfId="14"/>
+    <tableColumn id="6" name="Telefon" dataDxfId="13"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabelle1" displayName="Tabelle1" ref="A1:H26" totalsRowShown="0">
-  <autoFilter ref="A1:H26" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabelle1" displayName="Tabelle1" ref="A1:H26" totalsRowShown="0">
+  <autoFilter ref="A1:H26"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Matrikelnummer" dataDxfId="7" totalsRowDxfId="6">
+    <tableColumn id="1" name="Matrikelnummer" dataDxfId="12" totalsRowDxfId="11">
       <calculatedColumnFormula>IF(Notenliste!D2=0," ",Notenliste!D2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Status"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="LP" dataDxfId="5">
+    <tableColumn id="2" name="Status"/>
+    <tableColumn id="3" name="LP" dataDxfId="10">
       <calculatedColumnFormula>IF(Notenliste!D2&lt;&gt;0,Notenliste!$B$33," ")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Note" dataDxfId="4" totalsRowDxfId="3">
+    <tableColumn id="4" name="Note" dataDxfId="9" totalsRowDxfId="8">
       <calculatedColumnFormula>IF(Notenliste!F2="KP"," ",IF(Notenliste!F2="NB","nicht bestanden",Notenliste!F2))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Datum" dataDxfId="2">
+    <tableColumn id="5" name="Datum" dataDxfId="7">
       <calculatedColumnFormula>IF(Notenliste!D2&lt;&gt;0,Notenliste!$B$37," ")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Individueller Titel deutsch" dataDxfId="1"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Individueller Titel englisch" dataDxfId="0"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Anmerkungen"/>
+    <tableColumn id="6" name="Individueller Titel deutsch" dataDxfId="6"/>
+    <tableColumn id="7" name="Individueller Titel englisch" dataDxfId="5"/>
+    <tableColumn id="8" name="Anmerkungen"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1657,23 +1789,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1709,23 +1824,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1901,7 +1999,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Tabelle1"/>
   <dimension ref="A1:XFC26"/>
   <sheetViews>
@@ -1909,22 +2007,22 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="14.4" zeroHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" customWidth="1"/>
-    <col min="2" max="2" width="28.33203125" customWidth="1"/>
-    <col min="3" max="3" width="26.44140625" customWidth="1"/>
+    <col min="2" max="2" width="28.28515625" customWidth="1"/>
+    <col min="3" max="3" width="26.42578125" customWidth="1"/>
     <col min="4" max="4" width="14" customWidth="1"/>
-    <col min="5" max="5" width="18.44140625" style="13" customWidth="1"/>
-    <col min="6" max="6" width="37.109375" customWidth="1"/>
+    <col min="5" max="5" width="18.42578125" style="13" customWidth="1"/>
+    <col min="6" max="6" width="37.140625" customWidth="1"/>
     <col min="7" max="7" width="31" customWidth="1"/>
-    <col min="8" max="8" width="45.109375" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="10.33203125" hidden="1" customWidth="1"/>
-    <col min="10" max="16383" width="11.44140625" hidden="1"/>
-    <col min="16384" max="16384" width="16.44140625" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="45.140625" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="10.28515625" hidden="1" customWidth="1"/>
+    <col min="10" max="16383" width="11.42578125" hidden="1"/>
+    <col min="16384" max="16384" width="16.42578125" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="39" t="s">
         <v>24</v>
       </c>
@@ -1953,32 +2051,32 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" s="37" t="s">
+        <v>115</v>
+      </c>
+      <c r="C2" s="37" t="s">
         <v>116</v>
       </c>
-      <c r="C2" s="37" t="s">
+      <c r="D2" s="37" t="s">
         <v>117</v>
       </c>
-      <c r="D2" s="37" t="s">
+      <c r="E2" s="37" t="s">
         <v>118</v>
       </c>
-      <c r="E2" s="37" t="s">
+      <c r="F2" s="37" t="s">
         <v>119</v>
       </c>
-      <c r="F2" s="37" t="s">
+      <c r="G2" s="37" t="s">
         <v>120</v>
-      </c>
-      <c r="G2" s="37" t="s">
-        <v>121</v>
       </c>
       <c r="H2" s="37"/>
       <c r="I2" s="37"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1991,7 +2089,7 @@
       <c r="H3" s="37"/>
       <c r="I3" s="37"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2004,7 +2102,7 @@
       <c r="H4" s="37"/>
       <c r="I4" s="37"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2017,7 +2115,7 @@
       <c r="H5" s="37"/>
       <c r="I5" s="37"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2030,7 +2128,7 @@
       <c r="H6" s="37"/>
       <c r="I6" s="37"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2043,7 +2141,7 @@
       <c r="H7" s="37"/>
       <c r="I7" s="37"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -2056,7 +2154,7 @@
       <c r="H8" s="37"/>
       <c r="I8" s="37"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -2069,7 +2167,7 @@
       <c r="H9" s="37"/>
       <c r="I9" s="37"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -2082,7 +2180,7 @@
       <c r="H10" s="37"/>
       <c r="I10" s="37"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -2095,7 +2193,7 @@
       <c r="H11" s="37"/>
       <c r="I11" s="37"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -2108,7 +2206,7 @@
       <c r="H12" s="37"/>
       <c r="I12" s="37"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -2121,7 +2219,7 @@
       <c r="H13" s="37"/>
       <c r="I13" s="37"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -2134,7 +2232,7 @@
       <c r="H14" s="37"/>
       <c r="I14" s="37"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -2147,7 +2245,7 @@
       <c r="H15" s="37"/>
       <c r="I15" s="37"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -2160,7 +2258,7 @@
       <c r="H16" s="37"/>
       <c r="I16" s="37"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -2173,7 +2271,7 @@
       <c r="H17" s="37"/>
       <c r="I17" s="37"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -2186,7 +2284,7 @@
       <c r="H18" s="37"/>
       <c r="I18" s="37"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -2199,7 +2297,7 @@
       <c r="H19" s="37"/>
       <c r="I19" s="37"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -2212,7 +2310,7 @@
       <c r="H20" s="37"/>
       <c r="I20" s="37"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -2225,7 +2323,7 @@
       <c r="H21" s="37"/>
       <c r="I21" s="37"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -2238,7 +2336,7 @@
       <c r="H22" s="37"/>
       <c r="I22" s="37"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -2251,7 +2349,7 @@
       <c r="H23" s="37"/>
       <c r="I23" s="37"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -2264,7 +2362,7 @@
       <c r="H24" s="37"/>
       <c r="I24" s="37"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -2277,7 +2375,7 @@
       <c r="H25" s="37"/>
       <c r="I25" s="37"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -2301,552 +2399,552 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Tabelle2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:WVR38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="13.95" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="13.9" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.44140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="18.33203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="11.44140625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="10.6640625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="11.44140625" style="11" customWidth="1"/>
-    <col min="6" max="6" width="8.44140625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="2.33203125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="6.109375" style="2" customWidth="1"/>
-    <col min="9" max="10" width="5.6640625" style="2" customWidth="1"/>
-    <col min="11" max="11" width="8.109375" style="2" customWidth="1"/>
-    <col min="12" max="13" width="7.44140625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="15.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.28515625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" style="3" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" style="11" customWidth="1"/>
+    <col min="6" max="6" width="8.42578125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="2.28515625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="6.140625" style="2" customWidth="1"/>
+    <col min="9" max="10" width="5.7109375" style="2" customWidth="1"/>
+    <col min="11" max="11" width="8.140625" style="2" customWidth="1"/>
+    <col min="12" max="13" width="7.42578125" style="2" customWidth="1"/>
     <col min="14" max="14" width="8" style="2" customWidth="1"/>
-    <col min="15" max="15" width="2.6640625" style="1" customWidth="1"/>
-    <col min="16" max="16" width="5.6640625" style="1" customWidth="1"/>
-    <col min="17" max="17" width="5.6640625" style="2" customWidth="1"/>
-    <col min="18" max="18" width="5.6640625" style="1" customWidth="1"/>
-    <col min="19" max="19" width="2.6640625" style="1" customWidth="1"/>
-    <col min="20" max="20" width="17.6640625" style="1" hidden="1"/>
+    <col min="15" max="15" width="2.7109375" style="1" customWidth="1"/>
+    <col min="16" max="16" width="5.7109375" style="1" customWidth="1"/>
+    <col min="17" max="17" width="5.7109375" style="2" customWidth="1"/>
+    <col min="18" max="18" width="5.7109375" style="1" customWidth="1"/>
+    <col min="19" max="19" width="2.7109375" style="1" customWidth="1"/>
+    <col min="20" max="20" width="17.7109375" style="1" hidden="1"/>
     <col min="21" max="21" width="16" style="1" hidden="1"/>
-    <col min="22" max="22" width="17.6640625" style="1" hidden="1"/>
+    <col min="22" max="22" width="17.7109375" style="1" hidden="1"/>
     <col min="23" max="23" width="3" style="1" hidden="1"/>
-    <col min="24" max="248" width="11.44140625" style="1" hidden="1"/>
-    <col min="249" max="249" width="15.44140625" style="1" hidden="1"/>
-    <col min="250" max="250" width="11.44140625" style="1" hidden="1"/>
-    <col min="251" max="251" width="15.6640625" style="1" hidden="1"/>
-    <col min="252" max="252" width="21.77734375" style="1" hidden="1"/>
-    <col min="253" max="255" width="11.44140625" style="1" hidden="1"/>
+    <col min="24" max="248" width="11.42578125" style="1" hidden="1"/>
+    <col min="249" max="249" width="15.42578125" style="1" hidden="1"/>
+    <col min="250" max="250" width="11.42578125" style="1" hidden="1"/>
+    <col min="251" max="251" width="15.7109375" style="1" hidden="1"/>
+    <col min="252" max="252" width="21.7109375" style="1" hidden="1"/>
+    <col min="253" max="255" width="11.42578125" style="1" hidden="1"/>
     <col min="256" max="256" width="16" style="1" hidden="1"/>
-    <col min="257" max="257" width="20.44140625" style="1" hidden="1"/>
-    <col min="258" max="504" width="11.44140625" style="1" hidden="1"/>
-    <col min="505" max="505" width="15.44140625" style="1" hidden="1"/>
-    <col min="506" max="506" width="11.44140625" style="1" hidden="1"/>
-    <col min="507" max="507" width="15.6640625" style="1" hidden="1"/>
-    <col min="508" max="508" width="21.77734375" style="1" hidden="1"/>
-    <col min="509" max="511" width="11.44140625" style="1" hidden="1"/>
+    <col min="257" max="257" width="20.42578125" style="1" hidden="1"/>
+    <col min="258" max="504" width="11.42578125" style="1" hidden="1"/>
+    <col min="505" max="505" width="15.42578125" style="1" hidden="1"/>
+    <col min="506" max="506" width="11.42578125" style="1" hidden="1"/>
+    <col min="507" max="507" width="15.7109375" style="1" hidden="1"/>
+    <col min="508" max="508" width="21.7109375" style="1" hidden="1"/>
+    <col min="509" max="511" width="11.42578125" style="1" hidden="1"/>
     <col min="512" max="512" width="16" style="1" hidden="1"/>
-    <col min="513" max="513" width="20.44140625" style="1" hidden="1"/>
-    <col min="514" max="760" width="11.44140625" style="1" hidden="1"/>
-    <col min="761" max="761" width="15.44140625" style="1" hidden="1"/>
-    <col min="762" max="762" width="11.44140625" style="1" hidden="1"/>
-    <col min="763" max="763" width="15.6640625" style="1" hidden="1"/>
-    <col min="764" max="764" width="21.77734375" style="1" hidden="1"/>
-    <col min="765" max="767" width="11.44140625" style="1" hidden="1"/>
+    <col min="513" max="513" width="20.42578125" style="1" hidden="1"/>
+    <col min="514" max="760" width="11.42578125" style="1" hidden="1"/>
+    <col min="761" max="761" width="15.42578125" style="1" hidden="1"/>
+    <col min="762" max="762" width="11.42578125" style="1" hidden="1"/>
+    <col min="763" max="763" width="15.7109375" style="1" hidden="1"/>
+    <col min="764" max="764" width="21.7109375" style="1" hidden="1"/>
+    <col min="765" max="767" width="11.42578125" style="1" hidden="1"/>
     <col min="768" max="768" width="16" style="1" hidden="1"/>
-    <col min="769" max="769" width="20.44140625" style="1" hidden="1"/>
-    <col min="770" max="1016" width="11.44140625" style="1" hidden="1"/>
-    <col min="1017" max="1017" width="15.44140625" style="1" hidden="1"/>
-    <col min="1018" max="1018" width="11.44140625" style="1" hidden="1"/>
-    <col min="1019" max="1019" width="15.6640625" style="1" hidden="1"/>
-    <col min="1020" max="1020" width="21.77734375" style="1" hidden="1"/>
-    <col min="1021" max="1023" width="11.44140625" style="1" hidden="1"/>
+    <col min="769" max="769" width="20.42578125" style="1" hidden="1"/>
+    <col min="770" max="1016" width="11.42578125" style="1" hidden="1"/>
+    <col min="1017" max="1017" width="15.42578125" style="1" hidden="1"/>
+    <col min="1018" max="1018" width="11.42578125" style="1" hidden="1"/>
+    <col min="1019" max="1019" width="15.7109375" style="1" hidden="1"/>
+    <col min="1020" max="1020" width="21.7109375" style="1" hidden="1"/>
+    <col min="1021" max="1023" width="11.42578125" style="1" hidden="1"/>
     <col min="1024" max="1024" width="16" style="1" hidden="1"/>
-    <col min="1025" max="1025" width="20.44140625" style="1" hidden="1"/>
-    <col min="1026" max="1272" width="11.44140625" style="1" hidden="1"/>
-    <col min="1273" max="1273" width="15.44140625" style="1" hidden="1"/>
-    <col min="1274" max="1274" width="11.44140625" style="1" hidden="1"/>
-    <col min="1275" max="1275" width="15.6640625" style="1" hidden="1"/>
-    <col min="1276" max="1276" width="21.77734375" style="1" hidden="1"/>
-    <col min="1277" max="1279" width="11.44140625" style="1" hidden="1"/>
+    <col min="1025" max="1025" width="20.42578125" style="1" hidden="1"/>
+    <col min="1026" max="1272" width="11.42578125" style="1" hidden="1"/>
+    <col min="1273" max="1273" width="15.42578125" style="1" hidden="1"/>
+    <col min="1274" max="1274" width="11.42578125" style="1" hidden="1"/>
+    <col min="1275" max="1275" width="15.7109375" style="1" hidden="1"/>
+    <col min="1276" max="1276" width="21.7109375" style="1" hidden="1"/>
+    <col min="1277" max="1279" width="11.42578125" style="1" hidden="1"/>
     <col min="1280" max="1280" width="16" style="1" hidden="1"/>
-    <col min="1281" max="1281" width="20.44140625" style="1" hidden="1"/>
-    <col min="1282" max="1528" width="11.44140625" style="1" hidden="1"/>
-    <col min="1529" max="1529" width="15.44140625" style="1" hidden="1"/>
-    <col min="1530" max="1530" width="11.44140625" style="1" hidden="1"/>
-    <col min="1531" max="1531" width="15.6640625" style="1" hidden="1"/>
-    <col min="1532" max="1532" width="21.77734375" style="1" hidden="1"/>
-    <col min="1533" max="1535" width="11.44140625" style="1" hidden="1"/>
+    <col min="1281" max="1281" width="20.42578125" style="1" hidden="1"/>
+    <col min="1282" max="1528" width="11.42578125" style="1" hidden="1"/>
+    <col min="1529" max="1529" width="15.42578125" style="1" hidden="1"/>
+    <col min="1530" max="1530" width="11.42578125" style="1" hidden="1"/>
+    <col min="1531" max="1531" width="15.7109375" style="1" hidden="1"/>
+    <col min="1532" max="1532" width="21.7109375" style="1" hidden="1"/>
+    <col min="1533" max="1535" width="11.42578125" style="1" hidden="1"/>
     <col min="1536" max="1536" width="16" style="1" hidden="1"/>
-    <col min="1537" max="1537" width="20.44140625" style="1" hidden="1"/>
-    <col min="1538" max="1784" width="11.44140625" style="1" hidden="1"/>
-    <col min="1785" max="1785" width="15.44140625" style="1" hidden="1"/>
-    <col min="1786" max="1786" width="11.44140625" style="1" hidden="1"/>
-    <col min="1787" max="1787" width="15.6640625" style="1" hidden="1"/>
-    <col min="1788" max="1788" width="21.77734375" style="1" hidden="1"/>
-    <col min="1789" max="1791" width="11.44140625" style="1" hidden="1"/>
+    <col min="1537" max="1537" width="20.42578125" style="1" hidden="1"/>
+    <col min="1538" max="1784" width="11.42578125" style="1" hidden="1"/>
+    <col min="1785" max="1785" width="15.42578125" style="1" hidden="1"/>
+    <col min="1786" max="1786" width="11.42578125" style="1" hidden="1"/>
+    <col min="1787" max="1787" width="15.7109375" style="1" hidden="1"/>
+    <col min="1788" max="1788" width="21.7109375" style="1" hidden="1"/>
+    <col min="1789" max="1791" width="11.42578125" style="1" hidden="1"/>
     <col min="1792" max="1792" width="16" style="1" hidden="1"/>
-    <col min="1793" max="1793" width="20.44140625" style="1" hidden="1"/>
-    <col min="1794" max="2040" width="11.44140625" style="1" hidden="1"/>
-    <col min="2041" max="2041" width="15.44140625" style="1" hidden="1"/>
-    <col min="2042" max="2042" width="11.44140625" style="1" hidden="1"/>
-    <col min="2043" max="2043" width="15.6640625" style="1" hidden="1"/>
-    <col min="2044" max="2044" width="21.77734375" style="1" hidden="1"/>
-    <col min="2045" max="2047" width="11.44140625" style="1" hidden="1"/>
+    <col min="1793" max="1793" width="20.42578125" style="1" hidden="1"/>
+    <col min="1794" max="2040" width="11.42578125" style="1" hidden="1"/>
+    <col min="2041" max="2041" width="15.42578125" style="1" hidden="1"/>
+    <col min="2042" max="2042" width="11.42578125" style="1" hidden="1"/>
+    <col min="2043" max="2043" width="15.7109375" style="1" hidden="1"/>
+    <col min="2044" max="2044" width="21.7109375" style="1" hidden="1"/>
+    <col min="2045" max="2047" width="11.42578125" style="1" hidden="1"/>
     <col min="2048" max="2048" width="16" style="1" hidden="1"/>
-    <col min="2049" max="2049" width="20.44140625" style="1" hidden="1"/>
-    <col min="2050" max="2296" width="11.44140625" style="1" hidden="1"/>
-    <col min="2297" max="2297" width="15.44140625" style="1" hidden="1"/>
-    <col min="2298" max="2298" width="11.44140625" style="1" hidden="1"/>
-    <col min="2299" max="2299" width="15.6640625" style="1" hidden="1"/>
-    <col min="2300" max="2300" width="21.77734375" style="1" hidden="1"/>
-    <col min="2301" max="2303" width="11.44140625" style="1" hidden="1"/>
+    <col min="2049" max="2049" width="20.42578125" style="1" hidden="1"/>
+    <col min="2050" max="2296" width="11.42578125" style="1" hidden="1"/>
+    <col min="2297" max="2297" width="15.42578125" style="1" hidden="1"/>
+    <col min="2298" max="2298" width="11.42578125" style="1" hidden="1"/>
+    <col min="2299" max="2299" width="15.7109375" style="1" hidden="1"/>
+    <col min="2300" max="2300" width="21.7109375" style="1" hidden="1"/>
+    <col min="2301" max="2303" width="11.42578125" style="1" hidden="1"/>
     <col min="2304" max="2304" width="16" style="1" hidden="1"/>
-    <col min="2305" max="2305" width="20.44140625" style="1" hidden="1"/>
-    <col min="2306" max="2552" width="11.44140625" style="1" hidden="1"/>
-    <col min="2553" max="2553" width="15.44140625" style="1" hidden="1"/>
-    <col min="2554" max="2554" width="11.44140625" style="1" hidden="1"/>
-    <col min="2555" max="2555" width="15.6640625" style="1" hidden="1"/>
-    <col min="2556" max="2556" width="21.77734375" style="1" hidden="1"/>
-    <col min="2557" max="2559" width="11.44140625" style="1" hidden="1"/>
+    <col min="2305" max="2305" width="20.42578125" style="1" hidden="1"/>
+    <col min="2306" max="2552" width="11.42578125" style="1" hidden="1"/>
+    <col min="2553" max="2553" width="15.42578125" style="1" hidden="1"/>
+    <col min="2554" max="2554" width="11.42578125" style="1" hidden="1"/>
+    <col min="2555" max="2555" width="15.7109375" style="1" hidden="1"/>
+    <col min="2556" max="2556" width="21.7109375" style="1" hidden="1"/>
+    <col min="2557" max="2559" width="11.42578125" style="1" hidden="1"/>
     <col min="2560" max="2560" width="16" style="1" hidden="1"/>
-    <col min="2561" max="2561" width="20.44140625" style="1" hidden="1"/>
-    <col min="2562" max="2808" width="11.44140625" style="1" hidden="1"/>
-    <col min="2809" max="2809" width="15.44140625" style="1" hidden="1"/>
-    <col min="2810" max="2810" width="11.44140625" style="1" hidden="1"/>
-    <col min="2811" max="2811" width="15.6640625" style="1" hidden="1"/>
-    <col min="2812" max="2812" width="21.77734375" style="1" hidden="1"/>
-    <col min="2813" max="2815" width="11.44140625" style="1" hidden="1"/>
+    <col min="2561" max="2561" width="20.42578125" style="1" hidden="1"/>
+    <col min="2562" max="2808" width="11.42578125" style="1" hidden="1"/>
+    <col min="2809" max="2809" width="15.42578125" style="1" hidden="1"/>
+    <col min="2810" max="2810" width="11.42578125" style="1" hidden="1"/>
+    <col min="2811" max="2811" width="15.7109375" style="1" hidden="1"/>
+    <col min="2812" max="2812" width="21.7109375" style="1" hidden="1"/>
+    <col min="2813" max="2815" width="11.42578125" style="1" hidden="1"/>
     <col min="2816" max="2816" width="16" style="1" hidden="1"/>
-    <col min="2817" max="2817" width="20.44140625" style="1" hidden="1"/>
-    <col min="2818" max="3064" width="11.44140625" style="1" hidden="1"/>
-    <col min="3065" max="3065" width="15.44140625" style="1" hidden="1"/>
-    <col min="3066" max="3066" width="11.44140625" style="1" hidden="1"/>
-    <col min="3067" max="3067" width="15.6640625" style="1" hidden="1"/>
-    <col min="3068" max="3068" width="21.77734375" style="1" hidden="1"/>
-    <col min="3069" max="3071" width="11.44140625" style="1" hidden="1"/>
+    <col min="2817" max="2817" width="20.42578125" style="1" hidden="1"/>
+    <col min="2818" max="3064" width="11.42578125" style="1" hidden="1"/>
+    <col min="3065" max="3065" width="15.42578125" style="1" hidden="1"/>
+    <col min="3066" max="3066" width="11.42578125" style="1" hidden="1"/>
+    <col min="3067" max="3067" width="15.7109375" style="1" hidden="1"/>
+    <col min="3068" max="3068" width="21.7109375" style="1" hidden="1"/>
+    <col min="3069" max="3071" width="11.42578125" style="1" hidden="1"/>
     <col min="3072" max="3072" width="16" style="1" hidden="1"/>
-    <col min="3073" max="3073" width="20.44140625" style="1" hidden="1"/>
-    <col min="3074" max="3320" width="11.44140625" style="1" hidden="1"/>
-    <col min="3321" max="3321" width="15.44140625" style="1" hidden="1"/>
-    <col min="3322" max="3322" width="11.44140625" style="1" hidden="1"/>
-    <col min="3323" max="3323" width="15.6640625" style="1" hidden="1"/>
-    <col min="3324" max="3324" width="21.77734375" style="1" hidden="1"/>
-    <col min="3325" max="3327" width="11.44140625" style="1" hidden="1"/>
+    <col min="3073" max="3073" width="20.42578125" style="1" hidden="1"/>
+    <col min="3074" max="3320" width="11.42578125" style="1" hidden="1"/>
+    <col min="3321" max="3321" width="15.42578125" style="1" hidden="1"/>
+    <col min="3322" max="3322" width="11.42578125" style="1" hidden="1"/>
+    <col min="3323" max="3323" width="15.7109375" style="1" hidden="1"/>
+    <col min="3324" max="3324" width="21.7109375" style="1" hidden="1"/>
+    <col min="3325" max="3327" width="11.42578125" style="1" hidden="1"/>
     <col min="3328" max="3328" width="16" style="1" hidden="1"/>
-    <col min="3329" max="3329" width="20.44140625" style="1" hidden="1"/>
-    <col min="3330" max="3576" width="11.44140625" style="1" hidden="1"/>
-    <col min="3577" max="3577" width="15.44140625" style="1" hidden="1"/>
-    <col min="3578" max="3578" width="11.44140625" style="1" hidden="1"/>
-    <col min="3579" max="3579" width="15.6640625" style="1" hidden="1"/>
-    <col min="3580" max="3580" width="21.77734375" style="1" hidden="1"/>
-    <col min="3581" max="3583" width="11.44140625" style="1" hidden="1"/>
+    <col min="3329" max="3329" width="20.42578125" style="1" hidden="1"/>
+    <col min="3330" max="3576" width="11.42578125" style="1" hidden="1"/>
+    <col min="3577" max="3577" width="15.42578125" style="1" hidden="1"/>
+    <col min="3578" max="3578" width="11.42578125" style="1" hidden="1"/>
+    <col min="3579" max="3579" width="15.7109375" style="1" hidden="1"/>
+    <col min="3580" max="3580" width="21.7109375" style="1" hidden="1"/>
+    <col min="3581" max="3583" width="11.42578125" style="1" hidden="1"/>
     <col min="3584" max="3584" width="16" style="1" hidden="1"/>
-    <col min="3585" max="3585" width="20.44140625" style="1" hidden="1"/>
-    <col min="3586" max="3832" width="11.44140625" style="1" hidden="1"/>
-    <col min="3833" max="3833" width="15.44140625" style="1" hidden="1"/>
-    <col min="3834" max="3834" width="11.44140625" style="1" hidden="1"/>
-    <col min="3835" max="3835" width="15.6640625" style="1" hidden="1"/>
-    <col min="3836" max="3836" width="21.77734375" style="1" hidden="1"/>
-    <col min="3837" max="3839" width="11.44140625" style="1" hidden="1"/>
+    <col min="3585" max="3585" width="20.42578125" style="1" hidden="1"/>
+    <col min="3586" max="3832" width="11.42578125" style="1" hidden="1"/>
+    <col min="3833" max="3833" width="15.42578125" style="1" hidden="1"/>
+    <col min="3834" max="3834" width="11.42578125" style="1" hidden="1"/>
+    <col min="3835" max="3835" width="15.7109375" style="1" hidden="1"/>
+    <col min="3836" max="3836" width="21.7109375" style="1" hidden="1"/>
+    <col min="3837" max="3839" width="11.42578125" style="1" hidden="1"/>
     <col min="3840" max="3840" width="16" style="1" hidden="1"/>
-    <col min="3841" max="3841" width="20.44140625" style="1" hidden="1"/>
-    <col min="3842" max="4088" width="11.44140625" style="1" hidden="1"/>
-    <col min="4089" max="4089" width="15.44140625" style="1" hidden="1"/>
-    <col min="4090" max="4090" width="11.44140625" style="1" hidden="1"/>
-    <col min="4091" max="4091" width="15.6640625" style="1" hidden="1"/>
-    <col min="4092" max="4092" width="21.77734375" style="1" hidden="1"/>
-    <col min="4093" max="4095" width="11.44140625" style="1" hidden="1"/>
+    <col min="3841" max="3841" width="20.42578125" style="1" hidden="1"/>
+    <col min="3842" max="4088" width="11.42578125" style="1" hidden="1"/>
+    <col min="4089" max="4089" width="15.42578125" style="1" hidden="1"/>
+    <col min="4090" max="4090" width="11.42578125" style="1" hidden="1"/>
+    <col min="4091" max="4091" width="15.7109375" style="1" hidden="1"/>
+    <col min="4092" max="4092" width="21.7109375" style="1" hidden="1"/>
+    <col min="4093" max="4095" width="11.42578125" style="1" hidden="1"/>
     <col min="4096" max="4096" width="16" style="1" hidden="1"/>
-    <col min="4097" max="4097" width="20.44140625" style="1" hidden="1"/>
-    <col min="4098" max="4344" width="11.44140625" style="1" hidden="1"/>
-    <col min="4345" max="4345" width="15.44140625" style="1" hidden="1"/>
-    <col min="4346" max="4346" width="11.44140625" style="1" hidden="1"/>
-    <col min="4347" max="4347" width="15.6640625" style="1" hidden="1"/>
-    <col min="4348" max="4348" width="21.77734375" style="1" hidden="1"/>
-    <col min="4349" max="4351" width="11.44140625" style="1" hidden="1"/>
+    <col min="4097" max="4097" width="20.42578125" style="1" hidden="1"/>
+    <col min="4098" max="4344" width="11.42578125" style="1" hidden="1"/>
+    <col min="4345" max="4345" width="15.42578125" style="1" hidden="1"/>
+    <col min="4346" max="4346" width="11.42578125" style="1" hidden="1"/>
+    <col min="4347" max="4347" width="15.7109375" style="1" hidden="1"/>
+    <col min="4348" max="4348" width="21.7109375" style="1" hidden="1"/>
+    <col min="4349" max="4351" width="11.42578125" style="1" hidden="1"/>
     <col min="4352" max="4352" width="16" style="1" hidden="1"/>
-    <col min="4353" max="4353" width="20.44140625" style="1" hidden="1"/>
-    <col min="4354" max="4600" width="11.44140625" style="1" hidden="1"/>
-    <col min="4601" max="4601" width="15.44140625" style="1" hidden="1"/>
-    <col min="4602" max="4602" width="11.44140625" style="1" hidden="1"/>
-    <col min="4603" max="4603" width="15.6640625" style="1" hidden="1"/>
-    <col min="4604" max="4604" width="21.77734375" style="1" hidden="1"/>
-    <col min="4605" max="4607" width="11.44140625" style="1" hidden="1"/>
+    <col min="4353" max="4353" width="20.42578125" style="1" hidden="1"/>
+    <col min="4354" max="4600" width="11.42578125" style="1" hidden="1"/>
+    <col min="4601" max="4601" width="15.42578125" style="1" hidden="1"/>
+    <col min="4602" max="4602" width="11.42578125" style="1" hidden="1"/>
+    <col min="4603" max="4603" width="15.7109375" style="1" hidden="1"/>
+    <col min="4604" max="4604" width="21.7109375" style="1" hidden="1"/>
+    <col min="4605" max="4607" width="11.42578125" style="1" hidden="1"/>
     <col min="4608" max="4608" width="16" style="1" hidden="1"/>
-    <col min="4609" max="4609" width="20.44140625" style="1" hidden="1"/>
-    <col min="4610" max="4856" width="11.44140625" style="1" hidden="1"/>
-    <col min="4857" max="4857" width="15.44140625" style="1" hidden="1"/>
-    <col min="4858" max="4858" width="11.44140625" style="1" hidden="1"/>
-    <col min="4859" max="4859" width="15.6640625" style="1" hidden="1"/>
-    <col min="4860" max="4860" width="21.77734375" style="1" hidden="1"/>
-    <col min="4861" max="4863" width="11.44140625" style="1" hidden="1"/>
+    <col min="4609" max="4609" width="20.42578125" style="1" hidden="1"/>
+    <col min="4610" max="4856" width="11.42578125" style="1" hidden="1"/>
+    <col min="4857" max="4857" width="15.42578125" style="1" hidden="1"/>
+    <col min="4858" max="4858" width="11.42578125" style="1" hidden="1"/>
+    <col min="4859" max="4859" width="15.7109375" style="1" hidden="1"/>
+    <col min="4860" max="4860" width="21.7109375" style="1" hidden="1"/>
+    <col min="4861" max="4863" width="11.42578125" style="1" hidden="1"/>
     <col min="4864" max="4864" width="16" style="1" hidden="1"/>
-    <col min="4865" max="4865" width="20.44140625" style="1" hidden="1"/>
-    <col min="4866" max="5112" width="11.44140625" style="1" hidden="1"/>
-    <col min="5113" max="5113" width="15.44140625" style="1" hidden="1"/>
-    <col min="5114" max="5114" width="11.44140625" style="1" hidden="1"/>
-    <col min="5115" max="5115" width="15.6640625" style="1" hidden="1"/>
-    <col min="5116" max="5116" width="21.77734375" style="1" hidden="1"/>
-    <col min="5117" max="5119" width="11.44140625" style="1" hidden="1"/>
+    <col min="4865" max="4865" width="20.42578125" style="1" hidden="1"/>
+    <col min="4866" max="5112" width="11.42578125" style="1" hidden="1"/>
+    <col min="5113" max="5113" width="15.42578125" style="1" hidden="1"/>
+    <col min="5114" max="5114" width="11.42578125" style="1" hidden="1"/>
+    <col min="5115" max="5115" width="15.7109375" style="1" hidden="1"/>
+    <col min="5116" max="5116" width="21.7109375" style="1" hidden="1"/>
+    <col min="5117" max="5119" width="11.42578125" style="1" hidden="1"/>
     <col min="5120" max="5120" width="16" style="1" hidden="1"/>
-    <col min="5121" max="5121" width="20.44140625" style="1" hidden="1"/>
-    <col min="5122" max="5368" width="11.44140625" style="1" hidden="1"/>
-    <col min="5369" max="5369" width="15.44140625" style="1" hidden="1"/>
-    <col min="5370" max="5370" width="11.44140625" style="1" hidden="1"/>
-    <col min="5371" max="5371" width="15.6640625" style="1" hidden="1"/>
-    <col min="5372" max="5372" width="21.77734375" style="1" hidden="1"/>
-    <col min="5373" max="5375" width="11.44140625" style="1" hidden="1"/>
+    <col min="5121" max="5121" width="20.42578125" style="1" hidden="1"/>
+    <col min="5122" max="5368" width="11.42578125" style="1" hidden="1"/>
+    <col min="5369" max="5369" width="15.42578125" style="1" hidden="1"/>
+    <col min="5370" max="5370" width="11.42578125" style="1" hidden="1"/>
+    <col min="5371" max="5371" width="15.7109375" style="1" hidden="1"/>
+    <col min="5372" max="5372" width="21.7109375" style="1" hidden="1"/>
+    <col min="5373" max="5375" width="11.42578125" style="1" hidden="1"/>
     <col min="5376" max="5376" width="16" style="1" hidden="1"/>
-    <col min="5377" max="5377" width="20.44140625" style="1" hidden="1"/>
-    <col min="5378" max="5624" width="11.44140625" style="1" hidden="1"/>
-    <col min="5625" max="5625" width="15.44140625" style="1" hidden="1"/>
-    <col min="5626" max="5626" width="11.44140625" style="1" hidden="1"/>
-    <col min="5627" max="5627" width="15.6640625" style="1" hidden="1"/>
-    <col min="5628" max="5628" width="21.77734375" style="1" hidden="1"/>
-    <col min="5629" max="5631" width="11.44140625" style="1" hidden="1"/>
+    <col min="5377" max="5377" width="20.42578125" style="1" hidden="1"/>
+    <col min="5378" max="5624" width="11.42578125" style="1" hidden="1"/>
+    <col min="5625" max="5625" width="15.42578125" style="1" hidden="1"/>
+    <col min="5626" max="5626" width="11.42578125" style="1" hidden="1"/>
+    <col min="5627" max="5627" width="15.7109375" style="1" hidden="1"/>
+    <col min="5628" max="5628" width="21.7109375" style="1" hidden="1"/>
+    <col min="5629" max="5631" width="11.42578125" style="1" hidden="1"/>
     <col min="5632" max="5632" width="16" style="1" hidden="1"/>
-    <col min="5633" max="5633" width="20.44140625" style="1" hidden="1"/>
-    <col min="5634" max="5880" width="11.44140625" style="1" hidden="1"/>
-    <col min="5881" max="5881" width="15.44140625" style="1" hidden="1"/>
-    <col min="5882" max="5882" width="11.44140625" style="1" hidden="1"/>
-    <col min="5883" max="5883" width="15.6640625" style="1" hidden="1"/>
-    <col min="5884" max="5884" width="21.77734375" style="1" hidden="1"/>
-    <col min="5885" max="5887" width="11.44140625" style="1" hidden="1"/>
+    <col min="5633" max="5633" width="20.42578125" style="1" hidden="1"/>
+    <col min="5634" max="5880" width="11.42578125" style="1" hidden="1"/>
+    <col min="5881" max="5881" width="15.42578125" style="1" hidden="1"/>
+    <col min="5882" max="5882" width="11.42578125" style="1" hidden="1"/>
+    <col min="5883" max="5883" width="15.7109375" style="1" hidden="1"/>
+    <col min="5884" max="5884" width="21.7109375" style="1" hidden="1"/>
+    <col min="5885" max="5887" width="11.42578125" style="1" hidden="1"/>
     <col min="5888" max="5888" width="16" style="1" hidden="1"/>
-    <col min="5889" max="5889" width="20.44140625" style="1" hidden="1"/>
-    <col min="5890" max="6136" width="11.44140625" style="1" hidden="1"/>
-    <col min="6137" max="6137" width="15.44140625" style="1" hidden="1"/>
-    <col min="6138" max="6138" width="11.44140625" style="1" hidden="1"/>
-    <col min="6139" max="6139" width="15.6640625" style="1" hidden="1"/>
-    <col min="6140" max="6140" width="21.77734375" style="1" hidden="1"/>
-    <col min="6141" max="6143" width="11.44140625" style="1" hidden="1"/>
+    <col min="5889" max="5889" width="20.42578125" style="1" hidden="1"/>
+    <col min="5890" max="6136" width="11.42578125" style="1" hidden="1"/>
+    <col min="6137" max="6137" width="15.42578125" style="1" hidden="1"/>
+    <col min="6138" max="6138" width="11.42578125" style="1" hidden="1"/>
+    <col min="6139" max="6139" width="15.7109375" style="1" hidden="1"/>
+    <col min="6140" max="6140" width="21.7109375" style="1" hidden="1"/>
+    <col min="6141" max="6143" width="11.42578125" style="1" hidden="1"/>
     <col min="6144" max="6144" width="16" style="1" hidden="1"/>
-    <col min="6145" max="6145" width="20.44140625" style="1" hidden="1"/>
-    <col min="6146" max="6392" width="11.44140625" style="1" hidden="1"/>
-    <col min="6393" max="6393" width="15.44140625" style="1" hidden="1"/>
-    <col min="6394" max="6394" width="11.44140625" style="1" hidden="1"/>
-    <col min="6395" max="6395" width="15.6640625" style="1" hidden="1"/>
-    <col min="6396" max="6396" width="21.77734375" style="1" hidden="1"/>
-    <col min="6397" max="6399" width="11.44140625" style="1" hidden="1"/>
+    <col min="6145" max="6145" width="20.42578125" style="1" hidden="1"/>
+    <col min="6146" max="6392" width="11.42578125" style="1" hidden="1"/>
+    <col min="6393" max="6393" width="15.42578125" style="1" hidden="1"/>
+    <col min="6394" max="6394" width="11.42578125" style="1" hidden="1"/>
+    <col min="6395" max="6395" width="15.7109375" style="1" hidden="1"/>
+    <col min="6396" max="6396" width="21.7109375" style="1" hidden="1"/>
+    <col min="6397" max="6399" width="11.42578125" style="1" hidden="1"/>
     <col min="6400" max="6400" width="16" style="1" hidden="1"/>
-    <col min="6401" max="6401" width="20.44140625" style="1" hidden="1"/>
-    <col min="6402" max="6648" width="11.44140625" style="1" hidden="1"/>
-    <col min="6649" max="6649" width="15.44140625" style="1" hidden="1"/>
-    <col min="6650" max="6650" width="11.44140625" style="1" hidden="1"/>
-    <col min="6651" max="6651" width="15.6640625" style="1" hidden="1"/>
-    <col min="6652" max="6652" width="21.77734375" style="1" hidden="1"/>
-    <col min="6653" max="6655" width="11.44140625" style="1" hidden="1"/>
+    <col min="6401" max="6401" width="20.42578125" style="1" hidden="1"/>
+    <col min="6402" max="6648" width="11.42578125" style="1" hidden="1"/>
+    <col min="6649" max="6649" width="15.42578125" style="1" hidden="1"/>
+    <col min="6650" max="6650" width="11.42578125" style="1" hidden="1"/>
+    <col min="6651" max="6651" width="15.7109375" style="1" hidden="1"/>
+    <col min="6652" max="6652" width="21.7109375" style="1" hidden="1"/>
+    <col min="6653" max="6655" width="11.42578125" style="1" hidden="1"/>
     <col min="6656" max="6656" width="16" style="1" hidden="1"/>
-    <col min="6657" max="6657" width="20.44140625" style="1" hidden="1"/>
-    <col min="6658" max="6904" width="11.44140625" style="1" hidden="1"/>
-    <col min="6905" max="6905" width="15.44140625" style="1" hidden="1"/>
-    <col min="6906" max="6906" width="11.44140625" style="1" hidden="1"/>
-    <col min="6907" max="6907" width="15.6640625" style="1" hidden="1"/>
-    <col min="6908" max="6908" width="21.77734375" style="1" hidden="1"/>
-    <col min="6909" max="6911" width="11.44140625" style="1" hidden="1"/>
+    <col min="6657" max="6657" width="20.42578125" style="1" hidden="1"/>
+    <col min="6658" max="6904" width="11.42578125" style="1" hidden="1"/>
+    <col min="6905" max="6905" width="15.42578125" style="1" hidden="1"/>
+    <col min="6906" max="6906" width="11.42578125" style="1" hidden="1"/>
+    <col min="6907" max="6907" width="15.7109375" style="1" hidden="1"/>
+    <col min="6908" max="6908" width="21.7109375" style="1" hidden="1"/>
+    <col min="6909" max="6911" width="11.42578125" style="1" hidden="1"/>
     <col min="6912" max="6912" width="16" style="1" hidden="1"/>
-    <col min="6913" max="6913" width="20.44140625" style="1" hidden="1"/>
-    <col min="6914" max="7160" width="11.44140625" style="1" hidden="1"/>
-    <col min="7161" max="7161" width="15.44140625" style="1" hidden="1"/>
-    <col min="7162" max="7162" width="11.44140625" style="1" hidden="1"/>
-    <col min="7163" max="7163" width="15.6640625" style="1" hidden="1"/>
-    <col min="7164" max="7164" width="21.77734375" style="1" hidden="1"/>
-    <col min="7165" max="7167" width="11.44140625" style="1" hidden="1"/>
+    <col min="6913" max="6913" width="20.42578125" style="1" hidden="1"/>
+    <col min="6914" max="7160" width="11.42578125" style="1" hidden="1"/>
+    <col min="7161" max="7161" width="15.42578125" style="1" hidden="1"/>
+    <col min="7162" max="7162" width="11.42578125" style="1" hidden="1"/>
+    <col min="7163" max="7163" width="15.7109375" style="1" hidden="1"/>
+    <col min="7164" max="7164" width="21.7109375" style="1" hidden="1"/>
+    <col min="7165" max="7167" width="11.42578125" style="1" hidden="1"/>
     <col min="7168" max="7168" width="16" style="1" hidden="1"/>
-    <col min="7169" max="7169" width="20.44140625" style="1" hidden="1"/>
-    <col min="7170" max="7416" width="11.44140625" style="1" hidden="1"/>
-    <col min="7417" max="7417" width="15.44140625" style="1" hidden="1"/>
-    <col min="7418" max="7418" width="11.44140625" style="1" hidden="1"/>
-    <col min="7419" max="7419" width="15.6640625" style="1" hidden="1"/>
-    <col min="7420" max="7420" width="21.77734375" style="1" hidden="1"/>
-    <col min="7421" max="7423" width="11.44140625" style="1" hidden="1"/>
+    <col min="7169" max="7169" width="20.42578125" style="1" hidden="1"/>
+    <col min="7170" max="7416" width="11.42578125" style="1" hidden="1"/>
+    <col min="7417" max="7417" width="15.42578125" style="1" hidden="1"/>
+    <col min="7418" max="7418" width="11.42578125" style="1" hidden="1"/>
+    <col min="7419" max="7419" width="15.7109375" style="1" hidden="1"/>
+    <col min="7420" max="7420" width="21.7109375" style="1" hidden="1"/>
+    <col min="7421" max="7423" width="11.42578125" style="1" hidden="1"/>
     <col min="7424" max="7424" width="16" style="1" hidden="1"/>
-    <col min="7425" max="7425" width="20.44140625" style="1" hidden="1"/>
-    <col min="7426" max="7672" width="11.44140625" style="1" hidden="1"/>
-    <col min="7673" max="7673" width="15.44140625" style="1" hidden="1"/>
-    <col min="7674" max="7674" width="11.44140625" style="1" hidden="1"/>
-    <col min="7675" max="7675" width="15.6640625" style="1" hidden="1"/>
-    <col min="7676" max="7676" width="21.77734375" style="1" hidden="1"/>
-    <col min="7677" max="7679" width="11.44140625" style="1" hidden="1"/>
+    <col min="7425" max="7425" width="20.42578125" style="1" hidden="1"/>
+    <col min="7426" max="7672" width="11.42578125" style="1" hidden="1"/>
+    <col min="7673" max="7673" width="15.42578125" style="1" hidden="1"/>
+    <col min="7674" max="7674" width="11.42578125" style="1" hidden="1"/>
+    <col min="7675" max="7675" width="15.7109375" style="1" hidden="1"/>
+    <col min="7676" max="7676" width="21.7109375" style="1" hidden="1"/>
+    <col min="7677" max="7679" width="11.42578125" style="1" hidden="1"/>
     <col min="7680" max="7680" width="16" style="1" hidden="1"/>
-    <col min="7681" max="7681" width="20.44140625" style="1" hidden="1"/>
-    <col min="7682" max="7928" width="11.44140625" style="1" hidden="1"/>
-    <col min="7929" max="7929" width="15.44140625" style="1" hidden="1"/>
-    <col min="7930" max="7930" width="11.44140625" style="1" hidden="1"/>
-    <col min="7931" max="7931" width="15.6640625" style="1" hidden="1"/>
-    <col min="7932" max="7932" width="21.77734375" style="1" hidden="1"/>
-    <col min="7933" max="7935" width="11.44140625" style="1" hidden="1"/>
+    <col min="7681" max="7681" width="20.42578125" style="1" hidden="1"/>
+    <col min="7682" max="7928" width="11.42578125" style="1" hidden="1"/>
+    <col min="7929" max="7929" width="15.42578125" style="1" hidden="1"/>
+    <col min="7930" max="7930" width="11.42578125" style="1" hidden="1"/>
+    <col min="7931" max="7931" width="15.7109375" style="1" hidden="1"/>
+    <col min="7932" max="7932" width="21.7109375" style="1" hidden="1"/>
+    <col min="7933" max="7935" width="11.42578125" style="1" hidden="1"/>
     <col min="7936" max="7936" width="16" style="1" hidden="1"/>
-    <col min="7937" max="7937" width="20.44140625" style="1" hidden="1"/>
-    <col min="7938" max="8184" width="11.44140625" style="1" hidden="1"/>
-    <col min="8185" max="8185" width="15.44140625" style="1" hidden="1"/>
-    <col min="8186" max="8186" width="11.44140625" style="1" hidden="1"/>
-    <col min="8187" max="8187" width="15.6640625" style="1" hidden="1"/>
-    <col min="8188" max="8188" width="21.77734375" style="1" hidden="1"/>
-    <col min="8189" max="8191" width="11.44140625" style="1" hidden="1"/>
+    <col min="7937" max="7937" width="20.42578125" style="1" hidden="1"/>
+    <col min="7938" max="8184" width="11.42578125" style="1" hidden="1"/>
+    <col min="8185" max="8185" width="15.42578125" style="1" hidden="1"/>
+    <col min="8186" max="8186" width="11.42578125" style="1" hidden="1"/>
+    <col min="8187" max="8187" width="15.7109375" style="1" hidden="1"/>
+    <col min="8188" max="8188" width="21.7109375" style="1" hidden="1"/>
+    <col min="8189" max="8191" width="11.42578125" style="1" hidden="1"/>
     <col min="8192" max="8192" width="16" style="1" hidden="1"/>
-    <col min="8193" max="8193" width="20.44140625" style="1" hidden="1"/>
-    <col min="8194" max="8440" width="11.44140625" style="1" hidden="1"/>
-    <col min="8441" max="8441" width="15.44140625" style="1" hidden="1"/>
-    <col min="8442" max="8442" width="11.44140625" style="1" hidden="1"/>
-    <col min="8443" max="8443" width="15.6640625" style="1" hidden="1"/>
-    <col min="8444" max="8444" width="21.77734375" style="1" hidden="1"/>
-    <col min="8445" max="8447" width="11.44140625" style="1" hidden="1"/>
+    <col min="8193" max="8193" width="20.42578125" style="1" hidden="1"/>
+    <col min="8194" max="8440" width="11.42578125" style="1" hidden="1"/>
+    <col min="8441" max="8441" width="15.42578125" style="1" hidden="1"/>
+    <col min="8442" max="8442" width="11.42578125" style="1" hidden="1"/>
+    <col min="8443" max="8443" width="15.7109375" style="1" hidden="1"/>
+    <col min="8444" max="8444" width="21.7109375" style="1" hidden="1"/>
+    <col min="8445" max="8447" width="11.42578125" style="1" hidden="1"/>
     <col min="8448" max="8448" width="16" style="1" hidden="1"/>
-    <col min="8449" max="8449" width="20.44140625" style="1" hidden="1"/>
-    <col min="8450" max="8696" width="11.44140625" style="1" hidden="1"/>
-    <col min="8697" max="8697" width="15.44140625" style="1" hidden="1"/>
-    <col min="8698" max="8698" width="11.44140625" style="1" hidden="1"/>
-    <col min="8699" max="8699" width="15.6640625" style="1" hidden="1"/>
-    <col min="8700" max="8700" width="21.77734375" style="1" hidden="1"/>
-    <col min="8701" max="8703" width="11.44140625" style="1" hidden="1"/>
+    <col min="8449" max="8449" width="20.42578125" style="1" hidden="1"/>
+    <col min="8450" max="8696" width="11.42578125" style="1" hidden="1"/>
+    <col min="8697" max="8697" width="15.42578125" style="1" hidden="1"/>
+    <col min="8698" max="8698" width="11.42578125" style="1" hidden="1"/>
+    <col min="8699" max="8699" width="15.7109375" style="1" hidden="1"/>
+    <col min="8700" max="8700" width="21.7109375" style="1" hidden="1"/>
+    <col min="8701" max="8703" width="11.42578125" style="1" hidden="1"/>
     <col min="8704" max="8704" width="16" style="1" hidden="1"/>
-    <col min="8705" max="8705" width="20.44140625" style="1" hidden="1"/>
-    <col min="8706" max="8952" width="11.44140625" style="1" hidden="1"/>
-    <col min="8953" max="8953" width="15.44140625" style="1" hidden="1"/>
-    <col min="8954" max="8954" width="11.44140625" style="1" hidden="1"/>
-    <col min="8955" max="8955" width="15.6640625" style="1" hidden="1"/>
-    <col min="8956" max="8956" width="21.77734375" style="1" hidden="1"/>
-    <col min="8957" max="8959" width="11.44140625" style="1" hidden="1"/>
+    <col min="8705" max="8705" width="20.42578125" style="1" hidden="1"/>
+    <col min="8706" max="8952" width="11.42578125" style="1" hidden="1"/>
+    <col min="8953" max="8953" width="15.42578125" style="1" hidden="1"/>
+    <col min="8954" max="8954" width="11.42578125" style="1" hidden="1"/>
+    <col min="8955" max="8955" width="15.7109375" style="1" hidden="1"/>
+    <col min="8956" max="8956" width="21.7109375" style="1" hidden="1"/>
+    <col min="8957" max="8959" width="11.42578125" style="1" hidden="1"/>
     <col min="8960" max="8960" width="16" style="1" hidden="1"/>
-    <col min="8961" max="8961" width="20.44140625" style="1" hidden="1"/>
-    <col min="8962" max="9208" width="11.44140625" style="1" hidden="1"/>
-    <col min="9209" max="9209" width="15.44140625" style="1" hidden="1"/>
-    <col min="9210" max="9210" width="11.44140625" style="1" hidden="1"/>
-    <col min="9211" max="9211" width="15.6640625" style="1" hidden="1"/>
-    <col min="9212" max="9212" width="21.77734375" style="1" hidden="1"/>
-    <col min="9213" max="9215" width="11.44140625" style="1" hidden="1"/>
+    <col min="8961" max="8961" width="20.42578125" style="1" hidden="1"/>
+    <col min="8962" max="9208" width="11.42578125" style="1" hidden="1"/>
+    <col min="9209" max="9209" width="15.42578125" style="1" hidden="1"/>
+    <col min="9210" max="9210" width="11.42578125" style="1" hidden="1"/>
+    <col min="9211" max="9211" width="15.7109375" style="1" hidden="1"/>
+    <col min="9212" max="9212" width="21.7109375" style="1" hidden="1"/>
+    <col min="9213" max="9215" width="11.42578125" style="1" hidden="1"/>
     <col min="9216" max="9216" width="16" style="1" hidden="1"/>
-    <col min="9217" max="9217" width="20.44140625" style="1" hidden="1"/>
-    <col min="9218" max="9464" width="11.44140625" style="1" hidden="1"/>
-    <col min="9465" max="9465" width="15.44140625" style="1" hidden="1"/>
-    <col min="9466" max="9466" width="11.44140625" style="1" hidden="1"/>
-    <col min="9467" max="9467" width="15.6640625" style="1" hidden="1"/>
-    <col min="9468" max="9468" width="21.77734375" style="1" hidden="1"/>
-    <col min="9469" max="9471" width="11.44140625" style="1" hidden="1"/>
+    <col min="9217" max="9217" width="20.42578125" style="1" hidden="1"/>
+    <col min="9218" max="9464" width="11.42578125" style="1" hidden="1"/>
+    <col min="9465" max="9465" width="15.42578125" style="1" hidden="1"/>
+    <col min="9466" max="9466" width="11.42578125" style="1" hidden="1"/>
+    <col min="9467" max="9467" width="15.7109375" style="1" hidden="1"/>
+    <col min="9468" max="9468" width="21.7109375" style="1" hidden="1"/>
+    <col min="9469" max="9471" width="11.42578125" style="1" hidden="1"/>
     <col min="9472" max="9472" width="16" style="1" hidden="1"/>
-    <col min="9473" max="9473" width="20.44140625" style="1" hidden="1"/>
-    <col min="9474" max="9720" width="11.44140625" style="1" hidden="1"/>
-    <col min="9721" max="9721" width="15.44140625" style="1" hidden="1"/>
-    <col min="9722" max="9722" width="11.44140625" style="1" hidden="1"/>
-    <col min="9723" max="9723" width="15.6640625" style="1" hidden="1"/>
-    <col min="9724" max="9724" width="21.77734375" style="1" hidden="1"/>
-    <col min="9725" max="9727" width="11.44140625" style="1" hidden="1"/>
+    <col min="9473" max="9473" width="20.42578125" style="1" hidden="1"/>
+    <col min="9474" max="9720" width="11.42578125" style="1" hidden="1"/>
+    <col min="9721" max="9721" width="15.42578125" style="1" hidden="1"/>
+    <col min="9722" max="9722" width="11.42578125" style="1" hidden="1"/>
+    <col min="9723" max="9723" width="15.7109375" style="1" hidden="1"/>
+    <col min="9724" max="9724" width="21.7109375" style="1" hidden="1"/>
+    <col min="9725" max="9727" width="11.42578125" style="1" hidden="1"/>
     <col min="9728" max="9728" width="16" style="1" hidden="1"/>
-    <col min="9729" max="9729" width="20.44140625" style="1" hidden="1"/>
-    <col min="9730" max="9976" width="11.44140625" style="1" hidden="1"/>
-    <col min="9977" max="9977" width="15.44140625" style="1" hidden="1"/>
-    <col min="9978" max="9978" width="11.44140625" style="1" hidden="1"/>
-    <col min="9979" max="9979" width="15.6640625" style="1" hidden="1"/>
-    <col min="9980" max="9980" width="21.77734375" style="1" hidden="1"/>
-    <col min="9981" max="9983" width="11.44140625" style="1" hidden="1"/>
+    <col min="9729" max="9729" width="20.42578125" style="1" hidden="1"/>
+    <col min="9730" max="9976" width="11.42578125" style="1" hidden="1"/>
+    <col min="9977" max="9977" width="15.42578125" style="1" hidden="1"/>
+    <col min="9978" max="9978" width="11.42578125" style="1" hidden="1"/>
+    <col min="9979" max="9979" width="15.7109375" style="1" hidden="1"/>
+    <col min="9980" max="9980" width="21.7109375" style="1" hidden="1"/>
+    <col min="9981" max="9983" width="11.42578125" style="1" hidden="1"/>
     <col min="9984" max="9984" width="16" style="1" hidden="1"/>
-    <col min="9985" max="9985" width="20.44140625" style="1" hidden="1"/>
-    <col min="9986" max="10232" width="11.44140625" style="1" hidden="1"/>
-    <col min="10233" max="10233" width="15.44140625" style="1" hidden="1"/>
-    <col min="10234" max="10234" width="11.44140625" style="1" hidden="1"/>
-    <col min="10235" max="10235" width="15.6640625" style="1" hidden="1"/>
-    <col min="10236" max="10236" width="21.77734375" style="1" hidden="1"/>
-    <col min="10237" max="10239" width="11.44140625" style="1" hidden="1"/>
+    <col min="9985" max="9985" width="20.42578125" style="1" hidden="1"/>
+    <col min="9986" max="10232" width="11.42578125" style="1" hidden="1"/>
+    <col min="10233" max="10233" width="15.42578125" style="1" hidden="1"/>
+    <col min="10234" max="10234" width="11.42578125" style="1" hidden="1"/>
+    <col min="10235" max="10235" width="15.7109375" style="1" hidden="1"/>
+    <col min="10236" max="10236" width="21.7109375" style="1" hidden="1"/>
+    <col min="10237" max="10239" width="11.42578125" style="1" hidden="1"/>
     <col min="10240" max="10240" width="16" style="1" hidden="1"/>
-    <col min="10241" max="10241" width="20.44140625" style="1" hidden="1"/>
-    <col min="10242" max="10488" width="11.44140625" style="1" hidden="1"/>
-    <col min="10489" max="10489" width="15.44140625" style="1" hidden="1"/>
-    <col min="10490" max="10490" width="11.44140625" style="1" hidden="1"/>
-    <col min="10491" max="10491" width="15.6640625" style="1" hidden="1"/>
-    <col min="10492" max="10492" width="21.77734375" style="1" hidden="1"/>
-    <col min="10493" max="10495" width="11.44140625" style="1" hidden="1"/>
+    <col min="10241" max="10241" width="20.42578125" style="1" hidden="1"/>
+    <col min="10242" max="10488" width="11.42578125" style="1" hidden="1"/>
+    <col min="10489" max="10489" width="15.42578125" style="1" hidden="1"/>
+    <col min="10490" max="10490" width="11.42578125" style="1" hidden="1"/>
+    <col min="10491" max="10491" width="15.7109375" style="1" hidden="1"/>
+    <col min="10492" max="10492" width="21.7109375" style="1" hidden="1"/>
+    <col min="10493" max="10495" width="11.42578125" style="1" hidden="1"/>
     <col min="10496" max="10496" width="16" style="1" hidden="1"/>
-    <col min="10497" max="10497" width="20.44140625" style="1" hidden="1"/>
-    <col min="10498" max="10744" width="11.44140625" style="1" hidden="1"/>
-    <col min="10745" max="10745" width="15.44140625" style="1" hidden="1"/>
-    <col min="10746" max="10746" width="11.44140625" style="1" hidden="1"/>
-    <col min="10747" max="10747" width="15.6640625" style="1" hidden="1"/>
-    <col min="10748" max="10748" width="21.77734375" style="1" hidden="1"/>
-    <col min="10749" max="10751" width="11.44140625" style="1" hidden="1"/>
+    <col min="10497" max="10497" width="20.42578125" style="1" hidden="1"/>
+    <col min="10498" max="10744" width="11.42578125" style="1" hidden="1"/>
+    <col min="10745" max="10745" width="15.42578125" style="1" hidden="1"/>
+    <col min="10746" max="10746" width="11.42578125" style="1" hidden="1"/>
+    <col min="10747" max="10747" width="15.7109375" style="1" hidden="1"/>
+    <col min="10748" max="10748" width="21.7109375" style="1" hidden="1"/>
+    <col min="10749" max="10751" width="11.42578125" style="1" hidden="1"/>
     <col min="10752" max="10752" width="16" style="1" hidden="1"/>
-    <col min="10753" max="10753" width="20.44140625" style="1" hidden="1"/>
-    <col min="10754" max="11000" width="11.44140625" style="1" hidden="1"/>
-    <col min="11001" max="11001" width="15.44140625" style="1" hidden="1"/>
-    <col min="11002" max="11002" width="11.44140625" style="1" hidden="1"/>
-    <col min="11003" max="11003" width="15.6640625" style="1" hidden="1"/>
-    <col min="11004" max="11004" width="21.77734375" style="1" hidden="1"/>
-    <col min="11005" max="11007" width="11.44140625" style="1" hidden="1"/>
+    <col min="10753" max="10753" width="20.42578125" style="1" hidden="1"/>
+    <col min="10754" max="11000" width="11.42578125" style="1" hidden="1"/>
+    <col min="11001" max="11001" width="15.42578125" style="1" hidden="1"/>
+    <col min="11002" max="11002" width="11.42578125" style="1" hidden="1"/>
+    <col min="11003" max="11003" width="15.7109375" style="1" hidden="1"/>
+    <col min="11004" max="11004" width="21.7109375" style="1" hidden="1"/>
+    <col min="11005" max="11007" width="11.42578125" style="1" hidden="1"/>
     <col min="11008" max="11008" width="16" style="1" hidden="1"/>
-    <col min="11009" max="11009" width="20.44140625" style="1" hidden="1"/>
-    <col min="11010" max="11256" width="11.44140625" style="1" hidden="1"/>
-    <col min="11257" max="11257" width="15.44140625" style="1" hidden="1"/>
-    <col min="11258" max="11258" width="11.44140625" style="1" hidden="1"/>
-    <col min="11259" max="11259" width="15.6640625" style="1" hidden="1"/>
-    <col min="11260" max="11260" width="21.77734375" style="1" hidden="1"/>
-    <col min="11261" max="11263" width="11.44140625" style="1" hidden="1"/>
+    <col min="11009" max="11009" width="20.42578125" style="1" hidden="1"/>
+    <col min="11010" max="11256" width="11.42578125" style="1" hidden="1"/>
+    <col min="11257" max="11257" width="15.42578125" style="1" hidden="1"/>
+    <col min="11258" max="11258" width="11.42578125" style="1" hidden="1"/>
+    <col min="11259" max="11259" width="15.7109375" style="1" hidden="1"/>
+    <col min="11260" max="11260" width="21.7109375" style="1" hidden="1"/>
+    <col min="11261" max="11263" width="11.42578125" style="1" hidden="1"/>
     <col min="11264" max="11264" width="16" style="1" hidden="1"/>
-    <col min="11265" max="11265" width="20.44140625" style="1" hidden="1"/>
-    <col min="11266" max="11512" width="11.44140625" style="1" hidden="1"/>
-    <col min="11513" max="11513" width="15.44140625" style="1" hidden="1"/>
-    <col min="11514" max="11514" width="11.44140625" style="1" hidden="1"/>
-    <col min="11515" max="11515" width="15.6640625" style="1" hidden="1"/>
-    <col min="11516" max="11516" width="21.77734375" style="1" hidden="1"/>
-    <col min="11517" max="11519" width="11.44140625" style="1" hidden="1"/>
+    <col min="11265" max="11265" width="20.42578125" style="1" hidden="1"/>
+    <col min="11266" max="11512" width="11.42578125" style="1" hidden="1"/>
+    <col min="11513" max="11513" width="15.42578125" style="1" hidden="1"/>
+    <col min="11514" max="11514" width="11.42578125" style="1" hidden="1"/>
+    <col min="11515" max="11515" width="15.7109375" style="1" hidden="1"/>
+    <col min="11516" max="11516" width="21.7109375" style="1" hidden="1"/>
+    <col min="11517" max="11519" width="11.42578125" style="1" hidden="1"/>
     <col min="11520" max="11520" width="16" style="1" hidden="1"/>
-    <col min="11521" max="11521" width="20.44140625" style="1" hidden="1"/>
-    <col min="11522" max="11768" width="11.44140625" style="1" hidden="1"/>
-    <col min="11769" max="11769" width="15.44140625" style="1" hidden="1"/>
-    <col min="11770" max="11770" width="11.44140625" style="1" hidden="1"/>
-    <col min="11771" max="11771" width="15.6640625" style="1" hidden="1"/>
-    <col min="11772" max="11772" width="21.77734375" style="1" hidden="1"/>
-    <col min="11773" max="11775" width="11.44140625" style="1" hidden="1"/>
+    <col min="11521" max="11521" width="20.42578125" style="1" hidden="1"/>
+    <col min="11522" max="11768" width="11.42578125" style="1" hidden="1"/>
+    <col min="11769" max="11769" width="15.42578125" style="1" hidden="1"/>
+    <col min="11770" max="11770" width="11.42578125" style="1" hidden="1"/>
+    <col min="11771" max="11771" width="15.7109375" style="1" hidden="1"/>
+    <col min="11772" max="11772" width="21.7109375" style="1" hidden="1"/>
+    <col min="11773" max="11775" width="11.42578125" style="1" hidden="1"/>
     <col min="11776" max="11776" width="16" style="1" hidden="1"/>
-    <col min="11777" max="11777" width="20.44140625" style="1" hidden="1"/>
-    <col min="11778" max="12024" width="11.44140625" style="1" hidden="1"/>
-    <col min="12025" max="12025" width="15.44140625" style="1" hidden="1"/>
-    <col min="12026" max="12026" width="11.44140625" style="1" hidden="1"/>
-    <col min="12027" max="12027" width="15.6640625" style="1" hidden="1"/>
-    <col min="12028" max="12028" width="21.77734375" style="1" hidden="1"/>
-    <col min="12029" max="12031" width="11.44140625" style="1" hidden="1"/>
+    <col min="11777" max="11777" width="20.42578125" style="1" hidden="1"/>
+    <col min="11778" max="12024" width="11.42578125" style="1" hidden="1"/>
+    <col min="12025" max="12025" width="15.42578125" style="1" hidden="1"/>
+    <col min="12026" max="12026" width="11.42578125" style="1" hidden="1"/>
+    <col min="12027" max="12027" width="15.7109375" style="1" hidden="1"/>
+    <col min="12028" max="12028" width="21.7109375" style="1" hidden="1"/>
+    <col min="12029" max="12031" width="11.42578125" style="1" hidden="1"/>
     <col min="12032" max="12032" width="16" style="1" hidden="1"/>
-    <col min="12033" max="12033" width="20.44140625" style="1" hidden="1"/>
-    <col min="12034" max="12280" width="11.44140625" style="1" hidden="1"/>
-    <col min="12281" max="12281" width="15.44140625" style="1" hidden="1"/>
-    <col min="12282" max="12282" width="11.44140625" style="1" hidden="1"/>
-    <col min="12283" max="12283" width="15.6640625" style="1" hidden="1"/>
-    <col min="12284" max="12284" width="21.77734375" style="1" hidden="1"/>
-    <col min="12285" max="12287" width="11.44140625" style="1" hidden="1"/>
+    <col min="12033" max="12033" width="20.42578125" style="1" hidden="1"/>
+    <col min="12034" max="12280" width="11.42578125" style="1" hidden="1"/>
+    <col min="12281" max="12281" width="15.42578125" style="1" hidden="1"/>
+    <col min="12282" max="12282" width="11.42578125" style="1" hidden="1"/>
+    <col min="12283" max="12283" width="15.7109375" style="1" hidden="1"/>
+    <col min="12284" max="12284" width="21.7109375" style="1" hidden="1"/>
+    <col min="12285" max="12287" width="11.42578125" style="1" hidden="1"/>
     <col min="12288" max="12288" width="16" style="1" hidden="1"/>
-    <col min="12289" max="12289" width="20.44140625" style="1" hidden="1"/>
-    <col min="12290" max="12536" width="11.44140625" style="1" hidden="1"/>
-    <col min="12537" max="12537" width="15.44140625" style="1" hidden="1"/>
-    <col min="12538" max="12538" width="11.44140625" style="1" hidden="1"/>
-    <col min="12539" max="12539" width="15.6640625" style="1" hidden="1"/>
-    <col min="12540" max="12540" width="21.77734375" style="1" hidden="1"/>
-    <col min="12541" max="12543" width="11.44140625" style="1" hidden="1"/>
+    <col min="12289" max="12289" width="20.42578125" style="1" hidden="1"/>
+    <col min="12290" max="12536" width="11.42578125" style="1" hidden="1"/>
+    <col min="12537" max="12537" width="15.42578125" style="1" hidden="1"/>
+    <col min="12538" max="12538" width="11.42578125" style="1" hidden="1"/>
+    <col min="12539" max="12539" width="15.7109375" style="1" hidden="1"/>
+    <col min="12540" max="12540" width="21.7109375" style="1" hidden="1"/>
+    <col min="12541" max="12543" width="11.42578125" style="1" hidden="1"/>
     <col min="12544" max="12544" width="16" style="1" hidden="1"/>
-    <col min="12545" max="12545" width="20.44140625" style="1" hidden="1"/>
-    <col min="12546" max="12792" width="11.44140625" style="1" hidden="1"/>
-    <col min="12793" max="12793" width="15.44140625" style="1" hidden="1"/>
-    <col min="12794" max="12794" width="11.44140625" style="1" hidden="1"/>
-    <col min="12795" max="12795" width="15.6640625" style="1" hidden="1"/>
-    <col min="12796" max="12796" width="21.77734375" style="1" hidden="1"/>
-    <col min="12797" max="12799" width="11.44140625" style="1" hidden="1"/>
+    <col min="12545" max="12545" width="20.42578125" style="1" hidden="1"/>
+    <col min="12546" max="12792" width="11.42578125" style="1" hidden="1"/>
+    <col min="12793" max="12793" width="15.42578125" style="1" hidden="1"/>
+    <col min="12794" max="12794" width="11.42578125" style="1" hidden="1"/>
+    <col min="12795" max="12795" width="15.7109375" style="1" hidden="1"/>
+    <col min="12796" max="12796" width="21.7109375" style="1" hidden="1"/>
+    <col min="12797" max="12799" width="11.42578125" style="1" hidden="1"/>
     <col min="12800" max="12800" width="16" style="1" hidden="1"/>
-    <col min="12801" max="12801" width="20.44140625" style="1" hidden="1"/>
-    <col min="12802" max="13048" width="11.44140625" style="1" hidden="1"/>
-    <col min="13049" max="13049" width="15.44140625" style="1" hidden="1"/>
-    <col min="13050" max="13050" width="11.44140625" style="1" hidden="1"/>
-    <col min="13051" max="13051" width="15.6640625" style="1" hidden="1"/>
-    <col min="13052" max="13052" width="21.77734375" style="1" hidden="1"/>
-    <col min="13053" max="13055" width="11.44140625" style="1" hidden="1"/>
+    <col min="12801" max="12801" width="20.42578125" style="1" hidden="1"/>
+    <col min="12802" max="13048" width="11.42578125" style="1" hidden="1"/>
+    <col min="13049" max="13049" width="15.42578125" style="1" hidden="1"/>
+    <col min="13050" max="13050" width="11.42578125" style="1" hidden="1"/>
+    <col min="13051" max="13051" width="15.7109375" style="1" hidden="1"/>
+    <col min="13052" max="13052" width="21.7109375" style="1" hidden="1"/>
+    <col min="13053" max="13055" width="11.42578125" style="1" hidden="1"/>
     <col min="13056" max="13056" width="16" style="1" hidden="1"/>
-    <col min="13057" max="13057" width="20.44140625" style="1" hidden="1"/>
-    <col min="13058" max="13304" width="11.44140625" style="1" hidden="1"/>
-    <col min="13305" max="13305" width="15.44140625" style="1" hidden="1"/>
-    <col min="13306" max="13306" width="11.44140625" style="1" hidden="1"/>
-    <col min="13307" max="13307" width="15.6640625" style="1" hidden="1"/>
-    <col min="13308" max="13308" width="21.77734375" style="1" hidden="1"/>
-    <col min="13309" max="13311" width="11.44140625" style="1" hidden="1"/>
+    <col min="13057" max="13057" width="20.42578125" style="1" hidden="1"/>
+    <col min="13058" max="13304" width="11.42578125" style="1" hidden="1"/>
+    <col min="13305" max="13305" width="15.42578125" style="1" hidden="1"/>
+    <col min="13306" max="13306" width="11.42578125" style="1" hidden="1"/>
+    <col min="13307" max="13307" width="15.7109375" style="1" hidden="1"/>
+    <col min="13308" max="13308" width="21.7109375" style="1" hidden="1"/>
+    <col min="13309" max="13311" width="11.42578125" style="1" hidden="1"/>
     <col min="13312" max="13312" width="16" style="1" hidden="1"/>
-    <col min="13313" max="13313" width="20.44140625" style="1" hidden="1"/>
-    <col min="13314" max="13560" width="11.44140625" style="1" hidden="1"/>
-    <col min="13561" max="13561" width="15.44140625" style="1" hidden="1"/>
-    <col min="13562" max="13562" width="11.44140625" style="1" hidden="1"/>
-    <col min="13563" max="13563" width="15.6640625" style="1" hidden="1"/>
-    <col min="13564" max="13564" width="21.77734375" style="1" hidden="1"/>
-    <col min="13565" max="13567" width="11.44140625" style="1" hidden="1"/>
+    <col min="13313" max="13313" width="20.42578125" style="1" hidden="1"/>
+    <col min="13314" max="13560" width="11.42578125" style="1" hidden="1"/>
+    <col min="13561" max="13561" width="15.42578125" style="1" hidden="1"/>
+    <col min="13562" max="13562" width="11.42578125" style="1" hidden="1"/>
+    <col min="13563" max="13563" width="15.7109375" style="1" hidden="1"/>
+    <col min="13564" max="13564" width="21.7109375" style="1" hidden="1"/>
+    <col min="13565" max="13567" width="11.42578125" style="1" hidden="1"/>
     <col min="13568" max="13568" width="16" style="1" hidden="1"/>
-    <col min="13569" max="13569" width="20.44140625" style="1" hidden="1"/>
-    <col min="13570" max="13816" width="11.44140625" style="1" hidden="1"/>
-    <col min="13817" max="13817" width="15.44140625" style="1" hidden="1"/>
-    <col min="13818" max="13818" width="11.44140625" style="1" hidden="1"/>
-    <col min="13819" max="13819" width="15.6640625" style="1" hidden="1"/>
-    <col min="13820" max="13820" width="21.77734375" style="1" hidden="1"/>
-    <col min="13821" max="13823" width="11.44140625" style="1" hidden="1"/>
+    <col min="13569" max="13569" width="20.42578125" style="1" hidden="1"/>
+    <col min="13570" max="13816" width="11.42578125" style="1" hidden="1"/>
+    <col min="13817" max="13817" width="15.42578125" style="1" hidden="1"/>
+    <col min="13818" max="13818" width="11.42578125" style="1" hidden="1"/>
+    <col min="13819" max="13819" width="15.7109375" style="1" hidden="1"/>
+    <col min="13820" max="13820" width="21.7109375" style="1" hidden="1"/>
+    <col min="13821" max="13823" width="11.42578125" style="1" hidden="1"/>
     <col min="13824" max="13824" width="16" style="1" hidden="1"/>
-    <col min="13825" max="13825" width="20.44140625" style="1" hidden="1"/>
-    <col min="13826" max="14072" width="11.44140625" style="1" hidden="1"/>
-    <col min="14073" max="14073" width="15.44140625" style="1" hidden="1"/>
-    <col min="14074" max="14074" width="11.44140625" style="1" hidden="1"/>
-    <col min="14075" max="14075" width="15.6640625" style="1" hidden="1"/>
-    <col min="14076" max="14076" width="21.77734375" style="1" hidden="1"/>
-    <col min="14077" max="14079" width="11.44140625" style="1" hidden="1"/>
+    <col min="13825" max="13825" width="20.42578125" style="1" hidden="1"/>
+    <col min="13826" max="14072" width="11.42578125" style="1" hidden="1"/>
+    <col min="14073" max="14073" width="15.42578125" style="1" hidden="1"/>
+    <col min="14074" max="14074" width="11.42578125" style="1" hidden="1"/>
+    <col min="14075" max="14075" width="15.7109375" style="1" hidden="1"/>
+    <col min="14076" max="14076" width="21.7109375" style="1" hidden="1"/>
+    <col min="14077" max="14079" width="11.42578125" style="1" hidden="1"/>
     <col min="14080" max="14080" width="16" style="1" hidden="1"/>
-    <col min="14081" max="14081" width="20.44140625" style="1" hidden="1"/>
-    <col min="14082" max="14328" width="11.44140625" style="1" hidden="1"/>
-    <col min="14329" max="14329" width="15.44140625" style="1" hidden="1"/>
-    <col min="14330" max="14330" width="11.44140625" style="1" hidden="1"/>
-    <col min="14331" max="14331" width="15.6640625" style="1" hidden="1"/>
-    <col min="14332" max="14332" width="21.77734375" style="1" hidden="1"/>
-    <col min="14333" max="14335" width="11.44140625" style="1" hidden="1"/>
+    <col min="14081" max="14081" width="20.42578125" style="1" hidden="1"/>
+    <col min="14082" max="14328" width="11.42578125" style="1" hidden="1"/>
+    <col min="14329" max="14329" width="15.42578125" style="1" hidden="1"/>
+    <col min="14330" max="14330" width="11.42578125" style="1" hidden="1"/>
+    <col min="14331" max="14331" width="15.7109375" style="1" hidden="1"/>
+    <col min="14332" max="14332" width="21.7109375" style="1" hidden="1"/>
+    <col min="14333" max="14335" width="11.42578125" style="1" hidden="1"/>
     <col min="14336" max="14336" width="16" style="1" hidden="1"/>
-    <col min="14337" max="14337" width="20.44140625" style="1" hidden="1"/>
-    <col min="14338" max="14584" width="11.44140625" style="1" hidden="1"/>
-    <col min="14585" max="14585" width="15.44140625" style="1" hidden="1"/>
-    <col min="14586" max="14586" width="11.44140625" style="1" hidden="1"/>
-    <col min="14587" max="14587" width="15.6640625" style="1" hidden="1"/>
-    <col min="14588" max="14588" width="21.77734375" style="1" hidden="1"/>
-    <col min="14589" max="14591" width="11.44140625" style="1" hidden="1"/>
+    <col min="14337" max="14337" width="20.42578125" style="1" hidden="1"/>
+    <col min="14338" max="14584" width="11.42578125" style="1" hidden="1"/>
+    <col min="14585" max="14585" width="15.42578125" style="1" hidden="1"/>
+    <col min="14586" max="14586" width="11.42578125" style="1" hidden="1"/>
+    <col min="14587" max="14587" width="15.7109375" style="1" hidden="1"/>
+    <col min="14588" max="14588" width="21.7109375" style="1" hidden="1"/>
+    <col min="14589" max="14591" width="11.42578125" style="1" hidden="1"/>
     <col min="14592" max="14592" width="16" style="1" hidden="1"/>
-    <col min="14593" max="14593" width="20.44140625" style="1" hidden="1"/>
-    <col min="14594" max="14840" width="11.44140625" style="1" hidden="1"/>
-    <col min="14841" max="14841" width="15.44140625" style="1" hidden="1"/>
-    <col min="14842" max="14842" width="11.44140625" style="1" hidden="1"/>
-    <col min="14843" max="14843" width="15.6640625" style="1" hidden="1"/>
-    <col min="14844" max="14844" width="21.77734375" style="1" hidden="1"/>
-    <col min="14845" max="14847" width="11.44140625" style="1" hidden="1"/>
+    <col min="14593" max="14593" width="20.42578125" style="1" hidden="1"/>
+    <col min="14594" max="14840" width="11.42578125" style="1" hidden="1"/>
+    <col min="14841" max="14841" width="15.42578125" style="1" hidden="1"/>
+    <col min="14842" max="14842" width="11.42578125" style="1" hidden="1"/>
+    <col min="14843" max="14843" width="15.7109375" style="1" hidden="1"/>
+    <col min="14844" max="14844" width="21.7109375" style="1" hidden="1"/>
+    <col min="14845" max="14847" width="11.42578125" style="1" hidden="1"/>
     <col min="14848" max="14848" width="16" style="1" hidden="1"/>
-    <col min="14849" max="14849" width="20.44140625" style="1" hidden="1"/>
-    <col min="14850" max="15096" width="11.44140625" style="1" hidden="1"/>
-    <col min="15097" max="15097" width="15.44140625" style="1" hidden="1"/>
-    <col min="15098" max="15098" width="11.44140625" style="1" hidden="1"/>
-    <col min="15099" max="15099" width="15.6640625" style="1" hidden="1"/>
-    <col min="15100" max="15100" width="21.77734375" style="1" hidden="1"/>
-    <col min="15101" max="15103" width="11.44140625" style="1" hidden="1"/>
+    <col min="14849" max="14849" width="20.42578125" style="1" hidden="1"/>
+    <col min="14850" max="15096" width="11.42578125" style="1" hidden="1"/>
+    <col min="15097" max="15097" width="15.42578125" style="1" hidden="1"/>
+    <col min="15098" max="15098" width="11.42578125" style="1" hidden="1"/>
+    <col min="15099" max="15099" width="15.7109375" style="1" hidden="1"/>
+    <col min="15100" max="15100" width="21.7109375" style="1" hidden="1"/>
+    <col min="15101" max="15103" width="11.42578125" style="1" hidden="1"/>
     <col min="15104" max="15104" width="16" style="1" hidden="1"/>
-    <col min="15105" max="15105" width="20.44140625" style="1" hidden="1"/>
-    <col min="15106" max="15352" width="11.44140625" style="1" hidden="1"/>
-    <col min="15353" max="15353" width="15.44140625" style="1" hidden="1"/>
-    <col min="15354" max="15354" width="11.44140625" style="1" hidden="1"/>
-    <col min="15355" max="15355" width="15.6640625" style="1" hidden="1"/>
-    <col min="15356" max="15356" width="21.77734375" style="1" hidden="1"/>
-    <col min="15357" max="15359" width="11.44140625" style="1" hidden="1"/>
+    <col min="15105" max="15105" width="20.42578125" style="1" hidden="1"/>
+    <col min="15106" max="15352" width="11.42578125" style="1" hidden="1"/>
+    <col min="15353" max="15353" width="15.42578125" style="1" hidden="1"/>
+    <col min="15354" max="15354" width="11.42578125" style="1" hidden="1"/>
+    <col min="15355" max="15355" width="15.7109375" style="1" hidden="1"/>
+    <col min="15356" max="15356" width="21.7109375" style="1" hidden="1"/>
+    <col min="15357" max="15359" width="11.42578125" style="1" hidden="1"/>
     <col min="15360" max="15360" width="16" style="1" hidden="1"/>
-    <col min="15361" max="15361" width="20.44140625" style="1" hidden="1"/>
-    <col min="15362" max="15608" width="11.44140625" style="1" hidden="1"/>
-    <col min="15609" max="15609" width="15.44140625" style="1" hidden="1"/>
-    <col min="15610" max="15610" width="11.44140625" style="1" hidden="1"/>
-    <col min="15611" max="15611" width="15.6640625" style="1" hidden="1"/>
-    <col min="15612" max="15612" width="21.77734375" style="1" hidden="1"/>
-    <col min="15613" max="15615" width="11.44140625" style="1" hidden="1"/>
+    <col min="15361" max="15361" width="20.42578125" style="1" hidden="1"/>
+    <col min="15362" max="15608" width="11.42578125" style="1" hidden="1"/>
+    <col min="15609" max="15609" width="15.42578125" style="1" hidden="1"/>
+    <col min="15610" max="15610" width="11.42578125" style="1" hidden="1"/>
+    <col min="15611" max="15611" width="15.7109375" style="1" hidden="1"/>
+    <col min="15612" max="15612" width="21.7109375" style="1" hidden="1"/>
+    <col min="15613" max="15615" width="11.42578125" style="1" hidden="1"/>
     <col min="15616" max="15616" width="16" style="1" hidden="1"/>
-    <col min="15617" max="15617" width="20.44140625" style="1" hidden="1"/>
-    <col min="15618" max="15864" width="11.44140625" style="1" hidden="1"/>
-    <col min="15865" max="15865" width="15.44140625" style="1" hidden="1"/>
-    <col min="15866" max="15866" width="11.44140625" style="1" hidden="1"/>
-    <col min="15867" max="15867" width="15.6640625" style="1" hidden="1"/>
-    <col min="15868" max="15868" width="21.77734375" style="1" hidden="1"/>
-    <col min="15869" max="15871" width="11.44140625" style="1" hidden="1"/>
+    <col min="15617" max="15617" width="20.42578125" style="1" hidden="1"/>
+    <col min="15618" max="15864" width="11.42578125" style="1" hidden="1"/>
+    <col min="15865" max="15865" width="15.42578125" style="1" hidden="1"/>
+    <col min="15866" max="15866" width="11.42578125" style="1" hidden="1"/>
+    <col min="15867" max="15867" width="15.7109375" style="1" hidden="1"/>
+    <col min="15868" max="15868" width="21.7109375" style="1" hidden="1"/>
+    <col min="15869" max="15871" width="11.42578125" style="1" hidden="1"/>
     <col min="15872" max="15872" width="16" style="1" hidden="1"/>
-    <col min="15873" max="15873" width="20.44140625" style="1" hidden="1"/>
-    <col min="15874" max="16120" width="11.44140625" style="1" hidden="1"/>
-    <col min="16121" max="16121" width="15.44140625" style="1" hidden="1"/>
-    <col min="16122" max="16122" width="11.44140625" style="1" hidden="1"/>
-    <col min="16123" max="16123" width="15.6640625" style="1" hidden="1"/>
-    <col min="16124" max="16124" width="21.77734375" style="1" hidden="1"/>
-    <col min="16125" max="16127" width="11.44140625" style="1" hidden="1"/>
+    <col min="15873" max="15873" width="20.42578125" style="1" hidden="1"/>
+    <col min="15874" max="16120" width="11.42578125" style="1" hidden="1"/>
+    <col min="16121" max="16121" width="15.42578125" style="1" hidden="1"/>
+    <col min="16122" max="16122" width="11.42578125" style="1" hidden="1"/>
+    <col min="16123" max="16123" width="15.7109375" style="1" hidden="1"/>
+    <col min="16124" max="16124" width="21.7109375" style="1" hidden="1"/>
+    <col min="16125" max="16127" width="11.42578125" style="1" hidden="1"/>
     <col min="16128" max="16128" width="16" style="1" hidden="1"/>
-    <col min="16129" max="16129" width="20.44140625" style="1" hidden="1"/>
-    <col min="16130" max="16130" width="11.44140625" style="1" hidden="1"/>
+    <col min="16129" max="16129" width="20.42578125" style="1" hidden="1"/>
+    <col min="16130" max="16130" width="11.42578125" style="1" hidden="1"/>
     <col min="16131" max="16131" width="16" style="1" hidden="1"/>
-    <col min="16132" max="16132" width="20.44140625" style="1" hidden="1"/>
+    <col min="16132" max="16132" width="20.42578125" style="1" hidden="1"/>
     <col min="16133" max="16133" width="16" style="1" hidden="1"/>
-    <col min="16134" max="16138" width="20.44140625" style="1" hidden="1"/>
-    <col min="16139" max="16384" width="11.44140625" style="1" hidden="1"/>
+    <col min="16134" max="16138" width="20.42578125" style="1" hidden="1"/>
+    <col min="16139" max="16384" width="11.42578125" style="1" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="56.55" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" ht="56.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
@@ -2867,13 +2965,13 @@
       </c>
       <c r="G1" s="29"/>
       <c r="H1" s="70" t="s">
+        <v>90</v>
+      </c>
+      <c r="I1" s="71" t="s">
         <v>91</v>
       </c>
-      <c r="I1" s="71" t="s">
+      <c r="J1" s="71" t="s">
         <v>92</v>
-      </c>
-      <c r="J1" s="71" t="s">
-        <v>93</v>
       </c>
       <c r="K1" s="27" t="s">
         <v>57</v>
@@ -2882,7 +2980,7 @@
         <v>56</v>
       </c>
       <c r="M1" s="27" t="s">
-        <v>58</v>
+        <v>131</v>
       </c>
       <c r="N1" s="28" t="s">
         <v>8</v>
@@ -2914,7 +3012,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:24" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="54" t="str">
         <f>RAWDATA!B2</f>
         <v>applicant.last_name</v>
@@ -2947,8 +3045,14 @@
         <f t="shared" ref="K2:K27" si="0">SUM(H2:J2)</f>
         <v>0</v>
       </c>
-      <c r="L2" s="56"/>
-      <c r="M2" s="56"/>
+      <c r="L2" s="56">
+        <f>IF(ISBLANK(Extrapunkte!I3),0,Extrapunkte!I3)</f>
+        <v>0</v>
+      </c>
+      <c r="M2" s="56">
+        <f>IF(ISBLANK(Extrapunkte!J3),0,Extrapunkte!M3)</f>
+        <v>0</v>
+      </c>
       <c r="N2" s="34">
         <f>SUM(K2:M2)</f>
         <v>0</v>
@@ -2982,7 +3086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:24" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:24" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="54">
         <f>RAWDATA!B3</f>
         <v>0</v>
@@ -3015,8 +3119,14 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L3" s="56"/>
-      <c r="M3" s="56"/>
+      <c r="L3" s="56">
+        <f>IF(ISBLANK(Extrapunkte!I4),0,Extrapunkte!I4)</f>
+        <v>0</v>
+      </c>
+      <c r="M3" s="56">
+        <f>IF(ISBLANK(Extrapunkte!J4),0,Extrapunkte!M4)</f>
+        <v>0</v>
+      </c>
       <c r="N3" s="34">
         <f t="shared" ref="N3:N26" si="3">SUM(K3:M3)</f>
         <v>0</v>
@@ -3050,7 +3160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:24" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="54">
         <f>RAWDATA!B4</f>
         <v>0</v>
@@ -3083,8 +3193,14 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L4" s="56"/>
-      <c r="M4" s="56"/>
+      <c r="L4" s="56">
+        <f>IF(ISBLANK(Extrapunkte!I5),0,Extrapunkte!I5)</f>
+        <v>0</v>
+      </c>
+      <c r="M4" s="56">
+        <f>IF(ISBLANK(Extrapunkte!J5),0,Extrapunkte!M5)</f>
+        <v>0</v>
+      </c>
       <c r="N4" s="34">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -3118,7 +3234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:24" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:24" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="54">
         <f>RAWDATA!B5</f>
         <v>0</v>
@@ -3151,8 +3267,14 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L5" s="56"/>
-      <c r="M5" s="56"/>
+      <c r="L5" s="56">
+        <f>IF(ISBLANK(Extrapunkte!I6),0,Extrapunkte!I6)</f>
+        <v>0</v>
+      </c>
+      <c r="M5" s="56">
+        <f>IF(ISBLANK(Extrapunkte!J6),0,Extrapunkte!M6)</f>
+        <v>0</v>
+      </c>
       <c r="N5" s="34">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -3186,7 +3308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:24" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="54">
         <f>RAWDATA!B6</f>
         <v>0</v>
@@ -3219,8 +3341,14 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L6" s="56"/>
-      <c r="M6" s="56"/>
+      <c r="L6" s="56">
+        <f>IF(ISBLANK(Extrapunkte!I7),0,Extrapunkte!I7)</f>
+        <v>0</v>
+      </c>
+      <c r="M6" s="56">
+        <f>IF(ISBLANK(Extrapunkte!J7),0,Extrapunkte!M7)</f>
+        <v>0</v>
+      </c>
       <c r="N6" s="34">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -3254,7 +3382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:24" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:24" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="54">
         <f>RAWDATA!B7</f>
         <v>0</v>
@@ -3287,8 +3415,14 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L7" s="56"/>
-      <c r="M7" s="56"/>
+      <c r="L7" s="56">
+        <f>IF(ISBLANK(Extrapunkte!I8),0,Extrapunkte!I8)</f>
+        <v>0</v>
+      </c>
+      <c r="M7" s="56">
+        <f>IF(ISBLANK(Extrapunkte!J8),0,Extrapunkte!M8)</f>
+        <v>0</v>
+      </c>
       <c r="N7" s="34">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -3322,7 +3456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:24" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:24" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="54">
         <f>RAWDATA!B8</f>
         <v>0</v>
@@ -3355,8 +3489,14 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L8" s="56"/>
-      <c r="M8" s="56"/>
+      <c r="L8" s="56">
+        <f>IF(ISBLANK(Extrapunkte!I9),0,Extrapunkte!I9)</f>
+        <v>0</v>
+      </c>
+      <c r="M8" s="56">
+        <f>IF(ISBLANK(Extrapunkte!J9),0,Extrapunkte!M9)</f>
+        <v>0</v>
+      </c>
       <c r="N8" s="34">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -3390,7 +3530,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:24" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:24" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="54">
         <f>RAWDATA!B9</f>
         <v>0</v>
@@ -3423,8 +3563,14 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L9" s="56"/>
-      <c r="M9" s="56"/>
+      <c r="L9" s="56">
+        <f>IF(ISBLANK(Extrapunkte!I10),0,Extrapunkte!I10)</f>
+        <v>0</v>
+      </c>
+      <c r="M9" s="56">
+        <f>IF(ISBLANK(Extrapunkte!J10),0,Extrapunkte!M10)</f>
+        <v>0</v>
+      </c>
       <c r="N9" s="34">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -3458,7 +3604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:24" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:24" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="54">
         <f>RAWDATA!B10</f>
         <v>0</v>
@@ -3491,8 +3637,14 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L10" s="56"/>
-      <c r="M10" s="56"/>
+      <c r="L10" s="56">
+        <f>IF(ISBLANK(Extrapunkte!I11),0,Extrapunkte!I11)</f>
+        <v>0</v>
+      </c>
+      <c r="M10" s="56">
+        <f>IF(ISBLANK(Extrapunkte!J11),0,Extrapunkte!M11)</f>
+        <v>0</v>
+      </c>
       <c r="N10" s="34">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -3526,7 +3678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:24" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:24" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="54">
         <f>RAWDATA!B11</f>
         <v>0</v>
@@ -3559,8 +3711,14 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L11" s="56"/>
-      <c r="M11" s="56"/>
+      <c r="L11" s="56">
+        <f>IF(ISBLANK(Extrapunkte!I12),0,Extrapunkte!I12)</f>
+        <v>0</v>
+      </c>
+      <c r="M11" s="56">
+        <f>IF(ISBLANK(Extrapunkte!J12),0,Extrapunkte!M12)</f>
+        <v>0</v>
+      </c>
       <c r="N11" s="34">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -3594,7 +3752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:24" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:24" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="54">
         <f>RAWDATA!B12</f>
         <v>0</v>
@@ -3627,8 +3785,14 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L12" s="56"/>
-      <c r="M12" s="56"/>
+      <c r="L12" s="56">
+        <f>IF(ISBLANK(Extrapunkte!I13),0,Extrapunkte!I13)</f>
+        <v>0</v>
+      </c>
+      <c r="M12" s="56">
+        <f>IF(ISBLANK(Extrapunkte!J13),0,Extrapunkte!M13)</f>
+        <v>0</v>
+      </c>
       <c r="N12" s="34">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -3662,7 +3826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:24" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:24" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="54">
         <f>RAWDATA!B13</f>
         <v>0</v>
@@ -3695,8 +3859,14 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L13" s="56"/>
-      <c r="M13" s="56"/>
+      <c r="L13" s="56">
+        <f>IF(ISBLANK(Extrapunkte!I14),0,Extrapunkte!I14)</f>
+        <v>0</v>
+      </c>
+      <c r="M13" s="56">
+        <f>IF(ISBLANK(Extrapunkte!J14),0,Extrapunkte!M14)</f>
+        <v>0</v>
+      </c>
       <c r="N13" s="34">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -3730,7 +3900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:24" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:24" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="54">
         <f>RAWDATA!B14</f>
         <v>0</v>
@@ -3763,8 +3933,14 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L14" s="56"/>
-      <c r="M14" s="56"/>
+      <c r="L14" s="56">
+        <f>IF(ISBLANK(Extrapunkte!I15),0,Extrapunkte!I15)</f>
+        <v>0</v>
+      </c>
+      <c r="M14" s="56">
+        <f>IF(ISBLANK(Extrapunkte!J15),0,Extrapunkte!M15)</f>
+        <v>0</v>
+      </c>
       <c r="N14" s="34">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -3798,7 +3974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:24" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:24" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="54">
         <f>RAWDATA!B15</f>
         <v>0</v>
@@ -3831,8 +4007,14 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L15" s="56"/>
-      <c r="M15" s="56"/>
+      <c r="L15" s="56">
+        <f>IF(ISBLANK(Extrapunkte!I16),0,Extrapunkte!I16)</f>
+        <v>0</v>
+      </c>
+      <c r="M15" s="56">
+        <f>IF(ISBLANK(Extrapunkte!J16),0,Extrapunkte!M16)</f>
+        <v>0</v>
+      </c>
       <c r="N15" s="34">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -3866,7 +4048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:24" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:24" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="54">
         <f>RAWDATA!B16</f>
         <v>0</v>
@@ -3899,8 +4081,14 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L16" s="56"/>
-      <c r="M16" s="56"/>
+      <c r="L16" s="56">
+        <f>IF(ISBLANK(Extrapunkte!I17),0,Extrapunkte!I17)</f>
+        <v>0</v>
+      </c>
+      <c r="M16" s="56">
+        <f>IF(ISBLANK(Extrapunkte!J17),0,Extrapunkte!M17)</f>
+        <v>0</v>
+      </c>
       <c r="N16" s="34">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -3934,7 +4122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:24" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:24" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="54">
         <f>RAWDATA!B17</f>
         <v>0</v>
@@ -3967,8 +4155,14 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L17" s="56"/>
-      <c r="M17" s="56"/>
+      <c r="L17" s="56">
+        <f>IF(ISBLANK(Extrapunkte!I18),0,Extrapunkte!I18)</f>
+        <v>0</v>
+      </c>
+      <c r="M17" s="56">
+        <f>IF(ISBLANK(Extrapunkte!J18),0,Extrapunkte!M18)</f>
+        <v>0</v>
+      </c>
       <c r="N17" s="34">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -4002,7 +4196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:24" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:24" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="54">
         <f>RAWDATA!B18</f>
         <v>0</v>
@@ -4035,8 +4229,14 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L18" s="56"/>
-      <c r="M18" s="56"/>
+      <c r="L18" s="56">
+        <f>IF(ISBLANK(Extrapunkte!I19),0,Extrapunkte!I19)</f>
+        <v>0</v>
+      </c>
+      <c r="M18" s="56">
+        <f>IF(ISBLANK(Extrapunkte!J19),0,Extrapunkte!M19)</f>
+        <v>0</v>
+      </c>
       <c r="N18" s="34">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -4070,7 +4270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:24" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:24" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="54">
         <f>RAWDATA!B19</f>
         <v>0</v>
@@ -4103,8 +4303,14 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L19" s="56"/>
-      <c r="M19" s="56"/>
+      <c r="L19" s="56">
+        <f>IF(ISBLANK(Extrapunkte!I20),0,Extrapunkte!I20)</f>
+        <v>0</v>
+      </c>
+      <c r="M19" s="56">
+        <f>IF(ISBLANK(Extrapunkte!J20),0,Extrapunkte!M20)</f>
+        <v>0</v>
+      </c>
       <c r="N19" s="34">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -4138,7 +4344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:24" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:24" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="54">
         <f>RAWDATA!B20</f>
         <v>0</v>
@@ -4168,11 +4374,17 @@
       <c r="I20" s="56"/>
       <c r="J20" s="56"/>
       <c r="K20" s="34">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L20" s="56"/>
-      <c r="M20" s="56"/>
+        <f>SUM(H20:J20)</f>
+        <v>0</v>
+      </c>
+      <c r="L20" s="56">
+        <f>IF(ISBLANK(Extrapunkte!I21),0,Extrapunkte!I21)</f>
+        <v>0</v>
+      </c>
+      <c r="M20" s="56">
+        <f>IF(ISBLANK(Extrapunkte!J21),0,Extrapunkte!M21)</f>
+        <v>0</v>
+      </c>
       <c r="N20" s="34">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -4206,7 +4418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:24" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:24" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="54">
         <f>RAWDATA!B21</f>
         <v>0</v>
@@ -4239,8 +4451,14 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L21" s="56"/>
-      <c r="M21" s="56"/>
+      <c r="L21" s="56">
+        <f>IF(ISBLANK(Extrapunkte!I22),0,Extrapunkte!I22)</f>
+        <v>0</v>
+      </c>
+      <c r="M21" s="56">
+        <f>IF(ISBLANK(Extrapunkte!J22),0,Extrapunkte!M22)</f>
+        <v>0</v>
+      </c>
       <c r="N21" s="34">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -4274,7 +4492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:24" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:24" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="54">
         <f>RAWDATA!B22</f>
         <v>0</v>
@@ -4307,8 +4525,14 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L22" s="56"/>
-      <c r="M22" s="56"/>
+      <c r="L22" s="56">
+        <f>IF(ISBLANK(Extrapunkte!I23),0,Extrapunkte!I23)</f>
+        <v>0</v>
+      </c>
+      <c r="M22" s="56">
+        <f>IF(ISBLANK(Extrapunkte!J23),0,Extrapunkte!M23)</f>
+        <v>0</v>
+      </c>
       <c r="N22" s="34">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -4342,7 +4566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:24" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:24" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="54">
         <f>RAWDATA!B23</f>
         <v>0</v>
@@ -4375,8 +4599,14 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L23" s="56"/>
-      <c r="M23" s="56"/>
+      <c r="L23" s="56">
+        <f>IF(ISBLANK(Extrapunkte!I24),0,Extrapunkte!I24)</f>
+        <v>0</v>
+      </c>
+      <c r="M23" s="56">
+        <f>IF(ISBLANK(Extrapunkte!J24),0,Extrapunkte!M24)</f>
+        <v>0</v>
+      </c>
       <c r="N23" s="34">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -4410,7 +4640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:24" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:24" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="54">
         <f>RAWDATA!B24</f>
         <v>0</v>
@@ -4443,8 +4673,14 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L24" s="56"/>
-      <c r="M24" s="56"/>
+      <c r="L24" s="56">
+        <f>IF(ISBLANK(Extrapunkte!I25),0,Extrapunkte!I25)</f>
+        <v>0</v>
+      </c>
+      <c r="M24" s="56">
+        <f>IF(ISBLANK(Extrapunkte!J25),0,Extrapunkte!M25)</f>
+        <v>0</v>
+      </c>
       <c r="N24" s="34">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -4478,7 +4714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:24" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:24" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="54">
         <f>RAWDATA!B25</f>
         <v>0</v>
@@ -4511,8 +4747,14 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L25" s="56"/>
-      <c r="M25" s="56"/>
+      <c r="L25" s="56">
+        <f>IF(ISBLANK(Extrapunkte!I26),0,Extrapunkte!I26)</f>
+        <v>0</v>
+      </c>
+      <c r="M25" s="56">
+        <f>IF(ISBLANK(Extrapunkte!J26),0,Extrapunkte!M26)</f>
+        <v>0</v>
+      </c>
       <c r="N25" s="34">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -4546,7 +4788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:24" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:24" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="54">
         <f>RAWDATA!B26</f>
         <v>0</v>
@@ -4576,11 +4818,17 @@
       <c r="I26" s="56"/>
       <c r="J26" s="56"/>
       <c r="K26" s="34">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L26" s="56"/>
-      <c r="M26" s="56"/>
+        <f>SUM(H26:J26)</f>
+        <v>0</v>
+      </c>
+      <c r="L26" s="56">
+        <f>IF(ISBLANK(Extrapunkte!I27),0,Extrapunkte!I27)</f>
+        <v>0</v>
+      </c>
+      <c r="M26" s="56">
+        <f>IF(ISBLANK(Extrapunkte!J27),0,Extrapunkte!M27)</f>
+        <v>0</v>
+      </c>
       <c r="N26" s="34">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -4614,7 +4862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:24" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:24" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="4"/>
       <c r="B27" s="4" t="s">
         <v>9</v>
@@ -4624,27 +4872,16 @@
       <c r="E27" s="9"/>
       <c r="F27" s="4"/>
       <c r="G27" s="4"/>
-      <c r="H27" s="5">
-        <v>50</v>
-      </c>
-      <c r="I27" s="5">
-        <v>10</v>
-      </c>
-      <c r="J27" s="5">
-        <v>10</v>
-      </c>
+      <c r="H27" s="5"/>
+      <c r="I27" s="5"/>
+      <c r="J27" s="5"/>
       <c r="K27" s="5">
-        <f t="shared" si="0"/>
         <v>70</v>
       </c>
-      <c r="L27" s="5">
-        <v>20</v>
-      </c>
-      <c r="M27" s="5">
-        <v>10</v>
-      </c>
+      <c r="L27" s="5"/>
+      <c r="M27" s="5"/>
       <c r="N27" s="5">
-        <f>SUM(K27:M27)</f>
+        <f>100</f>
         <v>100</v>
       </c>
       <c r="O27" s="4"/>
@@ -4653,7 +4890,7 @@
       <c r="R27" s="4"/>
       <c r="S27" s="4"/>
     </row>
-    <row r="28" spans="1:24" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:24" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="1" t="s">
         <v>55</v>
       </c>
@@ -4696,7 +4933,7 @@
       <c r="R28" s="4"/>
       <c r="S28" s="4"/>
     </row>
-    <row r="29" spans="1:24" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:24" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="4"/>
       <c r="B29" s="4" t="s">
         <v>10</v>
@@ -4731,7 +4968,7 @@
       <c r="R29" s="4"/>
       <c r="S29" s="4"/>
     </row>
-    <row r="30" spans="1:24" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:24" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="22"/>
       <c r="B30" s="22"/>
       <c r="C30" s="23"/>
@@ -4752,165 +4989,165 @@
       <c r="R30" s="22"/>
       <c r="S30" s="22"/>
     </row>
-    <row r="31" spans="1:24" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:24" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
         <v>13</v>
       </c>
       <c r="B31" s="35" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C31" s="23"/>
-      <c r="E31" s="82" t="s">
+      <c r="E31" s="96" t="s">
         <v>32</v>
       </c>
-      <c r="F31" s="82"/>
-      <c r="G31" s="82"/>
-      <c r="H31" s="82"/>
-      <c r="I31" s="82"/>
-      <c r="J31" s="82"/>
-      <c r="K31" s="82"/>
-      <c r="L31" s="82"/>
-      <c r="M31" s="82"/>
-      <c r="N31" s="82"/>
-      <c r="O31" s="82"/>
-      <c r="P31" s="82"/>
-      <c r="Q31" s="82"/>
-      <c r="R31" s="82"/>
+      <c r="F31" s="96"/>
+      <c r="G31" s="96"/>
+      <c r="H31" s="96"/>
+      <c r="I31" s="96"/>
+      <c r="J31" s="96"/>
+      <c r="K31" s="96"/>
+      <c r="L31" s="96"/>
+      <c r="M31" s="96"/>
+      <c r="N31" s="96"/>
+      <c r="O31" s="96"/>
+      <c r="P31" s="96"/>
+      <c r="Q31" s="96"/>
+      <c r="R31" s="96"/>
       <c r="S31" s="31"/>
     </row>
-    <row r="32" spans="1:24" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:24" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
         <v>14</v>
       </c>
       <c r="B32" s="36" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C32" s="23"/>
       <c r="D32" s="79"/>
-      <c r="E32" s="82"/>
-      <c r="F32" s="82"/>
-      <c r="G32" s="82"/>
-      <c r="H32" s="82"/>
-      <c r="I32" s="82"/>
-      <c r="J32" s="82"/>
-      <c r="K32" s="82"/>
-      <c r="L32" s="82"/>
-      <c r="M32" s="82"/>
-      <c r="N32" s="82"/>
-      <c r="O32" s="82"/>
-      <c r="P32" s="82"/>
-      <c r="Q32" s="82"/>
-      <c r="R32" s="82"/>
+      <c r="E32" s="96"/>
+      <c r="F32" s="96"/>
+      <c r="G32" s="96"/>
+      <c r="H32" s="96"/>
+      <c r="I32" s="96"/>
+      <c r="J32" s="96"/>
+      <c r="K32" s="96"/>
+      <c r="L32" s="96"/>
+      <c r="M32" s="96"/>
+      <c r="N32" s="96"/>
+      <c r="O32" s="96"/>
+      <c r="P32" s="96"/>
+      <c r="Q32" s="96"/>
+      <c r="R32" s="96"/>
       <c r="S32" s="31"/>
     </row>
-    <row r="33" spans="1:19" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:19" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
         <v>15</v>
       </c>
       <c r="B33" s="36" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C33" s="23"/>
       <c r="D33" s="79"/>
-      <c r="E33" s="82"/>
-      <c r="F33" s="82"/>
-      <c r="G33" s="82"/>
-      <c r="H33" s="82"/>
-      <c r="I33" s="82"/>
-      <c r="J33" s="82"/>
-      <c r="K33" s="82"/>
-      <c r="L33" s="82"/>
-      <c r="M33" s="82"/>
-      <c r="N33" s="82"/>
-      <c r="O33" s="82"/>
-      <c r="P33" s="82"/>
-      <c r="Q33" s="82"/>
-      <c r="R33" s="82"/>
+      <c r="E33" s="96"/>
+      <c r="F33" s="96"/>
+      <c r="G33" s="96"/>
+      <c r="H33" s="96"/>
+      <c r="I33" s="96"/>
+      <c r="J33" s="96"/>
+      <c r="K33" s="96"/>
+      <c r="L33" s="96"/>
+      <c r="M33" s="96"/>
+      <c r="N33" s="96"/>
+      <c r="O33" s="96"/>
+      <c r="P33" s="96"/>
+      <c r="Q33" s="96"/>
+      <c r="R33" s="96"/>
       <c r="S33" s="31"/>
     </row>
-    <row r="34" spans="1:19" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:19" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="s">
         <v>16</v>
       </c>
       <c r="B34" s="35" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C34" s="80" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D34" s="79"/>
-      <c r="E34" s="82"/>
-      <c r="F34" s="82"/>
-      <c r="G34" s="82"/>
-      <c r="H34" s="82"/>
-      <c r="I34" s="82"/>
-      <c r="J34" s="82"/>
-      <c r="K34" s="82"/>
-      <c r="L34" s="82"/>
-      <c r="M34" s="82"/>
-      <c r="N34" s="82"/>
-      <c r="O34" s="82"/>
-      <c r="P34" s="82"/>
-      <c r="Q34" s="82"/>
-      <c r="R34" s="82"/>
+      <c r="E34" s="96"/>
+      <c r="F34" s="96"/>
+      <c r="G34" s="96"/>
+      <c r="H34" s="96"/>
+      <c r="I34" s="96"/>
+      <c r="J34" s="96"/>
+      <c r="K34" s="96"/>
+      <c r="L34" s="96"/>
+      <c r="M34" s="96"/>
+      <c r="N34" s="96"/>
+      <c r="O34" s="96"/>
+      <c r="P34" s="96"/>
+      <c r="Q34" s="96"/>
+      <c r="R34" s="96"/>
       <c r="S34" s="31"/>
     </row>
-    <row r="35" spans="1:19" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:19" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
         <v>44</v>
       </c>
       <c r="B35" s="35" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C35" s="23"/>
       <c r="D35" s="79"/>
-      <c r="E35" s="82"/>
-      <c r="F35" s="82"/>
-      <c r="G35" s="82"/>
-      <c r="H35" s="82"/>
-      <c r="I35" s="82"/>
-      <c r="J35" s="82"/>
-      <c r="K35" s="82"/>
-      <c r="L35" s="82"/>
-      <c r="M35" s="82"/>
-      <c r="N35" s="82"/>
-      <c r="O35" s="82"/>
-      <c r="P35" s="82"/>
-      <c r="Q35" s="82"/>
-      <c r="R35" s="82"/>
+      <c r="E35" s="96"/>
+      <c r="F35" s="96"/>
+      <c r="G35" s="96"/>
+      <c r="H35" s="96"/>
+      <c r="I35" s="96"/>
+      <c r="J35" s="96"/>
+      <c r="K35" s="96"/>
+      <c r="L35" s="96"/>
+      <c r="M35" s="96"/>
+      <c r="N35" s="96"/>
+      <c r="O35" s="96"/>
+      <c r="P35" s="96"/>
+      <c r="Q35" s="96"/>
+      <c r="R35" s="96"/>
       <c r="S35" s="31"/>
     </row>
-    <row r="36" spans="1:19" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:19" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="4" t="s">
         <v>30</v>
       </c>
       <c r="B36" s="35" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C36" s="23"/>
       <c r="D36" s="79"/>
-      <c r="E36" s="82"/>
-      <c r="F36" s="82"/>
-      <c r="G36" s="82"/>
-      <c r="H36" s="82"/>
-      <c r="I36" s="82"/>
-      <c r="J36" s="82"/>
-      <c r="K36" s="82"/>
-      <c r="L36" s="82"/>
-      <c r="M36" s="82"/>
-      <c r="N36" s="82"/>
-      <c r="O36" s="82"/>
-      <c r="P36" s="82"/>
-      <c r="Q36" s="82"/>
-      <c r="R36" s="82"/>
+      <c r="E36" s="96"/>
+      <c r="F36" s="96"/>
+      <c r="G36" s="96"/>
+      <c r="H36" s="96"/>
+      <c r="I36" s="96"/>
+      <c r="J36" s="96"/>
+      <c r="K36" s="96"/>
+      <c r="L36" s="96"/>
+      <c r="M36" s="96"/>
+      <c r="N36" s="96"/>
+      <c r="O36" s="96"/>
+      <c r="P36" s="96"/>
+      <c r="Q36" s="96"/>
+      <c r="R36" s="96"/>
       <c r="S36" s="31"/>
     </row>
-    <row r="37" spans="1:19" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:19" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="4" t="s">
         <v>54</v>
       </c>
       <c r="B37" s="68" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C37" s="23"/>
       <c r="D37" s="79"/>
@@ -4930,7 +5167,7 @@
       <c r="R37" s="31"/>
       <c r="S37" s="31"/>
     </row>
-    <row r="38" spans="1:19" ht="13.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:19" ht="13.9" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="P38" s="22"/>
       <c r="Q38" s="25"/>
       <c r="R38" s="22"/>
@@ -4938,37 +5175,38 @@
     </row>
   </sheetData>
   <sheetProtection sheet="1" formatColumns="0" selectLockedCells="1"/>
+  <dataConsolidate/>
   <mergeCells count="1">
     <mergeCell ref="E31:R36"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
-  <conditionalFormatting sqref="H2:H26">
-    <cfRule type="cellIs" dxfId="12" priority="9" operator="greaterThan">
+  <conditionalFormatting sqref="H26">
+    <cfRule type="cellIs" dxfId="4" priority="9" stopIfTrue="1" operator="greaterThan">
       <formula>$H$27</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I2:I26">
-    <cfRule type="cellIs" dxfId="11" priority="8" operator="greaterThan">
+  <conditionalFormatting sqref="I26">
+    <cfRule type="cellIs" dxfId="3" priority="8" stopIfTrue="1" operator="greaterThan">
       <formula>$I$27</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J2:J26">
-    <cfRule type="cellIs" dxfId="10" priority="3" operator="greaterThan">
+  <conditionalFormatting sqref="J26">
+    <cfRule type="cellIs" dxfId="2" priority="3" stopIfTrue="1" operator="greaterThan">
       <formula>$I$27</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L2:L26">
-    <cfRule type="cellIs" dxfId="9" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="2" stopIfTrue="1" operator="greaterThan">
       <formula>$L$27</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M2:M26">
-    <cfRule type="cellIs" dxfId="8" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="0" priority="1" stopIfTrue="1" operator="greaterThan">
       <formula>$M$27</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B31" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B31">
       <formula1>DOZENT</formula1>
     </dataValidation>
   </dataValidations>
@@ -4983,7 +5221,1007 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.7109375" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" customWidth="1"/>
+    <col min="3" max="3" width="10.5703125" customWidth="1"/>
+    <col min="4" max="4" width="14" customWidth="1"/>
+    <col min="5" max="12" width="10.7109375" style="89" customWidth="1"/>
+    <col min="13" max="13" width="10.5703125" style="89" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="5.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" s="94" t="str">
+        <f>Notenliste!B34</f>
+        <v>course.name</v>
+      </c>
+      <c r="E1" s="97" t="s">
+        <v>132</v>
+      </c>
+      <c r="F1" s="97"/>
+      <c r="G1" s="97"/>
+      <c r="H1" s="97"/>
+      <c r="I1" s="85"/>
+      <c r="J1" s="98" t="s">
+        <v>133</v>
+      </c>
+      <c r="K1" s="99"/>
+      <c r="L1" s="99"/>
+    </row>
+    <row r="2" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A2" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" s="82" t="s">
+        <v>134</v>
+      </c>
+      <c r="F2" s="82" t="s">
+        <v>135</v>
+      </c>
+      <c r="G2" s="82" t="s">
+        <v>136</v>
+      </c>
+      <c r="H2" s="82" t="s">
+        <v>137</v>
+      </c>
+      <c r="I2" s="86" t="s">
+        <v>138</v>
+      </c>
+      <c r="J2" s="86" t="s">
+        <v>134</v>
+      </c>
+      <c r="K2" s="86" t="s">
+        <v>135</v>
+      </c>
+      <c r="L2" s="86" t="s">
+        <v>136</v>
+      </c>
+      <c r="M2" s="86" t="s">
+        <v>139</v>
+      </c>
+      <c r="N2" s="4"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" s="83" t="str">
+        <f>[1]RAWDATA!B2</f>
+        <v>applicant.last_name</v>
+      </c>
+      <c r="B3" s="83" t="str">
+        <f>[1]RAWDATA!C2</f>
+        <v>applicant.first_name</v>
+      </c>
+      <c r="C3" s="30" t="str">
+        <f>[1]RAWDATA!D2</f>
+        <v>applicant.origin.short_name</v>
+      </c>
+      <c r="D3" s="30" t="str">
+        <f>[1]RAWDATA!E2</f>
+        <v>applicant.tag</v>
+      </c>
+      <c r="E3" s="84"/>
+      <c r="F3" s="84"/>
+      <c r="G3" s="84"/>
+      <c r="H3" s="84"/>
+      <c r="I3" s="95">
+        <f>SUM(E3:H3)</f>
+        <v>0</v>
+      </c>
+      <c r="J3" s="84"/>
+      <c r="K3" s="84"/>
+      <c r="L3" s="84"/>
+      <c r="M3" s="90">
+        <f>SUM(J3:L3)</f>
+        <v>0</v>
+      </c>
+      <c r="N3" s="4"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" s="83">
+        <f>[1]RAWDATA!B3</f>
+        <v>0</v>
+      </c>
+      <c r="B4" s="83">
+        <f>[1]RAWDATA!C3</f>
+        <v>0</v>
+      </c>
+      <c r="C4" s="30">
+        <f>[1]RAWDATA!D3</f>
+        <v>0</v>
+      </c>
+      <c r="D4" s="30">
+        <f>[1]RAWDATA!E3</f>
+        <v>0</v>
+      </c>
+      <c r="E4" s="84"/>
+      <c r="F4" s="84"/>
+      <c r="G4" s="84"/>
+      <c r="H4" s="84"/>
+      <c r="I4" s="95">
+        <f t="shared" ref="I4:I27" si="0">SUM(E4:H4)</f>
+        <v>0</v>
+      </c>
+      <c r="J4" s="84"/>
+      <c r="K4" s="84"/>
+      <c r="L4" s="84"/>
+      <c r="M4" s="90">
+        <f t="shared" ref="M4:M27" si="1">SUM(J4:L4)</f>
+        <v>0</v>
+      </c>
+      <c r="N4" s="4"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" s="83">
+        <f>[1]RAWDATA!B4</f>
+        <v>0</v>
+      </c>
+      <c r="B5" s="83">
+        <f>[1]RAWDATA!C4</f>
+        <v>0</v>
+      </c>
+      <c r="C5" s="30">
+        <f>[1]RAWDATA!D4</f>
+        <v>0</v>
+      </c>
+      <c r="D5" s="30">
+        <f>[1]RAWDATA!E4</f>
+        <v>0</v>
+      </c>
+      <c r="E5" s="84"/>
+      <c r="F5" s="84"/>
+      <c r="G5" s="84"/>
+      <c r="H5" s="84"/>
+      <c r="I5" s="95">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J5" s="84"/>
+      <c r="K5" s="84"/>
+      <c r="L5" s="84"/>
+      <c r="M5" s="90">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N5" s="4"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" s="83">
+        <f>[1]RAWDATA!B5</f>
+        <v>0</v>
+      </c>
+      <c r="B6" s="83">
+        <f>[1]RAWDATA!C5</f>
+        <v>0</v>
+      </c>
+      <c r="C6" s="30">
+        <f>[1]RAWDATA!D5</f>
+        <v>0</v>
+      </c>
+      <c r="D6" s="30">
+        <f>[1]RAWDATA!E5</f>
+        <v>0</v>
+      </c>
+      <c r="E6" s="84"/>
+      <c r="F6" s="84"/>
+      <c r="G6" s="84"/>
+      <c r="H6" s="84"/>
+      <c r="I6" s="95">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J6" s="84"/>
+      <c r="K6" s="84"/>
+      <c r="L6" s="84"/>
+      <c r="M6" s="90">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N6" s="4"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" s="83">
+        <f>[1]RAWDATA!B6</f>
+        <v>0</v>
+      </c>
+      <c r="B7" s="83">
+        <f>[1]RAWDATA!C6</f>
+        <v>0</v>
+      </c>
+      <c r="C7" s="30">
+        <f>[1]RAWDATA!D6</f>
+        <v>0</v>
+      </c>
+      <c r="D7" s="30">
+        <f>[1]RAWDATA!E6</f>
+        <v>0</v>
+      </c>
+      <c r="E7" s="84"/>
+      <c r="F7" s="84"/>
+      <c r="G7" s="84"/>
+      <c r="H7" s="84"/>
+      <c r="I7" s="95">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J7" s="84"/>
+      <c r="K7" s="84"/>
+      <c r="L7" s="84"/>
+      <c r="M7" s="90">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N7" s="4"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" s="83">
+        <f>[1]RAWDATA!B7</f>
+        <v>0</v>
+      </c>
+      <c r="B8" s="83">
+        <f>[1]RAWDATA!C7</f>
+        <v>0</v>
+      </c>
+      <c r="C8" s="30">
+        <f>[1]RAWDATA!D7</f>
+        <v>0</v>
+      </c>
+      <c r="D8" s="30">
+        <f>[1]RAWDATA!E7</f>
+        <v>0</v>
+      </c>
+      <c r="E8" s="84"/>
+      <c r="F8" s="84"/>
+      <c r="G8" s="84"/>
+      <c r="H8" s="84"/>
+      <c r="I8" s="95">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J8" s="84"/>
+      <c r="K8" s="84"/>
+      <c r="L8" s="84"/>
+      <c r="M8" s="90">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N8" s="4"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" s="83">
+        <f>[1]RAWDATA!B8</f>
+        <v>0</v>
+      </c>
+      <c r="B9" s="83">
+        <f>[1]RAWDATA!C8</f>
+        <v>0</v>
+      </c>
+      <c r="C9" s="30">
+        <f>[1]RAWDATA!D8</f>
+        <v>0</v>
+      </c>
+      <c r="D9" s="30">
+        <f>[1]RAWDATA!E8</f>
+        <v>0</v>
+      </c>
+      <c r="E9" s="84"/>
+      <c r="F9" s="84"/>
+      <c r="G9" s="84"/>
+      <c r="H9" s="84"/>
+      <c r="I9" s="95">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J9" s="84"/>
+      <c r="K9" s="84"/>
+      <c r="L9" s="84"/>
+      <c r="M9" s="90">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N9" s="4"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" s="83">
+        <f>[1]RAWDATA!B9</f>
+        <v>0</v>
+      </c>
+      <c r="B10" s="83">
+        <f>[1]RAWDATA!C9</f>
+        <v>0</v>
+      </c>
+      <c r="C10" s="30">
+        <f>[1]RAWDATA!D9</f>
+        <v>0</v>
+      </c>
+      <c r="D10" s="30">
+        <f>[1]RAWDATA!E9</f>
+        <v>0</v>
+      </c>
+      <c r="E10" s="84"/>
+      <c r="F10" s="84"/>
+      <c r="G10" s="84"/>
+      <c r="H10" s="84"/>
+      <c r="I10" s="95">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J10" s="84"/>
+      <c r="K10" s="84"/>
+      <c r="L10" s="84"/>
+      <c r="M10" s="90">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N10" s="4"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" s="83">
+        <f>[1]RAWDATA!B10</f>
+        <v>0</v>
+      </c>
+      <c r="B11" s="83">
+        <f>[1]RAWDATA!C10</f>
+        <v>0</v>
+      </c>
+      <c r="C11" s="30">
+        <f>[1]RAWDATA!D10</f>
+        <v>0</v>
+      </c>
+      <c r="D11" s="30">
+        <f>[1]RAWDATA!E10</f>
+        <v>0</v>
+      </c>
+      <c r="E11" s="84"/>
+      <c r="F11" s="84"/>
+      <c r="G11" s="84"/>
+      <c r="H11" s="84"/>
+      <c r="I11" s="95">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J11" s="84"/>
+      <c r="K11" s="84"/>
+      <c r="L11" s="84"/>
+      <c r="M11" s="90">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N11" s="4"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" s="83">
+        <f>[1]RAWDATA!B11</f>
+        <v>0</v>
+      </c>
+      <c r="B12" s="83">
+        <f>[1]RAWDATA!C11</f>
+        <v>0</v>
+      </c>
+      <c r="C12" s="30">
+        <f>[1]RAWDATA!D11</f>
+        <v>0</v>
+      </c>
+      <c r="D12" s="30">
+        <f>[1]RAWDATA!E11</f>
+        <v>0</v>
+      </c>
+      <c r="E12" s="84"/>
+      <c r="F12" s="84"/>
+      <c r="G12" s="84"/>
+      <c r="H12" s="84"/>
+      <c r="I12" s="95">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J12" s="84"/>
+      <c r="K12" s="84"/>
+      <c r="L12" s="84"/>
+      <c r="M12" s="90">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N12" s="4"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" s="83">
+        <f>[1]RAWDATA!B12</f>
+        <v>0</v>
+      </c>
+      <c r="B13" s="83">
+        <f>[1]RAWDATA!C12</f>
+        <v>0</v>
+      </c>
+      <c r="C13" s="30">
+        <f>[1]RAWDATA!D12</f>
+        <v>0</v>
+      </c>
+      <c r="D13" s="30">
+        <f>[1]RAWDATA!E12</f>
+        <v>0</v>
+      </c>
+      <c r="E13" s="84"/>
+      <c r="F13" s="84"/>
+      <c r="G13" s="84"/>
+      <c r="H13" s="84"/>
+      <c r="I13" s="95">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J13" s="84"/>
+      <c r="K13" s="84"/>
+      <c r="L13" s="84"/>
+      <c r="M13" s="90">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N13" s="4"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14" s="83">
+        <f>[1]RAWDATA!B13</f>
+        <v>0</v>
+      </c>
+      <c r="B14" s="83">
+        <f>[1]RAWDATA!C13</f>
+        <v>0</v>
+      </c>
+      <c r="C14" s="30">
+        <f>[1]RAWDATA!D13</f>
+        <v>0</v>
+      </c>
+      <c r="D14" s="30">
+        <f>[1]RAWDATA!E13</f>
+        <v>0</v>
+      </c>
+      <c r="E14" s="84"/>
+      <c r="F14" s="84"/>
+      <c r="G14" s="84"/>
+      <c r="H14" s="84"/>
+      <c r="I14" s="95">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J14" s="84"/>
+      <c r="K14" s="84"/>
+      <c r="L14" s="84"/>
+      <c r="M14" s="90">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N14" s="4"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" s="83">
+        <f>[1]RAWDATA!B14</f>
+        <v>0</v>
+      </c>
+      <c r="B15" s="83">
+        <f>[1]RAWDATA!C14</f>
+        <v>0</v>
+      </c>
+      <c r="C15" s="30">
+        <f>[1]RAWDATA!D14</f>
+        <v>0</v>
+      </c>
+      <c r="D15" s="30">
+        <f>[1]RAWDATA!E14</f>
+        <v>0</v>
+      </c>
+      <c r="E15" s="84"/>
+      <c r="F15" s="84"/>
+      <c r="G15" s="84"/>
+      <c r="H15" s="84"/>
+      <c r="I15" s="95">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J15" s="84"/>
+      <c r="K15" s="84"/>
+      <c r="L15" s="84"/>
+      <c r="M15" s="90">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N15" s="4"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16" s="83">
+        <f>[1]RAWDATA!B15</f>
+        <v>0</v>
+      </c>
+      <c r="B16" s="83">
+        <f>[1]RAWDATA!C15</f>
+        <v>0</v>
+      </c>
+      <c r="C16" s="30">
+        <f>[1]RAWDATA!D15</f>
+        <v>0</v>
+      </c>
+      <c r="D16" s="30">
+        <f>[1]RAWDATA!E15</f>
+        <v>0</v>
+      </c>
+      <c r="E16" s="84"/>
+      <c r="F16" s="84"/>
+      <c r="G16" s="84"/>
+      <c r="H16" s="84"/>
+      <c r="I16" s="95">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J16" s="84"/>
+      <c r="K16" s="84"/>
+      <c r="L16" s="84"/>
+      <c r="M16" s="90">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N16" s="4"/>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17" s="83">
+        <f>[1]RAWDATA!B16</f>
+        <v>0</v>
+      </c>
+      <c r="B17" s="83">
+        <f>[1]RAWDATA!C16</f>
+        <v>0</v>
+      </c>
+      <c r="C17" s="30">
+        <f>[1]RAWDATA!D16</f>
+        <v>0</v>
+      </c>
+      <c r="D17" s="30">
+        <f>[1]RAWDATA!E16</f>
+        <v>0</v>
+      </c>
+      <c r="E17" s="84"/>
+      <c r="F17" s="84"/>
+      <c r="G17" s="84"/>
+      <c r="H17" s="84"/>
+      <c r="I17" s="95">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J17" s="84"/>
+      <c r="K17" s="84"/>
+      <c r="L17" s="84"/>
+      <c r="M17" s="90">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N17" s="4"/>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A18" s="83">
+        <f>[1]RAWDATA!B17</f>
+        <v>0</v>
+      </c>
+      <c r="B18" s="83">
+        <f>[1]RAWDATA!C17</f>
+        <v>0</v>
+      </c>
+      <c r="C18" s="30">
+        <f>[1]RAWDATA!D17</f>
+        <v>0</v>
+      </c>
+      <c r="D18" s="30">
+        <f>[1]RAWDATA!E17</f>
+        <v>0</v>
+      </c>
+      <c r="E18" s="84"/>
+      <c r="F18" s="84"/>
+      <c r="G18" s="84"/>
+      <c r="H18" s="84"/>
+      <c r="I18" s="95">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J18" s="84"/>
+      <c r="K18" s="84"/>
+      <c r="L18" s="84"/>
+      <c r="M18" s="90">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N18" s="4"/>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A19" s="83">
+        <f>[1]RAWDATA!B18</f>
+        <v>0</v>
+      </c>
+      <c r="B19" s="83">
+        <f>[1]RAWDATA!C18</f>
+        <v>0</v>
+      </c>
+      <c r="C19" s="30">
+        <f>[1]RAWDATA!D18</f>
+        <v>0</v>
+      </c>
+      <c r="D19" s="30">
+        <f>[1]RAWDATA!E18</f>
+        <v>0</v>
+      </c>
+      <c r="E19" s="84"/>
+      <c r="F19" s="84"/>
+      <c r="G19" s="84"/>
+      <c r="H19" s="84"/>
+      <c r="I19" s="95">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J19" s="84"/>
+      <c r="K19" s="84"/>
+      <c r="L19" s="84"/>
+      <c r="M19" s="90">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N19" s="4"/>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A20" s="83">
+        <f>[1]RAWDATA!B19</f>
+        <v>0</v>
+      </c>
+      <c r="B20" s="83">
+        <f>[1]RAWDATA!C19</f>
+        <v>0</v>
+      </c>
+      <c r="C20" s="30">
+        <f>[1]RAWDATA!D19</f>
+        <v>0</v>
+      </c>
+      <c r="D20" s="30">
+        <f>[1]RAWDATA!E19</f>
+        <v>0</v>
+      </c>
+      <c r="E20" s="84"/>
+      <c r="F20" s="84"/>
+      <c r="G20" s="84"/>
+      <c r="H20" s="84"/>
+      <c r="I20" s="95">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J20" s="84"/>
+      <c r="K20" s="84"/>
+      <c r="L20" s="84"/>
+      <c r="M20" s="90">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N20" s="4"/>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A21" s="83">
+        <f>[1]RAWDATA!B20</f>
+        <v>0</v>
+      </c>
+      <c r="B21" s="83">
+        <f>[1]RAWDATA!C20</f>
+        <v>0</v>
+      </c>
+      <c r="C21" s="30">
+        <f>[1]RAWDATA!D20</f>
+        <v>0</v>
+      </c>
+      <c r="D21" s="30">
+        <f>[1]RAWDATA!E20</f>
+        <v>0</v>
+      </c>
+      <c r="E21" s="84"/>
+      <c r="F21" s="84"/>
+      <c r="G21" s="84"/>
+      <c r="H21" s="84"/>
+      <c r="I21" s="95">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J21" s="84"/>
+      <c r="K21" s="84"/>
+      <c r="L21" s="84"/>
+      <c r="M21" s="90">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N21" s="4"/>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A22" s="83">
+        <f>[1]RAWDATA!B21</f>
+        <v>0</v>
+      </c>
+      <c r="B22" s="83">
+        <f>[1]RAWDATA!C21</f>
+        <v>0</v>
+      </c>
+      <c r="C22" s="30">
+        <f>[1]RAWDATA!D21</f>
+        <v>0</v>
+      </c>
+      <c r="D22" s="30">
+        <f>[1]RAWDATA!E21</f>
+        <v>0</v>
+      </c>
+      <c r="E22" s="84"/>
+      <c r="F22" s="84"/>
+      <c r="G22" s="84"/>
+      <c r="H22" s="84"/>
+      <c r="I22" s="95">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J22" s="84"/>
+      <c r="K22" s="84"/>
+      <c r="L22" s="84"/>
+      <c r="M22" s="90">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N22" s="4"/>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A23" s="83">
+        <f>[1]RAWDATA!B22</f>
+        <v>0</v>
+      </c>
+      <c r="B23" s="83">
+        <f>[1]RAWDATA!C22</f>
+        <v>0</v>
+      </c>
+      <c r="C23" s="30">
+        <f>[1]RAWDATA!D22</f>
+        <v>0</v>
+      </c>
+      <c r="D23" s="30">
+        <f>[1]RAWDATA!E22</f>
+        <v>0</v>
+      </c>
+      <c r="E23" s="84"/>
+      <c r="F23" s="84"/>
+      <c r="G23" s="84"/>
+      <c r="H23" s="84"/>
+      <c r="I23" s="95">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J23" s="84"/>
+      <c r="K23" s="84"/>
+      <c r="L23" s="84"/>
+      <c r="M23" s="90">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N23" s="4"/>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A24" s="83">
+        <f>[1]RAWDATA!B23</f>
+        <v>0</v>
+      </c>
+      <c r="B24" s="83">
+        <f>[1]RAWDATA!C23</f>
+        <v>0</v>
+      </c>
+      <c r="C24" s="30">
+        <f>[1]RAWDATA!D23</f>
+        <v>0</v>
+      </c>
+      <c r="D24" s="30">
+        <f>[1]RAWDATA!E23</f>
+        <v>0</v>
+      </c>
+      <c r="E24" s="84"/>
+      <c r="F24" s="84"/>
+      <c r="G24" s="84"/>
+      <c r="H24" s="84"/>
+      <c r="I24" s="95">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J24" s="84"/>
+      <c r="K24" s="84"/>
+      <c r="L24" s="84"/>
+      <c r="M24" s="90">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N24" s="4"/>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A25" s="83">
+        <f>[1]RAWDATA!B24</f>
+        <v>0</v>
+      </c>
+      <c r="B25" s="83">
+        <f>[1]RAWDATA!C24</f>
+        <v>0</v>
+      </c>
+      <c r="C25" s="30">
+        <f>[1]RAWDATA!D24</f>
+        <v>0</v>
+      </c>
+      <c r="D25" s="30">
+        <f>[1]RAWDATA!E24</f>
+        <v>0</v>
+      </c>
+      <c r="E25" s="84"/>
+      <c r="F25" s="84"/>
+      <c r="G25" s="84"/>
+      <c r="H25" s="84"/>
+      <c r="I25" s="95">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J25" s="84"/>
+      <c r="K25" s="84"/>
+      <c r="L25" s="84"/>
+      <c r="M25" s="90">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N25" s="4"/>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A26" s="83">
+        <f>[1]RAWDATA!B25</f>
+        <v>0</v>
+      </c>
+      <c r="B26" s="83">
+        <f>[1]RAWDATA!C25</f>
+        <v>0</v>
+      </c>
+      <c r="C26" s="30">
+        <f>[1]RAWDATA!D25</f>
+        <v>0</v>
+      </c>
+      <c r="D26" s="30">
+        <f>[1]RAWDATA!E25</f>
+        <v>0</v>
+      </c>
+      <c r="E26" s="84"/>
+      <c r="F26" s="84"/>
+      <c r="G26" s="84"/>
+      <c r="H26" s="84"/>
+      <c r="I26" s="95">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J26" s="84"/>
+      <c r="K26" s="84"/>
+      <c r="L26" s="84"/>
+      <c r="M26" s="90">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N26" s="4"/>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A27" s="83">
+        <f>[1]RAWDATA!B26</f>
+        <v>0</v>
+      </c>
+      <c r="B27" s="83">
+        <f>[1]RAWDATA!C26</f>
+        <v>0</v>
+      </c>
+      <c r="C27" s="30">
+        <f>[1]RAWDATA!D26</f>
+        <v>0</v>
+      </c>
+      <c r="D27" s="30">
+        <f>[1]RAWDATA!E26</f>
+        <v>0</v>
+      </c>
+      <c r="E27" s="84"/>
+      <c r="F27" s="84"/>
+      <c r="G27" s="84"/>
+      <c r="H27" s="84"/>
+      <c r="I27" s="95">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J27" s="84"/>
+      <c r="K27" s="84"/>
+      <c r="L27" s="84"/>
+      <c r="M27" s="90">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N27" s="4"/>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A28" s="4"/>
+      <c r="B28" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28" s="6"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="87"/>
+      <c r="F28" s="87"/>
+      <c r="G28" s="87"/>
+      <c r="H28" s="87"/>
+      <c r="I28" s="87"/>
+      <c r="J28" s="87"/>
+      <c r="K28" s="87"/>
+      <c r="L28" s="87"/>
+      <c r="M28" s="91"/>
+      <c r="N28" s="4"/>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A29" s="1"/>
+      <c r="B29" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="88"/>
+      <c r="F29" s="88"/>
+      <c r="G29" s="88"/>
+      <c r="H29" s="88"/>
+      <c r="I29" s="88"/>
+      <c r="J29" s="88"/>
+      <c r="K29" s="88"/>
+      <c r="L29" s="88"/>
+      <c r="M29" s="92">
+        <f>AVERAGE(IF(ISNUMBER(M3:M27),M3:M27))</f>
+        <v>0</v>
+      </c>
+      <c r="N29" s="4"/>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A30" s="4"/>
+      <c r="B30" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C30" s="6"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="87"/>
+      <c r="F30" s="87"/>
+      <c r="G30" s="87"/>
+      <c r="H30" s="87"/>
+      <c r="I30" s="87"/>
+      <c r="J30" s="87"/>
+      <c r="K30" s="87"/>
+      <c r="L30" s="87"/>
+      <c r="M30" s="93">
+        <f>ROUNDUP(STDEVP(M3:M19),1)</f>
+        <v>0</v>
+      </c>
+      <c r="N30" s="4"/>
+    </row>
+  </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1" formatCells="0" selectLockedCells="1"/>
+  <mergeCells count="2">
+    <mergeCell ref="E1:H1"/>
+    <mergeCell ref="J1:L1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Tabelle3">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -4993,20 +6231,20 @@
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="14.4" zeroHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.44140625" customWidth="1"/>
-    <col min="2" max="2" width="11.44140625" style="7" customWidth="1"/>
-    <col min="3" max="8" width="11.44140625" customWidth="1"/>
-    <col min="9" max="16384" width="11.44140625" hidden="1"/>
+    <col min="1" max="1" width="11.42578125" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" style="7" customWidth="1"/>
+    <col min="3" max="8" width="11.42578125" customWidth="1"/>
+    <col min="9" max="16384" width="11.42578125" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="83" t="str">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="100" t="str">
         <f>Notenliste!B34</f>
         <v>course.name</v>
       </c>
-      <c r="B1" s="83"/>
+      <c r="B1" s="100"/>
       <c r="C1" s="8" t="s">
         <v>12</v>
       </c>
@@ -5015,7 +6253,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>5</v>
       </c>
@@ -5023,7 +6261,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <v>1</v>
       </c>
@@ -5032,7 +6270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <v>1.3</v>
       </c>
@@ -5041,7 +6279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <v>1.7</v>
       </c>
@@ -5050,7 +6288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <v>2</v>
       </c>
@@ -5059,7 +6297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <v>2.2999999999999998</v>
       </c>
@@ -5068,7 +6306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <v>2.7</v>
       </c>
@@ -5077,7 +6315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <v>3</v>
       </c>
@@ -5086,7 +6324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
         <v>3.3</v>
       </c>
@@ -5095,7 +6333,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
         <v>3.7</v>
       </c>
@@ -5104,7 +6342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
         <v>4</v>
       </c>
@@ -5113,7 +6351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>31</v>
       </c>
@@ -5133,8 +6371,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Tabelle4">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -5144,64 +6382,64 @@
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="14.4" zeroHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="25.6640625" customWidth="1"/>
-    <col min="4" max="5" width="10.6640625" style="20" customWidth="1"/>
-    <col min="6" max="6" width="40.6640625" customWidth="1"/>
-    <col min="7" max="7" width="20.6640625" customWidth="1"/>
-    <col min="8" max="8" width="10.6640625" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="9.33203125" hidden="1" customWidth="1"/>
-    <col min="10" max="13" width="5.6640625" style="7" customWidth="1"/>
-    <col min="14" max="14" width="5.6640625" customWidth="1"/>
-    <col min="15" max="15" width="1.77734375" customWidth="1"/>
-    <col min="16" max="16384" width="11.44140625" hidden="1"/>
+    <col min="1" max="1" width="3.7109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="25.7109375" customWidth="1"/>
+    <col min="4" max="5" width="10.7109375" style="20" customWidth="1"/>
+    <col min="6" max="6" width="40.7109375" customWidth="1"/>
+    <col min="7" max="7" width="20.7109375" customWidth="1"/>
+    <col min="8" max="8" width="10.7109375" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="9.28515625" hidden="1" customWidth="1"/>
+    <col min="10" max="13" width="5.7109375" style="7" customWidth="1"/>
+    <col min="14" max="14" width="5.7109375" customWidth="1"/>
+    <col min="15" max="15" width="1.7109375" customWidth="1"/>
+    <col min="16" max="16384" width="11.42578125" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="84" t="str">
+    <row r="1" spans="1:15" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="101" t="str">
         <f>Notenliste!B34&amp;Notenliste!B35</f>
         <v>course.namecourse.alternative</v>
       </c>
-      <c r="B1" s="84"/>
-      <c r="C1" s="84"/>
-      <c r="D1" s="84"/>
-      <c r="E1" s="84"/>
-      <c r="F1" s="84"/>
-      <c r="G1" s="84"/>
-      <c r="H1" s="84"/>
-      <c r="I1" s="84"/>
-      <c r="J1" s="84"/>
-      <c r="K1" s="84"/>
-      <c r="L1" s="84"/>
-      <c r="M1" s="84"/>
-      <c r="N1" s="84"/>
-    </row>
-    <row r="2" spans="1:15" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="85" t="str">
+      <c r="B1" s="101"/>
+      <c r="C1" s="101"/>
+      <c r="D1" s="101"/>
+      <c r="E1" s="101"/>
+      <c r="F1" s="101"/>
+      <c r="G1" s="101"/>
+      <c r="H1" s="101"/>
+      <c r="I1" s="101"/>
+      <c r="J1" s="101"/>
+      <c r="K1" s="101"/>
+      <c r="L1" s="101"/>
+      <c r="M1" s="101"/>
+      <c r="N1" s="101"/>
+    </row>
+    <row r="2" spans="1:15" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="102" t="str">
         <f>"Dozent/in: "&amp;Notenliste!B31</f>
         <v>Dozent/in: Elena Moya Royo</v>
       </c>
-      <c r="B2" s="85"/>
-      <c r="C2" s="85"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="85"/>
-      <c r="F2" s="85"/>
-      <c r="G2" s="86" t="str">
+      <c r="B2" s="102"/>
+      <c r="C2" s="102"/>
+      <c r="D2" s="102"/>
+      <c r="E2" s="102"/>
+      <c r="F2" s="102"/>
+      <c r="G2" s="103" t="str">
         <f>"Semester: "&amp;Notenliste!B36</f>
         <v>Semester: semester</v>
       </c>
-      <c r="H2" s="86"/>
-      <c r="I2" s="86"/>
-      <c r="J2" s="86"/>
-      <c r="K2" s="86"/>
-      <c r="L2" s="86"/>
-      <c r="M2" s="86"/>
-      <c r="N2" s="86"/>
+      <c r="H2" s="103"/>
+      <c r="I2" s="103"/>
+      <c r="J2" s="103"/>
+      <c r="K2" s="103"/>
+      <c r="L2" s="103"/>
+      <c r="M2" s="103"/>
+      <c r="N2" s="103"/>
       <c r="O2" s="62"/>
     </row>
-    <row r="3" spans="1:15" s="16" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" s="16" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
         <v>24</v>
       </c>
@@ -5246,7 +6484,7 @@
       </c>
       <c r="O3" s="63"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="17">
         <v>1</v>
       </c>
@@ -5304,7 +6542,7 @@
       </c>
       <c r="O4" s="62"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="17">
         <v>2</v>
       </c>
@@ -5362,7 +6600,7 @@
       </c>
       <c r="O5" s="62"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="17">
         <v>3</v>
       </c>
@@ -5420,7 +6658,7 @@
       </c>
       <c r="O6" s="62"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="17">
         <v>4</v>
       </c>
@@ -5478,7 +6716,7 @@
       </c>
       <c r="O7" s="62"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="17">
         <v>5</v>
       </c>
@@ -5536,7 +6774,7 @@
       </c>
       <c r="O8" s="62"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="17">
         <v>6</v>
       </c>
@@ -5594,7 +6832,7 @@
       </c>
       <c r="O9" s="62"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="17">
         <v>7</v>
       </c>
@@ -5652,7 +6890,7 @@
       </c>
       <c r="O10" s="62"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="17">
         <v>8</v>
       </c>
@@ -5710,7 +6948,7 @@
       </c>
       <c r="O11" s="62"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="17">
         <v>9</v>
       </c>
@@ -5768,7 +7006,7 @@
       </c>
       <c r="O12" s="62"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="17">
         <v>10</v>
       </c>
@@ -5826,7 +7064,7 @@
       </c>
       <c r="O13" s="62"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="17">
         <v>11</v>
       </c>
@@ -5884,7 +7122,7 @@
       </c>
       <c r="O14" s="62"/>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="17">
         <v>12</v>
       </c>
@@ -5942,7 +7180,7 @@
       </c>
       <c r="O15" s="62"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="17">
         <v>13</v>
       </c>
@@ -6000,7 +7238,7 @@
       </c>
       <c r="O16" s="62"/>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="17">
         <v>14</v>
       </c>
@@ -6058,7 +7296,7 @@
       </c>
       <c r="O17" s="62"/>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="17">
         <v>15</v>
       </c>
@@ -6116,7 +7354,7 @@
       </c>
       <c r="O18" s="62"/>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="17">
         <v>16</v>
       </c>
@@ -6174,7 +7412,7 @@
       </c>
       <c r="O19" s="62"/>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="17">
         <v>17</v>
       </c>
@@ -6232,7 +7470,7 @@
       </c>
       <c r="O20" s="62"/>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="17">
         <v>18</v>
       </c>
@@ -6290,7 +7528,7 @@
       </c>
       <c r="O21" s="62"/>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="17">
         <v>19</v>
       </c>
@@ -6348,7 +7586,7 @@
       </c>
       <c r="O22" s="62"/>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="17">
         <v>20</v>
       </c>
@@ -6406,7 +7644,7 @@
       </c>
       <c r="O23" s="62"/>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="17">
         <v>21</v>
       </c>
@@ -6464,7 +7702,7 @@
       </c>
       <c r="O24" s="62"/>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="17">
         <v>22</v>
       </c>
@@ -6522,7 +7760,7 @@
       </c>
       <c r="O25" s="62"/>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="17">
         <v>23</v>
       </c>
@@ -6580,7 +7818,7 @@
       </c>
       <c r="O26" s="62"/>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="17">
         <v>24</v>
       </c>
@@ -6638,7 +7876,7 @@
       </c>
       <c r="O27" s="62"/>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="17">
         <v>25</v>
       </c>
@@ -6696,7 +7934,7 @@
       </c>
       <c r="O28" s="62"/>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="59"/>
       <c r="B29" s="60"/>
       <c r="C29" s="60"/>
@@ -6719,91 +7957,91 @@
       <c r="N29" s="59"/>
       <c r="O29" s="62"/>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A30" s="87" t="s">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A30" s="104" t="s">
         <v>43</v>
       </c>
-      <c r="B30" s="87"/>
-      <c r="C30" s="87"/>
-      <c r="D30" s="87"/>
-      <c r="E30" s="87"/>
-      <c r="F30" s="87"/>
-      <c r="G30" s="87"/>
-      <c r="H30" s="87"/>
-      <c r="I30" s="87"/>
-      <c r="J30" s="87"/>
-      <c r="K30" s="87"/>
-      <c r="L30" s="87"/>
-      <c r="M30" s="87"/>
-      <c r="N30" s="87"/>
+      <c r="B30" s="104"/>
+      <c r="C30" s="104"/>
+      <c r="D30" s="104"/>
+      <c r="E30" s="104"/>
+      <c r="F30" s="104"/>
+      <c r="G30" s="104"/>
+      <c r="H30" s="104"/>
+      <c r="I30" s="104"/>
+      <c r="J30" s="104"/>
+      <c r="K30" s="104"/>
+      <c r="L30" s="104"/>
+      <c r="M30" s="104"/>
+      <c r="N30" s="104"/>
       <c r="O30" s="62"/>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A31" s="87"/>
-      <c r="B31" s="87"/>
-      <c r="C31" s="87"/>
-      <c r="D31" s="87"/>
-      <c r="E31" s="87"/>
-      <c r="F31" s="87"/>
-      <c r="G31" s="87"/>
-      <c r="H31" s="87"/>
-      <c r="I31" s="87"/>
-      <c r="J31" s="87"/>
-      <c r="K31" s="87"/>
-      <c r="L31" s="87"/>
-      <c r="M31" s="87"/>
-      <c r="N31" s="87"/>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A31" s="104"/>
+      <c r="B31" s="104"/>
+      <c r="C31" s="104"/>
+      <c r="D31" s="104"/>
+      <c r="E31" s="104"/>
+      <c r="F31" s="104"/>
+      <c r="G31" s="104"/>
+      <c r="H31" s="104"/>
+      <c r="I31" s="104"/>
+      <c r="J31" s="104"/>
+      <c r="K31" s="104"/>
+      <c r="L31" s="104"/>
+      <c r="M31" s="104"/>
+      <c r="N31" s="104"/>
       <c r="O31" s="62"/>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A32" s="87"/>
-      <c r="B32" s="87"/>
-      <c r="C32" s="87"/>
-      <c r="D32" s="87"/>
-      <c r="E32" s="87"/>
-      <c r="F32" s="87"/>
-      <c r="G32" s="87"/>
-      <c r="H32" s="87"/>
-      <c r="I32" s="87"/>
-      <c r="J32" s="87"/>
-      <c r="K32" s="87"/>
-      <c r="L32" s="87"/>
-      <c r="M32" s="87"/>
-      <c r="N32" s="87"/>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A32" s="104"/>
+      <c r="B32" s="104"/>
+      <c r="C32" s="104"/>
+      <c r="D32" s="104"/>
+      <c r="E32" s="104"/>
+      <c r="F32" s="104"/>
+      <c r="G32" s="104"/>
+      <c r="H32" s="104"/>
+      <c r="I32" s="104"/>
+      <c r="J32" s="104"/>
+      <c r="K32" s="104"/>
+      <c r="L32" s="104"/>
+      <c r="M32" s="104"/>
+      <c r="N32" s="104"/>
       <c r="O32" s="62"/>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A33" s="87"/>
-      <c r="B33" s="87"/>
-      <c r="C33" s="87"/>
-      <c r="D33" s="87"/>
-      <c r="E33" s="87"/>
-      <c r="F33" s="87"/>
-      <c r="G33" s="87"/>
-      <c r="H33" s="87"/>
-      <c r="I33" s="87"/>
-      <c r="J33" s="87"/>
-      <c r="K33" s="87"/>
-      <c r="L33" s="87"/>
-      <c r="M33" s="87"/>
-      <c r="N33" s="87"/>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A33" s="104"/>
+      <c r="B33" s="104"/>
+      <c r="C33" s="104"/>
+      <c r="D33" s="104"/>
+      <c r="E33" s="104"/>
+      <c r="F33" s="104"/>
+      <c r="G33" s="104"/>
+      <c r="H33" s="104"/>
+      <c r="I33" s="104"/>
+      <c r="J33" s="104"/>
+      <c r="K33" s="104"/>
+      <c r="L33" s="104"/>
+      <c r="M33" s="104"/>
+      <c r="N33" s="104"/>
       <c r="O33" s="62"/>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A34" s="87"/>
-      <c r="B34" s="87"/>
-      <c r="C34" s="87"/>
-      <c r="D34" s="87"/>
-      <c r="E34" s="87"/>
-      <c r="F34" s="87"/>
-      <c r="G34" s="87"/>
-      <c r="H34" s="87"/>
-      <c r="I34" s="87"/>
-      <c r="J34" s="87"/>
-      <c r="K34" s="87"/>
-      <c r="L34" s="87"/>
-      <c r="M34" s="87"/>
-      <c r="N34" s="87"/>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A34" s="104"/>
+      <c r="B34" s="104"/>
+      <c r="C34" s="104"/>
+      <c r="D34" s="104"/>
+      <c r="E34" s="104"/>
+      <c r="F34" s="104"/>
+      <c r="G34" s="104"/>
+      <c r="H34" s="104"/>
+      <c r="I34" s="104"/>
+      <c r="J34" s="104"/>
+      <c r="K34" s="104"/>
+      <c r="L34" s="104"/>
+      <c r="M34" s="104"/>
+      <c r="N34" s="104"/>
       <c r="O34" s="62"/>
     </row>
   </sheetData>
@@ -6824,8 +8062,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Tabelle5">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -6835,123 +8073,123 @@
       <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.44140625" customWidth="1"/>
-    <col min="4" max="4" width="6.44140625" style="20" customWidth="1"/>
-    <col min="5" max="5" width="9.6640625" style="20" customWidth="1"/>
-    <col min="6" max="6" width="0.77734375" style="20" customWidth="1"/>
-    <col min="7" max="20" width="4.6640625" style="20" customWidth="1"/>
-    <col min="21" max="21" width="0.77734375" style="20" customWidth="1"/>
-    <col min="22" max="22" width="5.6640625" style="52" customWidth="1"/>
-    <col min="23" max="23" width="5.6640625" style="53" customWidth="1"/>
-    <col min="24" max="24" width="5.6640625" style="37" customWidth="1"/>
+    <col min="1" max="1" width="3.7109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.42578125" customWidth="1"/>
+    <col min="4" max="4" width="6.42578125" style="20" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" style="20" customWidth="1"/>
+    <col min="6" max="6" width="0.7109375" style="20" customWidth="1"/>
+    <col min="7" max="20" width="4.7109375" style="20" customWidth="1"/>
+    <col min="21" max="21" width="0.7109375" style="20" customWidth="1"/>
+    <col min="22" max="22" width="5.7109375" style="52" customWidth="1"/>
+    <col min="23" max="23" width="5.7109375" style="53" customWidth="1"/>
+    <col min="24" max="24" width="5.7109375" style="37" customWidth="1"/>
     <col min="25" max="31" width="0" hidden="1" customWidth="1"/>
-    <col min="32" max="16384" width="11.44140625" hidden="1"/>
+    <col min="32" max="16384" width="11.42578125" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="91" t="str">
+    <row r="1" spans="1:24" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="108" t="str">
         <f>Notenliste!B34&amp;Notenliste!B35</f>
         <v>course.namecourse.alternative</v>
       </c>
-      <c r="B1" s="91"/>
-      <c r="C1" s="91"/>
-      <c r="D1" s="91"/>
-      <c r="E1" s="91"/>
-      <c r="F1" s="91"/>
-      <c r="G1" s="91"/>
-      <c r="H1" s="91"/>
-      <c r="I1" s="91"/>
-      <c r="J1" s="91"/>
-      <c r="K1" s="91"/>
-      <c r="L1" s="91"/>
-      <c r="M1" s="91"/>
-      <c r="N1" s="91"/>
-      <c r="O1" s="91"/>
-      <c r="P1" s="91"/>
-      <c r="Q1" s="91"/>
-      <c r="R1" s="91"/>
-      <c r="S1" s="91"/>
-      <c r="T1" s="91"/>
-      <c r="U1" s="91"/>
-      <c r="V1" s="91"/>
-      <c r="W1" s="91"/>
-      <c r="X1" s="91"/>
-    </row>
-    <row r="2" spans="1:24" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="91" t="s">
+      <c r="B1" s="108"/>
+      <c r="C1" s="108"/>
+      <c r="D1" s="108"/>
+      <c r="E1" s="108"/>
+      <c r="F1" s="108"/>
+      <c r="G1" s="108"/>
+      <c r="H1" s="108"/>
+      <c r="I1" s="108"/>
+      <c r="J1" s="108"/>
+      <c r="K1" s="108"/>
+      <c r="L1" s="108"/>
+      <c r="M1" s="108"/>
+      <c r="N1" s="108"/>
+      <c r="O1" s="108"/>
+      <c r="P1" s="108"/>
+      <c r="Q1" s="108"/>
+      <c r="R1" s="108"/>
+      <c r="S1" s="108"/>
+      <c r="T1" s="108"/>
+      <c r="U1" s="108"/>
+      <c r="V1" s="108"/>
+      <c r="W1" s="108"/>
+      <c r="X1" s="108"/>
+    </row>
+    <row r="2" spans="1:24" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="108" t="s">
         <v>41</v>
       </c>
-      <c r="B2" s="91"/>
-      <c r="C2" s="91"/>
-      <c r="D2" s="91"/>
-      <c r="E2" s="91"/>
-      <c r="F2" s="91"/>
-      <c r="G2" s="91"/>
-      <c r="H2" s="91"/>
-      <c r="I2" s="91"/>
-      <c r="J2" s="91"/>
-      <c r="K2" s="91"/>
-      <c r="L2" s="91"/>
-      <c r="M2" s="91"/>
-      <c r="N2" s="91"/>
-      <c r="O2" s="91"/>
-      <c r="P2" s="91"/>
-      <c r="Q2" s="91"/>
-      <c r="R2" s="91"/>
-      <c r="S2" s="91"/>
-      <c r="T2" s="91"/>
-      <c r="U2" s="91"/>
-      <c r="V2" s="91"/>
-      <c r="W2" s="91"/>
-      <c r="X2" s="91"/>
-    </row>
-    <row r="3" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="92" t="str">
+      <c r="B2" s="108"/>
+      <c r="C2" s="108"/>
+      <c r="D2" s="108"/>
+      <c r="E2" s="108"/>
+      <c r="F2" s="108"/>
+      <c r="G2" s="108"/>
+      <c r="H2" s="108"/>
+      <c r="I2" s="108"/>
+      <c r="J2" s="108"/>
+      <c r="K2" s="108"/>
+      <c r="L2" s="108"/>
+      <c r="M2" s="108"/>
+      <c r="N2" s="108"/>
+      <c r="O2" s="108"/>
+      <c r="P2" s="108"/>
+      <c r="Q2" s="108"/>
+      <c r="R2" s="108"/>
+      <c r="S2" s="108"/>
+      <c r="T2" s="108"/>
+      <c r="U2" s="108"/>
+      <c r="V2" s="108"/>
+      <c r="W2" s="108"/>
+      <c r="X2" s="108"/>
+    </row>
+    <row r="3" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="109" t="str">
         <f>"Dozent/in: "&amp;Notenliste!B31</f>
         <v>Dozent/in: Elena Moya Royo</v>
       </c>
-      <c r="B3" s="92"/>
-      <c r="C3" s="92"/>
-      <c r="D3" s="92"/>
-      <c r="E3" s="92"/>
+      <c r="B3" s="109"/>
+      <c r="C3" s="109"/>
+      <c r="D3" s="109"/>
+      <c r="E3" s="109"/>
       <c r="F3" s="43"/>
-      <c r="G3" s="90"/>
-      <c r="H3" s="90"/>
-      <c r="I3" s="90"/>
-      <c r="J3" s="90"/>
-      <c r="K3" s="90"/>
-      <c r="L3" s="90"/>
-      <c r="M3" s="90"/>
-      <c r="N3" s="90"/>
-      <c r="O3" s="90"/>
-      <c r="P3" s="90"/>
-      <c r="Q3" s="90"/>
-      <c r="R3" s="90"/>
-      <c r="S3" s="90"/>
-      <c r="T3" s="90"/>
-      <c r="U3" s="90"/>
-      <c r="V3" s="90"/>
-      <c r="W3" s="90"/>
-      <c r="X3" s="90"/>
-    </row>
-    <row r="4" spans="1:24" s="16" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="88" t="s">
+      <c r="G3" s="107"/>
+      <c r="H3" s="107"/>
+      <c r="I3" s="107"/>
+      <c r="J3" s="107"/>
+      <c r="K3" s="107"/>
+      <c r="L3" s="107"/>
+      <c r="M3" s="107"/>
+      <c r="N3" s="107"/>
+      <c r="O3" s="107"/>
+      <c r="P3" s="107"/>
+      <c r="Q3" s="107"/>
+      <c r="R3" s="107"/>
+      <c r="S3" s="107"/>
+      <c r="T3" s="107"/>
+      <c r="U3" s="107"/>
+      <c r="V3" s="107"/>
+      <c r="W3" s="107"/>
+      <c r="X3" s="107"/>
+    </row>
+    <row r="4" spans="1:24" s="16" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="105" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="88" t="s">
+      <c r="B4" s="105" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="88" t="s">
+      <c r="C4" s="105" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="88" t="s">
+      <c r="D4" s="105" t="s">
         <v>33</v>
       </c>
-      <c r="E4" s="97" t="s">
+      <c r="E4" s="114" t="s">
         <v>27</v>
       </c>
       <c r="F4" s="48"/>
@@ -6970,22 +8208,22 @@
       <c r="S4" s="14"/>
       <c r="T4" s="14"/>
       <c r="U4" s="45"/>
-      <c r="V4" s="93" t="s">
+      <c r="V4" s="110" t="s">
         <v>36</v>
       </c>
-      <c r="W4" s="95" t="s">
+      <c r="W4" s="112" t="s">
         <v>37</v>
       </c>
-      <c r="X4" s="95" t="s">
+      <c r="X4" s="112" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="5" spans="1:24" s="16" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A5" s="89"/>
-      <c r="B5" s="89"/>
-      <c r="C5" s="89"/>
-      <c r="D5" s="89"/>
-      <c r="E5" s="98"/>
+    <row r="5" spans="1:24" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="106"/>
+      <c r="B5" s="106"/>
+      <c r="C5" s="106"/>
+      <c r="D5" s="106"/>
+      <c r="E5" s="115"/>
       <c r="F5" s="49"/>
       <c r="G5" s="42">
         <v>1</v>
@@ -7030,11 +8268,11 @@
         <v>14</v>
       </c>
       <c r="U5" s="44"/>
-      <c r="V5" s="94"/>
-      <c r="W5" s="96"/>
-      <c r="X5" s="96"/>
-    </row>
-    <row r="6" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="V5" s="111"/>
+      <c r="W5" s="113"/>
+      <c r="X5" s="113"/>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6" s="17">
         <v>1</v>
       </c>
@@ -7074,7 +8312,7 @@
       <c r="W6" s="51"/>
       <c r="X6" s="51"/>
     </row>
-    <row r="7" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7" s="17">
         <v>2</v>
       </c>
@@ -7114,7 +8352,7 @@
       <c r="W7" s="51"/>
       <c r="X7" s="51"/>
     </row>
-    <row r="8" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8" s="17">
         <v>3</v>
       </c>
@@ -7154,7 +8392,7 @@
       <c r="W8" s="51"/>
       <c r="X8" s="51"/>
     </row>
-    <row r="9" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9" s="17">
         <v>4</v>
       </c>
@@ -7194,7 +8432,7 @@
       <c r="W9" s="51"/>
       <c r="X9" s="51"/>
     </row>
-    <row r="10" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A10" s="17">
         <v>5</v>
       </c>
@@ -7234,7 +8472,7 @@
       <c r="W10" s="51"/>
       <c r="X10" s="51"/>
     </row>
-    <row r="11" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A11" s="17">
         <v>6</v>
       </c>
@@ -7274,7 +8512,7 @@
       <c r="W11" s="51"/>
       <c r="X11" s="51"/>
     </row>
-    <row r="12" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A12" s="17">
         <v>7</v>
       </c>
@@ -7314,7 +8552,7 @@
       <c r="W12" s="51"/>
       <c r="X12" s="51"/>
     </row>
-    <row r="13" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A13" s="17">
         <v>8</v>
       </c>
@@ -7354,7 +8592,7 @@
       <c r="W13" s="51"/>
       <c r="X13" s="51"/>
     </row>
-    <row r="14" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A14" s="17">
         <v>9</v>
       </c>
@@ -7394,7 +8632,7 @@
       <c r="W14" s="51"/>
       <c r="X14" s="51"/>
     </row>
-    <row r="15" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A15" s="17">
         <v>10</v>
       </c>
@@ -7434,7 +8672,7 @@
       <c r="W15" s="51"/>
       <c r="X15" s="51"/>
     </row>
-    <row r="16" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A16" s="17">
         <v>11</v>
       </c>
@@ -7474,7 +8712,7 @@
       <c r="W16" s="51"/>
       <c r="X16" s="51"/>
     </row>
-    <row r="17" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A17" s="17">
         <v>12</v>
       </c>
@@ -7514,7 +8752,7 @@
       <c r="W17" s="51"/>
       <c r="X17" s="51"/>
     </row>
-    <row r="18" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A18" s="17">
         <v>13</v>
       </c>
@@ -7554,7 +8792,7 @@
       <c r="W18" s="51"/>
       <c r="X18" s="51"/>
     </row>
-    <row r="19" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A19" s="17">
         <v>14</v>
       </c>
@@ -7594,7 +8832,7 @@
       <c r="W19" s="51"/>
       <c r="X19" s="51"/>
     </row>
-    <row r="20" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A20" s="17">
         <v>15</v>
       </c>
@@ -7634,7 +8872,7 @@
       <c r="W20" s="51"/>
       <c r="X20" s="51"/>
     </row>
-    <row r="21" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A21" s="17">
         <v>16</v>
       </c>
@@ -7674,7 +8912,7 @@
       <c r="W21" s="51"/>
       <c r="X21" s="51"/>
     </row>
-    <row r="22" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A22" s="17">
         <v>17</v>
       </c>
@@ -7714,7 +8952,7 @@
       <c r="W22" s="51"/>
       <c r="X22" s="51"/>
     </row>
-    <row r="23" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A23" s="17">
         <v>18</v>
       </c>
@@ -7754,7 +8992,7 @@
       <c r="W23" s="51"/>
       <c r="X23" s="51"/>
     </row>
-    <row r="24" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A24" s="17">
         <v>19</v>
       </c>
@@ -7794,7 +9032,7 @@
       <c r="W24" s="51"/>
       <c r="X24" s="51"/>
     </row>
-    <row r="25" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A25" s="17">
         <v>20</v>
       </c>
@@ -7834,7 +9072,7 @@
       <c r="W25" s="51"/>
       <c r="X25" s="51"/>
     </row>
-    <row r="26" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A26" s="17">
         <v>21</v>
       </c>
@@ -7874,7 +9112,7 @@
       <c r="W26" s="51"/>
       <c r="X26" s="51"/>
     </row>
-    <row r="27" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A27" s="17">
         <v>22</v>
       </c>
@@ -7914,7 +9152,7 @@
       <c r="W27" s="51"/>
       <c r="X27" s="51"/>
     </row>
-    <row r="28" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A28" s="17">
         <v>23</v>
       </c>
@@ -7954,7 +9192,7 @@
       <c r="W28" s="51"/>
       <c r="X28" s="51"/>
     </row>
-    <row r="29" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A29" s="17">
         <v>24</v>
       </c>
@@ -7994,7 +9232,7 @@
       <c r="W29" s="51"/>
       <c r="X29" s="51"/>
     </row>
-    <row r="30" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A30" s="17">
         <v>25</v>
       </c>
@@ -8060,8 +9298,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Tabelle6"/>
   <dimension ref="A1:H26"/>
   <sheetViews>
@@ -8069,18 +9307,17 @@
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18" style="13" customWidth="1"/>
-    <col min="2" max="2" width="12.77734375" customWidth="1"/>
-    <col min="4" max="4" width="15.44140625" style="66" customWidth="1"/>
-    <col min="5" max="5" width="18.109375" style="65" customWidth="1"/>
-    <col min="6" max="6" width="19.77734375" customWidth="1"/>
-    <col min="7" max="7" width="19.6640625" customWidth="1"/>
-    <col min="8" max="8" width="46.44140625" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" style="66" customWidth="1"/>
+    <col min="5" max="5" width="18.140625" style="65" customWidth="1"/>
+    <col min="6" max="7" width="19.7109375" customWidth="1"/>
+    <col min="8" max="8" width="46.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>25</v>
       </c>
@@ -8106,7 +9343,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="str">
         <f>IF(Notenliste!D2=0," ",Notenliste!D2)</f>
         <v>applicant.tag</v>
@@ -8124,7 +9361,7 @@
         <v>exam_date</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="str">
         <f>IF(Notenliste!D3=0," ",Notenliste!D3)</f>
         <v xml:space="preserve"> </v>
@@ -8142,7 +9379,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="str">
         <f>IF(Notenliste!D4=0," ",Notenliste!D4)</f>
         <v xml:space="preserve"> </v>
@@ -8160,7 +9397,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="str">
         <f>IF(Notenliste!D5=0," ",Notenliste!D5)</f>
         <v xml:space="preserve"> </v>
@@ -8178,7 +9415,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="str">
         <f>IF(Notenliste!D6=0," ",Notenliste!D6)</f>
         <v xml:space="preserve"> </v>
@@ -8196,7 +9433,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="str">
         <f>IF(Notenliste!D7=0," ",Notenliste!D7)</f>
         <v xml:space="preserve"> </v>
@@ -8214,7 +9451,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="str">
         <f>IF(Notenliste!D8=0," ",Notenliste!D8)</f>
         <v xml:space="preserve"> </v>
@@ -8232,7 +9469,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="str">
         <f>IF(Notenliste!D9=0," ",Notenliste!D9)</f>
         <v xml:space="preserve"> </v>
@@ -8250,7 +9487,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="str">
         <f>IF(Notenliste!D10=0," ",Notenliste!D10)</f>
         <v xml:space="preserve"> </v>
@@ -8268,7 +9505,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="str">
         <f>IF(Notenliste!D11=0," ",Notenliste!D11)</f>
         <v xml:space="preserve"> </v>
@@ -8286,7 +9523,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="str">
         <f>IF(Notenliste!D12=0," ",Notenliste!D12)</f>
         <v xml:space="preserve"> </v>
@@ -8304,7 +9541,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="13" t="str">
         <f>IF(Notenliste!D13=0," ",Notenliste!D13)</f>
         <v xml:space="preserve"> </v>
@@ -8322,7 +9559,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="13" t="str">
         <f>IF(Notenliste!D14=0," ",Notenliste!D14)</f>
         <v xml:space="preserve"> </v>
@@ -8340,7 +9577,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="13" t="str">
         <f>IF(Notenliste!D15=0," ",Notenliste!D15)</f>
         <v xml:space="preserve"> </v>
@@ -8358,7 +9595,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="13" t="str">
         <f>IF(Notenliste!D16=0," ",Notenliste!D16)</f>
         <v xml:space="preserve"> </v>
@@ -8376,7 +9613,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="13" t="str">
         <f>IF(Notenliste!D17=0," ",Notenliste!D17)</f>
         <v xml:space="preserve"> </v>
@@ -8394,7 +9631,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="13" t="str">
         <f>IF(Notenliste!D18=0," ",Notenliste!D18)</f>
         <v xml:space="preserve"> </v>
@@ -8412,7 +9649,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="13" t="str">
         <f>IF(Notenliste!D19=0," ",Notenliste!D19)</f>
         <v xml:space="preserve"> </v>
@@ -8430,7 +9667,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="13" t="str">
         <f>IF(Notenliste!D20=0," ",Notenliste!D20)</f>
         <v xml:space="preserve"> </v>
@@ -8448,7 +9685,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="13" t="str">
         <f>IF(Notenliste!D21=0," ",Notenliste!D21)</f>
         <v xml:space="preserve"> </v>
@@ -8466,7 +9703,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="13" t="str">
         <f>IF(Notenliste!D22=0," ",Notenliste!D22)</f>
         <v xml:space="preserve"> </v>
@@ -8484,7 +9721,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="13" t="str">
         <f>IF(Notenliste!D23=0," ",Notenliste!D23)</f>
         <v xml:space="preserve"> </v>
@@ -8502,7 +9739,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="13" t="str">
         <f>IF(Notenliste!D24=0," ",Notenliste!D24)</f>
         <v xml:space="preserve"> </v>
@@ -8520,7 +9757,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="13" t="str">
         <f>IF(Notenliste!D25=0," ",Notenliste!D25)</f>
         <v xml:space="preserve"> </v>
@@ -8538,7 +9775,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="13" t="str">
         <f>IF(Notenliste!D26=0," ",Notenliste!D26)</f>
         <v xml:space="preserve"> </v>
@@ -8559,22 +9796,22 @@
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0" sort="0" autoFilter="0"/>
   <dataValidations count="5">
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1 A27:A1048576" xr:uid="{00000000-0002-0000-0500-000000000000}">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1 A27:A1048576">
       <formula1>0</formula1>
       <formula2>99999999</formula2>
     </dataValidation>
-    <dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1 E27:E1048576" xr:uid="{00000000-0002-0000-0500-000001000000}">
+    <dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1 E27:E1048576">
       <formula1>41275</formula1>
       <formula2>73050</formula2>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C27:C1048576" xr:uid="{00000000-0002-0000-0500-000002000000}">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C27:C1048576">
       <formula1>0</formula1>
       <formula2>120</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1" xr:uid="{00000000-0002-0000-0500-000003000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1">
       <formula1>Notenskala</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1" xr:uid="{00000000-0002-0000-0500-000004000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1">
       <formula1>Anmeldestatus</formula1>
     </dataValidation>
   </dataValidations>
@@ -8586,44 +9823,44 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.6640625" customWidth="1"/>
-    <col min="2" max="2" width="22.109375" customWidth="1"/>
-    <col min="3" max="3" width="3.44140625" customWidth="1"/>
-    <col min="4" max="4" width="11.44140625" customWidth="1"/>
-    <col min="5" max="5" width="2.77734375" customWidth="1"/>
-    <col min="6" max="6" width="25.77734375" customWidth="1"/>
-    <col min="7" max="7" width="2.44140625" customWidth="1"/>
-    <col min="8" max="8" width="11.44140625" style="20"/>
+    <col min="1" max="1" width="26.7109375" customWidth="1"/>
+    <col min="2" max="2" width="22.140625" customWidth="1"/>
+    <col min="3" max="3" width="3.42578125" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" customWidth="1"/>
+    <col min="5" max="5" width="2.7109375" customWidth="1"/>
+    <col min="6" max="6" width="25.7109375" customWidth="1"/>
+    <col min="7" max="7" width="2.42578125" customWidth="1"/>
+    <col min="8" max="8" width="11.42578125" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="72" t="s">
         <v>7</v>
       </c>
       <c r="B1" s="72" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D1" s="72" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F1" s="72" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H1" s="75" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="73" t="s">
         <v>45</v>
       </c>
@@ -8634,230 +9871,234 @@
         <v>46</v>
       </c>
       <c r="F2" s="73" t="s">
+        <v>82</v>
+      </c>
+      <c r="H2" s="78" t="s">
         <v>83</v>
       </c>
-      <c r="H2" s="78" t="s">
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="73" t="s">
+        <v>67</v>
+      </c>
+      <c r="B3" s="73" t="s">
+        <v>75</v>
+      </c>
+      <c r="D3" s="73" t="s">
+        <v>59</v>
+      </c>
+      <c r="F3" s="73" t="s">
+        <v>93</v>
+      </c>
+      <c r="H3" s="78" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="73" t="s">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="73" t="s">
+        <v>69</v>
+      </c>
+      <c r="B4" s="73" t="s">
+        <v>76</v>
+      </c>
+      <c r="D4" s="73" t="s">
+        <v>60</v>
+      </c>
+      <c r="F4" s="73" t="s">
+        <v>94</v>
+      </c>
+      <c r="H4" s="78" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="73" t="s">
         <v>68</v>
       </c>
-      <c r="B3" s="73" t="s">
-        <v>76</v>
-      </c>
-      <c r="D3" s="73" t="s">
-        <v>60</v>
-      </c>
-      <c r="F3" s="73" t="s">
-        <v>94</v>
-      </c>
-      <c r="H3" s="78" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="73" t="s">
+      <c r="B5" s="73" t="s">
+        <v>77</v>
+      </c>
+      <c r="D5" s="73" t="s">
+        <v>61</v>
+      </c>
+      <c r="F5" s="73" t="s">
+        <v>95</v>
+      </c>
+      <c r="H5" s="76"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="73" t="s">
         <v>70</v>
       </c>
-      <c r="B4" s="73" t="s">
-        <v>77</v>
-      </c>
-      <c r="D4" s="73" t="s">
-        <v>61</v>
-      </c>
-      <c r="F4" s="73" t="s">
-        <v>95</v>
-      </c>
-      <c r="H4" s="78" t="s">
+      <c r="B6" s="73" t="s">
+        <v>78</v>
+      </c>
+      <c r="D6" s="73" t="s">
+        <v>62</v>
+      </c>
+      <c r="F6" s="73" t="s">
+        <v>96</v>
+      </c>
+      <c r="H6" s="76"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="73" t="s">
+        <v>71</v>
+      </c>
+      <c r="B7" s="73" t="s">
+        <v>79</v>
+      </c>
+      <c r="D7" s="73" t="s">
+        <v>63</v>
+      </c>
+      <c r="F7" s="73" t="s">
+        <v>97</v>
+      </c>
+      <c r="H7" s="76"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="73" t="s">
+        <v>72</v>
+      </c>
+      <c r="B8" s="73" t="s">
+        <v>80</v>
+      </c>
+      <c r="D8" s="73" t="s">
+        <v>113</v>
+      </c>
+      <c r="F8" s="73" t="s">
+        <v>98</v>
+      </c>
+      <c r="H8" s="76"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="73" t="s">
+        <v>73</v>
+      </c>
+      <c r="B9" s="73" t="s">
+        <v>74</v>
+      </c>
+      <c r="D9" s="73" t="s">
+        <v>114</v>
+      </c>
+      <c r="F9" s="73" t="s">
+        <v>99</v>
+      </c>
+      <c r="H9" s="76"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="73" t="s">
+        <v>109</v>
+      </c>
+      <c r="B10" s="73" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="73" t="s">
-        <v>69</v>
-      </c>
-      <c r="B5" s="73" t="s">
-        <v>78</v>
-      </c>
-      <c r="D5" s="73" t="s">
-        <v>62</v>
-      </c>
-      <c r="F5" s="73" t="s">
-        <v>96</v>
-      </c>
-      <c r="H5" s="76"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="73" t="s">
-        <v>71</v>
-      </c>
-      <c r="B6" s="73" t="s">
-        <v>79</v>
-      </c>
-      <c r="D6" s="73" t="s">
-        <v>63</v>
-      </c>
-      <c r="F6" s="73" t="s">
-        <v>97</v>
-      </c>
-      <c r="H6" s="76"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="73" t="s">
-        <v>72</v>
-      </c>
-      <c r="B7" s="73" t="s">
-        <v>80</v>
-      </c>
-      <c r="D7" s="73" t="s">
+      <c r="D10" s="73" t="s">
         <v>64</v>
       </c>
-      <c r="F7" s="73" t="s">
-        <v>98</v>
-      </c>
-      <c r="H7" s="76"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="73" t="s">
-        <v>73</v>
-      </c>
-      <c r="B8" s="73" t="s">
-        <v>81</v>
-      </c>
-      <c r="D8" s="73" t="s">
-        <v>114</v>
-      </c>
-      <c r="F8" s="73" t="s">
-        <v>99</v>
-      </c>
-      <c r="H8" s="76"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="73" t="s">
-        <v>74</v>
-      </c>
-      <c r="B9" s="73" t="s">
-        <v>75</v>
-      </c>
-      <c r="D9" s="73" t="s">
-        <v>115</v>
-      </c>
-      <c r="F9" s="73" t="s">
+      <c r="F10" s="73" t="s">
         <v>100</v>
       </c>
-      <c r="H9" s="76"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="73" t="s">
+      <c r="H10" s="76"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="73" t="s">
         <v>110</v>
       </c>
-      <c r="B10" s="73" t="s">
+      <c r="B11" s="73" t="s">
         <v>87</v>
       </c>
-      <c r="D10" s="73" t="s">
+      <c r="D11" s="73" t="s">
         <v>65</v>
       </c>
-      <c r="F10" s="73" t="s">
+      <c r="F11" s="73" t="s">
         <v>101</v>
       </c>
-      <c r="H10" s="76"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="73" t="s">
+      <c r="H11" s="76"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="73" t="s">
         <v>111</v>
       </c>
-      <c r="B11" s="73" t="s">
+      <c r="B12" s="73" t="s">
         <v>88</v>
       </c>
-      <c r="D11" s="73" t="s">
-        <v>66</v>
-      </c>
-      <c r="F11" s="73" t="s">
+      <c r="D12" s="73" t="s">
+        <v>105</v>
+      </c>
+      <c r="F12" s="73" t="s">
         <v>102</v>
       </c>
-      <c r="H11" s="76"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="73" t="s">
+      <c r="H12" s="76"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="73" t="s">
         <v>112</v>
       </c>
-      <c r="B12" s="73" t="s">
+      <c r="B13" s="73" t="s">
         <v>89</v>
       </c>
-      <c r="D12" s="73" t="s">
+      <c r="D13" s="73" t="s">
         <v>106</v>
       </c>
-      <c r="F12" s="73" t="s">
+      <c r="F13" s="73" t="s">
         <v>103</v>
       </c>
-      <c r="H12" s="76"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="73" t="s">
-        <v>113</v>
-      </c>
-      <c r="B13" s="73" t="s">
-        <v>90</v>
-      </c>
-      <c r="D13" s="73" t="s">
-        <v>107</v>
-      </c>
-      <c r="F13" s="73" t="s">
-        <v>104</v>
-      </c>
       <c r="H13" s="76"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="73"/>
       <c r="B14" s="73"/>
       <c r="D14" s="73" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F14" s="73" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H14" s="76"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="73"/>
       <c r="B15" s="73"/>
       <c r="D15" s="73" t="s">
-        <v>109</v>
-      </c>
-      <c r="F15" s="73"/>
+        <v>108</v>
+      </c>
+      <c r="F15" s="73" t="s">
+        <v>128</v>
+      </c>
       <c r="H15" s="76"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="73"/>
       <c r="B16" s="73"/>
       <c r="D16" s="73"/>
-      <c r="F16" s="73"/>
+      <c r="F16" s="73" t="s">
+        <v>129</v>
+      </c>
       <c r="H16" s="76"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="73"/>
       <c r="B17" s="73"/>
       <c r="D17" s="73"/>
       <c r="F17" s="73"/>
       <c r="H17" s="76"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="73"/>
       <c r="B18" s="73"/>
       <c r="D18" s="73"/>
       <c r="F18" s="73"/>
       <c r="H18" s="76"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="73"/>
       <c r="B19" s="73"/>
       <c r="D19" s="73"/>
       <c r="F19" s="73"/>
       <c r="H19" s="76"/>
     </row>
-    <row r="20" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="74"/>
       <c r="B20" s="74"/>
       <c r="D20" s="74"/>

--- a/src/spz/templates/export/spanisch_hueber.xlsx
+++ b/src/spz/templates/export/spanisch_hueber.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="RAWDATA" sheetId="11" r:id="rId1"/>
@@ -919,7 +919,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="116">
+  <cellXfs count="117">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
@@ -1243,36 +1243,15 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
     <cellStyle name="Standard 2" xfId="1"/>
   </cellStyles>
-  <dxfs count="21">
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="19">
     <dxf>
       <font>
         <condense val="0"/>
@@ -1409,7 +1388,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1674,15 +1652,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="DATA" displayName="DATA" ref="B1:G2" totalsRowShown="0" headerRowDxfId="20" dataDxfId="19">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="DATA" displayName="DATA" ref="B1:G2" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17">
   <autoFilter ref="B1:G2"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="Nachname" dataDxfId="18"/>
-    <tableColumn id="2" name="Vorname" dataDxfId="17"/>
-    <tableColumn id="3" name="Hochschule" dataDxfId="16"/>
-    <tableColumn id="4" name="Matrikelnummer" dataDxfId="15"/>
-    <tableColumn id="5" name="E-Mail" dataDxfId="14"/>
-    <tableColumn id="6" name="Telefon" dataDxfId="13"/>
+    <tableColumn id="1" name="Nachname" dataDxfId="16"/>
+    <tableColumn id="2" name="Vorname" dataDxfId="15"/>
+    <tableColumn id="3" name="Hochschule" dataDxfId="14"/>
+    <tableColumn id="4" name="Matrikelnummer" dataDxfId="13"/>
+    <tableColumn id="5" name="E-Mail" dataDxfId="12"/>
+    <tableColumn id="6" name="Telefon" dataDxfId="11"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -1692,21 +1670,21 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabelle1" displayName="Tabelle1" ref="A1:H26" totalsRowShown="0">
   <autoFilter ref="A1:H26"/>
   <tableColumns count="8">
-    <tableColumn id="1" name="Matrikelnummer" dataDxfId="12" totalsRowDxfId="11">
+    <tableColumn id="1" name="Matrikelnummer" dataDxfId="10" totalsRowDxfId="9">
       <calculatedColumnFormula>IF(Notenliste!D2=0," ",Notenliste!D2)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="2" name="Status"/>
-    <tableColumn id="3" name="LP" dataDxfId="10">
+    <tableColumn id="3" name="LP" dataDxfId="8">
       <calculatedColumnFormula>IF(Notenliste!D2&lt;&gt;0,Notenliste!$B$33," ")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="Note" dataDxfId="9" totalsRowDxfId="8">
+    <tableColumn id="4" name="Note" dataDxfId="7" totalsRowDxfId="6">
       <calculatedColumnFormula>IF(Notenliste!F2="KP"," ",IF(Notenliste!F2="NB","nicht bestanden",Notenliste!F2))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="Datum" dataDxfId="7">
+    <tableColumn id="5" name="Datum" dataDxfId="5">
       <calculatedColumnFormula>IF(Notenliste!D2&lt;&gt;0,Notenliste!$B$37," ")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Individueller Titel deutsch" dataDxfId="6"/>
-    <tableColumn id="7" name="Individueller Titel englisch" dataDxfId="5"/>
+    <tableColumn id="6" name="Individueller Titel deutsch" dataDxfId="4"/>
+    <tableColumn id="7" name="Individueller Titel englisch" dataDxfId="3"/>
     <tableColumn id="8" name="Anmerkungen"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -2405,8 +2383,8 @@
   </sheetPr>
   <dimension ref="A1:WVR38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="13.9" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.2"/>
@@ -3042,14 +3020,14 @@
       <c r="I2" s="56"/>
       <c r="J2" s="56"/>
       <c r="K2" s="34">
-        <f t="shared" ref="K2:K27" si="0">SUM(H2:J2)</f>
-        <v>0</v>
-      </c>
-      <c r="L2" s="56">
+        <f t="shared" ref="K2:K25" si="0">SUM(H2:J2)</f>
+        <v>0</v>
+      </c>
+      <c r="L2" s="116">
         <f>IF(ISBLANK(Extrapunkte!I3),0,Extrapunkte!I3)</f>
         <v>0</v>
       </c>
-      <c r="M2" s="56">
+      <c r="M2" s="116">
         <f>IF(ISBLANK(Extrapunkte!J3),0,Extrapunkte!M3)</f>
         <v>0</v>
       </c>
@@ -3119,11 +3097,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L3" s="56">
+      <c r="L3" s="116">
         <f>IF(ISBLANK(Extrapunkte!I4),0,Extrapunkte!I4)</f>
         <v>0</v>
       </c>
-      <c r="M3" s="56">
+      <c r="M3" s="116">
         <f>IF(ISBLANK(Extrapunkte!J4),0,Extrapunkte!M4)</f>
         <v>0</v>
       </c>
@@ -3193,11 +3171,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L4" s="56">
+      <c r="L4" s="116">
         <f>IF(ISBLANK(Extrapunkte!I5),0,Extrapunkte!I5)</f>
         <v>0</v>
       </c>
-      <c r="M4" s="56">
+      <c r="M4" s="116">
         <f>IF(ISBLANK(Extrapunkte!J5),0,Extrapunkte!M5)</f>
         <v>0</v>
       </c>
@@ -3267,11 +3245,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L5" s="56">
+      <c r="L5" s="116">
         <f>IF(ISBLANK(Extrapunkte!I6),0,Extrapunkte!I6)</f>
         <v>0</v>
       </c>
-      <c r="M5" s="56">
+      <c r="M5" s="116">
         <f>IF(ISBLANK(Extrapunkte!J6),0,Extrapunkte!M6)</f>
         <v>0</v>
       </c>
@@ -3341,11 +3319,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L6" s="56">
+      <c r="L6" s="116">
         <f>IF(ISBLANK(Extrapunkte!I7),0,Extrapunkte!I7)</f>
         <v>0</v>
       </c>
-      <c r="M6" s="56">
+      <c r="M6" s="116">
         <f>IF(ISBLANK(Extrapunkte!J7),0,Extrapunkte!M7)</f>
         <v>0</v>
       </c>
@@ -3415,11 +3393,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L7" s="56">
+      <c r="L7" s="116">
         <f>IF(ISBLANK(Extrapunkte!I8),0,Extrapunkte!I8)</f>
         <v>0</v>
       </c>
-      <c r="M7" s="56">
+      <c r="M7" s="116">
         <f>IF(ISBLANK(Extrapunkte!J8),0,Extrapunkte!M8)</f>
         <v>0</v>
       </c>
@@ -3489,11 +3467,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L8" s="56">
+      <c r="L8" s="116">
         <f>IF(ISBLANK(Extrapunkte!I9),0,Extrapunkte!I9)</f>
         <v>0</v>
       </c>
-      <c r="M8" s="56">
+      <c r="M8" s="116">
         <f>IF(ISBLANK(Extrapunkte!J9),0,Extrapunkte!M9)</f>
         <v>0</v>
       </c>
@@ -3563,11 +3541,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L9" s="56">
+      <c r="L9" s="116">
         <f>IF(ISBLANK(Extrapunkte!I10),0,Extrapunkte!I10)</f>
         <v>0</v>
       </c>
-      <c r="M9" s="56">
+      <c r="M9" s="116">
         <f>IF(ISBLANK(Extrapunkte!J10),0,Extrapunkte!M10)</f>
         <v>0</v>
       </c>
@@ -3637,11 +3615,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L10" s="56">
+      <c r="L10" s="116">
         <f>IF(ISBLANK(Extrapunkte!I11),0,Extrapunkte!I11)</f>
         <v>0</v>
       </c>
-      <c r="M10" s="56">
+      <c r="M10" s="116">
         <f>IF(ISBLANK(Extrapunkte!J11),0,Extrapunkte!M11)</f>
         <v>0</v>
       </c>
@@ -3711,11 +3689,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L11" s="56">
+      <c r="L11" s="116">
         <f>IF(ISBLANK(Extrapunkte!I12),0,Extrapunkte!I12)</f>
         <v>0</v>
       </c>
-      <c r="M11" s="56">
+      <c r="M11" s="116">
         <f>IF(ISBLANK(Extrapunkte!J12),0,Extrapunkte!M12)</f>
         <v>0</v>
       </c>
@@ -3785,11 +3763,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L12" s="56">
+      <c r="L12" s="116">
         <f>IF(ISBLANK(Extrapunkte!I13),0,Extrapunkte!I13)</f>
         <v>0</v>
       </c>
-      <c r="M12" s="56">
+      <c r="M12" s="116">
         <f>IF(ISBLANK(Extrapunkte!J13),0,Extrapunkte!M13)</f>
         <v>0</v>
       </c>
@@ -3859,11 +3837,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L13" s="56">
+      <c r="L13" s="116">
         <f>IF(ISBLANK(Extrapunkte!I14),0,Extrapunkte!I14)</f>
         <v>0</v>
       </c>
-      <c r="M13" s="56">
+      <c r="M13" s="116">
         <f>IF(ISBLANK(Extrapunkte!J14),0,Extrapunkte!M14)</f>
         <v>0</v>
       </c>
@@ -3933,11 +3911,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L14" s="56">
+      <c r="L14" s="116">
         <f>IF(ISBLANK(Extrapunkte!I15),0,Extrapunkte!I15)</f>
         <v>0</v>
       </c>
-      <c r="M14" s="56">
+      <c r="M14" s="116">
         <f>IF(ISBLANK(Extrapunkte!J15),0,Extrapunkte!M15)</f>
         <v>0</v>
       </c>
@@ -4007,11 +3985,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L15" s="56">
+      <c r="L15" s="116">
         <f>IF(ISBLANK(Extrapunkte!I16),0,Extrapunkte!I16)</f>
         <v>0</v>
       </c>
-      <c r="M15" s="56">
+      <c r="M15" s="116">
         <f>IF(ISBLANK(Extrapunkte!J16),0,Extrapunkte!M16)</f>
         <v>0</v>
       </c>
@@ -4081,11 +4059,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L16" s="56">
+      <c r="L16" s="116">
         <f>IF(ISBLANK(Extrapunkte!I17),0,Extrapunkte!I17)</f>
         <v>0</v>
       </c>
-      <c r="M16" s="56">
+      <c r="M16" s="116">
         <f>IF(ISBLANK(Extrapunkte!J17),0,Extrapunkte!M17)</f>
         <v>0</v>
       </c>
@@ -4155,11 +4133,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L17" s="56">
+      <c r="L17" s="116">
         <f>IF(ISBLANK(Extrapunkte!I18),0,Extrapunkte!I18)</f>
         <v>0</v>
       </c>
-      <c r="M17" s="56">
+      <c r="M17" s="116">
         <f>IF(ISBLANK(Extrapunkte!J18),0,Extrapunkte!M18)</f>
         <v>0</v>
       </c>
@@ -4229,11 +4207,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L18" s="56">
+      <c r="L18" s="116">
         <f>IF(ISBLANK(Extrapunkte!I19),0,Extrapunkte!I19)</f>
         <v>0</v>
       </c>
-      <c r="M18" s="56">
+      <c r="M18" s="116">
         <f>IF(ISBLANK(Extrapunkte!J19),0,Extrapunkte!M19)</f>
         <v>0</v>
       </c>
@@ -4303,11 +4281,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L19" s="56">
+      <c r="L19" s="116">
         <f>IF(ISBLANK(Extrapunkte!I20),0,Extrapunkte!I20)</f>
         <v>0</v>
       </c>
-      <c r="M19" s="56">
+      <c r="M19" s="116">
         <f>IF(ISBLANK(Extrapunkte!J20),0,Extrapunkte!M20)</f>
         <v>0</v>
       </c>
@@ -4377,11 +4355,11 @@
         <f>SUM(H20:J20)</f>
         <v>0</v>
       </c>
-      <c r="L20" s="56">
+      <c r="L20" s="116">
         <f>IF(ISBLANK(Extrapunkte!I21),0,Extrapunkte!I21)</f>
         <v>0</v>
       </c>
-      <c r="M20" s="56">
+      <c r="M20" s="116">
         <f>IF(ISBLANK(Extrapunkte!J21),0,Extrapunkte!M21)</f>
         <v>0</v>
       </c>
@@ -4451,11 +4429,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L21" s="56">
+      <c r="L21" s="116">
         <f>IF(ISBLANK(Extrapunkte!I22),0,Extrapunkte!I22)</f>
         <v>0</v>
       </c>
-      <c r="M21" s="56">
+      <c r="M21" s="116">
         <f>IF(ISBLANK(Extrapunkte!J22),0,Extrapunkte!M22)</f>
         <v>0</v>
       </c>
@@ -4525,11 +4503,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L22" s="56">
+      <c r="L22" s="116">
         <f>IF(ISBLANK(Extrapunkte!I23),0,Extrapunkte!I23)</f>
         <v>0</v>
       </c>
-      <c r="M22" s="56">
+      <c r="M22" s="116">
         <f>IF(ISBLANK(Extrapunkte!J23),0,Extrapunkte!M23)</f>
         <v>0</v>
       </c>
@@ -4599,11 +4577,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L23" s="56">
+      <c r="L23" s="116">
         <f>IF(ISBLANK(Extrapunkte!I24),0,Extrapunkte!I24)</f>
         <v>0</v>
       </c>
-      <c r="M23" s="56">
+      <c r="M23" s="116">
         <f>IF(ISBLANK(Extrapunkte!J24),0,Extrapunkte!M24)</f>
         <v>0</v>
       </c>
@@ -4673,11 +4651,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L24" s="56">
+      <c r="L24" s="116">
         <f>IF(ISBLANK(Extrapunkte!I25),0,Extrapunkte!I25)</f>
         <v>0</v>
       </c>
-      <c r="M24" s="56">
+      <c r="M24" s="116">
         <f>IF(ISBLANK(Extrapunkte!J25),0,Extrapunkte!M25)</f>
         <v>0</v>
       </c>
@@ -4747,11 +4725,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L25" s="56">
+      <c r="L25" s="116">
         <f>IF(ISBLANK(Extrapunkte!I26),0,Extrapunkte!I26)</f>
         <v>0</v>
       </c>
-      <c r="M25" s="56">
+      <c r="M25" s="116">
         <f>IF(ISBLANK(Extrapunkte!J26),0,Extrapunkte!M26)</f>
         <v>0</v>
       </c>
@@ -4821,11 +4799,11 @@
         <f>SUM(H26:J26)</f>
         <v>0</v>
       </c>
-      <c r="L26" s="56">
+      <c r="L26" s="116">
         <f>IF(ISBLANK(Extrapunkte!I27),0,Extrapunkte!I27)</f>
         <v>0</v>
       </c>
-      <c r="M26" s="56">
+      <c r="M26" s="116">
         <f>IF(ISBLANK(Extrapunkte!J27),0,Extrapunkte!M27)</f>
         <v>0</v>
       </c>
@@ -5181,28 +5159,18 @@
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <conditionalFormatting sqref="H26">
-    <cfRule type="cellIs" dxfId="4" priority="9" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="2" priority="9" stopIfTrue="1" operator="greaterThan">
       <formula>$H$27</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I26">
-    <cfRule type="cellIs" dxfId="3" priority="8" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="8" stopIfTrue="1" operator="greaterThan">
       <formula>$I$27</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J26">
-    <cfRule type="cellIs" dxfId="2" priority="3" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="0" priority="3" stopIfTrue="1" operator="greaterThan">
       <formula>$I$27</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L2:L26">
-    <cfRule type="cellIs" dxfId="1" priority="2" stopIfTrue="1" operator="greaterThan">
-      <formula>$L$27</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M2:M26">
-    <cfRule type="cellIs" dxfId="0" priority="1" stopIfTrue="1" operator="greaterThan">
-      <formula>$M$27</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
@@ -5224,8 +5192,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/src/spz/templates/export/spanisch_hueber.xlsx
+++ b/src/spz/templates/export/spanisch_hueber.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="2"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="RAWDATA" sheetId="11" r:id="rId1"/>
@@ -21,9 +21,6 @@
     <sheet name="Teilnehmer" sheetId="14" r:id="rId7"/>
     <sheet name="Einstellungen" sheetId="15" r:id="rId8"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId9"/>
-  </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Notenliste!$H$1:$N$29</definedName>
     <definedName name="DOZENT">OFFSET(Einstellungen!$F$2,,,COUNTIF(Einstellungen!$F$2:$F$20,"&gt;"""),)</definedName>
@@ -1183,6 +1180,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1243,15 +1243,39 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
     <cellStyle name="Standard 2" xfId="1"/>
   </cellStyles>
   <dxfs count="19">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <condense val="0"/>
@@ -1287,33 +1311,6 @@
           <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <protection locked="0" hidden="0"/>
@@ -1609,48 +1606,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="RAWDATA"/>
-      <sheetName val="Notenliste"/>
-      <sheetName val="Extrapunkte"/>
-      <sheetName val="Notenverteilung"/>
-      <sheetName val="Printlist"/>
-      <sheetName val="Paricipantlist"/>
-      <sheetName val="Teilnehmer"/>
-      <sheetName val="Einstellungen"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="2">
-          <cell r="B2" t="str">
-            <v>applicant.last_name</v>
-          </cell>
-          <cell r="C2" t="str">
-            <v>applicant.first_name</v>
-          </cell>
-          <cell r="D2" t="str">
-            <v>applicant.origin.short_name</v>
-          </cell>
-          <cell r="E2" t="str">
-            <v>applicant.tag</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="DATA" displayName="DATA" ref="B1:G2" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17">
   <autoFilter ref="B1:G2"/>
@@ -1670,21 +1625,21 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabelle1" displayName="Tabelle1" ref="A1:H26" totalsRowShown="0">
   <autoFilter ref="A1:H26"/>
   <tableColumns count="8">
-    <tableColumn id="1" name="Matrikelnummer" dataDxfId="10" totalsRowDxfId="9">
+    <tableColumn id="1" name="Matrikelnummer" dataDxfId="7" totalsRowDxfId="6">
       <calculatedColumnFormula>IF(Notenliste!D2=0," ",Notenliste!D2)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="2" name="Status"/>
-    <tableColumn id="3" name="LP" dataDxfId="8">
+    <tableColumn id="3" name="LP" dataDxfId="5">
       <calculatedColumnFormula>IF(Notenliste!D2&lt;&gt;0,Notenliste!$B$33," ")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="Note" dataDxfId="7" totalsRowDxfId="6">
+    <tableColumn id="4" name="Note" dataDxfId="4" totalsRowDxfId="3">
       <calculatedColumnFormula>IF(Notenliste!F2="KP"," ",IF(Notenliste!F2="NB","nicht bestanden",Notenliste!F2))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="Datum" dataDxfId="5">
+    <tableColumn id="5" name="Datum" dataDxfId="2">
       <calculatedColumnFormula>IF(Notenliste!D2&lt;&gt;0,Notenliste!$B$37," ")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Individueller Titel deutsch" dataDxfId="4"/>
-    <tableColumn id="7" name="Individueller Titel englisch" dataDxfId="3"/>
+    <tableColumn id="6" name="Individueller Titel deutsch" dataDxfId="1"/>
+    <tableColumn id="7" name="Individueller Titel englisch" dataDxfId="0"/>
     <tableColumn id="8" name="Anmerkungen"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -2383,8 +2338,8 @@
   </sheetPr>
   <dimension ref="A1:WVR38"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="13.9" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.2"/>
@@ -3023,11 +2978,11 @@
         <f t="shared" ref="K2:K25" si="0">SUM(H2:J2)</f>
         <v>0</v>
       </c>
-      <c r="L2" s="116">
+      <c r="L2" s="96">
         <f>IF(ISBLANK(Extrapunkte!I3),0,Extrapunkte!I3)</f>
         <v>0</v>
       </c>
-      <c r="M2" s="116">
+      <c r="M2" s="96">
         <f>IF(ISBLANK(Extrapunkte!J3),0,Extrapunkte!M3)</f>
         <v>0</v>
       </c>
@@ -3097,11 +3052,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L3" s="116">
+      <c r="L3" s="96">
         <f>IF(ISBLANK(Extrapunkte!I4),0,Extrapunkte!I4)</f>
         <v>0</v>
       </c>
-      <c r="M3" s="116">
+      <c r="M3" s="96">
         <f>IF(ISBLANK(Extrapunkte!J4),0,Extrapunkte!M4)</f>
         <v>0</v>
       </c>
@@ -3171,11 +3126,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L4" s="116">
+      <c r="L4" s="96">
         <f>IF(ISBLANK(Extrapunkte!I5),0,Extrapunkte!I5)</f>
         <v>0</v>
       </c>
-      <c r="M4" s="116">
+      <c r="M4" s="96">
         <f>IF(ISBLANK(Extrapunkte!J5),0,Extrapunkte!M5)</f>
         <v>0</v>
       </c>
@@ -3245,11 +3200,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L5" s="116">
+      <c r="L5" s="96">
         <f>IF(ISBLANK(Extrapunkte!I6),0,Extrapunkte!I6)</f>
         <v>0</v>
       </c>
-      <c r="M5" s="116">
+      <c r="M5" s="96">
         <f>IF(ISBLANK(Extrapunkte!J6),0,Extrapunkte!M6)</f>
         <v>0</v>
       </c>
@@ -3319,11 +3274,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L6" s="116">
+      <c r="L6" s="96">
         <f>IF(ISBLANK(Extrapunkte!I7),0,Extrapunkte!I7)</f>
         <v>0</v>
       </c>
-      <c r="M6" s="116">
+      <c r="M6" s="96">
         <f>IF(ISBLANK(Extrapunkte!J7),0,Extrapunkte!M7)</f>
         <v>0</v>
       </c>
@@ -3393,11 +3348,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L7" s="116">
+      <c r="L7" s="96">
         <f>IF(ISBLANK(Extrapunkte!I8),0,Extrapunkte!I8)</f>
         <v>0</v>
       </c>
-      <c r="M7" s="116">
+      <c r="M7" s="96">
         <f>IF(ISBLANK(Extrapunkte!J8),0,Extrapunkte!M8)</f>
         <v>0</v>
       </c>
@@ -3467,11 +3422,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L8" s="116">
+      <c r="L8" s="96">
         <f>IF(ISBLANK(Extrapunkte!I9),0,Extrapunkte!I9)</f>
         <v>0</v>
       </c>
-      <c r="M8" s="116">
+      <c r="M8" s="96">
         <f>IF(ISBLANK(Extrapunkte!J9),0,Extrapunkte!M9)</f>
         <v>0</v>
       </c>
@@ -3541,11 +3496,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L9" s="116">
+      <c r="L9" s="96">
         <f>IF(ISBLANK(Extrapunkte!I10),0,Extrapunkte!I10)</f>
         <v>0</v>
       </c>
-      <c r="M9" s="116">
+      <c r="M9" s="96">
         <f>IF(ISBLANK(Extrapunkte!J10),0,Extrapunkte!M10)</f>
         <v>0</v>
       </c>
@@ -3615,11 +3570,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L10" s="116">
+      <c r="L10" s="96">
         <f>IF(ISBLANK(Extrapunkte!I11),0,Extrapunkte!I11)</f>
         <v>0</v>
       </c>
-      <c r="M10" s="116">
+      <c r="M10" s="96">
         <f>IF(ISBLANK(Extrapunkte!J11),0,Extrapunkte!M11)</f>
         <v>0</v>
       </c>
@@ -3689,11 +3644,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L11" s="116">
+      <c r="L11" s="96">
         <f>IF(ISBLANK(Extrapunkte!I12),0,Extrapunkte!I12)</f>
         <v>0</v>
       </c>
-      <c r="M11" s="116">
+      <c r="M11" s="96">
         <f>IF(ISBLANK(Extrapunkte!J12),0,Extrapunkte!M12)</f>
         <v>0</v>
       </c>
@@ -3763,11 +3718,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L12" s="116">
+      <c r="L12" s="96">
         <f>IF(ISBLANK(Extrapunkte!I13),0,Extrapunkte!I13)</f>
         <v>0</v>
       </c>
-      <c r="M12" s="116">
+      <c r="M12" s="96">
         <f>IF(ISBLANK(Extrapunkte!J13),0,Extrapunkte!M13)</f>
         <v>0</v>
       </c>
@@ -3837,11 +3792,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L13" s="116">
+      <c r="L13" s="96">
         <f>IF(ISBLANK(Extrapunkte!I14),0,Extrapunkte!I14)</f>
         <v>0</v>
       </c>
-      <c r="M13" s="116">
+      <c r="M13" s="96">
         <f>IF(ISBLANK(Extrapunkte!J14),0,Extrapunkte!M14)</f>
         <v>0</v>
       </c>
@@ -3911,11 +3866,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L14" s="116">
+      <c r="L14" s="96">
         <f>IF(ISBLANK(Extrapunkte!I15),0,Extrapunkte!I15)</f>
         <v>0</v>
       </c>
-      <c r="M14" s="116">
+      <c r="M14" s="96">
         <f>IF(ISBLANK(Extrapunkte!J15),0,Extrapunkte!M15)</f>
         <v>0</v>
       </c>
@@ -3985,11 +3940,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L15" s="116">
+      <c r="L15" s="96">
         <f>IF(ISBLANK(Extrapunkte!I16),0,Extrapunkte!I16)</f>
         <v>0</v>
       </c>
-      <c r="M15" s="116">
+      <c r="M15" s="96">
         <f>IF(ISBLANK(Extrapunkte!J16),0,Extrapunkte!M16)</f>
         <v>0</v>
       </c>
@@ -4059,11 +4014,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L16" s="116">
+      <c r="L16" s="96">
         <f>IF(ISBLANK(Extrapunkte!I17),0,Extrapunkte!I17)</f>
         <v>0</v>
       </c>
-      <c r="M16" s="116">
+      <c r="M16" s="96">
         <f>IF(ISBLANK(Extrapunkte!J17),0,Extrapunkte!M17)</f>
         <v>0</v>
       </c>
@@ -4133,11 +4088,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L17" s="116">
+      <c r="L17" s="96">
         <f>IF(ISBLANK(Extrapunkte!I18),0,Extrapunkte!I18)</f>
         <v>0</v>
       </c>
-      <c r="M17" s="116">
+      <c r="M17" s="96">
         <f>IF(ISBLANK(Extrapunkte!J18),0,Extrapunkte!M18)</f>
         <v>0</v>
       </c>
@@ -4207,11 +4162,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L18" s="116">
+      <c r="L18" s="96">
         <f>IF(ISBLANK(Extrapunkte!I19),0,Extrapunkte!I19)</f>
         <v>0</v>
       </c>
-      <c r="M18" s="116">
+      <c r="M18" s="96">
         <f>IF(ISBLANK(Extrapunkte!J19),0,Extrapunkte!M19)</f>
         <v>0</v>
       </c>
@@ -4281,11 +4236,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L19" s="116">
+      <c r="L19" s="96">
         <f>IF(ISBLANK(Extrapunkte!I20),0,Extrapunkte!I20)</f>
         <v>0</v>
       </c>
-      <c r="M19" s="116">
+      <c r="M19" s="96">
         <f>IF(ISBLANK(Extrapunkte!J20),0,Extrapunkte!M20)</f>
         <v>0</v>
       </c>
@@ -4355,11 +4310,11 @@
         <f>SUM(H20:J20)</f>
         <v>0</v>
       </c>
-      <c r="L20" s="116">
+      <c r="L20" s="96">
         <f>IF(ISBLANK(Extrapunkte!I21),0,Extrapunkte!I21)</f>
         <v>0</v>
       </c>
-      <c r="M20" s="116">
+      <c r="M20" s="96">
         <f>IF(ISBLANK(Extrapunkte!J21),0,Extrapunkte!M21)</f>
         <v>0</v>
       </c>
@@ -4429,11 +4384,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L21" s="116">
+      <c r="L21" s="96">
         <f>IF(ISBLANK(Extrapunkte!I22),0,Extrapunkte!I22)</f>
         <v>0</v>
       </c>
-      <c r="M21" s="116">
+      <c r="M21" s="96">
         <f>IF(ISBLANK(Extrapunkte!J22),0,Extrapunkte!M22)</f>
         <v>0</v>
       </c>
@@ -4503,11 +4458,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L22" s="116">
+      <c r="L22" s="96">
         <f>IF(ISBLANK(Extrapunkte!I23),0,Extrapunkte!I23)</f>
         <v>0</v>
       </c>
-      <c r="M22" s="116">
+      <c r="M22" s="96">
         <f>IF(ISBLANK(Extrapunkte!J23),0,Extrapunkte!M23)</f>
         <v>0</v>
       </c>
@@ -4577,11 +4532,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L23" s="116">
+      <c r="L23" s="96">
         <f>IF(ISBLANK(Extrapunkte!I24),0,Extrapunkte!I24)</f>
         <v>0</v>
       </c>
-      <c r="M23" s="116">
+      <c r="M23" s="96">
         <f>IF(ISBLANK(Extrapunkte!J24),0,Extrapunkte!M24)</f>
         <v>0</v>
       </c>
@@ -4651,11 +4606,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L24" s="116">
+      <c r="L24" s="96">
         <f>IF(ISBLANK(Extrapunkte!I25),0,Extrapunkte!I25)</f>
         <v>0</v>
       </c>
-      <c r="M24" s="116">
+      <c r="M24" s="96">
         <f>IF(ISBLANK(Extrapunkte!J25),0,Extrapunkte!M25)</f>
         <v>0</v>
       </c>
@@ -4725,11 +4680,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L25" s="116">
+      <c r="L25" s="96">
         <f>IF(ISBLANK(Extrapunkte!I26),0,Extrapunkte!I26)</f>
         <v>0</v>
       </c>
-      <c r="M25" s="116">
+      <c r="M25" s="96">
         <f>IF(ISBLANK(Extrapunkte!J26),0,Extrapunkte!M26)</f>
         <v>0</v>
       </c>
@@ -4799,11 +4754,11 @@
         <f>SUM(H26:J26)</f>
         <v>0</v>
       </c>
-      <c r="L26" s="116">
+      <c r="L26" s="96">
         <f>IF(ISBLANK(Extrapunkte!I27),0,Extrapunkte!I27)</f>
         <v>0</v>
       </c>
-      <c r="M26" s="116">
+      <c r="M26" s="96">
         <f>IF(ISBLANK(Extrapunkte!J27),0,Extrapunkte!M27)</f>
         <v>0</v>
       </c>
@@ -4975,22 +4930,22 @@
         <v>82</v>
       </c>
       <c r="C31" s="23"/>
-      <c r="E31" s="96" t="s">
+      <c r="E31" s="97" t="s">
         <v>32</v>
       </c>
-      <c r="F31" s="96"/>
-      <c r="G31" s="96"/>
-      <c r="H31" s="96"/>
-      <c r="I31" s="96"/>
-      <c r="J31" s="96"/>
-      <c r="K31" s="96"/>
-      <c r="L31" s="96"/>
-      <c r="M31" s="96"/>
-      <c r="N31" s="96"/>
-      <c r="O31" s="96"/>
-      <c r="P31" s="96"/>
-      <c r="Q31" s="96"/>
-      <c r="R31" s="96"/>
+      <c r="F31" s="97"/>
+      <c r="G31" s="97"/>
+      <c r="H31" s="97"/>
+      <c r="I31" s="97"/>
+      <c r="J31" s="97"/>
+      <c r="K31" s="97"/>
+      <c r="L31" s="97"/>
+      <c r="M31" s="97"/>
+      <c r="N31" s="97"/>
+      <c r="O31" s="97"/>
+      <c r="P31" s="97"/>
+      <c r="Q31" s="97"/>
+      <c r="R31" s="97"/>
       <c r="S31" s="31"/>
     </row>
     <row r="32" spans="1:24" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -5002,20 +4957,20 @@
       </c>
       <c r="C32" s="23"/>
       <c r="D32" s="79"/>
-      <c r="E32" s="96"/>
-      <c r="F32" s="96"/>
-      <c r="G32" s="96"/>
-      <c r="H32" s="96"/>
-      <c r="I32" s="96"/>
-      <c r="J32" s="96"/>
-      <c r="K32" s="96"/>
-      <c r="L32" s="96"/>
-      <c r="M32" s="96"/>
-      <c r="N32" s="96"/>
-      <c r="O32" s="96"/>
-      <c r="P32" s="96"/>
-      <c r="Q32" s="96"/>
-      <c r="R32" s="96"/>
+      <c r="E32" s="97"/>
+      <c r="F32" s="97"/>
+      <c r="G32" s="97"/>
+      <c r="H32" s="97"/>
+      <c r="I32" s="97"/>
+      <c r="J32" s="97"/>
+      <c r="K32" s="97"/>
+      <c r="L32" s="97"/>
+      <c r="M32" s="97"/>
+      <c r="N32" s="97"/>
+      <c r="O32" s="97"/>
+      <c r="P32" s="97"/>
+      <c r="Q32" s="97"/>
+      <c r="R32" s="97"/>
       <c r="S32" s="31"/>
     </row>
     <row r="33" spans="1:19" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -5027,20 +4982,20 @@
       </c>
       <c r="C33" s="23"/>
       <c r="D33" s="79"/>
-      <c r="E33" s="96"/>
-      <c r="F33" s="96"/>
-      <c r="G33" s="96"/>
-      <c r="H33" s="96"/>
-      <c r="I33" s="96"/>
-      <c r="J33" s="96"/>
-      <c r="K33" s="96"/>
-      <c r="L33" s="96"/>
-      <c r="M33" s="96"/>
-      <c r="N33" s="96"/>
-      <c r="O33" s="96"/>
-      <c r="P33" s="96"/>
-      <c r="Q33" s="96"/>
-      <c r="R33" s="96"/>
+      <c r="E33" s="97"/>
+      <c r="F33" s="97"/>
+      <c r="G33" s="97"/>
+      <c r="H33" s="97"/>
+      <c r="I33" s="97"/>
+      <c r="J33" s="97"/>
+      <c r="K33" s="97"/>
+      <c r="L33" s="97"/>
+      <c r="M33" s="97"/>
+      <c r="N33" s="97"/>
+      <c r="O33" s="97"/>
+      <c r="P33" s="97"/>
+      <c r="Q33" s="97"/>
+      <c r="R33" s="97"/>
       <c r="S33" s="31"/>
     </row>
     <row r="34" spans="1:19" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -5054,20 +5009,20 @@
         <v>127</v>
       </c>
       <c r="D34" s="79"/>
-      <c r="E34" s="96"/>
-      <c r="F34" s="96"/>
-      <c r="G34" s="96"/>
-      <c r="H34" s="96"/>
-      <c r="I34" s="96"/>
-      <c r="J34" s="96"/>
-      <c r="K34" s="96"/>
-      <c r="L34" s="96"/>
-      <c r="M34" s="96"/>
-      <c r="N34" s="96"/>
-      <c r="O34" s="96"/>
-      <c r="P34" s="96"/>
-      <c r="Q34" s="96"/>
-      <c r="R34" s="96"/>
+      <c r="E34" s="97"/>
+      <c r="F34" s="97"/>
+      <c r="G34" s="97"/>
+      <c r="H34" s="97"/>
+      <c r="I34" s="97"/>
+      <c r="J34" s="97"/>
+      <c r="K34" s="97"/>
+      <c r="L34" s="97"/>
+      <c r="M34" s="97"/>
+      <c r="N34" s="97"/>
+      <c r="O34" s="97"/>
+      <c r="P34" s="97"/>
+      <c r="Q34" s="97"/>
+      <c r="R34" s="97"/>
       <c r="S34" s="31"/>
     </row>
     <row r="35" spans="1:19" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -5079,20 +5034,20 @@
       </c>
       <c r="C35" s="23"/>
       <c r="D35" s="79"/>
-      <c r="E35" s="96"/>
-      <c r="F35" s="96"/>
-      <c r="G35" s="96"/>
-      <c r="H35" s="96"/>
-      <c r="I35" s="96"/>
-      <c r="J35" s="96"/>
-      <c r="K35" s="96"/>
-      <c r="L35" s="96"/>
-      <c r="M35" s="96"/>
-      <c r="N35" s="96"/>
-      <c r="O35" s="96"/>
-      <c r="P35" s="96"/>
-      <c r="Q35" s="96"/>
-      <c r="R35" s="96"/>
+      <c r="E35" s="97"/>
+      <c r="F35" s="97"/>
+      <c r="G35" s="97"/>
+      <c r="H35" s="97"/>
+      <c r="I35" s="97"/>
+      <c r="J35" s="97"/>
+      <c r="K35" s="97"/>
+      <c r="L35" s="97"/>
+      <c r="M35" s="97"/>
+      <c r="N35" s="97"/>
+      <c r="O35" s="97"/>
+      <c r="P35" s="97"/>
+      <c r="Q35" s="97"/>
+      <c r="R35" s="97"/>
       <c r="S35" s="31"/>
     </row>
     <row r="36" spans="1:19" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -5104,20 +5059,20 @@
       </c>
       <c r="C36" s="23"/>
       <c r="D36" s="79"/>
-      <c r="E36" s="96"/>
-      <c r="F36" s="96"/>
-      <c r="G36" s="96"/>
-      <c r="H36" s="96"/>
-      <c r="I36" s="96"/>
-      <c r="J36" s="96"/>
-      <c r="K36" s="96"/>
-      <c r="L36" s="96"/>
-      <c r="M36" s="96"/>
-      <c r="N36" s="96"/>
-      <c r="O36" s="96"/>
-      <c r="P36" s="96"/>
-      <c r="Q36" s="96"/>
-      <c r="R36" s="96"/>
+      <c r="E36" s="97"/>
+      <c r="F36" s="97"/>
+      <c r="G36" s="97"/>
+      <c r="H36" s="97"/>
+      <c r="I36" s="97"/>
+      <c r="J36" s="97"/>
+      <c r="K36" s="97"/>
+      <c r="L36" s="97"/>
+      <c r="M36" s="97"/>
+      <c r="N36" s="97"/>
+      <c r="O36" s="97"/>
+      <c r="P36" s="97"/>
+      <c r="Q36" s="97"/>
+      <c r="R36" s="97"/>
       <c r="S36" s="31"/>
     </row>
     <row r="37" spans="1:19" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -5159,17 +5114,17 @@
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <conditionalFormatting sqref="H26">
-    <cfRule type="cellIs" dxfId="2" priority="9" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="10" priority="9" stopIfTrue="1" operator="greaterThan">
       <formula>$H$27</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I26">
-    <cfRule type="cellIs" dxfId="1" priority="8" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="9" priority="8" stopIfTrue="1" operator="greaterThan">
       <formula>$I$27</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J26">
-    <cfRule type="cellIs" dxfId="0" priority="3" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="8" priority="3" stopIfTrue="1" operator="greaterThan">
       <formula>$I$27</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5192,8 +5147,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5212,18 +5167,18 @@
         <f>Notenliste!B34</f>
         <v>course.name</v>
       </c>
-      <c r="E1" s="97" t="s">
+      <c r="E1" s="98" t="s">
         <v>132</v>
       </c>
-      <c r="F1" s="97"/>
-      <c r="G1" s="97"/>
-      <c r="H1" s="97"/>
+      <c r="F1" s="98"/>
+      <c r="G1" s="98"/>
+      <c r="H1" s="98"/>
       <c r="I1" s="85"/>
-      <c r="J1" s="98" t="s">
+      <c r="J1" s="99" t="s">
         <v>133</v>
       </c>
-      <c r="K1" s="99"/>
-      <c r="L1" s="99"/>
+      <c r="K1" s="100"/>
+      <c r="L1" s="100"/>
     </row>
     <row r="2" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A2" s="26" t="s">
@@ -5269,19 +5224,19 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="83" t="str">
-        <f>[1]RAWDATA!B2</f>
+        <f>RAWDATA!B2</f>
         <v>applicant.last_name</v>
       </c>
       <c r="B3" s="83" t="str">
-        <f>[1]RAWDATA!C2</f>
+        <f>RAWDATA!C2</f>
         <v>applicant.first_name</v>
       </c>
       <c r="C3" s="30" t="str">
-        <f>[1]RAWDATA!D2</f>
+        <f>RAWDATA!D2</f>
         <v>applicant.origin.short_name</v>
       </c>
       <c r="D3" s="30" t="str">
-        <f>[1]RAWDATA!E2</f>
+        <f>RAWDATA!E2</f>
         <v>applicant.tag</v>
       </c>
       <c r="E3" s="84"/>
@@ -5303,19 +5258,19 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="83">
-        <f>[1]RAWDATA!B3</f>
+        <f>RAWDATA!B3</f>
         <v>0</v>
       </c>
       <c r="B4" s="83">
-        <f>[1]RAWDATA!C3</f>
+        <f>RAWDATA!C3</f>
         <v>0</v>
       </c>
       <c r="C4" s="30">
-        <f>[1]RAWDATA!D3</f>
+        <f>RAWDATA!D3</f>
         <v>0</v>
       </c>
       <c r="D4" s="30">
-        <f>[1]RAWDATA!E3</f>
+        <f>RAWDATA!E3</f>
         <v>0</v>
       </c>
       <c r="E4" s="84"/>
@@ -5337,19 +5292,19 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="83">
-        <f>[1]RAWDATA!B4</f>
+        <f>RAWDATA!B4</f>
         <v>0</v>
       </c>
       <c r="B5" s="83">
-        <f>[1]RAWDATA!C4</f>
+        <f>RAWDATA!C4</f>
         <v>0</v>
       </c>
       <c r="C5" s="30">
-        <f>[1]RAWDATA!D4</f>
+        <f>RAWDATA!D4</f>
         <v>0</v>
       </c>
       <c r="D5" s="30">
-        <f>[1]RAWDATA!E4</f>
+        <f>RAWDATA!E4</f>
         <v>0</v>
       </c>
       <c r="E5" s="84"/>
@@ -5371,19 +5326,19 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="83">
-        <f>[1]RAWDATA!B5</f>
+        <f>RAWDATA!B5</f>
         <v>0</v>
       </c>
       <c r="B6" s="83">
-        <f>[1]RAWDATA!C5</f>
+        <f>RAWDATA!C5</f>
         <v>0</v>
       </c>
       <c r="C6" s="30">
-        <f>[1]RAWDATA!D5</f>
+        <f>RAWDATA!D5</f>
         <v>0</v>
       </c>
       <c r="D6" s="30">
-        <f>[1]RAWDATA!E5</f>
+        <f>RAWDATA!E5</f>
         <v>0</v>
       </c>
       <c r="E6" s="84"/>
@@ -5405,19 +5360,19 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="83">
-        <f>[1]RAWDATA!B6</f>
+        <f>RAWDATA!B6</f>
         <v>0</v>
       </c>
       <c r="B7" s="83">
-        <f>[1]RAWDATA!C6</f>
+        <f>RAWDATA!C6</f>
         <v>0</v>
       </c>
       <c r="C7" s="30">
-        <f>[1]RAWDATA!D6</f>
+        <f>RAWDATA!D6</f>
         <v>0</v>
       </c>
       <c r="D7" s="30">
-        <f>[1]RAWDATA!E6</f>
+        <f>RAWDATA!E6</f>
         <v>0</v>
       </c>
       <c r="E7" s="84"/>
@@ -5439,19 +5394,19 @@
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="83">
-        <f>[1]RAWDATA!B7</f>
+        <f>RAWDATA!B7</f>
         <v>0</v>
       </c>
       <c r="B8" s="83">
-        <f>[1]RAWDATA!C7</f>
+        <f>RAWDATA!C7</f>
         <v>0</v>
       </c>
       <c r="C8" s="30">
-        <f>[1]RAWDATA!D7</f>
+        <f>RAWDATA!D7</f>
         <v>0</v>
       </c>
       <c r="D8" s="30">
-        <f>[1]RAWDATA!E7</f>
+        <f>RAWDATA!E7</f>
         <v>0</v>
       </c>
       <c r="E8" s="84"/>
@@ -5473,19 +5428,19 @@
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="83">
-        <f>[1]RAWDATA!B8</f>
+        <f>RAWDATA!B8</f>
         <v>0</v>
       </c>
       <c r="B9" s="83">
-        <f>[1]RAWDATA!C8</f>
+        <f>RAWDATA!C8</f>
         <v>0</v>
       </c>
       <c r="C9" s="30">
-        <f>[1]RAWDATA!D8</f>
+        <f>RAWDATA!D8</f>
         <v>0</v>
       </c>
       <c r="D9" s="30">
-        <f>[1]RAWDATA!E8</f>
+        <f>RAWDATA!E8</f>
         <v>0</v>
       </c>
       <c r="E9" s="84"/>
@@ -5507,19 +5462,19 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="83">
-        <f>[1]RAWDATA!B9</f>
+        <f>RAWDATA!B9</f>
         <v>0</v>
       </c>
       <c r="B10" s="83">
-        <f>[1]RAWDATA!C9</f>
+        <f>RAWDATA!C9</f>
         <v>0</v>
       </c>
       <c r="C10" s="30">
-        <f>[1]RAWDATA!D9</f>
+        <f>RAWDATA!D9</f>
         <v>0</v>
       </c>
       <c r="D10" s="30">
-        <f>[1]RAWDATA!E9</f>
+        <f>RAWDATA!E9</f>
         <v>0</v>
       </c>
       <c r="E10" s="84"/>
@@ -5541,19 +5496,19 @@
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="83">
-        <f>[1]RAWDATA!B10</f>
+        <f>RAWDATA!B10</f>
         <v>0</v>
       </c>
       <c r="B11" s="83">
-        <f>[1]RAWDATA!C10</f>
+        <f>RAWDATA!C10</f>
         <v>0</v>
       </c>
       <c r="C11" s="30">
-        <f>[1]RAWDATA!D10</f>
+        <f>RAWDATA!D10</f>
         <v>0</v>
       </c>
       <c r="D11" s="30">
-        <f>[1]RAWDATA!E10</f>
+        <f>RAWDATA!E10</f>
         <v>0</v>
       </c>
       <c r="E11" s="84"/>
@@ -5575,19 +5530,19 @@
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="83">
-        <f>[1]RAWDATA!B11</f>
+        <f>RAWDATA!B11</f>
         <v>0</v>
       </c>
       <c r="B12" s="83">
-        <f>[1]RAWDATA!C11</f>
+        <f>RAWDATA!C11</f>
         <v>0</v>
       </c>
       <c r="C12" s="30">
-        <f>[1]RAWDATA!D11</f>
+        <f>RAWDATA!D11</f>
         <v>0</v>
       </c>
       <c r="D12" s="30">
-        <f>[1]RAWDATA!E11</f>
+        <f>RAWDATA!E11</f>
         <v>0</v>
       </c>
       <c r="E12" s="84"/>
@@ -5609,19 +5564,19 @@
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="83">
-        <f>[1]RAWDATA!B12</f>
+        <f>RAWDATA!B12</f>
         <v>0</v>
       </c>
       <c r="B13" s="83">
-        <f>[1]RAWDATA!C12</f>
+        <f>RAWDATA!C12</f>
         <v>0</v>
       </c>
       <c r="C13" s="30">
-        <f>[1]RAWDATA!D12</f>
+        <f>RAWDATA!D12</f>
         <v>0</v>
       </c>
       <c r="D13" s="30">
-        <f>[1]RAWDATA!E12</f>
+        <f>RAWDATA!E12</f>
         <v>0</v>
       </c>
       <c r="E13" s="84"/>
@@ -5643,19 +5598,19 @@
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="83">
-        <f>[1]RAWDATA!B13</f>
+        <f>RAWDATA!B13</f>
         <v>0</v>
       </c>
       <c r="B14" s="83">
-        <f>[1]RAWDATA!C13</f>
+        <f>RAWDATA!C13</f>
         <v>0</v>
       </c>
       <c r="C14" s="30">
-        <f>[1]RAWDATA!D13</f>
+        <f>RAWDATA!D13</f>
         <v>0</v>
       </c>
       <c r="D14" s="30">
-        <f>[1]RAWDATA!E13</f>
+        <f>RAWDATA!E13</f>
         <v>0</v>
       </c>
       <c r="E14" s="84"/>
@@ -5677,19 +5632,19 @@
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="83">
-        <f>[1]RAWDATA!B14</f>
+        <f>RAWDATA!B14</f>
         <v>0</v>
       </c>
       <c r="B15" s="83">
-        <f>[1]RAWDATA!C14</f>
+        <f>RAWDATA!C14</f>
         <v>0</v>
       </c>
       <c r="C15" s="30">
-        <f>[1]RAWDATA!D14</f>
+        <f>RAWDATA!D14</f>
         <v>0</v>
       </c>
       <c r="D15" s="30">
-        <f>[1]RAWDATA!E14</f>
+        <f>RAWDATA!E14</f>
         <v>0</v>
       </c>
       <c r="E15" s="84"/>
@@ -5711,19 +5666,19 @@
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="83">
-        <f>[1]RAWDATA!B15</f>
+        <f>RAWDATA!B15</f>
         <v>0</v>
       </c>
       <c r="B16" s="83">
-        <f>[1]RAWDATA!C15</f>
+        <f>RAWDATA!C15</f>
         <v>0</v>
       </c>
       <c r="C16" s="30">
-        <f>[1]RAWDATA!D15</f>
+        <f>RAWDATA!D15</f>
         <v>0</v>
       </c>
       <c r="D16" s="30">
-        <f>[1]RAWDATA!E15</f>
+        <f>RAWDATA!E15</f>
         <v>0</v>
       </c>
       <c r="E16" s="84"/>
@@ -5745,19 +5700,19 @@
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="83">
-        <f>[1]RAWDATA!B16</f>
+        <f>RAWDATA!B16</f>
         <v>0</v>
       </c>
       <c r="B17" s="83">
-        <f>[1]RAWDATA!C16</f>
+        <f>RAWDATA!C16</f>
         <v>0</v>
       </c>
       <c r="C17" s="30">
-        <f>[1]RAWDATA!D16</f>
+        <f>RAWDATA!D16</f>
         <v>0</v>
       </c>
       <c r="D17" s="30">
-        <f>[1]RAWDATA!E16</f>
+        <f>RAWDATA!E16</f>
         <v>0</v>
       </c>
       <c r="E17" s="84"/>
@@ -5779,19 +5734,19 @@
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="83">
-        <f>[1]RAWDATA!B17</f>
+        <f>RAWDATA!B17</f>
         <v>0</v>
       </c>
       <c r="B18" s="83">
-        <f>[1]RAWDATA!C17</f>
+        <f>RAWDATA!C17</f>
         <v>0</v>
       </c>
       <c r="C18" s="30">
-        <f>[1]RAWDATA!D17</f>
+        <f>RAWDATA!D17</f>
         <v>0</v>
       </c>
       <c r="D18" s="30">
-        <f>[1]RAWDATA!E17</f>
+        <f>RAWDATA!E17</f>
         <v>0</v>
       </c>
       <c r="E18" s="84"/>
@@ -5813,19 +5768,19 @@
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="83">
-        <f>[1]RAWDATA!B18</f>
+        <f>RAWDATA!B18</f>
         <v>0</v>
       </c>
       <c r="B19" s="83">
-        <f>[1]RAWDATA!C18</f>
+        <f>RAWDATA!C18</f>
         <v>0</v>
       </c>
       <c r="C19" s="30">
-        <f>[1]RAWDATA!D18</f>
+        <f>RAWDATA!D18</f>
         <v>0</v>
       </c>
       <c r="D19" s="30">
-        <f>[1]RAWDATA!E18</f>
+        <f>RAWDATA!E18</f>
         <v>0</v>
       </c>
       <c r="E19" s="84"/>
@@ -5847,19 +5802,19 @@
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="83">
-        <f>[1]RAWDATA!B19</f>
+        <f>RAWDATA!B19</f>
         <v>0</v>
       </c>
       <c r="B20" s="83">
-        <f>[1]RAWDATA!C19</f>
+        <f>RAWDATA!C19</f>
         <v>0</v>
       </c>
       <c r="C20" s="30">
-        <f>[1]RAWDATA!D19</f>
+        <f>RAWDATA!D19</f>
         <v>0</v>
       </c>
       <c r="D20" s="30">
-        <f>[1]RAWDATA!E19</f>
+        <f>RAWDATA!E19</f>
         <v>0</v>
       </c>
       <c r="E20" s="84"/>
@@ -5881,19 +5836,19 @@
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="83">
-        <f>[1]RAWDATA!B20</f>
+        <f>RAWDATA!B20</f>
         <v>0</v>
       </c>
       <c r="B21" s="83">
-        <f>[1]RAWDATA!C20</f>
+        <f>RAWDATA!C20</f>
         <v>0</v>
       </c>
       <c r="C21" s="30">
-        <f>[1]RAWDATA!D20</f>
+        <f>RAWDATA!D20</f>
         <v>0</v>
       </c>
       <c r="D21" s="30">
-        <f>[1]RAWDATA!E20</f>
+        <f>RAWDATA!E20</f>
         <v>0</v>
       </c>
       <c r="E21" s="84"/>
@@ -5915,19 +5870,19 @@
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="83">
-        <f>[1]RAWDATA!B21</f>
+        <f>RAWDATA!B21</f>
         <v>0</v>
       </c>
       <c r="B22" s="83">
-        <f>[1]RAWDATA!C21</f>
+        <f>RAWDATA!C21</f>
         <v>0</v>
       </c>
       <c r="C22" s="30">
-        <f>[1]RAWDATA!D21</f>
+        <f>RAWDATA!D21</f>
         <v>0</v>
       </c>
       <c r="D22" s="30">
-        <f>[1]RAWDATA!E21</f>
+        <f>RAWDATA!E21</f>
         <v>0</v>
       </c>
       <c r="E22" s="84"/>
@@ -5949,19 +5904,19 @@
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="83">
-        <f>[1]RAWDATA!B22</f>
+        <f>RAWDATA!B22</f>
         <v>0</v>
       </c>
       <c r="B23" s="83">
-        <f>[1]RAWDATA!C22</f>
+        <f>RAWDATA!C22</f>
         <v>0</v>
       </c>
       <c r="C23" s="30">
-        <f>[1]RAWDATA!D22</f>
+        <f>RAWDATA!D22</f>
         <v>0</v>
       </c>
       <c r="D23" s="30">
-        <f>[1]RAWDATA!E22</f>
+        <f>RAWDATA!E22</f>
         <v>0</v>
       </c>
       <c r="E23" s="84"/>
@@ -5983,19 +5938,19 @@
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="83">
-        <f>[1]RAWDATA!B23</f>
+        <f>RAWDATA!B23</f>
         <v>0</v>
       </c>
       <c r="B24" s="83">
-        <f>[1]RAWDATA!C23</f>
+        <f>RAWDATA!C23</f>
         <v>0</v>
       </c>
       <c r="C24" s="30">
-        <f>[1]RAWDATA!D23</f>
+        <f>RAWDATA!D23</f>
         <v>0</v>
       </c>
       <c r="D24" s="30">
-        <f>[1]RAWDATA!E23</f>
+        <f>RAWDATA!E23</f>
         <v>0</v>
       </c>
       <c r="E24" s="84"/>
@@ -6017,19 +5972,19 @@
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="83">
-        <f>[1]RAWDATA!B24</f>
+        <f>RAWDATA!B24</f>
         <v>0</v>
       </c>
       <c r="B25" s="83">
-        <f>[1]RAWDATA!C24</f>
+        <f>RAWDATA!C24</f>
         <v>0</v>
       </c>
       <c r="C25" s="30">
-        <f>[1]RAWDATA!D24</f>
+        <f>RAWDATA!D24</f>
         <v>0</v>
       </c>
       <c r="D25" s="30">
-        <f>[1]RAWDATA!E24</f>
+        <f>RAWDATA!E24</f>
         <v>0</v>
       </c>
       <c r="E25" s="84"/>
@@ -6051,19 +6006,19 @@
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="83">
-        <f>[1]RAWDATA!B25</f>
+        <f>RAWDATA!B25</f>
         <v>0</v>
       </c>
       <c r="B26" s="83">
-        <f>[1]RAWDATA!C25</f>
+        <f>RAWDATA!C25</f>
         <v>0</v>
       </c>
       <c r="C26" s="30">
-        <f>[1]RAWDATA!D25</f>
+        <f>RAWDATA!D25</f>
         <v>0</v>
       </c>
       <c r="D26" s="30">
-        <f>[1]RAWDATA!E25</f>
+        <f>RAWDATA!E25</f>
         <v>0</v>
       </c>
       <c r="E26" s="84"/>
@@ -6085,19 +6040,19 @@
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="83">
-        <f>[1]RAWDATA!B26</f>
+        <f>RAWDATA!B26</f>
         <v>0</v>
       </c>
       <c r="B27" s="83">
-        <f>[1]RAWDATA!C26</f>
+        <f>RAWDATA!C26</f>
         <v>0</v>
       </c>
       <c r="C27" s="30">
-        <f>[1]RAWDATA!D26</f>
+        <f>RAWDATA!D26</f>
         <v>0</v>
       </c>
       <c r="D27" s="30">
-        <f>[1]RAWDATA!E26</f>
+        <f>RAWDATA!E26</f>
         <v>0</v>
       </c>
       <c r="E27" s="84"/>
@@ -6208,11 +6163,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="100" t="str">
+      <c r="A1" s="101" t="str">
         <f>Notenliste!B34</f>
         <v>course.name</v>
       </c>
-      <c r="B1" s="100"/>
+      <c r="B1" s="101"/>
       <c r="C1" s="8" t="s">
         <v>12</v>
       </c>
@@ -6366,45 +6321,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="101" t="str">
+      <c r="A1" s="102" t="str">
         <f>Notenliste!B34&amp;Notenliste!B35</f>
         <v>course.namecourse.alternative</v>
       </c>
-      <c r="B1" s="101"/>
-      <c r="C1" s="101"/>
-      <c r="D1" s="101"/>
-      <c r="E1" s="101"/>
-      <c r="F1" s="101"/>
-      <c r="G1" s="101"/>
-      <c r="H1" s="101"/>
-      <c r="I1" s="101"/>
-      <c r="J1" s="101"/>
-      <c r="K1" s="101"/>
-      <c r="L1" s="101"/>
-      <c r="M1" s="101"/>
-      <c r="N1" s="101"/>
+      <c r="B1" s="102"/>
+      <c r="C1" s="102"/>
+      <c r="D1" s="102"/>
+      <c r="E1" s="102"/>
+      <c r="F1" s="102"/>
+      <c r="G1" s="102"/>
+      <c r="H1" s="102"/>
+      <c r="I1" s="102"/>
+      <c r="J1" s="102"/>
+      <c r="K1" s="102"/>
+      <c r="L1" s="102"/>
+      <c r="M1" s="102"/>
+      <c r="N1" s="102"/>
     </row>
     <row r="2" spans="1:15" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="102" t="str">
+      <c r="A2" s="103" t="str">
         <f>"Dozent/in: "&amp;Notenliste!B31</f>
         <v>Dozent/in: Elena Moya Royo</v>
       </c>
-      <c r="B2" s="102"/>
-      <c r="C2" s="102"/>
-      <c r="D2" s="102"/>
-      <c r="E2" s="102"/>
-      <c r="F2" s="102"/>
-      <c r="G2" s="103" t="str">
+      <c r="B2" s="103"/>
+      <c r="C2" s="103"/>
+      <c r="D2" s="103"/>
+      <c r="E2" s="103"/>
+      <c r="F2" s="103"/>
+      <c r="G2" s="104" t="str">
         <f>"Semester: "&amp;Notenliste!B36</f>
         <v>Semester: semester</v>
       </c>
-      <c r="H2" s="103"/>
-      <c r="I2" s="103"/>
-      <c r="J2" s="103"/>
-      <c r="K2" s="103"/>
-      <c r="L2" s="103"/>
-      <c r="M2" s="103"/>
-      <c r="N2" s="103"/>
+      <c r="H2" s="104"/>
+      <c r="I2" s="104"/>
+      <c r="J2" s="104"/>
+      <c r="K2" s="104"/>
+      <c r="L2" s="104"/>
+      <c r="M2" s="104"/>
+      <c r="N2" s="104"/>
       <c r="O2" s="62"/>
     </row>
     <row r="3" spans="1:15" s="16" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -7926,90 +7881,90 @@
       <c r="O29" s="62"/>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A30" s="104" t="s">
+      <c r="A30" s="105" t="s">
         <v>43</v>
       </c>
-      <c r="B30" s="104"/>
-      <c r="C30" s="104"/>
-      <c r="D30" s="104"/>
-      <c r="E30" s="104"/>
-      <c r="F30" s="104"/>
-      <c r="G30" s="104"/>
-      <c r="H30" s="104"/>
-      <c r="I30" s="104"/>
-      <c r="J30" s="104"/>
-      <c r="K30" s="104"/>
-      <c r="L30" s="104"/>
-      <c r="M30" s="104"/>
-      <c r="N30" s="104"/>
+      <c r="B30" s="105"/>
+      <c r="C30" s="105"/>
+      <c r="D30" s="105"/>
+      <c r="E30" s="105"/>
+      <c r="F30" s="105"/>
+      <c r="G30" s="105"/>
+      <c r="H30" s="105"/>
+      <c r="I30" s="105"/>
+      <c r="J30" s="105"/>
+      <c r="K30" s="105"/>
+      <c r="L30" s="105"/>
+      <c r="M30" s="105"/>
+      <c r="N30" s="105"/>
       <c r="O30" s="62"/>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A31" s="104"/>
-      <c r="B31" s="104"/>
-      <c r="C31" s="104"/>
-      <c r="D31" s="104"/>
-      <c r="E31" s="104"/>
-      <c r="F31" s="104"/>
-      <c r="G31" s="104"/>
-      <c r="H31" s="104"/>
-      <c r="I31" s="104"/>
-      <c r="J31" s="104"/>
-      <c r="K31" s="104"/>
-      <c r="L31" s="104"/>
-      <c r="M31" s="104"/>
-      <c r="N31" s="104"/>
+      <c r="A31" s="105"/>
+      <c r="B31" s="105"/>
+      <c r="C31" s="105"/>
+      <c r="D31" s="105"/>
+      <c r="E31" s="105"/>
+      <c r="F31" s="105"/>
+      <c r="G31" s="105"/>
+      <c r="H31" s="105"/>
+      <c r="I31" s="105"/>
+      <c r="J31" s="105"/>
+      <c r="K31" s="105"/>
+      <c r="L31" s="105"/>
+      <c r="M31" s="105"/>
+      <c r="N31" s="105"/>
       <c r="O31" s="62"/>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A32" s="104"/>
-      <c r="B32" s="104"/>
-      <c r="C32" s="104"/>
-      <c r="D32" s="104"/>
-      <c r="E32" s="104"/>
-      <c r="F32" s="104"/>
-      <c r="G32" s="104"/>
-      <c r="H32" s="104"/>
-      <c r="I32" s="104"/>
-      <c r="J32" s="104"/>
-      <c r="K32" s="104"/>
-      <c r="L32" s="104"/>
-      <c r="M32" s="104"/>
-      <c r="N32" s="104"/>
+      <c r="A32" s="105"/>
+      <c r="B32" s="105"/>
+      <c r="C32" s="105"/>
+      <c r="D32" s="105"/>
+      <c r="E32" s="105"/>
+      <c r="F32" s="105"/>
+      <c r="G32" s="105"/>
+      <c r="H32" s="105"/>
+      <c r="I32" s="105"/>
+      <c r="J32" s="105"/>
+      <c r="K32" s="105"/>
+      <c r="L32" s="105"/>
+      <c r="M32" s="105"/>
+      <c r="N32" s="105"/>
       <c r="O32" s="62"/>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A33" s="104"/>
-      <c r="B33" s="104"/>
-      <c r="C33" s="104"/>
-      <c r="D33" s="104"/>
-      <c r="E33" s="104"/>
-      <c r="F33" s="104"/>
-      <c r="G33" s="104"/>
-      <c r="H33" s="104"/>
-      <c r="I33" s="104"/>
-      <c r="J33" s="104"/>
-      <c r="K33" s="104"/>
-      <c r="L33" s="104"/>
-      <c r="M33" s="104"/>
-      <c r="N33" s="104"/>
+      <c r="A33" s="105"/>
+      <c r="B33" s="105"/>
+      <c r="C33" s="105"/>
+      <c r="D33" s="105"/>
+      <c r="E33" s="105"/>
+      <c r="F33" s="105"/>
+      <c r="G33" s="105"/>
+      <c r="H33" s="105"/>
+      <c r="I33" s="105"/>
+      <c r="J33" s="105"/>
+      <c r="K33" s="105"/>
+      <c r="L33" s="105"/>
+      <c r="M33" s="105"/>
+      <c r="N33" s="105"/>
       <c r="O33" s="62"/>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A34" s="104"/>
-      <c r="B34" s="104"/>
-      <c r="C34" s="104"/>
-      <c r="D34" s="104"/>
-      <c r="E34" s="104"/>
-      <c r="F34" s="104"/>
-      <c r="G34" s="104"/>
-      <c r="H34" s="104"/>
-      <c r="I34" s="104"/>
-      <c r="J34" s="104"/>
-      <c r="K34" s="104"/>
-      <c r="L34" s="104"/>
-      <c r="M34" s="104"/>
-      <c r="N34" s="104"/>
+      <c r="A34" s="105"/>
+      <c r="B34" s="105"/>
+      <c r="C34" s="105"/>
+      <c r="D34" s="105"/>
+      <c r="E34" s="105"/>
+      <c r="F34" s="105"/>
+      <c r="G34" s="105"/>
+      <c r="H34" s="105"/>
+      <c r="I34" s="105"/>
+      <c r="J34" s="105"/>
+      <c r="K34" s="105"/>
+      <c r="L34" s="105"/>
+      <c r="M34" s="105"/>
+      <c r="N34" s="105"/>
       <c r="O34" s="62"/>
     </row>
   </sheetData>
@@ -8059,105 +8014,105 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="108" t="str">
+      <c r="A1" s="109" t="str">
         <f>Notenliste!B34&amp;Notenliste!B35</f>
         <v>course.namecourse.alternative</v>
       </c>
-      <c r="B1" s="108"/>
-      <c r="C1" s="108"/>
-      <c r="D1" s="108"/>
-      <c r="E1" s="108"/>
-      <c r="F1" s="108"/>
-      <c r="G1" s="108"/>
-      <c r="H1" s="108"/>
-      <c r="I1" s="108"/>
-      <c r="J1" s="108"/>
-      <c r="K1" s="108"/>
-      <c r="L1" s="108"/>
-      <c r="M1" s="108"/>
-      <c r="N1" s="108"/>
-      <c r="O1" s="108"/>
-      <c r="P1" s="108"/>
-      <c r="Q1" s="108"/>
-      <c r="R1" s="108"/>
-      <c r="S1" s="108"/>
-      <c r="T1" s="108"/>
-      <c r="U1" s="108"/>
-      <c r="V1" s="108"/>
-      <c r="W1" s="108"/>
-      <c r="X1" s="108"/>
+      <c r="B1" s="109"/>
+      <c r="C1" s="109"/>
+      <c r="D1" s="109"/>
+      <c r="E1" s="109"/>
+      <c r="F1" s="109"/>
+      <c r="G1" s="109"/>
+      <c r="H1" s="109"/>
+      <c r="I1" s="109"/>
+      <c r="J1" s="109"/>
+      <c r="K1" s="109"/>
+      <c r="L1" s="109"/>
+      <c r="M1" s="109"/>
+      <c r="N1" s="109"/>
+      <c r="O1" s="109"/>
+      <c r="P1" s="109"/>
+      <c r="Q1" s="109"/>
+      <c r="R1" s="109"/>
+      <c r="S1" s="109"/>
+      <c r="T1" s="109"/>
+      <c r="U1" s="109"/>
+      <c r="V1" s="109"/>
+      <c r="W1" s="109"/>
+      <c r="X1" s="109"/>
     </row>
     <row r="2" spans="1:24" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="108" t="s">
+      <c r="A2" s="109" t="s">
         <v>41</v>
       </c>
-      <c r="B2" s="108"/>
-      <c r="C2" s="108"/>
-      <c r="D2" s="108"/>
-      <c r="E2" s="108"/>
-      <c r="F2" s="108"/>
-      <c r="G2" s="108"/>
-      <c r="H2" s="108"/>
-      <c r="I2" s="108"/>
-      <c r="J2" s="108"/>
-      <c r="K2" s="108"/>
-      <c r="L2" s="108"/>
-      <c r="M2" s="108"/>
-      <c r="N2" s="108"/>
-      <c r="O2" s="108"/>
-      <c r="P2" s="108"/>
-      <c r="Q2" s="108"/>
-      <c r="R2" s="108"/>
-      <c r="S2" s="108"/>
-      <c r="T2" s="108"/>
-      <c r="U2" s="108"/>
-      <c r="V2" s="108"/>
-      <c r="W2" s="108"/>
-      <c r="X2" s="108"/>
+      <c r="B2" s="109"/>
+      <c r="C2" s="109"/>
+      <c r="D2" s="109"/>
+      <c r="E2" s="109"/>
+      <c r="F2" s="109"/>
+      <c r="G2" s="109"/>
+      <c r="H2" s="109"/>
+      <c r="I2" s="109"/>
+      <c r="J2" s="109"/>
+      <c r="K2" s="109"/>
+      <c r="L2" s="109"/>
+      <c r="M2" s="109"/>
+      <c r="N2" s="109"/>
+      <c r="O2" s="109"/>
+      <c r="P2" s="109"/>
+      <c r="Q2" s="109"/>
+      <c r="R2" s="109"/>
+      <c r="S2" s="109"/>
+      <c r="T2" s="109"/>
+      <c r="U2" s="109"/>
+      <c r="V2" s="109"/>
+      <c r="W2" s="109"/>
+      <c r="X2" s="109"/>
     </row>
     <row r="3" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="109" t="str">
+      <c r="A3" s="110" t="str">
         <f>"Dozent/in: "&amp;Notenliste!B31</f>
         <v>Dozent/in: Elena Moya Royo</v>
       </c>
-      <c r="B3" s="109"/>
-      <c r="C3" s="109"/>
-      <c r="D3" s="109"/>
-      <c r="E3" s="109"/>
+      <c r="B3" s="110"/>
+      <c r="C3" s="110"/>
+      <c r="D3" s="110"/>
+      <c r="E3" s="110"/>
       <c r="F3" s="43"/>
-      <c r="G3" s="107"/>
-      <c r="H3" s="107"/>
-      <c r="I3" s="107"/>
-      <c r="J3" s="107"/>
-      <c r="K3" s="107"/>
-      <c r="L3" s="107"/>
-      <c r="M3" s="107"/>
-      <c r="N3" s="107"/>
-      <c r="O3" s="107"/>
-      <c r="P3" s="107"/>
-      <c r="Q3" s="107"/>
-      <c r="R3" s="107"/>
-      <c r="S3" s="107"/>
-      <c r="T3" s="107"/>
-      <c r="U3" s="107"/>
-      <c r="V3" s="107"/>
-      <c r="W3" s="107"/>
-      <c r="X3" s="107"/>
+      <c r="G3" s="108"/>
+      <c r="H3" s="108"/>
+      <c r="I3" s="108"/>
+      <c r="J3" s="108"/>
+      <c r="K3" s="108"/>
+      <c r="L3" s="108"/>
+      <c r="M3" s="108"/>
+      <c r="N3" s="108"/>
+      <c r="O3" s="108"/>
+      <c r="P3" s="108"/>
+      <c r="Q3" s="108"/>
+      <c r="R3" s="108"/>
+      <c r="S3" s="108"/>
+      <c r="T3" s="108"/>
+      <c r="U3" s="108"/>
+      <c r="V3" s="108"/>
+      <c r="W3" s="108"/>
+      <c r="X3" s="108"/>
     </row>
     <row r="4" spans="1:24" s="16" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="105" t="s">
+      <c r="A4" s="106" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="105" t="s">
+      <c r="B4" s="106" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="105" t="s">
+      <c r="C4" s="106" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="105" t="s">
+      <c r="D4" s="106" t="s">
         <v>33</v>
       </c>
-      <c r="E4" s="114" t="s">
+      <c r="E4" s="115" t="s">
         <v>27</v>
       </c>
       <c r="F4" s="48"/>
@@ -8176,22 +8131,22 @@
       <c r="S4" s="14"/>
       <c r="T4" s="14"/>
       <c r="U4" s="45"/>
-      <c r="V4" s="110" t="s">
+      <c r="V4" s="111" t="s">
         <v>36</v>
       </c>
-      <c r="W4" s="112" t="s">
+      <c r="W4" s="113" t="s">
         <v>37</v>
       </c>
-      <c r="X4" s="112" t="s">
+      <c r="X4" s="113" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:24" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="106"/>
-      <c r="B5" s="106"/>
-      <c r="C5" s="106"/>
-      <c r="D5" s="106"/>
-      <c r="E5" s="115"/>
+      <c r="A5" s="107"/>
+      <c r="B5" s="107"/>
+      <c r="C5" s="107"/>
+      <c r="D5" s="107"/>
+      <c r="E5" s="116"/>
       <c r="F5" s="49"/>
       <c r="G5" s="42">
         <v>1</v>
@@ -8236,9 +8191,9 @@
         <v>14</v>
       </c>
       <c r="U5" s="44"/>
-      <c r="V5" s="111"/>
-      <c r="W5" s="113"/>
-      <c r="X5" s="113"/>
+      <c r="V5" s="112"/>
+      <c r="W5" s="114"/>
+      <c r="X5" s="114"/>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6" s="17">

--- a/src/spz/templates/export/spanisch_hueber.xlsx
+++ b/src/spz/templates/export/spanisch_hueber.xlsx
@@ -22,9 +22,9 @@
     <sheet name="Einstellungen" sheetId="15" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Notenliste!$H$1:$N$29</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Notenliste!$H$1:$M$29</definedName>
     <definedName name="DOZENT">OFFSET(Einstellungen!$F$2,,,COUNTIF(Einstellungen!$F$2:$F$20,"&gt;"""),)</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">Extrapunkte!$A$1:$M$30</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">Extrapunkte!$A$1:$J$30</definedName>
     <definedName name="ECTS">OFFSET(Einstellungen!$H$2,,,COUNTIF(Einstellungen!$H$2:$H$20,"&gt;"""),)</definedName>
     <definedName name="KURSNAME">OFFSET(Einstellungen!$A$2,,,COUNTIF(Einstellungen!$A$2:$A$20,"&gt;"""),)</definedName>
     <definedName name="NIVEAU">OFFSET(Einstellungen!$D$2,,,COUNTIF(Einstellungen!$D$2:$D$22,"&gt;"""),)</definedName>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="140">
   <si>
     <t>Name</t>
   </si>
@@ -278,21 +278,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Teil2
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Actividades</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve">Teil1
 </t>
     </r>
@@ -578,9 +563,6 @@
     </r>
   </si>
   <si>
-    <t>Actividades</t>
-  </si>
-  <si>
     <t>Comunicación Oral</t>
   </si>
   <si>
@@ -596,10 +578,16 @@
     <t>Actividad 4</t>
   </si>
   <si>
-    <t>Actividades Total</t>
-  </si>
-  <si>
     <t>Com. Oral Total</t>
+  </si>
+  <si>
+    <t>Actividad 5</t>
+  </si>
+  <si>
+    <t>Lucía Serres</t>
+  </si>
+  <si>
+    <t>Gabriela Fahra</t>
   </si>
 </sst>
 </file>
@@ -916,7 +904,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="117">
+  <cellXfs count="114">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
@@ -1144,17 +1132,10 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1177,17 +1158,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
@@ -1989,22 +1965,22 @@
         <v>1</v>
       </c>
       <c r="B2" s="37" t="s">
+        <v>114</v>
+      </c>
+      <c r="C2" s="37" t="s">
         <v>115</v>
       </c>
-      <c r="C2" s="37" t="s">
+      <c r="D2" s="37" t="s">
         <v>116</v>
       </c>
-      <c r="D2" s="37" t="s">
+      <c r="E2" s="37" t="s">
         <v>117</v>
       </c>
-      <c r="E2" s="37" t="s">
+      <c r="F2" s="37" t="s">
         <v>118</v>
       </c>
-      <c r="F2" s="37" t="s">
+      <c r="G2" s="37" t="s">
         <v>119</v>
-      </c>
-      <c r="G2" s="37" t="s">
-        <v>120</v>
       </c>
       <c r="H2" s="37"/>
       <c r="I2" s="37"/>
@@ -2339,7 +2315,7 @@
   <dimension ref="A1:WVR38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="13.9" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.2"/>
@@ -2354,530 +2330,530 @@
     <col min="8" max="8" width="6.140625" style="2" customWidth="1"/>
     <col min="9" max="10" width="5.7109375" style="2" customWidth="1"/>
     <col min="11" max="11" width="8.140625" style="2" customWidth="1"/>
-    <col min="12" max="13" width="7.42578125" style="2" customWidth="1"/>
-    <col min="14" max="14" width="8" style="2" customWidth="1"/>
-    <col min="15" max="15" width="2.7109375" style="1" customWidth="1"/>
-    <col min="16" max="16" width="5.7109375" style="1" customWidth="1"/>
-    <col min="17" max="17" width="5.7109375" style="2" customWidth="1"/>
-    <col min="18" max="18" width="5.7109375" style="1" customWidth="1"/>
-    <col min="19" max="19" width="2.7109375" style="1" customWidth="1"/>
-    <col min="20" max="20" width="17.7109375" style="1" hidden="1"/>
-    <col min="21" max="21" width="16" style="1" hidden="1"/>
-    <col min="22" max="22" width="17.7109375" style="1" hidden="1"/>
-    <col min="23" max="23" width="3" style="1" hidden="1"/>
-    <col min="24" max="248" width="11.42578125" style="1" hidden="1"/>
-    <col min="249" max="249" width="15.42578125" style="1" hidden="1"/>
-    <col min="250" max="250" width="11.42578125" style="1" hidden="1"/>
-    <col min="251" max="251" width="15.7109375" style="1" hidden="1"/>
-    <col min="252" max="252" width="21.7109375" style="1" hidden="1"/>
-    <col min="253" max="255" width="11.42578125" style="1" hidden="1"/>
-    <col min="256" max="256" width="16" style="1" hidden="1"/>
-    <col min="257" max="257" width="20.42578125" style="1" hidden="1"/>
-    <col min="258" max="504" width="11.42578125" style="1" hidden="1"/>
-    <col min="505" max="505" width="15.42578125" style="1" hidden="1"/>
-    <col min="506" max="506" width="11.42578125" style="1" hidden="1"/>
-    <col min="507" max="507" width="15.7109375" style="1" hidden="1"/>
-    <col min="508" max="508" width="21.7109375" style="1" hidden="1"/>
-    <col min="509" max="511" width="11.42578125" style="1" hidden="1"/>
-    <col min="512" max="512" width="16" style="1" hidden="1"/>
-    <col min="513" max="513" width="20.42578125" style="1" hidden="1"/>
-    <col min="514" max="760" width="11.42578125" style="1" hidden="1"/>
-    <col min="761" max="761" width="15.42578125" style="1" hidden="1"/>
-    <col min="762" max="762" width="11.42578125" style="1" hidden="1"/>
-    <col min="763" max="763" width="15.7109375" style="1" hidden="1"/>
-    <col min="764" max="764" width="21.7109375" style="1" hidden="1"/>
-    <col min="765" max="767" width="11.42578125" style="1" hidden="1"/>
-    <col min="768" max="768" width="16" style="1" hidden="1"/>
-    <col min="769" max="769" width="20.42578125" style="1" hidden="1"/>
-    <col min="770" max="1016" width="11.42578125" style="1" hidden="1"/>
-    <col min="1017" max="1017" width="15.42578125" style="1" hidden="1"/>
-    <col min="1018" max="1018" width="11.42578125" style="1" hidden="1"/>
-    <col min="1019" max="1019" width="15.7109375" style="1" hidden="1"/>
-    <col min="1020" max="1020" width="21.7109375" style="1" hidden="1"/>
-    <col min="1021" max="1023" width="11.42578125" style="1" hidden="1"/>
-    <col min="1024" max="1024" width="16" style="1" hidden="1"/>
-    <col min="1025" max="1025" width="20.42578125" style="1" hidden="1"/>
-    <col min="1026" max="1272" width="11.42578125" style="1" hidden="1"/>
-    <col min="1273" max="1273" width="15.42578125" style="1" hidden="1"/>
-    <col min="1274" max="1274" width="11.42578125" style="1" hidden="1"/>
-    <col min="1275" max="1275" width="15.7109375" style="1" hidden="1"/>
-    <col min="1276" max="1276" width="21.7109375" style="1" hidden="1"/>
-    <col min="1277" max="1279" width="11.42578125" style="1" hidden="1"/>
-    <col min="1280" max="1280" width="16" style="1" hidden="1"/>
-    <col min="1281" max="1281" width="20.42578125" style="1" hidden="1"/>
-    <col min="1282" max="1528" width="11.42578125" style="1" hidden="1"/>
-    <col min="1529" max="1529" width="15.42578125" style="1" hidden="1"/>
-    <col min="1530" max="1530" width="11.42578125" style="1" hidden="1"/>
-    <col min="1531" max="1531" width="15.7109375" style="1" hidden="1"/>
-    <col min="1532" max="1532" width="21.7109375" style="1" hidden="1"/>
-    <col min="1533" max="1535" width="11.42578125" style="1" hidden="1"/>
-    <col min="1536" max="1536" width="16" style="1" hidden="1"/>
-    <col min="1537" max="1537" width="20.42578125" style="1" hidden="1"/>
-    <col min="1538" max="1784" width="11.42578125" style="1" hidden="1"/>
-    <col min="1785" max="1785" width="15.42578125" style="1" hidden="1"/>
-    <col min="1786" max="1786" width="11.42578125" style="1" hidden="1"/>
-    <col min="1787" max="1787" width="15.7109375" style="1" hidden="1"/>
-    <col min="1788" max="1788" width="21.7109375" style="1" hidden="1"/>
-    <col min="1789" max="1791" width="11.42578125" style="1" hidden="1"/>
-    <col min="1792" max="1792" width="16" style="1" hidden="1"/>
-    <col min="1793" max="1793" width="20.42578125" style="1" hidden="1"/>
-    <col min="1794" max="2040" width="11.42578125" style="1" hidden="1"/>
-    <col min="2041" max="2041" width="15.42578125" style="1" hidden="1"/>
-    <col min="2042" max="2042" width="11.42578125" style="1" hidden="1"/>
-    <col min="2043" max="2043" width="15.7109375" style="1" hidden="1"/>
-    <col min="2044" max="2044" width="21.7109375" style="1" hidden="1"/>
-    <col min="2045" max="2047" width="11.42578125" style="1" hidden="1"/>
-    <col min="2048" max="2048" width="16" style="1" hidden="1"/>
-    <col min="2049" max="2049" width="20.42578125" style="1" hidden="1"/>
-    <col min="2050" max="2296" width="11.42578125" style="1" hidden="1"/>
-    <col min="2297" max="2297" width="15.42578125" style="1" hidden="1"/>
-    <col min="2298" max="2298" width="11.42578125" style="1" hidden="1"/>
-    <col min="2299" max="2299" width="15.7109375" style="1" hidden="1"/>
-    <col min="2300" max="2300" width="21.7109375" style="1" hidden="1"/>
-    <col min="2301" max="2303" width="11.42578125" style="1" hidden="1"/>
-    <col min="2304" max="2304" width="16" style="1" hidden="1"/>
-    <col min="2305" max="2305" width="20.42578125" style="1" hidden="1"/>
-    <col min="2306" max="2552" width="11.42578125" style="1" hidden="1"/>
-    <col min="2553" max="2553" width="15.42578125" style="1" hidden="1"/>
-    <col min="2554" max="2554" width="11.42578125" style="1" hidden="1"/>
-    <col min="2555" max="2555" width="15.7109375" style="1" hidden="1"/>
-    <col min="2556" max="2556" width="21.7109375" style="1" hidden="1"/>
-    <col min="2557" max="2559" width="11.42578125" style="1" hidden="1"/>
-    <col min="2560" max="2560" width="16" style="1" hidden="1"/>
-    <col min="2561" max="2561" width="20.42578125" style="1" hidden="1"/>
-    <col min="2562" max="2808" width="11.42578125" style="1" hidden="1"/>
-    <col min="2809" max="2809" width="15.42578125" style="1" hidden="1"/>
-    <col min="2810" max="2810" width="11.42578125" style="1" hidden="1"/>
-    <col min="2811" max="2811" width="15.7109375" style="1" hidden="1"/>
-    <col min="2812" max="2812" width="21.7109375" style="1" hidden="1"/>
-    <col min="2813" max="2815" width="11.42578125" style="1" hidden="1"/>
-    <col min="2816" max="2816" width="16" style="1" hidden="1"/>
-    <col min="2817" max="2817" width="20.42578125" style="1" hidden="1"/>
-    <col min="2818" max="3064" width="11.42578125" style="1" hidden="1"/>
-    <col min="3065" max="3065" width="15.42578125" style="1" hidden="1"/>
-    <col min="3066" max="3066" width="11.42578125" style="1" hidden="1"/>
-    <col min="3067" max="3067" width="15.7109375" style="1" hidden="1"/>
-    <col min="3068" max="3068" width="21.7109375" style="1" hidden="1"/>
-    <col min="3069" max="3071" width="11.42578125" style="1" hidden="1"/>
-    <col min="3072" max="3072" width="16" style="1" hidden="1"/>
-    <col min="3073" max="3073" width="20.42578125" style="1" hidden="1"/>
-    <col min="3074" max="3320" width="11.42578125" style="1" hidden="1"/>
-    <col min="3321" max="3321" width="15.42578125" style="1" hidden="1"/>
-    <col min="3322" max="3322" width="11.42578125" style="1" hidden="1"/>
-    <col min="3323" max="3323" width="15.7109375" style="1" hidden="1"/>
-    <col min="3324" max="3324" width="21.7109375" style="1" hidden="1"/>
-    <col min="3325" max="3327" width="11.42578125" style="1" hidden="1"/>
-    <col min="3328" max="3328" width="16" style="1" hidden="1"/>
-    <col min="3329" max="3329" width="20.42578125" style="1" hidden="1"/>
-    <col min="3330" max="3576" width="11.42578125" style="1" hidden="1"/>
-    <col min="3577" max="3577" width="15.42578125" style="1" hidden="1"/>
-    <col min="3578" max="3578" width="11.42578125" style="1" hidden="1"/>
-    <col min="3579" max="3579" width="15.7109375" style="1" hidden="1"/>
-    <col min="3580" max="3580" width="21.7109375" style="1" hidden="1"/>
-    <col min="3581" max="3583" width="11.42578125" style="1" hidden="1"/>
-    <col min="3584" max="3584" width="16" style="1" hidden="1"/>
-    <col min="3585" max="3585" width="20.42578125" style="1" hidden="1"/>
-    <col min="3586" max="3832" width="11.42578125" style="1" hidden="1"/>
-    <col min="3833" max="3833" width="15.42578125" style="1" hidden="1"/>
-    <col min="3834" max="3834" width="11.42578125" style="1" hidden="1"/>
-    <col min="3835" max="3835" width="15.7109375" style="1" hidden="1"/>
-    <col min="3836" max="3836" width="21.7109375" style="1" hidden="1"/>
-    <col min="3837" max="3839" width="11.42578125" style="1" hidden="1"/>
-    <col min="3840" max="3840" width="16" style="1" hidden="1"/>
-    <col min="3841" max="3841" width="20.42578125" style="1" hidden="1"/>
-    <col min="3842" max="4088" width="11.42578125" style="1" hidden="1"/>
-    <col min="4089" max="4089" width="15.42578125" style="1" hidden="1"/>
-    <col min="4090" max="4090" width="11.42578125" style="1" hidden="1"/>
-    <col min="4091" max="4091" width="15.7109375" style="1" hidden="1"/>
-    <col min="4092" max="4092" width="21.7109375" style="1" hidden="1"/>
-    <col min="4093" max="4095" width="11.42578125" style="1" hidden="1"/>
-    <col min="4096" max="4096" width="16" style="1" hidden="1"/>
-    <col min="4097" max="4097" width="20.42578125" style="1" hidden="1"/>
-    <col min="4098" max="4344" width="11.42578125" style="1" hidden="1"/>
-    <col min="4345" max="4345" width="15.42578125" style="1" hidden="1"/>
-    <col min="4346" max="4346" width="11.42578125" style="1" hidden="1"/>
-    <col min="4347" max="4347" width="15.7109375" style="1" hidden="1"/>
-    <col min="4348" max="4348" width="21.7109375" style="1" hidden="1"/>
-    <col min="4349" max="4351" width="11.42578125" style="1" hidden="1"/>
-    <col min="4352" max="4352" width="16" style="1" hidden="1"/>
-    <col min="4353" max="4353" width="20.42578125" style="1" hidden="1"/>
-    <col min="4354" max="4600" width="11.42578125" style="1" hidden="1"/>
-    <col min="4601" max="4601" width="15.42578125" style="1" hidden="1"/>
-    <col min="4602" max="4602" width="11.42578125" style="1" hidden="1"/>
-    <col min="4603" max="4603" width="15.7109375" style="1" hidden="1"/>
-    <col min="4604" max="4604" width="21.7109375" style="1" hidden="1"/>
-    <col min="4605" max="4607" width="11.42578125" style="1" hidden="1"/>
-    <col min="4608" max="4608" width="16" style="1" hidden="1"/>
-    <col min="4609" max="4609" width="20.42578125" style="1" hidden="1"/>
-    <col min="4610" max="4856" width="11.42578125" style="1" hidden="1"/>
-    <col min="4857" max="4857" width="15.42578125" style="1" hidden="1"/>
-    <col min="4858" max="4858" width="11.42578125" style="1" hidden="1"/>
-    <col min="4859" max="4859" width="15.7109375" style="1" hidden="1"/>
-    <col min="4860" max="4860" width="21.7109375" style="1" hidden="1"/>
-    <col min="4861" max="4863" width="11.42578125" style="1" hidden="1"/>
-    <col min="4864" max="4864" width="16" style="1" hidden="1"/>
-    <col min="4865" max="4865" width="20.42578125" style="1" hidden="1"/>
-    <col min="4866" max="5112" width="11.42578125" style="1" hidden="1"/>
-    <col min="5113" max="5113" width="15.42578125" style="1" hidden="1"/>
-    <col min="5114" max="5114" width="11.42578125" style="1" hidden="1"/>
-    <col min="5115" max="5115" width="15.7109375" style="1" hidden="1"/>
-    <col min="5116" max="5116" width="21.7109375" style="1" hidden="1"/>
-    <col min="5117" max="5119" width="11.42578125" style="1" hidden="1"/>
-    <col min="5120" max="5120" width="16" style="1" hidden="1"/>
-    <col min="5121" max="5121" width="20.42578125" style="1" hidden="1"/>
-    <col min="5122" max="5368" width="11.42578125" style="1" hidden="1"/>
-    <col min="5369" max="5369" width="15.42578125" style="1" hidden="1"/>
-    <col min="5370" max="5370" width="11.42578125" style="1" hidden="1"/>
-    <col min="5371" max="5371" width="15.7109375" style="1" hidden="1"/>
-    <col min="5372" max="5372" width="21.7109375" style="1" hidden="1"/>
-    <col min="5373" max="5375" width="11.42578125" style="1" hidden="1"/>
-    <col min="5376" max="5376" width="16" style="1" hidden="1"/>
-    <col min="5377" max="5377" width="20.42578125" style="1" hidden="1"/>
-    <col min="5378" max="5624" width="11.42578125" style="1" hidden="1"/>
-    <col min="5625" max="5625" width="15.42578125" style="1" hidden="1"/>
-    <col min="5626" max="5626" width="11.42578125" style="1" hidden="1"/>
-    <col min="5627" max="5627" width="15.7109375" style="1" hidden="1"/>
-    <col min="5628" max="5628" width="21.7109375" style="1" hidden="1"/>
-    <col min="5629" max="5631" width="11.42578125" style="1" hidden="1"/>
-    <col min="5632" max="5632" width="16" style="1" hidden="1"/>
-    <col min="5633" max="5633" width="20.42578125" style="1" hidden="1"/>
-    <col min="5634" max="5880" width="11.42578125" style="1" hidden="1"/>
-    <col min="5881" max="5881" width="15.42578125" style="1" hidden="1"/>
-    <col min="5882" max="5882" width="11.42578125" style="1" hidden="1"/>
-    <col min="5883" max="5883" width="15.7109375" style="1" hidden="1"/>
-    <col min="5884" max="5884" width="21.7109375" style="1" hidden="1"/>
-    <col min="5885" max="5887" width="11.42578125" style="1" hidden="1"/>
-    <col min="5888" max="5888" width="16" style="1" hidden="1"/>
-    <col min="5889" max="5889" width="20.42578125" style="1" hidden="1"/>
-    <col min="5890" max="6136" width="11.42578125" style="1" hidden="1"/>
-    <col min="6137" max="6137" width="15.42578125" style="1" hidden="1"/>
-    <col min="6138" max="6138" width="11.42578125" style="1" hidden="1"/>
-    <col min="6139" max="6139" width="15.7109375" style="1" hidden="1"/>
-    <col min="6140" max="6140" width="21.7109375" style="1" hidden="1"/>
-    <col min="6141" max="6143" width="11.42578125" style="1" hidden="1"/>
-    <col min="6144" max="6144" width="16" style="1" hidden="1"/>
-    <col min="6145" max="6145" width="20.42578125" style="1" hidden="1"/>
-    <col min="6146" max="6392" width="11.42578125" style="1" hidden="1"/>
-    <col min="6393" max="6393" width="15.42578125" style="1" hidden="1"/>
-    <col min="6394" max="6394" width="11.42578125" style="1" hidden="1"/>
-    <col min="6395" max="6395" width="15.7109375" style="1" hidden="1"/>
-    <col min="6396" max="6396" width="21.7109375" style="1" hidden="1"/>
-    <col min="6397" max="6399" width="11.42578125" style="1" hidden="1"/>
-    <col min="6400" max="6400" width="16" style="1" hidden="1"/>
-    <col min="6401" max="6401" width="20.42578125" style="1" hidden="1"/>
-    <col min="6402" max="6648" width="11.42578125" style="1" hidden="1"/>
-    <col min="6649" max="6649" width="15.42578125" style="1" hidden="1"/>
-    <col min="6650" max="6650" width="11.42578125" style="1" hidden="1"/>
-    <col min="6651" max="6651" width="15.7109375" style="1" hidden="1"/>
-    <col min="6652" max="6652" width="21.7109375" style="1" hidden="1"/>
-    <col min="6653" max="6655" width="11.42578125" style="1" hidden="1"/>
-    <col min="6656" max="6656" width="16" style="1" hidden="1"/>
-    <col min="6657" max="6657" width="20.42578125" style="1" hidden="1"/>
-    <col min="6658" max="6904" width="11.42578125" style="1" hidden="1"/>
-    <col min="6905" max="6905" width="15.42578125" style="1" hidden="1"/>
-    <col min="6906" max="6906" width="11.42578125" style="1" hidden="1"/>
-    <col min="6907" max="6907" width="15.7109375" style="1" hidden="1"/>
-    <col min="6908" max="6908" width="21.7109375" style="1" hidden="1"/>
-    <col min="6909" max="6911" width="11.42578125" style="1" hidden="1"/>
-    <col min="6912" max="6912" width="16" style="1" hidden="1"/>
-    <col min="6913" max="6913" width="20.42578125" style="1" hidden="1"/>
-    <col min="6914" max="7160" width="11.42578125" style="1" hidden="1"/>
-    <col min="7161" max="7161" width="15.42578125" style="1" hidden="1"/>
-    <col min="7162" max="7162" width="11.42578125" style="1" hidden="1"/>
-    <col min="7163" max="7163" width="15.7109375" style="1" hidden="1"/>
-    <col min="7164" max="7164" width="21.7109375" style="1" hidden="1"/>
-    <col min="7165" max="7167" width="11.42578125" style="1" hidden="1"/>
-    <col min="7168" max="7168" width="16" style="1" hidden="1"/>
-    <col min="7169" max="7169" width="20.42578125" style="1" hidden="1"/>
-    <col min="7170" max="7416" width="11.42578125" style="1" hidden="1"/>
-    <col min="7417" max="7417" width="15.42578125" style="1" hidden="1"/>
-    <col min="7418" max="7418" width="11.42578125" style="1" hidden="1"/>
-    <col min="7419" max="7419" width="15.7109375" style="1" hidden="1"/>
-    <col min="7420" max="7420" width="21.7109375" style="1" hidden="1"/>
-    <col min="7421" max="7423" width="11.42578125" style="1" hidden="1"/>
-    <col min="7424" max="7424" width="16" style="1" hidden="1"/>
-    <col min="7425" max="7425" width="20.42578125" style="1" hidden="1"/>
-    <col min="7426" max="7672" width="11.42578125" style="1" hidden="1"/>
-    <col min="7673" max="7673" width="15.42578125" style="1" hidden="1"/>
-    <col min="7674" max="7674" width="11.42578125" style="1" hidden="1"/>
-    <col min="7675" max="7675" width="15.7109375" style="1" hidden="1"/>
-    <col min="7676" max="7676" width="21.7109375" style="1" hidden="1"/>
-    <col min="7677" max="7679" width="11.42578125" style="1" hidden="1"/>
-    <col min="7680" max="7680" width="16" style="1" hidden="1"/>
-    <col min="7681" max="7681" width="20.42578125" style="1" hidden="1"/>
-    <col min="7682" max="7928" width="11.42578125" style="1" hidden="1"/>
-    <col min="7929" max="7929" width="15.42578125" style="1" hidden="1"/>
-    <col min="7930" max="7930" width="11.42578125" style="1" hidden="1"/>
-    <col min="7931" max="7931" width="15.7109375" style="1" hidden="1"/>
-    <col min="7932" max="7932" width="21.7109375" style="1" hidden="1"/>
-    <col min="7933" max="7935" width="11.42578125" style="1" hidden="1"/>
-    <col min="7936" max="7936" width="16" style="1" hidden="1"/>
-    <col min="7937" max="7937" width="20.42578125" style="1" hidden="1"/>
-    <col min="7938" max="8184" width="11.42578125" style="1" hidden="1"/>
-    <col min="8185" max="8185" width="15.42578125" style="1" hidden="1"/>
-    <col min="8186" max="8186" width="11.42578125" style="1" hidden="1"/>
-    <col min="8187" max="8187" width="15.7109375" style="1" hidden="1"/>
-    <col min="8188" max="8188" width="21.7109375" style="1" hidden="1"/>
-    <col min="8189" max="8191" width="11.42578125" style="1" hidden="1"/>
-    <col min="8192" max="8192" width="16" style="1" hidden="1"/>
-    <col min="8193" max="8193" width="20.42578125" style="1" hidden="1"/>
-    <col min="8194" max="8440" width="11.42578125" style="1" hidden="1"/>
-    <col min="8441" max="8441" width="15.42578125" style="1" hidden="1"/>
-    <col min="8442" max="8442" width="11.42578125" style="1" hidden="1"/>
-    <col min="8443" max="8443" width="15.7109375" style="1" hidden="1"/>
-    <col min="8444" max="8444" width="21.7109375" style="1" hidden="1"/>
-    <col min="8445" max="8447" width="11.42578125" style="1" hidden="1"/>
-    <col min="8448" max="8448" width="16" style="1" hidden="1"/>
-    <col min="8449" max="8449" width="20.42578125" style="1" hidden="1"/>
-    <col min="8450" max="8696" width="11.42578125" style="1" hidden="1"/>
-    <col min="8697" max="8697" width="15.42578125" style="1" hidden="1"/>
-    <col min="8698" max="8698" width="11.42578125" style="1" hidden="1"/>
-    <col min="8699" max="8699" width="15.7109375" style="1" hidden="1"/>
-    <col min="8700" max="8700" width="21.7109375" style="1" hidden="1"/>
-    <col min="8701" max="8703" width="11.42578125" style="1" hidden="1"/>
-    <col min="8704" max="8704" width="16" style="1" hidden="1"/>
-    <col min="8705" max="8705" width="20.42578125" style="1" hidden="1"/>
-    <col min="8706" max="8952" width="11.42578125" style="1" hidden="1"/>
-    <col min="8953" max="8953" width="15.42578125" style="1" hidden="1"/>
-    <col min="8954" max="8954" width="11.42578125" style="1" hidden="1"/>
-    <col min="8955" max="8955" width="15.7109375" style="1" hidden="1"/>
-    <col min="8956" max="8956" width="21.7109375" style="1" hidden="1"/>
-    <col min="8957" max="8959" width="11.42578125" style="1" hidden="1"/>
-    <col min="8960" max="8960" width="16" style="1" hidden="1"/>
-    <col min="8961" max="8961" width="20.42578125" style="1" hidden="1"/>
-    <col min="8962" max="9208" width="11.42578125" style="1" hidden="1"/>
-    <col min="9209" max="9209" width="15.42578125" style="1" hidden="1"/>
-    <col min="9210" max="9210" width="11.42578125" style="1" hidden="1"/>
-    <col min="9211" max="9211" width="15.7109375" style="1" hidden="1"/>
-    <col min="9212" max="9212" width="21.7109375" style="1" hidden="1"/>
-    <col min="9213" max="9215" width="11.42578125" style="1" hidden="1"/>
-    <col min="9216" max="9216" width="16" style="1" hidden="1"/>
-    <col min="9217" max="9217" width="20.42578125" style="1" hidden="1"/>
-    <col min="9218" max="9464" width="11.42578125" style="1" hidden="1"/>
-    <col min="9465" max="9465" width="15.42578125" style="1" hidden="1"/>
-    <col min="9466" max="9466" width="11.42578125" style="1" hidden="1"/>
-    <col min="9467" max="9467" width="15.7109375" style="1" hidden="1"/>
-    <col min="9468" max="9468" width="21.7109375" style="1" hidden="1"/>
-    <col min="9469" max="9471" width="11.42578125" style="1" hidden="1"/>
-    <col min="9472" max="9472" width="16" style="1" hidden="1"/>
-    <col min="9473" max="9473" width="20.42578125" style="1" hidden="1"/>
-    <col min="9474" max="9720" width="11.42578125" style="1" hidden="1"/>
-    <col min="9721" max="9721" width="15.42578125" style="1" hidden="1"/>
-    <col min="9722" max="9722" width="11.42578125" style="1" hidden="1"/>
-    <col min="9723" max="9723" width="15.7109375" style="1" hidden="1"/>
-    <col min="9724" max="9724" width="21.7109375" style="1" hidden="1"/>
-    <col min="9725" max="9727" width="11.42578125" style="1" hidden="1"/>
-    <col min="9728" max="9728" width="16" style="1" hidden="1"/>
-    <col min="9729" max="9729" width="20.42578125" style="1" hidden="1"/>
-    <col min="9730" max="9976" width="11.42578125" style="1" hidden="1"/>
-    <col min="9977" max="9977" width="15.42578125" style="1" hidden="1"/>
-    <col min="9978" max="9978" width="11.42578125" style="1" hidden="1"/>
-    <col min="9979" max="9979" width="15.7109375" style="1" hidden="1"/>
-    <col min="9980" max="9980" width="21.7109375" style="1" hidden="1"/>
-    <col min="9981" max="9983" width="11.42578125" style="1" hidden="1"/>
-    <col min="9984" max="9984" width="16" style="1" hidden="1"/>
-    <col min="9985" max="9985" width="20.42578125" style="1" hidden="1"/>
-    <col min="9986" max="10232" width="11.42578125" style="1" hidden="1"/>
-    <col min="10233" max="10233" width="15.42578125" style="1" hidden="1"/>
-    <col min="10234" max="10234" width="11.42578125" style="1" hidden="1"/>
-    <col min="10235" max="10235" width="15.7109375" style="1" hidden="1"/>
-    <col min="10236" max="10236" width="21.7109375" style="1" hidden="1"/>
-    <col min="10237" max="10239" width="11.42578125" style="1" hidden="1"/>
-    <col min="10240" max="10240" width="16" style="1" hidden="1"/>
-    <col min="10241" max="10241" width="20.42578125" style="1" hidden="1"/>
-    <col min="10242" max="10488" width="11.42578125" style="1" hidden="1"/>
-    <col min="10489" max="10489" width="15.42578125" style="1" hidden="1"/>
-    <col min="10490" max="10490" width="11.42578125" style="1" hidden="1"/>
-    <col min="10491" max="10491" width="15.7109375" style="1" hidden="1"/>
-    <col min="10492" max="10492" width="21.7109375" style="1" hidden="1"/>
-    <col min="10493" max="10495" width="11.42578125" style="1" hidden="1"/>
-    <col min="10496" max="10496" width="16" style="1" hidden="1"/>
-    <col min="10497" max="10497" width="20.42578125" style="1" hidden="1"/>
-    <col min="10498" max="10744" width="11.42578125" style="1" hidden="1"/>
-    <col min="10745" max="10745" width="15.42578125" style="1" hidden="1"/>
-    <col min="10746" max="10746" width="11.42578125" style="1" hidden="1"/>
-    <col min="10747" max="10747" width="15.7109375" style="1" hidden="1"/>
-    <col min="10748" max="10748" width="21.7109375" style="1" hidden="1"/>
-    <col min="10749" max="10751" width="11.42578125" style="1" hidden="1"/>
-    <col min="10752" max="10752" width="16" style="1" hidden="1"/>
-    <col min="10753" max="10753" width="20.42578125" style="1" hidden="1"/>
-    <col min="10754" max="11000" width="11.42578125" style="1" hidden="1"/>
-    <col min="11001" max="11001" width="15.42578125" style="1" hidden="1"/>
-    <col min="11002" max="11002" width="11.42578125" style="1" hidden="1"/>
-    <col min="11003" max="11003" width="15.7109375" style="1" hidden="1"/>
-    <col min="11004" max="11004" width="21.7109375" style="1" hidden="1"/>
-    <col min="11005" max="11007" width="11.42578125" style="1" hidden="1"/>
-    <col min="11008" max="11008" width="16" style="1" hidden="1"/>
-    <col min="11009" max="11009" width="20.42578125" style="1" hidden="1"/>
-    <col min="11010" max="11256" width="11.42578125" style="1" hidden="1"/>
-    <col min="11257" max="11257" width="15.42578125" style="1" hidden="1"/>
-    <col min="11258" max="11258" width="11.42578125" style="1" hidden="1"/>
-    <col min="11259" max="11259" width="15.7109375" style="1" hidden="1"/>
-    <col min="11260" max="11260" width="21.7109375" style="1" hidden="1"/>
-    <col min="11261" max="11263" width="11.42578125" style="1" hidden="1"/>
-    <col min="11264" max="11264" width="16" style="1" hidden="1"/>
-    <col min="11265" max="11265" width="20.42578125" style="1" hidden="1"/>
-    <col min="11266" max="11512" width="11.42578125" style="1" hidden="1"/>
-    <col min="11513" max="11513" width="15.42578125" style="1" hidden="1"/>
-    <col min="11514" max="11514" width="11.42578125" style="1" hidden="1"/>
-    <col min="11515" max="11515" width="15.7109375" style="1" hidden="1"/>
-    <col min="11516" max="11516" width="21.7109375" style="1" hidden="1"/>
-    <col min="11517" max="11519" width="11.42578125" style="1" hidden="1"/>
-    <col min="11520" max="11520" width="16" style="1" hidden="1"/>
-    <col min="11521" max="11521" width="20.42578125" style="1" hidden="1"/>
-    <col min="11522" max="11768" width="11.42578125" style="1" hidden="1"/>
-    <col min="11769" max="11769" width="15.42578125" style="1" hidden="1"/>
-    <col min="11770" max="11770" width="11.42578125" style="1" hidden="1"/>
-    <col min="11771" max="11771" width="15.7109375" style="1" hidden="1"/>
-    <col min="11772" max="11772" width="21.7109375" style="1" hidden="1"/>
-    <col min="11773" max="11775" width="11.42578125" style="1" hidden="1"/>
-    <col min="11776" max="11776" width="16" style="1" hidden="1"/>
-    <col min="11777" max="11777" width="20.42578125" style="1" hidden="1"/>
-    <col min="11778" max="12024" width="11.42578125" style="1" hidden="1"/>
-    <col min="12025" max="12025" width="15.42578125" style="1" hidden="1"/>
-    <col min="12026" max="12026" width="11.42578125" style="1" hidden="1"/>
-    <col min="12027" max="12027" width="15.7109375" style="1" hidden="1"/>
-    <col min="12028" max="12028" width="21.7109375" style="1" hidden="1"/>
-    <col min="12029" max="12031" width="11.42578125" style="1" hidden="1"/>
-    <col min="12032" max="12032" width="16" style="1" hidden="1"/>
-    <col min="12033" max="12033" width="20.42578125" style="1" hidden="1"/>
-    <col min="12034" max="12280" width="11.42578125" style="1" hidden="1"/>
-    <col min="12281" max="12281" width="15.42578125" style="1" hidden="1"/>
-    <col min="12282" max="12282" width="11.42578125" style="1" hidden="1"/>
-    <col min="12283" max="12283" width="15.7109375" style="1" hidden="1"/>
-    <col min="12284" max="12284" width="21.7109375" style="1" hidden="1"/>
-    <col min="12285" max="12287" width="11.42578125" style="1" hidden="1"/>
-    <col min="12288" max="12288" width="16" style="1" hidden="1"/>
-    <col min="12289" max="12289" width="20.42578125" style="1" hidden="1"/>
-    <col min="12290" max="12536" width="11.42578125" style="1" hidden="1"/>
-    <col min="12537" max="12537" width="15.42578125" style="1" hidden="1"/>
-    <col min="12538" max="12538" width="11.42578125" style="1" hidden="1"/>
-    <col min="12539" max="12539" width="15.7109375" style="1" hidden="1"/>
-    <col min="12540" max="12540" width="21.7109375" style="1" hidden="1"/>
-    <col min="12541" max="12543" width="11.42578125" style="1" hidden="1"/>
-    <col min="12544" max="12544" width="16" style="1" hidden="1"/>
-    <col min="12545" max="12545" width="20.42578125" style="1" hidden="1"/>
-    <col min="12546" max="12792" width="11.42578125" style="1" hidden="1"/>
-    <col min="12793" max="12793" width="15.42578125" style="1" hidden="1"/>
-    <col min="12794" max="12794" width="11.42578125" style="1" hidden="1"/>
-    <col min="12795" max="12795" width="15.7109375" style="1" hidden="1"/>
-    <col min="12796" max="12796" width="21.7109375" style="1" hidden="1"/>
-    <col min="12797" max="12799" width="11.42578125" style="1" hidden="1"/>
-    <col min="12800" max="12800" width="16" style="1" hidden="1"/>
-    <col min="12801" max="12801" width="20.42578125" style="1" hidden="1"/>
-    <col min="12802" max="13048" width="11.42578125" style="1" hidden="1"/>
-    <col min="13049" max="13049" width="15.42578125" style="1" hidden="1"/>
-    <col min="13050" max="13050" width="11.42578125" style="1" hidden="1"/>
-    <col min="13051" max="13051" width="15.7109375" style="1" hidden="1"/>
-    <col min="13052" max="13052" width="21.7109375" style="1" hidden="1"/>
-    <col min="13053" max="13055" width="11.42578125" style="1" hidden="1"/>
-    <col min="13056" max="13056" width="16" style="1" hidden="1"/>
-    <col min="13057" max="13057" width="20.42578125" style="1" hidden="1"/>
-    <col min="13058" max="13304" width="11.42578125" style="1" hidden="1"/>
-    <col min="13305" max="13305" width="15.42578125" style="1" hidden="1"/>
-    <col min="13306" max="13306" width="11.42578125" style="1" hidden="1"/>
-    <col min="13307" max="13307" width="15.7109375" style="1" hidden="1"/>
-    <col min="13308" max="13308" width="21.7109375" style="1" hidden="1"/>
-    <col min="13309" max="13311" width="11.42578125" style="1" hidden="1"/>
-    <col min="13312" max="13312" width="16" style="1" hidden="1"/>
-    <col min="13313" max="13313" width="20.42578125" style="1" hidden="1"/>
-    <col min="13314" max="13560" width="11.42578125" style="1" hidden="1"/>
-    <col min="13561" max="13561" width="15.42578125" style="1" hidden="1"/>
-    <col min="13562" max="13562" width="11.42578125" style="1" hidden="1"/>
-    <col min="13563" max="13563" width="15.7109375" style="1" hidden="1"/>
-    <col min="13564" max="13564" width="21.7109375" style="1" hidden="1"/>
-    <col min="13565" max="13567" width="11.42578125" style="1" hidden="1"/>
-    <col min="13568" max="13568" width="16" style="1" hidden="1"/>
-    <col min="13569" max="13569" width="20.42578125" style="1" hidden="1"/>
-    <col min="13570" max="13816" width="11.42578125" style="1" hidden="1"/>
-    <col min="13817" max="13817" width="15.42578125" style="1" hidden="1"/>
-    <col min="13818" max="13818" width="11.42578125" style="1" hidden="1"/>
-    <col min="13819" max="13819" width="15.7109375" style="1" hidden="1"/>
-    <col min="13820" max="13820" width="21.7109375" style="1" hidden="1"/>
-    <col min="13821" max="13823" width="11.42578125" style="1" hidden="1"/>
-    <col min="13824" max="13824" width="16" style="1" hidden="1"/>
-    <col min="13825" max="13825" width="20.42578125" style="1" hidden="1"/>
-    <col min="13826" max="14072" width="11.42578125" style="1" hidden="1"/>
-    <col min="14073" max="14073" width="15.42578125" style="1" hidden="1"/>
-    <col min="14074" max="14074" width="11.42578125" style="1" hidden="1"/>
-    <col min="14075" max="14075" width="15.7109375" style="1" hidden="1"/>
-    <col min="14076" max="14076" width="21.7109375" style="1" hidden="1"/>
-    <col min="14077" max="14079" width="11.42578125" style="1" hidden="1"/>
-    <col min="14080" max="14080" width="16" style="1" hidden="1"/>
-    <col min="14081" max="14081" width="20.42578125" style="1" hidden="1"/>
-    <col min="14082" max="14328" width="11.42578125" style="1" hidden="1"/>
-    <col min="14329" max="14329" width="15.42578125" style="1" hidden="1"/>
-    <col min="14330" max="14330" width="11.42578125" style="1" hidden="1"/>
-    <col min="14331" max="14331" width="15.7109375" style="1" hidden="1"/>
-    <col min="14332" max="14332" width="21.7109375" style="1" hidden="1"/>
-    <col min="14333" max="14335" width="11.42578125" style="1" hidden="1"/>
-    <col min="14336" max="14336" width="16" style="1" hidden="1"/>
-    <col min="14337" max="14337" width="20.42578125" style="1" hidden="1"/>
-    <col min="14338" max="14584" width="11.42578125" style="1" hidden="1"/>
-    <col min="14585" max="14585" width="15.42578125" style="1" hidden="1"/>
-    <col min="14586" max="14586" width="11.42578125" style="1" hidden="1"/>
-    <col min="14587" max="14587" width="15.7109375" style="1" hidden="1"/>
-    <col min="14588" max="14588" width="21.7109375" style="1" hidden="1"/>
-    <col min="14589" max="14591" width="11.42578125" style="1" hidden="1"/>
-    <col min="14592" max="14592" width="16" style="1" hidden="1"/>
-    <col min="14593" max="14593" width="20.42578125" style="1" hidden="1"/>
-    <col min="14594" max="14840" width="11.42578125" style="1" hidden="1"/>
-    <col min="14841" max="14841" width="15.42578125" style="1" hidden="1"/>
-    <col min="14842" max="14842" width="11.42578125" style="1" hidden="1"/>
-    <col min="14843" max="14843" width="15.7109375" style="1" hidden="1"/>
-    <col min="14844" max="14844" width="21.7109375" style="1" hidden="1"/>
-    <col min="14845" max="14847" width="11.42578125" style="1" hidden="1"/>
-    <col min="14848" max="14848" width="16" style="1" hidden="1"/>
-    <col min="14849" max="14849" width="20.42578125" style="1" hidden="1"/>
-    <col min="14850" max="15096" width="11.42578125" style="1" hidden="1"/>
-    <col min="15097" max="15097" width="15.42578125" style="1" hidden="1"/>
-    <col min="15098" max="15098" width="11.42578125" style="1" hidden="1"/>
-    <col min="15099" max="15099" width="15.7109375" style="1" hidden="1"/>
-    <col min="15100" max="15100" width="21.7109375" style="1" hidden="1"/>
-    <col min="15101" max="15103" width="11.42578125" style="1" hidden="1"/>
-    <col min="15104" max="15104" width="16" style="1" hidden="1"/>
-    <col min="15105" max="15105" width="20.42578125" style="1" hidden="1"/>
-    <col min="15106" max="15352" width="11.42578125" style="1" hidden="1"/>
-    <col min="15353" max="15353" width="15.42578125" style="1" hidden="1"/>
-    <col min="15354" max="15354" width="11.42578125" style="1" hidden="1"/>
-    <col min="15355" max="15355" width="15.7109375" style="1" hidden="1"/>
-    <col min="15356" max="15356" width="21.7109375" style="1" hidden="1"/>
-    <col min="15357" max="15359" width="11.42578125" style="1" hidden="1"/>
-    <col min="15360" max="15360" width="16" style="1" hidden="1"/>
-    <col min="15361" max="15361" width="20.42578125" style="1" hidden="1"/>
-    <col min="15362" max="15608" width="11.42578125" style="1" hidden="1"/>
-    <col min="15609" max="15609" width="15.42578125" style="1" hidden="1"/>
-    <col min="15610" max="15610" width="11.42578125" style="1" hidden="1"/>
-    <col min="15611" max="15611" width="15.7109375" style="1" hidden="1"/>
-    <col min="15612" max="15612" width="21.7109375" style="1" hidden="1"/>
-    <col min="15613" max="15615" width="11.42578125" style="1" hidden="1"/>
-    <col min="15616" max="15616" width="16" style="1" hidden="1"/>
-    <col min="15617" max="15617" width="20.42578125" style="1" hidden="1"/>
-    <col min="15618" max="15864" width="11.42578125" style="1" hidden="1"/>
-    <col min="15865" max="15865" width="15.42578125" style="1" hidden="1"/>
-    <col min="15866" max="15866" width="11.42578125" style="1" hidden="1"/>
-    <col min="15867" max="15867" width="15.7109375" style="1" hidden="1"/>
-    <col min="15868" max="15868" width="21.7109375" style="1" hidden="1"/>
-    <col min="15869" max="15871" width="11.42578125" style="1" hidden="1"/>
-    <col min="15872" max="15872" width="16" style="1" hidden="1"/>
-    <col min="15873" max="15873" width="20.42578125" style="1" hidden="1"/>
-    <col min="15874" max="16120" width="11.42578125" style="1" hidden="1"/>
-    <col min="16121" max="16121" width="15.42578125" style="1" hidden="1"/>
-    <col min="16122" max="16122" width="11.42578125" style="1" hidden="1"/>
-    <col min="16123" max="16123" width="15.7109375" style="1" hidden="1"/>
-    <col min="16124" max="16124" width="21.7109375" style="1" hidden="1"/>
-    <col min="16125" max="16127" width="11.42578125" style="1" hidden="1"/>
-    <col min="16128" max="16128" width="16" style="1" hidden="1"/>
-    <col min="16129" max="16129" width="20.42578125" style="1" hidden="1"/>
-    <col min="16130" max="16130" width="11.42578125" style="1" hidden="1"/>
-    <col min="16131" max="16131" width="16" style="1" hidden="1"/>
-    <col min="16132" max="16132" width="20.42578125" style="1" hidden="1"/>
-    <col min="16133" max="16133" width="16" style="1" hidden="1"/>
-    <col min="16134" max="16138" width="20.42578125" style="1" hidden="1"/>
+    <col min="12" max="12" width="7.42578125" style="2" customWidth="1"/>
+    <col min="13" max="13" width="8" style="2" customWidth="1"/>
+    <col min="14" max="14" width="2.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="5.7109375" style="1" customWidth="1"/>
+    <col min="16" max="16" width="5.7109375" style="2" customWidth="1"/>
+    <col min="17" max="17" width="5.7109375" style="1" customWidth="1"/>
+    <col min="18" max="18" width="2.7109375" style="1" customWidth="1"/>
+    <col min="19" max="19" width="17.7109375" style="1" hidden="1"/>
+    <col min="20" max="20" width="16" style="1" hidden="1"/>
+    <col min="21" max="21" width="17.7109375" style="1" hidden="1"/>
+    <col min="22" max="22" width="3" style="1" hidden="1"/>
+    <col min="23" max="247" width="11.42578125" style="1" hidden="1"/>
+    <col min="248" max="248" width="15.42578125" style="1" hidden="1"/>
+    <col min="249" max="249" width="11.42578125" style="1" hidden="1"/>
+    <col min="250" max="250" width="15.7109375" style="1" hidden="1"/>
+    <col min="251" max="251" width="21.7109375" style="1" hidden="1"/>
+    <col min="252" max="254" width="11.42578125" style="1" hidden="1"/>
+    <col min="255" max="255" width="16" style="1" hidden="1"/>
+    <col min="256" max="256" width="20.42578125" style="1" hidden="1"/>
+    <col min="257" max="503" width="11.42578125" style="1" hidden="1"/>
+    <col min="504" max="504" width="15.42578125" style="1" hidden="1"/>
+    <col min="505" max="505" width="11.42578125" style="1" hidden="1"/>
+    <col min="506" max="506" width="15.7109375" style="1" hidden="1"/>
+    <col min="507" max="507" width="21.7109375" style="1" hidden="1"/>
+    <col min="508" max="510" width="11.42578125" style="1" hidden="1"/>
+    <col min="511" max="511" width="16" style="1" hidden="1"/>
+    <col min="512" max="512" width="20.42578125" style="1" hidden="1"/>
+    <col min="513" max="759" width="11.42578125" style="1" hidden="1"/>
+    <col min="760" max="760" width="15.42578125" style="1" hidden="1"/>
+    <col min="761" max="761" width="11.42578125" style="1" hidden="1"/>
+    <col min="762" max="762" width="15.7109375" style="1" hidden="1"/>
+    <col min="763" max="763" width="21.7109375" style="1" hidden="1"/>
+    <col min="764" max="766" width="11.42578125" style="1" hidden="1"/>
+    <col min="767" max="767" width="16" style="1" hidden="1"/>
+    <col min="768" max="768" width="20.42578125" style="1" hidden="1"/>
+    <col min="769" max="1015" width="11.42578125" style="1" hidden="1"/>
+    <col min="1016" max="1016" width="15.42578125" style="1" hidden="1"/>
+    <col min="1017" max="1017" width="11.42578125" style="1" hidden="1"/>
+    <col min="1018" max="1018" width="15.7109375" style="1" hidden="1"/>
+    <col min="1019" max="1019" width="21.7109375" style="1" hidden="1"/>
+    <col min="1020" max="1022" width="11.42578125" style="1" hidden="1"/>
+    <col min="1023" max="1023" width="16" style="1" hidden="1"/>
+    <col min="1024" max="1024" width="20.42578125" style="1" hidden="1"/>
+    <col min="1025" max="1271" width="11.42578125" style="1" hidden="1"/>
+    <col min="1272" max="1272" width="15.42578125" style="1" hidden="1"/>
+    <col min="1273" max="1273" width="11.42578125" style="1" hidden="1"/>
+    <col min="1274" max="1274" width="15.7109375" style="1" hidden="1"/>
+    <col min="1275" max="1275" width="21.7109375" style="1" hidden="1"/>
+    <col min="1276" max="1278" width="11.42578125" style="1" hidden="1"/>
+    <col min="1279" max="1279" width="16" style="1" hidden="1"/>
+    <col min="1280" max="1280" width="20.42578125" style="1" hidden="1"/>
+    <col min="1281" max="1527" width="11.42578125" style="1" hidden="1"/>
+    <col min="1528" max="1528" width="15.42578125" style="1" hidden="1"/>
+    <col min="1529" max="1529" width="11.42578125" style="1" hidden="1"/>
+    <col min="1530" max="1530" width="15.7109375" style="1" hidden="1"/>
+    <col min="1531" max="1531" width="21.7109375" style="1" hidden="1"/>
+    <col min="1532" max="1534" width="11.42578125" style="1" hidden="1"/>
+    <col min="1535" max="1535" width="16" style="1" hidden="1"/>
+    <col min="1536" max="1536" width="20.42578125" style="1" hidden="1"/>
+    <col min="1537" max="1783" width="11.42578125" style="1" hidden="1"/>
+    <col min="1784" max="1784" width="15.42578125" style="1" hidden="1"/>
+    <col min="1785" max="1785" width="11.42578125" style="1" hidden="1"/>
+    <col min="1786" max="1786" width="15.7109375" style="1" hidden="1"/>
+    <col min="1787" max="1787" width="21.7109375" style="1" hidden="1"/>
+    <col min="1788" max="1790" width="11.42578125" style="1" hidden="1"/>
+    <col min="1791" max="1791" width="16" style="1" hidden="1"/>
+    <col min="1792" max="1792" width="20.42578125" style="1" hidden="1"/>
+    <col min="1793" max="2039" width="11.42578125" style="1" hidden="1"/>
+    <col min="2040" max="2040" width="15.42578125" style="1" hidden="1"/>
+    <col min="2041" max="2041" width="11.42578125" style="1" hidden="1"/>
+    <col min="2042" max="2042" width="15.7109375" style="1" hidden="1"/>
+    <col min="2043" max="2043" width="21.7109375" style="1" hidden="1"/>
+    <col min="2044" max="2046" width="11.42578125" style="1" hidden="1"/>
+    <col min="2047" max="2047" width="16" style="1" hidden="1"/>
+    <col min="2048" max="2048" width="20.42578125" style="1" hidden="1"/>
+    <col min="2049" max="2295" width="11.42578125" style="1" hidden="1"/>
+    <col min="2296" max="2296" width="15.42578125" style="1" hidden="1"/>
+    <col min="2297" max="2297" width="11.42578125" style="1" hidden="1"/>
+    <col min="2298" max="2298" width="15.7109375" style="1" hidden="1"/>
+    <col min="2299" max="2299" width="21.7109375" style="1" hidden="1"/>
+    <col min="2300" max="2302" width="11.42578125" style="1" hidden="1"/>
+    <col min="2303" max="2303" width="16" style="1" hidden="1"/>
+    <col min="2304" max="2304" width="20.42578125" style="1" hidden="1"/>
+    <col min="2305" max="2551" width="11.42578125" style="1" hidden="1"/>
+    <col min="2552" max="2552" width="15.42578125" style="1" hidden="1"/>
+    <col min="2553" max="2553" width="11.42578125" style="1" hidden="1"/>
+    <col min="2554" max="2554" width="15.7109375" style="1" hidden="1"/>
+    <col min="2555" max="2555" width="21.7109375" style="1" hidden="1"/>
+    <col min="2556" max="2558" width="11.42578125" style="1" hidden="1"/>
+    <col min="2559" max="2559" width="16" style="1" hidden="1"/>
+    <col min="2560" max="2560" width="20.42578125" style="1" hidden="1"/>
+    <col min="2561" max="2807" width="11.42578125" style="1" hidden="1"/>
+    <col min="2808" max="2808" width="15.42578125" style="1" hidden="1"/>
+    <col min="2809" max="2809" width="11.42578125" style="1" hidden="1"/>
+    <col min="2810" max="2810" width="15.7109375" style="1" hidden="1"/>
+    <col min="2811" max="2811" width="21.7109375" style="1" hidden="1"/>
+    <col min="2812" max="2814" width="11.42578125" style="1" hidden="1"/>
+    <col min="2815" max="2815" width="16" style="1" hidden="1"/>
+    <col min="2816" max="2816" width="20.42578125" style="1" hidden="1"/>
+    <col min="2817" max="3063" width="11.42578125" style="1" hidden="1"/>
+    <col min="3064" max="3064" width="15.42578125" style="1" hidden="1"/>
+    <col min="3065" max="3065" width="11.42578125" style="1" hidden="1"/>
+    <col min="3066" max="3066" width="15.7109375" style="1" hidden="1"/>
+    <col min="3067" max="3067" width="21.7109375" style="1" hidden="1"/>
+    <col min="3068" max="3070" width="11.42578125" style="1" hidden="1"/>
+    <col min="3071" max="3071" width="16" style="1" hidden="1"/>
+    <col min="3072" max="3072" width="20.42578125" style="1" hidden="1"/>
+    <col min="3073" max="3319" width="11.42578125" style="1" hidden="1"/>
+    <col min="3320" max="3320" width="15.42578125" style="1" hidden="1"/>
+    <col min="3321" max="3321" width="11.42578125" style="1" hidden="1"/>
+    <col min="3322" max="3322" width="15.7109375" style="1" hidden="1"/>
+    <col min="3323" max="3323" width="21.7109375" style="1" hidden="1"/>
+    <col min="3324" max="3326" width="11.42578125" style="1" hidden="1"/>
+    <col min="3327" max="3327" width="16" style="1" hidden="1"/>
+    <col min="3328" max="3328" width="20.42578125" style="1" hidden="1"/>
+    <col min="3329" max="3575" width="11.42578125" style="1" hidden="1"/>
+    <col min="3576" max="3576" width="15.42578125" style="1" hidden="1"/>
+    <col min="3577" max="3577" width="11.42578125" style="1" hidden="1"/>
+    <col min="3578" max="3578" width="15.7109375" style="1" hidden="1"/>
+    <col min="3579" max="3579" width="21.7109375" style="1" hidden="1"/>
+    <col min="3580" max="3582" width="11.42578125" style="1" hidden="1"/>
+    <col min="3583" max="3583" width="16" style="1" hidden="1"/>
+    <col min="3584" max="3584" width="20.42578125" style="1" hidden="1"/>
+    <col min="3585" max="3831" width="11.42578125" style="1" hidden="1"/>
+    <col min="3832" max="3832" width="15.42578125" style="1" hidden="1"/>
+    <col min="3833" max="3833" width="11.42578125" style="1" hidden="1"/>
+    <col min="3834" max="3834" width="15.7109375" style="1" hidden="1"/>
+    <col min="3835" max="3835" width="21.7109375" style="1" hidden="1"/>
+    <col min="3836" max="3838" width="11.42578125" style="1" hidden="1"/>
+    <col min="3839" max="3839" width="16" style="1" hidden="1"/>
+    <col min="3840" max="3840" width="20.42578125" style="1" hidden="1"/>
+    <col min="3841" max="4087" width="11.42578125" style="1" hidden="1"/>
+    <col min="4088" max="4088" width="15.42578125" style="1" hidden="1"/>
+    <col min="4089" max="4089" width="11.42578125" style="1" hidden="1"/>
+    <col min="4090" max="4090" width="15.7109375" style="1" hidden="1"/>
+    <col min="4091" max="4091" width="21.7109375" style="1" hidden="1"/>
+    <col min="4092" max="4094" width="11.42578125" style="1" hidden="1"/>
+    <col min="4095" max="4095" width="16" style="1" hidden="1"/>
+    <col min="4096" max="4096" width="20.42578125" style="1" hidden="1"/>
+    <col min="4097" max="4343" width="11.42578125" style="1" hidden="1"/>
+    <col min="4344" max="4344" width="15.42578125" style="1" hidden="1"/>
+    <col min="4345" max="4345" width="11.42578125" style="1" hidden="1"/>
+    <col min="4346" max="4346" width="15.7109375" style="1" hidden="1"/>
+    <col min="4347" max="4347" width="21.7109375" style="1" hidden="1"/>
+    <col min="4348" max="4350" width="11.42578125" style="1" hidden="1"/>
+    <col min="4351" max="4351" width="16" style="1" hidden="1"/>
+    <col min="4352" max="4352" width="20.42578125" style="1" hidden="1"/>
+    <col min="4353" max="4599" width="11.42578125" style="1" hidden="1"/>
+    <col min="4600" max="4600" width="15.42578125" style="1" hidden="1"/>
+    <col min="4601" max="4601" width="11.42578125" style="1" hidden="1"/>
+    <col min="4602" max="4602" width="15.7109375" style="1" hidden="1"/>
+    <col min="4603" max="4603" width="21.7109375" style="1" hidden="1"/>
+    <col min="4604" max="4606" width="11.42578125" style="1" hidden="1"/>
+    <col min="4607" max="4607" width="16" style="1" hidden="1"/>
+    <col min="4608" max="4608" width="20.42578125" style="1" hidden="1"/>
+    <col min="4609" max="4855" width="11.42578125" style="1" hidden="1"/>
+    <col min="4856" max="4856" width="15.42578125" style="1" hidden="1"/>
+    <col min="4857" max="4857" width="11.42578125" style="1" hidden="1"/>
+    <col min="4858" max="4858" width="15.7109375" style="1" hidden="1"/>
+    <col min="4859" max="4859" width="21.7109375" style="1" hidden="1"/>
+    <col min="4860" max="4862" width="11.42578125" style="1" hidden="1"/>
+    <col min="4863" max="4863" width="16" style="1" hidden="1"/>
+    <col min="4864" max="4864" width="20.42578125" style="1" hidden="1"/>
+    <col min="4865" max="5111" width="11.42578125" style="1" hidden="1"/>
+    <col min="5112" max="5112" width="15.42578125" style="1" hidden="1"/>
+    <col min="5113" max="5113" width="11.42578125" style="1" hidden="1"/>
+    <col min="5114" max="5114" width="15.7109375" style="1" hidden="1"/>
+    <col min="5115" max="5115" width="21.7109375" style="1" hidden="1"/>
+    <col min="5116" max="5118" width="11.42578125" style="1" hidden="1"/>
+    <col min="5119" max="5119" width="16" style="1" hidden="1"/>
+    <col min="5120" max="5120" width="20.42578125" style="1" hidden="1"/>
+    <col min="5121" max="5367" width="11.42578125" style="1" hidden="1"/>
+    <col min="5368" max="5368" width="15.42578125" style="1" hidden="1"/>
+    <col min="5369" max="5369" width="11.42578125" style="1" hidden="1"/>
+    <col min="5370" max="5370" width="15.7109375" style="1" hidden="1"/>
+    <col min="5371" max="5371" width="21.7109375" style="1" hidden="1"/>
+    <col min="5372" max="5374" width="11.42578125" style="1" hidden="1"/>
+    <col min="5375" max="5375" width="16" style="1" hidden="1"/>
+    <col min="5376" max="5376" width="20.42578125" style="1" hidden="1"/>
+    <col min="5377" max="5623" width="11.42578125" style="1" hidden="1"/>
+    <col min="5624" max="5624" width="15.42578125" style="1" hidden="1"/>
+    <col min="5625" max="5625" width="11.42578125" style="1" hidden="1"/>
+    <col min="5626" max="5626" width="15.7109375" style="1" hidden="1"/>
+    <col min="5627" max="5627" width="21.7109375" style="1" hidden="1"/>
+    <col min="5628" max="5630" width="11.42578125" style="1" hidden="1"/>
+    <col min="5631" max="5631" width="16" style="1" hidden="1"/>
+    <col min="5632" max="5632" width="20.42578125" style="1" hidden="1"/>
+    <col min="5633" max="5879" width="11.42578125" style="1" hidden="1"/>
+    <col min="5880" max="5880" width="15.42578125" style="1" hidden="1"/>
+    <col min="5881" max="5881" width="11.42578125" style="1" hidden="1"/>
+    <col min="5882" max="5882" width="15.7109375" style="1" hidden="1"/>
+    <col min="5883" max="5883" width="21.7109375" style="1" hidden="1"/>
+    <col min="5884" max="5886" width="11.42578125" style="1" hidden="1"/>
+    <col min="5887" max="5887" width="16" style="1" hidden="1"/>
+    <col min="5888" max="5888" width="20.42578125" style="1" hidden="1"/>
+    <col min="5889" max="6135" width="11.42578125" style="1" hidden="1"/>
+    <col min="6136" max="6136" width="15.42578125" style="1" hidden="1"/>
+    <col min="6137" max="6137" width="11.42578125" style="1" hidden="1"/>
+    <col min="6138" max="6138" width="15.7109375" style="1" hidden="1"/>
+    <col min="6139" max="6139" width="21.7109375" style="1" hidden="1"/>
+    <col min="6140" max="6142" width="11.42578125" style="1" hidden="1"/>
+    <col min="6143" max="6143" width="16" style="1" hidden="1"/>
+    <col min="6144" max="6144" width="20.42578125" style="1" hidden="1"/>
+    <col min="6145" max="6391" width="11.42578125" style="1" hidden="1"/>
+    <col min="6392" max="6392" width="15.42578125" style="1" hidden="1"/>
+    <col min="6393" max="6393" width="11.42578125" style="1" hidden="1"/>
+    <col min="6394" max="6394" width="15.7109375" style="1" hidden="1"/>
+    <col min="6395" max="6395" width="21.7109375" style="1" hidden="1"/>
+    <col min="6396" max="6398" width="11.42578125" style="1" hidden="1"/>
+    <col min="6399" max="6399" width="16" style="1" hidden="1"/>
+    <col min="6400" max="6400" width="20.42578125" style="1" hidden="1"/>
+    <col min="6401" max="6647" width="11.42578125" style="1" hidden="1"/>
+    <col min="6648" max="6648" width="15.42578125" style="1" hidden="1"/>
+    <col min="6649" max="6649" width="11.42578125" style="1" hidden="1"/>
+    <col min="6650" max="6650" width="15.7109375" style="1" hidden="1"/>
+    <col min="6651" max="6651" width="21.7109375" style="1" hidden="1"/>
+    <col min="6652" max="6654" width="11.42578125" style="1" hidden="1"/>
+    <col min="6655" max="6655" width="16" style="1" hidden="1"/>
+    <col min="6656" max="6656" width="20.42578125" style="1" hidden="1"/>
+    <col min="6657" max="6903" width="11.42578125" style="1" hidden="1"/>
+    <col min="6904" max="6904" width="15.42578125" style="1" hidden="1"/>
+    <col min="6905" max="6905" width="11.42578125" style="1" hidden="1"/>
+    <col min="6906" max="6906" width="15.7109375" style="1" hidden="1"/>
+    <col min="6907" max="6907" width="21.7109375" style="1" hidden="1"/>
+    <col min="6908" max="6910" width="11.42578125" style="1" hidden="1"/>
+    <col min="6911" max="6911" width="16" style="1" hidden="1"/>
+    <col min="6912" max="6912" width="20.42578125" style="1" hidden="1"/>
+    <col min="6913" max="7159" width="11.42578125" style="1" hidden="1"/>
+    <col min="7160" max="7160" width="15.42578125" style="1" hidden="1"/>
+    <col min="7161" max="7161" width="11.42578125" style="1" hidden="1"/>
+    <col min="7162" max="7162" width="15.7109375" style="1" hidden="1"/>
+    <col min="7163" max="7163" width="21.7109375" style="1" hidden="1"/>
+    <col min="7164" max="7166" width="11.42578125" style="1" hidden="1"/>
+    <col min="7167" max="7167" width="16" style="1" hidden="1"/>
+    <col min="7168" max="7168" width="20.42578125" style="1" hidden="1"/>
+    <col min="7169" max="7415" width="11.42578125" style="1" hidden="1"/>
+    <col min="7416" max="7416" width="15.42578125" style="1" hidden="1"/>
+    <col min="7417" max="7417" width="11.42578125" style="1" hidden="1"/>
+    <col min="7418" max="7418" width="15.7109375" style="1" hidden="1"/>
+    <col min="7419" max="7419" width="21.7109375" style="1" hidden="1"/>
+    <col min="7420" max="7422" width="11.42578125" style="1" hidden="1"/>
+    <col min="7423" max="7423" width="16" style="1" hidden="1"/>
+    <col min="7424" max="7424" width="20.42578125" style="1" hidden="1"/>
+    <col min="7425" max="7671" width="11.42578125" style="1" hidden="1"/>
+    <col min="7672" max="7672" width="15.42578125" style="1" hidden="1"/>
+    <col min="7673" max="7673" width="11.42578125" style="1" hidden="1"/>
+    <col min="7674" max="7674" width="15.7109375" style="1" hidden="1"/>
+    <col min="7675" max="7675" width="21.7109375" style="1" hidden="1"/>
+    <col min="7676" max="7678" width="11.42578125" style="1" hidden="1"/>
+    <col min="7679" max="7679" width="16" style="1" hidden="1"/>
+    <col min="7680" max="7680" width="20.42578125" style="1" hidden="1"/>
+    <col min="7681" max="7927" width="11.42578125" style="1" hidden="1"/>
+    <col min="7928" max="7928" width="15.42578125" style="1" hidden="1"/>
+    <col min="7929" max="7929" width="11.42578125" style="1" hidden="1"/>
+    <col min="7930" max="7930" width="15.7109375" style="1" hidden="1"/>
+    <col min="7931" max="7931" width="21.7109375" style="1" hidden="1"/>
+    <col min="7932" max="7934" width="11.42578125" style="1" hidden="1"/>
+    <col min="7935" max="7935" width="16" style="1" hidden="1"/>
+    <col min="7936" max="7936" width="20.42578125" style="1" hidden="1"/>
+    <col min="7937" max="8183" width="11.42578125" style="1" hidden="1"/>
+    <col min="8184" max="8184" width="15.42578125" style="1" hidden="1"/>
+    <col min="8185" max="8185" width="11.42578125" style="1" hidden="1"/>
+    <col min="8186" max="8186" width="15.7109375" style="1" hidden="1"/>
+    <col min="8187" max="8187" width="21.7109375" style="1" hidden="1"/>
+    <col min="8188" max="8190" width="11.42578125" style="1" hidden="1"/>
+    <col min="8191" max="8191" width="16" style="1" hidden="1"/>
+    <col min="8192" max="8192" width="20.42578125" style="1" hidden="1"/>
+    <col min="8193" max="8439" width="11.42578125" style="1" hidden="1"/>
+    <col min="8440" max="8440" width="15.42578125" style="1" hidden="1"/>
+    <col min="8441" max="8441" width="11.42578125" style="1" hidden="1"/>
+    <col min="8442" max="8442" width="15.7109375" style="1" hidden="1"/>
+    <col min="8443" max="8443" width="21.7109375" style="1" hidden="1"/>
+    <col min="8444" max="8446" width="11.42578125" style="1" hidden="1"/>
+    <col min="8447" max="8447" width="16" style="1" hidden="1"/>
+    <col min="8448" max="8448" width="20.42578125" style="1" hidden="1"/>
+    <col min="8449" max="8695" width="11.42578125" style="1" hidden="1"/>
+    <col min="8696" max="8696" width="15.42578125" style="1" hidden="1"/>
+    <col min="8697" max="8697" width="11.42578125" style="1" hidden="1"/>
+    <col min="8698" max="8698" width="15.7109375" style="1" hidden="1"/>
+    <col min="8699" max="8699" width="21.7109375" style="1" hidden="1"/>
+    <col min="8700" max="8702" width="11.42578125" style="1" hidden="1"/>
+    <col min="8703" max="8703" width="16" style="1" hidden="1"/>
+    <col min="8704" max="8704" width="20.42578125" style="1" hidden="1"/>
+    <col min="8705" max="8951" width="11.42578125" style="1" hidden="1"/>
+    <col min="8952" max="8952" width="15.42578125" style="1" hidden="1"/>
+    <col min="8953" max="8953" width="11.42578125" style="1" hidden="1"/>
+    <col min="8954" max="8954" width="15.7109375" style="1" hidden="1"/>
+    <col min="8955" max="8955" width="21.7109375" style="1" hidden="1"/>
+    <col min="8956" max="8958" width="11.42578125" style="1" hidden="1"/>
+    <col min="8959" max="8959" width="16" style="1" hidden="1"/>
+    <col min="8960" max="8960" width="20.42578125" style="1" hidden="1"/>
+    <col min="8961" max="9207" width="11.42578125" style="1" hidden="1"/>
+    <col min="9208" max="9208" width="15.42578125" style="1" hidden="1"/>
+    <col min="9209" max="9209" width="11.42578125" style="1" hidden="1"/>
+    <col min="9210" max="9210" width="15.7109375" style="1" hidden="1"/>
+    <col min="9211" max="9211" width="21.7109375" style="1" hidden="1"/>
+    <col min="9212" max="9214" width="11.42578125" style="1" hidden="1"/>
+    <col min="9215" max="9215" width="16" style="1" hidden="1"/>
+    <col min="9216" max="9216" width="20.42578125" style="1" hidden="1"/>
+    <col min="9217" max="9463" width="11.42578125" style="1" hidden="1"/>
+    <col min="9464" max="9464" width="15.42578125" style="1" hidden="1"/>
+    <col min="9465" max="9465" width="11.42578125" style="1" hidden="1"/>
+    <col min="9466" max="9466" width="15.7109375" style="1" hidden="1"/>
+    <col min="9467" max="9467" width="21.7109375" style="1" hidden="1"/>
+    <col min="9468" max="9470" width="11.42578125" style="1" hidden="1"/>
+    <col min="9471" max="9471" width="16" style="1" hidden="1"/>
+    <col min="9472" max="9472" width="20.42578125" style="1" hidden="1"/>
+    <col min="9473" max="9719" width="11.42578125" style="1" hidden="1"/>
+    <col min="9720" max="9720" width="15.42578125" style="1" hidden="1"/>
+    <col min="9721" max="9721" width="11.42578125" style="1" hidden="1"/>
+    <col min="9722" max="9722" width="15.7109375" style="1" hidden="1"/>
+    <col min="9723" max="9723" width="21.7109375" style="1" hidden="1"/>
+    <col min="9724" max="9726" width="11.42578125" style="1" hidden="1"/>
+    <col min="9727" max="9727" width="16" style="1" hidden="1"/>
+    <col min="9728" max="9728" width="20.42578125" style="1" hidden="1"/>
+    <col min="9729" max="9975" width="11.42578125" style="1" hidden="1"/>
+    <col min="9976" max="9976" width="15.42578125" style="1" hidden="1"/>
+    <col min="9977" max="9977" width="11.42578125" style="1" hidden="1"/>
+    <col min="9978" max="9978" width="15.7109375" style="1" hidden="1"/>
+    <col min="9979" max="9979" width="21.7109375" style="1" hidden="1"/>
+    <col min="9980" max="9982" width="11.42578125" style="1" hidden="1"/>
+    <col min="9983" max="9983" width="16" style="1" hidden="1"/>
+    <col min="9984" max="9984" width="20.42578125" style="1" hidden="1"/>
+    <col min="9985" max="10231" width="11.42578125" style="1" hidden="1"/>
+    <col min="10232" max="10232" width="15.42578125" style="1" hidden="1"/>
+    <col min="10233" max="10233" width="11.42578125" style="1" hidden="1"/>
+    <col min="10234" max="10234" width="15.7109375" style="1" hidden="1"/>
+    <col min="10235" max="10235" width="21.7109375" style="1" hidden="1"/>
+    <col min="10236" max="10238" width="11.42578125" style="1" hidden="1"/>
+    <col min="10239" max="10239" width="16" style="1" hidden="1"/>
+    <col min="10240" max="10240" width="20.42578125" style="1" hidden="1"/>
+    <col min="10241" max="10487" width="11.42578125" style="1" hidden="1"/>
+    <col min="10488" max="10488" width="15.42578125" style="1" hidden="1"/>
+    <col min="10489" max="10489" width="11.42578125" style="1" hidden="1"/>
+    <col min="10490" max="10490" width="15.7109375" style="1" hidden="1"/>
+    <col min="10491" max="10491" width="21.7109375" style="1" hidden="1"/>
+    <col min="10492" max="10494" width="11.42578125" style="1" hidden="1"/>
+    <col min="10495" max="10495" width="16" style="1" hidden="1"/>
+    <col min="10496" max="10496" width="20.42578125" style="1" hidden="1"/>
+    <col min="10497" max="10743" width="11.42578125" style="1" hidden="1"/>
+    <col min="10744" max="10744" width="15.42578125" style="1" hidden="1"/>
+    <col min="10745" max="10745" width="11.42578125" style="1" hidden="1"/>
+    <col min="10746" max="10746" width="15.7109375" style="1" hidden="1"/>
+    <col min="10747" max="10747" width="21.7109375" style="1" hidden="1"/>
+    <col min="10748" max="10750" width="11.42578125" style="1" hidden="1"/>
+    <col min="10751" max="10751" width="16" style="1" hidden="1"/>
+    <col min="10752" max="10752" width="20.42578125" style="1" hidden="1"/>
+    <col min="10753" max="10999" width="11.42578125" style="1" hidden="1"/>
+    <col min="11000" max="11000" width="15.42578125" style="1" hidden="1"/>
+    <col min="11001" max="11001" width="11.42578125" style="1" hidden="1"/>
+    <col min="11002" max="11002" width="15.7109375" style="1" hidden="1"/>
+    <col min="11003" max="11003" width="21.7109375" style="1" hidden="1"/>
+    <col min="11004" max="11006" width="11.42578125" style="1" hidden="1"/>
+    <col min="11007" max="11007" width="16" style="1" hidden="1"/>
+    <col min="11008" max="11008" width="20.42578125" style="1" hidden="1"/>
+    <col min="11009" max="11255" width="11.42578125" style="1" hidden="1"/>
+    <col min="11256" max="11256" width="15.42578125" style="1" hidden="1"/>
+    <col min="11257" max="11257" width="11.42578125" style="1" hidden="1"/>
+    <col min="11258" max="11258" width="15.7109375" style="1" hidden="1"/>
+    <col min="11259" max="11259" width="21.7109375" style="1" hidden="1"/>
+    <col min="11260" max="11262" width="11.42578125" style="1" hidden="1"/>
+    <col min="11263" max="11263" width="16" style="1" hidden="1"/>
+    <col min="11264" max="11264" width="20.42578125" style="1" hidden="1"/>
+    <col min="11265" max="11511" width="11.42578125" style="1" hidden="1"/>
+    <col min="11512" max="11512" width="15.42578125" style="1" hidden="1"/>
+    <col min="11513" max="11513" width="11.42578125" style="1" hidden="1"/>
+    <col min="11514" max="11514" width="15.7109375" style="1" hidden="1"/>
+    <col min="11515" max="11515" width="21.7109375" style="1" hidden="1"/>
+    <col min="11516" max="11518" width="11.42578125" style="1" hidden="1"/>
+    <col min="11519" max="11519" width="16" style="1" hidden="1"/>
+    <col min="11520" max="11520" width="20.42578125" style="1" hidden="1"/>
+    <col min="11521" max="11767" width="11.42578125" style="1" hidden="1"/>
+    <col min="11768" max="11768" width="15.42578125" style="1" hidden="1"/>
+    <col min="11769" max="11769" width="11.42578125" style="1" hidden="1"/>
+    <col min="11770" max="11770" width="15.7109375" style="1" hidden="1"/>
+    <col min="11771" max="11771" width="21.7109375" style="1" hidden="1"/>
+    <col min="11772" max="11774" width="11.42578125" style="1" hidden="1"/>
+    <col min="11775" max="11775" width="16" style="1" hidden="1"/>
+    <col min="11776" max="11776" width="20.42578125" style="1" hidden="1"/>
+    <col min="11777" max="12023" width="11.42578125" style="1" hidden="1"/>
+    <col min="12024" max="12024" width="15.42578125" style="1" hidden="1"/>
+    <col min="12025" max="12025" width="11.42578125" style="1" hidden="1"/>
+    <col min="12026" max="12026" width="15.7109375" style="1" hidden="1"/>
+    <col min="12027" max="12027" width="21.7109375" style="1" hidden="1"/>
+    <col min="12028" max="12030" width="11.42578125" style="1" hidden="1"/>
+    <col min="12031" max="12031" width="16" style="1" hidden="1"/>
+    <col min="12032" max="12032" width="20.42578125" style="1" hidden="1"/>
+    <col min="12033" max="12279" width="11.42578125" style="1" hidden="1"/>
+    <col min="12280" max="12280" width="15.42578125" style="1" hidden="1"/>
+    <col min="12281" max="12281" width="11.42578125" style="1" hidden="1"/>
+    <col min="12282" max="12282" width="15.7109375" style="1" hidden="1"/>
+    <col min="12283" max="12283" width="21.7109375" style="1" hidden="1"/>
+    <col min="12284" max="12286" width="11.42578125" style="1" hidden="1"/>
+    <col min="12287" max="12287" width="16" style="1" hidden="1"/>
+    <col min="12288" max="12288" width="20.42578125" style="1" hidden="1"/>
+    <col min="12289" max="12535" width="11.42578125" style="1" hidden="1"/>
+    <col min="12536" max="12536" width="15.42578125" style="1" hidden="1"/>
+    <col min="12537" max="12537" width="11.42578125" style="1" hidden="1"/>
+    <col min="12538" max="12538" width="15.7109375" style="1" hidden="1"/>
+    <col min="12539" max="12539" width="21.7109375" style="1" hidden="1"/>
+    <col min="12540" max="12542" width="11.42578125" style="1" hidden="1"/>
+    <col min="12543" max="12543" width="16" style="1" hidden="1"/>
+    <col min="12544" max="12544" width="20.42578125" style="1" hidden="1"/>
+    <col min="12545" max="12791" width="11.42578125" style="1" hidden="1"/>
+    <col min="12792" max="12792" width="15.42578125" style="1" hidden="1"/>
+    <col min="12793" max="12793" width="11.42578125" style="1" hidden="1"/>
+    <col min="12794" max="12794" width="15.7109375" style="1" hidden="1"/>
+    <col min="12795" max="12795" width="21.7109375" style="1" hidden="1"/>
+    <col min="12796" max="12798" width="11.42578125" style="1" hidden="1"/>
+    <col min="12799" max="12799" width="16" style="1" hidden="1"/>
+    <col min="12800" max="12800" width="20.42578125" style="1" hidden="1"/>
+    <col min="12801" max="13047" width="11.42578125" style="1" hidden="1"/>
+    <col min="13048" max="13048" width="15.42578125" style="1" hidden="1"/>
+    <col min="13049" max="13049" width="11.42578125" style="1" hidden="1"/>
+    <col min="13050" max="13050" width="15.7109375" style="1" hidden="1"/>
+    <col min="13051" max="13051" width="21.7109375" style="1" hidden="1"/>
+    <col min="13052" max="13054" width="11.42578125" style="1" hidden="1"/>
+    <col min="13055" max="13055" width="16" style="1" hidden="1"/>
+    <col min="13056" max="13056" width="20.42578125" style="1" hidden="1"/>
+    <col min="13057" max="13303" width="11.42578125" style="1" hidden="1"/>
+    <col min="13304" max="13304" width="15.42578125" style="1" hidden="1"/>
+    <col min="13305" max="13305" width="11.42578125" style="1" hidden="1"/>
+    <col min="13306" max="13306" width="15.7109375" style="1" hidden="1"/>
+    <col min="13307" max="13307" width="21.7109375" style="1" hidden="1"/>
+    <col min="13308" max="13310" width="11.42578125" style="1" hidden="1"/>
+    <col min="13311" max="13311" width="16" style="1" hidden="1"/>
+    <col min="13312" max="13312" width="20.42578125" style="1" hidden="1"/>
+    <col min="13313" max="13559" width="11.42578125" style="1" hidden="1"/>
+    <col min="13560" max="13560" width="15.42578125" style="1" hidden="1"/>
+    <col min="13561" max="13561" width="11.42578125" style="1" hidden="1"/>
+    <col min="13562" max="13562" width="15.7109375" style="1" hidden="1"/>
+    <col min="13563" max="13563" width="21.7109375" style="1" hidden="1"/>
+    <col min="13564" max="13566" width="11.42578125" style="1" hidden="1"/>
+    <col min="13567" max="13567" width="16" style="1" hidden="1"/>
+    <col min="13568" max="13568" width="20.42578125" style="1" hidden="1"/>
+    <col min="13569" max="13815" width="11.42578125" style="1" hidden="1"/>
+    <col min="13816" max="13816" width="15.42578125" style="1" hidden="1"/>
+    <col min="13817" max="13817" width="11.42578125" style="1" hidden="1"/>
+    <col min="13818" max="13818" width="15.7109375" style="1" hidden="1"/>
+    <col min="13819" max="13819" width="21.7109375" style="1" hidden="1"/>
+    <col min="13820" max="13822" width="11.42578125" style="1" hidden="1"/>
+    <col min="13823" max="13823" width="16" style="1" hidden="1"/>
+    <col min="13824" max="13824" width="20.42578125" style="1" hidden="1"/>
+    <col min="13825" max="14071" width="11.42578125" style="1" hidden="1"/>
+    <col min="14072" max="14072" width="15.42578125" style="1" hidden="1"/>
+    <col min="14073" max="14073" width="11.42578125" style="1" hidden="1"/>
+    <col min="14074" max="14074" width="15.7109375" style="1" hidden="1"/>
+    <col min="14075" max="14075" width="21.7109375" style="1" hidden="1"/>
+    <col min="14076" max="14078" width="11.42578125" style="1" hidden="1"/>
+    <col min="14079" max="14079" width="16" style="1" hidden="1"/>
+    <col min="14080" max="14080" width="20.42578125" style="1" hidden="1"/>
+    <col min="14081" max="14327" width="11.42578125" style="1" hidden="1"/>
+    <col min="14328" max="14328" width="15.42578125" style="1" hidden="1"/>
+    <col min="14329" max="14329" width="11.42578125" style="1" hidden="1"/>
+    <col min="14330" max="14330" width="15.7109375" style="1" hidden="1"/>
+    <col min="14331" max="14331" width="21.7109375" style="1" hidden="1"/>
+    <col min="14332" max="14334" width="11.42578125" style="1" hidden="1"/>
+    <col min="14335" max="14335" width="16" style="1" hidden="1"/>
+    <col min="14336" max="14336" width="20.42578125" style="1" hidden="1"/>
+    <col min="14337" max="14583" width="11.42578125" style="1" hidden="1"/>
+    <col min="14584" max="14584" width="15.42578125" style="1" hidden="1"/>
+    <col min="14585" max="14585" width="11.42578125" style="1" hidden="1"/>
+    <col min="14586" max="14586" width="15.7109375" style="1" hidden="1"/>
+    <col min="14587" max="14587" width="21.7109375" style="1" hidden="1"/>
+    <col min="14588" max="14590" width="11.42578125" style="1" hidden="1"/>
+    <col min="14591" max="14591" width="16" style="1" hidden="1"/>
+    <col min="14592" max="14592" width="20.42578125" style="1" hidden="1"/>
+    <col min="14593" max="14839" width="11.42578125" style="1" hidden="1"/>
+    <col min="14840" max="14840" width="15.42578125" style="1" hidden="1"/>
+    <col min="14841" max="14841" width="11.42578125" style="1" hidden="1"/>
+    <col min="14842" max="14842" width="15.7109375" style="1" hidden="1"/>
+    <col min="14843" max="14843" width="21.7109375" style="1" hidden="1"/>
+    <col min="14844" max="14846" width="11.42578125" style="1" hidden="1"/>
+    <col min="14847" max="14847" width="16" style="1" hidden="1"/>
+    <col min="14848" max="14848" width="20.42578125" style="1" hidden="1"/>
+    <col min="14849" max="15095" width="11.42578125" style="1" hidden="1"/>
+    <col min="15096" max="15096" width="15.42578125" style="1" hidden="1"/>
+    <col min="15097" max="15097" width="11.42578125" style="1" hidden="1"/>
+    <col min="15098" max="15098" width="15.7109375" style="1" hidden="1"/>
+    <col min="15099" max="15099" width="21.7109375" style="1" hidden="1"/>
+    <col min="15100" max="15102" width="11.42578125" style="1" hidden="1"/>
+    <col min="15103" max="15103" width="16" style="1" hidden="1"/>
+    <col min="15104" max="15104" width="20.42578125" style="1" hidden="1"/>
+    <col min="15105" max="15351" width="11.42578125" style="1" hidden="1"/>
+    <col min="15352" max="15352" width="15.42578125" style="1" hidden="1"/>
+    <col min="15353" max="15353" width="11.42578125" style="1" hidden="1"/>
+    <col min="15354" max="15354" width="15.7109375" style="1" hidden="1"/>
+    <col min="15355" max="15355" width="21.7109375" style="1" hidden="1"/>
+    <col min="15356" max="15358" width="11.42578125" style="1" hidden="1"/>
+    <col min="15359" max="15359" width="16" style="1" hidden="1"/>
+    <col min="15360" max="15360" width="20.42578125" style="1" hidden="1"/>
+    <col min="15361" max="15607" width="11.42578125" style="1" hidden="1"/>
+    <col min="15608" max="15608" width="15.42578125" style="1" hidden="1"/>
+    <col min="15609" max="15609" width="11.42578125" style="1" hidden="1"/>
+    <col min="15610" max="15610" width="15.7109375" style="1" hidden="1"/>
+    <col min="15611" max="15611" width="21.7109375" style="1" hidden="1"/>
+    <col min="15612" max="15614" width="11.42578125" style="1" hidden="1"/>
+    <col min="15615" max="15615" width="16" style="1" hidden="1"/>
+    <col min="15616" max="15616" width="20.42578125" style="1" hidden="1"/>
+    <col min="15617" max="15863" width="11.42578125" style="1" hidden="1"/>
+    <col min="15864" max="15864" width="15.42578125" style="1" hidden="1"/>
+    <col min="15865" max="15865" width="11.42578125" style="1" hidden="1"/>
+    <col min="15866" max="15866" width="15.7109375" style="1" hidden="1"/>
+    <col min="15867" max="15867" width="21.7109375" style="1" hidden="1"/>
+    <col min="15868" max="15870" width="11.42578125" style="1" hidden="1"/>
+    <col min="15871" max="15871" width="16" style="1" hidden="1"/>
+    <col min="15872" max="15872" width="20.42578125" style="1" hidden="1"/>
+    <col min="15873" max="16119" width="11.42578125" style="1" hidden="1"/>
+    <col min="16120" max="16120" width="15.42578125" style="1" hidden="1"/>
+    <col min="16121" max="16121" width="11.42578125" style="1" hidden="1"/>
+    <col min="16122" max="16122" width="15.7109375" style="1" hidden="1"/>
+    <col min="16123" max="16123" width="21.7109375" style="1" hidden="1"/>
+    <col min="16124" max="16126" width="11.42578125" style="1" hidden="1"/>
+    <col min="16127" max="16127" width="16" style="1" hidden="1"/>
+    <col min="16128" max="16128" width="20.42578125" style="1" hidden="1"/>
+    <col min="16129" max="16129" width="11.42578125" style="1" hidden="1"/>
+    <col min="16130" max="16130" width="16" style="1" hidden="1"/>
+    <col min="16131" max="16131" width="20.42578125" style="1" hidden="1"/>
+    <col min="16132" max="16132" width="16" style="1" hidden="1"/>
+    <col min="16133" max="16138" width="20.42578125" style="1" hidden="1"/>
     <col min="16139" max="16384" width="11.42578125" style="1" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="56.65" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:23" ht="56.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
@@ -2898,54 +2874,51 @@
       </c>
       <c r="G1" s="29"/>
       <c r="H1" s="70" t="s">
+        <v>89</v>
+      </c>
+      <c r="I1" s="71" t="s">
         <v>90</v>
       </c>
-      <c r="I1" s="71" t="s">
+      <c r="J1" s="71" t="s">
         <v>91</v>
       </c>
-      <c r="J1" s="71" t="s">
-        <v>92</v>
-      </c>
       <c r="K1" s="27" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L1" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="M1" s="27" t="s">
-        <v>131</v>
-      </c>
-      <c r="N1" s="28" t="s">
+        <v>130</v>
+      </c>
+      <c r="M1" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="O1" s="4"/>
-      <c r="P1" s="32" t="s">
+      <c r="N1" s="4"/>
+      <c r="O1" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="Q1" s="40" t="s">
+      <c r="P1" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="R1" s="32" t="s">
+      <c r="Q1" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="S1" s="4"/>
+      <c r="R1" s="4"/>
+      <c r="S1" s="5" t="s">
+        <v>38</v>
+      </c>
       <c r="T1" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="U1" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="V1" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="W1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="X1" s="4" t="s">
+      <c r="W1" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:24" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:23" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="54" t="str">
         <f>RAWDATA!B2</f>
         <v>applicant.last_name</v>
@@ -2963,7 +2936,7 @@
         <v>applicant.tag</v>
       </c>
       <c r="E2" s="57">
-        <f>ROUNDUP(N2/0.5,0)*0.5</f>
+        <f>ROUNDUP(M2/0.5,0)*0.5</f>
         <v>0</v>
       </c>
       <c r="F2" s="30" t="str">
@@ -2978,48 +2951,44 @@
         <f t="shared" ref="K2:K25" si="0">SUM(H2:J2)</f>
         <v>0</v>
       </c>
-      <c r="L2" s="96">
-        <f>IF(ISBLANK(Extrapunkte!I3),0,Extrapunkte!I3)</f>
-        <v>0</v>
-      </c>
-      <c r="M2" s="96">
-        <f>IF(ISBLANK(Extrapunkte!J3),0,Extrapunkte!M3)</f>
-        <v>0</v>
-      </c>
-      <c r="N2" s="34">
-        <f>SUM(K2:M2)</f>
-        <v>0</v>
-      </c>
-      <c r="O2" s="4"/>
-      <c r="P2" s="33"/>
-      <c r="Q2" s="34" t="str">
-        <f t="shared" ref="Q2:Q26" si="1">IF(OR(F2="NB",F2="KP"),"","X")</f>
-        <v/>
-      </c>
-      <c r="R2" s="33"/>
-      <c r="S2" s="4"/>
+      <c r="L2" s="93">
+        <f>IF(ISBLANK(Extrapunkte!J3),0,Extrapunkte!J3)</f>
+        <v>0</v>
+      </c>
+      <c r="M2" s="34">
+        <f t="shared" ref="M2:M26" si="1">SUM(K2:L2)</f>
+        <v>0</v>
+      </c>
+      <c r="N2" s="4"/>
+      <c r="O2" s="33"/>
+      <c r="P2" s="34" t="str">
+        <f t="shared" ref="P2:P26" si="2">IF(OR(F2="NB",F2="KP"),"","X")</f>
+        <v/>
+      </c>
+      <c r="Q2" s="33"/>
+      <c r="R2" s="4"/>
+      <c r="S2" s="2">
+        <f>IF(M2&gt;0,$B$33,0)</f>
+        <v>0</v>
+      </c>
       <c r="T2" s="2">
-        <f>IF(N2&gt;0,$B$33,0)</f>
-        <v>0</v>
-      </c>
-      <c r="U2" s="2">
-        <f>IF(N2&gt;0,$B$32,0)</f>
-        <v>0</v>
-      </c>
-      <c r="V2" s="10">
-        <f>IF(N2&gt;0,$F$28,0)</f>
+        <f>IF(M2&gt;0,$B$32,0)</f>
+        <v>0</v>
+      </c>
+      <c r="U2" s="10">
+        <f>IF(M2&gt;0,$F$28,0)</f>
+        <v>0</v>
+      </c>
+      <c r="V2" s="1">
+        <f>IF(M2&gt;0,$B$34,0)</f>
         <v>0</v>
       </c>
       <c r="W2" s="1">
-        <f>IF(N2&gt;0,$B$34,0)</f>
-        <v>0</v>
-      </c>
-      <c r="X2" s="1">
-        <f>IF(N2&gt;0,$B$31,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:24" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+        <f>IF(M2&gt;0,$B$31,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="54">
         <f>RAWDATA!B3</f>
         <v>0</v>
@@ -3037,7 +3006,7 @@
         <v>0</v>
       </c>
       <c r="E3" s="57">
-        <f t="shared" ref="E3:E26" si="2">ROUNDUP(N3/0.5,0)*0.5</f>
+        <f t="shared" ref="E3:E26" si="3">ROUNDUP(M3/0.5,0)*0.5</f>
         <v>0</v>
       </c>
       <c r="F3" s="30" t="str">
@@ -3052,48 +3021,44 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L3" s="96">
-        <f>IF(ISBLANK(Extrapunkte!I4),0,Extrapunkte!I4)</f>
-        <v>0</v>
-      </c>
-      <c r="M3" s="96">
-        <f>IF(ISBLANK(Extrapunkte!J4),0,Extrapunkte!M4)</f>
-        <v>0</v>
-      </c>
-      <c r="N3" s="34">
-        <f t="shared" ref="N3:N26" si="3">SUM(K3:M3)</f>
-        <v>0</v>
-      </c>
-      <c r="O3" s="4"/>
-      <c r="P3" s="33"/>
-      <c r="Q3" s="34" t="str">
+      <c r="L3" s="93">
+        <f>IF(ISBLANK(Extrapunkte!J4),0,Extrapunkte!J4)</f>
+        <v>0</v>
+      </c>
+      <c r="M3" s="34">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="R3" s="33"/>
-      <c r="S3" s="4"/>
+        <v>0</v>
+      </c>
+      <c r="N3" s="4"/>
+      <c r="O3" s="33"/>
+      <c r="P3" s="34" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="Q3" s="33"/>
+      <c r="R3" s="4"/>
+      <c r="S3" s="2">
+        <f t="shared" ref="S3:S26" si="4">IF(M3&gt;0,$B$33,0)</f>
+        <v>0</v>
+      </c>
       <c r="T3" s="2">
-        <f t="shared" ref="T3:T26" si="4">IF(N3&gt;0,$B$33,0)</f>
-        <v>0</v>
-      </c>
-      <c r="U3" s="2">
-        <f t="shared" ref="U3:U26" si="5">IF(N3&gt;0,$B$32,0)</f>
-        <v>0</v>
-      </c>
-      <c r="V3" s="10">
-        <f t="shared" ref="V3:V26" si="6">IF(N3&gt;0,$F$28,0)</f>
+        <f t="shared" ref="T3:T26" si="5">IF(M3&gt;0,$B$32,0)</f>
+        <v>0</v>
+      </c>
+      <c r="U3" s="10">
+        <f t="shared" ref="U3:U26" si="6">IF(M3&gt;0,$F$28,0)</f>
+        <v>0</v>
+      </c>
+      <c r="V3" s="1">
+        <f t="shared" ref="V3:V26" si="7">IF(M3&gt;0,$B$34,0)</f>
         <v>0</v>
       </c>
       <c r="W3" s="1">
-        <f t="shared" ref="W3:W26" si="7">IF(N3&gt;0,$B$34,0)</f>
-        <v>0</v>
-      </c>
-      <c r="X3" s="1">
-        <f t="shared" ref="X3:X26" si="8">IF(N3&gt;0,$B$31,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:24" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+        <f t="shared" ref="W3:W26" si="8">IF(M3&gt;0,$B$31,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="54">
         <f>RAWDATA!B4</f>
         <v>0</v>
@@ -3111,7 +3076,7 @@
         <v>0</v>
       </c>
       <c r="E4" s="57">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F4" s="30" t="str">
@@ -3126,48 +3091,44 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L4" s="96">
-        <f>IF(ISBLANK(Extrapunkte!I5),0,Extrapunkte!I5)</f>
-        <v>0</v>
-      </c>
-      <c r="M4" s="96">
-        <f>IF(ISBLANK(Extrapunkte!J5),0,Extrapunkte!M5)</f>
-        <v>0</v>
-      </c>
-      <c r="N4" s="34">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="O4" s="4"/>
-      <c r="P4" s="33"/>
-      <c r="Q4" s="34" t="str">
+      <c r="L4" s="93">
+        <f>IF(ISBLANK(Extrapunkte!J5),0,Extrapunkte!J5)</f>
+        <v>0</v>
+      </c>
+      <c r="M4" s="34">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="R4" s="33"/>
-      <c r="S4" s="4"/>
+        <v>0</v>
+      </c>
+      <c r="N4" s="4"/>
+      <c r="O4" s="33"/>
+      <c r="P4" s="34" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="Q4" s="33"/>
+      <c r="R4" s="4"/>
+      <c r="S4" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="T4" s="2">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="U4" s="2">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="V4" s="10">
+      <c r="U4" s="10">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
+      <c r="V4" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
       <c r="W4" s="1">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="X4" s="1">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:24" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="54">
         <f>RAWDATA!B5</f>
         <v>0</v>
@@ -3185,7 +3146,7 @@
         <v>0</v>
       </c>
       <c r="E5" s="57">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F5" s="30" t="str">
@@ -3200,48 +3161,44 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L5" s="96">
-        <f>IF(ISBLANK(Extrapunkte!I6),0,Extrapunkte!I6)</f>
-        <v>0</v>
-      </c>
-      <c r="M5" s="96">
-        <f>IF(ISBLANK(Extrapunkte!J6),0,Extrapunkte!M6)</f>
-        <v>0</v>
-      </c>
-      <c r="N5" s="34">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="O5" s="4"/>
-      <c r="P5" s="33"/>
-      <c r="Q5" s="34" t="str">
+      <c r="L5" s="93">
+        <f>IF(ISBLANK(Extrapunkte!J6),0,Extrapunkte!J6)</f>
+        <v>0</v>
+      </c>
+      <c r="M5" s="34">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="R5" s="33"/>
-      <c r="S5" s="4"/>
+        <v>0</v>
+      </c>
+      <c r="N5" s="4"/>
+      <c r="O5" s="33"/>
+      <c r="P5" s="34" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="Q5" s="33"/>
+      <c r="R5" s="4"/>
+      <c r="S5" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="T5" s="2">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="U5" s="2">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="V5" s="10">
+      <c r="U5" s="10">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
+      <c r="V5" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
       <c r="W5" s="1">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="X5" s="1">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="54">
         <f>RAWDATA!B6</f>
         <v>0</v>
@@ -3259,7 +3216,7 @@
         <v>0</v>
       </c>
       <c r="E6" s="57">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F6" s="30" t="str">
@@ -3274,48 +3231,44 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L6" s="96">
-        <f>IF(ISBLANK(Extrapunkte!I7),0,Extrapunkte!I7)</f>
-        <v>0</v>
-      </c>
-      <c r="M6" s="96">
-        <f>IF(ISBLANK(Extrapunkte!J7),0,Extrapunkte!M7)</f>
-        <v>0</v>
-      </c>
-      <c r="N6" s="34">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="O6" s="4"/>
-      <c r="P6" s="33"/>
-      <c r="Q6" s="34" t="str">
+      <c r="L6" s="93">
+        <f>IF(ISBLANK(Extrapunkte!J7),0,Extrapunkte!J7)</f>
+        <v>0</v>
+      </c>
+      <c r="M6" s="34">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="R6" s="33"/>
-      <c r="S6" s="4"/>
+        <v>0</v>
+      </c>
+      <c r="N6" s="4"/>
+      <c r="O6" s="33"/>
+      <c r="P6" s="34" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="Q6" s="33"/>
+      <c r="R6" s="4"/>
+      <c r="S6" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="T6" s="2">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="U6" s="2">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="V6" s="10">
+      <c r="U6" s="10">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
+      <c r="V6" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
       <c r="W6" s="1">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="X6" s="1">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:24" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="54">
         <f>RAWDATA!B7</f>
         <v>0</v>
@@ -3333,7 +3286,7 @@
         <v>0</v>
       </c>
       <c r="E7" s="57">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F7" s="30" t="str">
@@ -3348,48 +3301,44 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L7" s="96">
-        <f>IF(ISBLANK(Extrapunkte!I8),0,Extrapunkte!I8)</f>
-        <v>0</v>
-      </c>
-      <c r="M7" s="96">
-        <f>IF(ISBLANK(Extrapunkte!J8),0,Extrapunkte!M8)</f>
-        <v>0</v>
-      </c>
-      <c r="N7" s="34">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="O7" s="4"/>
-      <c r="P7" s="33"/>
-      <c r="Q7" s="34" t="str">
+      <c r="L7" s="93">
+        <f>IF(ISBLANK(Extrapunkte!J8),0,Extrapunkte!J8)</f>
+        <v>0</v>
+      </c>
+      <c r="M7" s="34">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="R7" s="33"/>
-      <c r="S7" s="4"/>
+        <v>0</v>
+      </c>
+      <c r="N7" s="4"/>
+      <c r="O7" s="33"/>
+      <c r="P7" s="34" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="Q7" s="33"/>
+      <c r="R7" s="4"/>
+      <c r="S7" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="T7" s="2">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="U7" s="2">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="V7" s="10">
+      <c r="U7" s="10">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
+      <c r="V7" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
       <c r="W7" s="1">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="X7" s="1">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:24" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="54">
         <f>RAWDATA!B8</f>
         <v>0</v>
@@ -3407,7 +3356,7 @@
         <v>0</v>
       </c>
       <c r="E8" s="57">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F8" s="30" t="str">
@@ -3422,48 +3371,44 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L8" s="96">
-        <f>IF(ISBLANK(Extrapunkte!I9),0,Extrapunkte!I9)</f>
-        <v>0</v>
-      </c>
-      <c r="M8" s="96">
-        <f>IF(ISBLANK(Extrapunkte!J9),0,Extrapunkte!M9)</f>
-        <v>0</v>
-      </c>
-      <c r="N8" s="34">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="O8" s="4"/>
-      <c r="P8" s="33"/>
-      <c r="Q8" s="34" t="str">
+      <c r="L8" s="93">
+        <f>IF(ISBLANK(Extrapunkte!J9),0,Extrapunkte!J9)</f>
+        <v>0</v>
+      </c>
+      <c r="M8" s="34">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="R8" s="33"/>
-      <c r="S8" s="4"/>
+        <v>0</v>
+      </c>
+      <c r="N8" s="4"/>
+      <c r="O8" s="33"/>
+      <c r="P8" s="34" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="Q8" s="33"/>
+      <c r="R8" s="4"/>
+      <c r="S8" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="T8" s="2">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="U8" s="2">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="V8" s="10">
+      <c r="U8" s="10">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
+      <c r="V8" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
       <c r="W8" s="1">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="X8" s="1">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:24" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="54">
         <f>RAWDATA!B9</f>
         <v>0</v>
@@ -3481,7 +3426,7 @@
         <v>0</v>
       </c>
       <c r="E9" s="57">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F9" s="30" t="str">
@@ -3496,48 +3441,44 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L9" s="96">
-        <f>IF(ISBLANK(Extrapunkte!I10),0,Extrapunkte!I10)</f>
-        <v>0</v>
-      </c>
-      <c r="M9" s="96">
-        <f>IF(ISBLANK(Extrapunkte!J10),0,Extrapunkte!M10)</f>
-        <v>0</v>
-      </c>
-      <c r="N9" s="34">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="O9" s="4"/>
-      <c r="P9" s="33"/>
-      <c r="Q9" s="34" t="str">
+      <c r="L9" s="93">
+        <f>IF(ISBLANK(Extrapunkte!J10),0,Extrapunkte!J10)</f>
+        <v>0</v>
+      </c>
+      <c r="M9" s="34">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="R9" s="33"/>
-      <c r="S9" s="4"/>
+        <v>0</v>
+      </c>
+      <c r="N9" s="4"/>
+      <c r="O9" s="33"/>
+      <c r="P9" s="34" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="Q9" s="33"/>
+      <c r="R9" s="4"/>
+      <c r="S9" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="T9" s="2">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="U9" s="2">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="V9" s="10">
+      <c r="U9" s="10">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
+      <c r="V9" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
       <c r="W9" s="1">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="X9" s="1">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:24" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="54">
         <f>RAWDATA!B10</f>
         <v>0</v>
@@ -3555,7 +3496,7 @@
         <v>0</v>
       </c>
       <c r="E10" s="57">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F10" s="30" t="str">
@@ -3570,48 +3511,44 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L10" s="96">
-        <f>IF(ISBLANK(Extrapunkte!I11),0,Extrapunkte!I11)</f>
-        <v>0</v>
-      </c>
-      <c r="M10" s="96">
-        <f>IF(ISBLANK(Extrapunkte!J11),0,Extrapunkte!M11)</f>
-        <v>0</v>
-      </c>
-      <c r="N10" s="34">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="O10" s="4"/>
-      <c r="P10" s="33"/>
-      <c r="Q10" s="34" t="str">
+      <c r="L10" s="93">
+        <f>IF(ISBLANK(Extrapunkte!J11),0,Extrapunkte!J11)</f>
+        <v>0</v>
+      </c>
+      <c r="M10" s="34">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="R10" s="33"/>
-      <c r="S10" s="4"/>
+        <v>0</v>
+      </c>
+      <c r="N10" s="4"/>
+      <c r="O10" s="33"/>
+      <c r="P10" s="34" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="Q10" s="33"/>
+      <c r="R10" s="4"/>
+      <c r="S10" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="T10" s="2">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="U10" s="2">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="V10" s="10">
+      <c r="U10" s="10">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
+      <c r="V10" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
       <c r="W10" s="1">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="X10" s="1">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:24" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="54">
         <f>RAWDATA!B11</f>
         <v>0</v>
@@ -3629,7 +3566,7 @@
         <v>0</v>
       </c>
       <c r="E11" s="57">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F11" s="30" t="str">
@@ -3644,48 +3581,44 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L11" s="96">
-        <f>IF(ISBLANK(Extrapunkte!I12),0,Extrapunkte!I12)</f>
-        <v>0</v>
-      </c>
-      <c r="M11" s="96">
-        <f>IF(ISBLANK(Extrapunkte!J12),0,Extrapunkte!M12)</f>
-        <v>0</v>
-      </c>
-      <c r="N11" s="34">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="O11" s="4"/>
-      <c r="P11" s="33"/>
-      <c r="Q11" s="34" t="str">
+      <c r="L11" s="93">
+        <f>IF(ISBLANK(Extrapunkte!J12),0,Extrapunkte!J12)</f>
+        <v>0</v>
+      </c>
+      <c r="M11" s="34">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="R11" s="33"/>
-      <c r="S11" s="4"/>
+        <v>0</v>
+      </c>
+      <c r="N11" s="4"/>
+      <c r="O11" s="33"/>
+      <c r="P11" s="34" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="Q11" s="33"/>
+      <c r="R11" s="4"/>
+      <c r="S11" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="T11" s="2">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="U11" s="2">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="V11" s="10">
+      <c r="U11" s="10">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
+      <c r="V11" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
       <c r="W11" s="1">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="X11" s="1">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:24" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:23" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="54">
         <f>RAWDATA!B12</f>
         <v>0</v>
@@ -3703,7 +3636,7 @@
         <v>0</v>
       </c>
       <c r="E12" s="57">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F12" s="30" t="str">
@@ -3718,48 +3651,44 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L12" s="96">
-        <f>IF(ISBLANK(Extrapunkte!I13),0,Extrapunkte!I13)</f>
-        <v>0</v>
-      </c>
-      <c r="M12" s="96">
-        <f>IF(ISBLANK(Extrapunkte!J13),0,Extrapunkte!M13)</f>
-        <v>0</v>
-      </c>
-      <c r="N12" s="34">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="O12" s="4"/>
-      <c r="P12" s="33"/>
-      <c r="Q12" s="34" t="str">
+      <c r="L12" s="93">
+        <f>IF(ISBLANK(Extrapunkte!J13),0,Extrapunkte!J13)</f>
+        <v>0</v>
+      </c>
+      <c r="M12" s="34">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="R12" s="33"/>
-      <c r="S12" s="4"/>
+        <v>0</v>
+      </c>
+      <c r="N12" s="4"/>
+      <c r="O12" s="33"/>
+      <c r="P12" s="34" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="Q12" s="33"/>
+      <c r="R12" s="4"/>
+      <c r="S12" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="T12" s="2">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="U12" s="2">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="V12" s="10">
+      <c r="U12" s="10">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
+      <c r="V12" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
       <c r="W12" s="1">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="X12" s="1">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:24" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:23" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="54">
         <f>RAWDATA!B13</f>
         <v>0</v>
@@ -3777,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="E13" s="57">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F13" s="30" t="str">
@@ -3792,48 +3721,44 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L13" s="96">
-        <f>IF(ISBLANK(Extrapunkte!I14),0,Extrapunkte!I14)</f>
-        <v>0</v>
-      </c>
-      <c r="M13" s="96">
-        <f>IF(ISBLANK(Extrapunkte!J14),0,Extrapunkte!M14)</f>
-        <v>0</v>
-      </c>
-      <c r="N13" s="34">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="O13" s="4"/>
-      <c r="P13" s="33"/>
-      <c r="Q13" s="34" t="str">
+      <c r="L13" s="93">
+        <f>IF(ISBLANK(Extrapunkte!J14),0,Extrapunkte!J14)</f>
+        <v>0</v>
+      </c>
+      <c r="M13" s="34">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="R13" s="33"/>
-      <c r="S13" s="4"/>
+        <v>0</v>
+      </c>
+      <c r="N13" s="4"/>
+      <c r="O13" s="33"/>
+      <c r="P13" s="34" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="Q13" s="33"/>
+      <c r="R13" s="4"/>
+      <c r="S13" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="T13" s="2">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="U13" s="2">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="V13" s="10">
+      <c r="U13" s="10">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
+      <c r="V13" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
       <c r="W13" s="1">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="X13" s="1">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:24" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:23" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="54">
         <f>RAWDATA!B14</f>
         <v>0</v>
@@ -3851,7 +3776,7 @@
         <v>0</v>
       </c>
       <c r="E14" s="57">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F14" s="30" t="str">
@@ -3866,48 +3791,44 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L14" s="96">
-        <f>IF(ISBLANK(Extrapunkte!I15),0,Extrapunkte!I15)</f>
-        <v>0</v>
-      </c>
-      <c r="M14" s="96">
-        <f>IF(ISBLANK(Extrapunkte!J15),0,Extrapunkte!M15)</f>
-        <v>0</v>
-      </c>
-      <c r="N14" s="34">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="O14" s="4"/>
-      <c r="P14" s="33"/>
-      <c r="Q14" s="34" t="str">
+      <c r="L14" s="93">
+        <f>IF(ISBLANK(Extrapunkte!J15),0,Extrapunkte!J15)</f>
+        <v>0</v>
+      </c>
+      <c r="M14" s="34">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="R14" s="33"/>
-      <c r="S14" s="4"/>
+        <v>0</v>
+      </c>
+      <c r="N14" s="4"/>
+      <c r="O14" s="33"/>
+      <c r="P14" s="34" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="Q14" s="33"/>
+      <c r="R14" s="4"/>
+      <c r="S14" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="T14" s="2">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="U14" s="2">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="V14" s="10">
+      <c r="U14" s="10">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
+      <c r="V14" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
       <c r="W14" s="1">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="X14" s="1">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:24" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:23" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="54">
         <f>RAWDATA!B15</f>
         <v>0</v>
@@ -3925,7 +3846,7 @@
         <v>0</v>
       </c>
       <c r="E15" s="57">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F15" s="30" t="str">
@@ -3940,48 +3861,44 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L15" s="96">
-        <f>IF(ISBLANK(Extrapunkte!I16),0,Extrapunkte!I16)</f>
-        <v>0</v>
-      </c>
-      <c r="M15" s="96">
-        <f>IF(ISBLANK(Extrapunkte!J16),0,Extrapunkte!M16)</f>
-        <v>0</v>
-      </c>
-      <c r="N15" s="34">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="O15" s="4"/>
-      <c r="P15" s="33"/>
-      <c r="Q15" s="34" t="str">
+      <c r="L15" s="93">
+        <f>IF(ISBLANK(Extrapunkte!J16),0,Extrapunkte!J16)</f>
+        <v>0</v>
+      </c>
+      <c r="M15" s="34">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="R15" s="33"/>
-      <c r="S15" s="4"/>
+        <v>0</v>
+      </c>
+      <c r="N15" s="4"/>
+      <c r="O15" s="33"/>
+      <c r="P15" s="34" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="Q15" s="33"/>
+      <c r="R15" s="4"/>
+      <c r="S15" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="T15" s="2">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="U15" s="2">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="V15" s="10">
+      <c r="U15" s="10">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
+      <c r="V15" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
       <c r="W15" s="1">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="X15" s="1">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:24" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:23" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="54">
         <f>RAWDATA!B16</f>
         <v>0</v>
@@ -3999,7 +3916,7 @@
         <v>0</v>
       </c>
       <c r="E16" s="57">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F16" s="30" t="str">
@@ -4014,48 +3931,44 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L16" s="96">
-        <f>IF(ISBLANK(Extrapunkte!I17),0,Extrapunkte!I17)</f>
-        <v>0</v>
-      </c>
-      <c r="M16" s="96">
-        <f>IF(ISBLANK(Extrapunkte!J17),0,Extrapunkte!M17)</f>
-        <v>0</v>
-      </c>
-      <c r="N16" s="34">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="O16" s="4"/>
-      <c r="P16" s="33"/>
-      <c r="Q16" s="34" t="str">
+      <c r="L16" s="93">
+        <f>IF(ISBLANK(Extrapunkte!J17),0,Extrapunkte!J17)</f>
+        <v>0</v>
+      </c>
+      <c r="M16" s="34">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="R16" s="33"/>
-      <c r="S16" s="4"/>
+        <v>0</v>
+      </c>
+      <c r="N16" s="4"/>
+      <c r="O16" s="33"/>
+      <c r="P16" s="34" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="Q16" s="33"/>
+      <c r="R16" s="4"/>
+      <c r="S16" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="T16" s="2">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="U16" s="2">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="V16" s="10">
+      <c r="U16" s="10">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
+      <c r="V16" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
       <c r="W16" s="1">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="X16" s="1">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:24" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:23" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="54">
         <f>RAWDATA!B17</f>
         <v>0</v>
@@ -4073,7 +3986,7 @@
         <v>0</v>
       </c>
       <c r="E17" s="57">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F17" s="30" t="str">
@@ -4088,48 +4001,44 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L17" s="96">
-        <f>IF(ISBLANK(Extrapunkte!I18),0,Extrapunkte!I18)</f>
-        <v>0</v>
-      </c>
-      <c r="M17" s="96">
-        <f>IF(ISBLANK(Extrapunkte!J18),0,Extrapunkte!M18)</f>
-        <v>0</v>
-      </c>
-      <c r="N17" s="34">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="O17" s="4"/>
-      <c r="P17" s="33"/>
-      <c r="Q17" s="34" t="str">
+      <c r="L17" s="93">
+        <f>IF(ISBLANK(Extrapunkte!J18),0,Extrapunkte!J18)</f>
+        <v>0</v>
+      </c>
+      <c r="M17" s="34">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="R17" s="33"/>
-      <c r="S17" s="4"/>
+        <v>0</v>
+      </c>
+      <c r="N17" s="4"/>
+      <c r="O17" s="33"/>
+      <c r="P17" s="34" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="Q17" s="33"/>
+      <c r="R17" s="4"/>
+      <c r="S17" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="T17" s="2">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="U17" s="2">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="V17" s="10">
+      <c r="U17" s="10">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
+      <c r="V17" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
       <c r="W17" s="1">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="X17" s="1">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:24" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:23" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="54">
         <f>RAWDATA!B18</f>
         <v>0</v>
@@ -4147,7 +4056,7 @@
         <v>0</v>
       </c>
       <c r="E18" s="57">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F18" s="30" t="str">
@@ -4162,48 +4071,44 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L18" s="96">
-        <f>IF(ISBLANK(Extrapunkte!I19),0,Extrapunkte!I19)</f>
-        <v>0</v>
-      </c>
-      <c r="M18" s="96">
-        <f>IF(ISBLANK(Extrapunkte!J19),0,Extrapunkte!M19)</f>
-        <v>0</v>
-      </c>
-      <c r="N18" s="34">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="O18" s="4"/>
-      <c r="P18" s="33"/>
-      <c r="Q18" s="34" t="str">
+      <c r="L18" s="93">
+        <f>IF(ISBLANK(Extrapunkte!J19),0,Extrapunkte!J19)</f>
+        <v>0</v>
+      </c>
+      <c r="M18" s="34">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="R18" s="33"/>
-      <c r="S18" s="4"/>
+        <v>0</v>
+      </c>
+      <c r="N18" s="4"/>
+      <c r="O18" s="33"/>
+      <c r="P18" s="34" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="Q18" s="33"/>
+      <c r="R18" s="4"/>
+      <c r="S18" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="T18" s="2">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="U18" s="2">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="V18" s="10">
+      <c r="U18" s="10">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
+      <c r="V18" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
       <c r="W18" s="1">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="X18" s="1">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:24" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:23" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="54">
         <f>RAWDATA!B19</f>
         <v>0</v>
@@ -4221,7 +4126,7 @@
         <v>0</v>
       </c>
       <c r="E19" s="57">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F19" s="30" t="str">
@@ -4236,48 +4141,44 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L19" s="96">
-        <f>IF(ISBLANK(Extrapunkte!I20),0,Extrapunkte!I20)</f>
-        <v>0</v>
-      </c>
-      <c r="M19" s="96">
-        <f>IF(ISBLANK(Extrapunkte!J20),0,Extrapunkte!M20)</f>
-        <v>0</v>
-      </c>
-      <c r="N19" s="34">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="O19" s="4"/>
-      <c r="P19" s="33"/>
-      <c r="Q19" s="34" t="str">
+      <c r="L19" s="93">
+        <f>IF(ISBLANK(Extrapunkte!J20),0,Extrapunkte!J20)</f>
+        <v>0</v>
+      </c>
+      <c r="M19" s="34">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="R19" s="33"/>
-      <c r="S19" s="4"/>
+        <v>0</v>
+      </c>
+      <c r="N19" s="4"/>
+      <c r="O19" s="33"/>
+      <c r="P19" s="34" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="Q19" s="33"/>
+      <c r="R19" s="4"/>
+      <c r="S19" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="T19" s="2">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="U19" s="2">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="V19" s="10">
+      <c r="U19" s="10">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
+      <c r="V19" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
       <c r="W19" s="1">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="X19" s="1">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:24" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:23" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="54">
         <f>RAWDATA!B20</f>
         <v>0</v>
@@ -4295,7 +4196,7 @@
         <v>0</v>
       </c>
       <c r="E20" s="57">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F20" s="30" t="str">
@@ -4310,48 +4211,44 @@
         <f>SUM(H20:J20)</f>
         <v>0</v>
       </c>
-      <c r="L20" s="96">
-        <f>IF(ISBLANK(Extrapunkte!I21),0,Extrapunkte!I21)</f>
-        <v>0</v>
-      </c>
-      <c r="M20" s="96">
-        <f>IF(ISBLANK(Extrapunkte!J21),0,Extrapunkte!M21)</f>
-        <v>0</v>
-      </c>
-      <c r="N20" s="34">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="O20" s="4"/>
-      <c r="P20" s="33"/>
-      <c r="Q20" s="34" t="str">
+      <c r="L20" s="93">
+        <f>IF(ISBLANK(Extrapunkte!J21),0,Extrapunkte!J21)</f>
+        <v>0</v>
+      </c>
+      <c r="M20" s="34">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="R20" s="33"/>
-      <c r="S20" s="4"/>
+        <v>0</v>
+      </c>
+      <c r="N20" s="4"/>
+      <c r="O20" s="33"/>
+      <c r="P20" s="34" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="Q20" s="33"/>
+      <c r="R20" s="4"/>
+      <c r="S20" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="T20" s="2">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="U20" s="2">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="V20" s="10">
+      <c r="U20" s="10">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
+      <c r="V20" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
       <c r="W20" s="1">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="X20" s="1">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:24" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:23" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="54">
         <f>RAWDATA!B21</f>
         <v>0</v>
@@ -4369,7 +4266,7 @@
         <v>0</v>
       </c>
       <c r="E21" s="57">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F21" s="30" t="str">
@@ -4384,48 +4281,44 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L21" s="96">
-        <f>IF(ISBLANK(Extrapunkte!I22),0,Extrapunkte!I22)</f>
-        <v>0</v>
-      </c>
-      <c r="M21" s="96">
-        <f>IF(ISBLANK(Extrapunkte!J22),0,Extrapunkte!M22)</f>
-        <v>0</v>
-      </c>
-      <c r="N21" s="34">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="O21" s="4"/>
-      <c r="P21" s="33"/>
-      <c r="Q21" s="34" t="str">
+      <c r="L21" s="93">
+        <f>IF(ISBLANK(Extrapunkte!J22),0,Extrapunkte!J22)</f>
+        <v>0</v>
+      </c>
+      <c r="M21" s="34">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="R21" s="33"/>
-      <c r="S21" s="4"/>
+        <v>0</v>
+      </c>
+      <c r="N21" s="4"/>
+      <c r="O21" s="33"/>
+      <c r="P21" s="34" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="Q21" s="33"/>
+      <c r="R21" s="4"/>
+      <c r="S21" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="T21" s="2">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="U21" s="2">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="V21" s="10">
+      <c r="U21" s="10">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
+      <c r="V21" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
       <c r="W21" s="1">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="X21" s="1">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:24" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:23" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="54">
         <f>RAWDATA!B22</f>
         <v>0</v>
@@ -4443,7 +4336,7 @@
         <v>0</v>
       </c>
       <c r="E22" s="57">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F22" s="30" t="str">
@@ -4458,48 +4351,44 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L22" s="96">
-        <f>IF(ISBLANK(Extrapunkte!I23),0,Extrapunkte!I23)</f>
-        <v>0</v>
-      </c>
-      <c r="M22" s="96">
-        <f>IF(ISBLANK(Extrapunkte!J23),0,Extrapunkte!M23)</f>
-        <v>0</v>
-      </c>
-      <c r="N22" s="34">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="O22" s="4"/>
-      <c r="P22" s="33"/>
-      <c r="Q22" s="34" t="str">
+      <c r="L22" s="93">
+        <f>IF(ISBLANK(Extrapunkte!J23),0,Extrapunkte!J23)</f>
+        <v>0</v>
+      </c>
+      <c r="M22" s="34">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="R22" s="33"/>
-      <c r="S22" s="4"/>
+        <v>0</v>
+      </c>
+      <c r="N22" s="4"/>
+      <c r="O22" s="33"/>
+      <c r="P22" s="34" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="Q22" s="33"/>
+      <c r="R22" s="4"/>
+      <c r="S22" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="T22" s="2">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="U22" s="2">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="V22" s="10">
+      <c r="U22" s="10">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
+      <c r="V22" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
       <c r="W22" s="1">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="X22" s="1">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:24" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:23" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="54">
         <f>RAWDATA!B23</f>
         <v>0</v>
@@ -4517,7 +4406,7 @@
         <v>0</v>
       </c>
       <c r="E23" s="57">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F23" s="30" t="str">
@@ -4532,48 +4421,44 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L23" s="96">
-        <f>IF(ISBLANK(Extrapunkte!I24),0,Extrapunkte!I24)</f>
-        <v>0</v>
-      </c>
-      <c r="M23" s="96">
-        <f>IF(ISBLANK(Extrapunkte!J24),0,Extrapunkte!M24)</f>
-        <v>0</v>
-      </c>
-      <c r="N23" s="34">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="O23" s="4"/>
-      <c r="P23" s="33"/>
-      <c r="Q23" s="34" t="str">
+      <c r="L23" s="93">
+        <f>IF(ISBLANK(Extrapunkte!J24),0,Extrapunkte!J24)</f>
+        <v>0</v>
+      </c>
+      <c r="M23" s="34">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="R23" s="33"/>
-      <c r="S23" s="4"/>
+        <v>0</v>
+      </c>
+      <c r="N23" s="4"/>
+      <c r="O23" s="33"/>
+      <c r="P23" s="34" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="Q23" s="33"/>
+      <c r="R23" s="4"/>
+      <c r="S23" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="T23" s="2">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="U23" s="2">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="V23" s="10">
+      <c r="U23" s="10">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
+      <c r="V23" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
       <c r="W23" s="1">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="X23" s="1">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:24" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:23" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="54">
         <f>RAWDATA!B24</f>
         <v>0</v>
@@ -4591,7 +4476,7 @@
         <v>0</v>
       </c>
       <c r="E24" s="57">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F24" s="30" t="str">
@@ -4606,48 +4491,44 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L24" s="96">
-        <f>IF(ISBLANK(Extrapunkte!I25),0,Extrapunkte!I25)</f>
-        <v>0</v>
-      </c>
-      <c r="M24" s="96">
-        <f>IF(ISBLANK(Extrapunkte!J25),0,Extrapunkte!M25)</f>
-        <v>0</v>
-      </c>
-      <c r="N24" s="34">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="O24" s="4"/>
-      <c r="P24" s="33"/>
-      <c r="Q24" s="34" t="str">
+      <c r="L24" s="93">
+        <f>IF(ISBLANK(Extrapunkte!J25),0,Extrapunkte!J25)</f>
+        <v>0</v>
+      </c>
+      <c r="M24" s="34">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="R24" s="33"/>
-      <c r="S24" s="4"/>
+        <v>0</v>
+      </c>
+      <c r="N24" s="4"/>
+      <c r="O24" s="33"/>
+      <c r="P24" s="34" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="Q24" s="33"/>
+      <c r="R24" s="4"/>
+      <c r="S24" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="T24" s="2">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="U24" s="2">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="V24" s="10">
+      <c r="U24" s="10">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
+      <c r="V24" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
       <c r="W24" s="1">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="X24" s="1">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:24" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:23" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="54">
         <f>RAWDATA!B25</f>
         <v>0</v>
@@ -4665,7 +4546,7 @@
         <v>0</v>
       </c>
       <c r="E25" s="57">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F25" s="30" t="str">
@@ -4680,48 +4561,44 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L25" s="96">
-        <f>IF(ISBLANK(Extrapunkte!I26),0,Extrapunkte!I26)</f>
-        <v>0</v>
-      </c>
-      <c r="M25" s="96">
-        <f>IF(ISBLANK(Extrapunkte!J26),0,Extrapunkte!M26)</f>
-        <v>0</v>
-      </c>
-      <c r="N25" s="34">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="O25" s="4"/>
-      <c r="P25" s="33"/>
-      <c r="Q25" s="34" t="str">
+      <c r="L25" s="93">
+        <f>IF(ISBLANK(Extrapunkte!J26),0,Extrapunkte!J26)</f>
+        <v>0</v>
+      </c>
+      <c r="M25" s="34">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="R25" s="33"/>
-      <c r="S25" s="4"/>
+        <v>0</v>
+      </c>
+      <c r="N25" s="4"/>
+      <c r="O25" s="33"/>
+      <c r="P25" s="34" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="Q25" s="33"/>
+      <c r="R25" s="4"/>
+      <c r="S25" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="T25" s="2">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="U25" s="2">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="V25" s="10">
+      <c r="U25" s="10">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
+      <c r="V25" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
       <c r="W25" s="1">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="X25" s="1">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:24" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:23" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="54">
         <f>RAWDATA!B26</f>
         <v>0</v>
@@ -4739,7 +4616,7 @@
         <v>0</v>
       </c>
       <c r="E26" s="57">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F26" s="30" t="str">
@@ -4754,48 +4631,44 @@
         <f>SUM(H26:J26)</f>
         <v>0</v>
       </c>
-      <c r="L26" s="96">
-        <f>IF(ISBLANK(Extrapunkte!I27),0,Extrapunkte!I27)</f>
-        <v>0</v>
-      </c>
-      <c r="M26" s="96">
-        <f>IF(ISBLANK(Extrapunkte!J27),0,Extrapunkte!M27)</f>
-        <v>0</v>
-      </c>
-      <c r="N26" s="34">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="O26" s="4"/>
-      <c r="P26" s="33"/>
-      <c r="Q26" s="34" t="str">
+      <c r="L26" s="93">
+        <f>IF(ISBLANK(Extrapunkte!J27),0,Extrapunkte!J27)</f>
+        <v>0</v>
+      </c>
+      <c r="M26" s="34">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="R26" s="33"/>
-      <c r="S26" s="4"/>
+        <v>0</v>
+      </c>
+      <c r="N26" s="4"/>
+      <c r="O26" s="33"/>
+      <c r="P26" s="34" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="Q26" s="33"/>
+      <c r="R26" s="4"/>
+      <c r="S26" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="T26" s="2">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="U26" s="2">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="V26" s="10">
+      <c r="U26" s="10">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
+      <c r="V26" s="1">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
       <c r="W26" s="1">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="X26" s="1">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:24" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:23" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="4"/>
       <c r="B27" s="4" t="s">
         <v>9</v>
@@ -4809,21 +4682,20 @@
       <c r="I27" s="5"/>
       <c r="J27" s="5"/>
       <c r="K27" s="5">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="L27" s="5"/>
-      <c r="M27" s="5"/>
-      <c r="N27" s="5">
+      <c r="M27" s="5">
         <f>100</f>
         <v>100</v>
       </c>
+      <c r="N27" s="4"/>
       <c r="O27" s="4"/>
-      <c r="P27" s="4"/>
-      <c r="Q27" s="5"/>
+      <c r="P27" s="5"/>
+      <c r="Q27" s="4"/>
       <c r="R27" s="4"/>
-      <c r="S27" s="4"/>
-    </row>
-    <row r="28" spans="1:24" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="28" spans="1:23" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="1" t="s">
         <v>55</v>
       </c>
@@ -4833,7 +4705,7 @@
       </c>
       <c r="G28" s="4"/>
       <c r="H28" s="10" t="e">
-        <f t="shared" ref="H28:L28" si="9">AVERAGEIF(H2:H26,"&gt;0")</f>
+        <f t="shared" ref="H28:K28" si="9">AVERAGEIF(H2:H26,"&gt;0")</f>
         <v>#DIV/0!</v>
       </c>
       <c r="I28" s="10" t="e">
@@ -4849,24 +4721,20 @@
         <v>#DIV/0!</v>
       </c>
       <c r="L28" s="10" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" ref="L28" si="11">AVERAGEIF(L2:L26,"&gt;0")</f>
         <v>#DIV/0!</v>
       </c>
       <c r="M28" s="10" t="e">
-        <f t="shared" ref="M28" si="11">AVERAGEIF(M2:M26,"&gt;0")</f>
+        <f>AVERAGEIF(M2:M26,"&gt;0")</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="N28" s="10" t="e">
-        <f>AVERAGEIF(N2:N26,"&gt;0")</f>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="N28" s="4"/>
       <c r="O28" s="4"/>
-      <c r="P28" s="4"/>
-      <c r="Q28" s="5"/>
+      <c r="P28" s="5"/>
+      <c r="Q28" s="4"/>
       <c r="R28" s="4"/>
-      <c r="S28" s="4"/>
-    </row>
-    <row r="29" spans="1:24" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="29" spans="1:23" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="4"/>
       <c r="B29" s="4" t="s">
         <v>10</v>
@@ -4894,14 +4762,13 @@
       <c r="K29" s="5"/>
       <c r="L29" s="5"/>
       <c r="M29" s="5"/>
-      <c r="N29" s="5"/>
+      <c r="N29" s="4"/>
       <c r="O29" s="4"/>
-      <c r="P29" s="4"/>
-      <c r="Q29" s="5"/>
+      <c r="P29" s="5"/>
+      <c r="Q29" s="4"/>
       <c r="R29" s="4"/>
-      <c r="S29" s="4"/>
-    </row>
-    <row r="30" spans="1:24" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="30" spans="1:23" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="22"/>
       <c r="B30" s="22"/>
       <c r="C30" s="23"/>
@@ -4915,172 +4782,165 @@
       <c r="K30" s="25"/>
       <c r="L30" s="25"/>
       <c r="M30" s="25"/>
-      <c r="N30" s="25"/>
+      <c r="N30" s="22"/>
       <c r="O30" s="22"/>
-      <c r="P30" s="22"/>
-      <c r="Q30" s="25"/>
+      <c r="P30" s="25"/>
+      <c r="Q30" s="22"/>
       <c r="R30" s="22"/>
-      <c r="S30" s="22"/>
-    </row>
-    <row r="31" spans="1:24" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="31" spans="1:23" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
         <v>13</v>
       </c>
       <c r="B31" s="35" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C31" s="23"/>
-      <c r="E31" s="97" t="s">
+      <c r="E31" s="95" t="s">
         <v>32</v>
       </c>
-      <c r="F31" s="97"/>
-      <c r="G31" s="97"/>
-      <c r="H31" s="97"/>
-      <c r="I31" s="97"/>
-      <c r="J31" s="97"/>
-      <c r="K31" s="97"/>
-      <c r="L31" s="97"/>
-      <c r="M31" s="97"/>
-      <c r="N31" s="97"/>
-      <c r="O31" s="97"/>
-      <c r="P31" s="97"/>
-      <c r="Q31" s="97"/>
-      <c r="R31" s="97"/>
-      <c r="S31" s="31"/>
-    </row>
-    <row r="32" spans="1:24" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F31" s="95"/>
+      <c r="G31" s="95"/>
+      <c r="H31" s="95"/>
+      <c r="I31" s="95"/>
+      <c r="J31" s="95"/>
+      <c r="K31" s="95"/>
+      <c r="L31" s="95"/>
+      <c r="M31" s="95"/>
+      <c r="N31" s="95"/>
+      <c r="O31" s="95"/>
+      <c r="P31" s="95"/>
+      <c r="Q31" s="95"/>
+      <c r="R31" s="31"/>
+    </row>
+    <row r="32" spans="1:23" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
         <v>14</v>
       </c>
       <c r="B32" s="36" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C32" s="23"/>
       <c r="D32" s="79"/>
-      <c r="E32" s="97"/>
-      <c r="F32" s="97"/>
-      <c r="G32" s="97"/>
-      <c r="H32" s="97"/>
-      <c r="I32" s="97"/>
-      <c r="J32" s="97"/>
-      <c r="K32" s="97"/>
-      <c r="L32" s="97"/>
-      <c r="M32" s="97"/>
-      <c r="N32" s="97"/>
-      <c r="O32" s="97"/>
-      <c r="P32" s="97"/>
-      <c r="Q32" s="97"/>
-      <c r="R32" s="97"/>
-      <c r="S32" s="31"/>
-    </row>
-    <row r="33" spans="1:19" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E32" s="95"/>
+      <c r="F32" s="95"/>
+      <c r="G32" s="95"/>
+      <c r="H32" s="95"/>
+      <c r="I32" s="95"/>
+      <c r="J32" s="95"/>
+      <c r="K32" s="95"/>
+      <c r="L32" s="95"/>
+      <c r="M32" s="95"/>
+      <c r="N32" s="95"/>
+      <c r="O32" s="95"/>
+      <c r="P32" s="95"/>
+      <c r="Q32" s="95"/>
+      <c r="R32" s="31"/>
+    </row>
+    <row r="33" spans="1:18" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
         <v>15</v>
       </c>
       <c r="B33" s="36" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C33" s="23"/>
       <c r="D33" s="79"/>
-      <c r="E33" s="97"/>
-      <c r="F33" s="97"/>
-      <c r="G33" s="97"/>
-      <c r="H33" s="97"/>
-      <c r="I33" s="97"/>
-      <c r="J33" s="97"/>
-      <c r="K33" s="97"/>
-      <c r="L33" s="97"/>
-      <c r="M33" s="97"/>
-      <c r="N33" s="97"/>
-      <c r="O33" s="97"/>
-      <c r="P33" s="97"/>
-      <c r="Q33" s="97"/>
-      <c r="R33" s="97"/>
-      <c r="S33" s="31"/>
-    </row>
-    <row r="34" spans="1:19" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E33" s="95"/>
+      <c r="F33" s="95"/>
+      <c r="G33" s="95"/>
+      <c r="H33" s="95"/>
+      <c r="I33" s="95"/>
+      <c r="J33" s="95"/>
+      <c r="K33" s="95"/>
+      <c r="L33" s="95"/>
+      <c r="M33" s="95"/>
+      <c r="N33" s="95"/>
+      <c r="O33" s="95"/>
+      <c r="P33" s="95"/>
+      <c r="Q33" s="95"/>
+      <c r="R33" s="31"/>
+    </row>
+    <row r="34" spans="1:18" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="s">
         <v>16</v>
       </c>
       <c r="B34" s="35" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C34" s="80" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D34" s="79"/>
-      <c r="E34" s="97"/>
-      <c r="F34" s="97"/>
-      <c r="G34" s="97"/>
-      <c r="H34" s="97"/>
-      <c r="I34" s="97"/>
-      <c r="J34" s="97"/>
-      <c r="K34" s="97"/>
-      <c r="L34" s="97"/>
-      <c r="M34" s="97"/>
-      <c r="N34" s="97"/>
-      <c r="O34" s="97"/>
-      <c r="P34" s="97"/>
-      <c r="Q34" s="97"/>
-      <c r="R34" s="97"/>
-      <c r="S34" s="31"/>
-    </row>
-    <row r="35" spans="1:19" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E34" s="95"/>
+      <c r="F34" s="95"/>
+      <c r="G34" s="95"/>
+      <c r="H34" s="95"/>
+      <c r="I34" s="95"/>
+      <c r="J34" s="95"/>
+      <c r="K34" s="95"/>
+      <c r="L34" s="95"/>
+      <c r="M34" s="95"/>
+      <c r="N34" s="95"/>
+      <c r="O34" s="95"/>
+      <c r="P34" s="95"/>
+      <c r="Q34" s="95"/>
+      <c r="R34" s="31"/>
+    </row>
+    <row r="35" spans="1:18" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
         <v>44</v>
       </c>
       <c r="B35" s="35" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C35" s="23"/>
       <c r="D35" s="79"/>
-      <c r="E35" s="97"/>
-      <c r="F35" s="97"/>
-      <c r="G35" s="97"/>
-      <c r="H35" s="97"/>
-      <c r="I35" s="97"/>
-      <c r="J35" s="97"/>
-      <c r="K35" s="97"/>
-      <c r="L35" s="97"/>
-      <c r="M35" s="97"/>
-      <c r="N35" s="97"/>
-      <c r="O35" s="97"/>
-      <c r="P35" s="97"/>
-      <c r="Q35" s="97"/>
-      <c r="R35" s="97"/>
-      <c r="S35" s="31"/>
-    </row>
-    <row r="36" spans="1:19" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E35" s="95"/>
+      <c r="F35" s="95"/>
+      <c r="G35" s="95"/>
+      <c r="H35" s="95"/>
+      <c r="I35" s="95"/>
+      <c r="J35" s="95"/>
+      <c r="K35" s="95"/>
+      <c r="L35" s="95"/>
+      <c r="M35" s="95"/>
+      <c r="N35" s="95"/>
+      <c r="O35" s="95"/>
+      <c r="P35" s="95"/>
+      <c r="Q35" s="95"/>
+      <c r="R35" s="31"/>
+    </row>
+    <row r="36" spans="1:18" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="4" t="s">
         <v>30</v>
       </c>
       <c r="B36" s="35" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C36" s="23"/>
       <c r="D36" s="79"/>
-      <c r="E36" s="97"/>
-      <c r="F36" s="97"/>
-      <c r="G36" s="97"/>
-      <c r="H36" s="97"/>
-      <c r="I36" s="97"/>
-      <c r="J36" s="97"/>
-      <c r="K36" s="97"/>
-      <c r="L36" s="97"/>
-      <c r="M36" s="97"/>
-      <c r="N36" s="97"/>
-      <c r="O36" s="97"/>
-      <c r="P36" s="97"/>
-      <c r="Q36" s="97"/>
-      <c r="R36" s="97"/>
-      <c r="S36" s="31"/>
-    </row>
-    <row r="37" spans="1:19" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E36" s="95"/>
+      <c r="F36" s="95"/>
+      <c r="G36" s="95"/>
+      <c r="H36" s="95"/>
+      <c r="I36" s="95"/>
+      <c r="J36" s="95"/>
+      <c r="K36" s="95"/>
+      <c r="L36" s="95"/>
+      <c r="M36" s="95"/>
+      <c r="N36" s="95"/>
+      <c r="O36" s="95"/>
+      <c r="P36" s="95"/>
+      <c r="Q36" s="95"/>
+      <c r="R36" s="31"/>
+    </row>
+    <row r="37" spans="1:18" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="4" t="s">
         <v>54</v>
       </c>
       <c r="B37" s="68" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C37" s="23"/>
       <c r="D37" s="79"/>
@@ -5093,24 +4953,23 @@
       <c r="K37" s="79"/>
       <c r="L37" s="79"/>
       <c r="M37" s="79"/>
-      <c r="N37" s="79"/>
-      <c r="O37" s="22"/>
-      <c r="P37" s="31"/>
-      <c r="Q37" s="25"/>
+      <c r="N37" s="22"/>
+      <c r="O37" s="31"/>
+      <c r="P37" s="25"/>
+      <c r="Q37" s="31"/>
       <c r="R37" s="31"/>
-      <c r="S37" s="31"/>
-    </row>
-    <row r="38" spans="1:19" ht="13.9" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="P38" s="22"/>
-      <c r="Q38" s="25"/>
+    </row>
+    <row r="38" spans="1:18" ht="13.9" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O38" s="22"/>
+      <c r="P38" s="25"/>
+      <c r="Q38" s="22"/>
       <c r="R38" s="22"/>
-      <c r="S38" s="22"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1" formatColumns="0" selectLockedCells="1"/>
   <dataConsolidate/>
   <mergeCells count="1">
-    <mergeCell ref="E31:R36"/>
+    <mergeCell ref="E31:Q36"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <conditionalFormatting sqref="H26">
@@ -5128,7 +4987,7 @@
       <formula>$I$27</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="1">
+  <dataValidations disablePrompts="1" count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B31">
       <formula1>DOZENT</formula1>
     </dataValidation>
@@ -5145,10 +5004,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N30"/>
+  <dimension ref="A1:K30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5157,30 +5016,25 @@
     <col min="2" max="2" width="12.7109375" customWidth="1"/>
     <col min="3" max="3" width="10.5703125" customWidth="1"/>
     <col min="4" max="4" width="14" customWidth="1"/>
-    <col min="5" max="12" width="10.7109375" style="89" customWidth="1"/>
-    <col min="13" max="13" width="10.5703125" style="89" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="5.7109375" customWidth="1"/>
+    <col min="5" max="9" width="10.7109375" style="87" customWidth="1"/>
+    <col min="10" max="10" width="10.5703125" style="87" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="94" t="str">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="92" t="str">
         <f>Notenliste!B34</f>
         <v>course.name</v>
       </c>
-      <c r="E1" s="98" t="s">
-        <v>132</v>
-      </c>
-      <c r="F1" s="98"/>
-      <c r="G1" s="98"/>
-      <c r="H1" s="98"/>
-      <c r="I1" s="85"/>
-      <c r="J1" s="99" t="s">
-        <v>133</v>
-      </c>
-      <c r="K1" s="100"/>
-      <c r="L1" s="100"/>
-    </row>
-    <row r="2" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="E1" s="96" t="s">
+        <v>131</v>
+      </c>
+      <c r="F1" s="97"/>
+      <c r="G1" s="97"/>
+      <c r="H1" s="97"/>
+      <c r="I1" s="97"/>
+    </row>
+    <row r="2" spans="1:11" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A2" s="26" t="s">
         <v>0</v>
       </c>
@@ -5193,41 +5047,32 @@
       <c r="D2" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="E2" s="82" t="s">
+      <c r="E2" s="84" t="s">
+        <v>132</v>
+      </c>
+      <c r="F2" s="84" t="s">
+        <v>133</v>
+      </c>
+      <c r="G2" s="84" t="s">
         <v>134</v>
       </c>
-      <c r="F2" s="82" t="s">
+      <c r="H2" s="84" t="s">
         <v>135</v>
       </c>
-      <c r="G2" s="82" t="s">
+      <c r="I2" s="84" t="s">
+        <v>137</v>
+      </c>
+      <c r="J2" s="84" t="s">
         <v>136</v>
       </c>
-      <c r="H2" s="82" t="s">
-        <v>137</v>
-      </c>
-      <c r="I2" s="86" t="s">
-        <v>138</v>
-      </c>
-      <c r="J2" s="86" t="s">
-        <v>134</v>
-      </c>
-      <c r="K2" s="86" t="s">
-        <v>135</v>
-      </c>
-      <c r="L2" s="86" t="s">
-        <v>136</v>
-      </c>
-      <c r="M2" s="86" t="s">
-        <v>139</v>
-      </c>
-      <c r="N2" s="4"/>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="83" t="str">
+      <c r="K2" s="4"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="82" t="str">
         <f>RAWDATA!B2</f>
         <v>applicant.last_name</v>
       </c>
-      <c r="B3" s="83" t="str">
+      <c r="B3" s="82" t="str">
         <f>RAWDATA!C2</f>
         <v>applicant.first_name</v>
       </c>
@@ -5239,29 +5084,23 @@
         <f>RAWDATA!E2</f>
         <v>applicant.tag</v>
       </c>
-      <c r="E3" s="84"/>
-      <c r="F3" s="84"/>
-      <c r="G3" s="84"/>
-      <c r="H3" s="84"/>
-      <c r="I3" s="95">
-        <f>SUM(E3:H3)</f>
-        <v>0</v>
-      </c>
-      <c r="J3" s="84"/>
-      <c r="K3" s="84"/>
-      <c r="L3" s="84"/>
-      <c r="M3" s="90">
-        <f>SUM(J3:L3)</f>
-        <v>0</v>
-      </c>
-      <c r="N3" s="4"/>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="83">
+      <c r="E3" s="83"/>
+      <c r="F3" s="83"/>
+      <c r="G3" s="83"/>
+      <c r="H3" s="83"/>
+      <c r="I3" s="83"/>
+      <c r="J3" s="88">
+        <f>SUM(E3:I3)</f>
+        <v>0</v>
+      </c>
+      <c r="K3" s="4"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="82">
         <f>RAWDATA!B3</f>
         <v>0</v>
       </c>
-      <c r="B4" s="83">
+      <c r="B4" s="82">
         <f>RAWDATA!C3</f>
         <v>0</v>
       </c>
@@ -5273,29 +5112,23 @@
         <f>RAWDATA!E3</f>
         <v>0</v>
       </c>
-      <c r="E4" s="84"/>
-      <c r="F4" s="84"/>
-      <c r="G4" s="84"/>
-      <c r="H4" s="84"/>
-      <c r="I4" s="95">
-        <f t="shared" ref="I4:I27" si="0">SUM(E4:H4)</f>
-        <v>0</v>
-      </c>
-      <c r="J4" s="84"/>
-      <c r="K4" s="84"/>
-      <c r="L4" s="84"/>
-      <c r="M4" s="90">
-        <f t="shared" ref="M4:M27" si="1">SUM(J4:L4)</f>
-        <v>0</v>
-      </c>
-      <c r="N4" s="4"/>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="83">
+      <c r="E4" s="83"/>
+      <c r="F4" s="83"/>
+      <c r="G4" s="83"/>
+      <c r="H4" s="83"/>
+      <c r="I4" s="83"/>
+      <c r="J4" s="88">
+        <f t="shared" ref="J4:J27" si="0">SUM(E4:I4)</f>
+        <v>0</v>
+      </c>
+      <c r="K4" s="4"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="82">
         <f>RAWDATA!B4</f>
         <v>0</v>
       </c>
-      <c r="B5" s="83">
+      <c r="B5" s="82">
         <f>RAWDATA!C4</f>
         <v>0</v>
       </c>
@@ -5307,29 +5140,23 @@
         <f>RAWDATA!E4</f>
         <v>0</v>
       </c>
-      <c r="E5" s="84"/>
-      <c r="F5" s="84"/>
-      <c r="G5" s="84"/>
-      <c r="H5" s="84"/>
-      <c r="I5" s="95">
+      <c r="E5" s="83"/>
+      <c r="F5" s="83"/>
+      <c r="G5" s="83"/>
+      <c r="H5" s="83"/>
+      <c r="I5" s="83"/>
+      <c r="J5" s="88">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J5" s="84"/>
-      <c r="K5" s="84"/>
-      <c r="L5" s="84"/>
-      <c r="M5" s="90">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="N5" s="4"/>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="83">
+      <c r="K5" s="4"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="82">
         <f>RAWDATA!B5</f>
         <v>0</v>
       </c>
-      <c r="B6" s="83">
+      <c r="B6" s="82">
         <f>RAWDATA!C5</f>
         <v>0</v>
       </c>
@@ -5341,29 +5168,23 @@
         <f>RAWDATA!E5</f>
         <v>0</v>
       </c>
-      <c r="E6" s="84"/>
-      <c r="F6" s="84"/>
-      <c r="G6" s="84"/>
-      <c r="H6" s="84"/>
-      <c r="I6" s="95">
+      <c r="E6" s="83"/>
+      <c r="F6" s="83"/>
+      <c r="G6" s="83"/>
+      <c r="H6" s="83"/>
+      <c r="I6" s="83"/>
+      <c r="J6" s="88">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J6" s="84"/>
-      <c r="K6" s="84"/>
-      <c r="L6" s="84"/>
-      <c r="M6" s="90">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="N6" s="4"/>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="83">
+      <c r="K6" s="4"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="82">
         <f>RAWDATA!B6</f>
         <v>0</v>
       </c>
-      <c r="B7" s="83">
+      <c r="B7" s="82">
         <f>RAWDATA!C6</f>
         <v>0</v>
       </c>
@@ -5375,29 +5196,23 @@
         <f>RAWDATA!E6</f>
         <v>0</v>
       </c>
-      <c r="E7" s="84"/>
-      <c r="F7" s="84"/>
-      <c r="G7" s="84"/>
-      <c r="H7" s="84"/>
-      <c r="I7" s="95">
+      <c r="E7" s="83"/>
+      <c r="F7" s="83"/>
+      <c r="G7" s="83"/>
+      <c r="H7" s="83"/>
+      <c r="I7" s="83"/>
+      <c r="J7" s="88">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J7" s="84"/>
-      <c r="K7" s="84"/>
-      <c r="L7" s="84"/>
-      <c r="M7" s="90">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="N7" s="4"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="83">
+      <c r="K7" s="4"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="82">
         <f>RAWDATA!B7</f>
         <v>0</v>
       </c>
-      <c r="B8" s="83">
+      <c r="B8" s="82">
         <f>RAWDATA!C7</f>
         <v>0</v>
       </c>
@@ -5409,29 +5224,23 @@
         <f>RAWDATA!E7</f>
         <v>0</v>
       </c>
-      <c r="E8" s="84"/>
-      <c r="F8" s="84"/>
-      <c r="G8" s="84"/>
-      <c r="H8" s="84"/>
-      <c r="I8" s="95">
+      <c r="E8" s="83"/>
+      <c r="F8" s="83"/>
+      <c r="G8" s="83"/>
+      <c r="H8" s="83"/>
+      <c r="I8" s="83"/>
+      <c r="J8" s="88">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J8" s="84"/>
-      <c r="K8" s="84"/>
-      <c r="L8" s="84"/>
-      <c r="M8" s="90">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="N8" s="4"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="83">
+      <c r="K8" s="4"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="82">
         <f>RAWDATA!B8</f>
         <v>0</v>
       </c>
-      <c r="B9" s="83">
+      <c r="B9" s="82">
         <f>RAWDATA!C8</f>
         <v>0</v>
       </c>
@@ -5443,29 +5252,23 @@
         <f>RAWDATA!E8</f>
         <v>0</v>
       </c>
-      <c r="E9" s="84"/>
-      <c r="F9" s="84"/>
-      <c r="G9" s="84"/>
-      <c r="H9" s="84"/>
-      <c r="I9" s="95">
+      <c r="E9" s="83"/>
+      <c r="F9" s="83"/>
+      <c r="G9" s="83"/>
+      <c r="H9" s="83"/>
+      <c r="I9" s="83"/>
+      <c r="J9" s="88">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J9" s="84"/>
-      <c r="K9" s="84"/>
-      <c r="L9" s="84"/>
-      <c r="M9" s="90">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="N9" s="4"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="83">
+      <c r="K9" s="4"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="82">
         <f>RAWDATA!B9</f>
         <v>0</v>
       </c>
-      <c r="B10" s="83">
+      <c r="B10" s="82">
         <f>RAWDATA!C9</f>
         <v>0</v>
       </c>
@@ -5477,29 +5280,23 @@
         <f>RAWDATA!E9</f>
         <v>0</v>
       </c>
-      <c r="E10" s="84"/>
-      <c r="F10" s="84"/>
-      <c r="G10" s="84"/>
-      <c r="H10" s="84"/>
-      <c r="I10" s="95">
+      <c r="E10" s="83"/>
+      <c r="F10" s="83"/>
+      <c r="G10" s="83"/>
+      <c r="H10" s="83"/>
+      <c r="I10" s="83"/>
+      <c r="J10" s="88">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J10" s="84"/>
-      <c r="K10" s="84"/>
-      <c r="L10" s="84"/>
-      <c r="M10" s="90">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="N10" s="4"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="83">
+      <c r="K10" s="4"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="82">
         <f>RAWDATA!B10</f>
         <v>0</v>
       </c>
-      <c r="B11" s="83">
+      <c r="B11" s="82">
         <f>RAWDATA!C10</f>
         <v>0</v>
       </c>
@@ -5511,29 +5308,23 @@
         <f>RAWDATA!E10</f>
         <v>0</v>
       </c>
-      <c r="E11" s="84"/>
-      <c r="F11" s="84"/>
-      <c r="G11" s="84"/>
-      <c r="H11" s="84"/>
-      <c r="I11" s="95">
+      <c r="E11" s="83"/>
+      <c r="F11" s="83"/>
+      <c r="G11" s="83"/>
+      <c r="H11" s="83"/>
+      <c r="I11" s="83"/>
+      <c r="J11" s="88">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J11" s="84"/>
-      <c r="K11" s="84"/>
-      <c r="L11" s="84"/>
-      <c r="M11" s="90">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="N11" s="4"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="83">
+      <c r="K11" s="4"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="82">
         <f>RAWDATA!B11</f>
         <v>0</v>
       </c>
-      <c r="B12" s="83">
+      <c r="B12" s="82">
         <f>RAWDATA!C11</f>
         <v>0</v>
       </c>
@@ -5545,29 +5336,23 @@
         <f>RAWDATA!E11</f>
         <v>0</v>
       </c>
-      <c r="E12" s="84"/>
-      <c r="F12" s="84"/>
-      <c r="G12" s="84"/>
-      <c r="H12" s="84"/>
-      <c r="I12" s="95">
+      <c r="E12" s="83"/>
+      <c r="F12" s="83"/>
+      <c r="G12" s="83"/>
+      <c r="H12" s="83"/>
+      <c r="I12" s="83"/>
+      <c r="J12" s="88">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J12" s="84"/>
-      <c r="K12" s="84"/>
-      <c r="L12" s="84"/>
-      <c r="M12" s="90">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="N12" s="4"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="83">
+      <c r="K12" s="4"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="82">
         <f>RAWDATA!B12</f>
         <v>0</v>
       </c>
-      <c r="B13" s="83">
+      <c r="B13" s="82">
         <f>RAWDATA!C12</f>
         <v>0</v>
       </c>
@@ -5579,29 +5364,23 @@
         <f>RAWDATA!E12</f>
         <v>0</v>
       </c>
-      <c r="E13" s="84"/>
-      <c r="F13" s="84"/>
-      <c r="G13" s="84"/>
-      <c r="H13" s="84"/>
-      <c r="I13" s="95">
+      <c r="E13" s="83"/>
+      <c r="F13" s="83"/>
+      <c r="G13" s="83"/>
+      <c r="H13" s="83"/>
+      <c r="I13" s="83"/>
+      <c r="J13" s="88">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J13" s="84"/>
-      <c r="K13" s="84"/>
-      <c r="L13" s="84"/>
-      <c r="M13" s="90">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="N13" s="4"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="83">
+      <c r="K13" s="4"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="82">
         <f>RAWDATA!B13</f>
         <v>0</v>
       </c>
-      <c r="B14" s="83">
+      <c r="B14" s="82">
         <f>RAWDATA!C13</f>
         <v>0</v>
       </c>
@@ -5613,29 +5392,23 @@
         <f>RAWDATA!E13</f>
         <v>0</v>
       </c>
-      <c r="E14" s="84"/>
-      <c r="F14" s="84"/>
-      <c r="G14" s="84"/>
-      <c r="H14" s="84"/>
-      <c r="I14" s="95">
+      <c r="E14" s="83"/>
+      <c r="F14" s="83"/>
+      <c r="G14" s="83"/>
+      <c r="H14" s="83"/>
+      <c r="I14" s="83"/>
+      <c r="J14" s="88">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J14" s="84"/>
-      <c r="K14" s="84"/>
-      <c r="L14" s="84"/>
-      <c r="M14" s="90">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="N14" s="4"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="83">
+      <c r="K14" s="4"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="82">
         <f>RAWDATA!B14</f>
         <v>0</v>
       </c>
-      <c r="B15" s="83">
+      <c r="B15" s="82">
         <f>RAWDATA!C14</f>
         <v>0</v>
       </c>
@@ -5647,29 +5420,23 @@
         <f>RAWDATA!E14</f>
         <v>0</v>
       </c>
-      <c r="E15" s="84"/>
-      <c r="F15" s="84"/>
-      <c r="G15" s="84"/>
-      <c r="H15" s="84"/>
-      <c r="I15" s="95">
+      <c r="E15" s="83"/>
+      <c r="F15" s="83"/>
+      <c r="G15" s="83"/>
+      <c r="H15" s="83"/>
+      <c r="I15" s="83"/>
+      <c r="J15" s="88">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J15" s="84"/>
-      <c r="K15" s="84"/>
-      <c r="L15" s="84"/>
-      <c r="M15" s="90">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="N15" s="4"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="83">
+      <c r="K15" s="4"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="82">
         <f>RAWDATA!B15</f>
         <v>0</v>
       </c>
-      <c r="B16" s="83">
+      <c r="B16" s="82">
         <f>RAWDATA!C15</f>
         <v>0</v>
       </c>
@@ -5681,29 +5448,23 @@
         <f>RAWDATA!E15</f>
         <v>0</v>
       </c>
-      <c r="E16" s="84"/>
-      <c r="F16" s="84"/>
-      <c r="G16" s="84"/>
-      <c r="H16" s="84"/>
-      <c r="I16" s="95">
+      <c r="E16" s="83"/>
+      <c r="F16" s="83"/>
+      <c r="G16" s="83"/>
+      <c r="H16" s="83"/>
+      <c r="I16" s="83"/>
+      <c r="J16" s="88">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J16" s="84"/>
-      <c r="K16" s="84"/>
-      <c r="L16" s="84"/>
-      <c r="M16" s="90">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="N16" s="4"/>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="83">
+      <c r="K16" s="4"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="82">
         <f>RAWDATA!B16</f>
         <v>0</v>
       </c>
-      <c r="B17" s="83">
+      <c r="B17" s="82">
         <f>RAWDATA!C16</f>
         <v>0</v>
       </c>
@@ -5715,29 +5476,23 @@
         <f>RAWDATA!E16</f>
         <v>0</v>
       </c>
-      <c r="E17" s="84"/>
-      <c r="F17" s="84"/>
-      <c r="G17" s="84"/>
-      <c r="H17" s="84"/>
-      <c r="I17" s="95">
+      <c r="E17" s="83"/>
+      <c r="F17" s="83"/>
+      <c r="G17" s="83"/>
+      <c r="H17" s="83"/>
+      <c r="I17" s="83"/>
+      <c r="J17" s="88">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J17" s="84"/>
-      <c r="K17" s="84"/>
-      <c r="L17" s="84"/>
-      <c r="M17" s="90">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="N17" s="4"/>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="83">
+      <c r="K17" s="4"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="82">
         <f>RAWDATA!B17</f>
         <v>0</v>
       </c>
-      <c r="B18" s="83">
+      <c r="B18" s="82">
         <f>RAWDATA!C17</f>
         <v>0</v>
       </c>
@@ -5749,29 +5504,23 @@
         <f>RAWDATA!E17</f>
         <v>0</v>
       </c>
-      <c r="E18" s="84"/>
-      <c r="F18" s="84"/>
-      <c r="G18" s="84"/>
-      <c r="H18" s="84"/>
-      <c r="I18" s="95">
+      <c r="E18" s="83"/>
+      <c r="F18" s="83"/>
+      <c r="G18" s="83"/>
+      <c r="H18" s="83"/>
+      <c r="I18" s="83"/>
+      <c r="J18" s="88">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J18" s="84"/>
-      <c r="K18" s="84"/>
-      <c r="L18" s="84"/>
-      <c r="M18" s="90">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="N18" s="4"/>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="83">
+      <c r="K18" s="4"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" s="82">
         <f>RAWDATA!B18</f>
         <v>0</v>
       </c>
-      <c r="B19" s="83">
+      <c r="B19" s="82">
         <f>RAWDATA!C18</f>
         <v>0</v>
       </c>
@@ -5783,29 +5532,23 @@
         <f>RAWDATA!E18</f>
         <v>0</v>
       </c>
-      <c r="E19" s="84"/>
-      <c r="F19" s="84"/>
-      <c r="G19" s="84"/>
-      <c r="H19" s="84"/>
-      <c r="I19" s="95">
+      <c r="E19" s="83"/>
+      <c r="F19" s="83"/>
+      <c r="G19" s="83"/>
+      <c r="H19" s="83"/>
+      <c r="I19" s="83"/>
+      <c r="J19" s="88">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J19" s="84"/>
-      <c r="K19" s="84"/>
-      <c r="L19" s="84"/>
-      <c r="M19" s="90">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="N19" s="4"/>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" s="83">
+      <c r="K19" s="4"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" s="82">
         <f>RAWDATA!B19</f>
         <v>0</v>
       </c>
-      <c r="B20" s="83">
+      <c r="B20" s="82">
         <f>RAWDATA!C19</f>
         <v>0</v>
       </c>
@@ -5817,29 +5560,23 @@
         <f>RAWDATA!E19</f>
         <v>0</v>
       </c>
-      <c r="E20" s="84"/>
-      <c r="F20" s="84"/>
-      <c r="G20" s="84"/>
-      <c r="H20" s="84"/>
-      <c r="I20" s="95">
+      <c r="E20" s="83"/>
+      <c r="F20" s="83"/>
+      <c r="G20" s="83"/>
+      <c r="H20" s="83"/>
+      <c r="I20" s="83"/>
+      <c r="J20" s="88">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J20" s="84"/>
-      <c r="K20" s="84"/>
-      <c r="L20" s="84"/>
-      <c r="M20" s="90">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="N20" s="4"/>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21" s="83">
+      <c r="K20" s="4"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" s="82">
         <f>RAWDATA!B20</f>
         <v>0</v>
       </c>
-      <c r="B21" s="83">
+      <c r="B21" s="82">
         <f>RAWDATA!C20</f>
         <v>0</v>
       </c>
@@ -5851,29 +5588,23 @@
         <f>RAWDATA!E20</f>
         <v>0</v>
       </c>
-      <c r="E21" s="84"/>
-      <c r="F21" s="84"/>
-      <c r="G21" s="84"/>
-      <c r="H21" s="84"/>
-      <c r="I21" s="95">
+      <c r="E21" s="83"/>
+      <c r="F21" s="83"/>
+      <c r="G21" s="83"/>
+      <c r="H21" s="83"/>
+      <c r="I21" s="83"/>
+      <c r="J21" s="88">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J21" s="84"/>
-      <c r="K21" s="84"/>
-      <c r="L21" s="84"/>
-      <c r="M21" s="90">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="N21" s="4"/>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A22" s="83">
+      <c r="K21" s="4"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" s="82">
         <f>RAWDATA!B21</f>
         <v>0</v>
       </c>
-      <c r="B22" s="83">
+      <c r="B22" s="82">
         <f>RAWDATA!C21</f>
         <v>0</v>
       </c>
@@ -5885,29 +5616,23 @@
         <f>RAWDATA!E21</f>
         <v>0</v>
       </c>
-      <c r="E22" s="84"/>
-      <c r="F22" s="84"/>
-      <c r="G22" s="84"/>
-      <c r="H22" s="84"/>
-      <c r="I22" s="95">
+      <c r="E22" s="83"/>
+      <c r="F22" s="83"/>
+      <c r="G22" s="83"/>
+      <c r="H22" s="83"/>
+      <c r="I22" s="83"/>
+      <c r="J22" s="88">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J22" s="84"/>
-      <c r="K22" s="84"/>
-      <c r="L22" s="84"/>
-      <c r="M22" s="90">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="N22" s="4"/>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A23" s="83">
+      <c r="K22" s="4"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" s="82">
         <f>RAWDATA!B22</f>
         <v>0</v>
       </c>
-      <c r="B23" s="83">
+      <c r="B23" s="82">
         <f>RAWDATA!C22</f>
         <v>0</v>
       </c>
@@ -5919,29 +5644,23 @@
         <f>RAWDATA!E22</f>
         <v>0</v>
       </c>
-      <c r="E23" s="84"/>
-      <c r="F23" s="84"/>
-      <c r="G23" s="84"/>
-      <c r="H23" s="84"/>
-      <c r="I23" s="95">
+      <c r="E23" s="83"/>
+      <c r="F23" s="83"/>
+      <c r="G23" s="83"/>
+      <c r="H23" s="83"/>
+      <c r="I23" s="83"/>
+      <c r="J23" s="88">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J23" s="84"/>
-      <c r="K23" s="84"/>
-      <c r="L23" s="84"/>
-      <c r="M23" s="90">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="N23" s="4"/>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A24" s="83">
+      <c r="K23" s="4"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" s="82">
         <f>RAWDATA!B23</f>
         <v>0</v>
       </c>
-      <c r="B24" s="83">
+      <c r="B24" s="82">
         <f>RAWDATA!C23</f>
         <v>0</v>
       </c>
@@ -5953,29 +5672,23 @@
         <f>RAWDATA!E23</f>
         <v>0</v>
       </c>
-      <c r="E24" s="84"/>
-      <c r="F24" s="84"/>
-      <c r="G24" s="84"/>
-      <c r="H24" s="84"/>
-      <c r="I24" s="95">
+      <c r="E24" s="83"/>
+      <c r="F24" s="83"/>
+      <c r="G24" s="83"/>
+      <c r="H24" s="83"/>
+      <c r="I24" s="83"/>
+      <c r="J24" s="88">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J24" s="84"/>
-      <c r="K24" s="84"/>
-      <c r="L24" s="84"/>
-      <c r="M24" s="90">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="N24" s="4"/>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25" s="83">
+      <c r="K24" s="4"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" s="82">
         <f>RAWDATA!B24</f>
         <v>0</v>
       </c>
-      <c r="B25" s="83">
+      <c r="B25" s="82">
         <f>RAWDATA!C24</f>
         <v>0</v>
       </c>
@@ -5987,29 +5700,23 @@
         <f>RAWDATA!E24</f>
         <v>0</v>
       </c>
-      <c r="E25" s="84"/>
-      <c r="F25" s="84"/>
-      <c r="G25" s="84"/>
-      <c r="H25" s="84"/>
-      <c r="I25" s="95">
+      <c r="E25" s="83"/>
+      <c r="F25" s="83"/>
+      <c r="G25" s="83"/>
+      <c r="H25" s="83"/>
+      <c r="I25" s="83"/>
+      <c r="J25" s="88">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J25" s="84"/>
-      <c r="K25" s="84"/>
-      <c r="L25" s="84"/>
-      <c r="M25" s="90">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="N25" s="4"/>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A26" s="83">
+      <c r="K25" s="4"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" s="82">
         <f>RAWDATA!B25</f>
         <v>0</v>
       </c>
-      <c r="B26" s="83">
+      <c r="B26" s="82">
         <f>RAWDATA!C25</f>
         <v>0</v>
       </c>
@@ -6021,29 +5728,23 @@
         <f>RAWDATA!E25</f>
         <v>0</v>
       </c>
-      <c r="E26" s="84"/>
-      <c r="F26" s="84"/>
-      <c r="G26" s="84"/>
-      <c r="H26" s="84"/>
-      <c r="I26" s="95">
+      <c r="E26" s="83"/>
+      <c r="F26" s="83"/>
+      <c r="G26" s="83"/>
+      <c r="H26" s="83"/>
+      <c r="I26" s="83"/>
+      <c r="J26" s="88">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J26" s="84"/>
-      <c r="K26" s="84"/>
-      <c r="L26" s="84"/>
-      <c r="M26" s="90">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="N26" s="4"/>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A27" s="83">
+      <c r="K26" s="4"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" s="82">
         <f>RAWDATA!B26</f>
         <v>0</v>
       </c>
-      <c r="B27" s="83">
+      <c r="B27" s="82">
         <f>RAWDATA!C26</f>
         <v>0</v>
       </c>
@@ -6055,88 +5756,72 @@
         <f>RAWDATA!E26</f>
         <v>0</v>
       </c>
-      <c r="E27" s="84"/>
-      <c r="F27" s="84"/>
-      <c r="G27" s="84"/>
-      <c r="H27" s="84"/>
-      <c r="I27" s="95">
+      <c r="E27" s="83"/>
+      <c r="F27" s="83"/>
+      <c r="G27" s="83"/>
+      <c r="H27" s="83"/>
+      <c r="I27" s="83"/>
+      <c r="J27" s="88">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J27" s="84"/>
-      <c r="K27" s="84"/>
-      <c r="L27" s="84"/>
-      <c r="M27" s="90">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="N27" s="4"/>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="K27" s="4"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="4"/>
       <c r="B28" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C28" s="6"/>
       <c r="D28" s="6"/>
-      <c r="E28" s="87"/>
-      <c r="F28" s="87"/>
-      <c r="G28" s="87"/>
-      <c r="H28" s="87"/>
-      <c r="I28" s="87"/>
-      <c r="J28" s="87"/>
-      <c r="K28" s="87"/>
-      <c r="L28" s="87"/>
-      <c r="M28" s="91"/>
-      <c r="N28" s="4"/>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="E28" s="85"/>
+      <c r="F28" s="85"/>
+      <c r="G28" s="85"/>
+      <c r="H28" s="85"/>
+      <c r="I28" s="85"/>
+      <c r="J28" s="89"/>
+      <c r="K28" s="4"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
-      <c r="E29" s="88"/>
-      <c r="F29" s="88"/>
-      <c r="G29" s="88"/>
-      <c r="H29" s="88"/>
-      <c r="I29" s="88"/>
-      <c r="J29" s="88"/>
-      <c r="K29" s="88"/>
-      <c r="L29" s="88"/>
-      <c r="M29" s="92">
-        <f>AVERAGE(IF(ISNUMBER(M3:M27),M3:M27))</f>
-        <v>0</v>
-      </c>
-      <c r="N29" s="4"/>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="E29" s="86"/>
+      <c r="F29" s="86"/>
+      <c r="G29" s="86"/>
+      <c r="H29" s="86"/>
+      <c r="I29" s="86"/>
+      <c r="J29" s="90">
+        <f>AVERAGE(IF(ISNUMBER(J3:J27),J3:J27))</f>
+        <v>0</v>
+      </c>
+      <c r="K29" s="4"/>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="4"/>
       <c r="B30" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C30" s="6"/>
       <c r="D30" s="6"/>
-      <c r="E30" s="87"/>
-      <c r="F30" s="87"/>
-      <c r="G30" s="87"/>
-      <c r="H30" s="87"/>
-      <c r="I30" s="87"/>
-      <c r="J30" s="87"/>
-      <c r="K30" s="87"/>
-      <c r="L30" s="87"/>
-      <c r="M30" s="93">
-        <f>ROUNDUP(STDEVP(M3:M19),1)</f>
-        <v>0</v>
-      </c>
-      <c r="N30" s="4"/>
+      <c r="E30" s="85"/>
+      <c r="F30" s="85"/>
+      <c r="G30" s="85"/>
+      <c r="H30" s="85"/>
+      <c r="I30" s="85"/>
+      <c r="J30" s="91">
+        <f>ROUNDUP(STDEVP(J3:J19),1)</f>
+        <v>0</v>
+      </c>
+      <c r="K30" s="4"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1" formatCells="0" selectLockedCells="1"/>
-  <mergeCells count="2">
-    <mergeCell ref="E1:H1"/>
-    <mergeCell ref="J1:L1"/>
+  <mergeCells count="1">
+    <mergeCell ref="E1:I1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
@@ -6163,11 +5848,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="101" t="str">
+      <c r="A1" s="98" t="str">
         <f>Notenliste!B34</f>
         <v>course.name</v>
       </c>
-      <c r="B1" s="101"/>
+      <c r="B1" s="98"/>
       <c r="C1" s="8" t="s">
         <v>12</v>
       </c>
@@ -6321,45 +6006,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="102" t="str">
+      <c r="A1" s="99" t="str">
         <f>Notenliste!B34&amp;Notenliste!B35</f>
         <v>course.namecourse.alternative</v>
       </c>
-      <c r="B1" s="102"/>
-      <c r="C1" s="102"/>
-      <c r="D1" s="102"/>
-      <c r="E1" s="102"/>
-      <c r="F1" s="102"/>
-      <c r="G1" s="102"/>
-      <c r="H1" s="102"/>
-      <c r="I1" s="102"/>
-      <c r="J1" s="102"/>
-      <c r="K1" s="102"/>
-      <c r="L1" s="102"/>
-      <c r="M1" s="102"/>
-      <c r="N1" s="102"/>
+      <c r="B1" s="99"/>
+      <c r="C1" s="99"/>
+      <c r="D1" s="99"/>
+      <c r="E1" s="99"/>
+      <c r="F1" s="99"/>
+      <c r="G1" s="99"/>
+      <c r="H1" s="99"/>
+      <c r="I1" s="99"/>
+      <c r="J1" s="99"/>
+      <c r="K1" s="99"/>
+      <c r="L1" s="99"/>
+      <c r="M1" s="99"/>
+      <c r="N1" s="99"/>
     </row>
     <row r="2" spans="1:15" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="103" t="str">
+      <c r="A2" s="100" t="str">
         <f>"Dozent/in: "&amp;Notenliste!B31</f>
         <v>Dozent/in: Elena Moya Royo</v>
       </c>
-      <c r="B2" s="103"/>
-      <c r="C2" s="103"/>
-      <c r="D2" s="103"/>
-      <c r="E2" s="103"/>
-      <c r="F2" s="103"/>
-      <c r="G2" s="104" t="str">
+      <c r="B2" s="100"/>
+      <c r="C2" s="100"/>
+      <c r="D2" s="100"/>
+      <c r="E2" s="100"/>
+      <c r="F2" s="100"/>
+      <c r="G2" s="101" t="str">
         <f>"Semester: "&amp;Notenliste!B36</f>
         <v>Semester: semester</v>
       </c>
-      <c r="H2" s="104"/>
-      <c r="I2" s="104"/>
-      <c r="J2" s="104"/>
-      <c r="K2" s="104"/>
-      <c r="L2" s="104"/>
-      <c r="M2" s="104"/>
-      <c r="N2" s="104"/>
+      <c r="H2" s="101"/>
+      <c r="I2" s="101"/>
+      <c r="J2" s="101"/>
+      <c r="K2" s="101"/>
+      <c r="L2" s="101"/>
+      <c r="M2" s="101"/>
+      <c r="N2" s="101"/>
       <c r="O2" s="62"/>
     </row>
     <row r="3" spans="1:15" s="16" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -6444,7 +6129,7 @@
         <v>0</v>
       </c>
       <c r="J4" s="17" t="str">
-        <f>UPPER(Notenliste!P2)</f>
+        <f>UPPER(Notenliste!O2)</f>
         <v/>
       </c>
       <c r="K4" s="17" t="str">
@@ -6460,7 +6145,7 @@
         <v>0</v>
       </c>
       <c r="N4" s="17" t="str">
-        <f>UPPER(Notenliste!R2)</f>
+        <f>UPPER(Notenliste!Q2)</f>
         <v/>
       </c>
       <c r="O4" s="62"/>
@@ -6502,7 +6187,7 @@
         <v>0</v>
       </c>
       <c r="J5" s="17" t="str">
-        <f>UPPER(Notenliste!P3)</f>
+        <f>UPPER(Notenliste!O3)</f>
         <v/>
       </c>
       <c r="K5" s="17" t="str">
@@ -6518,7 +6203,7 @@
         <v>0</v>
       </c>
       <c r="N5" s="17" t="str">
-        <f>UPPER(Notenliste!R3)</f>
+        <f>UPPER(Notenliste!Q3)</f>
         <v/>
       </c>
       <c r="O5" s="62"/>
@@ -6560,7 +6245,7 @@
         <v>0</v>
       </c>
       <c r="J6" s="17" t="str">
-        <f>UPPER(Notenliste!P4)</f>
+        <f>UPPER(Notenliste!O4)</f>
         <v/>
       </c>
       <c r="K6" s="17" t="str">
@@ -6576,7 +6261,7 @@
         <v>0</v>
       </c>
       <c r="N6" s="17" t="str">
-        <f>UPPER(Notenliste!R4)</f>
+        <f>UPPER(Notenliste!Q4)</f>
         <v/>
       </c>
       <c r="O6" s="62"/>
@@ -6618,7 +6303,7 @@
         <v>0</v>
       </c>
       <c r="J7" s="17" t="str">
-        <f>UPPER(Notenliste!P5)</f>
+        <f>UPPER(Notenliste!O5)</f>
         <v/>
       </c>
       <c r="K7" s="17" t="str">
@@ -6634,7 +6319,7 @@
         <v>0</v>
       </c>
       <c r="N7" s="17" t="str">
-        <f>UPPER(Notenliste!R5)</f>
+        <f>UPPER(Notenliste!Q5)</f>
         <v/>
       </c>
       <c r="O7" s="62"/>
@@ -6676,7 +6361,7 @@
         <v>0</v>
       </c>
       <c r="J8" s="17" t="str">
-        <f>UPPER(Notenliste!P6)</f>
+        <f>UPPER(Notenliste!O6)</f>
         <v/>
       </c>
       <c r="K8" s="17" t="str">
@@ -6692,7 +6377,7 @@
         <v>0</v>
       </c>
       <c r="N8" s="17" t="str">
-        <f>UPPER(Notenliste!R6)</f>
+        <f>UPPER(Notenliste!Q6)</f>
         <v/>
       </c>
       <c r="O8" s="62"/>
@@ -6734,7 +6419,7 @@
         <v>0</v>
       </c>
       <c r="J9" s="17" t="str">
-        <f>UPPER(Notenliste!P7)</f>
+        <f>UPPER(Notenliste!O7)</f>
         <v/>
       </c>
       <c r="K9" s="17" t="str">
@@ -6750,7 +6435,7 @@
         <v>0</v>
       </c>
       <c r="N9" s="17" t="str">
-        <f>UPPER(Notenliste!R7)</f>
+        <f>UPPER(Notenliste!Q7)</f>
         <v/>
       </c>
       <c r="O9" s="62"/>
@@ -6792,7 +6477,7 @@
         <v>0</v>
       </c>
       <c r="J10" s="17" t="str">
-        <f>UPPER(Notenliste!P8)</f>
+        <f>UPPER(Notenliste!O8)</f>
         <v/>
       </c>
       <c r="K10" s="17" t="str">
@@ -6808,7 +6493,7 @@
         <v>0</v>
       </c>
       <c r="N10" s="17" t="str">
-        <f>UPPER(Notenliste!R8)</f>
+        <f>UPPER(Notenliste!Q8)</f>
         <v/>
       </c>
       <c r="O10" s="62"/>
@@ -6850,7 +6535,7 @@
         <v>0</v>
       </c>
       <c r="J11" s="17" t="str">
-        <f>UPPER(Notenliste!P9)</f>
+        <f>UPPER(Notenliste!O9)</f>
         <v/>
       </c>
       <c r="K11" s="17" t="str">
@@ -6866,7 +6551,7 @@
         <v>0</v>
       </c>
       <c r="N11" s="17" t="str">
-        <f>UPPER(Notenliste!R9)</f>
+        <f>UPPER(Notenliste!Q9)</f>
         <v/>
       </c>
       <c r="O11" s="62"/>
@@ -6908,7 +6593,7 @@
         <v>0</v>
       </c>
       <c r="J12" s="17" t="str">
-        <f>UPPER(Notenliste!P10)</f>
+        <f>UPPER(Notenliste!O10)</f>
         <v/>
       </c>
       <c r="K12" s="17" t="str">
@@ -6924,7 +6609,7 @@
         <v>0</v>
       </c>
       <c r="N12" s="17" t="str">
-        <f>UPPER(Notenliste!R10)</f>
+        <f>UPPER(Notenliste!Q10)</f>
         <v/>
       </c>
       <c r="O12" s="62"/>
@@ -6966,7 +6651,7 @@
         <v>0</v>
       </c>
       <c r="J13" s="17" t="str">
-        <f>UPPER(Notenliste!P11)</f>
+        <f>UPPER(Notenliste!O11)</f>
         <v/>
       </c>
       <c r="K13" s="17" t="str">
@@ -6982,7 +6667,7 @@
         <v>0</v>
       </c>
       <c r="N13" s="17" t="str">
-        <f>UPPER(Notenliste!R11)</f>
+        <f>UPPER(Notenliste!Q11)</f>
         <v/>
       </c>
       <c r="O13" s="62"/>
@@ -7024,7 +6709,7 @@
         <v>0</v>
       </c>
       <c r="J14" s="17" t="str">
-        <f>UPPER(Notenliste!P12)</f>
+        <f>UPPER(Notenliste!O12)</f>
         <v/>
       </c>
       <c r="K14" s="17" t="str">
@@ -7040,7 +6725,7 @@
         <v>0</v>
       </c>
       <c r="N14" s="17" t="str">
-        <f>UPPER(Notenliste!R12)</f>
+        <f>UPPER(Notenliste!Q12)</f>
         <v/>
       </c>
       <c r="O14" s="62"/>
@@ -7082,7 +6767,7 @@
         <v>0</v>
       </c>
       <c r="J15" s="17" t="str">
-        <f>UPPER(Notenliste!P13)</f>
+        <f>UPPER(Notenliste!O13)</f>
         <v/>
       </c>
       <c r="K15" s="17" t="str">
@@ -7098,7 +6783,7 @@
         <v>0</v>
       </c>
       <c r="N15" s="17" t="str">
-        <f>UPPER(Notenliste!R13)</f>
+        <f>UPPER(Notenliste!Q13)</f>
         <v/>
       </c>
       <c r="O15" s="62"/>
@@ -7140,7 +6825,7 @@
         <v>0</v>
       </c>
       <c r="J16" s="17" t="str">
-        <f>UPPER(Notenliste!P14)</f>
+        <f>UPPER(Notenliste!O14)</f>
         <v/>
       </c>
       <c r="K16" s="17" t="str">
@@ -7156,7 +6841,7 @@
         <v>0</v>
       </c>
       <c r="N16" s="17" t="str">
-        <f>UPPER(Notenliste!R14)</f>
+        <f>UPPER(Notenliste!Q14)</f>
         <v/>
       </c>
       <c r="O16" s="62"/>
@@ -7198,7 +6883,7 @@
         <v>0</v>
       </c>
       <c r="J17" s="17" t="str">
-        <f>UPPER(Notenliste!P15)</f>
+        <f>UPPER(Notenliste!O15)</f>
         <v/>
       </c>
       <c r="K17" s="17" t="str">
@@ -7214,7 +6899,7 @@
         <v>0</v>
       </c>
       <c r="N17" s="17" t="str">
-        <f>UPPER(Notenliste!R15)</f>
+        <f>UPPER(Notenliste!Q15)</f>
         <v/>
       </c>
       <c r="O17" s="62"/>
@@ -7256,7 +6941,7 @@
         <v>0</v>
       </c>
       <c r="J18" s="17" t="str">
-        <f>UPPER(Notenliste!P16)</f>
+        <f>UPPER(Notenliste!O16)</f>
         <v/>
       </c>
       <c r="K18" s="17" t="str">
@@ -7272,7 +6957,7 @@
         <v>0</v>
       </c>
       <c r="N18" s="17" t="str">
-        <f>UPPER(Notenliste!R16)</f>
+        <f>UPPER(Notenliste!Q16)</f>
         <v/>
       </c>
       <c r="O18" s="62"/>
@@ -7314,7 +6999,7 @@
         <v>0</v>
       </c>
       <c r="J19" s="17" t="str">
-        <f>UPPER(Notenliste!P17)</f>
+        <f>UPPER(Notenliste!O17)</f>
         <v/>
       </c>
       <c r="K19" s="17" t="str">
@@ -7330,7 +7015,7 @@
         <v>0</v>
       </c>
       <c r="N19" s="17" t="str">
-        <f>UPPER(Notenliste!R17)</f>
+        <f>UPPER(Notenliste!Q17)</f>
         <v/>
       </c>
       <c r="O19" s="62"/>
@@ -7372,7 +7057,7 @@
         <v>0</v>
       </c>
       <c r="J20" s="17" t="str">
-        <f>UPPER(Notenliste!P18)</f>
+        <f>UPPER(Notenliste!O18)</f>
         <v/>
       </c>
       <c r="K20" s="17" t="str">
@@ -7388,7 +7073,7 @@
         <v>0</v>
       </c>
       <c r="N20" s="17" t="str">
-        <f>UPPER(Notenliste!R18)</f>
+        <f>UPPER(Notenliste!Q18)</f>
         <v/>
       </c>
       <c r="O20" s="62"/>
@@ -7430,7 +7115,7 @@
         <v>0</v>
       </c>
       <c r="J21" s="17" t="str">
-        <f>UPPER(Notenliste!P19)</f>
+        <f>UPPER(Notenliste!O19)</f>
         <v/>
       </c>
       <c r="K21" s="17" t="str">
@@ -7446,7 +7131,7 @@
         <v>0</v>
       </c>
       <c r="N21" s="17" t="str">
-        <f>UPPER(Notenliste!R19)</f>
+        <f>UPPER(Notenliste!Q19)</f>
         <v/>
       </c>
       <c r="O21" s="62"/>
@@ -7488,7 +7173,7 @@
         <v>0</v>
       </c>
       <c r="J22" s="17" t="str">
-        <f>UPPER(Notenliste!P20)</f>
+        <f>UPPER(Notenliste!O20)</f>
         <v/>
       </c>
       <c r="K22" s="17" t="str">
@@ -7504,7 +7189,7 @@
         <v>0</v>
       </c>
       <c r="N22" s="17" t="str">
-        <f>UPPER(Notenliste!R20)</f>
+        <f>UPPER(Notenliste!Q20)</f>
         <v/>
       </c>
       <c r="O22" s="62"/>
@@ -7546,7 +7231,7 @@
         <v>0</v>
       </c>
       <c r="J23" s="17" t="str">
-        <f>UPPER(Notenliste!P21)</f>
+        <f>UPPER(Notenliste!O21)</f>
         <v/>
       </c>
       <c r="K23" s="17" t="str">
@@ -7562,7 +7247,7 @@
         <v>0</v>
       </c>
       <c r="N23" s="17" t="str">
-        <f>UPPER(Notenliste!R21)</f>
+        <f>UPPER(Notenliste!Q21)</f>
         <v/>
       </c>
       <c r="O23" s="62"/>
@@ -7604,7 +7289,7 @@
         <v>0</v>
       </c>
       <c r="J24" s="17" t="str">
-        <f>UPPER(Notenliste!P22)</f>
+        <f>UPPER(Notenliste!O22)</f>
         <v/>
       </c>
       <c r="K24" s="17" t="str">
@@ -7620,7 +7305,7 @@
         <v>0</v>
       </c>
       <c r="N24" s="17" t="str">
-        <f>UPPER(Notenliste!R22)</f>
+        <f>UPPER(Notenliste!Q22)</f>
         <v/>
       </c>
       <c r="O24" s="62"/>
@@ -7662,7 +7347,7 @@
         <v>0</v>
       </c>
       <c r="J25" s="17" t="str">
-        <f>UPPER(Notenliste!P23)</f>
+        <f>UPPER(Notenliste!O23)</f>
         <v/>
       </c>
       <c r="K25" s="17" t="str">
@@ -7678,7 +7363,7 @@
         <v>0</v>
       </c>
       <c r="N25" s="17" t="str">
-        <f>UPPER(Notenliste!R23)</f>
+        <f>UPPER(Notenliste!Q23)</f>
         <v/>
       </c>
       <c r="O25" s="62"/>
@@ -7720,7 +7405,7 @@
         <v>0</v>
       </c>
       <c r="J26" s="17" t="str">
-        <f>UPPER(Notenliste!P24)</f>
+        <f>UPPER(Notenliste!O24)</f>
         <v/>
       </c>
       <c r="K26" s="17" t="str">
@@ -7736,7 +7421,7 @@
         <v>0</v>
       </c>
       <c r="N26" s="17" t="str">
-        <f>UPPER(Notenliste!R24)</f>
+        <f>UPPER(Notenliste!Q24)</f>
         <v/>
       </c>
       <c r="O26" s="62"/>
@@ -7778,7 +7463,7 @@
         <v>0</v>
       </c>
       <c r="J27" s="17" t="str">
-        <f>UPPER(Notenliste!P25)</f>
+        <f>UPPER(Notenliste!O25)</f>
         <v/>
       </c>
       <c r="K27" s="17" t="str">
@@ -7794,7 +7479,7 @@
         <v>0</v>
       </c>
       <c r="N27" s="17" t="str">
-        <f>UPPER(Notenliste!R25)</f>
+        <f>UPPER(Notenliste!Q25)</f>
         <v/>
       </c>
       <c r="O27" s="62"/>
@@ -7836,7 +7521,7 @@
         <v>0</v>
       </c>
       <c r="J28" s="17" t="str">
-        <f>UPPER(Notenliste!P26)</f>
+        <f>UPPER(Notenliste!O26)</f>
         <v/>
       </c>
       <c r="K28" s="17" t="str">
@@ -7852,7 +7537,7 @@
         <v>0</v>
       </c>
       <c r="N28" s="17" t="str">
-        <f>UPPER(Notenliste!R26)</f>
+        <f>UPPER(Notenliste!Q26)</f>
         <v/>
       </c>
       <c r="O28" s="62"/>
@@ -7881,90 +7566,90 @@
       <c r="O29" s="62"/>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A30" s="105" t="s">
+      <c r="A30" s="102" t="s">
         <v>43</v>
       </c>
-      <c r="B30" s="105"/>
-      <c r="C30" s="105"/>
-      <c r="D30" s="105"/>
-      <c r="E30" s="105"/>
-      <c r="F30" s="105"/>
-      <c r="G30" s="105"/>
-      <c r="H30" s="105"/>
-      <c r="I30" s="105"/>
-      <c r="J30" s="105"/>
-      <c r="K30" s="105"/>
-      <c r="L30" s="105"/>
-      <c r="M30" s="105"/>
-      <c r="N30" s="105"/>
+      <c r="B30" s="102"/>
+      <c r="C30" s="102"/>
+      <c r="D30" s="102"/>
+      <c r="E30" s="102"/>
+      <c r="F30" s="102"/>
+      <c r="G30" s="102"/>
+      <c r="H30" s="102"/>
+      <c r="I30" s="102"/>
+      <c r="J30" s="102"/>
+      <c r="K30" s="102"/>
+      <c r="L30" s="102"/>
+      <c r="M30" s="102"/>
+      <c r="N30" s="102"/>
       <c r="O30" s="62"/>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A31" s="105"/>
-      <c r="B31" s="105"/>
-      <c r="C31" s="105"/>
-      <c r="D31" s="105"/>
-      <c r="E31" s="105"/>
-      <c r="F31" s="105"/>
-      <c r="G31" s="105"/>
-      <c r="H31" s="105"/>
-      <c r="I31" s="105"/>
-      <c r="J31" s="105"/>
-      <c r="K31" s="105"/>
-      <c r="L31" s="105"/>
-      <c r="M31" s="105"/>
-      <c r="N31" s="105"/>
+      <c r="A31" s="102"/>
+      <c r="B31" s="102"/>
+      <c r="C31" s="102"/>
+      <c r="D31" s="102"/>
+      <c r="E31" s="102"/>
+      <c r="F31" s="102"/>
+      <c r="G31" s="102"/>
+      <c r="H31" s="102"/>
+      <c r="I31" s="102"/>
+      <c r="J31" s="102"/>
+      <c r="K31" s="102"/>
+      <c r="L31" s="102"/>
+      <c r="M31" s="102"/>
+      <c r="N31" s="102"/>
       <c r="O31" s="62"/>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A32" s="105"/>
-      <c r="B32" s="105"/>
-      <c r="C32" s="105"/>
-      <c r="D32" s="105"/>
-      <c r="E32" s="105"/>
-      <c r="F32" s="105"/>
-      <c r="G32" s="105"/>
-      <c r="H32" s="105"/>
-      <c r="I32" s="105"/>
-      <c r="J32" s="105"/>
-      <c r="K32" s="105"/>
-      <c r="L32" s="105"/>
-      <c r="M32" s="105"/>
-      <c r="N32" s="105"/>
+      <c r="A32" s="102"/>
+      <c r="B32" s="102"/>
+      <c r="C32" s="102"/>
+      <c r="D32" s="102"/>
+      <c r="E32" s="102"/>
+      <c r="F32" s="102"/>
+      <c r="G32" s="102"/>
+      <c r="H32" s="102"/>
+      <c r="I32" s="102"/>
+      <c r="J32" s="102"/>
+      <c r="K32" s="102"/>
+      <c r="L32" s="102"/>
+      <c r="M32" s="102"/>
+      <c r="N32" s="102"/>
       <c r="O32" s="62"/>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A33" s="105"/>
-      <c r="B33" s="105"/>
-      <c r="C33" s="105"/>
-      <c r="D33" s="105"/>
-      <c r="E33" s="105"/>
-      <c r="F33" s="105"/>
-      <c r="G33" s="105"/>
-      <c r="H33" s="105"/>
-      <c r="I33" s="105"/>
-      <c r="J33" s="105"/>
-      <c r="K33" s="105"/>
-      <c r="L33" s="105"/>
-      <c r="M33" s="105"/>
-      <c r="N33" s="105"/>
+      <c r="A33" s="102"/>
+      <c r="B33" s="102"/>
+      <c r="C33" s="102"/>
+      <c r="D33" s="102"/>
+      <c r="E33" s="102"/>
+      <c r="F33" s="102"/>
+      <c r="G33" s="102"/>
+      <c r="H33" s="102"/>
+      <c r="I33" s="102"/>
+      <c r="J33" s="102"/>
+      <c r="K33" s="102"/>
+      <c r="L33" s="102"/>
+      <c r="M33" s="102"/>
+      <c r="N33" s="102"/>
       <c r="O33" s="62"/>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A34" s="105"/>
-      <c r="B34" s="105"/>
-      <c r="C34" s="105"/>
-      <c r="D34" s="105"/>
-      <c r="E34" s="105"/>
-      <c r="F34" s="105"/>
-      <c r="G34" s="105"/>
-      <c r="H34" s="105"/>
-      <c r="I34" s="105"/>
-      <c r="J34" s="105"/>
-      <c r="K34" s="105"/>
-      <c r="L34" s="105"/>
-      <c r="M34" s="105"/>
-      <c r="N34" s="105"/>
+      <c r="A34" s="102"/>
+      <c r="B34" s="102"/>
+      <c r="C34" s="102"/>
+      <c r="D34" s="102"/>
+      <c r="E34" s="102"/>
+      <c r="F34" s="102"/>
+      <c r="G34" s="102"/>
+      <c r="H34" s="102"/>
+      <c r="I34" s="102"/>
+      <c r="J34" s="102"/>
+      <c r="K34" s="102"/>
+      <c r="L34" s="102"/>
+      <c r="M34" s="102"/>
+      <c r="N34" s="102"/>
       <c r="O34" s="62"/>
     </row>
   </sheetData>
@@ -8014,105 +7699,105 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="109" t="str">
+      <c r="A1" s="106" t="str">
         <f>Notenliste!B34&amp;Notenliste!B35</f>
         <v>course.namecourse.alternative</v>
       </c>
-      <c r="B1" s="109"/>
-      <c r="C1" s="109"/>
-      <c r="D1" s="109"/>
-      <c r="E1" s="109"/>
-      <c r="F1" s="109"/>
-      <c r="G1" s="109"/>
-      <c r="H1" s="109"/>
-      <c r="I1" s="109"/>
-      <c r="J1" s="109"/>
-      <c r="K1" s="109"/>
-      <c r="L1" s="109"/>
-      <c r="M1" s="109"/>
-      <c r="N1" s="109"/>
-      <c r="O1" s="109"/>
-      <c r="P1" s="109"/>
-      <c r="Q1" s="109"/>
-      <c r="R1" s="109"/>
-      <c r="S1" s="109"/>
-      <c r="T1" s="109"/>
-      <c r="U1" s="109"/>
-      <c r="V1" s="109"/>
-      <c r="W1" s="109"/>
-      <c r="X1" s="109"/>
+      <c r="B1" s="106"/>
+      <c r="C1" s="106"/>
+      <c r="D1" s="106"/>
+      <c r="E1" s="106"/>
+      <c r="F1" s="106"/>
+      <c r="G1" s="106"/>
+      <c r="H1" s="106"/>
+      <c r="I1" s="106"/>
+      <c r="J1" s="106"/>
+      <c r="K1" s="106"/>
+      <c r="L1" s="106"/>
+      <c r="M1" s="106"/>
+      <c r="N1" s="106"/>
+      <c r="O1" s="106"/>
+      <c r="P1" s="106"/>
+      <c r="Q1" s="106"/>
+      <c r="R1" s="106"/>
+      <c r="S1" s="106"/>
+      <c r="T1" s="106"/>
+      <c r="U1" s="106"/>
+      <c r="V1" s="106"/>
+      <c r="W1" s="106"/>
+      <c r="X1" s="106"/>
     </row>
     <row r="2" spans="1:24" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="109" t="s">
+      <c r="A2" s="106" t="s">
         <v>41</v>
       </c>
-      <c r="B2" s="109"/>
-      <c r="C2" s="109"/>
-      <c r="D2" s="109"/>
-      <c r="E2" s="109"/>
-      <c r="F2" s="109"/>
-      <c r="G2" s="109"/>
-      <c r="H2" s="109"/>
-      <c r="I2" s="109"/>
-      <c r="J2" s="109"/>
-      <c r="K2" s="109"/>
-      <c r="L2" s="109"/>
-      <c r="M2" s="109"/>
-      <c r="N2" s="109"/>
-      <c r="O2" s="109"/>
-      <c r="P2" s="109"/>
-      <c r="Q2" s="109"/>
-      <c r="R2" s="109"/>
-      <c r="S2" s="109"/>
-      <c r="T2" s="109"/>
-      <c r="U2" s="109"/>
-      <c r="V2" s="109"/>
-      <c r="W2" s="109"/>
-      <c r="X2" s="109"/>
+      <c r="B2" s="106"/>
+      <c r="C2" s="106"/>
+      <c r="D2" s="106"/>
+      <c r="E2" s="106"/>
+      <c r="F2" s="106"/>
+      <c r="G2" s="106"/>
+      <c r="H2" s="106"/>
+      <c r="I2" s="106"/>
+      <c r="J2" s="106"/>
+      <c r="K2" s="106"/>
+      <c r="L2" s="106"/>
+      <c r="M2" s="106"/>
+      <c r="N2" s="106"/>
+      <c r="O2" s="106"/>
+      <c r="P2" s="106"/>
+      <c r="Q2" s="106"/>
+      <c r="R2" s="106"/>
+      <c r="S2" s="106"/>
+      <c r="T2" s="106"/>
+      <c r="U2" s="106"/>
+      <c r="V2" s="106"/>
+      <c r="W2" s="106"/>
+      <c r="X2" s="106"/>
     </row>
     <row r="3" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="110" t="str">
+      <c r="A3" s="107" t="str">
         <f>"Dozent/in: "&amp;Notenliste!B31</f>
         <v>Dozent/in: Elena Moya Royo</v>
       </c>
-      <c r="B3" s="110"/>
-      <c r="C3" s="110"/>
-      <c r="D3" s="110"/>
-      <c r="E3" s="110"/>
+      <c r="B3" s="107"/>
+      <c r="C3" s="107"/>
+      <c r="D3" s="107"/>
+      <c r="E3" s="107"/>
       <c r="F3" s="43"/>
-      <c r="G3" s="108"/>
-      <c r="H3" s="108"/>
-      <c r="I3" s="108"/>
-      <c r="J3" s="108"/>
-      <c r="K3" s="108"/>
-      <c r="L3" s="108"/>
-      <c r="M3" s="108"/>
-      <c r="N3" s="108"/>
-      <c r="O3" s="108"/>
-      <c r="P3" s="108"/>
-      <c r="Q3" s="108"/>
-      <c r="R3" s="108"/>
-      <c r="S3" s="108"/>
-      <c r="T3" s="108"/>
-      <c r="U3" s="108"/>
-      <c r="V3" s="108"/>
-      <c r="W3" s="108"/>
-      <c r="X3" s="108"/>
+      <c r="G3" s="105"/>
+      <c r="H3" s="105"/>
+      <c r="I3" s="105"/>
+      <c r="J3" s="105"/>
+      <c r="K3" s="105"/>
+      <c r="L3" s="105"/>
+      <c r="M3" s="105"/>
+      <c r="N3" s="105"/>
+      <c r="O3" s="105"/>
+      <c r="P3" s="105"/>
+      <c r="Q3" s="105"/>
+      <c r="R3" s="105"/>
+      <c r="S3" s="105"/>
+      <c r="T3" s="105"/>
+      <c r="U3" s="105"/>
+      <c r="V3" s="105"/>
+      <c r="W3" s="105"/>
+      <c r="X3" s="105"/>
     </row>
     <row r="4" spans="1:24" s="16" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="106" t="s">
+      <c r="A4" s="103" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="106" t="s">
+      <c r="B4" s="103" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="106" t="s">
+      <c r="C4" s="103" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="106" t="s">
+      <c r="D4" s="103" t="s">
         <v>33</v>
       </c>
-      <c r="E4" s="115" t="s">
+      <c r="E4" s="112" t="s">
         <v>27</v>
       </c>
       <c r="F4" s="48"/>
@@ -8131,22 +7816,22 @@
       <c r="S4" s="14"/>
       <c r="T4" s="14"/>
       <c r="U4" s="45"/>
-      <c r="V4" s="111" t="s">
+      <c r="V4" s="108" t="s">
         <v>36</v>
       </c>
-      <c r="W4" s="113" t="s">
+      <c r="W4" s="110" t="s">
         <v>37</v>
       </c>
-      <c r="X4" s="113" t="s">
+      <c r="X4" s="110" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:24" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="107"/>
-      <c r="B5" s="107"/>
-      <c r="C5" s="107"/>
-      <c r="D5" s="107"/>
-      <c r="E5" s="116"/>
+      <c r="A5" s="104"/>
+      <c r="B5" s="104"/>
+      <c r="C5" s="104"/>
+      <c r="D5" s="104"/>
+      <c r="E5" s="113"/>
       <c r="F5" s="49"/>
       <c r="G5" s="42">
         <v>1</v>
@@ -8191,9 +7876,9 @@
         <v>14</v>
       </c>
       <c r="U5" s="44"/>
-      <c r="V5" s="112"/>
-      <c r="W5" s="114"/>
-      <c r="X5" s="114"/>
+      <c r="V5" s="109"/>
+      <c r="W5" s="111"/>
+      <c r="X5" s="111"/>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6" s="17">
@@ -9751,7 +9436,7 @@
   <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9771,13 +9456,13 @@
         <v>7</v>
       </c>
       <c r="B1" s="72" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D1" s="72" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F1" s="72" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H1" s="75" t="s">
         <v>38</v>
@@ -9793,179 +9478,179 @@
       <c r="D2" s="81" t="s">
         <v>46</v>
       </c>
-      <c r="F2" s="73" t="s">
+      <c r="F2" s="81" t="s">
+        <v>81</v>
+      </c>
+      <c r="H2" s="78" t="s">
         <v>82</v>
-      </c>
-      <c r="H2" s="78" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="73" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B3" s="73" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D3" s="73" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F3" s="73" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H3" s="78" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="73" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B4" s="73" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D4" s="73" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F4" s="73" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H4" s="78" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="73" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B5" s="73" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D5" s="73" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F5" s="73" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H5" s="76"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="73" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B6" s="73" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D6" s="73" t="s">
-        <v>62</v>
-      </c>
-      <c r="F6" s="73" t="s">
-        <v>96</v>
+        <v>61</v>
+      </c>
+      <c r="F6" s="94" t="s">
+        <v>139</v>
       </c>
       <c r="H6" s="76"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="73" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B7" s="73" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D7" s="73" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F7" s="73" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="H7" s="76"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="73" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B8" s="73" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D8" s="73" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F8" s="73" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="H8" s="76"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="73" t="s">
+        <v>72</v>
+      </c>
+      <c r="B9" s="73" t="s">
         <v>73</v>
       </c>
-      <c r="B9" s="73" t="s">
-        <v>74</v>
-      </c>
       <c r="D9" s="73" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F9" s="73" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="H9" s="76"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="73" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B10" s="73" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D10" s="73" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F10" s="73" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H10" s="76"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="73" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B11" s="73" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D11" s="73" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F11" s="73" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="H11" s="76"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="73" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B12" s="73" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D12" s="73" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F12" s="73" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="H12" s="76"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="73" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B13" s="73" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D13" s="73" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F13" s="73" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="H13" s="76"/>
     </row>
@@ -9973,10 +9658,10 @@
       <c r="A14" s="73"/>
       <c r="B14" s="73"/>
       <c r="D14" s="73" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F14" s="73" t="s">
-        <v>104</v>
+        <v>128</v>
       </c>
       <c r="H14" s="76"/>
     </row>
@@ -9984,10 +9669,10 @@
       <c r="A15" s="73"/>
       <c r="B15" s="73"/>
       <c r="D15" s="73" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F15" s="73" t="s">
-        <v>128</v>
+        <v>102</v>
       </c>
       <c r="H15" s="76"/>
     </row>
@@ -9996,7 +9681,7 @@
       <c r="B16" s="73"/>
       <c r="D16" s="73"/>
       <c r="F16" s="73" t="s">
-        <v>129</v>
+        <v>103</v>
       </c>
       <c r="H16" s="76"/>
     </row>
@@ -10004,14 +9689,18 @@
       <c r="A17" s="73"/>
       <c r="B17" s="73"/>
       <c r="D17" s="73"/>
-      <c r="F17" s="73"/>
+      <c r="F17" s="73" t="s">
+        <v>127</v>
+      </c>
       <c r="H17" s="76"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="73"/>
       <c r="B18" s="73"/>
       <c r="D18" s="73"/>
-      <c r="F18" s="73"/>
+      <c r="F18" s="73" t="s">
+        <v>138</v>
+      </c>
       <c r="H18" s="76"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">

--- a/src/spz/templates/export/spanisch_hueber.xlsx
+++ b/src/spz/templates/export/spanisch_hueber.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27628"/>
   <workbookPr showInkAnnotation="0" updateLinks="never" codeName="DieseArbeitsmappe" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s_hiwi\Documents\Datenbank\excel_templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\04_Hiwi\Datenbank\excel_templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99E99018-E688-4939-8845-29C8DD32BD8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RAWDATA" sheetId="11" r:id="rId1"/>
@@ -24,12 +25,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Notenliste!$H$1:$M$29</definedName>
     <definedName name="DOZENT">OFFSET(Einstellungen!$F$2,,,COUNTIF(Einstellungen!$F$2:$F$20,"&gt;"""),)</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">Extrapunkte!$A$1:$J$30</definedName>
     <definedName name="ECTS">OFFSET(Einstellungen!$H$2,,,COUNTIF(Einstellungen!$H$2:$H$20,"&gt;"""),)</definedName>
     <definedName name="KURSNAME">OFFSET(Einstellungen!$A$2,,,COUNTIF(Einstellungen!$A$2:$A$20,"&gt;"""),)</definedName>
     <definedName name="NIVEAU">OFFSET(Einstellungen!$D$2,,,COUNTIF(Einstellungen!$D$2:$D$22,"&gt;"""),)</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">Extrapunkte!$A$1:$J$30</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -38,6 +39,8 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -45,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="141">
   <si>
     <t>Name</t>
   </si>
@@ -589,11 +592,14 @@
   <si>
     <t>Gabriela Fahra</t>
   </si>
+  <si>
+    <t>applicant.sanitized_grade</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="#"/>
@@ -904,7 +910,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="114">
+  <cellXfs count="105">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
@@ -1137,38 +1143,17 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1" applyProtection="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1221,10 +1206,37 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
-    <cellStyle name="Standard 2" xfId="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="19">
+    <dxf>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -1251,42 +1263,6 @@
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <protection locked="0" hidden="0"/>
@@ -1333,7 +1309,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="de-DE"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1583,49 +1559,50 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="DATA" displayName="DATA" ref="B1:G2" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17">
-  <autoFilter ref="B1:G2"/>
-  <tableColumns count="6">
-    <tableColumn id="1" name="Nachname" dataDxfId="16"/>
-    <tableColumn id="2" name="Vorname" dataDxfId="15"/>
-    <tableColumn id="3" name="Hochschule" dataDxfId="14"/>
-    <tableColumn id="4" name="Matrikelnummer" dataDxfId="13"/>
-    <tableColumn id="5" name="E-Mail" dataDxfId="12"/>
-    <tableColumn id="6" name="Telefon" dataDxfId="11"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="DATA" displayName="DATA" ref="B1:H2" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17">
+  <autoFilter ref="B1:H2" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Nachname" dataDxfId="16"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Vorname" dataDxfId="15"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Hochschule" dataDxfId="14"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Matrikelnummer" dataDxfId="13"/>
+    <tableColumn id="7" xr3:uid="{01D0AFE4-6A90-4E08-9A72-81C78BA84D03}" name="Note" dataDxfId="0"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="E-Mail" dataDxfId="12"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Telefon" dataDxfId="11"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabelle1" displayName="Tabelle1" ref="A1:H26" totalsRowShown="0">
-  <autoFilter ref="A1:H26"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tabelle1" displayName="Tabelle1" ref="A1:H26" totalsRowShown="0">
+  <autoFilter ref="A1:H26" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="8">
-    <tableColumn id="1" name="Matrikelnummer" dataDxfId="7" totalsRowDxfId="6">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Matrikelnummer" dataDxfId="10" totalsRowDxfId="9">
       <calculatedColumnFormula>IF(Notenliste!D2=0," ",Notenliste!D2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="Status"/>
-    <tableColumn id="3" name="LP" dataDxfId="5">
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Status"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="LP" dataDxfId="8">
       <calculatedColumnFormula>IF(Notenliste!D2&lt;&gt;0,Notenliste!$B$33," ")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="Note" dataDxfId="4" totalsRowDxfId="3">
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Note" dataDxfId="7" totalsRowDxfId="6">
       <calculatedColumnFormula>IF(Notenliste!F2="KP"," ",IF(Notenliste!F2="NB","nicht bestanden",Notenliste!F2))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="Datum" dataDxfId="2">
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="Datum" dataDxfId="5">
       <calculatedColumnFormula>IF(Notenliste!D2&lt;&gt;0,Notenliste!$B$37," ")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Individueller Titel deutsch" dataDxfId="1"/>
-    <tableColumn id="7" name="Individueller Titel englisch" dataDxfId="0"/>
-    <tableColumn id="8" name="Anmerkungen"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Individueller Titel deutsch" dataDxfId="4"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="Individueller Titel englisch" dataDxfId="3"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="Anmerkungen"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1663,9 +1640,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1700,7 +1677,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1735,7 +1712,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1908,30 +1885,30 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Tabelle1"/>
-  <dimension ref="A1:XFC26"/>
+  <dimension ref="A1:XFD26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4" zeroHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="3" customWidth="1"/>
-    <col min="2" max="2" width="28.28515625" customWidth="1"/>
-    <col min="3" max="3" width="26.42578125" customWidth="1"/>
+    <col min="2" max="2" width="28.33203125" customWidth="1"/>
+    <col min="3" max="3" width="26.44140625" customWidth="1"/>
     <col min="4" max="4" width="14" customWidth="1"/>
-    <col min="5" max="5" width="18.42578125" style="13" customWidth="1"/>
-    <col min="6" max="6" width="37.140625" customWidth="1"/>
-    <col min="7" max="7" width="31" customWidth="1"/>
-    <col min="8" max="8" width="45.140625" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="10.28515625" hidden="1" customWidth="1"/>
-    <col min="10" max="16383" width="11.42578125" hidden="1"/>
-    <col min="16384" max="16384" width="16.42578125" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="18.44140625" style="13" customWidth="1"/>
+    <col min="6" max="6" width="8.33203125" style="13" customWidth="1"/>
+    <col min="7" max="7" width="37.109375" customWidth="1"/>
+    <col min="8" max="8" width="31" customWidth="1"/>
+    <col min="9" max="9" width="45.109375" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="10.33203125" hidden="1" customWidth="1"/>
+    <col min="11" max="16384" width="11.44140625" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="39" t="s">
         <v>24</v>
       </c>
@@ -1947,20 +1924,23 @@
       <c r="E1" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="F1" s="39" t="s">
+      <c r="F1" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="39" t="s">
+      <c r="H1" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="H1" s="39" t="s">
+      <c r="I1" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="I1" s="39" t="s">
+      <c r="J1" s="39" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1977,15 +1957,18 @@
         <v>117</v>
       </c>
       <c r="F2" s="37" t="s">
+        <v>140</v>
+      </c>
+      <c r="G2" s="37" t="s">
         <v>118</v>
       </c>
-      <c r="G2" s="37" t="s">
+      <c r="H2" s="37" t="s">
         <v>119</v>
       </c>
-      <c r="H2" s="37"/>
       <c r="I2" s="37"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J2" s="37"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1997,8 +1980,9 @@
       <c r="G3" s="37"/>
       <c r="H3" s="37"/>
       <c r="I3" s="37"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J3" s="37"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2010,8 +1994,9 @@
       <c r="G4" s="37"/>
       <c r="H4" s="37"/>
       <c r="I4" s="37"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J4" s="37"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2023,8 +2008,9 @@
       <c r="G5" s="37"/>
       <c r="H5" s="37"/>
       <c r="I5" s="37"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J5" s="37"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2036,8 +2022,9 @@
       <c r="G6" s="37"/>
       <c r="H6" s="37"/>
       <c r="I6" s="37"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J6" s="37"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2049,8 +2036,9 @@
       <c r="G7" s="37"/>
       <c r="H7" s="37"/>
       <c r="I7" s="37"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J7" s="37"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -2062,8 +2050,9 @@
       <c r="G8" s="37"/>
       <c r="H8" s="37"/>
       <c r="I8" s="37"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J8" s="37"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -2075,8 +2064,9 @@
       <c r="G9" s="37"/>
       <c r="H9" s="37"/>
       <c r="I9" s="37"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J9" s="37"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -2088,8 +2078,9 @@
       <c r="G10" s="37"/>
       <c r="H10" s="37"/>
       <c r="I10" s="37"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J10" s="37"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -2101,8 +2092,9 @@
       <c r="G11" s="37"/>
       <c r="H11" s="37"/>
       <c r="I11" s="37"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J11" s="37"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -2114,8 +2106,9 @@
       <c r="G12" s="37"/>
       <c r="H12" s="37"/>
       <c r="I12" s="37"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J12" s="37"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -2127,8 +2120,9 @@
       <c r="G13" s="37"/>
       <c r="H13" s="37"/>
       <c r="I13" s="37"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J13" s="37"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -2140,8 +2134,9 @@
       <c r="G14" s="37"/>
       <c r="H14" s="37"/>
       <c r="I14" s="37"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J14" s="37"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -2153,8 +2148,9 @@
       <c r="G15" s="37"/>
       <c r="H15" s="37"/>
       <c r="I15" s="37"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J15" s="37"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -2166,8 +2162,9 @@
       <c r="G16" s="37"/>
       <c r="H16" s="37"/>
       <c r="I16" s="37"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J16" s="37"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
@@ -2179,8 +2176,9 @@
       <c r="G17" s="37"/>
       <c r="H17" s="37"/>
       <c r="I17" s="37"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J17" s="37"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
@@ -2192,8 +2190,9 @@
       <c r="G18" s="37"/>
       <c r="H18" s="37"/>
       <c r="I18" s="37"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J18" s="37"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
@@ -2205,8 +2204,9 @@
       <c r="G19" s="37"/>
       <c r="H19" s="37"/>
       <c r="I19" s="37"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J19" s="37"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
@@ -2218,8 +2218,9 @@
       <c r="G20" s="37"/>
       <c r="H20" s="37"/>
       <c r="I20" s="37"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J20" s="37"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
@@ -2231,8 +2232,9 @@
       <c r="G21" s="37"/>
       <c r="H21" s="37"/>
       <c r="I21" s="37"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J21" s="37"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
@@ -2244,8 +2246,9 @@
       <c r="G22" s="37"/>
       <c r="H22" s="37"/>
       <c r="I22" s="37"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J22" s="37"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
@@ -2257,8 +2260,9 @@
       <c r="G23" s="37"/>
       <c r="H23" s="37"/>
       <c r="I23" s="37"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J23" s="37"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
@@ -2266,12 +2270,13 @@
       <c r="C24" s="37"/>
       <c r="D24" s="37"/>
       <c r="E24" s="38"/>
-      <c r="F24" s="37"/>
+      <c r="F24" s="38"/>
       <c r="G24" s="37"/>
       <c r="H24" s="37"/>
       <c r="I24" s="37"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J24" s="37"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
@@ -2279,12 +2284,13 @@
       <c r="C25" s="37"/>
       <c r="D25" s="37"/>
       <c r="E25" s="38"/>
-      <c r="F25" s="37"/>
+      <c r="F25" s="38"/>
       <c r="G25" s="37"/>
       <c r="H25" s="37"/>
       <c r="I25" s="37"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J25" s="37"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
@@ -2292,10 +2298,11 @@
       <c r="C26" s="37"/>
       <c r="D26" s="37"/>
       <c r="E26" s="38"/>
-      <c r="F26" s="37"/>
+      <c r="F26" s="38"/>
       <c r="G26" s="37"/>
       <c r="H26" s="37"/>
       <c r="I26" s="37"/>
+      <c r="J26" s="37"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1" formatColumns="0" selectLockedCells="1"/>
@@ -2308,552 +2315,552 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Tabelle2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:WVR38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O2" sqref="O2"/>
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="13.9" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="13.95" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.42578125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="18.28515625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="10.7109375" style="3" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" style="11" customWidth="1"/>
-    <col min="6" max="6" width="8.42578125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="2.28515625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="6.140625" style="2" customWidth="1"/>
-    <col min="9" max="10" width="5.7109375" style="2" customWidth="1"/>
-    <col min="11" max="11" width="8.140625" style="2" customWidth="1"/>
-    <col min="12" max="12" width="7.42578125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="15.44140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.33203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="11.44140625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="10.6640625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="11.44140625" style="11" customWidth="1"/>
+    <col min="6" max="6" width="8.44140625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="2.33203125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="6.109375" style="2" customWidth="1"/>
+    <col min="9" max="10" width="5.6640625" style="2" customWidth="1"/>
+    <col min="11" max="11" width="8.109375" style="2" customWidth="1"/>
+    <col min="12" max="12" width="7.44140625" style="2" customWidth="1"/>
     <col min="13" max="13" width="8" style="2" customWidth="1"/>
-    <col min="14" max="14" width="2.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="5.7109375" style="1" customWidth="1"/>
-    <col min="16" max="16" width="5.7109375" style="2" customWidth="1"/>
-    <col min="17" max="17" width="5.7109375" style="1" customWidth="1"/>
-    <col min="18" max="18" width="2.7109375" style="1" customWidth="1"/>
-    <col min="19" max="19" width="17.7109375" style="1" hidden="1"/>
+    <col min="14" max="14" width="2.6640625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="5.6640625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="5.6640625" style="2" customWidth="1"/>
+    <col min="17" max="17" width="5.6640625" style="1" customWidth="1"/>
+    <col min="18" max="18" width="2.6640625" style="1" customWidth="1"/>
+    <col min="19" max="19" width="17.6640625" style="1" hidden="1"/>
     <col min="20" max="20" width="16" style="1" hidden="1"/>
-    <col min="21" max="21" width="17.7109375" style="1" hidden="1"/>
+    <col min="21" max="21" width="17.6640625" style="1" hidden="1"/>
     <col min="22" max="22" width="3" style="1" hidden="1"/>
-    <col min="23" max="247" width="11.42578125" style="1" hidden="1"/>
-    <col min="248" max="248" width="15.42578125" style="1" hidden="1"/>
-    <col min="249" max="249" width="11.42578125" style="1" hidden="1"/>
-    <col min="250" max="250" width="15.7109375" style="1" hidden="1"/>
-    <col min="251" max="251" width="21.7109375" style="1" hidden="1"/>
-    <col min="252" max="254" width="11.42578125" style="1" hidden="1"/>
+    <col min="23" max="247" width="11.44140625" style="1" hidden="1"/>
+    <col min="248" max="248" width="15.44140625" style="1" hidden="1"/>
+    <col min="249" max="249" width="11.44140625" style="1" hidden="1"/>
+    <col min="250" max="250" width="15.6640625" style="1" hidden="1"/>
+    <col min="251" max="251" width="21.6640625" style="1" hidden="1"/>
+    <col min="252" max="254" width="11.44140625" style="1" hidden="1"/>
     <col min="255" max="255" width="16" style="1" hidden="1"/>
-    <col min="256" max="256" width="20.42578125" style="1" hidden="1"/>
-    <col min="257" max="503" width="11.42578125" style="1" hidden="1"/>
-    <col min="504" max="504" width="15.42578125" style="1" hidden="1"/>
-    <col min="505" max="505" width="11.42578125" style="1" hidden="1"/>
-    <col min="506" max="506" width="15.7109375" style="1" hidden="1"/>
-    <col min="507" max="507" width="21.7109375" style="1" hidden="1"/>
-    <col min="508" max="510" width="11.42578125" style="1" hidden="1"/>
+    <col min="256" max="256" width="20.44140625" style="1" hidden="1"/>
+    <col min="257" max="503" width="11.44140625" style="1" hidden="1"/>
+    <col min="504" max="504" width="15.44140625" style="1" hidden="1"/>
+    <col min="505" max="505" width="11.44140625" style="1" hidden="1"/>
+    <col min="506" max="506" width="15.6640625" style="1" hidden="1"/>
+    <col min="507" max="507" width="21.6640625" style="1" hidden="1"/>
+    <col min="508" max="510" width="11.44140625" style="1" hidden="1"/>
     <col min="511" max="511" width="16" style="1" hidden="1"/>
-    <col min="512" max="512" width="20.42578125" style="1" hidden="1"/>
-    <col min="513" max="759" width="11.42578125" style="1" hidden="1"/>
-    <col min="760" max="760" width="15.42578125" style="1" hidden="1"/>
-    <col min="761" max="761" width="11.42578125" style="1" hidden="1"/>
-    <col min="762" max="762" width="15.7109375" style="1" hidden="1"/>
-    <col min="763" max="763" width="21.7109375" style="1" hidden="1"/>
-    <col min="764" max="766" width="11.42578125" style="1" hidden="1"/>
+    <col min="512" max="512" width="20.44140625" style="1" hidden="1"/>
+    <col min="513" max="759" width="11.44140625" style="1" hidden="1"/>
+    <col min="760" max="760" width="15.44140625" style="1" hidden="1"/>
+    <col min="761" max="761" width="11.44140625" style="1" hidden="1"/>
+    <col min="762" max="762" width="15.6640625" style="1" hidden="1"/>
+    <col min="763" max="763" width="21.6640625" style="1" hidden="1"/>
+    <col min="764" max="766" width="11.44140625" style="1" hidden="1"/>
     <col min="767" max="767" width="16" style="1" hidden="1"/>
-    <col min="768" max="768" width="20.42578125" style="1" hidden="1"/>
-    <col min="769" max="1015" width="11.42578125" style="1" hidden="1"/>
-    <col min="1016" max="1016" width="15.42578125" style="1" hidden="1"/>
-    <col min="1017" max="1017" width="11.42578125" style="1" hidden="1"/>
-    <col min="1018" max="1018" width="15.7109375" style="1" hidden="1"/>
-    <col min="1019" max="1019" width="21.7109375" style="1" hidden="1"/>
-    <col min="1020" max="1022" width="11.42578125" style="1" hidden="1"/>
+    <col min="768" max="768" width="20.44140625" style="1" hidden="1"/>
+    <col min="769" max="1015" width="11.44140625" style="1" hidden="1"/>
+    <col min="1016" max="1016" width="15.44140625" style="1" hidden="1"/>
+    <col min="1017" max="1017" width="11.44140625" style="1" hidden="1"/>
+    <col min="1018" max="1018" width="15.6640625" style="1" hidden="1"/>
+    <col min="1019" max="1019" width="21.6640625" style="1" hidden="1"/>
+    <col min="1020" max="1022" width="11.44140625" style="1" hidden="1"/>
     <col min="1023" max="1023" width="16" style="1" hidden="1"/>
-    <col min="1024" max="1024" width="20.42578125" style="1" hidden="1"/>
-    <col min="1025" max="1271" width="11.42578125" style="1" hidden="1"/>
-    <col min="1272" max="1272" width="15.42578125" style="1" hidden="1"/>
-    <col min="1273" max="1273" width="11.42578125" style="1" hidden="1"/>
-    <col min="1274" max="1274" width="15.7109375" style="1" hidden="1"/>
-    <col min="1275" max="1275" width="21.7109375" style="1" hidden="1"/>
-    <col min="1276" max="1278" width="11.42578125" style="1" hidden="1"/>
+    <col min="1024" max="1024" width="20.44140625" style="1" hidden="1"/>
+    <col min="1025" max="1271" width="11.44140625" style="1" hidden="1"/>
+    <col min="1272" max="1272" width="15.44140625" style="1" hidden="1"/>
+    <col min="1273" max="1273" width="11.44140625" style="1" hidden="1"/>
+    <col min="1274" max="1274" width="15.6640625" style="1" hidden="1"/>
+    <col min="1275" max="1275" width="21.6640625" style="1" hidden="1"/>
+    <col min="1276" max="1278" width="11.44140625" style="1" hidden="1"/>
     <col min="1279" max="1279" width="16" style="1" hidden="1"/>
-    <col min="1280" max="1280" width="20.42578125" style="1" hidden="1"/>
-    <col min="1281" max="1527" width="11.42578125" style="1" hidden="1"/>
-    <col min="1528" max="1528" width="15.42578125" style="1" hidden="1"/>
-    <col min="1529" max="1529" width="11.42578125" style="1" hidden="1"/>
-    <col min="1530" max="1530" width="15.7109375" style="1" hidden="1"/>
-    <col min="1531" max="1531" width="21.7109375" style="1" hidden="1"/>
-    <col min="1532" max="1534" width="11.42578125" style="1" hidden="1"/>
+    <col min="1280" max="1280" width="20.44140625" style="1" hidden="1"/>
+    <col min="1281" max="1527" width="11.44140625" style="1" hidden="1"/>
+    <col min="1528" max="1528" width="15.44140625" style="1" hidden="1"/>
+    <col min="1529" max="1529" width="11.44140625" style="1" hidden="1"/>
+    <col min="1530" max="1530" width="15.6640625" style="1" hidden="1"/>
+    <col min="1531" max="1531" width="21.6640625" style="1" hidden="1"/>
+    <col min="1532" max="1534" width="11.44140625" style="1" hidden="1"/>
     <col min="1535" max="1535" width="16" style="1" hidden="1"/>
-    <col min="1536" max="1536" width="20.42578125" style="1" hidden="1"/>
-    <col min="1537" max="1783" width="11.42578125" style="1" hidden="1"/>
-    <col min="1784" max="1784" width="15.42578125" style="1" hidden="1"/>
-    <col min="1785" max="1785" width="11.42578125" style="1" hidden="1"/>
-    <col min="1786" max="1786" width="15.7109375" style="1" hidden="1"/>
-    <col min="1787" max="1787" width="21.7109375" style="1" hidden="1"/>
-    <col min="1788" max="1790" width="11.42578125" style="1" hidden="1"/>
+    <col min="1536" max="1536" width="20.44140625" style="1" hidden="1"/>
+    <col min="1537" max="1783" width="11.44140625" style="1" hidden="1"/>
+    <col min="1784" max="1784" width="15.44140625" style="1" hidden="1"/>
+    <col min="1785" max="1785" width="11.44140625" style="1" hidden="1"/>
+    <col min="1786" max="1786" width="15.6640625" style="1" hidden="1"/>
+    <col min="1787" max="1787" width="21.6640625" style="1" hidden="1"/>
+    <col min="1788" max="1790" width="11.44140625" style="1" hidden="1"/>
     <col min="1791" max="1791" width="16" style="1" hidden="1"/>
-    <col min="1792" max="1792" width="20.42578125" style="1" hidden="1"/>
-    <col min="1793" max="2039" width="11.42578125" style="1" hidden="1"/>
-    <col min="2040" max="2040" width="15.42578125" style="1" hidden="1"/>
-    <col min="2041" max="2041" width="11.42578125" style="1" hidden="1"/>
-    <col min="2042" max="2042" width="15.7109375" style="1" hidden="1"/>
-    <col min="2043" max="2043" width="21.7109375" style="1" hidden="1"/>
-    <col min="2044" max="2046" width="11.42578125" style="1" hidden="1"/>
+    <col min="1792" max="1792" width="20.44140625" style="1" hidden="1"/>
+    <col min="1793" max="2039" width="11.44140625" style="1" hidden="1"/>
+    <col min="2040" max="2040" width="15.44140625" style="1" hidden="1"/>
+    <col min="2041" max="2041" width="11.44140625" style="1" hidden="1"/>
+    <col min="2042" max="2042" width="15.6640625" style="1" hidden="1"/>
+    <col min="2043" max="2043" width="21.6640625" style="1" hidden="1"/>
+    <col min="2044" max="2046" width="11.44140625" style="1" hidden="1"/>
     <col min="2047" max="2047" width="16" style="1" hidden="1"/>
-    <col min="2048" max="2048" width="20.42578125" style="1" hidden="1"/>
-    <col min="2049" max="2295" width="11.42578125" style="1" hidden="1"/>
-    <col min="2296" max="2296" width="15.42578125" style="1" hidden="1"/>
-    <col min="2297" max="2297" width="11.42578125" style="1" hidden="1"/>
-    <col min="2298" max="2298" width="15.7109375" style="1" hidden="1"/>
-    <col min="2299" max="2299" width="21.7109375" style="1" hidden="1"/>
-    <col min="2300" max="2302" width="11.42578125" style="1" hidden="1"/>
+    <col min="2048" max="2048" width="20.44140625" style="1" hidden="1"/>
+    <col min="2049" max="2295" width="11.44140625" style="1" hidden="1"/>
+    <col min="2296" max="2296" width="15.44140625" style="1" hidden="1"/>
+    <col min="2297" max="2297" width="11.44140625" style="1" hidden="1"/>
+    <col min="2298" max="2298" width="15.6640625" style="1" hidden="1"/>
+    <col min="2299" max="2299" width="21.6640625" style="1" hidden="1"/>
+    <col min="2300" max="2302" width="11.44140625" style="1" hidden="1"/>
     <col min="2303" max="2303" width="16" style="1" hidden="1"/>
-    <col min="2304" max="2304" width="20.42578125" style="1" hidden="1"/>
-    <col min="2305" max="2551" width="11.42578125" style="1" hidden="1"/>
-    <col min="2552" max="2552" width="15.42578125" style="1" hidden="1"/>
-    <col min="2553" max="2553" width="11.42578125" style="1" hidden="1"/>
-    <col min="2554" max="2554" width="15.7109375" style="1" hidden="1"/>
-    <col min="2555" max="2555" width="21.7109375" style="1" hidden="1"/>
-    <col min="2556" max="2558" width="11.42578125" style="1" hidden="1"/>
+    <col min="2304" max="2304" width="20.44140625" style="1" hidden="1"/>
+    <col min="2305" max="2551" width="11.44140625" style="1" hidden="1"/>
+    <col min="2552" max="2552" width="15.44140625" style="1" hidden="1"/>
+    <col min="2553" max="2553" width="11.44140625" style="1" hidden="1"/>
+    <col min="2554" max="2554" width="15.6640625" style="1" hidden="1"/>
+    <col min="2555" max="2555" width="21.6640625" style="1" hidden="1"/>
+    <col min="2556" max="2558" width="11.44140625" style="1" hidden="1"/>
     <col min="2559" max="2559" width="16" style="1" hidden="1"/>
-    <col min="2560" max="2560" width="20.42578125" style="1" hidden="1"/>
-    <col min="2561" max="2807" width="11.42578125" style="1" hidden="1"/>
-    <col min="2808" max="2808" width="15.42578125" style="1" hidden="1"/>
-    <col min="2809" max="2809" width="11.42578125" style="1" hidden="1"/>
-    <col min="2810" max="2810" width="15.7109375" style="1" hidden="1"/>
-    <col min="2811" max="2811" width="21.7109375" style="1" hidden="1"/>
-    <col min="2812" max="2814" width="11.42578125" style="1" hidden="1"/>
+    <col min="2560" max="2560" width="20.44140625" style="1" hidden="1"/>
+    <col min="2561" max="2807" width="11.44140625" style="1" hidden="1"/>
+    <col min="2808" max="2808" width="15.44140625" style="1" hidden="1"/>
+    <col min="2809" max="2809" width="11.44140625" style="1" hidden="1"/>
+    <col min="2810" max="2810" width="15.6640625" style="1" hidden="1"/>
+    <col min="2811" max="2811" width="21.6640625" style="1" hidden="1"/>
+    <col min="2812" max="2814" width="11.44140625" style="1" hidden="1"/>
     <col min="2815" max="2815" width="16" style="1" hidden="1"/>
-    <col min="2816" max="2816" width="20.42578125" style="1" hidden="1"/>
-    <col min="2817" max="3063" width="11.42578125" style="1" hidden="1"/>
-    <col min="3064" max="3064" width="15.42578125" style="1" hidden="1"/>
-    <col min="3065" max="3065" width="11.42578125" style="1" hidden="1"/>
-    <col min="3066" max="3066" width="15.7109375" style="1" hidden="1"/>
-    <col min="3067" max="3067" width="21.7109375" style="1" hidden="1"/>
-    <col min="3068" max="3070" width="11.42578125" style="1" hidden="1"/>
+    <col min="2816" max="2816" width="20.44140625" style="1" hidden="1"/>
+    <col min="2817" max="3063" width="11.44140625" style="1" hidden="1"/>
+    <col min="3064" max="3064" width="15.44140625" style="1" hidden="1"/>
+    <col min="3065" max="3065" width="11.44140625" style="1" hidden="1"/>
+    <col min="3066" max="3066" width="15.6640625" style="1" hidden="1"/>
+    <col min="3067" max="3067" width="21.6640625" style="1" hidden="1"/>
+    <col min="3068" max="3070" width="11.44140625" style="1" hidden="1"/>
     <col min="3071" max="3071" width="16" style="1" hidden="1"/>
-    <col min="3072" max="3072" width="20.42578125" style="1" hidden="1"/>
-    <col min="3073" max="3319" width="11.42578125" style="1" hidden="1"/>
-    <col min="3320" max="3320" width="15.42578125" style="1" hidden="1"/>
-    <col min="3321" max="3321" width="11.42578125" style="1" hidden="1"/>
-    <col min="3322" max="3322" width="15.7109375" style="1" hidden="1"/>
-    <col min="3323" max="3323" width="21.7109375" style="1" hidden="1"/>
-    <col min="3324" max="3326" width="11.42578125" style="1" hidden="1"/>
+    <col min="3072" max="3072" width="20.44140625" style="1" hidden="1"/>
+    <col min="3073" max="3319" width="11.44140625" style="1" hidden="1"/>
+    <col min="3320" max="3320" width="15.44140625" style="1" hidden="1"/>
+    <col min="3321" max="3321" width="11.44140625" style="1" hidden="1"/>
+    <col min="3322" max="3322" width="15.6640625" style="1" hidden="1"/>
+    <col min="3323" max="3323" width="21.6640625" style="1" hidden="1"/>
+    <col min="3324" max="3326" width="11.44140625" style="1" hidden="1"/>
     <col min="3327" max="3327" width="16" style="1" hidden="1"/>
-    <col min="3328" max="3328" width="20.42578125" style="1" hidden="1"/>
-    <col min="3329" max="3575" width="11.42578125" style="1" hidden="1"/>
-    <col min="3576" max="3576" width="15.42578125" style="1" hidden="1"/>
-    <col min="3577" max="3577" width="11.42578125" style="1" hidden="1"/>
-    <col min="3578" max="3578" width="15.7109375" style="1" hidden="1"/>
-    <col min="3579" max="3579" width="21.7109375" style="1" hidden="1"/>
-    <col min="3580" max="3582" width="11.42578125" style="1" hidden="1"/>
+    <col min="3328" max="3328" width="20.44140625" style="1" hidden="1"/>
+    <col min="3329" max="3575" width="11.44140625" style="1" hidden="1"/>
+    <col min="3576" max="3576" width="15.44140625" style="1" hidden="1"/>
+    <col min="3577" max="3577" width="11.44140625" style="1" hidden="1"/>
+    <col min="3578" max="3578" width="15.6640625" style="1" hidden="1"/>
+    <col min="3579" max="3579" width="21.6640625" style="1" hidden="1"/>
+    <col min="3580" max="3582" width="11.44140625" style="1" hidden="1"/>
     <col min="3583" max="3583" width="16" style="1" hidden="1"/>
-    <col min="3584" max="3584" width="20.42578125" style="1" hidden="1"/>
-    <col min="3585" max="3831" width="11.42578125" style="1" hidden="1"/>
-    <col min="3832" max="3832" width="15.42578125" style="1" hidden="1"/>
-    <col min="3833" max="3833" width="11.42578125" style="1" hidden="1"/>
-    <col min="3834" max="3834" width="15.7109375" style="1" hidden="1"/>
-    <col min="3835" max="3835" width="21.7109375" style="1" hidden="1"/>
-    <col min="3836" max="3838" width="11.42578125" style="1" hidden="1"/>
+    <col min="3584" max="3584" width="20.44140625" style="1" hidden="1"/>
+    <col min="3585" max="3831" width="11.44140625" style="1" hidden="1"/>
+    <col min="3832" max="3832" width="15.44140625" style="1" hidden="1"/>
+    <col min="3833" max="3833" width="11.44140625" style="1" hidden="1"/>
+    <col min="3834" max="3834" width="15.6640625" style="1" hidden="1"/>
+    <col min="3835" max="3835" width="21.6640625" style="1" hidden="1"/>
+    <col min="3836" max="3838" width="11.44140625" style="1" hidden="1"/>
     <col min="3839" max="3839" width="16" style="1" hidden="1"/>
-    <col min="3840" max="3840" width="20.42578125" style="1" hidden="1"/>
-    <col min="3841" max="4087" width="11.42578125" style="1" hidden="1"/>
-    <col min="4088" max="4088" width="15.42578125" style="1" hidden="1"/>
-    <col min="4089" max="4089" width="11.42578125" style="1" hidden="1"/>
-    <col min="4090" max="4090" width="15.7109375" style="1" hidden="1"/>
-    <col min="4091" max="4091" width="21.7109375" style="1" hidden="1"/>
-    <col min="4092" max="4094" width="11.42578125" style="1" hidden="1"/>
+    <col min="3840" max="3840" width="20.44140625" style="1" hidden="1"/>
+    <col min="3841" max="4087" width="11.44140625" style="1" hidden="1"/>
+    <col min="4088" max="4088" width="15.44140625" style="1" hidden="1"/>
+    <col min="4089" max="4089" width="11.44140625" style="1" hidden="1"/>
+    <col min="4090" max="4090" width="15.6640625" style="1" hidden="1"/>
+    <col min="4091" max="4091" width="21.6640625" style="1" hidden="1"/>
+    <col min="4092" max="4094" width="11.44140625" style="1" hidden="1"/>
     <col min="4095" max="4095" width="16" style="1" hidden="1"/>
-    <col min="4096" max="4096" width="20.42578125" style="1" hidden="1"/>
-    <col min="4097" max="4343" width="11.42578125" style="1" hidden="1"/>
-    <col min="4344" max="4344" width="15.42578125" style="1" hidden="1"/>
-    <col min="4345" max="4345" width="11.42578125" style="1" hidden="1"/>
-    <col min="4346" max="4346" width="15.7109375" style="1" hidden="1"/>
-    <col min="4347" max="4347" width="21.7109375" style="1" hidden="1"/>
-    <col min="4348" max="4350" width="11.42578125" style="1" hidden="1"/>
+    <col min="4096" max="4096" width="20.44140625" style="1" hidden="1"/>
+    <col min="4097" max="4343" width="11.44140625" style="1" hidden="1"/>
+    <col min="4344" max="4344" width="15.44140625" style="1" hidden="1"/>
+    <col min="4345" max="4345" width="11.44140625" style="1" hidden="1"/>
+    <col min="4346" max="4346" width="15.6640625" style="1" hidden="1"/>
+    <col min="4347" max="4347" width="21.6640625" style="1" hidden="1"/>
+    <col min="4348" max="4350" width="11.44140625" style="1" hidden="1"/>
     <col min="4351" max="4351" width="16" style="1" hidden="1"/>
-    <col min="4352" max="4352" width="20.42578125" style="1" hidden="1"/>
-    <col min="4353" max="4599" width="11.42578125" style="1" hidden="1"/>
-    <col min="4600" max="4600" width="15.42578125" style="1" hidden="1"/>
-    <col min="4601" max="4601" width="11.42578125" style="1" hidden="1"/>
-    <col min="4602" max="4602" width="15.7109375" style="1" hidden="1"/>
-    <col min="4603" max="4603" width="21.7109375" style="1" hidden="1"/>
-    <col min="4604" max="4606" width="11.42578125" style="1" hidden="1"/>
+    <col min="4352" max="4352" width="20.44140625" style="1" hidden="1"/>
+    <col min="4353" max="4599" width="11.44140625" style="1" hidden="1"/>
+    <col min="4600" max="4600" width="15.44140625" style="1" hidden="1"/>
+    <col min="4601" max="4601" width="11.44140625" style="1" hidden="1"/>
+    <col min="4602" max="4602" width="15.6640625" style="1" hidden="1"/>
+    <col min="4603" max="4603" width="21.6640625" style="1" hidden="1"/>
+    <col min="4604" max="4606" width="11.44140625" style="1" hidden="1"/>
     <col min="4607" max="4607" width="16" style="1" hidden="1"/>
-    <col min="4608" max="4608" width="20.42578125" style="1" hidden="1"/>
-    <col min="4609" max="4855" width="11.42578125" style="1" hidden="1"/>
-    <col min="4856" max="4856" width="15.42578125" style="1" hidden="1"/>
-    <col min="4857" max="4857" width="11.42578125" style="1" hidden="1"/>
-    <col min="4858" max="4858" width="15.7109375" style="1" hidden="1"/>
-    <col min="4859" max="4859" width="21.7109375" style="1" hidden="1"/>
-    <col min="4860" max="4862" width="11.42578125" style="1" hidden="1"/>
+    <col min="4608" max="4608" width="20.44140625" style="1" hidden="1"/>
+    <col min="4609" max="4855" width="11.44140625" style="1" hidden="1"/>
+    <col min="4856" max="4856" width="15.44140625" style="1" hidden="1"/>
+    <col min="4857" max="4857" width="11.44140625" style="1" hidden="1"/>
+    <col min="4858" max="4858" width="15.6640625" style="1" hidden="1"/>
+    <col min="4859" max="4859" width="21.6640625" style="1" hidden="1"/>
+    <col min="4860" max="4862" width="11.44140625" style="1" hidden="1"/>
     <col min="4863" max="4863" width="16" style="1" hidden="1"/>
-    <col min="4864" max="4864" width="20.42578125" style="1" hidden="1"/>
-    <col min="4865" max="5111" width="11.42578125" style="1" hidden="1"/>
-    <col min="5112" max="5112" width="15.42578125" style="1" hidden="1"/>
-    <col min="5113" max="5113" width="11.42578125" style="1" hidden="1"/>
-    <col min="5114" max="5114" width="15.7109375" style="1" hidden="1"/>
-    <col min="5115" max="5115" width="21.7109375" style="1" hidden="1"/>
-    <col min="5116" max="5118" width="11.42578125" style="1" hidden="1"/>
+    <col min="4864" max="4864" width="20.44140625" style="1" hidden="1"/>
+    <col min="4865" max="5111" width="11.44140625" style="1" hidden="1"/>
+    <col min="5112" max="5112" width="15.44140625" style="1" hidden="1"/>
+    <col min="5113" max="5113" width="11.44140625" style="1" hidden="1"/>
+    <col min="5114" max="5114" width="15.6640625" style="1" hidden="1"/>
+    <col min="5115" max="5115" width="21.6640625" style="1" hidden="1"/>
+    <col min="5116" max="5118" width="11.44140625" style="1" hidden="1"/>
     <col min="5119" max="5119" width="16" style="1" hidden="1"/>
-    <col min="5120" max="5120" width="20.42578125" style="1" hidden="1"/>
-    <col min="5121" max="5367" width="11.42578125" style="1" hidden="1"/>
-    <col min="5368" max="5368" width="15.42578125" style="1" hidden="1"/>
-    <col min="5369" max="5369" width="11.42578125" style="1" hidden="1"/>
-    <col min="5370" max="5370" width="15.7109375" style="1" hidden="1"/>
-    <col min="5371" max="5371" width="21.7109375" style="1" hidden="1"/>
-    <col min="5372" max="5374" width="11.42578125" style="1" hidden="1"/>
+    <col min="5120" max="5120" width="20.44140625" style="1" hidden="1"/>
+    <col min="5121" max="5367" width="11.44140625" style="1" hidden="1"/>
+    <col min="5368" max="5368" width="15.44140625" style="1" hidden="1"/>
+    <col min="5369" max="5369" width="11.44140625" style="1" hidden="1"/>
+    <col min="5370" max="5370" width="15.6640625" style="1" hidden="1"/>
+    <col min="5371" max="5371" width="21.6640625" style="1" hidden="1"/>
+    <col min="5372" max="5374" width="11.44140625" style="1" hidden="1"/>
     <col min="5375" max="5375" width="16" style="1" hidden="1"/>
-    <col min="5376" max="5376" width="20.42578125" style="1" hidden="1"/>
-    <col min="5377" max="5623" width="11.42578125" style="1" hidden="1"/>
-    <col min="5624" max="5624" width="15.42578125" style="1" hidden="1"/>
-    <col min="5625" max="5625" width="11.42578125" style="1" hidden="1"/>
-    <col min="5626" max="5626" width="15.7109375" style="1" hidden="1"/>
-    <col min="5627" max="5627" width="21.7109375" style="1" hidden="1"/>
-    <col min="5628" max="5630" width="11.42578125" style="1" hidden="1"/>
+    <col min="5376" max="5376" width="20.44140625" style="1" hidden="1"/>
+    <col min="5377" max="5623" width="11.44140625" style="1" hidden="1"/>
+    <col min="5624" max="5624" width="15.44140625" style="1" hidden="1"/>
+    <col min="5625" max="5625" width="11.44140625" style="1" hidden="1"/>
+    <col min="5626" max="5626" width="15.6640625" style="1" hidden="1"/>
+    <col min="5627" max="5627" width="21.6640625" style="1" hidden="1"/>
+    <col min="5628" max="5630" width="11.44140625" style="1" hidden="1"/>
     <col min="5631" max="5631" width="16" style="1" hidden="1"/>
-    <col min="5632" max="5632" width="20.42578125" style="1" hidden="1"/>
-    <col min="5633" max="5879" width="11.42578125" style="1" hidden="1"/>
-    <col min="5880" max="5880" width="15.42578125" style="1" hidden="1"/>
-    <col min="5881" max="5881" width="11.42578125" style="1" hidden="1"/>
-    <col min="5882" max="5882" width="15.7109375" style="1" hidden="1"/>
-    <col min="5883" max="5883" width="21.7109375" style="1" hidden="1"/>
-    <col min="5884" max="5886" width="11.42578125" style="1" hidden="1"/>
+    <col min="5632" max="5632" width="20.44140625" style="1" hidden="1"/>
+    <col min="5633" max="5879" width="11.44140625" style="1" hidden="1"/>
+    <col min="5880" max="5880" width="15.44140625" style="1" hidden="1"/>
+    <col min="5881" max="5881" width="11.44140625" style="1" hidden="1"/>
+    <col min="5882" max="5882" width="15.6640625" style="1" hidden="1"/>
+    <col min="5883" max="5883" width="21.6640625" style="1" hidden="1"/>
+    <col min="5884" max="5886" width="11.44140625" style="1" hidden="1"/>
     <col min="5887" max="5887" width="16" style="1" hidden="1"/>
-    <col min="5888" max="5888" width="20.42578125" style="1" hidden="1"/>
-    <col min="5889" max="6135" width="11.42578125" style="1" hidden="1"/>
-    <col min="6136" max="6136" width="15.42578125" style="1" hidden="1"/>
-    <col min="6137" max="6137" width="11.42578125" style="1" hidden="1"/>
-    <col min="6138" max="6138" width="15.7109375" style="1" hidden="1"/>
-    <col min="6139" max="6139" width="21.7109375" style="1" hidden="1"/>
-    <col min="6140" max="6142" width="11.42578125" style="1" hidden="1"/>
+    <col min="5888" max="5888" width="20.44140625" style="1" hidden="1"/>
+    <col min="5889" max="6135" width="11.44140625" style="1" hidden="1"/>
+    <col min="6136" max="6136" width="15.44140625" style="1" hidden="1"/>
+    <col min="6137" max="6137" width="11.44140625" style="1" hidden="1"/>
+    <col min="6138" max="6138" width="15.6640625" style="1" hidden="1"/>
+    <col min="6139" max="6139" width="21.6640625" style="1" hidden="1"/>
+    <col min="6140" max="6142" width="11.44140625" style="1" hidden="1"/>
     <col min="6143" max="6143" width="16" style="1" hidden="1"/>
-    <col min="6144" max="6144" width="20.42578125" style="1" hidden="1"/>
-    <col min="6145" max="6391" width="11.42578125" style="1" hidden="1"/>
-    <col min="6392" max="6392" width="15.42578125" style="1" hidden="1"/>
-    <col min="6393" max="6393" width="11.42578125" style="1" hidden="1"/>
-    <col min="6394" max="6394" width="15.7109375" style="1" hidden="1"/>
-    <col min="6395" max="6395" width="21.7109375" style="1" hidden="1"/>
-    <col min="6396" max="6398" width="11.42578125" style="1" hidden="1"/>
+    <col min="6144" max="6144" width="20.44140625" style="1" hidden="1"/>
+    <col min="6145" max="6391" width="11.44140625" style="1" hidden="1"/>
+    <col min="6392" max="6392" width="15.44140625" style="1" hidden="1"/>
+    <col min="6393" max="6393" width="11.44140625" style="1" hidden="1"/>
+    <col min="6394" max="6394" width="15.6640625" style="1" hidden="1"/>
+    <col min="6395" max="6395" width="21.6640625" style="1" hidden="1"/>
+    <col min="6396" max="6398" width="11.44140625" style="1" hidden="1"/>
     <col min="6399" max="6399" width="16" style="1" hidden="1"/>
-    <col min="6400" max="6400" width="20.42578125" style="1" hidden="1"/>
-    <col min="6401" max="6647" width="11.42578125" style="1" hidden="1"/>
-    <col min="6648" max="6648" width="15.42578125" style="1" hidden="1"/>
-    <col min="6649" max="6649" width="11.42578125" style="1" hidden="1"/>
-    <col min="6650" max="6650" width="15.7109375" style="1" hidden="1"/>
-    <col min="6651" max="6651" width="21.7109375" style="1" hidden="1"/>
-    <col min="6652" max="6654" width="11.42578125" style="1" hidden="1"/>
+    <col min="6400" max="6400" width="20.44140625" style="1" hidden="1"/>
+    <col min="6401" max="6647" width="11.44140625" style="1" hidden="1"/>
+    <col min="6648" max="6648" width="15.44140625" style="1" hidden="1"/>
+    <col min="6649" max="6649" width="11.44140625" style="1" hidden="1"/>
+    <col min="6650" max="6650" width="15.6640625" style="1" hidden="1"/>
+    <col min="6651" max="6651" width="21.6640625" style="1" hidden="1"/>
+    <col min="6652" max="6654" width="11.44140625" style="1" hidden="1"/>
     <col min="6655" max="6655" width="16" style="1" hidden="1"/>
-    <col min="6656" max="6656" width="20.42578125" style="1" hidden="1"/>
-    <col min="6657" max="6903" width="11.42578125" style="1" hidden="1"/>
-    <col min="6904" max="6904" width="15.42578125" style="1" hidden="1"/>
-    <col min="6905" max="6905" width="11.42578125" style="1" hidden="1"/>
-    <col min="6906" max="6906" width="15.7109375" style="1" hidden="1"/>
-    <col min="6907" max="6907" width="21.7109375" style="1" hidden="1"/>
-    <col min="6908" max="6910" width="11.42578125" style="1" hidden="1"/>
+    <col min="6656" max="6656" width="20.44140625" style="1" hidden="1"/>
+    <col min="6657" max="6903" width="11.44140625" style="1" hidden="1"/>
+    <col min="6904" max="6904" width="15.44140625" style="1" hidden="1"/>
+    <col min="6905" max="6905" width="11.44140625" style="1" hidden="1"/>
+    <col min="6906" max="6906" width="15.6640625" style="1" hidden="1"/>
+    <col min="6907" max="6907" width="21.6640625" style="1" hidden="1"/>
+    <col min="6908" max="6910" width="11.44140625" style="1" hidden="1"/>
     <col min="6911" max="6911" width="16" style="1" hidden="1"/>
-    <col min="6912" max="6912" width="20.42578125" style="1" hidden="1"/>
-    <col min="6913" max="7159" width="11.42578125" style="1" hidden="1"/>
-    <col min="7160" max="7160" width="15.42578125" style="1" hidden="1"/>
-    <col min="7161" max="7161" width="11.42578125" style="1" hidden="1"/>
-    <col min="7162" max="7162" width="15.7109375" style="1" hidden="1"/>
-    <col min="7163" max="7163" width="21.7109375" style="1" hidden="1"/>
-    <col min="7164" max="7166" width="11.42578125" style="1" hidden="1"/>
+    <col min="6912" max="6912" width="20.44140625" style="1" hidden="1"/>
+    <col min="6913" max="7159" width="11.44140625" style="1" hidden="1"/>
+    <col min="7160" max="7160" width="15.44140625" style="1" hidden="1"/>
+    <col min="7161" max="7161" width="11.44140625" style="1" hidden="1"/>
+    <col min="7162" max="7162" width="15.6640625" style="1" hidden="1"/>
+    <col min="7163" max="7163" width="21.6640625" style="1" hidden="1"/>
+    <col min="7164" max="7166" width="11.44140625" style="1" hidden="1"/>
     <col min="7167" max="7167" width="16" style="1" hidden="1"/>
-    <col min="7168" max="7168" width="20.42578125" style="1" hidden="1"/>
-    <col min="7169" max="7415" width="11.42578125" style="1" hidden="1"/>
-    <col min="7416" max="7416" width="15.42578125" style="1" hidden="1"/>
-    <col min="7417" max="7417" width="11.42578125" style="1" hidden="1"/>
-    <col min="7418" max="7418" width="15.7109375" style="1" hidden="1"/>
-    <col min="7419" max="7419" width="21.7109375" style="1" hidden="1"/>
-    <col min="7420" max="7422" width="11.42578125" style="1" hidden="1"/>
+    <col min="7168" max="7168" width="20.44140625" style="1" hidden="1"/>
+    <col min="7169" max="7415" width="11.44140625" style="1" hidden="1"/>
+    <col min="7416" max="7416" width="15.44140625" style="1" hidden="1"/>
+    <col min="7417" max="7417" width="11.44140625" style="1" hidden="1"/>
+    <col min="7418" max="7418" width="15.6640625" style="1" hidden="1"/>
+    <col min="7419" max="7419" width="21.6640625" style="1" hidden="1"/>
+    <col min="7420" max="7422" width="11.44140625" style="1" hidden="1"/>
     <col min="7423" max="7423" width="16" style="1" hidden="1"/>
-    <col min="7424" max="7424" width="20.42578125" style="1" hidden="1"/>
-    <col min="7425" max="7671" width="11.42578125" style="1" hidden="1"/>
-    <col min="7672" max="7672" width="15.42578125" style="1" hidden="1"/>
-    <col min="7673" max="7673" width="11.42578125" style="1" hidden="1"/>
-    <col min="7674" max="7674" width="15.7109375" style="1" hidden="1"/>
-    <col min="7675" max="7675" width="21.7109375" style="1" hidden="1"/>
-    <col min="7676" max="7678" width="11.42578125" style="1" hidden="1"/>
+    <col min="7424" max="7424" width="20.44140625" style="1" hidden="1"/>
+    <col min="7425" max="7671" width="11.44140625" style="1" hidden="1"/>
+    <col min="7672" max="7672" width="15.44140625" style="1" hidden="1"/>
+    <col min="7673" max="7673" width="11.44140625" style="1" hidden="1"/>
+    <col min="7674" max="7674" width="15.6640625" style="1" hidden="1"/>
+    <col min="7675" max="7675" width="21.6640625" style="1" hidden="1"/>
+    <col min="7676" max="7678" width="11.44140625" style="1" hidden="1"/>
     <col min="7679" max="7679" width="16" style="1" hidden="1"/>
-    <col min="7680" max="7680" width="20.42578125" style="1" hidden="1"/>
-    <col min="7681" max="7927" width="11.42578125" style="1" hidden="1"/>
-    <col min="7928" max="7928" width="15.42578125" style="1" hidden="1"/>
-    <col min="7929" max="7929" width="11.42578125" style="1" hidden="1"/>
-    <col min="7930" max="7930" width="15.7109375" style="1" hidden="1"/>
-    <col min="7931" max="7931" width="21.7109375" style="1" hidden="1"/>
-    <col min="7932" max="7934" width="11.42578125" style="1" hidden="1"/>
+    <col min="7680" max="7680" width="20.44140625" style="1" hidden="1"/>
+    <col min="7681" max="7927" width="11.44140625" style="1" hidden="1"/>
+    <col min="7928" max="7928" width="15.44140625" style="1" hidden="1"/>
+    <col min="7929" max="7929" width="11.44140625" style="1" hidden="1"/>
+    <col min="7930" max="7930" width="15.6640625" style="1" hidden="1"/>
+    <col min="7931" max="7931" width="21.6640625" style="1" hidden="1"/>
+    <col min="7932" max="7934" width="11.44140625" style="1" hidden="1"/>
     <col min="7935" max="7935" width="16" style="1" hidden="1"/>
-    <col min="7936" max="7936" width="20.42578125" style="1" hidden="1"/>
-    <col min="7937" max="8183" width="11.42578125" style="1" hidden="1"/>
-    <col min="8184" max="8184" width="15.42578125" style="1" hidden="1"/>
-    <col min="8185" max="8185" width="11.42578125" style="1" hidden="1"/>
-    <col min="8186" max="8186" width="15.7109375" style="1" hidden="1"/>
-    <col min="8187" max="8187" width="21.7109375" style="1" hidden="1"/>
-    <col min="8188" max="8190" width="11.42578125" style="1" hidden="1"/>
+    <col min="7936" max="7936" width="20.44140625" style="1" hidden="1"/>
+    <col min="7937" max="8183" width="11.44140625" style="1" hidden="1"/>
+    <col min="8184" max="8184" width="15.44140625" style="1" hidden="1"/>
+    <col min="8185" max="8185" width="11.44140625" style="1" hidden="1"/>
+    <col min="8186" max="8186" width="15.6640625" style="1" hidden="1"/>
+    <col min="8187" max="8187" width="21.6640625" style="1" hidden="1"/>
+    <col min="8188" max="8190" width="11.44140625" style="1" hidden="1"/>
     <col min="8191" max="8191" width="16" style="1" hidden="1"/>
-    <col min="8192" max="8192" width="20.42578125" style="1" hidden="1"/>
-    <col min="8193" max="8439" width="11.42578125" style="1" hidden="1"/>
-    <col min="8440" max="8440" width="15.42578125" style="1" hidden="1"/>
-    <col min="8441" max="8441" width="11.42578125" style="1" hidden="1"/>
-    <col min="8442" max="8442" width="15.7109375" style="1" hidden="1"/>
-    <col min="8443" max="8443" width="21.7109375" style="1" hidden="1"/>
-    <col min="8444" max="8446" width="11.42578125" style="1" hidden="1"/>
+    <col min="8192" max="8192" width="20.44140625" style="1" hidden="1"/>
+    <col min="8193" max="8439" width="11.44140625" style="1" hidden="1"/>
+    <col min="8440" max="8440" width="15.44140625" style="1" hidden="1"/>
+    <col min="8441" max="8441" width="11.44140625" style="1" hidden="1"/>
+    <col min="8442" max="8442" width="15.6640625" style="1" hidden="1"/>
+    <col min="8443" max="8443" width="21.6640625" style="1" hidden="1"/>
+    <col min="8444" max="8446" width="11.44140625" style="1" hidden="1"/>
     <col min="8447" max="8447" width="16" style="1" hidden="1"/>
-    <col min="8448" max="8448" width="20.42578125" style="1" hidden="1"/>
-    <col min="8449" max="8695" width="11.42578125" style="1" hidden="1"/>
-    <col min="8696" max="8696" width="15.42578125" style="1" hidden="1"/>
-    <col min="8697" max="8697" width="11.42578125" style="1" hidden="1"/>
-    <col min="8698" max="8698" width="15.7109375" style="1" hidden="1"/>
-    <col min="8699" max="8699" width="21.7109375" style="1" hidden="1"/>
-    <col min="8700" max="8702" width="11.42578125" style="1" hidden="1"/>
+    <col min="8448" max="8448" width="20.44140625" style="1" hidden="1"/>
+    <col min="8449" max="8695" width="11.44140625" style="1" hidden="1"/>
+    <col min="8696" max="8696" width="15.44140625" style="1" hidden="1"/>
+    <col min="8697" max="8697" width="11.44140625" style="1" hidden="1"/>
+    <col min="8698" max="8698" width="15.6640625" style="1" hidden="1"/>
+    <col min="8699" max="8699" width="21.6640625" style="1" hidden="1"/>
+    <col min="8700" max="8702" width="11.44140625" style="1" hidden="1"/>
     <col min="8703" max="8703" width="16" style="1" hidden="1"/>
-    <col min="8704" max="8704" width="20.42578125" style="1" hidden="1"/>
-    <col min="8705" max="8951" width="11.42578125" style="1" hidden="1"/>
-    <col min="8952" max="8952" width="15.42578125" style="1" hidden="1"/>
-    <col min="8953" max="8953" width="11.42578125" style="1" hidden="1"/>
-    <col min="8954" max="8954" width="15.7109375" style="1" hidden="1"/>
-    <col min="8955" max="8955" width="21.7109375" style="1" hidden="1"/>
-    <col min="8956" max="8958" width="11.42578125" style="1" hidden="1"/>
+    <col min="8704" max="8704" width="20.44140625" style="1" hidden="1"/>
+    <col min="8705" max="8951" width="11.44140625" style="1" hidden="1"/>
+    <col min="8952" max="8952" width="15.44140625" style="1" hidden="1"/>
+    <col min="8953" max="8953" width="11.44140625" style="1" hidden="1"/>
+    <col min="8954" max="8954" width="15.6640625" style="1" hidden="1"/>
+    <col min="8955" max="8955" width="21.6640625" style="1" hidden="1"/>
+    <col min="8956" max="8958" width="11.44140625" style="1" hidden="1"/>
     <col min="8959" max="8959" width="16" style="1" hidden="1"/>
-    <col min="8960" max="8960" width="20.42578125" style="1" hidden="1"/>
-    <col min="8961" max="9207" width="11.42578125" style="1" hidden="1"/>
-    <col min="9208" max="9208" width="15.42578125" style="1" hidden="1"/>
-    <col min="9209" max="9209" width="11.42578125" style="1" hidden="1"/>
-    <col min="9210" max="9210" width="15.7109375" style="1" hidden="1"/>
-    <col min="9211" max="9211" width="21.7109375" style="1" hidden="1"/>
-    <col min="9212" max="9214" width="11.42578125" style="1" hidden="1"/>
+    <col min="8960" max="8960" width="20.44140625" style="1" hidden="1"/>
+    <col min="8961" max="9207" width="11.44140625" style="1" hidden="1"/>
+    <col min="9208" max="9208" width="15.44140625" style="1" hidden="1"/>
+    <col min="9209" max="9209" width="11.44140625" style="1" hidden="1"/>
+    <col min="9210" max="9210" width="15.6640625" style="1" hidden="1"/>
+    <col min="9211" max="9211" width="21.6640625" style="1" hidden="1"/>
+    <col min="9212" max="9214" width="11.44140625" style="1" hidden="1"/>
     <col min="9215" max="9215" width="16" style="1" hidden="1"/>
-    <col min="9216" max="9216" width="20.42578125" style="1" hidden="1"/>
-    <col min="9217" max="9463" width="11.42578125" style="1" hidden="1"/>
-    <col min="9464" max="9464" width="15.42578125" style="1" hidden="1"/>
-    <col min="9465" max="9465" width="11.42578125" style="1" hidden="1"/>
-    <col min="9466" max="9466" width="15.7109375" style="1" hidden="1"/>
-    <col min="9467" max="9467" width="21.7109375" style="1" hidden="1"/>
-    <col min="9468" max="9470" width="11.42578125" style="1" hidden="1"/>
+    <col min="9216" max="9216" width="20.44140625" style="1" hidden="1"/>
+    <col min="9217" max="9463" width="11.44140625" style="1" hidden="1"/>
+    <col min="9464" max="9464" width="15.44140625" style="1" hidden="1"/>
+    <col min="9465" max="9465" width="11.44140625" style="1" hidden="1"/>
+    <col min="9466" max="9466" width="15.6640625" style="1" hidden="1"/>
+    <col min="9467" max="9467" width="21.6640625" style="1" hidden="1"/>
+    <col min="9468" max="9470" width="11.44140625" style="1" hidden="1"/>
     <col min="9471" max="9471" width="16" style="1" hidden="1"/>
-    <col min="9472" max="9472" width="20.42578125" style="1" hidden="1"/>
-    <col min="9473" max="9719" width="11.42578125" style="1" hidden="1"/>
-    <col min="9720" max="9720" width="15.42578125" style="1" hidden="1"/>
-    <col min="9721" max="9721" width="11.42578125" style="1" hidden="1"/>
-    <col min="9722" max="9722" width="15.7109375" style="1" hidden="1"/>
-    <col min="9723" max="9723" width="21.7109375" style="1" hidden="1"/>
-    <col min="9724" max="9726" width="11.42578125" style="1" hidden="1"/>
+    <col min="9472" max="9472" width="20.44140625" style="1" hidden="1"/>
+    <col min="9473" max="9719" width="11.44140625" style="1" hidden="1"/>
+    <col min="9720" max="9720" width="15.44140625" style="1" hidden="1"/>
+    <col min="9721" max="9721" width="11.44140625" style="1" hidden="1"/>
+    <col min="9722" max="9722" width="15.6640625" style="1" hidden="1"/>
+    <col min="9723" max="9723" width="21.6640625" style="1" hidden="1"/>
+    <col min="9724" max="9726" width="11.44140625" style="1" hidden="1"/>
     <col min="9727" max="9727" width="16" style="1" hidden="1"/>
-    <col min="9728" max="9728" width="20.42578125" style="1" hidden="1"/>
-    <col min="9729" max="9975" width="11.42578125" style="1" hidden="1"/>
-    <col min="9976" max="9976" width="15.42578125" style="1" hidden="1"/>
-    <col min="9977" max="9977" width="11.42578125" style="1" hidden="1"/>
-    <col min="9978" max="9978" width="15.7109375" style="1" hidden="1"/>
-    <col min="9979" max="9979" width="21.7109375" style="1" hidden="1"/>
-    <col min="9980" max="9982" width="11.42578125" style="1" hidden="1"/>
+    <col min="9728" max="9728" width="20.44140625" style="1" hidden="1"/>
+    <col min="9729" max="9975" width="11.44140625" style="1" hidden="1"/>
+    <col min="9976" max="9976" width="15.44140625" style="1" hidden="1"/>
+    <col min="9977" max="9977" width="11.44140625" style="1" hidden="1"/>
+    <col min="9978" max="9978" width="15.6640625" style="1" hidden="1"/>
+    <col min="9979" max="9979" width="21.6640625" style="1" hidden="1"/>
+    <col min="9980" max="9982" width="11.44140625" style="1" hidden="1"/>
     <col min="9983" max="9983" width="16" style="1" hidden="1"/>
-    <col min="9984" max="9984" width="20.42578125" style="1" hidden="1"/>
-    <col min="9985" max="10231" width="11.42578125" style="1" hidden="1"/>
-    <col min="10232" max="10232" width="15.42578125" style="1" hidden="1"/>
-    <col min="10233" max="10233" width="11.42578125" style="1" hidden="1"/>
-    <col min="10234" max="10234" width="15.7109375" style="1" hidden="1"/>
-    <col min="10235" max="10235" width="21.7109375" style="1" hidden="1"/>
-    <col min="10236" max="10238" width="11.42578125" style="1" hidden="1"/>
+    <col min="9984" max="9984" width="20.44140625" style="1" hidden="1"/>
+    <col min="9985" max="10231" width="11.44140625" style="1" hidden="1"/>
+    <col min="10232" max="10232" width="15.44140625" style="1" hidden="1"/>
+    <col min="10233" max="10233" width="11.44140625" style="1" hidden="1"/>
+    <col min="10234" max="10234" width="15.6640625" style="1" hidden="1"/>
+    <col min="10235" max="10235" width="21.6640625" style="1" hidden="1"/>
+    <col min="10236" max="10238" width="11.44140625" style="1" hidden="1"/>
     <col min="10239" max="10239" width="16" style="1" hidden="1"/>
-    <col min="10240" max="10240" width="20.42578125" style="1" hidden="1"/>
-    <col min="10241" max="10487" width="11.42578125" style="1" hidden="1"/>
-    <col min="10488" max="10488" width="15.42578125" style="1" hidden="1"/>
-    <col min="10489" max="10489" width="11.42578125" style="1" hidden="1"/>
-    <col min="10490" max="10490" width="15.7109375" style="1" hidden="1"/>
-    <col min="10491" max="10491" width="21.7109375" style="1" hidden="1"/>
-    <col min="10492" max="10494" width="11.42578125" style="1" hidden="1"/>
+    <col min="10240" max="10240" width="20.44140625" style="1" hidden="1"/>
+    <col min="10241" max="10487" width="11.44140625" style="1" hidden="1"/>
+    <col min="10488" max="10488" width="15.44140625" style="1" hidden="1"/>
+    <col min="10489" max="10489" width="11.44140625" style="1" hidden="1"/>
+    <col min="10490" max="10490" width="15.6640625" style="1" hidden="1"/>
+    <col min="10491" max="10491" width="21.6640625" style="1" hidden="1"/>
+    <col min="10492" max="10494" width="11.44140625" style="1" hidden="1"/>
     <col min="10495" max="10495" width="16" style="1" hidden="1"/>
-    <col min="10496" max="10496" width="20.42578125" style="1" hidden="1"/>
-    <col min="10497" max="10743" width="11.42578125" style="1" hidden="1"/>
-    <col min="10744" max="10744" width="15.42578125" style="1" hidden="1"/>
-    <col min="10745" max="10745" width="11.42578125" style="1" hidden="1"/>
-    <col min="10746" max="10746" width="15.7109375" style="1" hidden="1"/>
-    <col min="10747" max="10747" width="21.7109375" style="1" hidden="1"/>
-    <col min="10748" max="10750" width="11.42578125" style="1" hidden="1"/>
+    <col min="10496" max="10496" width="20.44140625" style="1" hidden="1"/>
+    <col min="10497" max="10743" width="11.44140625" style="1" hidden="1"/>
+    <col min="10744" max="10744" width="15.44140625" style="1" hidden="1"/>
+    <col min="10745" max="10745" width="11.44140625" style="1" hidden="1"/>
+    <col min="10746" max="10746" width="15.6640625" style="1" hidden="1"/>
+    <col min="10747" max="10747" width="21.6640625" style="1" hidden="1"/>
+    <col min="10748" max="10750" width="11.44140625" style="1" hidden="1"/>
     <col min="10751" max="10751" width="16" style="1" hidden="1"/>
-    <col min="10752" max="10752" width="20.42578125" style="1" hidden="1"/>
-    <col min="10753" max="10999" width="11.42578125" style="1" hidden="1"/>
-    <col min="11000" max="11000" width="15.42578125" style="1" hidden="1"/>
-    <col min="11001" max="11001" width="11.42578125" style="1" hidden="1"/>
-    <col min="11002" max="11002" width="15.7109375" style="1" hidden="1"/>
-    <col min="11003" max="11003" width="21.7109375" style="1" hidden="1"/>
-    <col min="11004" max="11006" width="11.42578125" style="1" hidden="1"/>
+    <col min="10752" max="10752" width="20.44140625" style="1" hidden="1"/>
+    <col min="10753" max="10999" width="11.44140625" style="1" hidden="1"/>
+    <col min="11000" max="11000" width="15.44140625" style="1" hidden="1"/>
+    <col min="11001" max="11001" width="11.44140625" style="1" hidden="1"/>
+    <col min="11002" max="11002" width="15.6640625" style="1" hidden="1"/>
+    <col min="11003" max="11003" width="21.6640625" style="1" hidden="1"/>
+    <col min="11004" max="11006" width="11.44140625" style="1" hidden="1"/>
     <col min="11007" max="11007" width="16" style="1" hidden="1"/>
-    <col min="11008" max="11008" width="20.42578125" style="1" hidden="1"/>
-    <col min="11009" max="11255" width="11.42578125" style="1" hidden="1"/>
-    <col min="11256" max="11256" width="15.42578125" style="1" hidden="1"/>
-    <col min="11257" max="11257" width="11.42578125" style="1" hidden="1"/>
-    <col min="11258" max="11258" width="15.7109375" style="1" hidden="1"/>
-    <col min="11259" max="11259" width="21.7109375" style="1" hidden="1"/>
-    <col min="11260" max="11262" width="11.42578125" style="1" hidden="1"/>
+    <col min="11008" max="11008" width="20.44140625" style="1" hidden="1"/>
+    <col min="11009" max="11255" width="11.44140625" style="1" hidden="1"/>
+    <col min="11256" max="11256" width="15.44140625" style="1" hidden="1"/>
+    <col min="11257" max="11257" width="11.44140625" style="1" hidden="1"/>
+    <col min="11258" max="11258" width="15.6640625" style="1" hidden="1"/>
+    <col min="11259" max="11259" width="21.6640625" style="1" hidden="1"/>
+    <col min="11260" max="11262" width="11.44140625" style="1" hidden="1"/>
     <col min="11263" max="11263" width="16" style="1" hidden="1"/>
-    <col min="11264" max="11264" width="20.42578125" style="1" hidden="1"/>
-    <col min="11265" max="11511" width="11.42578125" style="1" hidden="1"/>
-    <col min="11512" max="11512" width="15.42578125" style="1" hidden="1"/>
-    <col min="11513" max="11513" width="11.42578125" style="1" hidden="1"/>
-    <col min="11514" max="11514" width="15.7109375" style="1" hidden="1"/>
-    <col min="11515" max="11515" width="21.7109375" style="1" hidden="1"/>
-    <col min="11516" max="11518" width="11.42578125" style="1" hidden="1"/>
+    <col min="11264" max="11264" width="20.44140625" style="1" hidden="1"/>
+    <col min="11265" max="11511" width="11.44140625" style="1" hidden="1"/>
+    <col min="11512" max="11512" width="15.44140625" style="1" hidden="1"/>
+    <col min="11513" max="11513" width="11.44140625" style="1" hidden="1"/>
+    <col min="11514" max="11514" width="15.6640625" style="1" hidden="1"/>
+    <col min="11515" max="11515" width="21.6640625" style="1" hidden="1"/>
+    <col min="11516" max="11518" width="11.44140625" style="1" hidden="1"/>
     <col min="11519" max="11519" width="16" style="1" hidden="1"/>
-    <col min="11520" max="11520" width="20.42578125" style="1" hidden="1"/>
-    <col min="11521" max="11767" width="11.42578125" style="1" hidden="1"/>
-    <col min="11768" max="11768" width="15.42578125" style="1" hidden="1"/>
-    <col min="11769" max="11769" width="11.42578125" style="1" hidden="1"/>
-    <col min="11770" max="11770" width="15.7109375" style="1" hidden="1"/>
-    <col min="11771" max="11771" width="21.7109375" style="1" hidden="1"/>
-    <col min="11772" max="11774" width="11.42578125" style="1" hidden="1"/>
+    <col min="11520" max="11520" width="20.44140625" style="1" hidden="1"/>
+    <col min="11521" max="11767" width="11.44140625" style="1" hidden="1"/>
+    <col min="11768" max="11768" width="15.44140625" style="1" hidden="1"/>
+    <col min="11769" max="11769" width="11.44140625" style="1" hidden="1"/>
+    <col min="11770" max="11770" width="15.6640625" style="1" hidden="1"/>
+    <col min="11771" max="11771" width="21.6640625" style="1" hidden="1"/>
+    <col min="11772" max="11774" width="11.44140625" style="1" hidden="1"/>
     <col min="11775" max="11775" width="16" style="1" hidden="1"/>
-    <col min="11776" max="11776" width="20.42578125" style="1" hidden="1"/>
-    <col min="11777" max="12023" width="11.42578125" style="1" hidden="1"/>
-    <col min="12024" max="12024" width="15.42578125" style="1" hidden="1"/>
-    <col min="12025" max="12025" width="11.42578125" style="1" hidden="1"/>
-    <col min="12026" max="12026" width="15.7109375" style="1" hidden="1"/>
-    <col min="12027" max="12027" width="21.7109375" style="1" hidden="1"/>
-    <col min="12028" max="12030" width="11.42578125" style="1" hidden="1"/>
+    <col min="11776" max="11776" width="20.44140625" style="1" hidden="1"/>
+    <col min="11777" max="12023" width="11.44140625" style="1" hidden="1"/>
+    <col min="12024" max="12024" width="15.44140625" style="1" hidden="1"/>
+    <col min="12025" max="12025" width="11.44140625" style="1" hidden="1"/>
+    <col min="12026" max="12026" width="15.6640625" style="1" hidden="1"/>
+    <col min="12027" max="12027" width="21.6640625" style="1" hidden="1"/>
+    <col min="12028" max="12030" width="11.44140625" style="1" hidden="1"/>
     <col min="12031" max="12031" width="16" style="1" hidden="1"/>
-    <col min="12032" max="12032" width="20.42578125" style="1" hidden="1"/>
-    <col min="12033" max="12279" width="11.42578125" style="1" hidden="1"/>
-    <col min="12280" max="12280" width="15.42578125" style="1" hidden="1"/>
-    <col min="12281" max="12281" width="11.42578125" style="1" hidden="1"/>
-    <col min="12282" max="12282" width="15.7109375" style="1" hidden="1"/>
-    <col min="12283" max="12283" width="21.7109375" style="1" hidden="1"/>
-    <col min="12284" max="12286" width="11.42578125" style="1" hidden="1"/>
+    <col min="12032" max="12032" width="20.44140625" style="1" hidden="1"/>
+    <col min="12033" max="12279" width="11.44140625" style="1" hidden="1"/>
+    <col min="12280" max="12280" width="15.44140625" style="1" hidden="1"/>
+    <col min="12281" max="12281" width="11.44140625" style="1" hidden="1"/>
+    <col min="12282" max="12282" width="15.6640625" style="1" hidden="1"/>
+    <col min="12283" max="12283" width="21.6640625" style="1" hidden="1"/>
+    <col min="12284" max="12286" width="11.44140625" style="1" hidden="1"/>
     <col min="12287" max="12287" width="16" style="1" hidden="1"/>
-    <col min="12288" max="12288" width="20.42578125" style="1" hidden="1"/>
-    <col min="12289" max="12535" width="11.42578125" style="1" hidden="1"/>
-    <col min="12536" max="12536" width="15.42578125" style="1" hidden="1"/>
-    <col min="12537" max="12537" width="11.42578125" style="1" hidden="1"/>
-    <col min="12538" max="12538" width="15.7109375" style="1" hidden="1"/>
-    <col min="12539" max="12539" width="21.7109375" style="1" hidden="1"/>
-    <col min="12540" max="12542" width="11.42578125" style="1" hidden="1"/>
+    <col min="12288" max="12288" width="20.44140625" style="1" hidden="1"/>
+    <col min="12289" max="12535" width="11.44140625" style="1" hidden="1"/>
+    <col min="12536" max="12536" width="15.44140625" style="1" hidden="1"/>
+    <col min="12537" max="12537" width="11.44140625" style="1" hidden="1"/>
+    <col min="12538" max="12538" width="15.6640625" style="1" hidden="1"/>
+    <col min="12539" max="12539" width="21.6640625" style="1" hidden="1"/>
+    <col min="12540" max="12542" width="11.44140625" style="1" hidden="1"/>
     <col min="12543" max="12543" width="16" style="1" hidden="1"/>
-    <col min="12544" max="12544" width="20.42578125" style="1" hidden="1"/>
-    <col min="12545" max="12791" width="11.42578125" style="1" hidden="1"/>
-    <col min="12792" max="12792" width="15.42578125" style="1" hidden="1"/>
-    <col min="12793" max="12793" width="11.42578125" style="1" hidden="1"/>
-    <col min="12794" max="12794" width="15.7109375" style="1" hidden="1"/>
-    <col min="12795" max="12795" width="21.7109375" style="1" hidden="1"/>
-    <col min="12796" max="12798" width="11.42578125" style="1" hidden="1"/>
+    <col min="12544" max="12544" width="20.44140625" style="1" hidden="1"/>
+    <col min="12545" max="12791" width="11.44140625" style="1" hidden="1"/>
+    <col min="12792" max="12792" width="15.44140625" style="1" hidden="1"/>
+    <col min="12793" max="12793" width="11.44140625" style="1" hidden="1"/>
+    <col min="12794" max="12794" width="15.6640625" style="1" hidden="1"/>
+    <col min="12795" max="12795" width="21.6640625" style="1" hidden="1"/>
+    <col min="12796" max="12798" width="11.44140625" style="1" hidden="1"/>
     <col min="12799" max="12799" width="16" style="1" hidden="1"/>
-    <col min="12800" max="12800" width="20.42578125" style="1" hidden="1"/>
-    <col min="12801" max="13047" width="11.42578125" style="1" hidden="1"/>
-    <col min="13048" max="13048" width="15.42578125" style="1" hidden="1"/>
-    <col min="13049" max="13049" width="11.42578125" style="1" hidden="1"/>
-    <col min="13050" max="13050" width="15.7109375" style="1" hidden="1"/>
-    <col min="13051" max="13051" width="21.7109375" style="1" hidden="1"/>
-    <col min="13052" max="13054" width="11.42578125" style="1" hidden="1"/>
+    <col min="12800" max="12800" width="20.44140625" style="1" hidden="1"/>
+    <col min="12801" max="13047" width="11.44140625" style="1" hidden="1"/>
+    <col min="13048" max="13048" width="15.44140625" style="1" hidden="1"/>
+    <col min="13049" max="13049" width="11.44140625" style="1" hidden="1"/>
+    <col min="13050" max="13050" width="15.6640625" style="1" hidden="1"/>
+    <col min="13051" max="13051" width="21.6640625" style="1" hidden="1"/>
+    <col min="13052" max="13054" width="11.44140625" style="1" hidden="1"/>
     <col min="13055" max="13055" width="16" style="1" hidden="1"/>
-    <col min="13056" max="13056" width="20.42578125" style="1" hidden="1"/>
-    <col min="13057" max="13303" width="11.42578125" style="1" hidden="1"/>
-    <col min="13304" max="13304" width="15.42578125" style="1" hidden="1"/>
-    <col min="13305" max="13305" width="11.42578125" style="1" hidden="1"/>
-    <col min="13306" max="13306" width="15.7109375" style="1" hidden="1"/>
-    <col min="13307" max="13307" width="21.7109375" style="1" hidden="1"/>
-    <col min="13308" max="13310" width="11.42578125" style="1" hidden="1"/>
+    <col min="13056" max="13056" width="20.44140625" style="1" hidden="1"/>
+    <col min="13057" max="13303" width="11.44140625" style="1" hidden="1"/>
+    <col min="13304" max="13304" width="15.44140625" style="1" hidden="1"/>
+    <col min="13305" max="13305" width="11.44140625" style="1" hidden="1"/>
+    <col min="13306" max="13306" width="15.6640625" style="1" hidden="1"/>
+    <col min="13307" max="13307" width="21.6640625" style="1" hidden="1"/>
+    <col min="13308" max="13310" width="11.44140625" style="1" hidden="1"/>
     <col min="13311" max="13311" width="16" style="1" hidden="1"/>
-    <col min="13312" max="13312" width="20.42578125" style="1" hidden="1"/>
-    <col min="13313" max="13559" width="11.42578125" style="1" hidden="1"/>
-    <col min="13560" max="13560" width="15.42578125" style="1" hidden="1"/>
-    <col min="13561" max="13561" width="11.42578125" style="1" hidden="1"/>
-    <col min="13562" max="13562" width="15.7109375" style="1" hidden="1"/>
-    <col min="13563" max="13563" width="21.7109375" style="1" hidden="1"/>
-    <col min="13564" max="13566" width="11.42578125" style="1" hidden="1"/>
+    <col min="13312" max="13312" width="20.44140625" style="1" hidden="1"/>
+    <col min="13313" max="13559" width="11.44140625" style="1" hidden="1"/>
+    <col min="13560" max="13560" width="15.44140625" style="1" hidden="1"/>
+    <col min="13561" max="13561" width="11.44140625" style="1" hidden="1"/>
+    <col min="13562" max="13562" width="15.6640625" style="1" hidden="1"/>
+    <col min="13563" max="13563" width="21.6640625" style="1" hidden="1"/>
+    <col min="13564" max="13566" width="11.44140625" style="1" hidden="1"/>
     <col min="13567" max="13567" width="16" style="1" hidden="1"/>
-    <col min="13568" max="13568" width="20.42578125" style="1" hidden="1"/>
-    <col min="13569" max="13815" width="11.42578125" style="1" hidden="1"/>
-    <col min="13816" max="13816" width="15.42578125" style="1" hidden="1"/>
-    <col min="13817" max="13817" width="11.42578125" style="1" hidden="1"/>
-    <col min="13818" max="13818" width="15.7109375" style="1" hidden="1"/>
-    <col min="13819" max="13819" width="21.7109375" style="1" hidden="1"/>
-    <col min="13820" max="13822" width="11.42578125" style="1" hidden="1"/>
+    <col min="13568" max="13568" width="20.44140625" style="1" hidden="1"/>
+    <col min="13569" max="13815" width="11.44140625" style="1" hidden="1"/>
+    <col min="13816" max="13816" width="15.44140625" style="1" hidden="1"/>
+    <col min="13817" max="13817" width="11.44140625" style="1" hidden="1"/>
+    <col min="13818" max="13818" width="15.6640625" style="1" hidden="1"/>
+    <col min="13819" max="13819" width="21.6640625" style="1" hidden="1"/>
+    <col min="13820" max="13822" width="11.44140625" style="1" hidden="1"/>
     <col min="13823" max="13823" width="16" style="1" hidden="1"/>
-    <col min="13824" max="13824" width="20.42578125" style="1" hidden="1"/>
-    <col min="13825" max="14071" width="11.42578125" style="1" hidden="1"/>
-    <col min="14072" max="14072" width="15.42578125" style="1" hidden="1"/>
-    <col min="14073" max="14073" width="11.42578125" style="1" hidden="1"/>
-    <col min="14074" max="14074" width="15.7109375" style="1" hidden="1"/>
-    <col min="14075" max="14075" width="21.7109375" style="1" hidden="1"/>
-    <col min="14076" max="14078" width="11.42578125" style="1" hidden="1"/>
+    <col min="13824" max="13824" width="20.44140625" style="1" hidden="1"/>
+    <col min="13825" max="14071" width="11.44140625" style="1" hidden="1"/>
+    <col min="14072" max="14072" width="15.44140625" style="1" hidden="1"/>
+    <col min="14073" max="14073" width="11.44140625" style="1" hidden="1"/>
+    <col min="14074" max="14074" width="15.6640625" style="1" hidden="1"/>
+    <col min="14075" max="14075" width="21.6640625" style="1" hidden="1"/>
+    <col min="14076" max="14078" width="11.44140625" style="1" hidden="1"/>
     <col min="14079" max="14079" width="16" style="1" hidden="1"/>
-    <col min="14080" max="14080" width="20.42578125" style="1" hidden="1"/>
-    <col min="14081" max="14327" width="11.42578125" style="1" hidden="1"/>
-    <col min="14328" max="14328" width="15.42578125" style="1" hidden="1"/>
-    <col min="14329" max="14329" width="11.42578125" style="1" hidden="1"/>
-    <col min="14330" max="14330" width="15.7109375" style="1" hidden="1"/>
-    <col min="14331" max="14331" width="21.7109375" style="1" hidden="1"/>
-    <col min="14332" max="14334" width="11.42578125" style="1" hidden="1"/>
+    <col min="14080" max="14080" width="20.44140625" style="1" hidden="1"/>
+    <col min="14081" max="14327" width="11.44140625" style="1" hidden="1"/>
+    <col min="14328" max="14328" width="15.44140625" style="1" hidden="1"/>
+    <col min="14329" max="14329" width="11.44140625" style="1" hidden="1"/>
+    <col min="14330" max="14330" width="15.6640625" style="1" hidden="1"/>
+    <col min="14331" max="14331" width="21.6640625" style="1" hidden="1"/>
+    <col min="14332" max="14334" width="11.44140625" style="1" hidden="1"/>
     <col min="14335" max="14335" width="16" style="1" hidden="1"/>
-    <col min="14336" max="14336" width="20.42578125" style="1" hidden="1"/>
-    <col min="14337" max="14583" width="11.42578125" style="1" hidden="1"/>
-    <col min="14584" max="14584" width="15.42578125" style="1" hidden="1"/>
-    <col min="14585" max="14585" width="11.42578125" style="1" hidden="1"/>
-    <col min="14586" max="14586" width="15.7109375" style="1" hidden="1"/>
-    <col min="14587" max="14587" width="21.7109375" style="1" hidden="1"/>
-    <col min="14588" max="14590" width="11.42578125" style="1" hidden="1"/>
+    <col min="14336" max="14336" width="20.44140625" style="1" hidden="1"/>
+    <col min="14337" max="14583" width="11.44140625" style="1" hidden="1"/>
+    <col min="14584" max="14584" width="15.44140625" style="1" hidden="1"/>
+    <col min="14585" max="14585" width="11.44140625" style="1" hidden="1"/>
+    <col min="14586" max="14586" width="15.6640625" style="1" hidden="1"/>
+    <col min="14587" max="14587" width="21.6640625" style="1" hidden="1"/>
+    <col min="14588" max="14590" width="11.44140625" style="1" hidden="1"/>
     <col min="14591" max="14591" width="16" style="1" hidden="1"/>
-    <col min="14592" max="14592" width="20.42578125" style="1" hidden="1"/>
-    <col min="14593" max="14839" width="11.42578125" style="1" hidden="1"/>
-    <col min="14840" max="14840" width="15.42578125" style="1" hidden="1"/>
-    <col min="14841" max="14841" width="11.42578125" style="1" hidden="1"/>
-    <col min="14842" max="14842" width="15.7109375" style="1" hidden="1"/>
-    <col min="14843" max="14843" width="21.7109375" style="1" hidden="1"/>
-    <col min="14844" max="14846" width="11.42578125" style="1" hidden="1"/>
+    <col min="14592" max="14592" width="20.44140625" style="1" hidden="1"/>
+    <col min="14593" max="14839" width="11.44140625" style="1" hidden="1"/>
+    <col min="14840" max="14840" width="15.44140625" style="1" hidden="1"/>
+    <col min="14841" max="14841" width="11.44140625" style="1" hidden="1"/>
+    <col min="14842" max="14842" width="15.6640625" style="1" hidden="1"/>
+    <col min="14843" max="14843" width="21.6640625" style="1" hidden="1"/>
+    <col min="14844" max="14846" width="11.44140625" style="1" hidden="1"/>
     <col min="14847" max="14847" width="16" style="1" hidden="1"/>
-    <col min="14848" max="14848" width="20.42578125" style="1" hidden="1"/>
-    <col min="14849" max="15095" width="11.42578125" style="1" hidden="1"/>
-    <col min="15096" max="15096" width="15.42578125" style="1" hidden="1"/>
-    <col min="15097" max="15097" width="11.42578125" style="1" hidden="1"/>
-    <col min="15098" max="15098" width="15.7109375" style="1" hidden="1"/>
-    <col min="15099" max="15099" width="21.7109375" style="1" hidden="1"/>
-    <col min="15100" max="15102" width="11.42578125" style="1" hidden="1"/>
+    <col min="14848" max="14848" width="20.44140625" style="1" hidden="1"/>
+    <col min="14849" max="15095" width="11.44140625" style="1" hidden="1"/>
+    <col min="15096" max="15096" width="15.44140625" style="1" hidden="1"/>
+    <col min="15097" max="15097" width="11.44140625" style="1" hidden="1"/>
+    <col min="15098" max="15098" width="15.6640625" style="1" hidden="1"/>
+    <col min="15099" max="15099" width="21.6640625" style="1" hidden="1"/>
+    <col min="15100" max="15102" width="11.44140625" style="1" hidden="1"/>
     <col min="15103" max="15103" width="16" style="1" hidden="1"/>
-    <col min="15104" max="15104" width="20.42578125" style="1" hidden="1"/>
-    <col min="15105" max="15351" width="11.42578125" style="1" hidden="1"/>
-    <col min="15352" max="15352" width="15.42578125" style="1" hidden="1"/>
-    <col min="15353" max="15353" width="11.42578125" style="1" hidden="1"/>
-    <col min="15354" max="15354" width="15.7109375" style="1" hidden="1"/>
-    <col min="15355" max="15355" width="21.7109375" style="1" hidden="1"/>
-    <col min="15356" max="15358" width="11.42578125" style="1" hidden="1"/>
+    <col min="15104" max="15104" width="20.44140625" style="1" hidden="1"/>
+    <col min="15105" max="15351" width="11.44140625" style="1" hidden="1"/>
+    <col min="15352" max="15352" width="15.44140625" style="1" hidden="1"/>
+    <col min="15353" max="15353" width="11.44140625" style="1" hidden="1"/>
+    <col min="15354" max="15354" width="15.6640625" style="1" hidden="1"/>
+    <col min="15355" max="15355" width="21.6640625" style="1" hidden="1"/>
+    <col min="15356" max="15358" width="11.44140625" style="1" hidden="1"/>
     <col min="15359" max="15359" width="16" style="1" hidden="1"/>
-    <col min="15360" max="15360" width="20.42578125" style="1" hidden="1"/>
-    <col min="15361" max="15607" width="11.42578125" style="1" hidden="1"/>
-    <col min="15608" max="15608" width="15.42578125" style="1" hidden="1"/>
-    <col min="15609" max="15609" width="11.42578125" style="1" hidden="1"/>
-    <col min="15610" max="15610" width="15.7109375" style="1" hidden="1"/>
-    <col min="15611" max="15611" width="21.7109375" style="1" hidden="1"/>
-    <col min="15612" max="15614" width="11.42578125" style="1" hidden="1"/>
+    <col min="15360" max="15360" width="20.44140625" style="1" hidden="1"/>
+    <col min="15361" max="15607" width="11.44140625" style="1" hidden="1"/>
+    <col min="15608" max="15608" width="15.44140625" style="1" hidden="1"/>
+    <col min="15609" max="15609" width="11.44140625" style="1" hidden="1"/>
+    <col min="15610" max="15610" width="15.6640625" style="1" hidden="1"/>
+    <col min="15611" max="15611" width="21.6640625" style="1" hidden="1"/>
+    <col min="15612" max="15614" width="11.44140625" style="1" hidden="1"/>
     <col min="15615" max="15615" width="16" style="1" hidden="1"/>
-    <col min="15616" max="15616" width="20.42578125" style="1" hidden="1"/>
-    <col min="15617" max="15863" width="11.42578125" style="1" hidden="1"/>
-    <col min="15864" max="15864" width="15.42578125" style="1" hidden="1"/>
-    <col min="15865" max="15865" width="11.42578125" style="1" hidden="1"/>
-    <col min="15866" max="15866" width="15.7109375" style="1" hidden="1"/>
-    <col min="15867" max="15867" width="21.7109375" style="1" hidden="1"/>
-    <col min="15868" max="15870" width="11.42578125" style="1" hidden="1"/>
+    <col min="15616" max="15616" width="20.44140625" style="1" hidden="1"/>
+    <col min="15617" max="15863" width="11.44140625" style="1" hidden="1"/>
+    <col min="15864" max="15864" width="15.44140625" style="1" hidden="1"/>
+    <col min="15865" max="15865" width="11.44140625" style="1" hidden="1"/>
+    <col min="15866" max="15866" width="15.6640625" style="1" hidden="1"/>
+    <col min="15867" max="15867" width="21.6640625" style="1" hidden="1"/>
+    <col min="15868" max="15870" width="11.44140625" style="1" hidden="1"/>
     <col min="15871" max="15871" width="16" style="1" hidden="1"/>
-    <col min="15872" max="15872" width="20.42578125" style="1" hidden="1"/>
-    <col min="15873" max="16119" width="11.42578125" style="1" hidden="1"/>
-    <col min="16120" max="16120" width="15.42578125" style="1" hidden="1"/>
-    <col min="16121" max="16121" width="11.42578125" style="1" hidden="1"/>
-    <col min="16122" max="16122" width="15.7109375" style="1" hidden="1"/>
-    <col min="16123" max="16123" width="21.7109375" style="1" hidden="1"/>
-    <col min="16124" max="16126" width="11.42578125" style="1" hidden="1"/>
+    <col min="15872" max="15872" width="20.44140625" style="1" hidden="1"/>
+    <col min="15873" max="16119" width="11.44140625" style="1" hidden="1"/>
+    <col min="16120" max="16120" width="15.44140625" style="1" hidden="1"/>
+    <col min="16121" max="16121" width="11.44140625" style="1" hidden="1"/>
+    <col min="16122" max="16122" width="15.6640625" style="1" hidden="1"/>
+    <col min="16123" max="16123" width="21.6640625" style="1" hidden="1"/>
+    <col min="16124" max="16126" width="11.44140625" style="1" hidden="1"/>
     <col min="16127" max="16127" width="16" style="1" hidden="1"/>
-    <col min="16128" max="16128" width="20.42578125" style="1" hidden="1"/>
-    <col min="16129" max="16129" width="11.42578125" style="1" hidden="1"/>
+    <col min="16128" max="16128" width="20.44140625" style="1" hidden="1"/>
+    <col min="16129" max="16129" width="11.44140625" style="1" hidden="1"/>
     <col min="16130" max="16130" width="16" style="1" hidden="1"/>
-    <col min="16131" max="16131" width="20.42578125" style="1" hidden="1"/>
+    <col min="16131" max="16131" width="20.44140625" style="1" hidden="1"/>
     <col min="16132" max="16132" width="16" style="1" hidden="1"/>
-    <col min="16133" max="16138" width="20.42578125" style="1" hidden="1"/>
-    <col min="16139" max="16384" width="11.42578125" style="1" hidden="1"/>
+    <col min="16133" max="16138" width="20.44140625" style="1" hidden="1"/>
+    <col min="16139" max="16384" width="11.44140625" style="1" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="56.65" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:23" ht="56.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
@@ -2918,7 +2925,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:23" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:23" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="54" t="str">
         <f>RAWDATA!B2</f>
         <v>applicant.last_name</v>
@@ -2935,13 +2942,13 @@
         <f>RAWDATA!E2</f>
         <v>applicant.tag</v>
       </c>
-      <c r="E2" s="57">
+      <c r="E2" s="57" t="e">
         <f>ROUNDUP(M2/0.5,0)*0.5</f>
-        <v>0</v>
-      </c>
-      <c r="F2" s="30" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F2" s="30" t="e">
         <f>LOOKUP(E2,{0;1;49.75;55.75;61.75;67.75;72.75;78.75;84.75;89.75;94.75;97.75},{"KP";"NB";4;3.7;3.3;3;2.7;2.3;2;1.7;1.3;1})</f>
-        <v>KP</v>
+        <v>#VALUE!</v>
       </c>
       <c r="G2" s="29"/>
       <c r="H2" s="56"/>
@@ -2951,44 +2958,44 @@
         <f t="shared" ref="K2:K25" si="0">SUM(H2:J2)</f>
         <v>0</v>
       </c>
-      <c r="L2" s="93">
+      <c r="L2" s="85">
         <f>IF(ISBLANK(Extrapunkte!J3),0,Extrapunkte!J3)</f>
         <v>0</v>
       </c>
-      <c r="M2" s="34">
-        <f t="shared" ref="M2:M26" si="1">SUM(K2:L2)</f>
-        <v>0</v>
+      <c r="M2" s="34" t="str">
+        <f>IF(ISBLANK(RAWDATA!F2),SUM(K2:L2),RAWDATA!F2)</f>
+        <v>applicant.sanitized_grade</v>
       </c>
       <c r="N2" s="4"/>
       <c r="O2" s="33"/>
-      <c r="P2" s="34" t="str">
-        <f t="shared" ref="P2:P26" si="2">IF(OR(F2="NB",F2="KP"),"","X")</f>
-        <v/>
+      <c r="P2" s="34" t="e">
+        <f t="shared" ref="P2:P26" si="1">IF(OR(F2="NB",F2="KP"),"","X")</f>
+        <v>#VALUE!</v>
       </c>
       <c r="Q2" s="33"/>
       <c r="R2" s="4"/>
-      <c r="S2" s="2">
+      <c r="S2" s="2" t="str">
         <f>IF(M2&gt;0,$B$33,0)</f>
-        <v>0</v>
-      </c>
-      <c r="T2" s="2">
+        <v>course.ects_points</v>
+      </c>
+      <c r="T2" s="2" t="str">
         <f>IF(M2&gt;0,$B$32,0)</f>
-        <v>0</v>
-      </c>
-      <c r="U2" s="10">
+        <v>course.ger</v>
+      </c>
+      <c r="U2" s="10" t="e">
         <f>IF(M2&gt;0,$F$28,0)</f>
-        <v>0</v>
-      </c>
-      <c r="V2" s="1">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V2" s="1" t="str">
         <f>IF(M2&gt;0,$B$34,0)</f>
-        <v>0</v>
-      </c>
-      <c r="W2" s="1">
+        <v>course.name</v>
+      </c>
+      <c r="W2" s="1" t="str">
         <f>IF(M2&gt;0,$B$31,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:23" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+        <v>Elena Moya Royo</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="54">
         <f>RAWDATA!B3</f>
         <v>0</v>
@@ -3006,7 +3013,7 @@
         <v>0</v>
       </c>
       <c r="E3" s="57">
-        <f t="shared" ref="E3:E26" si="3">ROUNDUP(M3/0.5,0)*0.5</f>
+        <f t="shared" ref="E3:E26" si="2">ROUNDUP(M3/0.5,0)*0.5</f>
         <v>0</v>
       </c>
       <c r="F3" s="30" t="str">
@@ -3021,44 +3028,44 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L3" s="93">
+      <c r="L3" s="85">
         <f>IF(ISBLANK(Extrapunkte!J4),0,Extrapunkte!J4)</f>
         <v>0</v>
       </c>
       <c r="M3" s="34">
-        <f t="shared" si="1"/>
+        <f>IF(ISBLANK(RAWDATA!F3),SUM(K3:L3),RAWDATA!F3)</f>
         <v>0</v>
       </c>
       <c r="N3" s="4"/>
       <c r="O3" s="33"/>
       <c r="P3" s="34" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="Q3" s="33"/>
       <c r="R3" s="4"/>
       <c r="S3" s="2">
-        <f t="shared" ref="S3:S26" si="4">IF(M3&gt;0,$B$33,0)</f>
+        <f t="shared" ref="S3:S26" si="3">IF(M3&gt;0,$B$33,0)</f>
         <v>0</v>
       </c>
       <c r="T3" s="2">
-        <f t="shared" ref="T3:T26" si="5">IF(M3&gt;0,$B$32,0)</f>
+        <f t="shared" ref="T3:T26" si="4">IF(M3&gt;0,$B$32,0)</f>
         <v>0</v>
       </c>
       <c r="U3" s="10">
-        <f t="shared" ref="U3:U26" si="6">IF(M3&gt;0,$F$28,0)</f>
+        <f t="shared" ref="U3:U26" si="5">IF(M3&gt;0,$F$28,0)</f>
         <v>0</v>
       </c>
       <c r="V3" s="1">
-        <f t="shared" ref="V3:V26" si="7">IF(M3&gt;0,$B$34,0)</f>
+        <f t="shared" ref="V3:V26" si="6">IF(M3&gt;0,$B$34,0)</f>
         <v>0</v>
       </c>
       <c r="W3" s="1">
-        <f t="shared" ref="W3:W26" si="8">IF(M3&gt;0,$B$31,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:23" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+        <f t="shared" ref="W3:W26" si="7">IF(M3&gt;0,$B$31,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="54">
         <f>RAWDATA!B4</f>
         <v>0</v>
@@ -3076,7 +3083,7 @@
         <v>0</v>
       </c>
       <c r="E4" s="57">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F4" s="30" t="str">
@@ -3091,44 +3098,44 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L4" s="93">
+      <c r="L4" s="85">
         <f>IF(ISBLANK(Extrapunkte!J5),0,Extrapunkte!J5)</f>
         <v>0</v>
       </c>
       <c r="M4" s="34">
-        <f t="shared" si="1"/>
+        <f>IF(ISBLANK(RAWDATA!F4),SUM(K4:L4),RAWDATA!F4)</f>
         <v>0</v>
       </c>
       <c r="N4" s="4"/>
       <c r="O4" s="33"/>
       <c r="P4" s="34" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="Q4" s="33"/>
       <c r="R4" s="4"/>
       <c r="S4" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T4" s="2">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="T4" s="2">
+      <c r="U4" s="10">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="U4" s="10">
+      <c r="V4" s="1">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="V4" s="1">
+      <c r="W4" s="1">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="W4" s="1">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:23" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:23" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="54">
         <f>RAWDATA!B5</f>
         <v>0</v>
@@ -3146,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="E5" s="57">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F5" s="30" t="str">
@@ -3161,44 +3168,44 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L5" s="93">
+      <c r="L5" s="85">
         <f>IF(ISBLANK(Extrapunkte!J6),0,Extrapunkte!J6)</f>
         <v>0</v>
       </c>
       <c r="M5" s="34">
-        <f t="shared" si="1"/>
+        <f>IF(ISBLANK(RAWDATA!F5),SUM(K5:L5),RAWDATA!F5)</f>
         <v>0</v>
       </c>
       <c r="N5" s="4"/>
       <c r="O5" s="33"/>
       <c r="P5" s="34" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="Q5" s="33"/>
       <c r="R5" s="4"/>
       <c r="S5" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T5" s="2">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="T5" s="2">
+      <c r="U5" s="10">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="U5" s="10">
+      <c r="V5" s="1">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="V5" s="1">
+      <c r="W5" s="1">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="W5" s="1">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:23" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:23" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="54">
         <f>RAWDATA!B6</f>
         <v>0</v>
@@ -3216,7 +3223,7 @@
         <v>0</v>
       </c>
       <c r="E6" s="57">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F6" s="30" t="str">
@@ -3231,44 +3238,44 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L6" s="93">
+      <c r="L6" s="85">
         <f>IF(ISBLANK(Extrapunkte!J7),0,Extrapunkte!J7)</f>
         <v>0</v>
       </c>
       <c r="M6" s="34">
-        <f t="shared" si="1"/>
+        <f>IF(ISBLANK(RAWDATA!F6),SUM(K6:L6),RAWDATA!F6)</f>
         <v>0</v>
       </c>
       <c r="N6" s="4"/>
       <c r="O6" s="33"/>
       <c r="P6" s="34" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="Q6" s="33"/>
       <c r="R6" s="4"/>
       <c r="S6" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T6" s="2">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="T6" s="2">
+      <c r="U6" s="10">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="U6" s="10">
+      <c r="V6" s="1">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="V6" s="1">
+      <c r="W6" s="1">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="W6" s="1">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:23" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:23" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="54">
         <f>RAWDATA!B7</f>
         <v>0</v>
@@ -3286,7 +3293,7 @@
         <v>0</v>
       </c>
       <c r="E7" s="57">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F7" s="30" t="str">
@@ -3301,44 +3308,44 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L7" s="93">
+      <c r="L7" s="85">
         <f>IF(ISBLANK(Extrapunkte!J8),0,Extrapunkte!J8)</f>
         <v>0</v>
       </c>
       <c r="M7" s="34">
-        <f t="shared" si="1"/>
+        <f>IF(ISBLANK(RAWDATA!F7),SUM(K7:L7),RAWDATA!F7)</f>
         <v>0</v>
       </c>
       <c r="N7" s="4"/>
       <c r="O7" s="33"/>
       <c r="P7" s="34" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="Q7" s="33"/>
       <c r="R7" s="4"/>
       <c r="S7" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T7" s="2">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="10">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="U7" s="10">
+      <c r="V7" s="1">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="V7" s="1">
+      <c r="W7" s="1">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="W7" s="1">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:23" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:23" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="54">
         <f>RAWDATA!B8</f>
         <v>0</v>
@@ -3356,7 +3363,7 @@
         <v>0</v>
       </c>
       <c r="E8" s="57">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F8" s="30" t="str">
@@ -3371,44 +3378,44 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L8" s="93">
+      <c r="L8" s="85">
         <f>IF(ISBLANK(Extrapunkte!J9),0,Extrapunkte!J9)</f>
         <v>0</v>
       </c>
       <c r="M8" s="34">
-        <f t="shared" si="1"/>
+        <f>IF(ISBLANK(RAWDATA!F8),SUM(K8:L8),RAWDATA!F8)</f>
         <v>0</v>
       </c>
       <c r="N8" s="4"/>
       <c r="O8" s="33"/>
       <c r="P8" s="34" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="Q8" s="33"/>
       <c r="R8" s="4"/>
       <c r="S8" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T8" s="2">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="T8" s="2">
+      <c r="U8" s="10">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="U8" s="10">
+      <c r="V8" s="1">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="V8" s="1">
+      <c r="W8" s="1">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="W8" s="1">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:23" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:23" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="54">
         <f>RAWDATA!B9</f>
         <v>0</v>
@@ -3426,7 +3433,7 @@
         <v>0</v>
       </c>
       <c r="E9" s="57">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F9" s="30" t="str">
@@ -3441,44 +3448,44 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L9" s="93">
+      <c r="L9" s="85">
         <f>IF(ISBLANK(Extrapunkte!J10),0,Extrapunkte!J10)</f>
         <v>0</v>
       </c>
       <c r="M9" s="34">
-        <f t="shared" si="1"/>
+        <f>IF(ISBLANK(RAWDATA!F9),SUM(K9:L9),RAWDATA!F9)</f>
         <v>0</v>
       </c>
       <c r="N9" s="4"/>
       <c r="O9" s="33"/>
       <c r="P9" s="34" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="Q9" s="33"/>
       <c r="R9" s="4"/>
       <c r="S9" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T9" s="2">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="T9" s="2">
+      <c r="U9" s="10">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="U9" s="10">
+      <c r="V9" s="1">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="V9" s="1">
+      <c r="W9" s="1">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="W9" s="1">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:23" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:23" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="54">
         <f>RAWDATA!B10</f>
         <v>0</v>
@@ -3496,7 +3503,7 @@
         <v>0</v>
       </c>
       <c r="E10" s="57">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F10" s="30" t="str">
@@ -3511,44 +3518,44 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L10" s="93">
+      <c r="L10" s="85">
         <f>IF(ISBLANK(Extrapunkte!J11),0,Extrapunkte!J11)</f>
         <v>0</v>
       </c>
       <c r="M10" s="34">
-        <f t="shared" si="1"/>
+        <f>IF(ISBLANK(RAWDATA!F10),SUM(K10:L10),RAWDATA!F10)</f>
         <v>0</v>
       </c>
       <c r="N10" s="4"/>
       <c r="O10" s="33"/>
       <c r="P10" s="34" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="Q10" s="33"/>
       <c r="R10" s="4"/>
       <c r="S10" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T10" s="2">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="T10" s="2">
+      <c r="U10" s="10">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="U10" s="10">
+      <c r="V10" s="1">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="V10" s="1">
+      <c r="W10" s="1">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="W10" s="1">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:23" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:23" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="54">
         <f>RAWDATA!B11</f>
         <v>0</v>
@@ -3566,7 +3573,7 @@
         <v>0</v>
       </c>
       <c r="E11" s="57">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F11" s="30" t="str">
@@ -3581,44 +3588,44 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L11" s="93">
+      <c r="L11" s="85">
         <f>IF(ISBLANK(Extrapunkte!J12),0,Extrapunkte!J12)</f>
         <v>0</v>
       </c>
       <c r="M11" s="34">
-        <f t="shared" si="1"/>
+        <f>IF(ISBLANK(RAWDATA!F11),SUM(K11:L11),RAWDATA!F11)</f>
         <v>0</v>
       </c>
       <c r="N11" s="4"/>
       <c r="O11" s="33"/>
       <c r="P11" s="34" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="Q11" s="33"/>
       <c r="R11" s="4"/>
       <c r="S11" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T11" s="2">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="T11" s="2">
+      <c r="U11" s="10">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="U11" s="10">
+      <c r="V11" s="1">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="V11" s="1">
+      <c r="W11" s="1">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="W11" s="1">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:23" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:23" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="54">
         <f>RAWDATA!B12</f>
         <v>0</v>
@@ -3636,7 +3643,7 @@
         <v>0</v>
       </c>
       <c r="E12" s="57">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F12" s="30" t="str">
@@ -3651,44 +3658,44 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L12" s="93">
+      <c r="L12" s="85">
         <f>IF(ISBLANK(Extrapunkte!J13),0,Extrapunkte!J13)</f>
         <v>0</v>
       </c>
       <c r="M12" s="34">
-        <f t="shared" si="1"/>
+        <f>IF(ISBLANK(RAWDATA!F12),SUM(K12:L12),RAWDATA!F12)</f>
         <v>0</v>
       </c>
       <c r="N12" s="4"/>
       <c r="O12" s="33"/>
       <c r="P12" s="34" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="Q12" s="33"/>
       <c r="R12" s="4"/>
       <c r="S12" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T12" s="2">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="T12" s="2">
+      <c r="U12" s="10">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="U12" s="10">
+      <c r="V12" s="1">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="V12" s="1">
+      <c r="W12" s="1">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="W12" s="1">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:23" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:23" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="54">
         <f>RAWDATA!B13</f>
         <v>0</v>
@@ -3706,7 +3713,7 @@
         <v>0</v>
       </c>
       <c r="E13" s="57">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F13" s="30" t="str">
@@ -3721,44 +3728,44 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L13" s="93">
+      <c r="L13" s="85">
         <f>IF(ISBLANK(Extrapunkte!J14),0,Extrapunkte!J14)</f>
         <v>0</v>
       </c>
       <c r="M13" s="34">
-        <f t="shared" si="1"/>
+        <f>IF(ISBLANK(RAWDATA!F13),SUM(K13:L13),RAWDATA!F13)</f>
         <v>0</v>
       </c>
       <c r="N13" s="4"/>
       <c r="O13" s="33"/>
       <c r="P13" s="34" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="Q13" s="33"/>
       <c r="R13" s="4"/>
       <c r="S13" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T13" s="2">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="T13" s="2">
+      <c r="U13" s="10">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="U13" s="10">
+      <c r="V13" s="1">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="V13" s="1">
+      <c r="W13" s="1">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="W13" s="1">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:23" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="1:23" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="54">
         <f>RAWDATA!B14</f>
         <v>0</v>
@@ -3776,7 +3783,7 @@
         <v>0</v>
       </c>
       <c r="E14" s="57">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F14" s="30" t="str">
@@ -3791,44 +3798,44 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L14" s="93">
+      <c r="L14" s="85">
         <f>IF(ISBLANK(Extrapunkte!J15),0,Extrapunkte!J15)</f>
         <v>0</v>
       </c>
       <c r="M14" s="34">
-        <f t="shared" si="1"/>
+        <f>IF(ISBLANK(RAWDATA!F14),SUM(K14:L14),RAWDATA!F14)</f>
         <v>0</v>
       </c>
       <c r="N14" s="4"/>
       <c r="O14" s="33"/>
       <c r="P14" s="34" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="Q14" s="33"/>
       <c r="R14" s="4"/>
       <c r="S14" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T14" s="2">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="T14" s="2">
+      <c r="U14" s="10">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="U14" s="10">
+      <c r="V14" s="1">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="V14" s="1">
+      <c r="W14" s="1">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="W14" s="1">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:23" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="1:23" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="54">
         <f>RAWDATA!B15</f>
         <v>0</v>
@@ -3846,7 +3853,7 @@
         <v>0</v>
       </c>
       <c r="E15" s="57">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F15" s="30" t="str">
@@ -3861,44 +3868,44 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L15" s="93">
+      <c r="L15" s="85">
         <f>IF(ISBLANK(Extrapunkte!J16),0,Extrapunkte!J16)</f>
         <v>0</v>
       </c>
       <c r="M15" s="34">
-        <f t="shared" si="1"/>
+        <f>IF(ISBLANK(RAWDATA!F15),SUM(K15:L15),RAWDATA!F15)</f>
         <v>0</v>
       </c>
       <c r="N15" s="4"/>
       <c r="O15" s="33"/>
       <c r="P15" s="34" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="Q15" s="33"/>
       <c r="R15" s="4"/>
       <c r="S15" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T15" s="2">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="T15" s="2">
+      <c r="U15" s="10">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="U15" s="10">
+      <c r="V15" s="1">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="V15" s="1">
+      <c r="W15" s="1">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="W15" s="1">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:23" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="1:23" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="54">
         <f>RAWDATA!B16</f>
         <v>0</v>
@@ -3916,7 +3923,7 @@
         <v>0</v>
       </c>
       <c r="E16" s="57">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F16" s="30" t="str">
@@ -3931,44 +3938,44 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L16" s="93">
+      <c r="L16" s="85">
         <f>IF(ISBLANK(Extrapunkte!J17),0,Extrapunkte!J17)</f>
         <v>0</v>
       </c>
       <c r="M16" s="34">
-        <f t="shared" si="1"/>
+        <f>IF(ISBLANK(RAWDATA!F16),SUM(K16:L16),RAWDATA!F16)</f>
         <v>0</v>
       </c>
       <c r="N16" s="4"/>
       <c r="O16" s="33"/>
       <c r="P16" s="34" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="Q16" s="33"/>
       <c r="R16" s="4"/>
       <c r="S16" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T16" s="2">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="T16" s="2">
+      <c r="U16" s="10">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="U16" s="10">
+      <c r="V16" s="1">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="V16" s="1">
+      <c r="W16" s="1">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="W16" s="1">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:23" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="17" spans="1:23" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="54">
         <f>RAWDATA!B17</f>
         <v>0</v>
@@ -3986,7 +3993,7 @@
         <v>0</v>
       </c>
       <c r="E17" s="57">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F17" s="30" t="str">
@@ -4001,44 +4008,44 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L17" s="93">
+      <c r="L17" s="85">
         <f>IF(ISBLANK(Extrapunkte!J18),0,Extrapunkte!J18)</f>
         <v>0</v>
       </c>
       <c r="M17" s="34">
-        <f t="shared" si="1"/>
+        <f>IF(ISBLANK(RAWDATA!F17),SUM(K17:L17),RAWDATA!F17)</f>
         <v>0</v>
       </c>
       <c r="N17" s="4"/>
       <c r="O17" s="33"/>
       <c r="P17" s="34" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="Q17" s="33"/>
       <c r="R17" s="4"/>
       <c r="S17" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T17" s="2">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="T17" s="2">
+      <c r="U17" s="10">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="U17" s="10">
+      <c r="V17" s="1">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="V17" s="1">
+      <c r="W17" s="1">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="W17" s="1">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:23" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" spans="1:23" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="54">
         <f>RAWDATA!B18</f>
         <v>0</v>
@@ -4056,7 +4063,7 @@
         <v>0</v>
       </c>
       <c r="E18" s="57">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F18" s="30" t="str">
@@ -4071,44 +4078,44 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L18" s="93">
+      <c r="L18" s="85">
         <f>IF(ISBLANK(Extrapunkte!J19),0,Extrapunkte!J19)</f>
         <v>0</v>
       </c>
       <c r="M18" s="34">
-        <f t="shared" si="1"/>
+        <f>IF(ISBLANK(RAWDATA!F18),SUM(K18:L18),RAWDATA!F18)</f>
         <v>0</v>
       </c>
       <c r="N18" s="4"/>
       <c r="O18" s="33"/>
       <c r="P18" s="34" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="Q18" s="33"/>
       <c r="R18" s="4"/>
       <c r="S18" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T18" s="2">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="T18" s="2">
+      <c r="U18" s="10">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="U18" s="10">
+      <c r="V18" s="1">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="V18" s="1">
+      <c r="W18" s="1">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="W18" s="1">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:23" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="19" spans="1:23" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="54">
         <f>RAWDATA!B19</f>
         <v>0</v>
@@ -4126,7 +4133,7 @@
         <v>0</v>
       </c>
       <c r="E19" s="57">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F19" s="30" t="str">
@@ -4141,44 +4148,44 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L19" s="93">
+      <c r="L19" s="85">
         <f>IF(ISBLANK(Extrapunkte!J20),0,Extrapunkte!J20)</f>
         <v>0</v>
       </c>
       <c r="M19" s="34">
-        <f t="shared" si="1"/>
+        <f>IF(ISBLANK(RAWDATA!F19),SUM(K19:L19),RAWDATA!F19)</f>
         <v>0</v>
       </c>
       <c r="N19" s="4"/>
       <c r="O19" s="33"/>
       <c r="P19" s="34" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="Q19" s="33"/>
       <c r="R19" s="4"/>
       <c r="S19" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T19" s="2">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="T19" s="2">
+      <c r="U19" s="10">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="U19" s="10">
+      <c r="V19" s="1">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="V19" s="1">
+      <c r="W19" s="1">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="W19" s="1">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:23" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="20" spans="1:23" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="54">
         <f>RAWDATA!B20</f>
         <v>0</v>
@@ -4196,7 +4203,7 @@
         <v>0</v>
       </c>
       <c r="E20" s="57">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F20" s="30" t="str">
@@ -4211,44 +4218,44 @@
         <f>SUM(H20:J20)</f>
         <v>0</v>
       </c>
-      <c r="L20" s="93">
+      <c r="L20" s="85">
         <f>IF(ISBLANK(Extrapunkte!J21),0,Extrapunkte!J21)</f>
         <v>0</v>
       </c>
       <c r="M20" s="34">
-        <f t="shared" si="1"/>
+        <f>IF(ISBLANK(RAWDATA!F20),SUM(K20:L20),RAWDATA!F20)</f>
         <v>0</v>
       </c>
       <c r="N20" s="4"/>
       <c r="O20" s="33"/>
       <c r="P20" s="34" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="Q20" s="33"/>
       <c r="R20" s="4"/>
       <c r="S20" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T20" s="2">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="T20" s="2">
+      <c r="U20" s="10">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="U20" s="10">
+      <c r="V20" s="1">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="V20" s="1">
+      <c r="W20" s="1">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="W20" s="1">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:23" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="21" spans="1:23" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="54">
         <f>RAWDATA!B21</f>
         <v>0</v>
@@ -4266,7 +4273,7 @@
         <v>0</v>
       </c>
       <c r="E21" s="57">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F21" s="30" t="str">
@@ -4281,44 +4288,44 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L21" s="93">
+      <c r="L21" s="85">
         <f>IF(ISBLANK(Extrapunkte!J22),0,Extrapunkte!J22)</f>
         <v>0</v>
       </c>
       <c r="M21" s="34">
-        <f t="shared" si="1"/>
+        <f>IF(ISBLANK(RAWDATA!F21),SUM(K21:L21),RAWDATA!F21)</f>
         <v>0</v>
       </c>
       <c r="N21" s="4"/>
       <c r="O21" s="33"/>
       <c r="P21" s="34" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="Q21" s="33"/>
       <c r="R21" s="4"/>
       <c r="S21" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T21" s="2">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="T21" s="2">
+      <c r="U21" s="10">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="U21" s="10">
+      <c r="V21" s="1">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="V21" s="1">
+      <c r="W21" s="1">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="W21" s="1">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:23" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="22" spans="1:23" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="54">
         <f>RAWDATA!B22</f>
         <v>0</v>
@@ -4336,7 +4343,7 @@
         <v>0</v>
       </c>
       <c r="E22" s="57">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F22" s="30" t="str">
@@ -4351,44 +4358,44 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L22" s="93">
+      <c r="L22" s="85">
         <f>IF(ISBLANK(Extrapunkte!J23),0,Extrapunkte!J23)</f>
         <v>0</v>
       </c>
       <c r="M22" s="34">
-        <f t="shared" si="1"/>
+        <f>IF(ISBLANK(RAWDATA!F22),SUM(K22:L22),RAWDATA!F22)</f>
         <v>0</v>
       </c>
       <c r="N22" s="4"/>
       <c r="O22" s="33"/>
       <c r="P22" s="34" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="Q22" s="33"/>
       <c r="R22" s="4"/>
       <c r="S22" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T22" s="2">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="T22" s="2">
+      <c r="U22" s="10">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="U22" s="10">
+      <c r="V22" s="1">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="V22" s="1">
+      <c r="W22" s="1">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="W22" s="1">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:23" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="23" spans="1:23" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="54">
         <f>RAWDATA!B23</f>
         <v>0</v>
@@ -4406,7 +4413,7 @@
         <v>0</v>
       </c>
       <c r="E23" s="57">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F23" s="30" t="str">
@@ -4421,44 +4428,44 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L23" s="93">
+      <c r="L23" s="85">
         <f>IF(ISBLANK(Extrapunkte!J24),0,Extrapunkte!J24)</f>
         <v>0</v>
       </c>
       <c r="M23" s="34">
-        <f t="shared" si="1"/>
+        <f>IF(ISBLANK(RAWDATA!F23),SUM(K23:L23),RAWDATA!F23)</f>
         <v>0</v>
       </c>
       <c r="N23" s="4"/>
       <c r="O23" s="33"/>
       <c r="P23" s="34" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="Q23" s="33"/>
       <c r="R23" s="4"/>
       <c r="S23" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T23" s="2">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="T23" s="2">
+      <c r="U23" s="10">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="U23" s="10">
+      <c r="V23" s="1">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="V23" s="1">
+      <c r="W23" s="1">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="W23" s="1">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:23" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="24" spans="1:23" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="54">
         <f>RAWDATA!B24</f>
         <v>0</v>
@@ -4476,7 +4483,7 @@
         <v>0</v>
       </c>
       <c r="E24" s="57">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F24" s="30" t="str">
@@ -4491,44 +4498,44 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L24" s="93">
+      <c r="L24" s="85">
         <f>IF(ISBLANK(Extrapunkte!J25),0,Extrapunkte!J25)</f>
         <v>0</v>
       </c>
       <c r="M24" s="34">
-        <f t="shared" si="1"/>
+        <f>IF(ISBLANK(RAWDATA!F24),SUM(K24:L24),RAWDATA!F24)</f>
         <v>0</v>
       </c>
       <c r="N24" s="4"/>
       <c r="O24" s="33"/>
       <c r="P24" s="34" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="Q24" s="33"/>
       <c r="R24" s="4"/>
       <c r="S24" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T24" s="2">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="T24" s="2">
+      <c r="U24" s="10">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="U24" s="10">
+      <c r="V24" s="1">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="V24" s="1">
+      <c r="W24" s="1">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="W24" s="1">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:23" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="25" spans="1:23" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="54">
         <f>RAWDATA!B25</f>
         <v>0</v>
@@ -4546,7 +4553,7 @@
         <v>0</v>
       </c>
       <c r="E25" s="57">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F25" s="30" t="str">
@@ -4561,44 +4568,44 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L25" s="93">
+      <c r="L25" s="85">
         <f>IF(ISBLANK(Extrapunkte!J26),0,Extrapunkte!J26)</f>
         <v>0</v>
       </c>
       <c r="M25" s="34">
-        <f t="shared" si="1"/>
+        <f>IF(ISBLANK(RAWDATA!F25),SUM(K25:L25),RAWDATA!F25)</f>
         <v>0</v>
       </c>
       <c r="N25" s="4"/>
       <c r="O25" s="33"/>
       <c r="P25" s="34" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="Q25" s="33"/>
       <c r="R25" s="4"/>
       <c r="S25" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T25" s="2">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="T25" s="2">
+      <c r="U25" s="10">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="U25" s="10">
+      <c r="V25" s="1">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="V25" s="1">
+      <c r="W25" s="1">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="W25" s="1">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:23" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="26" spans="1:23" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="54">
         <f>RAWDATA!B26</f>
         <v>0</v>
@@ -4616,7 +4623,7 @@
         <v>0</v>
       </c>
       <c r="E26" s="57">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F26" s="30" t="str">
@@ -4631,44 +4638,44 @@
         <f>SUM(H26:J26)</f>
         <v>0</v>
       </c>
-      <c r="L26" s="93">
+      <c r="L26" s="85">
         <f>IF(ISBLANK(Extrapunkte!J27),0,Extrapunkte!J27)</f>
         <v>0</v>
       </c>
       <c r="M26" s="34">
-        <f t="shared" si="1"/>
+        <f>IF(ISBLANK(RAWDATA!F26),SUM(K26:L26),RAWDATA!F26)</f>
         <v>0</v>
       </c>
       <c r="N26" s="4"/>
       <c r="O26" s="33"/>
       <c r="P26" s="34" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="Q26" s="33"/>
       <c r="R26" s="4"/>
       <c r="S26" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T26" s="2">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="T26" s="2">
+      <c r="U26" s="10">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="U26" s="10">
+      <c r="V26" s="1">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="V26" s="1">
+      <c r="W26" s="1">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="W26" s="1">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:23" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="27" spans="1:23" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="4"/>
       <c r="B27" s="4" t="s">
         <v>9</v>
@@ -4695,7 +4702,7 @@
       <c r="Q27" s="4"/>
       <c r="R27" s="4"/>
     </row>
-    <row r="28" spans="1:23" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:23" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="1" t="s">
         <v>55</v>
       </c>
@@ -4705,23 +4712,23 @@
       </c>
       <c r="G28" s="4"/>
       <c r="H28" s="10" t="e">
-        <f t="shared" ref="H28:K28" si="9">AVERAGEIF(H2:H26,"&gt;0")</f>
+        <f t="shared" ref="H28:K28" si="8">AVERAGEIF(H2:H26,"&gt;0")</f>
         <v>#DIV/0!</v>
       </c>
       <c r="I28" s="10" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J28" s="10" t="e">
-        <f t="shared" ref="J28" si="10">AVERAGEIF(J2:J26,"&gt;0")</f>
+        <f t="shared" ref="J28" si="9">AVERAGEIF(J2:J26,"&gt;0")</f>
         <v>#DIV/0!</v>
       </c>
       <c r="K28" s="10" t="e">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="L28" s="10" t="e">
-        <f t="shared" ref="L28" si="11">AVERAGEIF(L2:L26,"&gt;0")</f>
+        <f t="shared" ref="L28" si="10">AVERAGEIF(L2:L26,"&gt;0")</f>
         <v>#DIV/0!</v>
       </c>
       <c r="M28" s="10" t="e">
@@ -4734,7 +4741,7 @@
       <c r="Q28" s="4"/>
       <c r="R28" s="4"/>
     </row>
-    <row r="29" spans="1:23" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:23" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="4"/>
       <c r="B29" s="4" t="s">
         <v>10</v>
@@ -4744,7 +4751,7 @@
       <c r="E29" s="9"/>
       <c r="F29" s="5" t="e">
         <f>ROUNDUP(STDEVP(F2:F18),1)</f>
-        <v>#DIV/0!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="G29" s="4"/>
       <c r="H29" s="5" t="e">
@@ -4752,11 +4759,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="I29" s="5" t="e">
-        <f t="shared" ref="I29" si="12">ROUNDUP(STDEVP(I2:I26),1)</f>
+        <f t="shared" ref="I29" si="11">ROUNDUP(STDEVP(I2:I26),1)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="J29" s="5" t="e">
-        <f t="shared" ref="J29" si="13">ROUNDUP(STDEVP(J2:J26),1)</f>
+        <f t="shared" ref="J29" si="12">ROUNDUP(STDEVP(J2:J26),1)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="K29" s="5"/>
@@ -4768,7 +4775,7 @@
       <c r="Q29" s="4"/>
       <c r="R29" s="4"/>
     </row>
-    <row r="30" spans="1:23" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:23" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="22"/>
       <c r="B30" s="22"/>
       <c r="C30" s="23"/>
@@ -4788,7 +4795,7 @@
       <c r="Q30" s="22"/>
       <c r="R30" s="22"/>
     </row>
-    <row r="31" spans="1:23" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:23" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
         <v>13</v>
       </c>
@@ -4796,24 +4803,24 @@
         <v>81</v>
       </c>
       <c r="C31" s="23"/>
-      <c r="E31" s="95" t="s">
+      <c r="E31" s="86" t="s">
         <v>32</v>
       </c>
-      <c r="F31" s="95"/>
-      <c r="G31" s="95"/>
-      <c r="H31" s="95"/>
-      <c r="I31" s="95"/>
-      <c r="J31" s="95"/>
-      <c r="K31" s="95"/>
-      <c r="L31" s="95"/>
-      <c r="M31" s="95"/>
-      <c r="N31" s="95"/>
-      <c r="O31" s="95"/>
-      <c r="P31" s="95"/>
-      <c r="Q31" s="95"/>
+      <c r="F31" s="86"/>
+      <c r="G31" s="86"/>
+      <c r="H31" s="86"/>
+      <c r="I31" s="86"/>
+      <c r="J31" s="86"/>
+      <c r="K31" s="86"/>
+      <c r="L31" s="86"/>
+      <c r="M31" s="86"/>
+      <c r="N31" s="86"/>
+      <c r="O31" s="86"/>
+      <c r="P31" s="86"/>
+      <c r="Q31" s="86"/>
       <c r="R31" s="31"/>
     </row>
-    <row r="32" spans="1:23" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:23" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
         <v>14</v>
       </c>
@@ -4822,22 +4829,22 @@
       </c>
       <c r="C32" s="23"/>
       <c r="D32" s="79"/>
-      <c r="E32" s="95"/>
-      <c r="F32" s="95"/>
-      <c r="G32" s="95"/>
-      <c r="H32" s="95"/>
-      <c r="I32" s="95"/>
-      <c r="J32" s="95"/>
-      <c r="K32" s="95"/>
-      <c r="L32" s="95"/>
-      <c r="M32" s="95"/>
-      <c r="N32" s="95"/>
-      <c r="O32" s="95"/>
-      <c r="P32" s="95"/>
-      <c r="Q32" s="95"/>
+      <c r="E32" s="86"/>
+      <c r="F32" s="86"/>
+      <c r="G32" s="86"/>
+      <c r="H32" s="86"/>
+      <c r="I32" s="86"/>
+      <c r="J32" s="86"/>
+      <c r="K32" s="86"/>
+      <c r="L32" s="86"/>
+      <c r="M32" s="86"/>
+      <c r="N32" s="86"/>
+      <c r="O32" s="86"/>
+      <c r="P32" s="86"/>
+      <c r="Q32" s="86"/>
       <c r="R32" s="31"/>
     </row>
-    <row r="33" spans="1:18" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:18" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
         <v>15</v>
       </c>
@@ -4846,22 +4853,22 @@
       </c>
       <c r="C33" s="23"/>
       <c r="D33" s="79"/>
-      <c r="E33" s="95"/>
-      <c r="F33" s="95"/>
-      <c r="G33" s="95"/>
-      <c r="H33" s="95"/>
-      <c r="I33" s="95"/>
-      <c r="J33" s="95"/>
-      <c r="K33" s="95"/>
-      <c r="L33" s="95"/>
-      <c r="M33" s="95"/>
-      <c r="N33" s="95"/>
-      <c r="O33" s="95"/>
-      <c r="P33" s="95"/>
-      <c r="Q33" s="95"/>
+      <c r="E33" s="86"/>
+      <c r="F33" s="86"/>
+      <c r="G33" s="86"/>
+      <c r="H33" s="86"/>
+      <c r="I33" s="86"/>
+      <c r="J33" s="86"/>
+      <c r="K33" s="86"/>
+      <c r="L33" s="86"/>
+      <c r="M33" s="86"/>
+      <c r="N33" s="86"/>
+      <c r="O33" s="86"/>
+      <c r="P33" s="86"/>
+      <c r="Q33" s="86"/>
       <c r="R33" s="31"/>
     </row>
-    <row r="34" spans="1:18" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:18" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
         <v>16</v>
       </c>
@@ -4872,22 +4879,22 @@
         <v>126</v>
       </c>
       <c r="D34" s="79"/>
-      <c r="E34" s="95"/>
-      <c r="F34" s="95"/>
-      <c r="G34" s="95"/>
-      <c r="H34" s="95"/>
-      <c r="I34" s="95"/>
-      <c r="J34" s="95"/>
-      <c r="K34" s="95"/>
-      <c r="L34" s="95"/>
-      <c r="M34" s="95"/>
-      <c r="N34" s="95"/>
-      <c r="O34" s="95"/>
-      <c r="P34" s="95"/>
-      <c r="Q34" s="95"/>
+      <c r="E34" s="86"/>
+      <c r="F34" s="86"/>
+      <c r="G34" s="86"/>
+      <c r="H34" s="86"/>
+      <c r="I34" s="86"/>
+      <c r="J34" s="86"/>
+      <c r="K34" s="86"/>
+      <c r="L34" s="86"/>
+      <c r="M34" s="86"/>
+      <c r="N34" s="86"/>
+      <c r="O34" s="86"/>
+      <c r="P34" s="86"/>
+      <c r="Q34" s="86"/>
       <c r="R34" s="31"/>
     </row>
-    <row r="35" spans="1:18" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:18" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
         <v>44</v>
       </c>
@@ -4896,22 +4903,22 @@
       </c>
       <c r="C35" s="23"/>
       <c r="D35" s="79"/>
-      <c r="E35" s="95"/>
-      <c r="F35" s="95"/>
-      <c r="G35" s="95"/>
-      <c r="H35" s="95"/>
-      <c r="I35" s="95"/>
-      <c r="J35" s="95"/>
-      <c r="K35" s="95"/>
-      <c r="L35" s="95"/>
-      <c r="M35" s="95"/>
-      <c r="N35" s="95"/>
-      <c r="O35" s="95"/>
-      <c r="P35" s="95"/>
-      <c r="Q35" s="95"/>
+      <c r="E35" s="86"/>
+      <c r="F35" s="86"/>
+      <c r="G35" s="86"/>
+      <c r="H35" s="86"/>
+      <c r="I35" s="86"/>
+      <c r="J35" s="86"/>
+      <c r="K35" s="86"/>
+      <c r="L35" s="86"/>
+      <c r="M35" s="86"/>
+      <c r="N35" s="86"/>
+      <c r="O35" s="86"/>
+      <c r="P35" s="86"/>
+      <c r="Q35" s="86"/>
       <c r="R35" s="31"/>
     </row>
-    <row r="36" spans="1:18" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:18" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
         <v>30</v>
       </c>
@@ -4920,22 +4927,22 @@
       </c>
       <c r="C36" s="23"/>
       <c r="D36" s="79"/>
-      <c r="E36" s="95"/>
-      <c r="F36" s="95"/>
-      <c r="G36" s="95"/>
-      <c r="H36" s="95"/>
-      <c r="I36" s="95"/>
-      <c r="J36" s="95"/>
-      <c r="K36" s="95"/>
-      <c r="L36" s="95"/>
-      <c r="M36" s="95"/>
-      <c r="N36" s="95"/>
-      <c r="O36" s="95"/>
-      <c r="P36" s="95"/>
-      <c r="Q36" s="95"/>
+      <c r="E36" s="86"/>
+      <c r="F36" s="86"/>
+      <c r="G36" s="86"/>
+      <c r="H36" s="86"/>
+      <c r="I36" s="86"/>
+      <c r="J36" s="86"/>
+      <c r="K36" s="86"/>
+      <c r="L36" s="86"/>
+      <c r="M36" s="86"/>
+      <c r="N36" s="86"/>
+      <c r="O36" s="86"/>
+      <c r="P36" s="86"/>
+      <c r="Q36" s="86"/>
       <c r="R36" s="31"/>
     </row>
-    <row r="37" spans="1:18" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:18" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
         <v>54</v>
       </c>
@@ -4959,7 +4966,7 @@
       <c r="Q37" s="31"/>
       <c r="R37" s="31"/>
     </row>
-    <row r="38" spans="1:18" ht="13.9" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:18" ht="13.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="O38" s="22"/>
       <c r="P38" s="25"/>
       <c r="Q38" s="22"/>
@@ -4973,22 +4980,17 @@
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <conditionalFormatting sqref="H26">
-    <cfRule type="cellIs" dxfId="10" priority="9" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="2" priority="9" stopIfTrue="1" operator="greaterThan">
       <formula>$H$27</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I26">
-    <cfRule type="cellIs" dxfId="9" priority="8" stopIfTrue="1" operator="greaterThan">
-      <formula>$I$27</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J26">
-    <cfRule type="cellIs" dxfId="8" priority="3" stopIfTrue="1" operator="greaterThan">
+  <conditionalFormatting sqref="I26:J26">
+    <cfRule type="cellIs" dxfId="1" priority="3" stopIfTrue="1" operator="greaterThan">
       <formula>$I$27</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations disablePrompts="1" count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B31">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B31" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>DOZENT</formula1>
     </dataValidation>
   </dataValidations>
@@ -5003,38 +5005,38 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:K30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" customWidth="1"/>
-    <col min="3" max="3" width="10.5703125" customWidth="1"/>
+    <col min="1" max="1" width="15.6640625" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" customWidth="1"/>
+    <col min="3" max="3" width="10.5546875" customWidth="1"/>
     <col min="4" max="4" width="14" customWidth="1"/>
-    <col min="5" max="9" width="10.7109375" style="87" customWidth="1"/>
-    <col min="10" max="10" width="10.5703125" style="87" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="5.7109375" customWidth="1"/>
+    <col min="5" max="9" width="10.6640625" customWidth="1"/>
+    <col min="10" max="10" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="92" t="str">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1" s="84" t="str">
         <f>Notenliste!B34</f>
         <v>course.name</v>
       </c>
-      <c r="E1" s="96" t="s">
+      <c r="E1" s="87" t="s">
         <v>131</v>
       </c>
-      <c r="F1" s="97"/>
-      <c r="G1" s="97"/>
-      <c r="H1" s="97"/>
-      <c r="I1" s="97"/>
-    </row>
-    <row r="2" spans="1:11" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="F1" s="88"/>
+      <c r="G1" s="88"/>
+      <c r="H1" s="88"/>
+      <c r="I1" s="88"/>
+    </row>
+    <row r="2" spans="1:11" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A2" s="26" t="s">
         <v>0</v>
       </c>
@@ -5047,27 +5049,27 @@
       <c r="D2" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="E2" s="84" t="s">
+      <c r="E2" s="27" t="s">
         <v>132</v>
       </c>
-      <c r="F2" s="84" t="s">
+      <c r="F2" s="27" t="s">
         <v>133</v>
       </c>
-      <c r="G2" s="84" t="s">
+      <c r="G2" s="27" t="s">
         <v>134</v>
       </c>
-      <c r="H2" s="84" t="s">
+      <c r="H2" s="27" t="s">
         <v>135</v>
       </c>
-      <c r="I2" s="84" t="s">
+      <c r="I2" s="27" t="s">
         <v>137</v>
       </c>
-      <c r="J2" s="84" t="s">
+      <c r="J2" s="27" t="s">
         <v>136</v>
       </c>
       <c r="K2" s="4"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="82" t="str">
         <f>RAWDATA!B2</f>
         <v>applicant.last_name</v>
@@ -5089,13 +5091,13 @@
       <c r="G3" s="83"/>
       <c r="H3" s="83"/>
       <c r="I3" s="83"/>
-      <c r="J3" s="88">
+      <c r="J3" s="30">
         <f>SUM(E3:I3)</f>
         <v>0</v>
       </c>
       <c r="K3" s="4"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="82">
         <f>RAWDATA!B3</f>
         <v>0</v>
@@ -5117,13 +5119,13 @@
       <c r="G4" s="83"/>
       <c r="H4" s="83"/>
       <c r="I4" s="83"/>
-      <c r="J4" s="88">
+      <c r="J4" s="30">
         <f t="shared" ref="J4:J27" si="0">SUM(E4:I4)</f>
         <v>0</v>
       </c>
       <c r="K4" s="4"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="82">
         <f>RAWDATA!B4</f>
         <v>0</v>
@@ -5145,13 +5147,13 @@
       <c r="G5" s="83"/>
       <c r="H5" s="83"/>
       <c r="I5" s="83"/>
-      <c r="J5" s="88">
+      <c r="J5" s="30">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="82">
         <f>RAWDATA!B5</f>
         <v>0</v>
@@ -5173,13 +5175,13 @@
       <c r="G6" s="83"/>
       <c r="H6" s="83"/>
       <c r="I6" s="83"/>
-      <c r="J6" s="88">
+      <c r="J6" s="30">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K6" s="4"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="82">
         <f>RAWDATA!B6</f>
         <v>0</v>
@@ -5201,13 +5203,13 @@
       <c r="G7" s="83"/>
       <c r="H7" s="83"/>
       <c r="I7" s="83"/>
-      <c r="J7" s="88">
+      <c r="J7" s="30">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K7" s="4"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="82">
         <f>RAWDATA!B7</f>
         <v>0</v>
@@ -5229,13 +5231,13 @@
       <c r="G8" s="83"/>
       <c r="H8" s="83"/>
       <c r="I8" s="83"/>
-      <c r="J8" s="88">
+      <c r="J8" s="30">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K8" s="4"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="82">
         <f>RAWDATA!B8</f>
         <v>0</v>
@@ -5257,13 +5259,13 @@
       <c r="G9" s="83"/>
       <c r="H9" s="83"/>
       <c r="I9" s="83"/>
-      <c r="J9" s="88">
+      <c r="J9" s="30">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K9" s="4"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="82">
         <f>RAWDATA!B9</f>
         <v>0</v>
@@ -5285,13 +5287,13 @@
       <c r="G10" s="83"/>
       <c r="H10" s="83"/>
       <c r="I10" s="83"/>
-      <c r="J10" s="88">
+      <c r="J10" s="30">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K10" s="4"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="82">
         <f>RAWDATA!B10</f>
         <v>0</v>
@@ -5313,13 +5315,13 @@
       <c r="G11" s="83"/>
       <c r="H11" s="83"/>
       <c r="I11" s="83"/>
-      <c r="J11" s="88">
+      <c r="J11" s="30">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K11" s="4"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="82">
         <f>RAWDATA!B11</f>
         <v>0</v>
@@ -5341,13 +5343,13 @@
       <c r="G12" s="83"/>
       <c r="H12" s="83"/>
       <c r="I12" s="83"/>
-      <c r="J12" s="88">
+      <c r="J12" s="30">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K12" s="4"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="82">
         <f>RAWDATA!B12</f>
         <v>0</v>
@@ -5369,13 +5371,13 @@
       <c r="G13" s="83"/>
       <c r="H13" s="83"/>
       <c r="I13" s="83"/>
-      <c r="J13" s="88">
+      <c r="J13" s="30">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K13" s="4"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="82">
         <f>RAWDATA!B13</f>
         <v>0</v>
@@ -5397,13 +5399,13 @@
       <c r="G14" s="83"/>
       <c r="H14" s="83"/>
       <c r="I14" s="83"/>
-      <c r="J14" s="88">
+      <c r="J14" s="30">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K14" s="4"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="82">
         <f>RAWDATA!B14</f>
         <v>0</v>
@@ -5425,13 +5427,13 @@
       <c r="G15" s="83"/>
       <c r="H15" s="83"/>
       <c r="I15" s="83"/>
-      <c r="J15" s="88">
+      <c r="J15" s="30">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K15" s="4"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="82">
         <f>RAWDATA!B15</f>
         <v>0</v>
@@ -5453,13 +5455,13 @@
       <c r="G16" s="83"/>
       <c r="H16" s="83"/>
       <c r="I16" s="83"/>
-      <c r="J16" s="88">
+      <c r="J16" s="30">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K16" s="4"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="82">
         <f>RAWDATA!B16</f>
         <v>0</v>
@@ -5481,13 +5483,13 @@
       <c r="G17" s="83"/>
       <c r="H17" s="83"/>
       <c r="I17" s="83"/>
-      <c r="J17" s="88">
+      <c r="J17" s="30">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K17" s="4"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="82">
         <f>RAWDATA!B17</f>
         <v>0</v>
@@ -5509,13 +5511,13 @@
       <c r="G18" s="83"/>
       <c r="H18" s="83"/>
       <c r="I18" s="83"/>
-      <c r="J18" s="88">
+      <c r="J18" s="30">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K18" s="4"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="82">
         <f>RAWDATA!B18</f>
         <v>0</v>
@@ -5537,13 +5539,13 @@
       <c r="G19" s="83"/>
       <c r="H19" s="83"/>
       <c r="I19" s="83"/>
-      <c r="J19" s="88">
+      <c r="J19" s="30">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K19" s="4"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="82">
         <f>RAWDATA!B19</f>
         <v>0</v>
@@ -5565,13 +5567,13 @@
       <c r="G20" s="83"/>
       <c r="H20" s="83"/>
       <c r="I20" s="83"/>
-      <c r="J20" s="88">
+      <c r="J20" s="30">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K20" s="4"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="82">
         <f>RAWDATA!B20</f>
         <v>0</v>
@@ -5593,13 +5595,13 @@
       <c r="G21" s="83"/>
       <c r="H21" s="83"/>
       <c r="I21" s="83"/>
-      <c r="J21" s="88">
+      <c r="J21" s="30">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K21" s="4"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="82">
         <f>RAWDATA!B21</f>
         <v>0</v>
@@ -5621,13 +5623,13 @@
       <c r="G22" s="83"/>
       <c r="H22" s="83"/>
       <c r="I22" s="83"/>
-      <c r="J22" s="88">
+      <c r="J22" s="30">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K22" s="4"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="82">
         <f>RAWDATA!B22</f>
         <v>0</v>
@@ -5649,13 +5651,13 @@
       <c r="G23" s="83"/>
       <c r="H23" s="83"/>
       <c r="I23" s="83"/>
-      <c r="J23" s="88">
+      <c r="J23" s="30">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K23" s="4"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="82">
         <f>RAWDATA!B23</f>
         <v>0</v>
@@ -5677,13 +5679,13 @@
       <c r="G24" s="83"/>
       <c r="H24" s="83"/>
       <c r="I24" s="83"/>
-      <c r="J24" s="88">
+      <c r="J24" s="30">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K24" s="4"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="82">
         <f>RAWDATA!B24</f>
         <v>0</v>
@@ -5705,13 +5707,13 @@
       <c r="G25" s="83"/>
       <c r="H25" s="83"/>
       <c r="I25" s="83"/>
-      <c r="J25" s="88">
+      <c r="J25" s="30">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K25" s="4"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="82">
         <f>RAWDATA!B25</f>
         <v>0</v>
@@ -5733,13 +5735,13 @@
       <c r="G26" s="83"/>
       <c r="H26" s="83"/>
       <c r="I26" s="83"/>
-      <c r="J26" s="88">
+      <c r="J26" s="30">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K26" s="4"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="82">
         <f>RAWDATA!B26</f>
         <v>0</v>
@@ -5761,58 +5763,58 @@
       <c r="G27" s="83"/>
       <c r="H27" s="83"/>
       <c r="I27" s="83"/>
-      <c r="J27" s="88">
+      <c r="J27" s="30">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K27" s="4"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="4"/>
       <c r="B28" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C28" s="6"/>
       <c r="D28" s="6"/>
-      <c r="E28" s="85"/>
-      <c r="F28" s="85"/>
-      <c r="G28" s="85"/>
-      <c r="H28" s="85"/>
-      <c r="I28" s="85"/>
-      <c r="J28" s="89"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="9"/>
+      <c r="I28" s="9"/>
+      <c r="J28" s="4"/>
       <c r="K28" s="4"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="1" t="s">
         <v>129</v>
       </c>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
-      <c r="E29" s="86"/>
-      <c r="F29" s="86"/>
-      <c r="G29" s="86"/>
-      <c r="H29" s="86"/>
-      <c r="I29" s="86"/>
-      <c r="J29" s="90">
+      <c r="E29" s="11"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="11"/>
+      <c r="H29" s="11"/>
+      <c r="I29" s="11"/>
+      <c r="J29" s="10">
         <f>AVERAGE(IF(ISNUMBER(J3:J27),J3:J27))</f>
         <v>0</v>
       </c>
       <c r="K29" s="4"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="4"/>
       <c r="B30" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C30" s="6"/>
       <c r="D30" s="6"/>
-      <c r="E30" s="85"/>
-      <c r="F30" s="85"/>
-      <c r="G30" s="85"/>
-      <c r="H30" s="85"/>
-      <c r="I30" s="85"/>
-      <c r="J30" s="91">
+      <c r="E30" s="9"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="9"/>
+      <c r="H30" s="9"/>
+      <c r="I30" s="9"/>
+      <c r="J30" s="5">
         <f>ROUNDUP(STDEVP(J3:J19),1)</f>
         <v>0</v>
       </c>
@@ -5829,7 +5831,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr codeName="Tabelle3">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -5839,20 +5841,20 @@
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4" zeroHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" style="7" customWidth="1"/>
-    <col min="3" max="8" width="11.42578125" customWidth="1"/>
-    <col min="9" max="16384" width="11.42578125" hidden="1"/>
+    <col min="1" max="1" width="11.44140625" customWidth="1"/>
+    <col min="2" max="2" width="11.44140625" style="7" customWidth="1"/>
+    <col min="3" max="8" width="11.44140625" customWidth="1"/>
+    <col min="9" max="16384" width="11.44140625" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="98" t="str">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="89" t="str">
         <f>Notenliste!B34</f>
         <v>course.name</v>
       </c>
-      <c r="B1" s="98"/>
+      <c r="B1" s="89"/>
       <c r="C1" s="8" t="s">
         <v>12</v>
       </c>
@@ -5861,7 +5863,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>5</v>
       </c>
@@ -5869,7 +5871,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="7">
         <v>1</v>
       </c>
@@ -5878,7 +5880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="7">
         <v>1.3</v>
       </c>
@@ -5887,7 +5889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="7">
         <v>1.7</v>
       </c>
@@ -5896,7 +5898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="7">
         <v>2</v>
       </c>
@@ -5905,7 +5907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="7">
         <v>2.2999999999999998</v>
       </c>
@@ -5914,7 +5916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="7">
         <v>2.7</v>
       </c>
@@ -5923,7 +5925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="7">
         <v>3</v>
       </c>
@@ -5932,7 +5934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="7">
         <v>3.3</v>
       </c>
@@ -5941,7 +5943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="7">
         <v>3.7</v>
       </c>
@@ -5950,7 +5952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="7">
         <v>4</v>
       </c>
@@ -5959,7 +5961,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
         <v>31</v>
       </c>
@@ -5980,7 +5982,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr codeName="Tabelle4">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -5990,64 +5992,64 @@
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4" zeroHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.7109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="25.7109375" customWidth="1"/>
-    <col min="4" max="5" width="10.7109375" style="20" customWidth="1"/>
-    <col min="6" max="6" width="40.7109375" customWidth="1"/>
-    <col min="7" max="7" width="20.7109375" customWidth="1"/>
-    <col min="8" max="8" width="10.7109375" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="9.28515625" hidden="1" customWidth="1"/>
-    <col min="10" max="13" width="5.7109375" style="7" customWidth="1"/>
-    <col min="14" max="14" width="5.7109375" customWidth="1"/>
-    <col min="15" max="15" width="1.7109375" customWidth="1"/>
-    <col min="16" max="16384" width="11.42578125" hidden="1"/>
+    <col min="1" max="1" width="3.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="25.6640625" customWidth="1"/>
+    <col min="4" max="5" width="10.6640625" style="20" customWidth="1"/>
+    <col min="6" max="6" width="40.6640625" customWidth="1"/>
+    <col min="7" max="7" width="20.6640625" customWidth="1"/>
+    <col min="8" max="8" width="10.6640625" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="9.33203125" hidden="1" customWidth="1"/>
+    <col min="10" max="13" width="5.6640625" style="7" customWidth="1"/>
+    <col min="14" max="14" width="5.6640625" customWidth="1"/>
+    <col min="15" max="15" width="1.6640625" customWidth="1"/>
+    <col min="16" max="16384" width="11.44140625" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="99" t="str">
+    <row r="1" spans="1:15" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="90" t="str">
         <f>Notenliste!B34&amp;Notenliste!B35</f>
         <v>course.namecourse.alternative</v>
       </c>
-      <c r="B1" s="99"/>
-      <c r="C1" s="99"/>
-      <c r="D1" s="99"/>
-      <c r="E1" s="99"/>
-      <c r="F1" s="99"/>
-      <c r="G1" s="99"/>
-      <c r="H1" s="99"/>
-      <c r="I1" s="99"/>
-      <c r="J1" s="99"/>
-      <c r="K1" s="99"/>
-      <c r="L1" s="99"/>
-      <c r="M1" s="99"/>
-      <c r="N1" s="99"/>
-    </row>
-    <row r="2" spans="1:15" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="100" t="str">
+      <c r="B1" s="90"/>
+      <c r="C1" s="90"/>
+      <c r="D1" s="90"/>
+      <c r="E1" s="90"/>
+      <c r="F1" s="90"/>
+      <c r="G1" s="90"/>
+      <c r="H1" s="90"/>
+      <c r="I1" s="90"/>
+      <c r="J1" s="90"/>
+      <c r="K1" s="90"/>
+      <c r="L1" s="90"/>
+      <c r="M1" s="90"/>
+      <c r="N1" s="90"/>
+    </row>
+    <row r="2" spans="1:15" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="91" t="str">
         <f>"Dozent/in: "&amp;Notenliste!B31</f>
         <v>Dozent/in: Elena Moya Royo</v>
       </c>
-      <c r="B2" s="100"/>
-      <c r="C2" s="100"/>
-      <c r="D2" s="100"/>
-      <c r="E2" s="100"/>
-      <c r="F2" s="100"/>
-      <c r="G2" s="101" t="str">
+      <c r="B2" s="91"/>
+      <c r="C2" s="91"/>
+      <c r="D2" s="91"/>
+      <c r="E2" s="91"/>
+      <c r="F2" s="91"/>
+      <c r="G2" s="92" t="str">
         <f>"Semester: "&amp;Notenliste!B36</f>
         <v>Semester: semester</v>
       </c>
-      <c r="H2" s="101"/>
-      <c r="I2" s="101"/>
-      <c r="J2" s="101"/>
-      <c r="K2" s="101"/>
-      <c r="L2" s="101"/>
-      <c r="M2" s="101"/>
-      <c r="N2" s="101"/>
+      <c r="H2" s="92"/>
+      <c r="I2" s="92"/>
+      <c r="J2" s="92"/>
+      <c r="K2" s="92"/>
+      <c r="L2" s="92"/>
+      <c r="M2" s="92"/>
+      <c r="N2" s="92"/>
       <c r="O2" s="62"/>
     </row>
-    <row r="3" spans="1:15" s="16" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" s="16" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="14" t="s">
         <v>24</v>
       </c>
@@ -6092,7 +6094,7 @@
       </c>
       <c r="O3" s="63"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="17">
         <v>1</v>
       </c>
@@ -6113,36 +6115,36 @@
         <v>applicant.tag</v>
       </c>
       <c r="F4" s="18" t="str">
-        <f>RAWDATA!F2</f>
+        <f>RAWDATA!G2</f>
         <v>applicant.mail</v>
       </c>
       <c r="G4" s="18" t="str">
-        <f>RAWDATA!G2</f>
+        <f>RAWDATA!H2</f>
         <v>applicant.phone</v>
       </c>
       <c r="H4" s="19">
-        <f>RAWDATA!H2</f>
+        <f>RAWDATA!I2</f>
         <v>0</v>
       </c>
       <c r="I4" s="19">
-        <f>RAWDATA!I2</f>
+        <f>RAWDATA!J2</f>
         <v>0</v>
       </c>
       <c r="J4" s="17" t="str">
         <f>UPPER(Notenliste!O2)</f>
         <v/>
       </c>
-      <c r="K4" s="17" t="str">
+      <c r="K4" s="17" t="e">
         <f>IF(L4&lt;=4,"X","")</f>
-        <v/>
-      </c>
-      <c r="L4" s="17" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="L4" s="17" t="e">
         <f>Notenliste!F2</f>
-        <v>KP</v>
-      </c>
-      <c r="M4" s="17">
+        <v>#VALUE!</v>
+      </c>
+      <c r="M4" s="17" t="e">
         <f>Notenliste!E2</f>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="N4" s="17" t="str">
         <f>UPPER(Notenliste!Q2)</f>
@@ -6150,7 +6152,7 @@
       </c>
       <c r="O4" s="62"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" s="17">
         <v>2</v>
       </c>
@@ -6171,19 +6173,19 @@
         <v>0</v>
       </c>
       <c r="F5" s="18">
-        <f>RAWDATA!F3</f>
+        <f>RAWDATA!G3</f>
         <v>0</v>
       </c>
       <c r="G5" s="18">
-        <f>RAWDATA!G3</f>
+        <f>RAWDATA!H3</f>
         <v>0</v>
       </c>
       <c r="H5" s="19">
-        <f>RAWDATA!H3</f>
+        <f>RAWDATA!I3</f>
         <v>0</v>
       </c>
       <c r="I5" s="19">
-        <f>RAWDATA!I3</f>
+        <f>RAWDATA!J3</f>
         <v>0</v>
       </c>
       <c r="J5" s="17" t="str">
@@ -6208,7 +6210,7 @@
       </c>
       <c r="O5" s="62"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="17">
         <v>3</v>
       </c>
@@ -6229,19 +6231,19 @@
         <v>0</v>
       </c>
       <c r="F6" s="18">
-        <f>RAWDATA!F4</f>
+        <f>RAWDATA!G4</f>
         <v>0</v>
       </c>
       <c r="G6" s="18">
-        <f>RAWDATA!G4</f>
+        <f>RAWDATA!H4</f>
         <v>0</v>
       </c>
       <c r="H6" s="19">
-        <f>RAWDATA!H4</f>
+        <f>RAWDATA!I4</f>
         <v>0</v>
       </c>
       <c r="I6" s="19">
-        <f>RAWDATA!I4</f>
+        <f>RAWDATA!J4</f>
         <v>0</v>
       </c>
       <c r="J6" s="17" t="str">
@@ -6266,7 +6268,7 @@
       </c>
       <c r="O6" s="62"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" s="17">
         <v>4</v>
       </c>
@@ -6287,19 +6289,19 @@
         <v>0</v>
       </c>
       <c r="F7" s="18">
-        <f>RAWDATA!F5</f>
+        <f>RAWDATA!G5</f>
         <v>0</v>
       </c>
       <c r="G7" s="18">
-        <f>RAWDATA!G5</f>
+        <f>RAWDATA!H5</f>
         <v>0</v>
       </c>
       <c r="H7" s="19">
-        <f>RAWDATA!H5</f>
+        <f>RAWDATA!I5</f>
         <v>0</v>
       </c>
       <c r="I7" s="19">
-        <f>RAWDATA!I5</f>
+        <f>RAWDATA!J5</f>
         <v>0</v>
       </c>
       <c r="J7" s="17" t="str">
@@ -6324,7 +6326,7 @@
       </c>
       <c r="O7" s="62"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" s="17">
         <v>5</v>
       </c>
@@ -6345,19 +6347,19 @@
         <v>0</v>
       </c>
       <c r="F8" s="18">
-        <f>RAWDATA!F6</f>
+        <f>RAWDATA!G6</f>
         <v>0</v>
       </c>
       <c r="G8" s="18">
-        <f>RAWDATA!G6</f>
+        <f>RAWDATA!H6</f>
         <v>0</v>
       </c>
       <c r="H8" s="19">
-        <f>RAWDATA!H6</f>
+        <f>RAWDATA!I6</f>
         <v>0</v>
       </c>
       <c r="I8" s="19">
-        <f>RAWDATA!I6</f>
+        <f>RAWDATA!J6</f>
         <v>0</v>
       </c>
       <c r="J8" s="17" t="str">
@@ -6382,7 +6384,7 @@
       </c>
       <c r="O8" s="62"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" s="17">
         <v>6</v>
       </c>
@@ -6403,19 +6405,19 @@
         <v>0</v>
       </c>
       <c r="F9" s="18">
-        <f>RAWDATA!F7</f>
+        <f>RAWDATA!G7</f>
         <v>0</v>
       </c>
       <c r="G9" s="18">
-        <f>RAWDATA!G7</f>
+        <f>RAWDATA!H7</f>
         <v>0</v>
       </c>
       <c r="H9" s="19">
-        <f>RAWDATA!H7</f>
+        <f>RAWDATA!I7</f>
         <v>0</v>
       </c>
       <c r="I9" s="19">
-        <f>RAWDATA!I7</f>
+        <f>RAWDATA!J7</f>
         <v>0</v>
       </c>
       <c r="J9" s="17" t="str">
@@ -6440,7 +6442,7 @@
       </c>
       <c r="O9" s="62"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" s="17">
         <v>7</v>
       </c>
@@ -6461,19 +6463,19 @@
         <v>0</v>
       </c>
       <c r="F10" s="18">
-        <f>RAWDATA!F8</f>
+        <f>RAWDATA!G8</f>
         <v>0</v>
       </c>
       <c r="G10" s="18">
-        <f>RAWDATA!G8</f>
+        <f>RAWDATA!H8</f>
         <v>0</v>
       </c>
       <c r="H10" s="19">
-        <f>RAWDATA!H8</f>
+        <f>RAWDATA!I8</f>
         <v>0</v>
       </c>
       <c r="I10" s="19">
-        <f>RAWDATA!I8</f>
+        <f>RAWDATA!J8</f>
         <v>0</v>
       </c>
       <c r="J10" s="17" t="str">
@@ -6498,7 +6500,7 @@
       </c>
       <c r="O10" s="62"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" s="17">
         <v>8</v>
       </c>
@@ -6519,19 +6521,19 @@
         <v>0</v>
       </c>
       <c r="F11" s="18">
-        <f>RAWDATA!F9</f>
+        <f>RAWDATA!G9</f>
         <v>0</v>
       </c>
       <c r="G11" s="18">
-        <f>RAWDATA!G9</f>
+        <f>RAWDATA!H9</f>
         <v>0</v>
       </c>
       <c r="H11" s="19">
-        <f>RAWDATA!H9</f>
+        <f>RAWDATA!I9</f>
         <v>0</v>
       </c>
       <c r="I11" s="19">
-        <f>RAWDATA!I9</f>
+        <f>RAWDATA!J9</f>
         <v>0</v>
       </c>
       <c r="J11" s="17" t="str">
@@ -6556,7 +6558,7 @@
       </c>
       <c r="O11" s="62"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" s="17">
         <v>9</v>
       </c>
@@ -6577,19 +6579,19 @@
         <v>0</v>
       </c>
       <c r="F12" s="18">
-        <f>RAWDATA!F10</f>
+        <f>RAWDATA!G10</f>
         <v>0</v>
       </c>
       <c r="G12" s="18">
-        <f>RAWDATA!G10</f>
+        <f>RAWDATA!H10</f>
         <v>0</v>
       </c>
       <c r="H12" s="19">
-        <f>RAWDATA!H10</f>
+        <f>RAWDATA!I10</f>
         <v>0</v>
       </c>
       <c r="I12" s="19">
-        <f>RAWDATA!I10</f>
+        <f>RAWDATA!J10</f>
         <v>0</v>
       </c>
       <c r="J12" s="17" t="str">
@@ -6614,7 +6616,7 @@
       </c>
       <c r="O12" s="62"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="17">
         <v>10</v>
       </c>
@@ -6635,19 +6637,19 @@
         <v>0</v>
       </c>
       <c r="F13" s="18">
-        <f>RAWDATA!F11</f>
+        <f>RAWDATA!G11</f>
         <v>0</v>
       </c>
       <c r="G13" s="18">
-        <f>RAWDATA!G11</f>
+        <f>RAWDATA!H11</f>
         <v>0</v>
       </c>
       <c r="H13" s="19">
-        <f>RAWDATA!H11</f>
+        <f>RAWDATA!I11</f>
         <v>0</v>
       </c>
       <c r="I13" s="19">
-        <f>RAWDATA!I11</f>
+        <f>RAWDATA!J11</f>
         <v>0</v>
       </c>
       <c r="J13" s="17" t="str">
@@ -6672,7 +6674,7 @@
       </c>
       <c r="O13" s="62"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" s="17">
         <v>11</v>
       </c>
@@ -6693,19 +6695,19 @@
         <v>0</v>
       </c>
       <c r="F14" s="18">
-        <f>RAWDATA!F12</f>
+        <f>RAWDATA!G12</f>
         <v>0</v>
       </c>
       <c r="G14" s="18">
-        <f>RAWDATA!G12</f>
+        <f>RAWDATA!H12</f>
         <v>0</v>
       </c>
       <c r="H14" s="19">
-        <f>RAWDATA!H12</f>
+        <f>RAWDATA!I12</f>
         <v>0</v>
       </c>
       <c r="I14" s="19">
-        <f>RAWDATA!I12</f>
+        <f>RAWDATA!J12</f>
         <v>0</v>
       </c>
       <c r="J14" s="17" t="str">
@@ -6730,7 +6732,7 @@
       </c>
       <c r="O14" s="62"/>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="17">
         <v>12</v>
       </c>
@@ -6751,19 +6753,19 @@
         <v>0</v>
       </c>
       <c r="F15" s="18">
-        <f>RAWDATA!F13</f>
+        <f>RAWDATA!G13</f>
         <v>0</v>
       </c>
       <c r="G15" s="18">
-        <f>RAWDATA!G13</f>
+        <f>RAWDATA!H13</f>
         <v>0</v>
       </c>
       <c r="H15" s="19">
-        <f>RAWDATA!H13</f>
+        <f>RAWDATA!I13</f>
         <v>0</v>
       </c>
       <c r="I15" s="19">
-        <f>RAWDATA!I13</f>
+        <f>RAWDATA!J13</f>
         <v>0</v>
       </c>
       <c r="J15" s="17" t="str">
@@ -6788,7 +6790,7 @@
       </c>
       <c r="O15" s="62"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" s="17">
         <v>13</v>
       </c>
@@ -6809,19 +6811,19 @@
         <v>0</v>
       </c>
       <c r="F16" s="18">
-        <f>RAWDATA!F14</f>
+        <f>RAWDATA!G14</f>
         <v>0</v>
       </c>
       <c r="G16" s="18">
-        <f>RAWDATA!G14</f>
+        <f>RAWDATA!H14</f>
         <v>0</v>
       </c>
       <c r="H16" s="19">
-        <f>RAWDATA!H14</f>
+        <f>RAWDATA!I14</f>
         <v>0</v>
       </c>
       <c r="I16" s="19">
-        <f>RAWDATA!I14</f>
+        <f>RAWDATA!J14</f>
         <v>0</v>
       </c>
       <c r="J16" s="17" t="str">
@@ -6846,7 +6848,7 @@
       </c>
       <c r="O16" s="62"/>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" s="17">
         <v>14</v>
       </c>
@@ -6867,19 +6869,19 @@
         <v>0</v>
       </c>
       <c r="F17" s="18">
-        <f>RAWDATA!F15</f>
+        <f>RAWDATA!G15</f>
         <v>0</v>
       </c>
       <c r="G17" s="18">
-        <f>RAWDATA!G15</f>
+        <f>RAWDATA!H15</f>
         <v>0</v>
       </c>
       <c r="H17" s="19">
-        <f>RAWDATA!H15</f>
+        <f>RAWDATA!I15</f>
         <v>0</v>
       </c>
       <c r="I17" s="19">
-        <f>RAWDATA!I15</f>
+        <f>RAWDATA!J15</f>
         <v>0</v>
       </c>
       <c r="J17" s="17" t="str">
@@ -6904,7 +6906,7 @@
       </c>
       <c r="O17" s="62"/>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18" s="17">
         <v>15</v>
       </c>
@@ -6925,19 +6927,19 @@
         <v>0</v>
       </c>
       <c r="F18" s="18">
-        <f>RAWDATA!F16</f>
+        <f>RAWDATA!G16</f>
         <v>0</v>
       </c>
       <c r="G18" s="18">
-        <f>RAWDATA!G16</f>
+        <f>RAWDATA!H16</f>
         <v>0</v>
       </c>
       <c r="H18" s="19">
-        <f>RAWDATA!H16</f>
+        <f>RAWDATA!I16</f>
         <v>0</v>
       </c>
       <c r="I18" s="19">
-        <f>RAWDATA!I16</f>
+        <f>RAWDATA!J16</f>
         <v>0</v>
       </c>
       <c r="J18" s="17" t="str">
@@ -6962,7 +6964,7 @@
       </c>
       <c r="O18" s="62"/>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" s="17">
         <v>16</v>
       </c>
@@ -6983,19 +6985,19 @@
         <v>0</v>
       </c>
       <c r="F19" s="18">
-        <f>RAWDATA!F17</f>
+        <f>RAWDATA!G17</f>
         <v>0</v>
       </c>
       <c r="G19" s="18">
-        <f>RAWDATA!G17</f>
+        <f>RAWDATA!H17</f>
         <v>0</v>
       </c>
       <c r="H19" s="19">
-        <f>RAWDATA!H17</f>
+        <f>RAWDATA!I17</f>
         <v>0</v>
       </c>
       <c r="I19" s="19">
-        <f>RAWDATA!I17</f>
+        <f>RAWDATA!J17</f>
         <v>0</v>
       </c>
       <c r="J19" s="17" t="str">
@@ -7020,7 +7022,7 @@
       </c>
       <c r="O19" s="62"/>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20" s="17">
         <v>17</v>
       </c>
@@ -7041,19 +7043,19 @@
         <v>0</v>
       </c>
       <c r="F20" s="18">
-        <f>RAWDATA!F18</f>
+        <f>RAWDATA!G18</f>
         <v>0</v>
       </c>
       <c r="G20" s="18">
-        <f>RAWDATA!G18</f>
+        <f>RAWDATA!H18</f>
         <v>0</v>
       </c>
       <c r="H20" s="19">
-        <f>RAWDATA!H18</f>
+        <f>RAWDATA!I18</f>
         <v>0</v>
       </c>
       <c r="I20" s="19">
-        <f>RAWDATA!I18</f>
+        <f>RAWDATA!J18</f>
         <v>0</v>
       </c>
       <c r="J20" s="17" t="str">
@@ -7078,7 +7080,7 @@
       </c>
       <c r="O20" s="62"/>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" s="17">
         <v>18</v>
       </c>
@@ -7099,19 +7101,19 @@
         <v>0</v>
       </c>
       <c r="F21" s="18">
-        <f>RAWDATA!F19</f>
+        <f>RAWDATA!G19</f>
         <v>0</v>
       </c>
       <c r="G21" s="18">
-        <f>RAWDATA!G19</f>
+        <f>RAWDATA!H19</f>
         <v>0</v>
       </c>
       <c r="H21" s="19">
-        <f>RAWDATA!H19</f>
+        <f>RAWDATA!I19</f>
         <v>0</v>
       </c>
       <c r="I21" s="19">
-        <f>RAWDATA!I19</f>
+        <f>RAWDATA!J19</f>
         <v>0</v>
       </c>
       <c r="J21" s="17" t="str">
@@ -7136,7 +7138,7 @@
       </c>
       <c r="O21" s="62"/>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A22" s="17">
         <v>19</v>
       </c>
@@ -7157,19 +7159,19 @@
         <v>0</v>
       </c>
       <c r="F22" s="18">
-        <f>RAWDATA!F20</f>
+        <f>RAWDATA!G20</f>
         <v>0</v>
       </c>
       <c r="G22" s="18">
-        <f>RAWDATA!G20</f>
+        <f>RAWDATA!H20</f>
         <v>0</v>
       </c>
       <c r="H22" s="19">
-        <f>RAWDATA!H20</f>
+        <f>RAWDATA!I20</f>
         <v>0</v>
       </c>
       <c r="I22" s="19">
-        <f>RAWDATA!I20</f>
+        <f>RAWDATA!J20</f>
         <v>0</v>
       </c>
       <c r="J22" s="17" t="str">
@@ -7194,7 +7196,7 @@
       </c>
       <c r="O22" s="62"/>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A23" s="17">
         <v>20</v>
       </c>
@@ -7215,19 +7217,19 @@
         <v>0</v>
       </c>
       <c r="F23" s="18">
-        <f>RAWDATA!F21</f>
+        <f>RAWDATA!G21</f>
         <v>0</v>
       </c>
       <c r="G23" s="18">
-        <f>RAWDATA!G21</f>
+        <f>RAWDATA!H21</f>
         <v>0</v>
       </c>
       <c r="H23" s="19">
-        <f>RAWDATA!H21</f>
+        <f>RAWDATA!I21</f>
         <v>0</v>
       </c>
       <c r="I23" s="19">
-        <f>RAWDATA!I21</f>
+        <f>RAWDATA!J21</f>
         <v>0</v>
       </c>
       <c r="J23" s="17" t="str">
@@ -7252,7 +7254,7 @@
       </c>
       <c r="O23" s="62"/>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A24" s="17">
         <v>21</v>
       </c>
@@ -7273,19 +7275,19 @@
         <v>0</v>
       </c>
       <c r="F24" s="18">
-        <f>RAWDATA!F22</f>
+        <f>RAWDATA!G22</f>
         <v>0</v>
       </c>
       <c r="G24" s="18">
-        <f>RAWDATA!G22</f>
+        <f>RAWDATA!H22</f>
         <v>0</v>
       </c>
       <c r="H24" s="19">
-        <f>RAWDATA!H22</f>
+        <f>RAWDATA!I22</f>
         <v>0</v>
       </c>
       <c r="I24" s="19">
-        <f>RAWDATA!I22</f>
+        <f>RAWDATA!J22</f>
         <v>0</v>
       </c>
       <c r="J24" s="17" t="str">
@@ -7310,7 +7312,7 @@
       </c>
       <c r="O24" s="62"/>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A25" s="17">
         <v>22</v>
       </c>
@@ -7331,19 +7333,19 @@
         <v>0</v>
       </c>
       <c r="F25" s="18">
-        <f>RAWDATA!F23</f>
+        <f>RAWDATA!G23</f>
         <v>0</v>
       </c>
       <c r="G25" s="18">
-        <f>RAWDATA!G23</f>
+        <f>RAWDATA!H23</f>
         <v>0</v>
       </c>
       <c r="H25" s="19">
-        <f>RAWDATA!H23</f>
+        <f>RAWDATA!I23</f>
         <v>0</v>
       </c>
       <c r="I25" s="19">
-        <f>RAWDATA!I23</f>
+        <f>RAWDATA!J23</f>
         <v>0</v>
       </c>
       <c r="J25" s="17" t="str">
@@ -7368,7 +7370,7 @@
       </c>
       <c r="O25" s="62"/>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A26" s="17">
         <v>23</v>
       </c>
@@ -7389,19 +7391,19 @@
         <v>0</v>
       </c>
       <c r="F26" s="18">
-        <f>RAWDATA!F24</f>
+        <f>RAWDATA!G24</f>
         <v>0</v>
       </c>
       <c r="G26" s="18">
-        <f>RAWDATA!G24</f>
+        <f>RAWDATA!H24</f>
         <v>0</v>
       </c>
       <c r="H26" s="19">
-        <f>RAWDATA!H24</f>
+        <f>RAWDATA!I24</f>
         <v>0</v>
       </c>
       <c r="I26" s="19">
-        <f>RAWDATA!I24</f>
+        <f>RAWDATA!J24</f>
         <v>0</v>
       </c>
       <c r="J26" s="17" t="str">
@@ -7426,7 +7428,7 @@
       </c>
       <c r="O26" s="62"/>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A27" s="17">
         <v>24</v>
       </c>
@@ -7447,19 +7449,19 @@
         <v>0</v>
       </c>
       <c r="F27" s="18">
-        <f>RAWDATA!F25</f>
+        <f>RAWDATA!G25</f>
         <v>0</v>
       </c>
       <c r="G27" s="18">
-        <f>RAWDATA!G25</f>
+        <f>RAWDATA!H25</f>
         <v>0</v>
       </c>
       <c r="H27" s="19">
-        <f>RAWDATA!H25</f>
+        <f>RAWDATA!I25</f>
         <v>0</v>
       </c>
       <c r="I27" s="19">
-        <f>RAWDATA!I25</f>
+        <f>RAWDATA!J25</f>
         <v>0</v>
       </c>
       <c r="J27" s="17" t="str">
@@ -7484,7 +7486,7 @@
       </c>
       <c r="O27" s="62"/>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A28" s="17">
         <v>25</v>
       </c>
@@ -7505,19 +7507,19 @@
         <v>0</v>
       </c>
       <c r="F28" s="18">
-        <f>RAWDATA!F26</f>
+        <f>RAWDATA!G26</f>
         <v>0</v>
       </c>
       <c r="G28" s="18">
-        <f>RAWDATA!G26</f>
+        <f>RAWDATA!H26</f>
         <v>0</v>
       </c>
       <c r="H28" s="19">
-        <f>RAWDATA!H26</f>
+        <f>RAWDATA!I26</f>
         <v>0</v>
       </c>
       <c r="I28" s="19">
-        <f>RAWDATA!I26</f>
+        <f>RAWDATA!J26</f>
         <v>0</v>
       </c>
       <c r="J28" s="17" t="str">
@@ -7542,7 +7544,7 @@
       </c>
       <c r="O28" s="62"/>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A29" s="59"/>
       <c r="B29" s="60"/>
       <c r="C29" s="60"/>
@@ -7565,91 +7567,91 @@
       <c r="N29" s="59"/>
       <c r="O29" s="62"/>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A30" s="102" t="s">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A30" s="93" t="s">
         <v>43</v>
       </c>
-      <c r="B30" s="102"/>
-      <c r="C30" s="102"/>
-      <c r="D30" s="102"/>
-      <c r="E30" s="102"/>
-      <c r="F30" s="102"/>
-      <c r="G30" s="102"/>
-      <c r="H30" s="102"/>
-      <c r="I30" s="102"/>
-      <c r="J30" s="102"/>
-      <c r="K30" s="102"/>
-      <c r="L30" s="102"/>
-      <c r="M30" s="102"/>
-      <c r="N30" s="102"/>
+      <c r="B30" s="93"/>
+      <c r="C30" s="93"/>
+      <c r="D30" s="93"/>
+      <c r="E30" s="93"/>
+      <c r="F30" s="93"/>
+      <c r="G30" s="93"/>
+      <c r="H30" s="93"/>
+      <c r="I30" s="93"/>
+      <c r="J30" s="93"/>
+      <c r="K30" s="93"/>
+      <c r="L30" s="93"/>
+      <c r="M30" s="93"/>
+      <c r="N30" s="93"/>
       <c r="O30" s="62"/>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A31" s="102"/>
-      <c r="B31" s="102"/>
-      <c r="C31" s="102"/>
-      <c r="D31" s="102"/>
-      <c r="E31" s="102"/>
-      <c r="F31" s="102"/>
-      <c r="G31" s="102"/>
-      <c r="H31" s="102"/>
-      <c r="I31" s="102"/>
-      <c r="J31" s="102"/>
-      <c r="K31" s="102"/>
-      <c r="L31" s="102"/>
-      <c r="M31" s="102"/>
-      <c r="N31" s="102"/>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A31" s="93"/>
+      <c r="B31" s="93"/>
+      <c r="C31" s="93"/>
+      <c r="D31" s="93"/>
+      <c r="E31" s="93"/>
+      <c r="F31" s="93"/>
+      <c r="G31" s="93"/>
+      <c r="H31" s="93"/>
+      <c r="I31" s="93"/>
+      <c r="J31" s="93"/>
+      <c r="K31" s="93"/>
+      <c r="L31" s="93"/>
+      <c r="M31" s="93"/>
+      <c r="N31" s="93"/>
       <c r="O31" s="62"/>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A32" s="102"/>
-      <c r="B32" s="102"/>
-      <c r="C32" s="102"/>
-      <c r="D32" s="102"/>
-      <c r="E32" s="102"/>
-      <c r="F32" s="102"/>
-      <c r="G32" s="102"/>
-      <c r="H32" s="102"/>
-      <c r="I32" s="102"/>
-      <c r="J32" s="102"/>
-      <c r="K32" s="102"/>
-      <c r="L32" s="102"/>
-      <c r="M32" s="102"/>
-      <c r="N32" s="102"/>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A32" s="93"/>
+      <c r="B32" s="93"/>
+      <c r="C32" s="93"/>
+      <c r="D32" s="93"/>
+      <c r="E32" s="93"/>
+      <c r="F32" s="93"/>
+      <c r="G32" s="93"/>
+      <c r="H32" s="93"/>
+      <c r="I32" s="93"/>
+      <c r="J32" s="93"/>
+      <c r="K32" s="93"/>
+      <c r="L32" s="93"/>
+      <c r="M32" s="93"/>
+      <c r="N32" s="93"/>
       <c r="O32" s="62"/>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A33" s="102"/>
-      <c r="B33" s="102"/>
-      <c r="C33" s="102"/>
-      <c r="D33" s="102"/>
-      <c r="E33" s="102"/>
-      <c r="F33" s="102"/>
-      <c r="G33" s="102"/>
-      <c r="H33" s="102"/>
-      <c r="I33" s="102"/>
-      <c r="J33" s="102"/>
-      <c r="K33" s="102"/>
-      <c r="L33" s="102"/>
-      <c r="M33" s="102"/>
-      <c r="N33" s="102"/>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A33" s="93"/>
+      <c r="B33" s="93"/>
+      <c r="C33" s="93"/>
+      <c r="D33" s="93"/>
+      <c r="E33" s="93"/>
+      <c r="F33" s="93"/>
+      <c r="G33" s="93"/>
+      <c r="H33" s="93"/>
+      <c r="I33" s="93"/>
+      <c r="J33" s="93"/>
+      <c r="K33" s="93"/>
+      <c r="L33" s="93"/>
+      <c r="M33" s="93"/>
+      <c r="N33" s="93"/>
       <c r="O33" s="62"/>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A34" s="102"/>
-      <c r="B34" s="102"/>
-      <c r="C34" s="102"/>
-      <c r="D34" s="102"/>
-      <c r="E34" s="102"/>
-      <c r="F34" s="102"/>
-      <c r="G34" s="102"/>
-      <c r="H34" s="102"/>
-      <c r="I34" s="102"/>
-      <c r="J34" s="102"/>
-      <c r="K34" s="102"/>
-      <c r="L34" s="102"/>
-      <c r="M34" s="102"/>
-      <c r="N34" s="102"/>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A34" s="93"/>
+      <c r="B34" s="93"/>
+      <c r="C34" s="93"/>
+      <c r="D34" s="93"/>
+      <c r="E34" s="93"/>
+      <c r="F34" s="93"/>
+      <c r="G34" s="93"/>
+      <c r="H34" s="93"/>
+      <c r="I34" s="93"/>
+      <c r="J34" s="93"/>
+      <c r="K34" s="93"/>
+      <c r="L34" s="93"/>
+      <c r="M34" s="93"/>
+      <c r="N34" s="93"/>
       <c r="O34" s="62"/>
     </row>
   </sheetData>
@@ -7671,7 +7673,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr codeName="Tabelle5">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -7681,123 +7683,123 @@
       <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.7109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.42578125" customWidth="1"/>
-    <col min="4" max="4" width="6.42578125" style="20" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" style="20" customWidth="1"/>
-    <col min="6" max="6" width="0.7109375" style="20" customWidth="1"/>
-    <col min="7" max="20" width="4.7109375" style="20" customWidth="1"/>
-    <col min="21" max="21" width="0.7109375" style="20" customWidth="1"/>
-    <col min="22" max="22" width="5.7109375" style="52" customWidth="1"/>
-    <col min="23" max="23" width="5.7109375" style="53" customWidth="1"/>
-    <col min="24" max="24" width="5.7109375" style="37" customWidth="1"/>
+    <col min="1" max="1" width="3.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.44140625" customWidth="1"/>
+    <col min="4" max="4" width="6.44140625" style="20" customWidth="1"/>
+    <col min="5" max="5" width="9.6640625" style="20" customWidth="1"/>
+    <col min="6" max="6" width="0.6640625" style="20" customWidth="1"/>
+    <col min="7" max="20" width="4.6640625" style="20" customWidth="1"/>
+    <col min="21" max="21" width="0.6640625" style="20" customWidth="1"/>
+    <col min="22" max="22" width="5.6640625" style="52" customWidth="1"/>
+    <col min="23" max="23" width="5.6640625" style="53" customWidth="1"/>
+    <col min="24" max="24" width="5.6640625" style="37" customWidth="1"/>
     <col min="25" max="31" width="0" hidden="1" customWidth="1"/>
-    <col min="32" max="16384" width="11.42578125" hidden="1"/>
+    <col min="32" max="16384" width="11.44140625" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="106" t="str">
+    <row r="1" spans="1:24" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="97" t="str">
         <f>Notenliste!B34&amp;Notenliste!B35</f>
         <v>course.namecourse.alternative</v>
       </c>
-      <c r="B1" s="106"/>
-      <c r="C1" s="106"/>
-      <c r="D1" s="106"/>
-      <c r="E1" s="106"/>
-      <c r="F1" s="106"/>
-      <c r="G1" s="106"/>
-      <c r="H1" s="106"/>
-      <c r="I1" s="106"/>
-      <c r="J1" s="106"/>
-      <c r="K1" s="106"/>
-      <c r="L1" s="106"/>
-      <c r="M1" s="106"/>
-      <c r="N1" s="106"/>
-      <c r="O1" s="106"/>
-      <c r="P1" s="106"/>
-      <c r="Q1" s="106"/>
-      <c r="R1" s="106"/>
-      <c r="S1" s="106"/>
-      <c r="T1" s="106"/>
-      <c r="U1" s="106"/>
-      <c r="V1" s="106"/>
-      <c r="W1" s="106"/>
-      <c r="X1" s="106"/>
-    </row>
-    <row r="2" spans="1:24" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="106" t="s">
+      <c r="B1" s="97"/>
+      <c r="C1" s="97"/>
+      <c r="D1" s="97"/>
+      <c r="E1" s="97"/>
+      <c r="F1" s="97"/>
+      <c r="G1" s="97"/>
+      <c r="H1" s="97"/>
+      <c r="I1" s="97"/>
+      <c r="J1" s="97"/>
+      <c r="K1" s="97"/>
+      <c r="L1" s="97"/>
+      <c r="M1" s="97"/>
+      <c r="N1" s="97"/>
+      <c r="O1" s="97"/>
+      <c r="P1" s="97"/>
+      <c r="Q1" s="97"/>
+      <c r="R1" s="97"/>
+      <c r="S1" s="97"/>
+      <c r="T1" s="97"/>
+      <c r="U1" s="97"/>
+      <c r="V1" s="97"/>
+      <c r="W1" s="97"/>
+      <c r="X1" s="97"/>
+    </row>
+    <row r="2" spans="1:24" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="97" t="s">
         <v>41</v>
       </c>
-      <c r="B2" s="106"/>
-      <c r="C2" s="106"/>
-      <c r="D2" s="106"/>
-      <c r="E2" s="106"/>
-      <c r="F2" s="106"/>
-      <c r="G2" s="106"/>
-      <c r="H2" s="106"/>
-      <c r="I2" s="106"/>
-      <c r="J2" s="106"/>
-      <c r="K2" s="106"/>
-      <c r="L2" s="106"/>
-      <c r="M2" s="106"/>
-      <c r="N2" s="106"/>
-      <c r="O2" s="106"/>
-      <c r="P2" s="106"/>
-      <c r="Q2" s="106"/>
-      <c r="R2" s="106"/>
-      <c r="S2" s="106"/>
-      <c r="T2" s="106"/>
-      <c r="U2" s="106"/>
-      <c r="V2" s="106"/>
-      <c r="W2" s="106"/>
-      <c r="X2" s="106"/>
-    </row>
-    <row r="3" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="107" t="str">
+      <c r="B2" s="97"/>
+      <c r="C2" s="97"/>
+      <c r="D2" s="97"/>
+      <c r="E2" s="97"/>
+      <c r="F2" s="97"/>
+      <c r="G2" s="97"/>
+      <c r="H2" s="97"/>
+      <c r="I2" s="97"/>
+      <c r="J2" s="97"/>
+      <c r="K2" s="97"/>
+      <c r="L2" s="97"/>
+      <c r="M2" s="97"/>
+      <c r="N2" s="97"/>
+      <c r="O2" s="97"/>
+      <c r="P2" s="97"/>
+      <c r="Q2" s="97"/>
+      <c r="R2" s="97"/>
+      <c r="S2" s="97"/>
+      <c r="T2" s="97"/>
+      <c r="U2" s="97"/>
+      <c r="V2" s="97"/>
+      <c r="W2" s="97"/>
+      <c r="X2" s="97"/>
+    </row>
+    <row r="3" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="98" t="str">
         <f>"Dozent/in: "&amp;Notenliste!B31</f>
         <v>Dozent/in: Elena Moya Royo</v>
       </c>
-      <c r="B3" s="107"/>
-      <c r="C3" s="107"/>
-      <c r="D3" s="107"/>
-      <c r="E3" s="107"/>
+      <c r="B3" s="98"/>
+      <c r="C3" s="98"/>
+      <c r="D3" s="98"/>
+      <c r="E3" s="98"/>
       <c r="F3" s="43"/>
-      <c r="G3" s="105"/>
-      <c r="H3" s="105"/>
-      <c r="I3" s="105"/>
-      <c r="J3" s="105"/>
-      <c r="K3" s="105"/>
-      <c r="L3" s="105"/>
-      <c r="M3" s="105"/>
-      <c r="N3" s="105"/>
-      <c r="O3" s="105"/>
-      <c r="P3" s="105"/>
-      <c r="Q3" s="105"/>
-      <c r="R3" s="105"/>
-      <c r="S3" s="105"/>
-      <c r="T3" s="105"/>
-      <c r="U3" s="105"/>
-      <c r="V3" s="105"/>
-      <c r="W3" s="105"/>
-      <c r="X3" s="105"/>
-    </row>
-    <row r="4" spans="1:24" s="16" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="103" t="s">
+      <c r="G3" s="96"/>
+      <c r="H3" s="96"/>
+      <c r="I3" s="96"/>
+      <c r="J3" s="96"/>
+      <c r="K3" s="96"/>
+      <c r="L3" s="96"/>
+      <c r="M3" s="96"/>
+      <c r="N3" s="96"/>
+      <c r="O3" s="96"/>
+      <c r="P3" s="96"/>
+      <c r="Q3" s="96"/>
+      <c r="R3" s="96"/>
+      <c r="S3" s="96"/>
+      <c r="T3" s="96"/>
+      <c r="U3" s="96"/>
+      <c r="V3" s="96"/>
+      <c r="W3" s="96"/>
+      <c r="X3" s="96"/>
+    </row>
+    <row r="4" spans="1:24" s="16" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="94" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="103" t="s">
+      <c r="B4" s="94" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="103" t="s">
+      <c r="C4" s="94" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="103" t="s">
+      <c r="D4" s="94" t="s">
         <v>33</v>
       </c>
-      <c r="E4" s="112" t="s">
+      <c r="E4" s="103" t="s">
         <v>27</v>
       </c>
       <c r="F4" s="48"/>
@@ -7816,22 +7818,22 @@
       <c r="S4" s="14"/>
       <c r="T4" s="14"/>
       <c r="U4" s="45"/>
-      <c r="V4" s="108" t="s">
+      <c r="V4" s="99" t="s">
         <v>36</v>
       </c>
-      <c r="W4" s="110" t="s">
+      <c r="W4" s="101" t="s">
         <v>37</v>
       </c>
-      <c r="X4" s="110" t="s">
+      <c r="X4" s="101" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="5" spans="1:24" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="104"/>
-      <c r="B5" s="104"/>
-      <c r="C5" s="104"/>
-      <c r="D5" s="104"/>
-      <c r="E5" s="113"/>
+    <row r="5" spans="1:24" s="16" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A5" s="95"/>
+      <c r="B5" s="95"/>
+      <c r="C5" s="95"/>
+      <c r="D5" s="95"/>
+      <c r="E5" s="104"/>
       <c r="F5" s="49"/>
       <c r="G5" s="42">
         <v>1</v>
@@ -7876,11 +7878,11 @@
         <v>14</v>
       </c>
       <c r="U5" s="44"/>
-      <c r="V5" s="109"/>
-      <c r="W5" s="111"/>
-      <c r="X5" s="111"/>
-    </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="V5" s="100"/>
+      <c r="W5" s="102"/>
+      <c r="X5" s="102"/>
+    </row>
+    <row r="6" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A6" s="17">
         <v>1</v>
       </c>
@@ -7920,7 +7922,7 @@
       <c r="W6" s="51"/>
       <c r="X6" s="51"/>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A7" s="17">
         <v>2</v>
       </c>
@@ -7960,7 +7962,7 @@
       <c r="W7" s="51"/>
       <c r="X7" s="51"/>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A8" s="17">
         <v>3</v>
       </c>
@@ -8000,7 +8002,7 @@
       <c r="W8" s="51"/>
       <c r="X8" s="51"/>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A9" s="17">
         <v>4</v>
       </c>
@@ -8040,7 +8042,7 @@
       <c r="W9" s="51"/>
       <c r="X9" s="51"/>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A10" s="17">
         <v>5</v>
       </c>
@@ -8080,7 +8082,7 @@
       <c r="W10" s="51"/>
       <c r="X10" s="51"/>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A11" s="17">
         <v>6</v>
       </c>
@@ -8120,7 +8122,7 @@
       <c r="W11" s="51"/>
       <c r="X11" s="51"/>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A12" s="17">
         <v>7</v>
       </c>
@@ -8160,7 +8162,7 @@
       <c r="W12" s="51"/>
       <c r="X12" s="51"/>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A13" s="17">
         <v>8</v>
       </c>
@@ -8200,7 +8202,7 @@
       <c r="W13" s="51"/>
       <c r="X13" s="51"/>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A14" s="17">
         <v>9</v>
       </c>
@@ -8240,7 +8242,7 @@
       <c r="W14" s="51"/>
       <c r="X14" s="51"/>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A15" s="17">
         <v>10</v>
       </c>
@@ -8280,7 +8282,7 @@
       <c r="W15" s="51"/>
       <c r="X15" s="51"/>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A16" s="17">
         <v>11</v>
       </c>
@@ -8320,7 +8322,7 @@
       <c r="W16" s="51"/>
       <c r="X16" s="51"/>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A17" s="17">
         <v>12</v>
       </c>
@@ -8360,7 +8362,7 @@
       <c r="W17" s="51"/>
       <c r="X17" s="51"/>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A18" s="17">
         <v>13</v>
       </c>
@@ -8400,7 +8402,7 @@
       <c r="W18" s="51"/>
       <c r="X18" s="51"/>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A19" s="17">
         <v>14</v>
       </c>
@@ -8440,7 +8442,7 @@
       <c r="W19" s="51"/>
       <c r="X19" s="51"/>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A20" s="17">
         <v>15</v>
       </c>
@@ -8480,7 +8482,7 @@
       <c r="W20" s="51"/>
       <c r="X20" s="51"/>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A21" s="17">
         <v>16</v>
       </c>
@@ -8520,7 +8522,7 @@
       <c r="W21" s="51"/>
       <c r="X21" s="51"/>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A22" s="17">
         <v>17</v>
       </c>
@@ -8560,7 +8562,7 @@
       <c r="W22" s="51"/>
       <c r="X22" s="51"/>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A23" s="17">
         <v>18</v>
       </c>
@@ -8600,7 +8602,7 @@
       <c r="W23" s="51"/>
       <c r="X23" s="51"/>
     </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A24" s="17">
         <v>19</v>
       </c>
@@ -8640,7 +8642,7 @@
       <c r="W24" s="51"/>
       <c r="X24" s="51"/>
     </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A25" s="17">
         <v>20</v>
       </c>
@@ -8680,7 +8682,7 @@
       <c r="W25" s="51"/>
       <c r="X25" s="51"/>
     </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A26" s="17">
         <v>21</v>
       </c>
@@ -8720,7 +8722,7 @@
       <c r="W26" s="51"/>
       <c r="X26" s="51"/>
     </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A27" s="17">
         <v>22</v>
       </c>
@@ -8760,7 +8762,7 @@
       <c r="W27" s="51"/>
       <c r="X27" s="51"/>
     </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A28" s="17">
         <v>23</v>
       </c>
@@ -8800,7 +8802,7 @@
       <c r="W28" s="51"/>
       <c r="X28" s="51"/>
     </row>
-    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A29" s="17">
         <v>24</v>
       </c>
@@ -8840,7 +8842,7 @@
       <c r="W29" s="51"/>
       <c r="X29" s="51"/>
     </row>
-    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A30" s="17">
         <v>25</v>
       </c>
@@ -8907,7 +8909,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr codeName="Tabelle6"/>
   <dimension ref="A1:H26"/>
   <sheetViews>
@@ -8915,17 +8917,17 @@
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="18" style="13" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.42578125" style="66" customWidth="1"/>
-    <col min="5" max="5" width="18.140625" style="65" customWidth="1"/>
-    <col min="6" max="7" width="19.7109375" customWidth="1"/>
-    <col min="8" max="8" width="46.42578125" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.44140625" style="66" customWidth="1"/>
+    <col min="5" max="5" width="18.109375" style="65" customWidth="1"/>
+    <col min="6" max="7" width="19.6640625" customWidth="1"/>
+    <col min="8" max="8" width="46.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
         <v>25</v>
       </c>
@@ -8951,7 +8953,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="13" t="str">
         <f>IF(Notenliste!D2=0," ",Notenliste!D2)</f>
         <v>applicant.tag</v>
@@ -8960,16 +8962,16 @@
         <f>IF(Notenliste!D2&lt;&gt;0,Notenliste!$B$33," ")</f>
         <v>course.ects_points</v>
       </c>
-      <c r="D2" s="69" t="str">
+      <c r="D2" s="69" t="e">
         <f>IF(Notenliste!F2="KP"," ",IF(Notenliste!F2="NB","nicht bestanden",Notenliste!F2))</f>
-        <v xml:space="preserve"> </v>
+        <v>#VALUE!</v>
       </c>
       <c r="E2" s="65" t="str">
         <f>IF(Notenliste!D2&lt;&gt;0,Notenliste!$B$37," ")</f>
         <v>exam_date</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="13" t="str">
         <f>IF(Notenliste!D3=0," ",Notenliste!D3)</f>
         <v xml:space="preserve"> </v>
@@ -8987,7 +8989,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="13" t="str">
         <f>IF(Notenliste!D4=0," ",Notenliste!D4)</f>
         <v xml:space="preserve"> </v>
@@ -9005,7 +9007,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="13" t="str">
         <f>IF(Notenliste!D5=0," ",Notenliste!D5)</f>
         <v xml:space="preserve"> </v>
@@ -9023,7 +9025,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="13" t="str">
         <f>IF(Notenliste!D6=0," ",Notenliste!D6)</f>
         <v xml:space="preserve"> </v>
@@ -9041,7 +9043,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="13" t="str">
         <f>IF(Notenliste!D7=0," ",Notenliste!D7)</f>
         <v xml:space="preserve"> </v>
@@ -9059,7 +9061,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="13" t="str">
         <f>IF(Notenliste!D8=0," ",Notenliste!D8)</f>
         <v xml:space="preserve"> </v>
@@ -9077,7 +9079,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="13" t="str">
         <f>IF(Notenliste!D9=0," ",Notenliste!D9)</f>
         <v xml:space="preserve"> </v>
@@ -9095,7 +9097,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="13" t="str">
         <f>IF(Notenliste!D10=0," ",Notenliste!D10)</f>
         <v xml:space="preserve"> </v>
@@ -9113,7 +9115,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="13" t="str">
         <f>IF(Notenliste!D11=0," ",Notenliste!D11)</f>
         <v xml:space="preserve"> </v>
@@ -9131,7 +9133,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="13" t="str">
         <f>IF(Notenliste!D12=0," ",Notenliste!D12)</f>
         <v xml:space="preserve"> </v>
@@ -9149,7 +9151,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="13" t="str">
         <f>IF(Notenliste!D13=0," ",Notenliste!D13)</f>
         <v xml:space="preserve"> </v>
@@ -9167,7 +9169,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="13" t="str">
         <f>IF(Notenliste!D14=0," ",Notenliste!D14)</f>
         <v xml:space="preserve"> </v>
@@ -9185,7 +9187,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="13" t="str">
         <f>IF(Notenliste!D15=0," ",Notenliste!D15)</f>
         <v xml:space="preserve"> </v>
@@ -9203,7 +9205,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="13" t="str">
         <f>IF(Notenliste!D16=0," ",Notenliste!D16)</f>
         <v xml:space="preserve"> </v>
@@ -9221,7 +9223,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="13" t="str">
         <f>IF(Notenliste!D17=0," ",Notenliste!D17)</f>
         <v xml:space="preserve"> </v>
@@ -9239,7 +9241,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="13" t="str">
         <f>IF(Notenliste!D18=0," ",Notenliste!D18)</f>
         <v xml:space="preserve"> </v>
@@ -9257,7 +9259,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="13" t="str">
         <f>IF(Notenliste!D19=0," ",Notenliste!D19)</f>
         <v xml:space="preserve"> </v>
@@ -9275,7 +9277,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="13" t="str">
         <f>IF(Notenliste!D20=0," ",Notenliste!D20)</f>
         <v xml:space="preserve"> </v>
@@ -9293,7 +9295,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="13" t="str">
         <f>IF(Notenliste!D21=0," ",Notenliste!D21)</f>
         <v xml:space="preserve"> </v>
@@ -9311,7 +9313,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="13" t="str">
         <f>IF(Notenliste!D22=0," ",Notenliste!D22)</f>
         <v xml:space="preserve"> </v>
@@ -9329,7 +9331,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="13" t="str">
         <f>IF(Notenliste!D23=0," ",Notenliste!D23)</f>
         <v xml:space="preserve"> </v>
@@ -9347,7 +9349,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="13" t="str">
         <f>IF(Notenliste!D24=0," ",Notenliste!D24)</f>
         <v xml:space="preserve"> </v>
@@ -9365,7 +9367,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="13" t="str">
         <f>IF(Notenliste!D25=0," ",Notenliste!D25)</f>
         <v xml:space="preserve"> </v>
@@ -9383,7 +9385,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="13" t="str">
         <f>IF(Notenliste!D26=0," ",Notenliste!D26)</f>
         <v xml:space="preserve"> </v>
@@ -9404,22 +9406,22 @@
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0" sort="0" autoFilter="0"/>
   <dataValidations count="5">
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1 A27:A1048576">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1 A27:A1048576" xr:uid="{00000000-0002-0000-0600-000000000000}">
       <formula1>0</formula1>
       <formula2>99999999</formula2>
     </dataValidation>
-    <dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1 E27:E1048576">
+    <dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1 E27:E1048576" xr:uid="{00000000-0002-0000-0600-000001000000}">
       <formula1>41275</formula1>
       <formula2>73050</formula2>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C27:C1048576">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C27:C1048576" xr:uid="{00000000-0002-0000-0600-000002000000}">
       <formula1>0</formula1>
       <formula2>120</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1" xr:uid="{00000000-0002-0000-0600-000003000000}">
       <formula1>Notenskala</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1" xr:uid="{00000000-0002-0000-0600-000004000000}">
       <formula1>Anmeldestatus</formula1>
     </dataValidation>
   </dataValidations>
@@ -9432,26 +9434,26 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="26.7109375" customWidth="1"/>
-    <col min="2" max="2" width="22.140625" customWidth="1"/>
-    <col min="3" max="3" width="3.42578125" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" customWidth="1"/>
-    <col min="5" max="5" width="2.7109375" customWidth="1"/>
-    <col min="6" max="6" width="25.7109375" customWidth="1"/>
-    <col min="7" max="7" width="2.42578125" customWidth="1"/>
-    <col min="8" max="8" width="11.42578125" style="20"/>
+    <col min="1" max="1" width="26.6640625" customWidth="1"/>
+    <col min="2" max="2" width="22.109375" customWidth="1"/>
+    <col min="3" max="3" width="3.44140625" customWidth="1"/>
+    <col min="4" max="4" width="11.44140625" customWidth="1"/>
+    <col min="5" max="5" width="2.6640625" customWidth="1"/>
+    <col min="6" max="6" width="25.6640625" customWidth="1"/>
+    <col min="7" max="7" width="2.44140625" customWidth="1"/>
+    <col min="8" max="8" width="11.44140625" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="72" t="s">
         <v>7</v>
       </c>
@@ -9468,7 +9470,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="73" t="s">
         <v>45</v>
       </c>
@@ -9485,7 +9487,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="73" t="s">
         <v>66</v>
       </c>
@@ -9502,7 +9504,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="73" t="s">
         <v>68</v>
       </c>
@@ -9519,7 +9521,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="73" t="s">
         <v>67</v>
       </c>
@@ -9534,7 +9536,7 @@
       </c>
       <c r="H5" s="76"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="73" t="s">
         <v>69</v>
       </c>
@@ -9544,12 +9546,12 @@
       <c r="D6" s="73" t="s">
         <v>61</v>
       </c>
-      <c r="F6" s="94" t="s">
+      <c r="F6" s="73" t="s">
         <v>139</v>
       </c>
       <c r="H6" s="76"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="73" t="s">
         <v>70</v>
       </c>
@@ -9564,7 +9566,7 @@
       </c>
       <c r="H7" s="76"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="73" t="s">
         <v>71</v>
       </c>
@@ -9579,7 +9581,7 @@
       </c>
       <c r="H8" s="76"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="73" t="s">
         <v>72</v>
       </c>
@@ -9594,7 +9596,7 @@
       </c>
       <c r="H9" s="76"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="73" t="s">
         <v>108</v>
       </c>
@@ -9609,7 +9611,7 @@
       </c>
       <c r="H10" s="76"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="73" t="s">
         <v>109</v>
       </c>
@@ -9624,7 +9626,7 @@
       </c>
       <c r="H11" s="76"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="73" t="s">
         <v>110</v>
       </c>
@@ -9639,7 +9641,7 @@
       </c>
       <c r="H12" s="76"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="73" t="s">
         <v>111</v>
       </c>
@@ -9654,7 +9656,7 @@
       </c>
       <c r="H13" s="76"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="73"/>
       <c r="B14" s="73"/>
       <c r="D14" s="73" t="s">
@@ -9665,7 +9667,7 @@
       </c>
       <c r="H14" s="76"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="73"/>
       <c r="B15" s="73"/>
       <c r="D15" s="73" t="s">
@@ -9676,7 +9678,7 @@
       </c>
       <c r="H15" s="76"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="73"/>
       <c r="B16" s="73"/>
       <c r="D16" s="73"/>
@@ -9685,7 +9687,7 @@
       </c>
       <c r="H16" s="76"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="73"/>
       <c r="B17" s="73"/>
       <c r="D17" s="73"/>
@@ -9694,7 +9696,7 @@
       </c>
       <c r="H17" s="76"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="73"/>
       <c r="B18" s="73"/>
       <c r="D18" s="73"/>
@@ -9703,14 +9705,14 @@
       </c>
       <c r="H18" s="76"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="73"/>
       <c r="B19" s="73"/>
       <c r="D19" s="73"/>
       <c r="F19" s="73"/>
       <c r="H19" s="76"/>
     </row>
-    <row r="20" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="74"/>
       <c r="B20" s="74"/>
       <c r="D20" s="74"/>

--- a/src/spz/templates/export/spanisch_hueber.xlsx
+++ b/src/spz/templates/export/spanisch_hueber.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27628"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr showInkAnnotation="0" updateLinks="never" codeName="DieseArbeitsmappe" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\04_Hiwi\Datenbank\excel_templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s_hiwi\Documents\Datenbank\excel_templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99E99018-E688-4939-8845-29C8DD32BD8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="RAWDATA" sheetId="11" r:id="rId1"/>
@@ -25,12 +24,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Notenliste!$H$1:$M$29</definedName>
     <definedName name="DOZENT">OFFSET(Einstellungen!$F$2,,,COUNTIF(Einstellungen!$F$2:$F$20,"&gt;"""),)</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">Extrapunkte!$A$1:$J$30</definedName>
     <definedName name="ECTS">OFFSET(Einstellungen!$H$2,,,COUNTIF(Einstellungen!$H$2:$H$20,"&gt;"""),)</definedName>
     <definedName name="KURSNAME">OFFSET(Einstellungen!$A$2,,,COUNTIF(Einstellungen!$A$2:$A$20,"&gt;"""),)</definedName>
     <definedName name="NIVEAU">OFFSET(Einstellungen!$D$2,,,COUNTIF(Einstellungen!$D$2:$D$22,"&gt;"""),)</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">Extrapunkte!$A$1:$J$30</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -48,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="143">
   <si>
     <t>Name</t>
   </si>
@@ -595,11 +594,17 @@
   <si>
     <t>applicant.sanitized_grade</t>
   </si>
+  <si>
+    <t>course.teacher_name</t>
+  </si>
+  <si>
+    <t>applicant.ects_points</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="#"/>
@@ -1206,12 +1211,36 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Standard 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard 2" xfId="1"/>
   </cellStyles>
-  <dxfs count="19">
+  <dxfs count="20">
     <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1238,31 +1267,10 @@
       </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <protection locked="0" hidden="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="0" hidden="0"/>
     </dxf>
     <dxf>
       <protection locked="0" hidden="0"/>
@@ -1309,7 +1317,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1559,50 +1567,51 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="DATA" displayName="DATA" ref="B1:H2" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17">
-  <autoFilter ref="B1:H2" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
-  <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Nachname" dataDxfId="16"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Vorname" dataDxfId="15"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Hochschule" dataDxfId="14"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Matrikelnummer" dataDxfId="13"/>
-    <tableColumn id="7" xr3:uid="{01D0AFE4-6A90-4E08-9A72-81C78BA84D03}" name="Note" dataDxfId="0"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="E-Mail" dataDxfId="12"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Telefon" dataDxfId="11"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="DATA" displayName="DATA" ref="B1:I2" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18">
+  <autoFilter ref="B1:I2"/>
+  <tableColumns count="8">
+    <tableColumn id="1" name="Nachname" dataDxfId="17"/>
+    <tableColumn id="2" name="Vorname" dataDxfId="16"/>
+    <tableColumn id="3" name="Hochschule" dataDxfId="15"/>
+    <tableColumn id="4" name="Matrikelnummer" dataDxfId="14"/>
+    <tableColumn id="7" name="Note" dataDxfId="13"/>
+    <tableColumn id="9" name="LP" dataDxfId="12"/>
+    <tableColumn id="5" name="E-Mail" dataDxfId="11"/>
+    <tableColumn id="6" name="Telefon" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tabelle1" displayName="Tabelle1" ref="A1:H26" totalsRowShown="0">
-  <autoFilter ref="A1:H26" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabelle1" displayName="Tabelle1" ref="A1:H26" totalsRowShown="0">
+  <autoFilter ref="A1:H26"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Matrikelnummer" dataDxfId="10" totalsRowDxfId="9">
+    <tableColumn id="1" name="Matrikelnummer" dataDxfId="7" totalsRowDxfId="6">
       <calculatedColumnFormula>IF(Notenliste!D2=0," ",Notenliste!D2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Status"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="LP" dataDxfId="8">
-      <calculatedColumnFormula>IF(Notenliste!D2&lt;&gt;0,Notenliste!$B$33," ")</calculatedColumnFormula>
+    <tableColumn id="2" name="Status"/>
+    <tableColumn id="3" name="LP" dataDxfId="0">
+      <calculatedColumnFormula>IF(Notenliste!D2&lt;&gt;0,IF(Notenliste!P2&lt;&gt;0,Notenliste!P2,Notenliste!$B$33)," ")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Note" dataDxfId="7" totalsRowDxfId="6">
-      <calculatedColumnFormula>IF(Notenliste!F2="KP"," ",IF(Notenliste!F2="NB","nicht bestanden",Notenliste!F2))</calculatedColumnFormula>
+    <tableColumn id="4" name="Note" dataDxfId="5" totalsRowDxfId="4">
+      <calculatedColumnFormula>IF(Notenliste!D2=0," ",IF(Notenliste!F2="KP"," ",IF(Notenliste!F2="NB","nicht bestanden",Notenliste!F2)))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="Datum" dataDxfId="5">
+    <tableColumn id="5" name="Datum" dataDxfId="3">
       <calculatedColumnFormula>IF(Notenliste!D2&lt;&gt;0,Notenliste!$B$37," ")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Individueller Titel deutsch" dataDxfId="4"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="Individueller Titel englisch" dataDxfId="3"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="Anmerkungen"/>
+    <tableColumn id="6" name="Individueller Titel deutsch" dataDxfId="2"/>
+    <tableColumn id="7" name="Individueller Titel englisch" dataDxfId="1"/>
+    <tableColumn id="8" name="Anmerkungen"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1640,9 +1649,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1677,7 +1686,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1712,7 +1721,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1885,30 +1894,30 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Tabelle1"/>
-  <dimension ref="A1:XFD26"/>
+  <dimension ref="A1:K26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4" zeroHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" customWidth="1"/>
-    <col min="2" max="2" width="28.33203125" customWidth="1"/>
-    <col min="3" max="3" width="26.44140625" customWidth="1"/>
+    <col min="2" max="2" width="28.28515625" customWidth="1"/>
+    <col min="3" max="3" width="26.42578125" customWidth="1"/>
     <col min="4" max="4" width="14" customWidth="1"/>
-    <col min="5" max="5" width="18.44140625" style="13" customWidth="1"/>
-    <col min="6" max="6" width="8.33203125" style="13" customWidth="1"/>
-    <col min="7" max="7" width="37.109375" customWidth="1"/>
-    <col min="8" max="8" width="31" customWidth="1"/>
-    <col min="9" max="9" width="45.109375" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="10.33203125" hidden="1" customWidth="1"/>
-    <col min="11" max="16384" width="11.44140625" hidden="1"/>
+    <col min="5" max="5" width="18.42578125" style="13" customWidth="1"/>
+    <col min="6" max="7" width="8.140625" style="13" customWidth="1"/>
+    <col min="8" max="8" width="37.140625" customWidth="1"/>
+    <col min="9" max="9" width="31" customWidth="1"/>
+    <col min="10" max="10" width="45.140625" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="10.28515625" hidden="1" customWidth="1"/>
+    <col min="12" max="16384" width="11.42578125" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="39" t="s">
         <v>24</v>
       </c>
@@ -1927,20 +1936,23 @@
       <c r="F1" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="39" t="s">
+      <c r="G1" s="58" t="s">
+        <v>48</v>
+      </c>
+      <c r="H1" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="H1" s="39" t="s">
+      <c r="I1" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="I1" s="39" t="s">
+      <c r="J1" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="J1" s="39" t="s">
+      <c r="K1" s="39" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1960,15 +1972,18 @@
         <v>140</v>
       </c>
       <c r="G2" s="37" t="s">
+        <v>142</v>
+      </c>
+      <c r="H2" s="37" t="s">
         <v>118</v>
       </c>
-      <c r="H2" s="37" t="s">
+      <c r="I2" s="37" t="s">
         <v>119</v>
       </c>
-      <c r="I2" s="37"/>
       <c r="J2" s="37"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K2" s="37"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1981,8 +1996,9 @@
       <c r="H3" s="37"/>
       <c r="I3" s="37"/>
       <c r="J3" s="37"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K3" s="37"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1995,8 +2011,9 @@
       <c r="H4" s="37"/>
       <c r="I4" s="37"/>
       <c r="J4" s="37"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K4" s="37"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2009,8 +2026,9 @@
       <c r="H5" s="37"/>
       <c r="I5" s="37"/>
       <c r="J5" s="37"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K5" s="37"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2023,8 +2041,9 @@
       <c r="H6" s="37"/>
       <c r="I6" s="37"/>
       <c r="J6" s="37"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K6" s="37"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2037,8 +2056,9 @@
       <c r="H7" s="37"/>
       <c r="I7" s="37"/>
       <c r="J7" s="37"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K7" s="37"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -2051,8 +2071,9 @@
       <c r="H8" s="37"/>
       <c r="I8" s="37"/>
       <c r="J8" s="37"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K8" s="37"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -2065,8 +2086,9 @@
       <c r="H9" s="37"/>
       <c r="I9" s="37"/>
       <c r="J9" s="37"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K9" s="37"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -2079,8 +2101,9 @@
       <c r="H10" s="37"/>
       <c r="I10" s="37"/>
       <c r="J10" s="37"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K10" s="37"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -2093,8 +2116,9 @@
       <c r="H11" s="37"/>
       <c r="I11" s="37"/>
       <c r="J11" s="37"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K11" s="37"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -2107,8 +2131,9 @@
       <c r="H12" s="37"/>
       <c r="I12" s="37"/>
       <c r="J12" s="37"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K12" s="37"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -2121,8 +2146,9 @@
       <c r="H13" s="37"/>
       <c r="I13" s="37"/>
       <c r="J13" s="37"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K13" s="37"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -2135,8 +2161,9 @@
       <c r="H14" s="37"/>
       <c r="I14" s="37"/>
       <c r="J14" s="37"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K14" s="37"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -2149,8 +2176,9 @@
       <c r="H15" s="37"/>
       <c r="I15" s="37"/>
       <c r="J15" s="37"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K15" s="37"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -2163,8 +2191,9 @@
       <c r="H16" s="37"/>
       <c r="I16" s="37"/>
       <c r="J16" s="37"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K16" s="37"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -2177,8 +2206,9 @@
       <c r="H17" s="37"/>
       <c r="I17" s="37"/>
       <c r="J17" s="37"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K17" s="37"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -2191,8 +2221,9 @@
       <c r="H18" s="37"/>
       <c r="I18" s="37"/>
       <c r="J18" s="37"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K18" s="37"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -2205,8 +2236,9 @@
       <c r="H19" s="37"/>
       <c r="I19" s="37"/>
       <c r="J19" s="37"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K19" s="37"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -2219,8 +2251,9 @@
       <c r="H20" s="37"/>
       <c r="I20" s="37"/>
       <c r="J20" s="37"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K20" s="37"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -2233,8 +2266,9 @@
       <c r="H21" s="37"/>
       <c r="I21" s="37"/>
       <c r="J21" s="37"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K21" s="37"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -2247,8 +2281,9 @@
       <c r="H22" s="37"/>
       <c r="I22" s="37"/>
       <c r="J22" s="37"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K22" s="37"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -2261,8 +2296,9 @@
       <c r="H23" s="37"/>
       <c r="I23" s="37"/>
       <c r="J23" s="37"/>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K23" s="37"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -2271,12 +2307,13 @@
       <c r="D24" s="37"/>
       <c r="E24" s="38"/>
       <c r="F24" s="38"/>
-      <c r="G24" s="37"/>
+      <c r="G24" s="38"/>
       <c r="H24" s="37"/>
       <c r="I24" s="37"/>
       <c r="J24" s="37"/>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K24" s="37"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -2285,12 +2322,13 @@
       <c r="D25" s="37"/>
       <c r="E25" s="38"/>
       <c r="F25" s="38"/>
-      <c r="G25" s="37"/>
+      <c r="G25" s="38"/>
       <c r="H25" s="37"/>
       <c r="I25" s="37"/>
       <c r="J25" s="37"/>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K25" s="37"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -2299,10 +2337,11 @@
       <c r="D26" s="37"/>
       <c r="E26" s="38"/>
       <c r="F26" s="38"/>
-      <c r="G26" s="37"/>
+      <c r="G26" s="38"/>
       <c r="H26" s="37"/>
       <c r="I26" s="37"/>
       <c r="J26" s="37"/>
+      <c r="K26" s="37"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1" formatColumns="0" selectLockedCells="1"/>
@@ -2315,552 +2354,553 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Tabelle2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:WVR38"/>
+  <dimension ref="A1:WVT38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="13.95" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="13.9" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.44140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="18.33203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="11.44140625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="10.6640625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="11.44140625" style="11" customWidth="1"/>
-    <col min="6" max="6" width="8.44140625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="2.33203125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="6.109375" style="2" customWidth="1"/>
-    <col min="9" max="10" width="5.6640625" style="2" customWidth="1"/>
-    <col min="11" max="11" width="8.109375" style="2" customWidth="1"/>
-    <col min="12" max="12" width="7.44140625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="15.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.28515625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" style="3" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" style="11" customWidth="1"/>
+    <col min="6" max="6" width="8.42578125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="2.28515625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="6.140625" style="2" customWidth="1"/>
+    <col min="9" max="10" width="5.7109375" style="2" customWidth="1"/>
+    <col min="11" max="11" width="8.140625" style="2" customWidth="1"/>
+    <col min="12" max="12" width="7.42578125" style="2" customWidth="1"/>
     <col min="13" max="13" width="8" style="2" customWidth="1"/>
-    <col min="14" max="14" width="2.6640625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="5.6640625" style="1" customWidth="1"/>
-    <col min="16" max="16" width="5.6640625" style="2" customWidth="1"/>
-    <col min="17" max="17" width="5.6640625" style="1" customWidth="1"/>
-    <col min="18" max="18" width="2.6640625" style="1" customWidth="1"/>
-    <col min="19" max="19" width="17.6640625" style="1" hidden="1"/>
-    <col min="20" max="20" width="16" style="1" hidden="1"/>
-    <col min="21" max="21" width="17.6640625" style="1" hidden="1"/>
-    <col min="22" max="22" width="3" style="1" hidden="1"/>
-    <col min="23" max="247" width="11.44140625" style="1" hidden="1"/>
-    <col min="248" max="248" width="15.44140625" style="1" hidden="1"/>
-    <col min="249" max="249" width="11.44140625" style="1" hidden="1"/>
-    <col min="250" max="250" width="15.6640625" style="1" hidden="1"/>
-    <col min="251" max="251" width="21.6640625" style="1" hidden="1"/>
-    <col min="252" max="254" width="11.44140625" style="1" hidden="1"/>
-    <col min="255" max="255" width="16" style="1" hidden="1"/>
-    <col min="256" max="256" width="20.44140625" style="1" hidden="1"/>
-    <col min="257" max="503" width="11.44140625" style="1" hidden="1"/>
-    <col min="504" max="504" width="15.44140625" style="1" hidden="1"/>
-    <col min="505" max="505" width="11.44140625" style="1" hidden="1"/>
-    <col min="506" max="506" width="15.6640625" style="1" hidden="1"/>
-    <col min="507" max="507" width="21.6640625" style="1" hidden="1"/>
-    <col min="508" max="510" width="11.44140625" style="1" hidden="1"/>
-    <col min="511" max="511" width="16" style="1" hidden="1"/>
-    <col min="512" max="512" width="20.44140625" style="1" hidden="1"/>
-    <col min="513" max="759" width="11.44140625" style="1" hidden="1"/>
-    <col min="760" max="760" width="15.44140625" style="1" hidden="1"/>
-    <col min="761" max="761" width="11.44140625" style="1" hidden="1"/>
-    <col min="762" max="762" width="15.6640625" style="1" hidden="1"/>
-    <col min="763" max="763" width="21.6640625" style="1" hidden="1"/>
-    <col min="764" max="766" width="11.44140625" style="1" hidden="1"/>
-    <col min="767" max="767" width="16" style="1" hidden="1"/>
-    <col min="768" max="768" width="20.44140625" style="1" hidden="1"/>
-    <col min="769" max="1015" width="11.44140625" style="1" hidden="1"/>
-    <col min="1016" max="1016" width="15.44140625" style="1" hidden="1"/>
-    <col min="1017" max="1017" width="11.44140625" style="1" hidden="1"/>
-    <col min="1018" max="1018" width="15.6640625" style="1" hidden="1"/>
-    <col min="1019" max="1019" width="21.6640625" style="1" hidden="1"/>
-    <col min="1020" max="1022" width="11.44140625" style="1" hidden="1"/>
-    <col min="1023" max="1023" width="16" style="1" hidden="1"/>
-    <col min="1024" max="1024" width="20.44140625" style="1" hidden="1"/>
-    <col min="1025" max="1271" width="11.44140625" style="1" hidden="1"/>
-    <col min="1272" max="1272" width="15.44140625" style="1" hidden="1"/>
-    <col min="1273" max="1273" width="11.44140625" style="1" hidden="1"/>
-    <col min="1274" max="1274" width="15.6640625" style="1" hidden="1"/>
-    <col min="1275" max="1275" width="21.6640625" style="1" hidden="1"/>
-    <col min="1276" max="1278" width="11.44140625" style="1" hidden="1"/>
-    <col min="1279" max="1279" width="16" style="1" hidden="1"/>
-    <col min="1280" max="1280" width="20.44140625" style="1" hidden="1"/>
-    <col min="1281" max="1527" width="11.44140625" style="1" hidden="1"/>
-    <col min="1528" max="1528" width="15.44140625" style="1" hidden="1"/>
-    <col min="1529" max="1529" width="11.44140625" style="1" hidden="1"/>
-    <col min="1530" max="1530" width="15.6640625" style="1" hidden="1"/>
-    <col min="1531" max="1531" width="21.6640625" style="1" hidden="1"/>
-    <col min="1532" max="1534" width="11.44140625" style="1" hidden="1"/>
-    <col min="1535" max="1535" width="16" style="1" hidden="1"/>
-    <col min="1536" max="1536" width="20.44140625" style="1" hidden="1"/>
-    <col min="1537" max="1783" width="11.44140625" style="1" hidden="1"/>
-    <col min="1784" max="1784" width="15.44140625" style="1" hidden="1"/>
-    <col min="1785" max="1785" width="11.44140625" style="1" hidden="1"/>
-    <col min="1786" max="1786" width="15.6640625" style="1" hidden="1"/>
-    <col min="1787" max="1787" width="21.6640625" style="1" hidden="1"/>
-    <col min="1788" max="1790" width="11.44140625" style="1" hidden="1"/>
-    <col min="1791" max="1791" width="16" style="1" hidden="1"/>
-    <col min="1792" max="1792" width="20.44140625" style="1" hidden="1"/>
-    <col min="1793" max="2039" width="11.44140625" style="1" hidden="1"/>
-    <col min="2040" max="2040" width="15.44140625" style="1" hidden="1"/>
-    <col min="2041" max="2041" width="11.44140625" style="1" hidden="1"/>
-    <col min="2042" max="2042" width="15.6640625" style="1" hidden="1"/>
-    <col min="2043" max="2043" width="21.6640625" style="1" hidden="1"/>
-    <col min="2044" max="2046" width="11.44140625" style="1" hidden="1"/>
-    <col min="2047" max="2047" width="16" style="1" hidden="1"/>
-    <col min="2048" max="2048" width="20.44140625" style="1" hidden="1"/>
-    <col min="2049" max="2295" width="11.44140625" style="1" hidden="1"/>
-    <col min="2296" max="2296" width="15.44140625" style="1" hidden="1"/>
-    <col min="2297" max="2297" width="11.44140625" style="1" hidden="1"/>
-    <col min="2298" max="2298" width="15.6640625" style="1" hidden="1"/>
-    <col min="2299" max="2299" width="21.6640625" style="1" hidden="1"/>
-    <col min="2300" max="2302" width="11.44140625" style="1" hidden="1"/>
-    <col min="2303" max="2303" width="16" style="1" hidden="1"/>
-    <col min="2304" max="2304" width="20.44140625" style="1" hidden="1"/>
-    <col min="2305" max="2551" width="11.44140625" style="1" hidden="1"/>
-    <col min="2552" max="2552" width="15.44140625" style="1" hidden="1"/>
-    <col min="2553" max="2553" width="11.44140625" style="1" hidden="1"/>
-    <col min="2554" max="2554" width="15.6640625" style="1" hidden="1"/>
-    <col min="2555" max="2555" width="21.6640625" style="1" hidden="1"/>
-    <col min="2556" max="2558" width="11.44140625" style="1" hidden="1"/>
-    <col min="2559" max="2559" width="16" style="1" hidden="1"/>
-    <col min="2560" max="2560" width="20.44140625" style="1" hidden="1"/>
-    <col min="2561" max="2807" width="11.44140625" style="1" hidden="1"/>
-    <col min="2808" max="2808" width="15.44140625" style="1" hidden="1"/>
-    <col min="2809" max="2809" width="11.44140625" style="1" hidden="1"/>
-    <col min="2810" max="2810" width="15.6640625" style="1" hidden="1"/>
-    <col min="2811" max="2811" width="21.6640625" style="1" hidden="1"/>
-    <col min="2812" max="2814" width="11.44140625" style="1" hidden="1"/>
-    <col min="2815" max="2815" width="16" style="1" hidden="1"/>
-    <col min="2816" max="2816" width="20.44140625" style="1" hidden="1"/>
-    <col min="2817" max="3063" width="11.44140625" style="1" hidden="1"/>
-    <col min="3064" max="3064" width="15.44140625" style="1" hidden="1"/>
-    <col min="3065" max="3065" width="11.44140625" style="1" hidden="1"/>
-    <col min="3066" max="3066" width="15.6640625" style="1" hidden="1"/>
-    <col min="3067" max="3067" width="21.6640625" style="1" hidden="1"/>
-    <col min="3068" max="3070" width="11.44140625" style="1" hidden="1"/>
-    <col min="3071" max="3071" width="16" style="1" hidden="1"/>
-    <col min="3072" max="3072" width="20.44140625" style="1" hidden="1"/>
-    <col min="3073" max="3319" width="11.44140625" style="1" hidden="1"/>
-    <col min="3320" max="3320" width="15.44140625" style="1" hidden="1"/>
-    <col min="3321" max="3321" width="11.44140625" style="1" hidden="1"/>
-    <col min="3322" max="3322" width="15.6640625" style="1" hidden="1"/>
-    <col min="3323" max="3323" width="21.6640625" style="1" hidden="1"/>
-    <col min="3324" max="3326" width="11.44140625" style="1" hidden="1"/>
-    <col min="3327" max="3327" width="16" style="1" hidden="1"/>
-    <col min="3328" max="3328" width="20.44140625" style="1" hidden="1"/>
-    <col min="3329" max="3575" width="11.44140625" style="1" hidden="1"/>
-    <col min="3576" max="3576" width="15.44140625" style="1" hidden="1"/>
-    <col min="3577" max="3577" width="11.44140625" style="1" hidden="1"/>
-    <col min="3578" max="3578" width="15.6640625" style="1" hidden="1"/>
-    <col min="3579" max="3579" width="21.6640625" style="1" hidden="1"/>
-    <col min="3580" max="3582" width="11.44140625" style="1" hidden="1"/>
-    <col min="3583" max="3583" width="16" style="1" hidden="1"/>
-    <col min="3584" max="3584" width="20.44140625" style="1" hidden="1"/>
-    <col min="3585" max="3831" width="11.44140625" style="1" hidden="1"/>
-    <col min="3832" max="3832" width="15.44140625" style="1" hidden="1"/>
-    <col min="3833" max="3833" width="11.44140625" style="1" hidden="1"/>
-    <col min="3834" max="3834" width="15.6640625" style="1" hidden="1"/>
-    <col min="3835" max="3835" width="21.6640625" style="1" hidden="1"/>
-    <col min="3836" max="3838" width="11.44140625" style="1" hidden="1"/>
-    <col min="3839" max="3839" width="16" style="1" hidden="1"/>
-    <col min="3840" max="3840" width="20.44140625" style="1" hidden="1"/>
-    <col min="3841" max="4087" width="11.44140625" style="1" hidden="1"/>
-    <col min="4088" max="4088" width="15.44140625" style="1" hidden="1"/>
-    <col min="4089" max="4089" width="11.44140625" style="1" hidden="1"/>
-    <col min="4090" max="4090" width="15.6640625" style="1" hidden="1"/>
-    <col min="4091" max="4091" width="21.6640625" style="1" hidden="1"/>
-    <col min="4092" max="4094" width="11.44140625" style="1" hidden="1"/>
-    <col min="4095" max="4095" width="16" style="1" hidden="1"/>
-    <col min="4096" max="4096" width="20.44140625" style="1" hidden="1"/>
-    <col min="4097" max="4343" width="11.44140625" style="1" hidden="1"/>
-    <col min="4344" max="4344" width="15.44140625" style="1" hidden="1"/>
-    <col min="4345" max="4345" width="11.44140625" style="1" hidden="1"/>
-    <col min="4346" max="4346" width="15.6640625" style="1" hidden="1"/>
-    <col min="4347" max="4347" width="21.6640625" style="1" hidden="1"/>
-    <col min="4348" max="4350" width="11.44140625" style="1" hidden="1"/>
-    <col min="4351" max="4351" width="16" style="1" hidden="1"/>
-    <col min="4352" max="4352" width="20.44140625" style="1" hidden="1"/>
-    <col min="4353" max="4599" width="11.44140625" style="1" hidden="1"/>
-    <col min="4600" max="4600" width="15.44140625" style="1" hidden="1"/>
-    <col min="4601" max="4601" width="11.44140625" style="1" hidden="1"/>
-    <col min="4602" max="4602" width="15.6640625" style="1" hidden="1"/>
-    <col min="4603" max="4603" width="21.6640625" style="1" hidden="1"/>
-    <col min="4604" max="4606" width="11.44140625" style="1" hidden="1"/>
-    <col min="4607" max="4607" width="16" style="1" hidden="1"/>
-    <col min="4608" max="4608" width="20.44140625" style="1" hidden="1"/>
-    <col min="4609" max="4855" width="11.44140625" style="1" hidden="1"/>
-    <col min="4856" max="4856" width="15.44140625" style="1" hidden="1"/>
-    <col min="4857" max="4857" width="11.44140625" style="1" hidden="1"/>
-    <col min="4858" max="4858" width="15.6640625" style="1" hidden="1"/>
-    <col min="4859" max="4859" width="21.6640625" style="1" hidden="1"/>
-    <col min="4860" max="4862" width="11.44140625" style="1" hidden="1"/>
-    <col min="4863" max="4863" width="16" style="1" hidden="1"/>
-    <col min="4864" max="4864" width="20.44140625" style="1" hidden="1"/>
-    <col min="4865" max="5111" width="11.44140625" style="1" hidden="1"/>
-    <col min="5112" max="5112" width="15.44140625" style="1" hidden="1"/>
-    <col min="5113" max="5113" width="11.44140625" style="1" hidden="1"/>
-    <col min="5114" max="5114" width="15.6640625" style="1" hidden="1"/>
-    <col min="5115" max="5115" width="21.6640625" style="1" hidden="1"/>
-    <col min="5116" max="5118" width="11.44140625" style="1" hidden="1"/>
-    <col min="5119" max="5119" width="16" style="1" hidden="1"/>
-    <col min="5120" max="5120" width="20.44140625" style="1" hidden="1"/>
-    <col min="5121" max="5367" width="11.44140625" style="1" hidden="1"/>
-    <col min="5368" max="5368" width="15.44140625" style="1" hidden="1"/>
-    <col min="5369" max="5369" width="11.44140625" style="1" hidden="1"/>
-    <col min="5370" max="5370" width="15.6640625" style="1" hidden="1"/>
-    <col min="5371" max="5371" width="21.6640625" style="1" hidden="1"/>
-    <col min="5372" max="5374" width="11.44140625" style="1" hidden="1"/>
-    <col min="5375" max="5375" width="16" style="1" hidden="1"/>
-    <col min="5376" max="5376" width="20.44140625" style="1" hidden="1"/>
-    <col min="5377" max="5623" width="11.44140625" style="1" hidden="1"/>
-    <col min="5624" max="5624" width="15.44140625" style="1" hidden="1"/>
-    <col min="5625" max="5625" width="11.44140625" style="1" hidden="1"/>
-    <col min="5626" max="5626" width="15.6640625" style="1" hidden="1"/>
-    <col min="5627" max="5627" width="21.6640625" style="1" hidden="1"/>
-    <col min="5628" max="5630" width="11.44140625" style="1" hidden="1"/>
-    <col min="5631" max="5631" width="16" style="1" hidden="1"/>
-    <col min="5632" max="5632" width="20.44140625" style="1" hidden="1"/>
-    <col min="5633" max="5879" width="11.44140625" style="1" hidden="1"/>
-    <col min="5880" max="5880" width="15.44140625" style="1" hidden="1"/>
-    <col min="5881" max="5881" width="11.44140625" style="1" hidden="1"/>
-    <col min="5882" max="5882" width="15.6640625" style="1" hidden="1"/>
-    <col min="5883" max="5883" width="21.6640625" style="1" hidden="1"/>
-    <col min="5884" max="5886" width="11.44140625" style="1" hidden="1"/>
-    <col min="5887" max="5887" width="16" style="1" hidden="1"/>
-    <col min="5888" max="5888" width="20.44140625" style="1" hidden="1"/>
-    <col min="5889" max="6135" width="11.44140625" style="1" hidden="1"/>
-    <col min="6136" max="6136" width="15.44140625" style="1" hidden="1"/>
-    <col min="6137" max="6137" width="11.44140625" style="1" hidden="1"/>
-    <col min="6138" max="6138" width="15.6640625" style="1" hidden="1"/>
-    <col min="6139" max="6139" width="21.6640625" style="1" hidden="1"/>
-    <col min="6140" max="6142" width="11.44140625" style="1" hidden="1"/>
-    <col min="6143" max="6143" width="16" style="1" hidden="1"/>
-    <col min="6144" max="6144" width="20.44140625" style="1" hidden="1"/>
-    <col min="6145" max="6391" width="11.44140625" style="1" hidden="1"/>
-    <col min="6392" max="6392" width="15.44140625" style="1" hidden="1"/>
-    <col min="6393" max="6393" width="11.44140625" style="1" hidden="1"/>
-    <col min="6394" max="6394" width="15.6640625" style="1" hidden="1"/>
-    <col min="6395" max="6395" width="21.6640625" style="1" hidden="1"/>
-    <col min="6396" max="6398" width="11.44140625" style="1" hidden="1"/>
-    <col min="6399" max="6399" width="16" style="1" hidden="1"/>
-    <col min="6400" max="6400" width="20.44140625" style="1" hidden="1"/>
-    <col min="6401" max="6647" width="11.44140625" style="1" hidden="1"/>
-    <col min="6648" max="6648" width="15.44140625" style="1" hidden="1"/>
-    <col min="6649" max="6649" width="11.44140625" style="1" hidden="1"/>
-    <col min="6650" max="6650" width="15.6640625" style="1" hidden="1"/>
-    <col min="6651" max="6651" width="21.6640625" style="1" hidden="1"/>
-    <col min="6652" max="6654" width="11.44140625" style="1" hidden="1"/>
-    <col min="6655" max="6655" width="16" style="1" hidden="1"/>
-    <col min="6656" max="6656" width="20.44140625" style="1" hidden="1"/>
-    <col min="6657" max="6903" width="11.44140625" style="1" hidden="1"/>
-    <col min="6904" max="6904" width="15.44140625" style="1" hidden="1"/>
-    <col min="6905" max="6905" width="11.44140625" style="1" hidden="1"/>
-    <col min="6906" max="6906" width="15.6640625" style="1" hidden="1"/>
-    <col min="6907" max="6907" width="21.6640625" style="1" hidden="1"/>
-    <col min="6908" max="6910" width="11.44140625" style="1" hidden="1"/>
-    <col min="6911" max="6911" width="16" style="1" hidden="1"/>
-    <col min="6912" max="6912" width="20.44140625" style="1" hidden="1"/>
-    <col min="6913" max="7159" width="11.44140625" style="1" hidden="1"/>
-    <col min="7160" max="7160" width="15.44140625" style="1" hidden="1"/>
-    <col min="7161" max="7161" width="11.44140625" style="1" hidden="1"/>
-    <col min="7162" max="7162" width="15.6640625" style="1" hidden="1"/>
-    <col min="7163" max="7163" width="21.6640625" style="1" hidden="1"/>
-    <col min="7164" max="7166" width="11.44140625" style="1" hidden="1"/>
-    <col min="7167" max="7167" width="16" style="1" hidden="1"/>
-    <col min="7168" max="7168" width="20.44140625" style="1" hidden="1"/>
-    <col min="7169" max="7415" width="11.44140625" style="1" hidden="1"/>
-    <col min="7416" max="7416" width="15.44140625" style="1" hidden="1"/>
-    <col min="7417" max="7417" width="11.44140625" style="1" hidden="1"/>
-    <col min="7418" max="7418" width="15.6640625" style="1" hidden="1"/>
-    <col min="7419" max="7419" width="21.6640625" style="1" hidden="1"/>
-    <col min="7420" max="7422" width="11.44140625" style="1" hidden="1"/>
-    <col min="7423" max="7423" width="16" style="1" hidden="1"/>
-    <col min="7424" max="7424" width="20.44140625" style="1" hidden="1"/>
-    <col min="7425" max="7671" width="11.44140625" style="1" hidden="1"/>
-    <col min="7672" max="7672" width="15.44140625" style="1" hidden="1"/>
-    <col min="7673" max="7673" width="11.44140625" style="1" hidden="1"/>
-    <col min="7674" max="7674" width="15.6640625" style="1" hidden="1"/>
-    <col min="7675" max="7675" width="21.6640625" style="1" hidden="1"/>
-    <col min="7676" max="7678" width="11.44140625" style="1" hidden="1"/>
-    <col min="7679" max="7679" width="16" style="1" hidden="1"/>
-    <col min="7680" max="7680" width="20.44140625" style="1" hidden="1"/>
-    <col min="7681" max="7927" width="11.44140625" style="1" hidden="1"/>
-    <col min="7928" max="7928" width="15.44140625" style="1" hidden="1"/>
-    <col min="7929" max="7929" width="11.44140625" style="1" hidden="1"/>
-    <col min="7930" max="7930" width="15.6640625" style="1" hidden="1"/>
-    <col min="7931" max="7931" width="21.6640625" style="1" hidden="1"/>
-    <col min="7932" max="7934" width="11.44140625" style="1" hidden="1"/>
-    <col min="7935" max="7935" width="16" style="1" hidden="1"/>
-    <col min="7936" max="7936" width="20.44140625" style="1" hidden="1"/>
-    <col min="7937" max="8183" width="11.44140625" style="1" hidden="1"/>
-    <col min="8184" max="8184" width="15.44140625" style="1" hidden="1"/>
-    <col min="8185" max="8185" width="11.44140625" style="1" hidden="1"/>
-    <col min="8186" max="8186" width="15.6640625" style="1" hidden="1"/>
-    <col min="8187" max="8187" width="21.6640625" style="1" hidden="1"/>
-    <col min="8188" max="8190" width="11.44140625" style="1" hidden="1"/>
-    <col min="8191" max="8191" width="16" style="1" hidden="1"/>
-    <col min="8192" max="8192" width="20.44140625" style="1" hidden="1"/>
-    <col min="8193" max="8439" width="11.44140625" style="1" hidden="1"/>
-    <col min="8440" max="8440" width="15.44140625" style="1" hidden="1"/>
-    <col min="8441" max="8441" width="11.44140625" style="1" hidden="1"/>
-    <col min="8442" max="8442" width="15.6640625" style="1" hidden="1"/>
-    <col min="8443" max="8443" width="21.6640625" style="1" hidden="1"/>
-    <col min="8444" max="8446" width="11.44140625" style="1" hidden="1"/>
-    <col min="8447" max="8447" width="16" style="1" hidden="1"/>
-    <col min="8448" max="8448" width="20.44140625" style="1" hidden="1"/>
-    <col min="8449" max="8695" width="11.44140625" style="1" hidden="1"/>
-    <col min="8696" max="8696" width="15.44140625" style="1" hidden="1"/>
-    <col min="8697" max="8697" width="11.44140625" style="1" hidden="1"/>
-    <col min="8698" max="8698" width="15.6640625" style="1" hidden="1"/>
-    <col min="8699" max="8699" width="21.6640625" style="1" hidden="1"/>
-    <col min="8700" max="8702" width="11.44140625" style="1" hidden="1"/>
-    <col min="8703" max="8703" width="16" style="1" hidden="1"/>
-    <col min="8704" max="8704" width="20.44140625" style="1" hidden="1"/>
-    <col min="8705" max="8951" width="11.44140625" style="1" hidden="1"/>
-    <col min="8952" max="8952" width="15.44140625" style="1" hidden="1"/>
-    <col min="8953" max="8953" width="11.44140625" style="1" hidden="1"/>
-    <col min="8954" max="8954" width="15.6640625" style="1" hidden="1"/>
-    <col min="8955" max="8955" width="21.6640625" style="1" hidden="1"/>
-    <col min="8956" max="8958" width="11.44140625" style="1" hidden="1"/>
-    <col min="8959" max="8959" width="16" style="1" hidden="1"/>
-    <col min="8960" max="8960" width="20.44140625" style="1" hidden="1"/>
-    <col min="8961" max="9207" width="11.44140625" style="1" hidden="1"/>
-    <col min="9208" max="9208" width="15.44140625" style="1" hidden="1"/>
-    <col min="9209" max="9209" width="11.44140625" style="1" hidden="1"/>
-    <col min="9210" max="9210" width="15.6640625" style="1" hidden="1"/>
-    <col min="9211" max="9211" width="21.6640625" style="1" hidden="1"/>
-    <col min="9212" max="9214" width="11.44140625" style="1" hidden="1"/>
-    <col min="9215" max="9215" width="16" style="1" hidden="1"/>
-    <col min="9216" max="9216" width="20.44140625" style="1" hidden="1"/>
-    <col min="9217" max="9463" width="11.44140625" style="1" hidden="1"/>
-    <col min="9464" max="9464" width="15.44140625" style="1" hidden="1"/>
-    <col min="9465" max="9465" width="11.44140625" style="1" hidden="1"/>
-    <col min="9466" max="9466" width="15.6640625" style="1" hidden="1"/>
-    <col min="9467" max="9467" width="21.6640625" style="1" hidden="1"/>
-    <col min="9468" max="9470" width="11.44140625" style="1" hidden="1"/>
-    <col min="9471" max="9471" width="16" style="1" hidden="1"/>
-    <col min="9472" max="9472" width="20.44140625" style="1" hidden="1"/>
-    <col min="9473" max="9719" width="11.44140625" style="1" hidden="1"/>
-    <col min="9720" max="9720" width="15.44140625" style="1" hidden="1"/>
-    <col min="9721" max="9721" width="11.44140625" style="1" hidden="1"/>
-    <col min="9722" max="9722" width="15.6640625" style="1" hidden="1"/>
-    <col min="9723" max="9723" width="21.6640625" style="1" hidden="1"/>
-    <col min="9724" max="9726" width="11.44140625" style="1" hidden="1"/>
-    <col min="9727" max="9727" width="16" style="1" hidden="1"/>
-    <col min="9728" max="9728" width="20.44140625" style="1" hidden="1"/>
-    <col min="9729" max="9975" width="11.44140625" style="1" hidden="1"/>
-    <col min="9976" max="9976" width="15.44140625" style="1" hidden="1"/>
-    <col min="9977" max="9977" width="11.44140625" style="1" hidden="1"/>
-    <col min="9978" max="9978" width="15.6640625" style="1" hidden="1"/>
-    <col min="9979" max="9979" width="21.6640625" style="1" hidden="1"/>
-    <col min="9980" max="9982" width="11.44140625" style="1" hidden="1"/>
-    <col min="9983" max="9983" width="16" style="1" hidden="1"/>
-    <col min="9984" max="9984" width="20.44140625" style="1" hidden="1"/>
-    <col min="9985" max="10231" width="11.44140625" style="1" hidden="1"/>
-    <col min="10232" max="10232" width="15.44140625" style="1" hidden="1"/>
-    <col min="10233" max="10233" width="11.44140625" style="1" hidden="1"/>
-    <col min="10234" max="10234" width="15.6640625" style="1" hidden="1"/>
-    <col min="10235" max="10235" width="21.6640625" style="1" hidden="1"/>
-    <col min="10236" max="10238" width="11.44140625" style="1" hidden="1"/>
-    <col min="10239" max="10239" width="16" style="1" hidden="1"/>
-    <col min="10240" max="10240" width="20.44140625" style="1" hidden="1"/>
-    <col min="10241" max="10487" width="11.44140625" style="1" hidden="1"/>
-    <col min="10488" max="10488" width="15.44140625" style="1" hidden="1"/>
-    <col min="10489" max="10489" width="11.44140625" style="1" hidden="1"/>
-    <col min="10490" max="10490" width="15.6640625" style="1" hidden="1"/>
-    <col min="10491" max="10491" width="21.6640625" style="1" hidden="1"/>
-    <col min="10492" max="10494" width="11.44140625" style="1" hidden="1"/>
-    <col min="10495" max="10495" width="16" style="1" hidden="1"/>
-    <col min="10496" max="10496" width="20.44140625" style="1" hidden="1"/>
-    <col min="10497" max="10743" width="11.44140625" style="1" hidden="1"/>
-    <col min="10744" max="10744" width="15.44140625" style="1" hidden="1"/>
-    <col min="10745" max="10745" width="11.44140625" style="1" hidden="1"/>
-    <col min="10746" max="10746" width="15.6640625" style="1" hidden="1"/>
-    <col min="10747" max="10747" width="21.6640625" style="1" hidden="1"/>
-    <col min="10748" max="10750" width="11.44140625" style="1" hidden="1"/>
-    <col min="10751" max="10751" width="16" style="1" hidden="1"/>
-    <col min="10752" max="10752" width="20.44140625" style="1" hidden="1"/>
-    <col min="10753" max="10999" width="11.44140625" style="1" hidden="1"/>
-    <col min="11000" max="11000" width="15.44140625" style="1" hidden="1"/>
-    <col min="11001" max="11001" width="11.44140625" style="1" hidden="1"/>
-    <col min="11002" max="11002" width="15.6640625" style="1" hidden="1"/>
-    <col min="11003" max="11003" width="21.6640625" style="1" hidden="1"/>
-    <col min="11004" max="11006" width="11.44140625" style="1" hidden="1"/>
-    <col min="11007" max="11007" width="16" style="1" hidden="1"/>
-    <col min="11008" max="11008" width="20.44140625" style="1" hidden="1"/>
-    <col min="11009" max="11255" width="11.44140625" style="1" hidden="1"/>
-    <col min="11256" max="11256" width="15.44140625" style="1" hidden="1"/>
-    <col min="11257" max="11257" width="11.44140625" style="1" hidden="1"/>
-    <col min="11258" max="11258" width="15.6640625" style="1" hidden="1"/>
-    <col min="11259" max="11259" width="21.6640625" style="1" hidden="1"/>
-    <col min="11260" max="11262" width="11.44140625" style="1" hidden="1"/>
-    <col min="11263" max="11263" width="16" style="1" hidden="1"/>
-    <col min="11264" max="11264" width="20.44140625" style="1" hidden="1"/>
-    <col min="11265" max="11511" width="11.44140625" style="1" hidden="1"/>
-    <col min="11512" max="11512" width="15.44140625" style="1" hidden="1"/>
-    <col min="11513" max="11513" width="11.44140625" style="1" hidden="1"/>
-    <col min="11514" max="11514" width="15.6640625" style="1" hidden="1"/>
-    <col min="11515" max="11515" width="21.6640625" style="1" hidden="1"/>
-    <col min="11516" max="11518" width="11.44140625" style="1" hidden="1"/>
-    <col min="11519" max="11519" width="16" style="1" hidden="1"/>
-    <col min="11520" max="11520" width="20.44140625" style="1" hidden="1"/>
-    <col min="11521" max="11767" width="11.44140625" style="1" hidden="1"/>
-    <col min="11768" max="11768" width="15.44140625" style="1" hidden="1"/>
-    <col min="11769" max="11769" width="11.44140625" style="1" hidden="1"/>
-    <col min="11770" max="11770" width="15.6640625" style="1" hidden="1"/>
-    <col min="11771" max="11771" width="21.6640625" style="1" hidden="1"/>
-    <col min="11772" max="11774" width="11.44140625" style="1" hidden="1"/>
-    <col min="11775" max="11775" width="16" style="1" hidden="1"/>
-    <col min="11776" max="11776" width="20.44140625" style="1" hidden="1"/>
-    <col min="11777" max="12023" width="11.44140625" style="1" hidden="1"/>
-    <col min="12024" max="12024" width="15.44140625" style="1" hidden="1"/>
-    <col min="12025" max="12025" width="11.44140625" style="1" hidden="1"/>
-    <col min="12026" max="12026" width="15.6640625" style="1" hidden="1"/>
-    <col min="12027" max="12027" width="21.6640625" style="1" hidden="1"/>
-    <col min="12028" max="12030" width="11.44140625" style="1" hidden="1"/>
-    <col min="12031" max="12031" width="16" style="1" hidden="1"/>
-    <col min="12032" max="12032" width="20.44140625" style="1" hidden="1"/>
-    <col min="12033" max="12279" width="11.44140625" style="1" hidden="1"/>
-    <col min="12280" max="12280" width="15.44140625" style="1" hidden="1"/>
-    <col min="12281" max="12281" width="11.44140625" style="1" hidden="1"/>
-    <col min="12282" max="12282" width="15.6640625" style="1" hidden="1"/>
-    <col min="12283" max="12283" width="21.6640625" style="1" hidden="1"/>
-    <col min="12284" max="12286" width="11.44140625" style="1" hidden="1"/>
-    <col min="12287" max="12287" width="16" style="1" hidden="1"/>
-    <col min="12288" max="12288" width="20.44140625" style="1" hidden="1"/>
-    <col min="12289" max="12535" width="11.44140625" style="1" hidden="1"/>
-    <col min="12536" max="12536" width="15.44140625" style="1" hidden="1"/>
-    <col min="12537" max="12537" width="11.44140625" style="1" hidden="1"/>
-    <col min="12538" max="12538" width="15.6640625" style="1" hidden="1"/>
-    <col min="12539" max="12539" width="21.6640625" style="1" hidden="1"/>
-    <col min="12540" max="12542" width="11.44140625" style="1" hidden="1"/>
-    <col min="12543" max="12543" width="16" style="1" hidden="1"/>
-    <col min="12544" max="12544" width="20.44140625" style="1" hidden="1"/>
-    <col min="12545" max="12791" width="11.44140625" style="1" hidden="1"/>
-    <col min="12792" max="12792" width="15.44140625" style="1" hidden="1"/>
-    <col min="12793" max="12793" width="11.44140625" style="1" hidden="1"/>
-    <col min="12794" max="12794" width="15.6640625" style="1" hidden="1"/>
-    <col min="12795" max="12795" width="21.6640625" style="1" hidden="1"/>
-    <col min="12796" max="12798" width="11.44140625" style="1" hidden="1"/>
-    <col min="12799" max="12799" width="16" style="1" hidden="1"/>
-    <col min="12800" max="12800" width="20.44140625" style="1" hidden="1"/>
-    <col min="12801" max="13047" width="11.44140625" style="1" hidden="1"/>
-    <col min="13048" max="13048" width="15.44140625" style="1" hidden="1"/>
-    <col min="13049" max="13049" width="11.44140625" style="1" hidden="1"/>
-    <col min="13050" max="13050" width="15.6640625" style="1" hidden="1"/>
-    <col min="13051" max="13051" width="21.6640625" style="1" hidden="1"/>
-    <col min="13052" max="13054" width="11.44140625" style="1" hidden="1"/>
-    <col min="13055" max="13055" width="16" style="1" hidden="1"/>
-    <col min="13056" max="13056" width="20.44140625" style="1" hidden="1"/>
-    <col min="13057" max="13303" width="11.44140625" style="1" hidden="1"/>
-    <col min="13304" max="13304" width="15.44140625" style="1" hidden="1"/>
-    <col min="13305" max="13305" width="11.44140625" style="1" hidden="1"/>
-    <col min="13306" max="13306" width="15.6640625" style="1" hidden="1"/>
-    <col min="13307" max="13307" width="21.6640625" style="1" hidden="1"/>
-    <col min="13308" max="13310" width="11.44140625" style="1" hidden="1"/>
-    <col min="13311" max="13311" width="16" style="1" hidden="1"/>
-    <col min="13312" max="13312" width="20.44140625" style="1" hidden="1"/>
-    <col min="13313" max="13559" width="11.44140625" style="1" hidden="1"/>
-    <col min="13560" max="13560" width="15.44140625" style="1" hidden="1"/>
-    <col min="13561" max="13561" width="11.44140625" style="1" hidden="1"/>
-    <col min="13562" max="13562" width="15.6640625" style="1" hidden="1"/>
-    <col min="13563" max="13563" width="21.6640625" style="1" hidden="1"/>
-    <col min="13564" max="13566" width="11.44140625" style="1" hidden="1"/>
-    <col min="13567" max="13567" width="16" style="1" hidden="1"/>
-    <col min="13568" max="13568" width="20.44140625" style="1" hidden="1"/>
-    <col min="13569" max="13815" width="11.44140625" style="1" hidden="1"/>
-    <col min="13816" max="13816" width="15.44140625" style="1" hidden="1"/>
-    <col min="13817" max="13817" width="11.44140625" style="1" hidden="1"/>
-    <col min="13818" max="13818" width="15.6640625" style="1" hidden="1"/>
-    <col min="13819" max="13819" width="21.6640625" style="1" hidden="1"/>
-    <col min="13820" max="13822" width="11.44140625" style="1" hidden="1"/>
-    <col min="13823" max="13823" width="16" style="1" hidden="1"/>
-    <col min="13824" max="13824" width="20.44140625" style="1" hidden="1"/>
-    <col min="13825" max="14071" width="11.44140625" style="1" hidden="1"/>
-    <col min="14072" max="14072" width="15.44140625" style="1" hidden="1"/>
-    <col min="14073" max="14073" width="11.44140625" style="1" hidden="1"/>
-    <col min="14074" max="14074" width="15.6640625" style="1" hidden="1"/>
-    <col min="14075" max="14075" width="21.6640625" style="1" hidden="1"/>
-    <col min="14076" max="14078" width="11.44140625" style="1" hidden="1"/>
-    <col min="14079" max="14079" width="16" style="1" hidden="1"/>
-    <col min="14080" max="14080" width="20.44140625" style="1" hidden="1"/>
-    <col min="14081" max="14327" width="11.44140625" style="1" hidden="1"/>
-    <col min="14328" max="14328" width="15.44140625" style="1" hidden="1"/>
-    <col min="14329" max="14329" width="11.44140625" style="1" hidden="1"/>
-    <col min="14330" max="14330" width="15.6640625" style="1" hidden="1"/>
-    <col min="14331" max="14331" width="21.6640625" style="1" hidden="1"/>
-    <col min="14332" max="14334" width="11.44140625" style="1" hidden="1"/>
-    <col min="14335" max="14335" width="16" style="1" hidden="1"/>
-    <col min="14336" max="14336" width="20.44140625" style="1" hidden="1"/>
-    <col min="14337" max="14583" width="11.44140625" style="1" hidden="1"/>
-    <col min="14584" max="14584" width="15.44140625" style="1" hidden="1"/>
-    <col min="14585" max="14585" width="11.44140625" style="1" hidden="1"/>
-    <col min="14586" max="14586" width="15.6640625" style="1" hidden="1"/>
-    <col min="14587" max="14587" width="21.6640625" style="1" hidden="1"/>
-    <col min="14588" max="14590" width="11.44140625" style="1" hidden="1"/>
-    <col min="14591" max="14591" width="16" style="1" hidden="1"/>
-    <col min="14592" max="14592" width="20.44140625" style="1" hidden="1"/>
-    <col min="14593" max="14839" width="11.44140625" style="1" hidden="1"/>
-    <col min="14840" max="14840" width="15.44140625" style="1" hidden="1"/>
-    <col min="14841" max="14841" width="11.44140625" style="1" hidden="1"/>
-    <col min="14842" max="14842" width="15.6640625" style="1" hidden="1"/>
-    <col min="14843" max="14843" width="21.6640625" style="1" hidden="1"/>
-    <col min="14844" max="14846" width="11.44140625" style="1" hidden="1"/>
-    <col min="14847" max="14847" width="16" style="1" hidden="1"/>
-    <col min="14848" max="14848" width="20.44140625" style="1" hidden="1"/>
-    <col min="14849" max="15095" width="11.44140625" style="1" hidden="1"/>
-    <col min="15096" max="15096" width="15.44140625" style="1" hidden="1"/>
-    <col min="15097" max="15097" width="11.44140625" style="1" hidden="1"/>
-    <col min="15098" max="15098" width="15.6640625" style="1" hidden="1"/>
-    <col min="15099" max="15099" width="21.6640625" style="1" hidden="1"/>
-    <col min="15100" max="15102" width="11.44140625" style="1" hidden="1"/>
-    <col min="15103" max="15103" width="16" style="1" hidden="1"/>
-    <col min="15104" max="15104" width="20.44140625" style="1" hidden="1"/>
-    <col min="15105" max="15351" width="11.44140625" style="1" hidden="1"/>
-    <col min="15352" max="15352" width="15.44140625" style="1" hidden="1"/>
-    <col min="15353" max="15353" width="11.44140625" style="1" hidden="1"/>
-    <col min="15354" max="15354" width="15.6640625" style="1" hidden="1"/>
-    <col min="15355" max="15355" width="21.6640625" style="1" hidden="1"/>
-    <col min="15356" max="15358" width="11.44140625" style="1" hidden="1"/>
-    <col min="15359" max="15359" width="16" style="1" hidden="1"/>
-    <col min="15360" max="15360" width="20.44140625" style="1" hidden="1"/>
-    <col min="15361" max="15607" width="11.44140625" style="1" hidden="1"/>
-    <col min="15608" max="15608" width="15.44140625" style="1" hidden="1"/>
-    <col min="15609" max="15609" width="11.44140625" style="1" hidden="1"/>
-    <col min="15610" max="15610" width="15.6640625" style="1" hidden="1"/>
-    <col min="15611" max="15611" width="21.6640625" style="1" hidden="1"/>
-    <col min="15612" max="15614" width="11.44140625" style="1" hidden="1"/>
-    <col min="15615" max="15615" width="16" style="1" hidden="1"/>
-    <col min="15616" max="15616" width="20.44140625" style="1" hidden="1"/>
-    <col min="15617" max="15863" width="11.44140625" style="1" hidden="1"/>
-    <col min="15864" max="15864" width="15.44140625" style="1" hidden="1"/>
-    <col min="15865" max="15865" width="11.44140625" style="1" hidden="1"/>
-    <col min="15866" max="15866" width="15.6640625" style="1" hidden="1"/>
-    <col min="15867" max="15867" width="21.6640625" style="1" hidden="1"/>
-    <col min="15868" max="15870" width="11.44140625" style="1" hidden="1"/>
-    <col min="15871" max="15871" width="16" style="1" hidden="1"/>
-    <col min="15872" max="15872" width="20.44140625" style="1" hidden="1"/>
-    <col min="15873" max="16119" width="11.44140625" style="1" hidden="1"/>
-    <col min="16120" max="16120" width="15.44140625" style="1" hidden="1"/>
-    <col min="16121" max="16121" width="11.44140625" style="1" hidden="1"/>
-    <col min="16122" max="16122" width="15.6640625" style="1" hidden="1"/>
-    <col min="16123" max="16123" width="21.6640625" style="1" hidden="1"/>
-    <col min="16124" max="16126" width="11.44140625" style="1" hidden="1"/>
-    <col min="16127" max="16127" width="16" style="1" hidden="1"/>
-    <col min="16128" max="16128" width="20.44140625" style="1" hidden="1"/>
-    <col min="16129" max="16129" width="11.44140625" style="1" hidden="1"/>
-    <col min="16130" max="16130" width="16" style="1" hidden="1"/>
-    <col min="16131" max="16131" width="20.44140625" style="1" hidden="1"/>
+    <col min="14" max="15" width="2.7109375" style="1" customWidth="1"/>
+    <col min="16" max="16" width="5.7109375" style="2" customWidth="1"/>
+    <col min="17" max="17" width="5.7109375" style="1" customWidth="1"/>
+    <col min="18" max="18" width="5.7109375" style="2" customWidth="1"/>
+    <col min="19" max="19" width="5.7109375" style="1" customWidth="1"/>
+    <col min="20" max="20" width="2.7109375" style="1" customWidth="1"/>
+    <col min="21" max="21" width="17.7109375" style="1" hidden="1"/>
+    <col min="22" max="22" width="16" style="1" hidden="1"/>
+    <col min="23" max="23" width="17.7109375" style="1" hidden="1"/>
+    <col min="24" max="24" width="3" style="1" hidden="1"/>
+    <col min="25" max="249" width="11.42578125" style="1" hidden="1"/>
+    <col min="250" max="250" width="15.42578125" style="1" hidden="1"/>
+    <col min="251" max="251" width="11.42578125" style="1" hidden="1"/>
+    <col min="252" max="252" width="15.7109375" style="1" hidden="1"/>
+    <col min="253" max="253" width="21.7109375" style="1" hidden="1"/>
+    <col min="254" max="256" width="11.42578125" style="1" hidden="1"/>
+    <col min="257" max="257" width="16" style="1" hidden="1"/>
+    <col min="258" max="258" width="20.42578125" style="1" hidden="1"/>
+    <col min="259" max="505" width="11.42578125" style="1" hidden="1"/>
+    <col min="506" max="506" width="15.42578125" style="1" hidden="1"/>
+    <col min="507" max="507" width="11.42578125" style="1" hidden="1"/>
+    <col min="508" max="508" width="15.7109375" style="1" hidden="1"/>
+    <col min="509" max="509" width="21.7109375" style="1" hidden="1"/>
+    <col min="510" max="512" width="11.42578125" style="1" hidden="1"/>
+    <col min="513" max="513" width="16" style="1" hidden="1"/>
+    <col min="514" max="514" width="20.42578125" style="1" hidden="1"/>
+    <col min="515" max="761" width="11.42578125" style="1" hidden="1"/>
+    <col min="762" max="762" width="15.42578125" style="1" hidden="1"/>
+    <col min="763" max="763" width="11.42578125" style="1" hidden="1"/>
+    <col min="764" max="764" width="15.7109375" style="1" hidden="1"/>
+    <col min="765" max="765" width="21.7109375" style="1" hidden="1"/>
+    <col min="766" max="768" width="11.42578125" style="1" hidden="1"/>
+    <col min="769" max="769" width="16" style="1" hidden="1"/>
+    <col min="770" max="770" width="20.42578125" style="1" hidden="1"/>
+    <col min="771" max="1017" width="11.42578125" style="1" hidden="1"/>
+    <col min="1018" max="1018" width="15.42578125" style="1" hidden="1"/>
+    <col min="1019" max="1019" width="11.42578125" style="1" hidden="1"/>
+    <col min="1020" max="1020" width="15.7109375" style="1" hidden="1"/>
+    <col min="1021" max="1021" width="21.7109375" style="1" hidden="1"/>
+    <col min="1022" max="1024" width="11.42578125" style="1" hidden="1"/>
+    <col min="1025" max="1025" width="16" style="1" hidden="1"/>
+    <col min="1026" max="1026" width="20.42578125" style="1" hidden="1"/>
+    <col min="1027" max="1273" width="11.42578125" style="1" hidden="1"/>
+    <col min="1274" max="1274" width="15.42578125" style="1" hidden="1"/>
+    <col min="1275" max="1275" width="11.42578125" style="1" hidden="1"/>
+    <col min="1276" max="1276" width="15.7109375" style="1" hidden="1"/>
+    <col min="1277" max="1277" width="21.7109375" style="1" hidden="1"/>
+    <col min="1278" max="1280" width="11.42578125" style="1" hidden="1"/>
+    <col min="1281" max="1281" width="16" style="1" hidden="1"/>
+    <col min="1282" max="1282" width="20.42578125" style="1" hidden="1"/>
+    <col min="1283" max="1529" width="11.42578125" style="1" hidden="1"/>
+    <col min="1530" max="1530" width="15.42578125" style="1" hidden="1"/>
+    <col min="1531" max="1531" width="11.42578125" style="1" hidden="1"/>
+    <col min="1532" max="1532" width="15.7109375" style="1" hidden="1"/>
+    <col min="1533" max="1533" width="21.7109375" style="1" hidden="1"/>
+    <col min="1534" max="1536" width="11.42578125" style="1" hidden="1"/>
+    <col min="1537" max="1537" width="16" style="1" hidden="1"/>
+    <col min="1538" max="1538" width="20.42578125" style="1" hidden="1"/>
+    <col min="1539" max="1785" width="11.42578125" style="1" hidden="1"/>
+    <col min="1786" max="1786" width="15.42578125" style="1" hidden="1"/>
+    <col min="1787" max="1787" width="11.42578125" style="1" hidden="1"/>
+    <col min="1788" max="1788" width="15.7109375" style="1" hidden="1"/>
+    <col min="1789" max="1789" width="21.7109375" style="1" hidden="1"/>
+    <col min="1790" max="1792" width="11.42578125" style="1" hidden="1"/>
+    <col min="1793" max="1793" width="16" style="1" hidden="1"/>
+    <col min="1794" max="1794" width="20.42578125" style="1" hidden="1"/>
+    <col min="1795" max="2041" width="11.42578125" style="1" hidden="1"/>
+    <col min="2042" max="2042" width="15.42578125" style="1" hidden="1"/>
+    <col min="2043" max="2043" width="11.42578125" style="1" hidden="1"/>
+    <col min="2044" max="2044" width="15.7109375" style="1" hidden="1"/>
+    <col min="2045" max="2045" width="21.7109375" style="1" hidden="1"/>
+    <col min="2046" max="2048" width="11.42578125" style="1" hidden="1"/>
+    <col min="2049" max="2049" width="16" style="1" hidden="1"/>
+    <col min="2050" max="2050" width="20.42578125" style="1" hidden="1"/>
+    <col min="2051" max="2297" width="11.42578125" style="1" hidden="1"/>
+    <col min="2298" max="2298" width="15.42578125" style="1" hidden="1"/>
+    <col min="2299" max="2299" width="11.42578125" style="1" hidden="1"/>
+    <col min="2300" max="2300" width="15.7109375" style="1" hidden="1"/>
+    <col min="2301" max="2301" width="21.7109375" style="1" hidden="1"/>
+    <col min="2302" max="2304" width="11.42578125" style="1" hidden="1"/>
+    <col min="2305" max="2305" width="16" style="1" hidden="1"/>
+    <col min="2306" max="2306" width="20.42578125" style="1" hidden="1"/>
+    <col min="2307" max="2553" width="11.42578125" style="1" hidden="1"/>
+    <col min="2554" max="2554" width="15.42578125" style="1" hidden="1"/>
+    <col min="2555" max="2555" width="11.42578125" style="1" hidden="1"/>
+    <col min="2556" max="2556" width="15.7109375" style="1" hidden="1"/>
+    <col min="2557" max="2557" width="21.7109375" style="1" hidden="1"/>
+    <col min="2558" max="2560" width="11.42578125" style="1" hidden="1"/>
+    <col min="2561" max="2561" width="16" style="1" hidden="1"/>
+    <col min="2562" max="2562" width="20.42578125" style="1" hidden="1"/>
+    <col min="2563" max="2809" width="11.42578125" style="1" hidden="1"/>
+    <col min="2810" max="2810" width="15.42578125" style="1" hidden="1"/>
+    <col min="2811" max="2811" width="11.42578125" style="1" hidden="1"/>
+    <col min="2812" max="2812" width="15.7109375" style="1" hidden="1"/>
+    <col min="2813" max="2813" width="21.7109375" style="1" hidden="1"/>
+    <col min="2814" max="2816" width="11.42578125" style="1" hidden="1"/>
+    <col min="2817" max="2817" width="16" style="1" hidden="1"/>
+    <col min="2818" max="2818" width="20.42578125" style="1" hidden="1"/>
+    <col min="2819" max="3065" width="11.42578125" style="1" hidden="1"/>
+    <col min="3066" max="3066" width="15.42578125" style="1" hidden="1"/>
+    <col min="3067" max="3067" width="11.42578125" style="1" hidden="1"/>
+    <col min="3068" max="3068" width="15.7109375" style="1" hidden="1"/>
+    <col min="3069" max="3069" width="21.7109375" style="1" hidden="1"/>
+    <col min="3070" max="3072" width="11.42578125" style="1" hidden="1"/>
+    <col min="3073" max="3073" width="16" style="1" hidden="1"/>
+    <col min="3074" max="3074" width="20.42578125" style="1" hidden="1"/>
+    <col min="3075" max="3321" width="11.42578125" style="1" hidden="1"/>
+    <col min="3322" max="3322" width="15.42578125" style="1" hidden="1"/>
+    <col min="3323" max="3323" width="11.42578125" style="1" hidden="1"/>
+    <col min="3324" max="3324" width="15.7109375" style="1" hidden="1"/>
+    <col min="3325" max="3325" width="21.7109375" style="1" hidden="1"/>
+    <col min="3326" max="3328" width="11.42578125" style="1" hidden="1"/>
+    <col min="3329" max="3329" width="16" style="1" hidden="1"/>
+    <col min="3330" max="3330" width="20.42578125" style="1" hidden="1"/>
+    <col min="3331" max="3577" width="11.42578125" style="1" hidden="1"/>
+    <col min="3578" max="3578" width="15.42578125" style="1" hidden="1"/>
+    <col min="3579" max="3579" width="11.42578125" style="1" hidden="1"/>
+    <col min="3580" max="3580" width="15.7109375" style="1" hidden="1"/>
+    <col min="3581" max="3581" width="21.7109375" style="1" hidden="1"/>
+    <col min="3582" max="3584" width="11.42578125" style="1" hidden="1"/>
+    <col min="3585" max="3585" width="16" style="1" hidden="1"/>
+    <col min="3586" max="3586" width="20.42578125" style="1" hidden="1"/>
+    <col min="3587" max="3833" width="11.42578125" style="1" hidden="1"/>
+    <col min="3834" max="3834" width="15.42578125" style="1" hidden="1"/>
+    <col min="3835" max="3835" width="11.42578125" style="1" hidden="1"/>
+    <col min="3836" max="3836" width="15.7109375" style="1" hidden="1"/>
+    <col min="3837" max="3837" width="21.7109375" style="1" hidden="1"/>
+    <col min="3838" max="3840" width="11.42578125" style="1" hidden="1"/>
+    <col min="3841" max="3841" width="16" style="1" hidden="1"/>
+    <col min="3842" max="3842" width="20.42578125" style="1" hidden="1"/>
+    <col min="3843" max="4089" width="11.42578125" style="1" hidden="1"/>
+    <col min="4090" max="4090" width="15.42578125" style="1" hidden="1"/>
+    <col min="4091" max="4091" width="11.42578125" style="1" hidden="1"/>
+    <col min="4092" max="4092" width="15.7109375" style="1" hidden="1"/>
+    <col min="4093" max="4093" width="21.7109375" style="1" hidden="1"/>
+    <col min="4094" max="4096" width="11.42578125" style="1" hidden="1"/>
+    <col min="4097" max="4097" width="16" style="1" hidden="1"/>
+    <col min="4098" max="4098" width="20.42578125" style="1" hidden="1"/>
+    <col min="4099" max="4345" width="11.42578125" style="1" hidden="1"/>
+    <col min="4346" max="4346" width="15.42578125" style="1" hidden="1"/>
+    <col min="4347" max="4347" width="11.42578125" style="1" hidden="1"/>
+    <col min="4348" max="4348" width="15.7109375" style="1" hidden="1"/>
+    <col min="4349" max="4349" width="21.7109375" style="1" hidden="1"/>
+    <col min="4350" max="4352" width="11.42578125" style="1" hidden="1"/>
+    <col min="4353" max="4353" width="16" style="1" hidden="1"/>
+    <col min="4354" max="4354" width="20.42578125" style="1" hidden="1"/>
+    <col min="4355" max="4601" width="11.42578125" style="1" hidden="1"/>
+    <col min="4602" max="4602" width="15.42578125" style="1" hidden="1"/>
+    <col min="4603" max="4603" width="11.42578125" style="1" hidden="1"/>
+    <col min="4604" max="4604" width="15.7109375" style="1" hidden="1"/>
+    <col min="4605" max="4605" width="21.7109375" style="1" hidden="1"/>
+    <col min="4606" max="4608" width="11.42578125" style="1" hidden="1"/>
+    <col min="4609" max="4609" width="16" style="1" hidden="1"/>
+    <col min="4610" max="4610" width="20.42578125" style="1" hidden="1"/>
+    <col min="4611" max="4857" width="11.42578125" style="1" hidden="1"/>
+    <col min="4858" max="4858" width="15.42578125" style="1" hidden="1"/>
+    <col min="4859" max="4859" width="11.42578125" style="1" hidden="1"/>
+    <col min="4860" max="4860" width="15.7109375" style="1" hidden="1"/>
+    <col min="4861" max="4861" width="21.7109375" style="1" hidden="1"/>
+    <col min="4862" max="4864" width="11.42578125" style="1" hidden="1"/>
+    <col min="4865" max="4865" width="16" style="1" hidden="1"/>
+    <col min="4866" max="4866" width="20.42578125" style="1" hidden="1"/>
+    <col min="4867" max="5113" width="11.42578125" style="1" hidden="1"/>
+    <col min="5114" max="5114" width="15.42578125" style="1" hidden="1"/>
+    <col min="5115" max="5115" width="11.42578125" style="1" hidden="1"/>
+    <col min="5116" max="5116" width="15.7109375" style="1" hidden="1"/>
+    <col min="5117" max="5117" width="21.7109375" style="1" hidden="1"/>
+    <col min="5118" max="5120" width="11.42578125" style="1" hidden="1"/>
+    <col min="5121" max="5121" width="16" style="1" hidden="1"/>
+    <col min="5122" max="5122" width="20.42578125" style="1" hidden="1"/>
+    <col min="5123" max="5369" width="11.42578125" style="1" hidden="1"/>
+    <col min="5370" max="5370" width="15.42578125" style="1" hidden="1"/>
+    <col min="5371" max="5371" width="11.42578125" style="1" hidden="1"/>
+    <col min="5372" max="5372" width="15.7109375" style="1" hidden="1"/>
+    <col min="5373" max="5373" width="21.7109375" style="1" hidden="1"/>
+    <col min="5374" max="5376" width="11.42578125" style="1" hidden="1"/>
+    <col min="5377" max="5377" width="16" style="1" hidden="1"/>
+    <col min="5378" max="5378" width="20.42578125" style="1" hidden="1"/>
+    <col min="5379" max="5625" width="11.42578125" style="1" hidden="1"/>
+    <col min="5626" max="5626" width="15.42578125" style="1" hidden="1"/>
+    <col min="5627" max="5627" width="11.42578125" style="1" hidden="1"/>
+    <col min="5628" max="5628" width="15.7109375" style="1" hidden="1"/>
+    <col min="5629" max="5629" width="21.7109375" style="1" hidden="1"/>
+    <col min="5630" max="5632" width="11.42578125" style="1" hidden="1"/>
+    <col min="5633" max="5633" width="16" style="1" hidden="1"/>
+    <col min="5634" max="5634" width="20.42578125" style="1" hidden="1"/>
+    <col min="5635" max="5881" width="11.42578125" style="1" hidden="1"/>
+    <col min="5882" max="5882" width="15.42578125" style="1" hidden="1"/>
+    <col min="5883" max="5883" width="11.42578125" style="1" hidden="1"/>
+    <col min="5884" max="5884" width="15.7109375" style="1" hidden="1"/>
+    <col min="5885" max="5885" width="21.7109375" style="1" hidden="1"/>
+    <col min="5886" max="5888" width="11.42578125" style="1" hidden="1"/>
+    <col min="5889" max="5889" width="16" style="1" hidden="1"/>
+    <col min="5890" max="5890" width="20.42578125" style="1" hidden="1"/>
+    <col min="5891" max="6137" width="11.42578125" style="1" hidden="1"/>
+    <col min="6138" max="6138" width="15.42578125" style="1" hidden="1"/>
+    <col min="6139" max="6139" width="11.42578125" style="1" hidden="1"/>
+    <col min="6140" max="6140" width="15.7109375" style="1" hidden="1"/>
+    <col min="6141" max="6141" width="21.7109375" style="1" hidden="1"/>
+    <col min="6142" max="6144" width="11.42578125" style="1" hidden="1"/>
+    <col min="6145" max="6145" width="16" style="1" hidden="1"/>
+    <col min="6146" max="6146" width="20.42578125" style="1" hidden="1"/>
+    <col min="6147" max="6393" width="11.42578125" style="1" hidden="1"/>
+    <col min="6394" max="6394" width="15.42578125" style="1" hidden="1"/>
+    <col min="6395" max="6395" width="11.42578125" style="1" hidden="1"/>
+    <col min="6396" max="6396" width="15.7109375" style="1" hidden="1"/>
+    <col min="6397" max="6397" width="21.7109375" style="1" hidden="1"/>
+    <col min="6398" max="6400" width="11.42578125" style="1" hidden="1"/>
+    <col min="6401" max="6401" width="16" style="1" hidden="1"/>
+    <col min="6402" max="6402" width="20.42578125" style="1" hidden="1"/>
+    <col min="6403" max="6649" width="11.42578125" style="1" hidden="1"/>
+    <col min="6650" max="6650" width="15.42578125" style="1" hidden="1"/>
+    <col min="6651" max="6651" width="11.42578125" style="1" hidden="1"/>
+    <col min="6652" max="6652" width="15.7109375" style="1" hidden="1"/>
+    <col min="6653" max="6653" width="21.7109375" style="1" hidden="1"/>
+    <col min="6654" max="6656" width="11.42578125" style="1" hidden="1"/>
+    <col min="6657" max="6657" width="16" style="1" hidden="1"/>
+    <col min="6658" max="6658" width="20.42578125" style="1" hidden="1"/>
+    <col min="6659" max="6905" width="11.42578125" style="1" hidden="1"/>
+    <col min="6906" max="6906" width="15.42578125" style="1" hidden="1"/>
+    <col min="6907" max="6907" width="11.42578125" style="1" hidden="1"/>
+    <col min="6908" max="6908" width="15.7109375" style="1" hidden="1"/>
+    <col min="6909" max="6909" width="21.7109375" style="1" hidden="1"/>
+    <col min="6910" max="6912" width="11.42578125" style="1" hidden="1"/>
+    <col min="6913" max="6913" width="16" style="1" hidden="1"/>
+    <col min="6914" max="6914" width="20.42578125" style="1" hidden="1"/>
+    <col min="6915" max="7161" width="11.42578125" style="1" hidden="1"/>
+    <col min="7162" max="7162" width="15.42578125" style="1" hidden="1"/>
+    <col min="7163" max="7163" width="11.42578125" style="1" hidden="1"/>
+    <col min="7164" max="7164" width="15.7109375" style="1" hidden="1"/>
+    <col min="7165" max="7165" width="21.7109375" style="1" hidden="1"/>
+    <col min="7166" max="7168" width="11.42578125" style="1" hidden="1"/>
+    <col min="7169" max="7169" width="16" style="1" hidden="1"/>
+    <col min="7170" max="7170" width="20.42578125" style="1" hidden="1"/>
+    <col min="7171" max="7417" width="11.42578125" style="1" hidden="1"/>
+    <col min="7418" max="7418" width="15.42578125" style="1" hidden="1"/>
+    <col min="7419" max="7419" width="11.42578125" style="1" hidden="1"/>
+    <col min="7420" max="7420" width="15.7109375" style="1" hidden="1"/>
+    <col min="7421" max="7421" width="21.7109375" style="1" hidden="1"/>
+    <col min="7422" max="7424" width="11.42578125" style="1" hidden="1"/>
+    <col min="7425" max="7425" width="16" style="1" hidden="1"/>
+    <col min="7426" max="7426" width="20.42578125" style="1" hidden="1"/>
+    <col min="7427" max="7673" width="11.42578125" style="1" hidden="1"/>
+    <col min="7674" max="7674" width="15.42578125" style="1" hidden="1"/>
+    <col min="7675" max="7675" width="11.42578125" style="1" hidden="1"/>
+    <col min="7676" max="7676" width="15.7109375" style="1" hidden="1"/>
+    <col min="7677" max="7677" width="21.7109375" style="1" hidden="1"/>
+    <col min="7678" max="7680" width="11.42578125" style="1" hidden="1"/>
+    <col min="7681" max="7681" width="16" style="1" hidden="1"/>
+    <col min="7682" max="7682" width="20.42578125" style="1" hidden="1"/>
+    <col min="7683" max="7929" width="11.42578125" style="1" hidden="1"/>
+    <col min="7930" max="7930" width="15.42578125" style="1" hidden="1"/>
+    <col min="7931" max="7931" width="11.42578125" style="1" hidden="1"/>
+    <col min="7932" max="7932" width="15.7109375" style="1" hidden="1"/>
+    <col min="7933" max="7933" width="21.7109375" style="1" hidden="1"/>
+    <col min="7934" max="7936" width="11.42578125" style="1" hidden="1"/>
+    <col min="7937" max="7937" width="16" style="1" hidden="1"/>
+    <col min="7938" max="7938" width="20.42578125" style="1" hidden="1"/>
+    <col min="7939" max="8185" width="11.42578125" style="1" hidden="1"/>
+    <col min="8186" max="8186" width="15.42578125" style="1" hidden="1"/>
+    <col min="8187" max="8187" width="11.42578125" style="1" hidden="1"/>
+    <col min="8188" max="8188" width="15.7109375" style="1" hidden="1"/>
+    <col min="8189" max="8189" width="21.7109375" style="1" hidden="1"/>
+    <col min="8190" max="8192" width="11.42578125" style="1" hidden="1"/>
+    <col min="8193" max="8193" width="16" style="1" hidden="1"/>
+    <col min="8194" max="8194" width="20.42578125" style="1" hidden="1"/>
+    <col min="8195" max="8441" width="11.42578125" style="1" hidden="1"/>
+    <col min="8442" max="8442" width="15.42578125" style="1" hidden="1"/>
+    <col min="8443" max="8443" width="11.42578125" style="1" hidden="1"/>
+    <col min="8444" max="8444" width="15.7109375" style="1" hidden="1"/>
+    <col min="8445" max="8445" width="21.7109375" style="1" hidden="1"/>
+    <col min="8446" max="8448" width="11.42578125" style="1" hidden="1"/>
+    <col min="8449" max="8449" width="16" style="1" hidden="1"/>
+    <col min="8450" max="8450" width="20.42578125" style="1" hidden="1"/>
+    <col min="8451" max="8697" width="11.42578125" style="1" hidden="1"/>
+    <col min="8698" max="8698" width="15.42578125" style="1" hidden="1"/>
+    <col min="8699" max="8699" width="11.42578125" style="1" hidden="1"/>
+    <col min="8700" max="8700" width="15.7109375" style="1" hidden="1"/>
+    <col min="8701" max="8701" width="21.7109375" style="1" hidden="1"/>
+    <col min="8702" max="8704" width="11.42578125" style="1" hidden="1"/>
+    <col min="8705" max="8705" width="16" style="1" hidden="1"/>
+    <col min="8706" max="8706" width="20.42578125" style="1" hidden="1"/>
+    <col min="8707" max="8953" width="11.42578125" style="1" hidden="1"/>
+    <col min="8954" max="8954" width="15.42578125" style="1" hidden="1"/>
+    <col min="8955" max="8955" width="11.42578125" style="1" hidden="1"/>
+    <col min="8956" max="8956" width="15.7109375" style="1" hidden="1"/>
+    <col min="8957" max="8957" width="21.7109375" style="1" hidden="1"/>
+    <col min="8958" max="8960" width="11.42578125" style="1" hidden="1"/>
+    <col min="8961" max="8961" width="16" style="1" hidden="1"/>
+    <col min="8962" max="8962" width="20.42578125" style="1" hidden="1"/>
+    <col min="8963" max="9209" width="11.42578125" style="1" hidden="1"/>
+    <col min="9210" max="9210" width="15.42578125" style="1" hidden="1"/>
+    <col min="9211" max="9211" width="11.42578125" style="1" hidden="1"/>
+    <col min="9212" max="9212" width="15.7109375" style="1" hidden="1"/>
+    <col min="9213" max="9213" width="21.7109375" style="1" hidden="1"/>
+    <col min="9214" max="9216" width="11.42578125" style="1" hidden="1"/>
+    <col min="9217" max="9217" width="16" style="1" hidden="1"/>
+    <col min="9218" max="9218" width="20.42578125" style="1" hidden="1"/>
+    <col min="9219" max="9465" width="11.42578125" style="1" hidden="1"/>
+    <col min="9466" max="9466" width="15.42578125" style="1" hidden="1"/>
+    <col min="9467" max="9467" width="11.42578125" style="1" hidden="1"/>
+    <col min="9468" max="9468" width="15.7109375" style="1" hidden="1"/>
+    <col min="9469" max="9469" width="21.7109375" style="1" hidden="1"/>
+    <col min="9470" max="9472" width="11.42578125" style="1" hidden="1"/>
+    <col min="9473" max="9473" width="16" style="1" hidden="1"/>
+    <col min="9474" max="9474" width="20.42578125" style="1" hidden="1"/>
+    <col min="9475" max="9721" width="11.42578125" style="1" hidden="1"/>
+    <col min="9722" max="9722" width="15.42578125" style="1" hidden="1"/>
+    <col min="9723" max="9723" width="11.42578125" style="1" hidden="1"/>
+    <col min="9724" max="9724" width="15.7109375" style="1" hidden="1"/>
+    <col min="9725" max="9725" width="21.7109375" style="1" hidden="1"/>
+    <col min="9726" max="9728" width="11.42578125" style="1" hidden="1"/>
+    <col min="9729" max="9729" width="16" style="1" hidden="1"/>
+    <col min="9730" max="9730" width="20.42578125" style="1" hidden="1"/>
+    <col min="9731" max="9977" width="11.42578125" style="1" hidden="1"/>
+    <col min="9978" max="9978" width="15.42578125" style="1" hidden="1"/>
+    <col min="9979" max="9979" width="11.42578125" style="1" hidden="1"/>
+    <col min="9980" max="9980" width="15.7109375" style="1" hidden="1"/>
+    <col min="9981" max="9981" width="21.7109375" style="1" hidden="1"/>
+    <col min="9982" max="9984" width="11.42578125" style="1" hidden="1"/>
+    <col min="9985" max="9985" width="16" style="1" hidden="1"/>
+    <col min="9986" max="9986" width="20.42578125" style="1" hidden="1"/>
+    <col min="9987" max="10233" width="11.42578125" style="1" hidden="1"/>
+    <col min="10234" max="10234" width="15.42578125" style="1" hidden="1"/>
+    <col min="10235" max="10235" width="11.42578125" style="1" hidden="1"/>
+    <col min="10236" max="10236" width="15.7109375" style="1" hidden="1"/>
+    <col min="10237" max="10237" width="21.7109375" style="1" hidden="1"/>
+    <col min="10238" max="10240" width="11.42578125" style="1" hidden="1"/>
+    <col min="10241" max="10241" width="16" style="1" hidden="1"/>
+    <col min="10242" max="10242" width="20.42578125" style="1" hidden="1"/>
+    <col min="10243" max="10489" width="11.42578125" style="1" hidden="1"/>
+    <col min="10490" max="10490" width="15.42578125" style="1" hidden="1"/>
+    <col min="10491" max="10491" width="11.42578125" style="1" hidden="1"/>
+    <col min="10492" max="10492" width="15.7109375" style="1" hidden="1"/>
+    <col min="10493" max="10493" width="21.7109375" style="1" hidden="1"/>
+    <col min="10494" max="10496" width="11.42578125" style="1" hidden="1"/>
+    <col min="10497" max="10497" width="16" style="1" hidden="1"/>
+    <col min="10498" max="10498" width="20.42578125" style="1" hidden="1"/>
+    <col min="10499" max="10745" width="11.42578125" style="1" hidden="1"/>
+    <col min="10746" max="10746" width="15.42578125" style="1" hidden="1"/>
+    <col min="10747" max="10747" width="11.42578125" style="1" hidden="1"/>
+    <col min="10748" max="10748" width="15.7109375" style="1" hidden="1"/>
+    <col min="10749" max="10749" width="21.7109375" style="1" hidden="1"/>
+    <col min="10750" max="10752" width="11.42578125" style="1" hidden="1"/>
+    <col min="10753" max="10753" width="16" style="1" hidden="1"/>
+    <col min="10754" max="10754" width="20.42578125" style="1" hidden="1"/>
+    <col min="10755" max="11001" width="11.42578125" style="1" hidden="1"/>
+    <col min="11002" max="11002" width="15.42578125" style="1" hidden="1"/>
+    <col min="11003" max="11003" width="11.42578125" style="1" hidden="1"/>
+    <col min="11004" max="11004" width="15.7109375" style="1" hidden="1"/>
+    <col min="11005" max="11005" width="21.7109375" style="1" hidden="1"/>
+    <col min="11006" max="11008" width="11.42578125" style="1" hidden="1"/>
+    <col min="11009" max="11009" width="16" style="1" hidden="1"/>
+    <col min="11010" max="11010" width="20.42578125" style="1" hidden="1"/>
+    <col min="11011" max="11257" width="11.42578125" style="1" hidden="1"/>
+    <col min="11258" max="11258" width="15.42578125" style="1" hidden="1"/>
+    <col min="11259" max="11259" width="11.42578125" style="1" hidden="1"/>
+    <col min="11260" max="11260" width="15.7109375" style="1" hidden="1"/>
+    <col min="11261" max="11261" width="21.7109375" style="1" hidden="1"/>
+    <col min="11262" max="11264" width="11.42578125" style="1" hidden="1"/>
+    <col min="11265" max="11265" width="16" style="1" hidden="1"/>
+    <col min="11266" max="11266" width="20.42578125" style="1" hidden="1"/>
+    <col min="11267" max="11513" width="11.42578125" style="1" hidden="1"/>
+    <col min="11514" max="11514" width="15.42578125" style="1" hidden="1"/>
+    <col min="11515" max="11515" width="11.42578125" style="1" hidden="1"/>
+    <col min="11516" max="11516" width="15.7109375" style="1" hidden="1"/>
+    <col min="11517" max="11517" width="21.7109375" style="1" hidden="1"/>
+    <col min="11518" max="11520" width="11.42578125" style="1" hidden="1"/>
+    <col min="11521" max="11521" width="16" style="1" hidden="1"/>
+    <col min="11522" max="11522" width="20.42578125" style="1" hidden="1"/>
+    <col min="11523" max="11769" width="11.42578125" style="1" hidden="1"/>
+    <col min="11770" max="11770" width="15.42578125" style="1" hidden="1"/>
+    <col min="11771" max="11771" width="11.42578125" style="1" hidden="1"/>
+    <col min="11772" max="11772" width="15.7109375" style="1" hidden="1"/>
+    <col min="11773" max="11773" width="21.7109375" style="1" hidden="1"/>
+    <col min="11774" max="11776" width="11.42578125" style="1" hidden="1"/>
+    <col min="11777" max="11777" width="16" style="1" hidden="1"/>
+    <col min="11778" max="11778" width="20.42578125" style="1" hidden="1"/>
+    <col min="11779" max="12025" width="11.42578125" style="1" hidden="1"/>
+    <col min="12026" max="12026" width="15.42578125" style="1" hidden="1"/>
+    <col min="12027" max="12027" width="11.42578125" style="1" hidden="1"/>
+    <col min="12028" max="12028" width="15.7109375" style="1" hidden="1"/>
+    <col min="12029" max="12029" width="21.7109375" style="1" hidden="1"/>
+    <col min="12030" max="12032" width="11.42578125" style="1" hidden="1"/>
+    <col min="12033" max="12033" width="16" style="1" hidden="1"/>
+    <col min="12034" max="12034" width="20.42578125" style="1" hidden="1"/>
+    <col min="12035" max="12281" width="11.42578125" style="1" hidden="1"/>
+    <col min="12282" max="12282" width="15.42578125" style="1" hidden="1"/>
+    <col min="12283" max="12283" width="11.42578125" style="1" hidden="1"/>
+    <col min="12284" max="12284" width="15.7109375" style="1" hidden="1"/>
+    <col min="12285" max="12285" width="21.7109375" style="1" hidden="1"/>
+    <col min="12286" max="12288" width="11.42578125" style="1" hidden="1"/>
+    <col min="12289" max="12289" width="16" style="1" hidden="1"/>
+    <col min="12290" max="12290" width="20.42578125" style="1" hidden="1"/>
+    <col min="12291" max="12537" width="11.42578125" style="1" hidden="1"/>
+    <col min="12538" max="12538" width="15.42578125" style="1" hidden="1"/>
+    <col min="12539" max="12539" width="11.42578125" style="1" hidden="1"/>
+    <col min="12540" max="12540" width="15.7109375" style="1" hidden="1"/>
+    <col min="12541" max="12541" width="21.7109375" style="1" hidden="1"/>
+    <col min="12542" max="12544" width="11.42578125" style="1" hidden="1"/>
+    <col min="12545" max="12545" width="16" style="1" hidden="1"/>
+    <col min="12546" max="12546" width="20.42578125" style="1" hidden="1"/>
+    <col min="12547" max="12793" width="11.42578125" style="1" hidden="1"/>
+    <col min="12794" max="12794" width="15.42578125" style="1" hidden="1"/>
+    <col min="12795" max="12795" width="11.42578125" style="1" hidden="1"/>
+    <col min="12796" max="12796" width="15.7109375" style="1" hidden="1"/>
+    <col min="12797" max="12797" width="21.7109375" style="1" hidden="1"/>
+    <col min="12798" max="12800" width="11.42578125" style="1" hidden="1"/>
+    <col min="12801" max="12801" width="16" style="1" hidden="1"/>
+    <col min="12802" max="12802" width="20.42578125" style="1" hidden="1"/>
+    <col min="12803" max="13049" width="11.42578125" style="1" hidden="1"/>
+    <col min="13050" max="13050" width="15.42578125" style="1" hidden="1"/>
+    <col min="13051" max="13051" width="11.42578125" style="1" hidden="1"/>
+    <col min="13052" max="13052" width="15.7109375" style="1" hidden="1"/>
+    <col min="13053" max="13053" width="21.7109375" style="1" hidden="1"/>
+    <col min="13054" max="13056" width="11.42578125" style="1" hidden="1"/>
+    <col min="13057" max="13057" width="16" style="1" hidden="1"/>
+    <col min="13058" max="13058" width="20.42578125" style="1" hidden="1"/>
+    <col min="13059" max="13305" width="11.42578125" style="1" hidden="1"/>
+    <col min="13306" max="13306" width="15.42578125" style="1" hidden="1"/>
+    <col min="13307" max="13307" width="11.42578125" style="1" hidden="1"/>
+    <col min="13308" max="13308" width="15.7109375" style="1" hidden="1"/>
+    <col min="13309" max="13309" width="21.7109375" style="1" hidden="1"/>
+    <col min="13310" max="13312" width="11.42578125" style="1" hidden="1"/>
+    <col min="13313" max="13313" width="16" style="1" hidden="1"/>
+    <col min="13314" max="13314" width="20.42578125" style="1" hidden="1"/>
+    <col min="13315" max="13561" width="11.42578125" style="1" hidden="1"/>
+    <col min="13562" max="13562" width="15.42578125" style="1" hidden="1"/>
+    <col min="13563" max="13563" width="11.42578125" style="1" hidden="1"/>
+    <col min="13564" max="13564" width="15.7109375" style="1" hidden="1"/>
+    <col min="13565" max="13565" width="21.7109375" style="1" hidden="1"/>
+    <col min="13566" max="13568" width="11.42578125" style="1" hidden="1"/>
+    <col min="13569" max="13569" width="16" style="1" hidden="1"/>
+    <col min="13570" max="13570" width="20.42578125" style="1" hidden="1"/>
+    <col min="13571" max="13817" width="11.42578125" style="1" hidden="1"/>
+    <col min="13818" max="13818" width="15.42578125" style="1" hidden="1"/>
+    <col min="13819" max="13819" width="11.42578125" style="1" hidden="1"/>
+    <col min="13820" max="13820" width="15.7109375" style="1" hidden="1"/>
+    <col min="13821" max="13821" width="21.7109375" style="1" hidden="1"/>
+    <col min="13822" max="13824" width="11.42578125" style="1" hidden="1"/>
+    <col min="13825" max="13825" width="16" style="1" hidden="1"/>
+    <col min="13826" max="13826" width="20.42578125" style="1" hidden="1"/>
+    <col min="13827" max="14073" width="11.42578125" style="1" hidden="1"/>
+    <col min="14074" max="14074" width="15.42578125" style="1" hidden="1"/>
+    <col min="14075" max="14075" width="11.42578125" style="1" hidden="1"/>
+    <col min="14076" max="14076" width="15.7109375" style="1" hidden="1"/>
+    <col min="14077" max="14077" width="21.7109375" style="1" hidden="1"/>
+    <col min="14078" max="14080" width="11.42578125" style="1" hidden="1"/>
+    <col min="14081" max="14081" width="16" style="1" hidden="1"/>
+    <col min="14082" max="14082" width="20.42578125" style="1" hidden="1"/>
+    <col min="14083" max="14329" width="11.42578125" style="1" hidden="1"/>
+    <col min="14330" max="14330" width="15.42578125" style="1" hidden="1"/>
+    <col min="14331" max="14331" width="11.42578125" style="1" hidden="1"/>
+    <col min="14332" max="14332" width="15.7109375" style="1" hidden="1"/>
+    <col min="14333" max="14333" width="21.7109375" style="1" hidden="1"/>
+    <col min="14334" max="14336" width="11.42578125" style="1" hidden="1"/>
+    <col min="14337" max="14337" width="16" style="1" hidden="1"/>
+    <col min="14338" max="14338" width="20.42578125" style="1" hidden="1"/>
+    <col min="14339" max="14585" width="11.42578125" style="1" hidden="1"/>
+    <col min="14586" max="14586" width="15.42578125" style="1" hidden="1"/>
+    <col min="14587" max="14587" width="11.42578125" style="1" hidden="1"/>
+    <col min="14588" max="14588" width="15.7109375" style="1" hidden="1"/>
+    <col min="14589" max="14589" width="21.7109375" style="1" hidden="1"/>
+    <col min="14590" max="14592" width="11.42578125" style="1" hidden="1"/>
+    <col min="14593" max="14593" width="16" style="1" hidden="1"/>
+    <col min="14594" max="14594" width="20.42578125" style="1" hidden="1"/>
+    <col min="14595" max="14841" width="11.42578125" style="1" hidden="1"/>
+    <col min="14842" max="14842" width="15.42578125" style="1" hidden="1"/>
+    <col min="14843" max="14843" width="11.42578125" style="1" hidden="1"/>
+    <col min="14844" max="14844" width="15.7109375" style="1" hidden="1"/>
+    <col min="14845" max="14845" width="21.7109375" style="1" hidden="1"/>
+    <col min="14846" max="14848" width="11.42578125" style="1" hidden="1"/>
+    <col min="14849" max="14849" width="16" style="1" hidden="1"/>
+    <col min="14850" max="14850" width="20.42578125" style="1" hidden="1"/>
+    <col min="14851" max="15097" width="11.42578125" style="1" hidden="1"/>
+    <col min="15098" max="15098" width="15.42578125" style="1" hidden="1"/>
+    <col min="15099" max="15099" width="11.42578125" style="1" hidden="1"/>
+    <col min="15100" max="15100" width="15.7109375" style="1" hidden="1"/>
+    <col min="15101" max="15101" width="21.7109375" style="1" hidden="1"/>
+    <col min="15102" max="15104" width="11.42578125" style="1" hidden="1"/>
+    <col min="15105" max="15105" width="16" style="1" hidden="1"/>
+    <col min="15106" max="15106" width="20.42578125" style="1" hidden="1"/>
+    <col min="15107" max="15353" width="11.42578125" style="1" hidden="1"/>
+    <col min="15354" max="15354" width="15.42578125" style="1" hidden="1"/>
+    <col min="15355" max="15355" width="11.42578125" style="1" hidden="1"/>
+    <col min="15356" max="15356" width="15.7109375" style="1" hidden="1"/>
+    <col min="15357" max="15357" width="21.7109375" style="1" hidden="1"/>
+    <col min="15358" max="15360" width="11.42578125" style="1" hidden="1"/>
+    <col min="15361" max="15361" width="16" style="1" hidden="1"/>
+    <col min="15362" max="15362" width="20.42578125" style="1" hidden="1"/>
+    <col min="15363" max="15609" width="11.42578125" style="1" hidden="1"/>
+    <col min="15610" max="15610" width="15.42578125" style="1" hidden="1"/>
+    <col min="15611" max="15611" width="11.42578125" style="1" hidden="1"/>
+    <col min="15612" max="15612" width="15.7109375" style="1" hidden="1"/>
+    <col min="15613" max="15613" width="21.7109375" style="1" hidden="1"/>
+    <col min="15614" max="15616" width="11.42578125" style="1" hidden="1"/>
+    <col min="15617" max="15617" width="16" style="1" hidden="1"/>
+    <col min="15618" max="15618" width="20.42578125" style="1" hidden="1"/>
+    <col min="15619" max="15865" width="11.42578125" style="1" hidden="1"/>
+    <col min="15866" max="15866" width="15.42578125" style="1" hidden="1"/>
+    <col min="15867" max="15867" width="11.42578125" style="1" hidden="1"/>
+    <col min="15868" max="15868" width="15.7109375" style="1" hidden="1"/>
+    <col min="15869" max="15869" width="21.7109375" style="1" hidden="1"/>
+    <col min="15870" max="15872" width="11.42578125" style="1" hidden="1"/>
+    <col min="15873" max="15873" width="16" style="1" hidden="1"/>
+    <col min="15874" max="15874" width="20.42578125" style="1" hidden="1"/>
+    <col min="15875" max="16121" width="11.42578125" style="1" hidden="1"/>
+    <col min="16122" max="16122" width="15.42578125" style="1" hidden="1"/>
+    <col min="16123" max="16123" width="11.42578125" style="1" hidden="1"/>
+    <col min="16124" max="16124" width="15.7109375" style="1" hidden="1"/>
+    <col min="16125" max="16125" width="21.7109375" style="1" hidden="1"/>
+    <col min="16126" max="16128" width="11.42578125" style="1" hidden="1"/>
+    <col min="16129" max="16129" width="16" style="1" hidden="1"/>
+    <col min="16130" max="16130" width="20.42578125" style="1" hidden="1"/>
+    <col min="16131" max="16131" width="11.42578125" style="1" hidden="1"/>
     <col min="16132" max="16132" width="16" style="1" hidden="1"/>
-    <col min="16133" max="16138" width="20.44140625" style="1" hidden="1"/>
-    <col min="16139" max="16384" width="11.44140625" style="1" hidden="1"/>
+    <col min="16133" max="16133" width="20.42578125" style="1" hidden="1"/>
+    <col min="16134" max="16134" width="16" style="1" hidden="1"/>
+    <col min="16135" max="16140" width="20.42578125" style="1" hidden="1"/>
+    <col min="16141" max="16384" width="11.42578125" style="1" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="56.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" ht="56.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
@@ -2899,33 +2939,37 @@
         <v>8</v>
       </c>
       <c r="N1" s="4"/>
-      <c r="O1" s="32" t="s">
+      <c r="O1" s="4"/>
+      <c r="P1" s="40" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q1" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="P1" s="40" t="s">
+      <c r="R1" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="Q1" s="32" t="s">
+      <c r="S1" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="R1" s="4"/>
-      <c r="S1" s="5" t="s">
+      <c r="T1" s="4"/>
+      <c r="U1" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="T1" s="5" t="s">
+      <c r="V1" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="U1" s="5" t="s">
+      <c r="W1" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="V1" s="5" t="s">
+      <c r="X1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="W1" s="4" t="s">
+      <c r="Y1" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:23" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="54" t="str">
         <f>RAWDATA!B2</f>
         <v>applicant.last_name</v>
@@ -2967,35 +3011,40 @@
         <v>applicant.sanitized_grade</v>
       </c>
       <c r="N2" s="4"/>
-      <c r="O2" s="33"/>
-      <c r="P2" s="34" t="e">
-        <f t="shared" ref="P2:P26" si="1">IF(OR(F2="NB",F2="KP"),"","X")</f>
+      <c r="O2" s="4"/>
+      <c r="P2" s="34" t="str">
+        <f>RAWDATA!G2</f>
+        <v>applicant.ects_points</v>
+      </c>
+      <c r="Q2" s="33"/>
+      <c r="R2" s="34" t="e">
+        <f t="shared" ref="R2:R26" si="1">IF(OR(F2="NB",F2="KP"),"","X")</f>
         <v>#VALUE!</v>
       </c>
-      <c r="Q2" s="33"/>
-      <c r="R2" s="4"/>
-      <c r="S2" s="2" t="str">
+      <c r="S2" s="33"/>
+      <c r="T2" s="4"/>
+      <c r="U2" s="2" t="str">
         <f>IF(M2&gt;0,$B$33,0)</f>
         <v>course.ects_points</v>
       </c>
-      <c r="T2" s="2" t="str">
+      <c r="V2" s="2" t="str">
         <f>IF(M2&gt;0,$B$32,0)</f>
         <v>course.ger</v>
       </c>
-      <c r="U2" s="10" t="e">
+      <c r="W2" s="10" t="e">
         <f>IF(M2&gt;0,$F$28,0)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="V2" s="1" t="str">
+      <c r="X2" s="1" t="str">
         <f>IF(M2&gt;0,$B$34,0)</f>
         <v>course.name</v>
       </c>
-      <c r="W2" s="1" t="str">
+      <c r="Y2" s="1" t="str">
         <f>IF(M2&gt;0,$B$31,0)</f>
-        <v>Elena Moya Royo</v>
-      </c>
-    </row>
-    <row r="3" spans="1:23" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>course.teacher_name</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="54">
         <f>RAWDATA!B3</f>
         <v>0</v>
@@ -3037,35 +3086,40 @@
         <v>0</v>
       </c>
       <c r="N3" s="4"/>
-      <c r="O3" s="33"/>
-      <c r="P3" s="34" t="str">
+      <c r="O3" s="4"/>
+      <c r="P3" s="34">
+        <f>RAWDATA!G3</f>
+        <v>0</v>
+      </c>
+      <c r="Q3" s="33"/>
+      <c r="R3" s="34" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="Q3" s="33"/>
-      <c r="R3" s="4"/>
-      <c r="S3" s="2">
-        <f t="shared" ref="S3:S26" si="3">IF(M3&gt;0,$B$33,0)</f>
-        <v>0</v>
-      </c>
-      <c r="T3" s="2">
-        <f t="shared" ref="T3:T26" si="4">IF(M3&gt;0,$B$32,0)</f>
-        <v>0</v>
-      </c>
-      <c r="U3" s="10">
-        <f t="shared" ref="U3:U26" si="5">IF(M3&gt;0,$F$28,0)</f>
-        <v>0</v>
-      </c>
-      <c r="V3" s="1">
-        <f t="shared" ref="V3:V26" si="6">IF(M3&gt;0,$B$34,0)</f>
-        <v>0</v>
-      </c>
-      <c r="W3" s="1">
-        <f t="shared" ref="W3:W26" si="7">IF(M3&gt;0,$B$31,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:23" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S3" s="33"/>
+      <c r="T3" s="4"/>
+      <c r="U3" s="2">
+        <f t="shared" ref="U3:U26" si="3">IF(M3&gt;0,$B$33,0)</f>
+        <v>0</v>
+      </c>
+      <c r="V3" s="2">
+        <f t="shared" ref="V3:V26" si="4">IF(M3&gt;0,$B$32,0)</f>
+        <v>0</v>
+      </c>
+      <c r="W3" s="10">
+        <f t="shared" ref="W3:W26" si="5">IF(M3&gt;0,$F$28,0)</f>
+        <v>0</v>
+      </c>
+      <c r="X3" s="1">
+        <f t="shared" ref="X3:X26" si="6">IF(M3&gt;0,$B$34,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Y3" s="1">
+        <f t="shared" ref="Y3:Y26" si="7">IF(M3&gt;0,$B$31,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="54">
         <f>RAWDATA!B4</f>
         <v>0</v>
@@ -3107,35 +3161,40 @@
         <v>0</v>
       </c>
       <c r="N4" s="4"/>
-      <c r="O4" s="33"/>
-      <c r="P4" s="34" t="str">
+      <c r="O4" s="4"/>
+      <c r="P4" s="34">
+        <f>RAWDATA!G4</f>
+        <v>0</v>
+      </c>
+      <c r="Q4" s="33"/>
+      <c r="R4" s="34" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="Q4" s="33"/>
-      <c r="R4" s="4"/>
-      <c r="S4" s="2">
+      <c r="S4" s="33"/>
+      <c r="T4" s="4"/>
+      <c r="U4" s="2">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="T4" s="2">
+      <c r="V4" s="2">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="U4" s="10">
+      <c r="W4" s="10">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="V4" s="1">
+      <c r="X4" s="1">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="W4" s="1">
+      <c r="Y4" s="1">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:23" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="54">
         <f>RAWDATA!B5</f>
         <v>0</v>
@@ -3177,35 +3236,40 @@
         <v>0</v>
       </c>
       <c r="N5" s="4"/>
-      <c r="O5" s="33"/>
-      <c r="P5" s="34" t="str">
+      <c r="O5" s="4"/>
+      <c r="P5" s="34">
+        <f>RAWDATA!G5</f>
+        <v>0</v>
+      </c>
+      <c r="Q5" s="33"/>
+      <c r="R5" s="34" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="Q5" s="33"/>
-      <c r="R5" s="4"/>
-      <c r="S5" s="2">
+      <c r="S5" s="33"/>
+      <c r="T5" s="4"/>
+      <c r="U5" s="2">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="T5" s="2">
+      <c r="V5" s="2">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="U5" s="10">
+      <c r="W5" s="10">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="V5" s="1">
+      <c r="X5" s="1">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="W5" s="1">
+      <c r="Y5" s="1">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="54">
         <f>RAWDATA!B6</f>
         <v>0</v>
@@ -3247,35 +3311,40 @@
         <v>0</v>
       </c>
       <c r="N6" s="4"/>
-      <c r="O6" s="33"/>
-      <c r="P6" s="34" t="str">
+      <c r="O6" s="4"/>
+      <c r="P6" s="34">
+        <f>RAWDATA!G6</f>
+        <v>0</v>
+      </c>
+      <c r="Q6" s="33"/>
+      <c r="R6" s="34" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="Q6" s="33"/>
-      <c r="R6" s="4"/>
-      <c r="S6" s="2">
+      <c r="S6" s="33"/>
+      <c r="T6" s="4"/>
+      <c r="U6" s="2">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="T6" s="2">
+      <c r="V6" s="2">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="U6" s="10">
+      <c r="W6" s="10">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="V6" s="1">
+      <c r="X6" s="1">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="W6" s="1">
+      <c r="Y6" s="1">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:23" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="54">
         <f>RAWDATA!B7</f>
         <v>0</v>
@@ -3317,35 +3386,40 @@
         <v>0</v>
       </c>
       <c r="N7" s="4"/>
-      <c r="O7" s="33"/>
-      <c r="P7" s="34" t="str">
+      <c r="O7" s="4"/>
+      <c r="P7" s="34">
+        <f>RAWDATA!G7</f>
+        <v>0</v>
+      </c>
+      <c r="Q7" s="33"/>
+      <c r="R7" s="34" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="Q7" s="33"/>
-      <c r="R7" s="4"/>
-      <c r="S7" s="2">
+      <c r="S7" s="33"/>
+      <c r="T7" s="4"/>
+      <c r="U7" s="2">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="U7" s="10">
+      <c r="W7" s="10">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="V7" s="1">
+      <c r="X7" s="1">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="W7" s="1">
+      <c r="Y7" s="1">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:23" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="54">
         <f>RAWDATA!B8</f>
         <v>0</v>
@@ -3387,35 +3461,40 @@
         <v>0</v>
       </c>
       <c r="N8" s="4"/>
-      <c r="O8" s="33"/>
-      <c r="P8" s="34" t="str">
+      <c r="O8" s="4"/>
+      <c r="P8" s="34">
+        <f>RAWDATA!G8</f>
+        <v>0</v>
+      </c>
+      <c r="Q8" s="33"/>
+      <c r="R8" s="34" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="Q8" s="33"/>
-      <c r="R8" s="4"/>
-      <c r="S8" s="2">
+      <c r="S8" s="33"/>
+      <c r="T8" s="4"/>
+      <c r="U8" s="2">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="T8" s="2">
+      <c r="V8" s="2">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="U8" s="10">
+      <c r="W8" s="10">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="V8" s="1">
+      <c r="X8" s="1">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="W8" s="1">
+      <c r="Y8" s="1">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:23" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="54">
         <f>RAWDATA!B9</f>
         <v>0</v>
@@ -3457,35 +3536,40 @@
         <v>0</v>
       </c>
       <c r="N9" s="4"/>
-      <c r="O9" s="33"/>
-      <c r="P9" s="34" t="str">
+      <c r="O9" s="4"/>
+      <c r="P9" s="34">
+        <f>RAWDATA!G9</f>
+        <v>0</v>
+      </c>
+      <c r="Q9" s="33"/>
+      <c r="R9" s="34" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="Q9" s="33"/>
-      <c r="R9" s="4"/>
-      <c r="S9" s="2">
+      <c r="S9" s="33"/>
+      <c r="T9" s="4"/>
+      <c r="U9" s="2">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="T9" s="2">
+      <c r="V9" s="2">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="U9" s="10">
+      <c r="W9" s="10">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="V9" s="1">
+      <c r="X9" s="1">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="W9" s="1">
+      <c r="Y9" s="1">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:23" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="54">
         <f>RAWDATA!B10</f>
         <v>0</v>
@@ -3527,35 +3611,40 @@
         <v>0</v>
       </c>
       <c r="N10" s="4"/>
-      <c r="O10" s="33"/>
-      <c r="P10" s="34" t="str">
+      <c r="O10" s="4"/>
+      <c r="P10" s="34">
+        <f>RAWDATA!G10</f>
+        <v>0</v>
+      </c>
+      <c r="Q10" s="33"/>
+      <c r="R10" s="34" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="Q10" s="33"/>
-      <c r="R10" s="4"/>
-      <c r="S10" s="2">
+      <c r="S10" s="33"/>
+      <c r="T10" s="4"/>
+      <c r="U10" s="2">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="T10" s="2">
+      <c r="V10" s="2">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="U10" s="10">
+      <c r="W10" s="10">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="V10" s="1">
+      <c r="X10" s="1">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="W10" s="1">
+      <c r="Y10" s="1">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:23" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="54">
         <f>RAWDATA!B11</f>
         <v>0</v>
@@ -3597,35 +3686,40 @@
         <v>0</v>
       </c>
       <c r="N11" s="4"/>
-      <c r="O11" s="33"/>
-      <c r="P11" s="34" t="str">
+      <c r="O11" s="4"/>
+      <c r="P11" s="34">
+        <f>RAWDATA!G11</f>
+        <v>0</v>
+      </c>
+      <c r="Q11" s="33"/>
+      <c r="R11" s="34" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="Q11" s="33"/>
-      <c r="R11" s="4"/>
-      <c r="S11" s="2">
+      <c r="S11" s="33"/>
+      <c r="T11" s="4"/>
+      <c r="U11" s="2">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="T11" s="2">
+      <c r="V11" s="2">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="U11" s="10">
+      <c r="W11" s="10">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="V11" s="1">
+      <c r="X11" s="1">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="W11" s="1">
+      <c r="Y11" s="1">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:23" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="54">
         <f>RAWDATA!B12</f>
         <v>0</v>
@@ -3667,35 +3761,40 @@
         <v>0</v>
       </c>
       <c r="N12" s="4"/>
-      <c r="O12" s="33"/>
-      <c r="P12" s="34" t="str">
+      <c r="O12" s="4"/>
+      <c r="P12" s="34">
+        <f>RAWDATA!G12</f>
+        <v>0</v>
+      </c>
+      <c r="Q12" s="33"/>
+      <c r="R12" s="34" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="Q12" s="33"/>
-      <c r="R12" s="4"/>
-      <c r="S12" s="2">
+      <c r="S12" s="33"/>
+      <c r="T12" s="4"/>
+      <c r="U12" s="2">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="T12" s="2">
+      <c r="V12" s="2">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="U12" s="10">
+      <c r="W12" s="10">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="V12" s="1">
+      <c r="X12" s="1">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="W12" s="1">
+      <c r="Y12" s="1">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:23" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="54">
         <f>RAWDATA!B13</f>
         <v>0</v>
@@ -3737,35 +3836,40 @@
         <v>0</v>
       </c>
       <c r="N13" s="4"/>
-      <c r="O13" s="33"/>
-      <c r="P13" s="34" t="str">
+      <c r="O13" s="4"/>
+      <c r="P13" s="34">
+        <f>RAWDATA!G13</f>
+        <v>0</v>
+      </c>
+      <c r="Q13" s="33"/>
+      <c r="R13" s="34" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="Q13" s="33"/>
-      <c r="R13" s="4"/>
-      <c r="S13" s="2">
+      <c r="S13" s="33"/>
+      <c r="T13" s="4"/>
+      <c r="U13" s="2">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="T13" s="2">
+      <c r="V13" s="2">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="U13" s="10">
+      <c r="W13" s="10">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="V13" s="1">
+      <c r="X13" s="1">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="W13" s="1">
+      <c r="Y13" s="1">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:23" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="54">
         <f>RAWDATA!B14</f>
         <v>0</v>
@@ -3807,35 +3911,40 @@
         <v>0</v>
       </c>
       <c r="N14" s="4"/>
-      <c r="O14" s="33"/>
-      <c r="P14" s="34" t="str">
+      <c r="O14" s="4"/>
+      <c r="P14" s="34">
+        <f>RAWDATA!G14</f>
+        <v>0</v>
+      </c>
+      <c r="Q14" s="33"/>
+      <c r="R14" s="34" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="Q14" s="33"/>
-      <c r="R14" s="4"/>
-      <c r="S14" s="2">
+      <c r="S14" s="33"/>
+      <c r="T14" s="4"/>
+      <c r="U14" s="2">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="T14" s="2">
+      <c r="V14" s="2">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="U14" s="10">
+      <c r="W14" s="10">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="V14" s="1">
+      <c r="X14" s="1">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="W14" s="1">
+      <c r="Y14" s="1">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:23" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="54">
         <f>RAWDATA!B15</f>
         <v>0</v>
@@ -3877,35 +3986,40 @@
         <v>0</v>
       </c>
       <c r="N15" s="4"/>
-      <c r="O15" s="33"/>
-      <c r="P15" s="34" t="str">
+      <c r="O15" s="4"/>
+      <c r="P15" s="34">
+        <f>RAWDATA!G15</f>
+        <v>0</v>
+      </c>
+      <c r="Q15" s="33"/>
+      <c r="R15" s="34" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="Q15" s="33"/>
-      <c r="R15" s="4"/>
-      <c r="S15" s="2">
+      <c r="S15" s="33"/>
+      <c r="T15" s="4"/>
+      <c r="U15" s="2">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="T15" s="2">
+      <c r="V15" s="2">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="U15" s="10">
+      <c r="W15" s="10">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="V15" s="1">
+      <c r="X15" s="1">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="W15" s="1">
+      <c r="Y15" s="1">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:23" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="54">
         <f>RAWDATA!B16</f>
         <v>0</v>
@@ -3947,35 +4061,40 @@
         <v>0</v>
       </c>
       <c r="N16" s="4"/>
-      <c r="O16" s="33"/>
-      <c r="P16" s="34" t="str">
+      <c r="O16" s="4"/>
+      <c r="P16" s="34">
+        <f>RAWDATA!G16</f>
+        <v>0</v>
+      </c>
+      <c r="Q16" s="33"/>
+      <c r="R16" s="34" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="Q16" s="33"/>
-      <c r="R16" s="4"/>
-      <c r="S16" s="2">
+      <c r="S16" s="33"/>
+      <c r="T16" s="4"/>
+      <c r="U16" s="2">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="T16" s="2">
+      <c r="V16" s="2">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="U16" s="10">
+      <c r="W16" s="10">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="V16" s="1">
+      <c r="X16" s="1">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="W16" s="1">
+      <c r="Y16" s="1">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:23" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:25" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="54">
         <f>RAWDATA!B17</f>
         <v>0</v>
@@ -4017,35 +4136,40 @@
         <v>0</v>
       </c>
       <c r="N17" s="4"/>
-      <c r="O17" s="33"/>
-      <c r="P17" s="34" t="str">
+      <c r="O17" s="4"/>
+      <c r="P17" s="34">
+        <f>RAWDATA!G17</f>
+        <v>0</v>
+      </c>
+      <c r="Q17" s="33"/>
+      <c r="R17" s="34" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="Q17" s="33"/>
-      <c r="R17" s="4"/>
-      <c r="S17" s="2">
+      <c r="S17" s="33"/>
+      <c r="T17" s="4"/>
+      <c r="U17" s="2">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="T17" s="2">
+      <c r="V17" s="2">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="U17" s="10">
+      <c r="W17" s="10">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="V17" s="1">
+      <c r="X17" s="1">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="W17" s="1">
+      <c r="Y17" s="1">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:23" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:25" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="54">
         <f>RAWDATA!B18</f>
         <v>0</v>
@@ -4087,35 +4211,40 @@
         <v>0</v>
       </c>
       <c r="N18" s="4"/>
-      <c r="O18" s="33"/>
-      <c r="P18" s="34" t="str">
+      <c r="O18" s="4"/>
+      <c r="P18" s="34">
+        <f>RAWDATA!G18</f>
+        <v>0</v>
+      </c>
+      <c r="Q18" s="33"/>
+      <c r="R18" s="34" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="Q18" s="33"/>
-      <c r="R18" s="4"/>
-      <c r="S18" s="2">
+      <c r="S18" s="33"/>
+      <c r="T18" s="4"/>
+      <c r="U18" s="2">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="T18" s="2">
+      <c r="V18" s="2">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="U18" s="10">
+      <c r="W18" s="10">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="V18" s="1">
+      <c r="X18" s="1">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="W18" s="1">
+      <c r="Y18" s="1">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:23" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:25" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="54">
         <f>RAWDATA!B19</f>
         <v>0</v>
@@ -4157,35 +4286,40 @@
         <v>0</v>
       </c>
       <c r="N19" s="4"/>
-      <c r="O19" s="33"/>
-      <c r="P19" s="34" t="str">
+      <c r="O19" s="4"/>
+      <c r="P19" s="34">
+        <f>RAWDATA!G19</f>
+        <v>0</v>
+      </c>
+      <c r="Q19" s="33"/>
+      <c r="R19" s="34" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="Q19" s="33"/>
-      <c r="R19" s="4"/>
-      <c r="S19" s="2">
+      <c r="S19" s="33"/>
+      <c r="T19" s="4"/>
+      <c r="U19" s="2">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="T19" s="2">
+      <c r="V19" s="2">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="U19" s="10">
+      <c r="W19" s="10">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="V19" s="1">
+      <c r="X19" s="1">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="W19" s="1">
+      <c r="Y19" s="1">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:23" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:25" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="54">
         <f>RAWDATA!B20</f>
         <v>0</v>
@@ -4227,35 +4361,40 @@
         <v>0</v>
       </c>
       <c r="N20" s="4"/>
-      <c r="O20" s="33"/>
-      <c r="P20" s="34" t="str">
+      <c r="O20" s="4"/>
+      <c r="P20" s="34">
+        <f>RAWDATA!G20</f>
+        <v>0</v>
+      </c>
+      <c r="Q20" s="33"/>
+      <c r="R20" s="34" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="Q20" s="33"/>
-      <c r="R20" s="4"/>
-      <c r="S20" s="2">
+      <c r="S20" s="33"/>
+      <c r="T20" s="4"/>
+      <c r="U20" s="2">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="T20" s="2">
+      <c r="V20" s="2">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="U20" s="10">
+      <c r="W20" s="10">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="V20" s="1">
+      <c r="X20" s="1">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="W20" s="1">
+      <c r="Y20" s="1">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:23" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:25" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="54">
         <f>RAWDATA!B21</f>
         <v>0</v>
@@ -4297,35 +4436,40 @@
         <v>0</v>
       </c>
       <c r="N21" s="4"/>
-      <c r="O21" s="33"/>
-      <c r="P21" s="34" t="str">
+      <c r="O21" s="4"/>
+      <c r="P21" s="34">
+        <f>RAWDATA!G21</f>
+        <v>0</v>
+      </c>
+      <c r="Q21" s="33"/>
+      <c r="R21" s="34" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="Q21" s="33"/>
-      <c r="R21" s="4"/>
-      <c r="S21" s="2">
+      <c r="S21" s="33"/>
+      <c r="T21" s="4"/>
+      <c r="U21" s="2">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="T21" s="2">
+      <c r="V21" s="2">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="U21" s="10">
+      <c r="W21" s="10">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="V21" s="1">
+      <c r="X21" s="1">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="W21" s="1">
+      <c r="Y21" s="1">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:23" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:25" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="54">
         <f>RAWDATA!B22</f>
         <v>0</v>
@@ -4367,35 +4511,40 @@
         <v>0</v>
       </c>
       <c r="N22" s="4"/>
-      <c r="O22" s="33"/>
-      <c r="P22" s="34" t="str">
+      <c r="O22" s="4"/>
+      <c r="P22" s="34">
+        <f>RAWDATA!G22</f>
+        <v>0</v>
+      </c>
+      <c r="Q22" s="33"/>
+      <c r="R22" s="34" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="Q22" s="33"/>
-      <c r="R22" s="4"/>
-      <c r="S22" s="2">
+      <c r="S22" s="33"/>
+      <c r="T22" s="4"/>
+      <c r="U22" s="2">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="T22" s="2">
+      <c r="V22" s="2">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="U22" s="10">
+      <c r="W22" s="10">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="V22" s="1">
+      <c r="X22" s="1">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="W22" s="1">
+      <c r="Y22" s="1">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:23" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:25" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="54">
         <f>RAWDATA!B23</f>
         <v>0</v>
@@ -4437,35 +4586,40 @@
         <v>0</v>
       </c>
       <c r="N23" s="4"/>
-      <c r="O23" s="33"/>
-      <c r="P23" s="34" t="str">
+      <c r="O23" s="4"/>
+      <c r="P23" s="34">
+        <f>RAWDATA!G23</f>
+        <v>0</v>
+      </c>
+      <c r="Q23" s="33"/>
+      <c r="R23" s="34" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="Q23" s="33"/>
-      <c r="R23" s="4"/>
-      <c r="S23" s="2">
+      <c r="S23" s="33"/>
+      <c r="T23" s="4"/>
+      <c r="U23" s="2">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="T23" s="2">
+      <c r="V23" s="2">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="U23" s="10">
+      <c r="W23" s="10">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="V23" s="1">
+      <c r="X23" s="1">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="W23" s="1">
+      <c r="Y23" s="1">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:23" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:25" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="54">
         <f>RAWDATA!B24</f>
         <v>0</v>
@@ -4507,35 +4661,40 @@
         <v>0</v>
       </c>
       <c r="N24" s="4"/>
-      <c r="O24" s="33"/>
-      <c r="P24" s="34" t="str">
+      <c r="O24" s="4"/>
+      <c r="P24" s="34">
+        <f>RAWDATA!G24</f>
+        <v>0</v>
+      </c>
+      <c r="Q24" s="33"/>
+      <c r="R24" s="34" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="Q24" s="33"/>
-      <c r="R24" s="4"/>
-      <c r="S24" s="2">
+      <c r="S24" s="33"/>
+      <c r="T24" s="4"/>
+      <c r="U24" s="2">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="T24" s="2">
+      <c r="V24" s="2">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="U24" s="10">
+      <c r="W24" s="10">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="V24" s="1">
+      <c r="X24" s="1">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="W24" s="1">
+      <c r="Y24" s="1">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:23" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:25" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="54">
         <f>RAWDATA!B25</f>
         <v>0</v>
@@ -4577,35 +4736,40 @@
         <v>0</v>
       </c>
       <c r="N25" s="4"/>
-      <c r="O25" s="33"/>
-      <c r="P25" s="34" t="str">
+      <c r="O25" s="4"/>
+      <c r="P25" s="34">
+        <f>RAWDATA!G25</f>
+        <v>0</v>
+      </c>
+      <c r="Q25" s="33"/>
+      <c r="R25" s="34" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="Q25" s="33"/>
-      <c r="R25" s="4"/>
-      <c r="S25" s="2">
+      <c r="S25" s="33"/>
+      <c r="T25" s="4"/>
+      <c r="U25" s="2">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="T25" s="2">
+      <c r="V25" s="2">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="U25" s="10">
+      <c r="W25" s="10">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="V25" s="1">
+      <c r="X25" s="1">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="W25" s="1">
+      <c r="Y25" s="1">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:23" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:25" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="54">
         <f>RAWDATA!B26</f>
         <v>0</v>
@@ -4647,35 +4811,40 @@
         <v>0</v>
       </c>
       <c r="N26" s="4"/>
-      <c r="O26" s="33"/>
-      <c r="P26" s="34" t="str">
+      <c r="O26" s="4"/>
+      <c r="P26" s="34">
+        <f>RAWDATA!G26</f>
+        <v>0</v>
+      </c>
+      <c r="Q26" s="33"/>
+      <c r="R26" s="34" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="Q26" s="33"/>
-      <c r="R26" s="4"/>
-      <c r="S26" s="2">
+      <c r="S26" s="33"/>
+      <c r="T26" s="4"/>
+      <c r="U26" s="2">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="T26" s="2">
+      <c r="V26" s="2">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="U26" s="10">
+      <c r="W26" s="10">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="V26" s="1">
+      <c r="X26" s="1">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="W26" s="1">
+      <c r="Y26" s="1">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:23" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:25" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="4"/>
       <c r="B27" s="4" t="s">
         <v>9</v>
@@ -4700,9 +4869,11 @@
       <c r="O27" s="4"/>
       <c r="P27" s="5"/>
       <c r="Q27" s="4"/>
-      <c r="R27" s="4"/>
-    </row>
-    <row r="28" spans="1:23" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R27" s="5"/>
+      <c r="S27" s="4"/>
+      <c r="T27" s="4"/>
+    </row>
+    <row r="28" spans="1:25" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="1" t="s">
         <v>55</v>
       </c>
@@ -4739,9 +4910,11 @@
       <c r="O28" s="4"/>
       <c r="P28" s="5"/>
       <c r="Q28" s="4"/>
-      <c r="R28" s="4"/>
-    </row>
-    <row r="29" spans="1:23" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R28" s="5"/>
+      <c r="S28" s="4"/>
+      <c r="T28" s="4"/>
+    </row>
+    <row r="29" spans="1:25" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="4"/>
       <c r="B29" s="4" t="s">
         <v>10</v>
@@ -4773,9 +4946,11 @@
       <c r="O29" s="4"/>
       <c r="P29" s="5"/>
       <c r="Q29" s="4"/>
-      <c r="R29" s="4"/>
-    </row>
-    <row r="30" spans="1:23" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R29" s="5"/>
+      <c r="S29" s="4"/>
+      <c r="T29" s="4"/>
+    </row>
+    <row r="30" spans="1:25" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="22"/>
       <c r="B30" s="22"/>
       <c r="C30" s="23"/>
@@ -4793,14 +4968,16 @@
       <c r="O30" s="22"/>
       <c r="P30" s="25"/>
       <c r="Q30" s="22"/>
-      <c r="R30" s="22"/>
-    </row>
-    <row r="31" spans="1:23" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R30" s="25"/>
+      <c r="S30" s="22"/>
+      <c r="T30" s="22"/>
+    </row>
+    <row r="31" spans="1:25" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
         <v>13</v>
       </c>
       <c r="B31" s="35" t="s">
-        <v>81</v>
+        <v>141</v>
       </c>
       <c r="C31" s="23"/>
       <c r="E31" s="86" t="s">
@@ -4818,9 +4995,11 @@
       <c r="O31" s="86"/>
       <c r="P31" s="86"/>
       <c r="Q31" s="86"/>
-      <c r="R31" s="31"/>
-    </row>
-    <row r="32" spans="1:23" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R31" s="86"/>
+      <c r="S31" s="86"/>
+      <c r="T31" s="31"/>
+    </row>
+    <row r="32" spans="1:25" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
         <v>14</v>
       </c>
@@ -4842,9 +5021,11 @@
       <c r="O32" s="86"/>
       <c r="P32" s="86"/>
       <c r="Q32" s="86"/>
-      <c r="R32" s="31"/>
-    </row>
-    <row r="33" spans="1:18" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R32" s="86"/>
+      <c r="S32" s="86"/>
+      <c r="T32" s="31"/>
+    </row>
+    <row r="33" spans="1:20" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
         <v>15</v>
       </c>
@@ -4866,9 +5047,11 @@
       <c r="O33" s="86"/>
       <c r="P33" s="86"/>
       <c r="Q33" s="86"/>
-      <c r="R33" s="31"/>
-    </row>
-    <row r="34" spans="1:18" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R33" s="86"/>
+      <c r="S33" s="86"/>
+      <c r="T33" s="31"/>
+    </row>
+    <row r="34" spans="1:20" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="s">
         <v>16</v>
       </c>
@@ -4892,9 +5075,11 @@
       <c r="O34" s="86"/>
       <c r="P34" s="86"/>
       <c r="Q34" s="86"/>
-      <c r="R34" s="31"/>
-    </row>
-    <row r="35" spans="1:18" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R34" s="86"/>
+      <c r="S34" s="86"/>
+      <c r="T34" s="31"/>
+    </row>
+    <row r="35" spans="1:20" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
         <v>44</v>
       </c>
@@ -4916,9 +5101,11 @@
       <c r="O35" s="86"/>
       <c r="P35" s="86"/>
       <c r="Q35" s="86"/>
-      <c r="R35" s="31"/>
-    </row>
-    <row r="36" spans="1:18" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R35" s="86"/>
+      <c r="S35" s="86"/>
+      <c r="T35" s="31"/>
+    </row>
+    <row r="36" spans="1:20" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="4" t="s">
         <v>30</v>
       </c>
@@ -4940,9 +5127,11 @@
       <c r="O36" s="86"/>
       <c r="P36" s="86"/>
       <c r="Q36" s="86"/>
-      <c r="R36" s="31"/>
-    </row>
-    <row r="37" spans="1:18" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R36" s="86"/>
+      <c r="S36" s="86"/>
+      <c r="T36" s="31"/>
+    </row>
+    <row r="37" spans="1:20" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="4" t="s">
         <v>54</v>
       </c>
@@ -4961,39 +5150,37 @@
       <c r="L37" s="79"/>
       <c r="M37" s="79"/>
       <c r="N37" s="22"/>
-      <c r="O37" s="31"/>
+      <c r="O37" s="22"/>
       <c r="P37" s="25"/>
       <c r="Q37" s="31"/>
-      <c r="R37" s="31"/>
-    </row>
-    <row r="38" spans="1:18" ht="13.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="O38" s="22"/>
+      <c r="R37" s="25"/>
+      <c r="S37" s="31"/>
+      <c r="T37" s="31"/>
+    </row>
+    <row r="38" spans="1:20" ht="13.9" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="P38" s="25"/>
       <c r="Q38" s="22"/>
-      <c r="R38" s="22"/>
+      <c r="R38" s="25"/>
+      <c r="S38" s="22"/>
+      <c r="T38" s="22"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1" formatColumns="0" selectLockedCells="1"/>
   <dataConsolidate/>
   <mergeCells count="1">
-    <mergeCell ref="E31:Q36"/>
+    <mergeCell ref="E31:S36"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <conditionalFormatting sqref="H26">
-    <cfRule type="cellIs" dxfId="2" priority="9" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="9" priority="9" stopIfTrue="1" operator="greaterThan">
       <formula>$H$27</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I26:J26">
-    <cfRule type="cellIs" dxfId="1" priority="3" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="8" priority="3" stopIfTrue="1" operator="greaterThan">
       <formula>$I$27</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations disablePrompts="1" count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B31" xr:uid="{00000000-0002-0000-0100-000000000000}">
-      <formula1>DOZENT</formula1>
-    </dataValidation>
-  </dataValidations>
   <pageMargins left="0.78740157480314965" right="0.78740157480314965" top="1.2598425196850394" bottom="1.0629921259842521" header="0.59055118110236227" footer="0.78740157480314965"/>
   <pageSetup paperSize="9" scale="82" firstPageNumber="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter scaleWithDoc="0" alignWithMargins="0">
@@ -5005,25 +5192,25 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.6640625" customWidth="1"/>
-    <col min="2" max="2" width="12.6640625" customWidth="1"/>
-    <col min="3" max="3" width="10.5546875" customWidth="1"/>
+    <col min="1" max="1" width="15.7109375" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" customWidth="1"/>
+    <col min="3" max="3" width="10.5703125" customWidth="1"/>
     <col min="4" max="4" width="14" customWidth="1"/>
-    <col min="5" max="9" width="10.6640625" customWidth="1"/>
-    <col min="10" max="10" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="5.6640625" customWidth="1"/>
+    <col min="5" max="9" width="10.7109375" customWidth="1"/>
+    <col min="10" max="10" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="84" t="str">
         <f>Notenliste!B34</f>
         <v>course.name</v>
@@ -5036,7 +5223,7 @@
       <c r="H1" s="88"/>
       <c r="I1" s="88"/>
     </row>
-    <row r="2" spans="1:11" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A2" s="26" t="s">
         <v>0</v>
       </c>
@@ -5069,7 +5256,7 @@
       </c>
       <c r="K2" s="4"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="82" t="str">
         <f>RAWDATA!B2</f>
         <v>applicant.last_name</v>
@@ -5097,7 +5284,7 @@
       </c>
       <c r="K3" s="4"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="82">
         <f>RAWDATA!B3</f>
         <v>0</v>
@@ -5125,7 +5312,7 @@
       </c>
       <c r="K4" s="4"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="82">
         <f>RAWDATA!B4</f>
         <v>0</v>
@@ -5153,7 +5340,7 @@
       </c>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="82">
         <f>RAWDATA!B5</f>
         <v>0</v>
@@ -5181,7 +5368,7 @@
       </c>
       <c r="K6" s="4"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="82">
         <f>RAWDATA!B6</f>
         <v>0</v>
@@ -5209,7 +5396,7 @@
       </c>
       <c r="K7" s="4"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="82">
         <f>RAWDATA!B7</f>
         <v>0</v>
@@ -5237,7 +5424,7 @@
       </c>
       <c r="K8" s="4"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="82">
         <f>RAWDATA!B8</f>
         <v>0</v>
@@ -5265,7 +5452,7 @@
       </c>
       <c r="K9" s="4"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="82">
         <f>RAWDATA!B9</f>
         <v>0</v>
@@ -5293,7 +5480,7 @@
       </c>
       <c r="K10" s="4"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="82">
         <f>RAWDATA!B10</f>
         <v>0</v>
@@ -5321,7 +5508,7 @@
       </c>
       <c r="K11" s="4"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="82">
         <f>RAWDATA!B11</f>
         <v>0</v>
@@ -5349,7 +5536,7 @@
       </c>
       <c r="K12" s="4"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="82">
         <f>RAWDATA!B12</f>
         <v>0</v>
@@ -5377,7 +5564,7 @@
       </c>
       <c r="K13" s="4"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="82">
         <f>RAWDATA!B13</f>
         <v>0</v>
@@ -5405,7 +5592,7 @@
       </c>
       <c r="K14" s="4"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="82">
         <f>RAWDATA!B14</f>
         <v>0</v>
@@ -5433,7 +5620,7 @@
       </c>
       <c r="K15" s="4"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="82">
         <f>RAWDATA!B15</f>
         <v>0</v>
@@ -5461,7 +5648,7 @@
       </c>
       <c r="K16" s="4"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="82">
         <f>RAWDATA!B16</f>
         <v>0</v>
@@ -5489,7 +5676,7 @@
       </c>
       <c r="K17" s="4"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="82">
         <f>RAWDATA!B17</f>
         <v>0</v>
@@ -5517,7 +5704,7 @@
       </c>
       <c r="K18" s="4"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="82">
         <f>RAWDATA!B18</f>
         <v>0</v>
@@ -5545,7 +5732,7 @@
       </c>
       <c r="K19" s="4"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="82">
         <f>RAWDATA!B19</f>
         <v>0</v>
@@ -5573,7 +5760,7 @@
       </c>
       <c r="K20" s="4"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="82">
         <f>RAWDATA!B20</f>
         <v>0</v>
@@ -5601,7 +5788,7 @@
       </c>
       <c r="K21" s="4"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="82">
         <f>RAWDATA!B21</f>
         <v>0</v>
@@ -5629,7 +5816,7 @@
       </c>
       <c r="K22" s="4"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="82">
         <f>RAWDATA!B22</f>
         <v>0</v>
@@ -5657,7 +5844,7 @@
       </c>
       <c r="K23" s="4"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="82">
         <f>RAWDATA!B23</f>
         <v>0</v>
@@ -5685,7 +5872,7 @@
       </c>
       <c r="K24" s="4"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="82">
         <f>RAWDATA!B24</f>
         <v>0</v>
@@ -5713,7 +5900,7 @@
       </c>
       <c r="K25" s="4"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="82">
         <f>RAWDATA!B25</f>
         <v>0</v>
@@ -5741,7 +5928,7 @@
       </c>
       <c r="K26" s="4"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="82">
         <f>RAWDATA!B26</f>
         <v>0</v>
@@ -5769,7 +5956,7 @@
       </c>
       <c r="K27" s="4"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="4"/>
       <c r="B28" s="4" t="s">
         <v>9</v>
@@ -5784,7 +5971,7 @@
       <c r="J28" s="4"/>
       <c r="K28" s="4"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" s="1" t="s">
         <v>129</v>
@@ -5802,7 +5989,7 @@
       </c>
       <c r="K29" s="4"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="4"/>
       <c r="B30" s="4" t="s">
         <v>10</v>
@@ -5831,7 +6018,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Tabelle3">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -5841,15 +6028,15 @@
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4" zeroHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.44140625" customWidth="1"/>
-    <col min="2" max="2" width="11.44140625" style="7" customWidth="1"/>
-    <col min="3" max="8" width="11.44140625" customWidth="1"/>
-    <col min="9" max="16384" width="11.44140625" hidden="1"/>
+    <col min="1" max="1" width="11.42578125" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" style="7" customWidth="1"/>
+    <col min="3" max="8" width="11.42578125" customWidth="1"/>
+    <col min="9" max="16384" width="11.42578125" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="89" t="str">
         <f>Notenliste!B34</f>
         <v>course.name</v>
@@ -5863,7 +6050,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>5</v>
       </c>
@@ -5871,7 +6058,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <v>1</v>
       </c>
@@ -5880,7 +6067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <v>1.3</v>
       </c>
@@ -5889,7 +6076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <v>1.7</v>
       </c>
@@ -5898,7 +6085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <v>2</v>
       </c>
@@ -5907,7 +6094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <v>2.2999999999999998</v>
       </c>
@@ -5916,7 +6103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <v>2.7</v>
       </c>
@@ -5925,7 +6112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <v>3</v>
       </c>
@@ -5934,7 +6121,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
         <v>3.3</v>
       </c>
@@ -5943,7 +6130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
         <v>3.7</v>
       </c>
@@ -5952,7 +6139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
         <v>4</v>
       </c>
@@ -5961,7 +6148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>31</v>
       </c>
@@ -5982,7 +6169,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Tabelle4">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -5992,22 +6179,22 @@
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4" zeroHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="25.6640625" customWidth="1"/>
-    <col min="4" max="5" width="10.6640625" style="20" customWidth="1"/>
-    <col min="6" max="6" width="40.6640625" customWidth="1"/>
-    <col min="7" max="7" width="20.6640625" customWidth="1"/>
-    <col min="8" max="8" width="10.6640625" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="9.33203125" hidden="1" customWidth="1"/>
-    <col min="10" max="13" width="5.6640625" style="7" customWidth="1"/>
-    <col min="14" max="14" width="5.6640625" customWidth="1"/>
-    <col min="15" max="15" width="1.6640625" customWidth="1"/>
-    <col min="16" max="16384" width="11.44140625" hidden="1"/>
+    <col min="1" max="1" width="3.7109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="25.7109375" customWidth="1"/>
+    <col min="4" max="5" width="10.7109375" style="20" customWidth="1"/>
+    <col min="6" max="6" width="40.7109375" customWidth="1"/>
+    <col min="7" max="7" width="20.7109375" customWidth="1"/>
+    <col min="8" max="8" width="10.7109375" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="9.28515625" hidden="1" customWidth="1"/>
+    <col min="10" max="13" width="5.7109375" style="7" customWidth="1"/>
+    <col min="14" max="14" width="5.7109375" customWidth="1"/>
+    <col min="15" max="15" width="1.7109375" customWidth="1"/>
+    <col min="16" max="16384" width="11.42578125" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="90" t="str">
         <f>Notenliste!B34&amp;Notenliste!B35</f>
         <v>course.namecourse.alternative</v>
@@ -6026,10 +6213,10 @@
       <c r="M1" s="90"/>
       <c r="N1" s="90"/>
     </row>
-    <row r="2" spans="1:15" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="91" t="str">
         <f>"Dozent/in: "&amp;Notenliste!B31</f>
-        <v>Dozent/in: Elena Moya Royo</v>
+        <v>Dozent/in: course.teacher_name</v>
       </c>
       <c r="B2" s="91"/>
       <c r="C2" s="91"/>
@@ -6049,7 +6236,7 @@
       <c r="N2" s="92"/>
       <c r="O2" s="62"/>
     </row>
-    <row r="3" spans="1:15" s="16" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" s="16" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
         <v>24</v>
       </c>
@@ -6094,7 +6281,7 @@
       </c>
       <c r="O3" s="63"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="17">
         <v>1</v>
       </c>
@@ -6115,23 +6302,23 @@
         <v>applicant.tag</v>
       </c>
       <c r="F4" s="18" t="str">
-        <f>RAWDATA!G2</f>
+        <f>RAWDATA!H2</f>
         <v>applicant.mail</v>
       </c>
       <c r="G4" s="18" t="str">
-        <f>RAWDATA!H2</f>
+        <f>RAWDATA!I2</f>
         <v>applicant.phone</v>
       </c>
       <c r="H4" s="19">
-        <f>RAWDATA!I2</f>
+        <f>RAWDATA!J2</f>
         <v>0</v>
       </c>
       <c r="I4" s="19">
-        <f>RAWDATA!J2</f>
+        <f>RAWDATA!K2</f>
         <v>0</v>
       </c>
       <c r="J4" s="17" t="str">
-        <f>UPPER(Notenliste!O2)</f>
+        <f>UPPER(Notenliste!Q2)</f>
         <v/>
       </c>
       <c r="K4" s="17" t="e">
@@ -6147,12 +6334,12 @@
         <v>#VALUE!</v>
       </c>
       <c r="N4" s="17" t="str">
-        <f>UPPER(Notenliste!Q2)</f>
+        <f>UPPER(Notenliste!S2)</f>
         <v/>
       </c>
       <c r="O4" s="62"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="17">
         <v>2</v>
       </c>
@@ -6173,23 +6360,23 @@
         <v>0</v>
       </c>
       <c r="F5" s="18">
-        <f>RAWDATA!G3</f>
+        <f>RAWDATA!H3</f>
         <v>0</v>
       </c>
       <c r="G5" s="18">
-        <f>RAWDATA!H3</f>
+        <f>RAWDATA!I3</f>
         <v>0</v>
       </c>
       <c r="H5" s="19">
-        <f>RAWDATA!I3</f>
+        <f>RAWDATA!J3</f>
         <v>0</v>
       </c>
       <c r="I5" s="19">
-        <f>RAWDATA!J3</f>
+        <f>RAWDATA!K3</f>
         <v>0</v>
       </c>
       <c r="J5" s="17" t="str">
-        <f>UPPER(Notenliste!O3)</f>
+        <f>UPPER(Notenliste!Q3)</f>
         <v/>
       </c>
       <c r="K5" s="17" t="str">
@@ -6205,12 +6392,12 @@
         <v>0</v>
       </c>
       <c r="N5" s="17" t="str">
-        <f>UPPER(Notenliste!Q3)</f>
+        <f>UPPER(Notenliste!S3)</f>
         <v/>
       </c>
       <c r="O5" s="62"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="17">
         <v>3</v>
       </c>
@@ -6231,23 +6418,23 @@
         <v>0</v>
       </c>
       <c r="F6" s="18">
-        <f>RAWDATA!G4</f>
+        <f>RAWDATA!H4</f>
         <v>0</v>
       </c>
       <c r="G6" s="18">
-        <f>RAWDATA!H4</f>
+        <f>RAWDATA!I4</f>
         <v>0</v>
       </c>
       <c r="H6" s="19">
-        <f>RAWDATA!I4</f>
+        <f>RAWDATA!J4</f>
         <v>0</v>
       </c>
       <c r="I6" s="19">
-        <f>RAWDATA!J4</f>
+        <f>RAWDATA!K4</f>
         <v>0</v>
       </c>
       <c r="J6" s="17" t="str">
-        <f>UPPER(Notenliste!O4)</f>
+        <f>UPPER(Notenliste!Q4)</f>
         <v/>
       </c>
       <c r="K6" s="17" t="str">
@@ -6263,12 +6450,12 @@
         <v>0</v>
       </c>
       <c r="N6" s="17" t="str">
-        <f>UPPER(Notenliste!Q4)</f>
+        <f>UPPER(Notenliste!S4)</f>
         <v/>
       </c>
       <c r="O6" s="62"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="17">
         <v>4</v>
       </c>
@@ -6289,23 +6476,23 @@
         <v>0</v>
       </c>
       <c r="F7" s="18">
-        <f>RAWDATA!G5</f>
+        <f>RAWDATA!H5</f>
         <v>0</v>
       </c>
       <c r="G7" s="18">
-        <f>RAWDATA!H5</f>
+        <f>RAWDATA!I5</f>
         <v>0</v>
       </c>
       <c r="H7" s="19">
-        <f>RAWDATA!I5</f>
+        <f>RAWDATA!J5</f>
         <v>0</v>
       </c>
       <c r="I7" s="19">
-        <f>RAWDATA!J5</f>
+        <f>RAWDATA!K5</f>
         <v>0</v>
       </c>
       <c r="J7" s="17" t="str">
-        <f>UPPER(Notenliste!O5)</f>
+        <f>UPPER(Notenliste!Q5)</f>
         <v/>
       </c>
       <c r="K7" s="17" t="str">
@@ -6321,12 +6508,12 @@
         <v>0</v>
       </c>
       <c r="N7" s="17" t="str">
-        <f>UPPER(Notenliste!Q5)</f>
+        <f>UPPER(Notenliste!S5)</f>
         <v/>
       </c>
       <c r="O7" s="62"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="17">
         <v>5</v>
       </c>
@@ -6347,23 +6534,23 @@
         <v>0</v>
       </c>
       <c r="F8" s="18">
-        <f>RAWDATA!G6</f>
+        <f>RAWDATA!H6</f>
         <v>0</v>
       </c>
       <c r="G8" s="18">
-        <f>RAWDATA!H6</f>
+        <f>RAWDATA!I6</f>
         <v>0</v>
       </c>
       <c r="H8" s="19">
-        <f>RAWDATA!I6</f>
+        <f>RAWDATA!J6</f>
         <v>0</v>
       </c>
       <c r="I8" s="19">
-        <f>RAWDATA!J6</f>
+        <f>RAWDATA!K6</f>
         <v>0</v>
       </c>
       <c r="J8" s="17" t="str">
-        <f>UPPER(Notenliste!O6)</f>
+        <f>UPPER(Notenliste!Q6)</f>
         <v/>
       </c>
       <c r="K8" s="17" t="str">
@@ -6379,12 +6566,12 @@
         <v>0</v>
       </c>
       <c r="N8" s="17" t="str">
-        <f>UPPER(Notenliste!Q6)</f>
+        <f>UPPER(Notenliste!S6)</f>
         <v/>
       </c>
       <c r="O8" s="62"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="17">
         <v>6</v>
       </c>
@@ -6405,23 +6592,23 @@
         <v>0</v>
       </c>
       <c r="F9" s="18">
-        <f>RAWDATA!G7</f>
+        <f>RAWDATA!H7</f>
         <v>0</v>
       </c>
       <c r="G9" s="18">
-        <f>RAWDATA!H7</f>
+        <f>RAWDATA!I7</f>
         <v>0</v>
       </c>
       <c r="H9" s="19">
-        <f>RAWDATA!I7</f>
+        <f>RAWDATA!J7</f>
         <v>0</v>
       </c>
       <c r="I9" s="19">
-        <f>RAWDATA!J7</f>
+        <f>RAWDATA!K7</f>
         <v>0</v>
       </c>
       <c r="J9" s="17" t="str">
-        <f>UPPER(Notenliste!O7)</f>
+        <f>UPPER(Notenliste!Q7)</f>
         <v/>
       </c>
       <c r="K9" s="17" t="str">
@@ -6437,12 +6624,12 @@
         <v>0</v>
       </c>
       <c r="N9" s="17" t="str">
-        <f>UPPER(Notenliste!Q7)</f>
+        <f>UPPER(Notenliste!S7)</f>
         <v/>
       </c>
       <c r="O9" s="62"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="17">
         <v>7</v>
       </c>
@@ -6463,23 +6650,23 @@
         <v>0</v>
       </c>
       <c r="F10" s="18">
-        <f>RAWDATA!G8</f>
+        <f>RAWDATA!H8</f>
         <v>0</v>
       </c>
       <c r="G10" s="18">
-        <f>RAWDATA!H8</f>
+        <f>RAWDATA!I8</f>
         <v>0</v>
       </c>
       <c r="H10" s="19">
-        <f>RAWDATA!I8</f>
+        <f>RAWDATA!J8</f>
         <v>0</v>
       </c>
       <c r="I10" s="19">
-        <f>RAWDATA!J8</f>
+        <f>RAWDATA!K8</f>
         <v>0</v>
       </c>
       <c r="J10" s="17" t="str">
-        <f>UPPER(Notenliste!O8)</f>
+        <f>UPPER(Notenliste!Q8)</f>
         <v/>
       </c>
       <c r="K10" s="17" t="str">
@@ -6495,12 +6682,12 @@
         <v>0</v>
       </c>
       <c r="N10" s="17" t="str">
-        <f>UPPER(Notenliste!Q8)</f>
+        <f>UPPER(Notenliste!S8)</f>
         <v/>
       </c>
       <c r="O10" s="62"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="17">
         <v>8</v>
       </c>
@@ -6521,23 +6708,23 @@
         <v>0</v>
       </c>
       <c r="F11" s="18">
-        <f>RAWDATA!G9</f>
+        <f>RAWDATA!H9</f>
         <v>0</v>
       </c>
       <c r="G11" s="18">
-        <f>RAWDATA!H9</f>
+        <f>RAWDATA!I9</f>
         <v>0</v>
       </c>
       <c r="H11" s="19">
-        <f>RAWDATA!I9</f>
+        <f>RAWDATA!J9</f>
         <v>0</v>
       </c>
       <c r="I11" s="19">
-        <f>RAWDATA!J9</f>
+        <f>RAWDATA!K9</f>
         <v>0</v>
       </c>
       <c r="J11" s="17" t="str">
-        <f>UPPER(Notenliste!O9)</f>
+        <f>UPPER(Notenliste!Q9)</f>
         <v/>
       </c>
       <c r="K11" s="17" t="str">
@@ -6553,12 +6740,12 @@
         <v>0</v>
       </c>
       <c r="N11" s="17" t="str">
-        <f>UPPER(Notenliste!Q9)</f>
+        <f>UPPER(Notenliste!S9)</f>
         <v/>
       </c>
       <c r="O11" s="62"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="17">
         <v>9</v>
       </c>
@@ -6579,23 +6766,23 @@
         <v>0</v>
       </c>
       <c r="F12" s="18">
-        <f>RAWDATA!G10</f>
+        <f>RAWDATA!H10</f>
         <v>0</v>
       </c>
       <c r="G12" s="18">
-        <f>RAWDATA!H10</f>
+        <f>RAWDATA!I10</f>
         <v>0</v>
       </c>
       <c r="H12" s="19">
-        <f>RAWDATA!I10</f>
+        <f>RAWDATA!J10</f>
         <v>0</v>
       </c>
       <c r="I12" s="19">
-        <f>RAWDATA!J10</f>
+        <f>RAWDATA!K10</f>
         <v>0</v>
       </c>
       <c r="J12" s="17" t="str">
-        <f>UPPER(Notenliste!O10)</f>
+        <f>UPPER(Notenliste!Q10)</f>
         <v/>
       </c>
       <c r="K12" s="17" t="str">
@@ -6611,12 +6798,12 @@
         <v>0</v>
       </c>
       <c r="N12" s="17" t="str">
-        <f>UPPER(Notenliste!Q10)</f>
+        <f>UPPER(Notenliste!S10)</f>
         <v/>
       </c>
       <c r="O12" s="62"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="17">
         <v>10</v>
       </c>
@@ -6637,23 +6824,23 @@
         <v>0</v>
       </c>
       <c r="F13" s="18">
-        <f>RAWDATA!G11</f>
+        <f>RAWDATA!H11</f>
         <v>0</v>
       </c>
       <c r="G13" s="18">
-        <f>RAWDATA!H11</f>
+        <f>RAWDATA!I11</f>
         <v>0</v>
       </c>
       <c r="H13" s="19">
-        <f>RAWDATA!I11</f>
+        <f>RAWDATA!J11</f>
         <v>0</v>
       </c>
       <c r="I13" s="19">
-        <f>RAWDATA!J11</f>
+        <f>RAWDATA!K11</f>
         <v>0</v>
       </c>
       <c r="J13" s="17" t="str">
-        <f>UPPER(Notenliste!O11)</f>
+        <f>UPPER(Notenliste!Q11)</f>
         <v/>
       </c>
       <c r="K13" s="17" t="str">
@@ -6669,12 +6856,12 @@
         <v>0</v>
       </c>
       <c r="N13" s="17" t="str">
-        <f>UPPER(Notenliste!Q11)</f>
+        <f>UPPER(Notenliste!S11)</f>
         <v/>
       </c>
       <c r="O13" s="62"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="17">
         <v>11</v>
       </c>
@@ -6695,23 +6882,23 @@
         <v>0</v>
       </c>
       <c r="F14" s="18">
-        <f>RAWDATA!G12</f>
+        <f>RAWDATA!H12</f>
         <v>0</v>
       </c>
       <c r="G14" s="18">
-        <f>RAWDATA!H12</f>
+        <f>RAWDATA!I12</f>
         <v>0</v>
       </c>
       <c r="H14" s="19">
-        <f>RAWDATA!I12</f>
+        <f>RAWDATA!J12</f>
         <v>0</v>
       </c>
       <c r="I14" s="19">
-        <f>RAWDATA!J12</f>
+        <f>RAWDATA!K12</f>
         <v>0</v>
       </c>
       <c r="J14" s="17" t="str">
-        <f>UPPER(Notenliste!O12)</f>
+        <f>UPPER(Notenliste!Q12)</f>
         <v/>
       </c>
       <c r="K14" s="17" t="str">
@@ -6727,12 +6914,12 @@
         <v>0</v>
       </c>
       <c r="N14" s="17" t="str">
-        <f>UPPER(Notenliste!Q12)</f>
+        <f>UPPER(Notenliste!S12)</f>
         <v/>
       </c>
       <c r="O14" s="62"/>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="17">
         <v>12</v>
       </c>
@@ -6753,23 +6940,23 @@
         <v>0</v>
       </c>
       <c r="F15" s="18">
-        <f>RAWDATA!G13</f>
+        <f>RAWDATA!H13</f>
         <v>0</v>
       </c>
       <c r="G15" s="18">
-        <f>RAWDATA!H13</f>
+        <f>RAWDATA!I13</f>
         <v>0</v>
       </c>
       <c r="H15" s="19">
-        <f>RAWDATA!I13</f>
+        <f>RAWDATA!J13</f>
         <v>0</v>
       </c>
       <c r="I15" s="19">
-        <f>RAWDATA!J13</f>
+        <f>RAWDATA!K13</f>
         <v>0</v>
       </c>
       <c r="J15" s="17" t="str">
-        <f>UPPER(Notenliste!O13)</f>
+        <f>UPPER(Notenliste!Q13)</f>
         <v/>
       </c>
       <c r="K15" s="17" t="str">
@@ -6785,12 +6972,12 @@
         <v>0</v>
       </c>
       <c r="N15" s="17" t="str">
-        <f>UPPER(Notenliste!Q13)</f>
+        <f>UPPER(Notenliste!S13)</f>
         <v/>
       </c>
       <c r="O15" s="62"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="17">
         <v>13</v>
       </c>
@@ -6811,23 +6998,23 @@
         <v>0</v>
       </c>
       <c r="F16" s="18">
-        <f>RAWDATA!G14</f>
+        <f>RAWDATA!H14</f>
         <v>0</v>
       </c>
       <c r="G16" s="18">
-        <f>RAWDATA!H14</f>
+        <f>RAWDATA!I14</f>
         <v>0</v>
       </c>
       <c r="H16" s="19">
-        <f>RAWDATA!I14</f>
+        <f>RAWDATA!J14</f>
         <v>0</v>
       </c>
       <c r="I16" s="19">
-        <f>RAWDATA!J14</f>
+        <f>RAWDATA!K14</f>
         <v>0</v>
       </c>
       <c r="J16" s="17" t="str">
-        <f>UPPER(Notenliste!O14)</f>
+        <f>UPPER(Notenliste!Q14)</f>
         <v/>
       </c>
       <c r="K16" s="17" t="str">
@@ -6843,12 +7030,12 @@
         <v>0</v>
       </c>
       <c r="N16" s="17" t="str">
-        <f>UPPER(Notenliste!Q14)</f>
+        <f>UPPER(Notenliste!S14)</f>
         <v/>
       </c>
       <c r="O16" s="62"/>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="17">
         <v>14</v>
       </c>
@@ -6869,23 +7056,23 @@
         <v>0</v>
       </c>
       <c r="F17" s="18">
-        <f>RAWDATA!G15</f>
+        <f>RAWDATA!H15</f>
         <v>0</v>
       </c>
       <c r="G17" s="18">
-        <f>RAWDATA!H15</f>
+        <f>RAWDATA!I15</f>
         <v>0</v>
       </c>
       <c r="H17" s="19">
-        <f>RAWDATA!I15</f>
+        <f>RAWDATA!J15</f>
         <v>0</v>
       </c>
       <c r="I17" s="19">
-        <f>RAWDATA!J15</f>
+        <f>RAWDATA!K15</f>
         <v>0</v>
       </c>
       <c r="J17" s="17" t="str">
-        <f>UPPER(Notenliste!O15)</f>
+        <f>UPPER(Notenliste!Q15)</f>
         <v/>
       </c>
       <c r="K17" s="17" t="str">
@@ -6901,12 +7088,12 @@
         <v>0</v>
       </c>
       <c r="N17" s="17" t="str">
-        <f>UPPER(Notenliste!Q15)</f>
+        <f>UPPER(Notenliste!S15)</f>
         <v/>
       </c>
       <c r="O17" s="62"/>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="17">
         <v>15</v>
       </c>
@@ -6927,23 +7114,23 @@
         <v>0</v>
       </c>
       <c r="F18" s="18">
-        <f>RAWDATA!G16</f>
+        <f>RAWDATA!H16</f>
         <v>0</v>
       </c>
       <c r="G18" s="18">
-        <f>RAWDATA!H16</f>
+        <f>RAWDATA!I16</f>
         <v>0</v>
       </c>
       <c r="H18" s="19">
-        <f>RAWDATA!I16</f>
+        <f>RAWDATA!J16</f>
         <v>0</v>
       </c>
       <c r="I18" s="19">
-        <f>RAWDATA!J16</f>
+        <f>RAWDATA!K16</f>
         <v>0</v>
       </c>
       <c r="J18" s="17" t="str">
-        <f>UPPER(Notenliste!O16)</f>
+        <f>UPPER(Notenliste!Q16)</f>
         <v/>
       </c>
       <c r="K18" s="17" t="str">
@@ -6959,12 +7146,12 @@
         <v>0</v>
       </c>
       <c r="N18" s="17" t="str">
-        <f>UPPER(Notenliste!Q16)</f>
+        <f>UPPER(Notenliste!S16)</f>
         <v/>
       </c>
       <c r="O18" s="62"/>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="17">
         <v>16</v>
       </c>
@@ -6985,23 +7172,23 @@
         <v>0</v>
       </c>
       <c r="F19" s="18">
-        <f>RAWDATA!G17</f>
+        <f>RAWDATA!H17</f>
         <v>0</v>
       </c>
       <c r="G19" s="18">
-        <f>RAWDATA!H17</f>
+        <f>RAWDATA!I17</f>
         <v>0</v>
       </c>
       <c r="H19" s="19">
-        <f>RAWDATA!I17</f>
+        <f>RAWDATA!J17</f>
         <v>0</v>
       </c>
       <c r="I19" s="19">
-        <f>RAWDATA!J17</f>
+        <f>RAWDATA!K17</f>
         <v>0</v>
       </c>
       <c r="J19" s="17" t="str">
-        <f>UPPER(Notenliste!O17)</f>
+        <f>UPPER(Notenliste!Q17)</f>
         <v/>
       </c>
       <c r="K19" s="17" t="str">
@@ -7017,12 +7204,12 @@
         <v>0</v>
       </c>
       <c r="N19" s="17" t="str">
-        <f>UPPER(Notenliste!Q17)</f>
+        <f>UPPER(Notenliste!S17)</f>
         <v/>
       </c>
       <c r="O19" s="62"/>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="17">
         <v>17</v>
       </c>
@@ -7043,23 +7230,23 @@
         <v>0</v>
       </c>
       <c r="F20" s="18">
-        <f>RAWDATA!G18</f>
+        <f>RAWDATA!H18</f>
         <v>0</v>
       </c>
       <c r="G20" s="18">
-        <f>RAWDATA!H18</f>
+        <f>RAWDATA!I18</f>
         <v>0</v>
       </c>
       <c r="H20" s="19">
-        <f>RAWDATA!I18</f>
+        <f>RAWDATA!J18</f>
         <v>0</v>
       </c>
       <c r="I20" s="19">
-        <f>RAWDATA!J18</f>
+        <f>RAWDATA!K18</f>
         <v>0</v>
       </c>
       <c r="J20" s="17" t="str">
-        <f>UPPER(Notenliste!O18)</f>
+        <f>UPPER(Notenliste!Q18)</f>
         <v/>
       </c>
       <c r="K20" s="17" t="str">
@@ -7075,12 +7262,12 @@
         <v>0</v>
       </c>
       <c r="N20" s="17" t="str">
-        <f>UPPER(Notenliste!Q18)</f>
+        <f>UPPER(Notenliste!S18)</f>
         <v/>
       </c>
       <c r="O20" s="62"/>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="17">
         <v>18</v>
       </c>
@@ -7101,23 +7288,23 @@
         <v>0</v>
       </c>
       <c r="F21" s="18">
-        <f>RAWDATA!G19</f>
+        <f>RAWDATA!H19</f>
         <v>0</v>
       </c>
       <c r="G21" s="18">
-        <f>RAWDATA!H19</f>
+        <f>RAWDATA!I19</f>
         <v>0</v>
       </c>
       <c r="H21" s="19">
-        <f>RAWDATA!I19</f>
+        <f>RAWDATA!J19</f>
         <v>0</v>
       </c>
       <c r="I21" s="19">
-        <f>RAWDATA!J19</f>
+        <f>RAWDATA!K19</f>
         <v>0</v>
       </c>
       <c r="J21" s="17" t="str">
-        <f>UPPER(Notenliste!O19)</f>
+        <f>UPPER(Notenliste!Q19)</f>
         <v/>
       </c>
       <c r="K21" s="17" t="str">
@@ -7133,12 +7320,12 @@
         <v>0</v>
       </c>
       <c r="N21" s="17" t="str">
-        <f>UPPER(Notenliste!Q19)</f>
+        <f>UPPER(Notenliste!S19)</f>
         <v/>
       </c>
       <c r="O21" s="62"/>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="17">
         <v>19</v>
       </c>
@@ -7159,23 +7346,23 @@
         <v>0</v>
       </c>
       <c r="F22" s="18">
-        <f>RAWDATA!G20</f>
+        <f>RAWDATA!H20</f>
         <v>0</v>
       </c>
       <c r="G22" s="18">
-        <f>RAWDATA!H20</f>
+        <f>RAWDATA!I20</f>
         <v>0</v>
       </c>
       <c r="H22" s="19">
-        <f>RAWDATA!I20</f>
+        <f>RAWDATA!J20</f>
         <v>0</v>
       </c>
       <c r="I22" s="19">
-        <f>RAWDATA!J20</f>
+        <f>RAWDATA!K20</f>
         <v>0</v>
       </c>
       <c r="J22" s="17" t="str">
-        <f>UPPER(Notenliste!O20)</f>
+        <f>UPPER(Notenliste!Q20)</f>
         <v/>
       </c>
       <c r="K22" s="17" t="str">
@@ -7191,12 +7378,12 @@
         <v>0</v>
       </c>
       <c r="N22" s="17" t="str">
-        <f>UPPER(Notenliste!Q20)</f>
+        <f>UPPER(Notenliste!S20)</f>
         <v/>
       </c>
       <c r="O22" s="62"/>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="17">
         <v>20</v>
       </c>
@@ -7217,23 +7404,23 @@
         <v>0</v>
       </c>
       <c r="F23" s="18">
-        <f>RAWDATA!G21</f>
+        <f>RAWDATA!H21</f>
         <v>0</v>
       </c>
       <c r="G23" s="18">
-        <f>RAWDATA!H21</f>
+        <f>RAWDATA!I21</f>
         <v>0</v>
       </c>
       <c r="H23" s="19">
-        <f>RAWDATA!I21</f>
+        <f>RAWDATA!J21</f>
         <v>0</v>
       </c>
       <c r="I23" s="19">
-        <f>RAWDATA!J21</f>
+        <f>RAWDATA!K21</f>
         <v>0</v>
       </c>
       <c r="J23" s="17" t="str">
-        <f>UPPER(Notenliste!O21)</f>
+        <f>UPPER(Notenliste!Q21)</f>
         <v/>
       </c>
       <c r="K23" s="17" t="str">
@@ -7249,12 +7436,12 @@
         <v>0</v>
       </c>
       <c r="N23" s="17" t="str">
-        <f>UPPER(Notenliste!Q21)</f>
+        <f>UPPER(Notenliste!S21)</f>
         <v/>
       </c>
       <c r="O23" s="62"/>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="17">
         <v>21</v>
       </c>
@@ -7275,23 +7462,23 @@
         <v>0</v>
       </c>
       <c r="F24" s="18">
-        <f>RAWDATA!G22</f>
+        <f>RAWDATA!H22</f>
         <v>0</v>
       </c>
       <c r="G24" s="18">
-        <f>RAWDATA!H22</f>
+        <f>RAWDATA!I22</f>
         <v>0</v>
       </c>
       <c r="H24" s="19">
-        <f>RAWDATA!I22</f>
+        <f>RAWDATA!J22</f>
         <v>0</v>
       </c>
       <c r="I24" s="19">
-        <f>RAWDATA!J22</f>
+        <f>RAWDATA!K22</f>
         <v>0</v>
       </c>
       <c r="J24" s="17" t="str">
-        <f>UPPER(Notenliste!O22)</f>
+        <f>UPPER(Notenliste!Q22)</f>
         <v/>
       </c>
       <c r="K24" s="17" t="str">
@@ -7307,12 +7494,12 @@
         <v>0</v>
       </c>
       <c r="N24" s="17" t="str">
-        <f>UPPER(Notenliste!Q22)</f>
+        <f>UPPER(Notenliste!S22)</f>
         <v/>
       </c>
       <c r="O24" s="62"/>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="17">
         <v>22</v>
       </c>
@@ -7333,23 +7520,23 @@
         <v>0</v>
       </c>
       <c r="F25" s="18">
-        <f>RAWDATA!G23</f>
+        <f>RAWDATA!H23</f>
         <v>0</v>
       </c>
       <c r="G25" s="18">
-        <f>RAWDATA!H23</f>
+        <f>RAWDATA!I23</f>
         <v>0</v>
       </c>
       <c r="H25" s="19">
-        <f>RAWDATA!I23</f>
+        <f>RAWDATA!J23</f>
         <v>0</v>
       </c>
       <c r="I25" s="19">
-        <f>RAWDATA!J23</f>
+        <f>RAWDATA!K23</f>
         <v>0</v>
       </c>
       <c r="J25" s="17" t="str">
-        <f>UPPER(Notenliste!O23)</f>
+        <f>UPPER(Notenliste!Q23)</f>
         <v/>
       </c>
       <c r="K25" s="17" t="str">
@@ -7365,12 +7552,12 @@
         <v>0</v>
       </c>
       <c r="N25" s="17" t="str">
-        <f>UPPER(Notenliste!Q23)</f>
+        <f>UPPER(Notenliste!S23)</f>
         <v/>
       </c>
       <c r="O25" s="62"/>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="17">
         <v>23</v>
       </c>
@@ -7391,23 +7578,23 @@
         <v>0</v>
       </c>
       <c r="F26" s="18">
-        <f>RAWDATA!G24</f>
+        <f>RAWDATA!H24</f>
         <v>0</v>
       </c>
       <c r="G26" s="18">
-        <f>RAWDATA!H24</f>
+        <f>RAWDATA!I24</f>
         <v>0</v>
       </c>
       <c r="H26" s="19">
-        <f>RAWDATA!I24</f>
+        <f>RAWDATA!J24</f>
         <v>0</v>
       </c>
       <c r="I26" s="19">
-        <f>RAWDATA!J24</f>
+        <f>RAWDATA!K24</f>
         <v>0</v>
       </c>
       <c r="J26" s="17" t="str">
-        <f>UPPER(Notenliste!O24)</f>
+        <f>UPPER(Notenliste!Q24)</f>
         <v/>
       </c>
       <c r="K26" s="17" t="str">
@@ -7423,12 +7610,12 @@
         <v>0</v>
       </c>
       <c r="N26" s="17" t="str">
-        <f>UPPER(Notenliste!Q24)</f>
+        <f>UPPER(Notenliste!S24)</f>
         <v/>
       </c>
       <c r="O26" s="62"/>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="17">
         <v>24</v>
       </c>
@@ -7449,23 +7636,23 @@
         <v>0</v>
       </c>
       <c r="F27" s="18">
-        <f>RAWDATA!G25</f>
+        <f>RAWDATA!H25</f>
         <v>0</v>
       </c>
       <c r="G27" s="18">
-        <f>RAWDATA!H25</f>
+        <f>RAWDATA!I25</f>
         <v>0</v>
       </c>
       <c r="H27" s="19">
-        <f>RAWDATA!I25</f>
+        <f>RAWDATA!J25</f>
         <v>0</v>
       </c>
       <c r="I27" s="19">
-        <f>RAWDATA!J25</f>
+        <f>RAWDATA!K25</f>
         <v>0</v>
       </c>
       <c r="J27" s="17" t="str">
-        <f>UPPER(Notenliste!O25)</f>
+        <f>UPPER(Notenliste!Q25)</f>
         <v/>
       </c>
       <c r="K27" s="17" t="str">
@@ -7481,12 +7668,12 @@
         <v>0</v>
       </c>
       <c r="N27" s="17" t="str">
-        <f>UPPER(Notenliste!Q25)</f>
+        <f>UPPER(Notenliste!S25)</f>
         <v/>
       </c>
       <c r="O27" s="62"/>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="17">
         <v>25</v>
       </c>
@@ -7507,23 +7694,23 @@
         <v>0</v>
       </c>
       <c r="F28" s="18">
-        <f>RAWDATA!G26</f>
+        <f>RAWDATA!H26</f>
         <v>0</v>
       </c>
       <c r="G28" s="18">
-        <f>RAWDATA!H26</f>
+        <f>RAWDATA!I26</f>
         <v>0</v>
       </c>
       <c r="H28" s="19">
-        <f>RAWDATA!I26</f>
+        <f>RAWDATA!J26</f>
         <v>0</v>
       </c>
       <c r="I28" s="19">
-        <f>RAWDATA!J26</f>
+        <f>RAWDATA!K26</f>
         <v>0</v>
       </c>
       <c r="J28" s="17" t="str">
-        <f>UPPER(Notenliste!O26)</f>
+        <f>UPPER(Notenliste!Q26)</f>
         <v/>
       </c>
       <c r="K28" s="17" t="str">
@@ -7539,12 +7726,12 @@
         <v>0</v>
       </c>
       <c r="N28" s="17" t="str">
-        <f>UPPER(Notenliste!Q26)</f>
+        <f>UPPER(Notenliste!S26)</f>
         <v/>
       </c>
       <c r="O28" s="62"/>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="59"/>
       <c r="B29" s="60"/>
       <c r="C29" s="60"/>
@@ -7567,7 +7754,7 @@
       <c r="N29" s="59"/>
       <c r="O29" s="62"/>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="93" t="s">
         <v>43</v>
       </c>
@@ -7586,7 +7773,7 @@
       <c r="N30" s="93"/>
       <c r="O30" s="62"/>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="93"/>
       <c r="B31" s="93"/>
       <c r="C31" s="93"/>
@@ -7603,7 +7790,7 @@
       <c r="N31" s="93"/>
       <c r="O31" s="62"/>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="93"/>
       <c r="B32" s="93"/>
       <c r="C32" s="93"/>
@@ -7620,7 +7807,7 @@
       <c r="N32" s="93"/>
       <c r="O32" s="62"/>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" s="93"/>
       <c r="B33" s="93"/>
       <c r="C33" s="93"/>
@@ -7637,7 +7824,7 @@
       <c r="N33" s="93"/>
       <c r="O33" s="62"/>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" s="93"/>
       <c r="B34" s="93"/>
       <c r="C34" s="93"/>
@@ -7673,7 +7860,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Tabelle5">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -7683,24 +7870,24 @@
       <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.44140625" customWidth="1"/>
-    <col min="4" max="4" width="6.44140625" style="20" customWidth="1"/>
-    <col min="5" max="5" width="9.6640625" style="20" customWidth="1"/>
-    <col min="6" max="6" width="0.6640625" style="20" customWidth="1"/>
-    <col min="7" max="20" width="4.6640625" style="20" customWidth="1"/>
-    <col min="21" max="21" width="0.6640625" style="20" customWidth="1"/>
-    <col min="22" max="22" width="5.6640625" style="52" customWidth="1"/>
-    <col min="23" max="23" width="5.6640625" style="53" customWidth="1"/>
-    <col min="24" max="24" width="5.6640625" style="37" customWidth="1"/>
+    <col min="1" max="1" width="3.7109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.42578125" customWidth="1"/>
+    <col min="4" max="4" width="6.42578125" style="20" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" style="20" customWidth="1"/>
+    <col min="6" max="6" width="0.7109375" style="20" customWidth="1"/>
+    <col min="7" max="20" width="4.7109375" style="20" customWidth="1"/>
+    <col min="21" max="21" width="0.7109375" style="20" customWidth="1"/>
+    <col min="22" max="22" width="5.7109375" style="52" customWidth="1"/>
+    <col min="23" max="23" width="5.7109375" style="53" customWidth="1"/>
+    <col min="24" max="24" width="5.7109375" style="37" customWidth="1"/>
     <col min="25" max="31" width="0" hidden="1" customWidth="1"/>
-    <col min="32" max="16384" width="11.44140625" hidden="1"/>
+    <col min="32" max="16384" width="11.42578125" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:24" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="97" t="str">
         <f>Notenliste!B34&amp;Notenliste!B35</f>
         <v>course.namecourse.alternative</v>
@@ -7729,7 +7916,7 @@
       <c r="W1" s="97"/>
       <c r="X1" s="97"/>
     </row>
-    <row r="2" spans="1:24" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:24" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="97" t="s">
         <v>41</v>
       </c>
@@ -7757,10 +7944,10 @@
       <c r="W2" s="97"/>
       <c r="X2" s="97"/>
     </row>
-    <row r="3" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="98" t="str">
         <f>"Dozent/in: "&amp;Notenliste!B31</f>
-        <v>Dozent/in: Elena Moya Royo</v>
+        <v>Dozent/in: course.teacher_name</v>
       </c>
       <c r="B3" s="98"/>
       <c r="C3" s="98"/>
@@ -7786,7 +7973,7 @@
       <c r="W3" s="96"/>
       <c r="X3" s="96"/>
     </row>
-    <row r="4" spans="1:24" s="16" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:24" s="16" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="94" t="s">
         <v>24</v>
       </c>
@@ -7828,7 +8015,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="5" spans="1:24" s="16" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:24" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="95"/>
       <c r="B5" s="95"/>
       <c r="C5" s="95"/>
@@ -7882,7 +8069,7 @@
       <c r="W5" s="102"/>
       <c r="X5" s="102"/>
     </row>
-    <row r="6" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6" s="17">
         <v>1</v>
       </c>
@@ -7922,7 +8109,7 @@
       <c r="W6" s="51"/>
       <c r="X6" s="51"/>
     </row>
-    <row r="7" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7" s="17">
         <v>2</v>
       </c>
@@ -7962,7 +8149,7 @@
       <c r="W7" s="51"/>
       <c r="X7" s="51"/>
     </row>
-    <row r="8" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8" s="17">
         <v>3</v>
       </c>
@@ -8002,7 +8189,7 @@
       <c r="W8" s="51"/>
       <c r="X8" s="51"/>
     </row>
-    <row r="9" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9" s="17">
         <v>4</v>
       </c>
@@ -8042,7 +8229,7 @@
       <c r="W9" s="51"/>
       <c r="X9" s="51"/>
     </row>
-    <row r="10" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A10" s="17">
         <v>5</v>
       </c>
@@ -8082,7 +8269,7 @@
       <c r="W10" s="51"/>
       <c r="X10" s="51"/>
     </row>
-    <row r="11" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A11" s="17">
         <v>6</v>
       </c>
@@ -8122,7 +8309,7 @@
       <c r="W11" s="51"/>
       <c r="X11" s="51"/>
     </row>
-    <row r="12" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A12" s="17">
         <v>7</v>
       </c>
@@ -8162,7 +8349,7 @@
       <c r="W12" s="51"/>
       <c r="X12" s="51"/>
     </row>
-    <row r="13" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A13" s="17">
         <v>8</v>
       </c>
@@ -8202,7 +8389,7 @@
       <c r="W13" s="51"/>
       <c r="X13" s="51"/>
     </row>
-    <row r="14" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A14" s="17">
         <v>9</v>
       </c>
@@ -8242,7 +8429,7 @@
       <c r="W14" s="51"/>
       <c r="X14" s="51"/>
     </row>
-    <row r="15" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A15" s="17">
         <v>10</v>
       </c>
@@ -8282,7 +8469,7 @@
       <c r="W15" s="51"/>
       <c r="X15" s="51"/>
     </row>
-    <row r="16" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A16" s="17">
         <v>11</v>
       </c>
@@ -8322,7 +8509,7 @@
       <c r="W16" s="51"/>
       <c r="X16" s="51"/>
     </row>
-    <row r="17" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A17" s="17">
         <v>12</v>
       </c>
@@ -8362,7 +8549,7 @@
       <c r="W17" s="51"/>
       <c r="X17" s="51"/>
     </row>
-    <row r="18" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A18" s="17">
         <v>13</v>
       </c>
@@ -8402,7 +8589,7 @@
       <c r="W18" s="51"/>
       <c r="X18" s="51"/>
     </row>
-    <row r="19" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A19" s="17">
         <v>14</v>
       </c>
@@ -8442,7 +8629,7 @@
       <c r="W19" s="51"/>
       <c r="X19" s="51"/>
     </row>
-    <row r="20" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A20" s="17">
         <v>15</v>
       </c>
@@ -8482,7 +8669,7 @@
       <c r="W20" s="51"/>
       <c r="X20" s="51"/>
     </row>
-    <row r="21" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A21" s="17">
         <v>16</v>
       </c>
@@ -8522,7 +8709,7 @@
       <c r="W21" s="51"/>
       <c r="X21" s="51"/>
     </row>
-    <row r="22" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A22" s="17">
         <v>17</v>
       </c>
@@ -8562,7 +8749,7 @@
       <c r="W22" s="51"/>
       <c r="X22" s="51"/>
     </row>
-    <row r="23" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A23" s="17">
         <v>18</v>
       </c>
@@ -8602,7 +8789,7 @@
       <c r="W23" s="51"/>
       <c r="X23" s="51"/>
     </row>
-    <row r="24" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A24" s="17">
         <v>19</v>
       </c>
@@ -8642,7 +8829,7 @@
       <c r="W24" s="51"/>
       <c r="X24" s="51"/>
     </row>
-    <row r="25" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A25" s="17">
         <v>20</v>
       </c>
@@ -8682,7 +8869,7 @@
       <c r="W25" s="51"/>
       <c r="X25" s="51"/>
     </row>
-    <row r="26" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A26" s="17">
         <v>21</v>
       </c>
@@ -8722,7 +8909,7 @@
       <c r="W26" s="51"/>
       <c r="X26" s="51"/>
     </row>
-    <row r="27" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A27" s="17">
         <v>22</v>
       </c>
@@ -8762,7 +8949,7 @@
       <c r="W27" s="51"/>
       <c r="X27" s="51"/>
     </row>
-    <row r="28" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A28" s="17">
         <v>23</v>
       </c>
@@ -8802,7 +8989,7 @@
       <c r="W28" s="51"/>
       <c r="X28" s="51"/>
     </row>
-    <row r="29" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A29" s="17">
         <v>24</v>
       </c>
@@ -8842,7 +9029,7 @@
       <c r="W29" s="51"/>
       <c r="X29" s="51"/>
     </row>
-    <row r="30" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A30" s="17">
         <v>25</v>
       </c>
@@ -8909,25 +9096,25 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Tabelle6"/>
   <dimension ref="A1:H26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18" style="13" customWidth="1"/>
-    <col min="2" max="2" width="12.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.44140625" style="66" customWidth="1"/>
-    <col min="5" max="5" width="18.109375" style="65" customWidth="1"/>
-    <col min="6" max="7" width="19.6640625" customWidth="1"/>
-    <col min="8" max="8" width="46.44140625" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" style="66" customWidth="1"/>
+    <col min="5" max="5" width="18.140625" style="65" customWidth="1"/>
+    <col min="6" max="7" width="19.7109375" customWidth="1"/>
+    <col min="8" max="8" width="46.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>25</v>
       </c>
@@ -8953,17 +9140,17 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="str">
         <f>IF(Notenliste!D2=0," ",Notenliste!D2)</f>
         <v>applicant.tag</v>
       </c>
       <c r="C2" t="str">
-        <f>IF(Notenliste!D2&lt;&gt;0,Notenliste!$B$33," ")</f>
-        <v>course.ects_points</v>
+        <f>IF(Notenliste!D2&lt;&gt;0,IF(Notenliste!P2&lt;&gt;0,Notenliste!P2,Notenliste!$B$33)," ")</f>
+        <v>applicant.ects_points</v>
       </c>
       <c r="D2" s="69" t="e">
-        <f>IF(Notenliste!F2="KP"," ",IF(Notenliste!F2="NB","nicht bestanden",Notenliste!F2))</f>
+        <f>IF(Notenliste!D2=0," ",IF(Notenliste!F2="KP"," ",IF(Notenliste!F2="NB","nicht bestanden",Notenliste!F2)))</f>
         <v>#VALUE!</v>
       </c>
       <c r="E2" s="65" t="str">
@@ -8971,17 +9158,17 @@
         <v>exam_date</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="str">
         <f>IF(Notenliste!D3=0," ",Notenliste!D3)</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="C3" t="str">
-        <f>IF(Notenliste!D3&lt;&gt;0,Notenliste!$B$33," ")</f>
+        <f>IF(Notenliste!D3&lt;&gt;0,IF(Notenliste!P3&lt;&gt;0,Notenliste!P3,Notenliste!$B$33)," ")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="D3" s="69" t="str">
-        <f>IF(Notenliste!F3="KP"," ",IF(Notenliste!F3="NB","nicht bestanden",Notenliste!F3))</f>
+        <f>IF(Notenliste!D3=0," ",IF(Notenliste!F3="KP"," ",IF(Notenliste!F3="NB","nicht bestanden",Notenliste!F3)))</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="E3" s="65" t="str">
@@ -8989,17 +9176,17 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="str">
         <f>IF(Notenliste!D4=0," ",Notenliste!D4)</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="C4" t="str">
-        <f>IF(Notenliste!D4&lt;&gt;0,Notenliste!$B$33," ")</f>
+        <f>IF(Notenliste!D4&lt;&gt;0,IF(Notenliste!P4&lt;&gt;0,Notenliste!P4,Notenliste!$B$33)," ")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="D4" s="69" t="str">
-        <f>IF(Notenliste!F4="KP"," ",IF(Notenliste!F4="NB","nicht bestanden",Notenliste!F4))</f>
+        <f>IF(Notenliste!D4=0," ",IF(Notenliste!F4="KP"," ",IF(Notenliste!F4="NB","nicht bestanden",Notenliste!F4)))</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="E4" s="65" t="str">
@@ -9007,17 +9194,17 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="str">
         <f>IF(Notenliste!D5=0," ",Notenliste!D5)</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="C5" t="str">
-        <f>IF(Notenliste!D5&lt;&gt;0,Notenliste!$B$33," ")</f>
+        <f>IF(Notenliste!D5&lt;&gt;0,IF(Notenliste!P5&lt;&gt;0,Notenliste!P5,Notenliste!$B$33)," ")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="D5" s="69" t="str">
-        <f>IF(Notenliste!F5="KP"," ",IF(Notenliste!F5="NB","nicht bestanden",Notenliste!F5))</f>
+        <f>IF(Notenliste!D5=0," ",IF(Notenliste!F5="KP"," ",IF(Notenliste!F5="NB","nicht bestanden",Notenliste!F5)))</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="E5" s="65" t="str">
@@ -9025,17 +9212,17 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="str">
         <f>IF(Notenliste!D6=0," ",Notenliste!D6)</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="C6" t="str">
-        <f>IF(Notenliste!D6&lt;&gt;0,Notenliste!$B$33," ")</f>
+        <f>IF(Notenliste!D6&lt;&gt;0,IF(Notenliste!P6&lt;&gt;0,Notenliste!P6,Notenliste!$B$33)," ")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="D6" s="69" t="str">
-        <f>IF(Notenliste!F6="KP"," ",IF(Notenliste!F6="NB","nicht bestanden",Notenliste!F6))</f>
+        <f>IF(Notenliste!D6=0," ",IF(Notenliste!F6="KP"," ",IF(Notenliste!F6="NB","nicht bestanden",Notenliste!F6)))</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="E6" s="65" t="str">
@@ -9043,17 +9230,17 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="str">
         <f>IF(Notenliste!D7=0," ",Notenliste!D7)</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="C7" t="str">
-        <f>IF(Notenliste!D7&lt;&gt;0,Notenliste!$B$33," ")</f>
+        <f>IF(Notenliste!D7&lt;&gt;0,IF(Notenliste!P7&lt;&gt;0,Notenliste!P7,Notenliste!$B$33)," ")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="D7" s="69" t="str">
-        <f>IF(Notenliste!F7="KP"," ",IF(Notenliste!F7="NB","nicht bestanden",Notenliste!F7))</f>
+        <f>IF(Notenliste!D7=0," ",IF(Notenliste!F7="KP"," ",IF(Notenliste!F7="NB","nicht bestanden",Notenliste!F7)))</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="E7" s="65" t="str">
@@ -9061,17 +9248,17 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="str">
         <f>IF(Notenliste!D8=0," ",Notenliste!D8)</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="C8" t="str">
-        <f>IF(Notenliste!D8&lt;&gt;0,Notenliste!$B$33," ")</f>
+        <f>IF(Notenliste!D8&lt;&gt;0,IF(Notenliste!P8&lt;&gt;0,Notenliste!P8,Notenliste!$B$33)," ")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="D8" s="69" t="str">
-        <f>IF(Notenliste!F8="KP"," ",IF(Notenliste!F8="NB","nicht bestanden",Notenliste!F8))</f>
+        <f>IF(Notenliste!D8=0," ",IF(Notenliste!F8="KP"," ",IF(Notenliste!F8="NB","nicht bestanden",Notenliste!F8)))</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="E8" s="65" t="str">
@@ -9079,17 +9266,17 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="str">
         <f>IF(Notenliste!D9=0," ",Notenliste!D9)</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="C9" t="str">
-        <f>IF(Notenliste!D9&lt;&gt;0,Notenliste!$B$33," ")</f>
+        <f>IF(Notenliste!D9&lt;&gt;0,IF(Notenliste!P9&lt;&gt;0,Notenliste!P9,Notenliste!$B$33)," ")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="D9" s="69" t="str">
-        <f>IF(Notenliste!F9="KP"," ",IF(Notenliste!F9="NB","nicht bestanden",Notenliste!F9))</f>
+        <f>IF(Notenliste!D9=0," ",IF(Notenliste!F9="KP"," ",IF(Notenliste!F9="NB","nicht bestanden",Notenliste!F9)))</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="E9" s="65" t="str">
@@ -9097,17 +9284,17 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="str">
         <f>IF(Notenliste!D10=0," ",Notenliste!D10)</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="C10" t="str">
-        <f>IF(Notenliste!D10&lt;&gt;0,Notenliste!$B$33," ")</f>
+        <f>IF(Notenliste!D10&lt;&gt;0,IF(Notenliste!P10&lt;&gt;0,Notenliste!P10,Notenliste!$B$33)," ")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="D10" s="69" t="str">
-        <f>IF(Notenliste!F10="KP"," ",IF(Notenliste!F10="NB","nicht bestanden",Notenliste!F10))</f>
+        <f>IF(Notenliste!D10=0," ",IF(Notenliste!F10="KP"," ",IF(Notenliste!F10="NB","nicht bestanden",Notenliste!F10)))</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="E10" s="65" t="str">
@@ -9115,17 +9302,17 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="str">
         <f>IF(Notenliste!D11=0," ",Notenliste!D11)</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="C11" t="str">
-        <f>IF(Notenliste!D11&lt;&gt;0,Notenliste!$B$33," ")</f>
+        <f>IF(Notenliste!D11&lt;&gt;0,IF(Notenliste!P11&lt;&gt;0,Notenliste!P11,Notenliste!$B$33)," ")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="D11" s="69" t="str">
-        <f>IF(Notenliste!F11="KP"," ",IF(Notenliste!F11="NB","nicht bestanden",Notenliste!F11))</f>
+        <f>IF(Notenliste!D11=0," ",IF(Notenliste!F11="KP"," ",IF(Notenliste!F11="NB","nicht bestanden",Notenliste!F11)))</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="E11" s="65" t="str">
@@ -9133,17 +9320,17 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="str">
         <f>IF(Notenliste!D12=0," ",Notenliste!D12)</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="C12" t="str">
-        <f>IF(Notenliste!D12&lt;&gt;0,Notenliste!$B$33," ")</f>
+        <f>IF(Notenliste!D12&lt;&gt;0,IF(Notenliste!P12&lt;&gt;0,Notenliste!P12,Notenliste!$B$33)," ")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="D12" s="69" t="str">
-        <f>IF(Notenliste!F12="KP"," ",IF(Notenliste!F12="NB","nicht bestanden",Notenliste!F12))</f>
+        <f>IF(Notenliste!D12=0," ",IF(Notenliste!F12="KP"," ",IF(Notenliste!F12="NB","nicht bestanden",Notenliste!F12)))</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="E12" s="65" t="str">
@@ -9151,17 +9338,17 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="13" t="str">
         <f>IF(Notenliste!D13=0," ",Notenliste!D13)</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="C13" t="str">
-        <f>IF(Notenliste!D13&lt;&gt;0,Notenliste!$B$33," ")</f>
+        <f>IF(Notenliste!D13&lt;&gt;0,IF(Notenliste!P13&lt;&gt;0,Notenliste!P13,Notenliste!$B$33)," ")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="D13" s="69" t="str">
-        <f>IF(Notenliste!F13="KP"," ",IF(Notenliste!F13="NB","nicht bestanden",Notenliste!F13))</f>
+        <f>IF(Notenliste!D13=0," ",IF(Notenliste!F13="KP"," ",IF(Notenliste!F13="NB","nicht bestanden",Notenliste!F13)))</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="E13" s="65" t="str">
@@ -9169,17 +9356,17 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="13" t="str">
         <f>IF(Notenliste!D14=0," ",Notenliste!D14)</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="C14" t="str">
-        <f>IF(Notenliste!D14&lt;&gt;0,Notenliste!$B$33," ")</f>
+        <f>IF(Notenliste!D14&lt;&gt;0,IF(Notenliste!P14&lt;&gt;0,Notenliste!P14,Notenliste!$B$33)," ")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="D14" s="69" t="str">
-        <f>IF(Notenliste!F14="KP"," ",IF(Notenliste!F14="NB","nicht bestanden",Notenliste!F14))</f>
+        <f>IF(Notenliste!D14=0," ",IF(Notenliste!F14="KP"," ",IF(Notenliste!F14="NB","nicht bestanden",Notenliste!F14)))</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="E14" s="65" t="str">
@@ -9187,17 +9374,17 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="13" t="str">
         <f>IF(Notenliste!D15=0," ",Notenliste!D15)</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="C15" t="str">
-        <f>IF(Notenliste!D15&lt;&gt;0,Notenliste!$B$33," ")</f>
+        <f>IF(Notenliste!D15&lt;&gt;0,IF(Notenliste!P15&lt;&gt;0,Notenliste!P15,Notenliste!$B$33)," ")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="D15" s="69" t="str">
-        <f>IF(Notenliste!F15="KP"," ",IF(Notenliste!F15="NB","nicht bestanden",Notenliste!F15))</f>
+        <f>IF(Notenliste!D15=0," ",IF(Notenliste!F15="KP"," ",IF(Notenliste!F15="NB","nicht bestanden",Notenliste!F15)))</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="E15" s="65" t="str">
@@ -9205,17 +9392,17 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="13" t="str">
         <f>IF(Notenliste!D16=0," ",Notenliste!D16)</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="C16" t="str">
-        <f>IF(Notenliste!D16&lt;&gt;0,Notenliste!$B$33," ")</f>
+        <f>IF(Notenliste!D16&lt;&gt;0,IF(Notenliste!P16&lt;&gt;0,Notenliste!P16,Notenliste!$B$33)," ")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="D16" s="69" t="str">
-        <f>IF(Notenliste!F16="KP"," ",IF(Notenliste!F16="NB","nicht bestanden",Notenliste!F16))</f>
+        <f>IF(Notenliste!D16=0," ",IF(Notenliste!F16="KP"," ",IF(Notenliste!F16="NB","nicht bestanden",Notenliste!F16)))</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="E16" s="65" t="str">
@@ -9223,17 +9410,17 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="13" t="str">
         <f>IF(Notenliste!D17=0," ",Notenliste!D17)</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="C17" t="str">
-        <f>IF(Notenliste!D17&lt;&gt;0,Notenliste!$B$33," ")</f>
+        <f>IF(Notenliste!D17&lt;&gt;0,IF(Notenliste!P17&lt;&gt;0,Notenliste!P17,Notenliste!$B$33)," ")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="D17" s="69" t="str">
-        <f>IF(Notenliste!F17="KP"," ",IF(Notenliste!F17="NB","nicht bestanden",Notenliste!F17))</f>
+        <f>IF(Notenliste!D17=0," ",IF(Notenliste!F17="KP"," ",IF(Notenliste!F17="NB","nicht bestanden",Notenliste!F17)))</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="E17" s="65" t="str">
@@ -9241,17 +9428,17 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="13" t="str">
         <f>IF(Notenliste!D18=0," ",Notenliste!D18)</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="C18" t="str">
-        <f>IF(Notenliste!D18&lt;&gt;0,Notenliste!$B$33," ")</f>
+        <f>IF(Notenliste!D18&lt;&gt;0,IF(Notenliste!P18&lt;&gt;0,Notenliste!P18,Notenliste!$B$33)," ")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="D18" s="69" t="str">
-        <f>IF(Notenliste!F18="KP"," ",IF(Notenliste!F18="NB","nicht bestanden",Notenliste!F18))</f>
+        <f>IF(Notenliste!D18=0," ",IF(Notenliste!F18="KP"," ",IF(Notenliste!F18="NB","nicht bestanden",Notenliste!F18)))</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="E18" s="65" t="str">
@@ -9259,17 +9446,17 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="13" t="str">
         <f>IF(Notenliste!D19=0," ",Notenliste!D19)</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="C19" t="str">
-        <f>IF(Notenliste!D19&lt;&gt;0,Notenliste!$B$33," ")</f>
+        <f>IF(Notenliste!D19&lt;&gt;0,IF(Notenliste!P19&lt;&gt;0,Notenliste!P19,Notenliste!$B$33)," ")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="D19" s="69" t="str">
-        <f>IF(Notenliste!F19="KP"," ",IF(Notenliste!F19="NB","nicht bestanden",Notenliste!F19))</f>
+        <f>IF(Notenliste!D19=0," ",IF(Notenliste!F19="KP"," ",IF(Notenliste!F19="NB","nicht bestanden",Notenliste!F19)))</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="E19" s="65" t="str">
@@ -9277,17 +9464,17 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="13" t="str">
         <f>IF(Notenliste!D20=0," ",Notenliste!D20)</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="C20" t="str">
-        <f>IF(Notenliste!D20&lt;&gt;0,Notenliste!$B$33," ")</f>
+        <f>IF(Notenliste!D20&lt;&gt;0,IF(Notenliste!P20&lt;&gt;0,Notenliste!P20,Notenliste!$B$33)," ")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="D20" s="69" t="str">
-        <f>IF(Notenliste!F20="KP"," ",IF(Notenliste!F20="NB","nicht bestanden",Notenliste!F20))</f>
+        <f>IF(Notenliste!D20=0," ",IF(Notenliste!F20="KP"," ",IF(Notenliste!F20="NB","nicht bestanden",Notenliste!F20)))</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="E20" s="65" t="str">
@@ -9295,17 +9482,17 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="13" t="str">
         <f>IF(Notenliste!D21=0," ",Notenliste!D21)</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="C21" t="str">
-        <f>IF(Notenliste!D21&lt;&gt;0,Notenliste!$B$33," ")</f>
+        <f>IF(Notenliste!D21&lt;&gt;0,IF(Notenliste!P21&lt;&gt;0,Notenliste!P21,Notenliste!$B$33)," ")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="D21" s="69" t="str">
-        <f>IF(Notenliste!F21="KP"," ",IF(Notenliste!F21="NB","nicht bestanden",Notenliste!F21))</f>
+        <f>IF(Notenliste!D21=0," ",IF(Notenliste!F21="KP"," ",IF(Notenliste!F21="NB","nicht bestanden",Notenliste!F21)))</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="E21" s="65" t="str">
@@ -9313,17 +9500,17 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="13" t="str">
         <f>IF(Notenliste!D22=0," ",Notenliste!D22)</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="C22" t="str">
-        <f>IF(Notenliste!D22&lt;&gt;0,Notenliste!$B$33," ")</f>
+        <f>IF(Notenliste!D22&lt;&gt;0,IF(Notenliste!P22&lt;&gt;0,Notenliste!P22,Notenliste!$B$33)," ")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="D22" s="69" t="str">
-        <f>IF(Notenliste!F22="KP"," ",IF(Notenliste!F22="NB","nicht bestanden",Notenliste!F22))</f>
+        <f>IF(Notenliste!D22=0," ",IF(Notenliste!F22="KP"," ",IF(Notenliste!F22="NB","nicht bestanden",Notenliste!F22)))</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="E22" s="65" t="str">
@@ -9331,17 +9518,17 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="13" t="str">
         <f>IF(Notenliste!D23=0," ",Notenliste!D23)</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="C23" t="str">
-        <f>IF(Notenliste!D23&lt;&gt;0,Notenliste!$B$33," ")</f>
+        <f>IF(Notenliste!D23&lt;&gt;0,IF(Notenliste!P23&lt;&gt;0,Notenliste!P23,Notenliste!$B$33)," ")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="D23" s="69" t="str">
-        <f>IF(Notenliste!F23="KP"," ",IF(Notenliste!F23="NB","nicht bestanden",Notenliste!F23))</f>
+        <f>IF(Notenliste!D23=0," ",IF(Notenliste!F23="KP"," ",IF(Notenliste!F23="NB","nicht bestanden",Notenliste!F23)))</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="E23" s="65" t="str">
@@ -9349,17 +9536,17 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="13" t="str">
         <f>IF(Notenliste!D24=0," ",Notenliste!D24)</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="C24" t="str">
-        <f>IF(Notenliste!D24&lt;&gt;0,Notenliste!$B$33," ")</f>
+        <f>IF(Notenliste!D24&lt;&gt;0,IF(Notenliste!P24&lt;&gt;0,Notenliste!P24,Notenliste!$B$33)," ")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="D24" s="69" t="str">
-        <f>IF(Notenliste!F24="KP"," ",IF(Notenliste!F24="NB","nicht bestanden",Notenliste!F24))</f>
+        <f>IF(Notenliste!D24=0," ",IF(Notenliste!F24="KP"," ",IF(Notenliste!F24="NB","nicht bestanden",Notenliste!F24)))</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="E24" s="65" t="str">
@@ -9367,17 +9554,17 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="13" t="str">
         <f>IF(Notenliste!D25=0," ",Notenliste!D25)</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="C25" t="str">
-        <f>IF(Notenliste!D25&lt;&gt;0,Notenliste!$B$33," ")</f>
+        <f>IF(Notenliste!D25&lt;&gt;0,IF(Notenliste!P25&lt;&gt;0,Notenliste!P25,Notenliste!$B$33)," ")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="D25" s="69" t="str">
-        <f>IF(Notenliste!F25="KP"," ",IF(Notenliste!F25="NB","nicht bestanden",Notenliste!F25))</f>
+        <f>IF(Notenliste!D25=0," ",IF(Notenliste!F25="KP"," ",IF(Notenliste!F25="NB","nicht bestanden",Notenliste!F25)))</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="E25" s="65" t="str">
@@ -9385,17 +9572,17 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="13" t="str">
         <f>IF(Notenliste!D26=0," ",Notenliste!D26)</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="C26" t="str">
-        <f>IF(Notenliste!D26&lt;&gt;0,Notenliste!$B$33," ")</f>
+        <f>IF(Notenliste!D26&lt;&gt;0,IF(Notenliste!P26&lt;&gt;0,Notenliste!P26,Notenliste!$B$33)," ")</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="D26" s="69" t="str">
-        <f>IF(Notenliste!F26="KP"," ",IF(Notenliste!F26="NB","nicht bestanden",Notenliste!F26))</f>
+        <f>IF(Notenliste!D26=0," ",IF(Notenliste!F26="KP"," ",IF(Notenliste!F26="NB","nicht bestanden",Notenliste!F26)))</f>
         <v xml:space="preserve"> </v>
       </c>
       <c r="E26" s="65" t="str">
@@ -9406,22 +9593,22 @@
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0" sort="0" autoFilter="0"/>
   <dataValidations count="5">
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1 A27:A1048576" xr:uid="{00000000-0002-0000-0600-000000000000}">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1 A27:A1048576">
       <formula1>0</formula1>
       <formula2>99999999</formula2>
     </dataValidation>
-    <dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1 E27:E1048576" xr:uid="{00000000-0002-0000-0600-000001000000}">
+    <dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1 E27:E1048576">
       <formula1>41275</formula1>
       <formula2>73050</formula2>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C27:C1048576" xr:uid="{00000000-0002-0000-0600-000002000000}">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C27:C1048576">
       <formula1>0</formula1>
       <formula2>120</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1" xr:uid="{00000000-0002-0000-0600-000003000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1">
       <formula1>Notenskala</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1" xr:uid="{00000000-0002-0000-0600-000004000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1">
       <formula1>Anmeldestatus</formula1>
     </dataValidation>
   </dataValidations>
@@ -9434,26 +9621,26 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.6640625" customWidth="1"/>
-    <col min="2" max="2" width="22.109375" customWidth="1"/>
-    <col min="3" max="3" width="3.44140625" customWidth="1"/>
-    <col min="4" max="4" width="11.44140625" customWidth="1"/>
-    <col min="5" max="5" width="2.6640625" customWidth="1"/>
-    <col min="6" max="6" width="25.6640625" customWidth="1"/>
-    <col min="7" max="7" width="2.44140625" customWidth="1"/>
-    <col min="8" max="8" width="11.44140625" style="20"/>
+    <col min="1" max="1" width="26.7109375" customWidth="1"/>
+    <col min="2" max="2" width="22.140625" customWidth="1"/>
+    <col min="3" max="3" width="3.42578125" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" customWidth="1"/>
+    <col min="5" max="5" width="2.7109375" customWidth="1"/>
+    <col min="6" max="6" width="25.7109375" customWidth="1"/>
+    <col min="7" max="7" width="2.42578125" customWidth="1"/>
+    <col min="8" max="8" width="11.42578125" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="72" t="s">
         <v>7</v>
       </c>
@@ -9470,7 +9657,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="73" t="s">
         <v>45</v>
       </c>
@@ -9487,7 +9674,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="73" t="s">
         <v>66</v>
       </c>
@@ -9504,7 +9691,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="73" t="s">
         <v>68</v>
       </c>
@@ -9521,7 +9708,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="73" t="s">
         <v>67</v>
       </c>
@@ -9536,7 +9723,7 @@
       </c>
       <c r="H5" s="76"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="73" t="s">
         <v>69</v>
       </c>
@@ -9551,7 +9738,7 @@
       </c>
       <c r="H6" s="76"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="73" t="s">
         <v>70</v>
       </c>
@@ -9566,7 +9753,7 @@
       </c>
       <c r="H7" s="76"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="73" t="s">
         <v>71</v>
       </c>
@@ -9581,7 +9768,7 @@
       </c>
       <c r="H8" s="76"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="73" t="s">
         <v>72</v>
       </c>
@@ -9596,7 +9783,7 @@
       </c>
       <c r="H9" s="76"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="73" t="s">
         <v>108</v>
       </c>
@@ -9611,7 +9798,7 @@
       </c>
       <c r="H10" s="76"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="73" t="s">
         <v>109</v>
       </c>
@@ -9626,7 +9813,7 @@
       </c>
       <c r="H11" s="76"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="73" t="s">
         <v>110</v>
       </c>
@@ -9641,7 +9828,7 @@
       </c>
       <c r="H12" s="76"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="73" t="s">
         <v>111</v>
       </c>
@@ -9656,7 +9843,7 @@
       </c>
       <c r="H13" s="76"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="73"/>
       <c r="B14" s="73"/>
       <c r="D14" s="73" t="s">
@@ -9667,7 +9854,7 @@
       </c>
       <c r="H14" s="76"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="73"/>
       <c r="B15" s="73"/>
       <c r="D15" s="73" t="s">
@@ -9678,7 +9865,7 @@
       </c>
       <c r="H15" s="76"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="73"/>
       <c r="B16" s="73"/>
       <c r="D16" s="73"/>
@@ -9687,7 +9874,7 @@
       </c>
       <c r="H16" s="76"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="73"/>
       <c r="B17" s="73"/>
       <c r="D17" s="73"/>
@@ -9696,7 +9883,7 @@
       </c>
       <c r="H17" s="76"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="73"/>
       <c r="B18" s="73"/>
       <c r="D18" s="73"/>
@@ -9705,14 +9892,14 @@
       </c>
       <c r="H18" s="76"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="73"/>
       <c r="B19" s="73"/>
       <c r="D19" s="73"/>
       <c r="F19" s="73"/>
       <c r="H19" s="76"/>
     </row>
-    <row r="20" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="74"/>
       <c r="B20" s="74"/>
       <c r="D20" s="74"/>

--- a/src/spz/templates/export/spanisch_hueber.xlsx
+++ b/src/spz/templates/export/spanisch_hueber.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27726"/>
   <workbookPr showInkAnnotation="0" updateLinks="never" codeName="DieseArbeitsmappe" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s_hiwi\Documents\Datenbank\excel_templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\04_Hiwi\Datenbank\excel_templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C94F4FF-4A29-4512-A9CE-4A606FCDE4ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450" activeTab="6"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RAWDATA" sheetId="11" r:id="rId1"/>
@@ -24,12 +25,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Notenliste!$H$1:$M$29</definedName>
     <definedName name="DOZENT">OFFSET(Einstellungen!$F$2,,,COUNTIF(Einstellungen!$F$2:$F$20,"&gt;"""),)</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">Extrapunkte!$A$1:$J$30</definedName>
     <definedName name="ECTS">OFFSET(Einstellungen!$H$2,,,COUNTIF(Einstellungen!$H$2:$H$20,"&gt;"""),)</definedName>
     <definedName name="KURSNAME">OFFSET(Einstellungen!$A$2,,,COUNTIF(Einstellungen!$A$2:$A$20,"&gt;"""),)</definedName>
     <definedName name="NIVEAU">OFFSET(Einstellungen!$D$2,,,COUNTIF(Einstellungen!$D$2:$D$22,"&gt;"""),)</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">Extrapunkte!$A$1:$J$30</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -592,19 +593,19 @@
     <t>Gabriela Fahra</t>
   </si>
   <si>
-    <t>applicant.sanitized_grade</t>
-  </si>
-  <si>
     <t>course.teacher_name</t>
   </si>
   <si>
-    <t>applicant.ects_points</t>
+    <t>attendance.sanitized_grade</t>
+  </si>
+  <si>
+    <t>attendance.ects_points</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="#"/>
@@ -1211,37 +1212,10 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
-    <cellStyle name="Standard 2" xfId="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="20">
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
     <dxf>
       <font>
         <condense val="0"/>
@@ -1265,6 +1239,33 @@
           <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <protection locked="0" hidden="0"/>
@@ -1317,7 +1318,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="de-DE"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1567,51 +1568,51 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="DATA" displayName="DATA" ref="B1:I2" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18">
-  <autoFilter ref="B1:I2"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="DATA" displayName="DATA" ref="B1:I2" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18">
+  <autoFilter ref="B1:I2" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="8">
-    <tableColumn id="1" name="Nachname" dataDxfId="17"/>
-    <tableColumn id="2" name="Vorname" dataDxfId="16"/>
-    <tableColumn id="3" name="Hochschule" dataDxfId="15"/>
-    <tableColumn id="4" name="Matrikelnummer" dataDxfId="14"/>
-    <tableColumn id="7" name="Note" dataDxfId="13"/>
-    <tableColumn id="9" name="LP" dataDxfId="12"/>
-    <tableColumn id="5" name="E-Mail" dataDxfId="11"/>
-    <tableColumn id="6" name="Telefon" dataDxfId="10"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Nachname" dataDxfId="17"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Vorname" dataDxfId="16"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Hochschule" dataDxfId="15"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Matrikelnummer" dataDxfId="14"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Note" dataDxfId="13"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="LP" dataDxfId="12"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="E-Mail" dataDxfId="11"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Telefon" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabelle1" displayName="Tabelle1" ref="A1:H26" totalsRowShown="0">
-  <autoFilter ref="A1:H26"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tabelle1" displayName="Tabelle1" ref="A1:H26" totalsRowShown="0">
+  <autoFilter ref="A1:H26" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="8">
-    <tableColumn id="1" name="Matrikelnummer" dataDxfId="7" totalsRowDxfId="6">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Matrikelnummer" dataDxfId="9" totalsRowDxfId="8">
       <calculatedColumnFormula>IF(Notenliste!D2=0," ",Notenliste!D2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="Status"/>
-    <tableColumn id="3" name="LP" dataDxfId="0">
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Status"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="LP" dataDxfId="7">
       <calculatedColumnFormula>IF(Notenliste!D2&lt;&gt;0,IF(Notenliste!P2&lt;&gt;0,Notenliste!P2,Notenliste!$B$33)," ")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="Note" dataDxfId="5" totalsRowDxfId="4">
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Note" dataDxfId="6" totalsRowDxfId="5">
       <calculatedColumnFormula>IF(Notenliste!D2=0," ",IF(Notenliste!F2="KP"," ",IF(Notenliste!F2="NB","nicht bestanden",Notenliste!F2)))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="Datum" dataDxfId="3">
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="Datum" dataDxfId="4">
       <calculatedColumnFormula>IF(Notenliste!D2&lt;&gt;0,Notenliste!$B$37," ")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Individueller Titel deutsch" dataDxfId="2"/>
-    <tableColumn id="7" name="Individueller Titel englisch" dataDxfId="1"/>
-    <tableColumn id="8" name="Anmerkungen"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Individueller Titel deutsch" dataDxfId="3"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="Individueller Titel englisch" dataDxfId="2"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="Anmerkungen"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1649,9 +1650,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1686,7 +1687,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1721,7 +1722,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1894,30 +1895,30 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Tabelle1"/>
   <dimension ref="A1:K26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4" zeroHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="3" customWidth="1"/>
-    <col min="2" max="2" width="28.28515625" customWidth="1"/>
-    <col min="3" max="3" width="26.42578125" customWidth="1"/>
+    <col min="2" max="2" width="28.33203125" customWidth="1"/>
+    <col min="3" max="3" width="26.44140625" customWidth="1"/>
     <col min="4" max="4" width="14" customWidth="1"/>
-    <col min="5" max="5" width="18.42578125" style="13" customWidth="1"/>
-    <col min="6" max="7" width="8.140625" style="13" customWidth="1"/>
-    <col min="8" max="8" width="37.140625" customWidth="1"/>
+    <col min="5" max="5" width="18.44140625" style="13" customWidth="1"/>
+    <col min="6" max="7" width="8.109375" style="13" customWidth="1"/>
+    <col min="8" max="8" width="37.109375" customWidth="1"/>
     <col min="9" max="9" width="31" customWidth="1"/>
-    <col min="10" max="10" width="45.140625" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="10.28515625" hidden="1" customWidth="1"/>
-    <col min="12" max="16384" width="11.42578125" hidden="1"/>
+    <col min="10" max="10" width="45.109375" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="10.33203125" hidden="1" customWidth="1"/>
+    <col min="12" max="16384" width="11.44140625" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="39" t="s">
         <v>24</v>
       </c>
@@ -1952,7 +1953,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1969,7 +1970,7 @@
         <v>117</v>
       </c>
       <c r="F2" s="37" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G2" s="37" t="s">
         <v>142</v>
@@ -1983,7 +1984,7 @@
       <c r="J2" s="37"/>
       <c r="K2" s="37"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1998,7 +1999,7 @@
       <c r="J3" s="37"/>
       <c r="K3" s="37"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2013,7 +2014,7 @@
       <c r="J4" s="37"/>
       <c r="K4" s="37"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2028,7 +2029,7 @@
       <c r="J5" s="37"/>
       <c r="K5" s="37"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2043,7 +2044,7 @@
       <c r="J6" s="37"/>
       <c r="K6" s="37"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2058,7 +2059,7 @@
       <c r="J7" s="37"/>
       <c r="K7" s="37"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -2073,7 +2074,7 @@
       <c r="J8" s="37"/>
       <c r="K8" s="37"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -2088,7 +2089,7 @@
       <c r="J9" s="37"/>
       <c r="K9" s="37"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -2103,7 +2104,7 @@
       <c r="J10" s="37"/>
       <c r="K10" s="37"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -2118,7 +2119,7 @@
       <c r="J11" s="37"/>
       <c r="K11" s="37"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -2133,7 +2134,7 @@
       <c r="J12" s="37"/>
       <c r="K12" s="37"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -2148,7 +2149,7 @@
       <c r="J13" s="37"/>
       <c r="K13" s="37"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -2163,7 +2164,7 @@
       <c r="J14" s="37"/>
       <c r="K14" s="37"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -2178,7 +2179,7 @@
       <c r="J15" s="37"/>
       <c r="K15" s="37"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -2193,7 +2194,7 @@
       <c r="J16" s="37"/>
       <c r="K16" s="37"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
@@ -2208,7 +2209,7 @@
       <c r="J17" s="37"/>
       <c r="K17" s="37"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
@@ -2223,7 +2224,7 @@
       <c r="J18" s="37"/>
       <c r="K18" s="37"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
@@ -2238,7 +2239,7 @@
       <c r="J19" s="37"/>
       <c r="K19" s="37"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
@@ -2253,7 +2254,7 @@
       <c r="J20" s="37"/>
       <c r="K20" s="37"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
@@ -2268,7 +2269,7 @@
       <c r="J21" s="37"/>
       <c r="K21" s="37"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
@@ -2283,7 +2284,7 @@
       <c r="J22" s="37"/>
       <c r="K22" s="37"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
@@ -2298,7 +2299,7 @@
       <c r="J23" s="37"/>
       <c r="K23" s="37"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
@@ -2313,7 +2314,7 @@
       <c r="J24" s="37"/>
       <c r="K24" s="37"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
@@ -2328,7 +2329,7 @@
       <c r="J25" s="37"/>
       <c r="K25" s="37"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
@@ -2354,7 +2355,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Tabelle2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -2364,543 +2365,543 @@
       <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="13.9" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="13.95" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.42578125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="18.28515625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="10.7109375" style="3" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" style="11" customWidth="1"/>
-    <col min="6" max="6" width="8.42578125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="2.28515625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="6.140625" style="2" customWidth="1"/>
-    <col min="9" max="10" width="5.7109375" style="2" customWidth="1"/>
-    <col min="11" max="11" width="8.140625" style="2" customWidth="1"/>
-    <col min="12" max="12" width="7.42578125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="15.44140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.33203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="11.44140625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="10.6640625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="11.44140625" style="11" customWidth="1"/>
+    <col min="6" max="6" width="8.44140625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="2.33203125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="6.109375" style="2" customWidth="1"/>
+    <col min="9" max="10" width="5.6640625" style="2" customWidth="1"/>
+    <col min="11" max="11" width="8.109375" style="2" customWidth="1"/>
+    <col min="12" max="12" width="7.44140625" style="2" customWidth="1"/>
     <col min="13" max="13" width="8" style="2" customWidth="1"/>
-    <col min="14" max="15" width="2.7109375" style="1" customWidth="1"/>
-    <col min="16" max="16" width="5.7109375" style="2" customWidth="1"/>
-    <col min="17" max="17" width="5.7109375" style="1" customWidth="1"/>
-    <col min="18" max="18" width="5.7109375" style="2" customWidth="1"/>
-    <col min="19" max="19" width="5.7109375" style="1" customWidth="1"/>
-    <col min="20" max="20" width="2.7109375" style="1" customWidth="1"/>
-    <col min="21" max="21" width="17.7109375" style="1" hidden="1"/>
+    <col min="14" max="15" width="2.6640625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="5.6640625" style="2" customWidth="1"/>
+    <col min="17" max="17" width="5.6640625" style="1" customWidth="1"/>
+    <col min="18" max="18" width="5.6640625" style="2" customWidth="1"/>
+    <col min="19" max="19" width="5.6640625" style="1" customWidth="1"/>
+    <col min="20" max="20" width="2.6640625" style="1" customWidth="1"/>
+    <col min="21" max="21" width="17.6640625" style="1" hidden="1"/>
     <col min="22" max="22" width="16" style="1" hidden="1"/>
-    <col min="23" max="23" width="17.7109375" style="1" hidden="1"/>
+    <col min="23" max="23" width="17.6640625" style="1" hidden="1"/>
     <col min="24" max="24" width="3" style="1" hidden="1"/>
-    <col min="25" max="249" width="11.42578125" style="1" hidden="1"/>
-    <col min="250" max="250" width="15.42578125" style="1" hidden="1"/>
-    <col min="251" max="251" width="11.42578125" style="1" hidden="1"/>
-    <col min="252" max="252" width="15.7109375" style="1" hidden="1"/>
-    <col min="253" max="253" width="21.7109375" style="1" hidden="1"/>
-    <col min="254" max="256" width="11.42578125" style="1" hidden="1"/>
+    <col min="25" max="249" width="11.44140625" style="1" hidden="1"/>
+    <col min="250" max="250" width="15.44140625" style="1" hidden="1"/>
+    <col min="251" max="251" width="11.44140625" style="1" hidden="1"/>
+    <col min="252" max="252" width="15.6640625" style="1" hidden="1"/>
+    <col min="253" max="253" width="21.6640625" style="1" hidden="1"/>
+    <col min="254" max="256" width="11.44140625" style="1" hidden="1"/>
     <col min="257" max="257" width="16" style="1" hidden="1"/>
-    <col min="258" max="258" width="20.42578125" style="1" hidden="1"/>
-    <col min="259" max="505" width="11.42578125" style="1" hidden="1"/>
-    <col min="506" max="506" width="15.42578125" style="1" hidden="1"/>
-    <col min="507" max="507" width="11.42578125" style="1" hidden="1"/>
-    <col min="508" max="508" width="15.7109375" style="1" hidden="1"/>
-    <col min="509" max="509" width="21.7109375" style="1" hidden="1"/>
-    <col min="510" max="512" width="11.42578125" style="1" hidden="1"/>
+    <col min="258" max="258" width="20.44140625" style="1" hidden="1"/>
+    <col min="259" max="505" width="11.44140625" style="1" hidden="1"/>
+    <col min="506" max="506" width="15.44140625" style="1" hidden="1"/>
+    <col min="507" max="507" width="11.44140625" style="1" hidden="1"/>
+    <col min="508" max="508" width="15.6640625" style="1" hidden="1"/>
+    <col min="509" max="509" width="21.6640625" style="1" hidden="1"/>
+    <col min="510" max="512" width="11.44140625" style="1" hidden="1"/>
     <col min="513" max="513" width="16" style="1" hidden="1"/>
-    <col min="514" max="514" width="20.42578125" style="1" hidden="1"/>
-    <col min="515" max="761" width="11.42578125" style="1" hidden="1"/>
-    <col min="762" max="762" width="15.42578125" style="1" hidden="1"/>
-    <col min="763" max="763" width="11.42578125" style="1" hidden="1"/>
-    <col min="764" max="764" width="15.7109375" style="1" hidden="1"/>
-    <col min="765" max="765" width="21.7109375" style="1" hidden="1"/>
-    <col min="766" max="768" width="11.42578125" style="1" hidden="1"/>
+    <col min="514" max="514" width="20.44140625" style="1" hidden="1"/>
+    <col min="515" max="761" width="11.44140625" style="1" hidden="1"/>
+    <col min="762" max="762" width="15.44140625" style="1" hidden="1"/>
+    <col min="763" max="763" width="11.44140625" style="1" hidden="1"/>
+    <col min="764" max="764" width="15.6640625" style="1" hidden="1"/>
+    <col min="765" max="765" width="21.6640625" style="1" hidden="1"/>
+    <col min="766" max="768" width="11.44140625" style="1" hidden="1"/>
     <col min="769" max="769" width="16" style="1" hidden="1"/>
-    <col min="770" max="770" width="20.42578125" style="1" hidden="1"/>
-    <col min="771" max="1017" width="11.42578125" style="1" hidden="1"/>
-    <col min="1018" max="1018" width="15.42578125" style="1" hidden="1"/>
-    <col min="1019" max="1019" width="11.42578125" style="1" hidden="1"/>
-    <col min="1020" max="1020" width="15.7109375" style="1" hidden="1"/>
-    <col min="1021" max="1021" width="21.7109375" style="1" hidden="1"/>
-    <col min="1022" max="1024" width="11.42578125" style="1" hidden="1"/>
+    <col min="770" max="770" width="20.44140625" style="1" hidden="1"/>
+    <col min="771" max="1017" width="11.44140625" style="1" hidden="1"/>
+    <col min="1018" max="1018" width="15.44140625" style="1" hidden="1"/>
+    <col min="1019" max="1019" width="11.44140625" style="1" hidden="1"/>
+    <col min="1020" max="1020" width="15.6640625" style="1" hidden="1"/>
+    <col min="1021" max="1021" width="21.6640625" style="1" hidden="1"/>
+    <col min="1022" max="1024" width="11.44140625" style="1" hidden="1"/>
     <col min="1025" max="1025" width="16" style="1" hidden="1"/>
-    <col min="1026" max="1026" width="20.42578125" style="1" hidden="1"/>
-    <col min="1027" max="1273" width="11.42578125" style="1" hidden="1"/>
-    <col min="1274" max="1274" width="15.42578125" style="1" hidden="1"/>
-    <col min="1275" max="1275" width="11.42578125" style="1" hidden="1"/>
-    <col min="1276" max="1276" width="15.7109375" style="1" hidden="1"/>
-    <col min="1277" max="1277" width="21.7109375" style="1" hidden="1"/>
-    <col min="1278" max="1280" width="11.42578125" style="1" hidden="1"/>
+    <col min="1026" max="1026" width="20.44140625" style="1" hidden="1"/>
+    <col min="1027" max="1273" width="11.44140625" style="1" hidden="1"/>
+    <col min="1274" max="1274" width="15.44140625" style="1" hidden="1"/>
+    <col min="1275" max="1275" width="11.44140625" style="1" hidden="1"/>
+    <col min="1276" max="1276" width="15.6640625" style="1" hidden="1"/>
+    <col min="1277" max="1277" width="21.6640625" style="1" hidden="1"/>
+    <col min="1278" max="1280" width="11.44140625" style="1" hidden="1"/>
     <col min="1281" max="1281" width="16" style="1" hidden="1"/>
-    <col min="1282" max="1282" width="20.42578125" style="1" hidden="1"/>
-    <col min="1283" max="1529" width="11.42578125" style="1" hidden="1"/>
-    <col min="1530" max="1530" width="15.42578125" style="1" hidden="1"/>
-    <col min="1531" max="1531" width="11.42578125" style="1" hidden="1"/>
-    <col min="1532" max="1532" width="15.7109375" style="1" hidden="1"/>
-    <col min="1533" max="1533" width="21.7109375" style="1" hidden="1"/>
-    <col min="1534" max="1536" width="11.42578125" style="1" hidden="1"/>
+    <col min="1282" max="1282" width="20.44140625" style="1" hidden="1"/>
+    <col min="1283" max="1529" width="11.44140625" style="1" hidden="1"/>
+    <col min="1530" max="1530" width="15.44140625" style="1" hidden="1"/>
+    <col min="1531" max="1531" width="11.44140625" style="1" hidden="1"/>
+    <col min="1532" max="1532" width="15.6640625" style="1" hidden="1"/>
+    <col min="1533" max="1533" width="21.6640625" style="1" hidden="1"/>
+    <col min="1534" max="1536" width="11.44140625" style="1" hidden="1"/>
     <col min="1537" max="1537" width="16" style="1" hidden="1"/>
-    <col min="1538" max="1538" width="20.42578125" style="1" hidden="1"/>
-    <col min="1539" max="1785" width="11.42578125" style="1" hidden="1"/>
-    <col min="1786" max="1786" width="15.42578125" style="1" hidden="1"/>
-    <col min="1787" max="1787" width="11.42578125" style="1" hidden="1"/>
-    <col min="1788" max="1788" width="15.7109375" style="1" hidden="1"/>
-    <col min="1789" max="1789" width="21.7109375" style="1" hidden="1"/>
-    <col min="1790" max="1792" width="11.42578125" style="1" hidden="1"/>
+    <col min="1538" max="1538" width="20.44140625" style="1" hidden="1"/>
+    <col min="1539" max="1785" width="11.44140625" style="1" hidden="1"/>
+    <col min="1786" max="1786" width="15.44140625" style="1" hidden="1"/>
+    <col min="1787" max="1787" width="11.44140625" style="1" hidden="1"/>
+    <col min="1788" max="1788" width="15.6640625" style="1" hidden="1"/>
+    <col min="1789" max="1789" width="21.6640625" style="1" hidden="1"/>
+    <col min="1790" max="1792" width="11.44140625" style="1" hidden="1"/>
     <col min="1793" max="1793" width="16" style="1" hidden="1"/>
-    <col min="1794" max="1794" width="20.42578125" style="1" hidden="1"/>
-    <col min="1795" max="2041" width="11.42578125" style="1" hidden="1"/>
-    <col min="2042" max="2042" width="15.42578125" style="1" hidden="1"/>
-    <col min="2043" max="2043" width="11.42578125" style="1" hidden="1"/>
-    <col min="2044" max="2044" width="15.7109375" style="1" hidden="1"/>
-    <col min="2045" max="2045" width="21.7109375" style="1" hidden="1"/>
-    <col min="2046" max="2048" width="11.42578125" style="1" hidden="1"/>
+    <col min="1794" max="1794" width="20.44140625" style="1" hidden="1"/>
+    <col min="1795" max="2041" width="11.44140625" style="1" hidden="1"/>
+    <col min="2042" max="2042" width="15.44140625" style="1" hidden="1"/>
+    <col min="2043" max="2043" width="11.44140625" style="1" hidden="1"/>
+    <col min="2044" max="2044" width="15.6640625" style="1" hidden="1"/>
+    <col min="2045" max="2045" width="21.6640625" style="1" hidden="1"/>
+    <col min="2046" max="2048" width="11.44140625" style="1" hidden="1"/>
     <col min="2049" max="2049" width="16" style="1" hidden="1"/>
-    <col min="2050" max="2050" width="20.42578125" style="1" hidden="1"/>
-    <col min="2051" max="2297" width="11.42578125" style="1" hidden="1"/>
-    <col min="2298" max="2298" width="15.42578125" style="1" hidden="1"/>
-    <col min="2299" max="2299" width="11.42578125" style="1" hidden="1"/>
-    <col min="2300" max="2300" width="15.7109375" style="1" hidden="1"/>
-    <col min="2301" max="2301" width="21.7109375" style="1" hidden="1"/>
-    <col min="2302" max="2304" width="11.42578125" style="1" hidden="1"/>
+    <col min="2050" max="2050" width="20.44140625" style="1" hidden="1"/>
+    <col min="2051" max="2297" width="11.44140625" style="1" hidden="1"/>
+    <col min="2298" max="2298" width="15.44140625" style="1" hidden="1"/>
+    <col min="2299" max="2299" width="11.44140625" style="1" hidden="1"/>
+    <col min="2300" max="2300" width="15.6640625" style="1" hidden="1"/>
+    <col min="2301" max="2301" width="21.6640625" style="1" hidden="1"/>
+    <col min="2302" max="2304" width="11.44140625" style="1" hidden="1"/>
     <col min="2305" max="2305" width="16" style="1" hidden="1"/>
-    <col min="2306" max="2306" width="20.42578125" style="1" hidden="1"/>
-    <col min="2307" max="2553" width="11.42578125" style="1" hidden="1"/>
-    <col min="2554" max="2554" width="15.42578125" style="1" hidden="1"/>
-    <col min="2555" max="2555" width="11.42578125" style="1" hidden="1"/>
-    <col min="2556" max="2556" width="15.7109375" style="1" hidden="1"/>
-    <col min="2557" max="2557" width="21.7109375" style="1" hidden="1"/>
-    <col min="2558" max="2560" width="11.42578125" style="1" hidden="1"/>
+    <col min="2306" max="2306" width="20.44140625" style="1" hidden="1"/>
+    <col min="2307" max="2553" width="11.44140625" style="1" hidden="1"/>
+    <col min="2554" max="2554" width="15.44140625" style="1" hidden="1"/>
+    <col min="2555" max="2555" width="11.44140625" style="1" hidden="1"/>
+    <col min="2556" max="2556" width="15.6640625" style="1" hidden="1"/>
+    <col min="2557" max="2557" width="21.6640625" style="1" hidden="1"/>
+    <col min="2558" max="2560" width="11.44140625" style="1" hidden="1"/>
     <col min="2561" max="2561" width="16" style="1" hidden="1"/>
-    <col min="2562" max="2562" width="20.42578125" style="1" hidden="1"/>
-    <col min="2563" max="2809" width="11.42578125" style="1" hidden="1"/>
-    <col min="2810" max="2810" width="15.42578125" style="1" hidden="1"/>
-    <col min="2811" max="2811" width="11.42578125" style="1" hidden="1"/>
-    <col min="2812" max="2812" width="15.7109375" style="1" hidden="1"/>
-    <col min="2813" max="2813" width="21.7109375" style="1" hidden="1"/>
-    <col min="2814" max="2816" width="11.42578125" style="1" hidden="1"/>
+    <col min="2562" max="2562" width="20.44140625" style="1" hidden="1"/>
+    <col min="2563" max="2809" width="11.44140625" style="1" hidden="1"/>
+    <col min="2810" max="2810" width="15.44140625" style="1" hidden="1"/>
+    <col min="2811" max="2811" width="11.44140625" style="1" hidden="1"/>
+    <col min="2812" max="2812" width="15.6640625" style="1" hidden="1"/>
+    <col min="2813" max="2813" width="21.6640625" style="1" hidden="1"/>
+    <col min="2814" max="2816" width="11.44140625" style="1" hidden="1"/>
     <col min="2817" max="2817" width="16" style="1" hidden="1"/>
-    <col min="2818" max="2818" width="20.42578125" style="1" hidden="1"/>
-    <col min="2819" max="3065" width="11.42578125" style="1" hidden="1"/>
-    <col min="3066" max="3066" width="15.42578125" style="1" hidden="1"/>
-    <col min="3067" max="3067" width="11.42578125" style="1" hidden="1"/>
-    <col min="3068" max="3068" width="15.7109375" style="1" hidden="1"/>
-    <col min="3069" max="3069" width="21.7109375" style="1" hidden="1"/>
-    <col min="3070" max="3072" width="11.42578125" style="1" hidden="1"/>
+    <col min="2818" max="2818" width="20.44140625" style="1" hidden="1"/>
+    <col min="2819" max="3065" width="11.44140625" style="1" hidden="1"/>
+    <col min="3066" max="3066" width="15.44140625" style="1" hidden="1"/>
+    <col min="3067" max="3067" width="11.44140625" style="1" hidden="1"/>
+    <col min="3068" max="3068" width="15.6640625" style="1" hidden="1"/>
+    <col min="3069" max="3069" width="21.6640625" style="1" hidden="1"/>
+    <col min="3070" max="3072" width="11.44140625" style="1" hidden="1"/>
     <col min="3073" max="3073" width="16" style="1" hidden="1"/>
-    <col min="3074" max="3074" width="20.42578125" style="1" hidden="1"/>
-    <col min="3075" max="3321" width="11.42578125" style="1" hidden="1"/>
-    <col min="3322" max="3322" width="15.42578125" style="1" hidden="1"/>
-    <col min="3323" max="3323" width="11.42578125" style="1" hidden="1"/>
-    <col min="3324" max="3324" width="15.7109375" style="1" hidden="1"/>
-    <col min="3325" max="3325" width="21.7109375" style="1" hidden="1"/>
-    <col min="3326" max="3328" width="11.42578125" style="1" hidden="1"/>
+    <col min="3074" max="3074" width="20.44140625" style="1" hidden="1"/>
+    <col min="3075" max="3321" width="11.44140625" style="1" hidden="1"/>
+    <col min="3322" max="3322" width="15.44140625" style="1" hidden="1"/>
+    <col min="3323" max="3323" width="11.44140625" style="1" hidden="1"/>
+    <col min="3324" max="3324" width="15.6640625" style="1" hidden="1"/>
+    <col min="3325" max="3325" width="21.6640625" style="1" hidden="1"/>
+    <col min="3326" max="3328" width="11.44140625" style="1" hidden="1"/>
     <col min="3329" max="3329" width="16" style="1" hidden="1"/>
-    <col min="3330" max="3330" width="20.42578125" style="1" hidden="1"/>
-    <col min="3331" max="3577" width="11.42578125" style="1" hidden="1"/>
-    <col min="3578" max="3578" width="15.42578125" style="1" hidden="1"/>
-    <col min="3579" max="3579" width="11.42578125" style="1" hidden="1"/>
-    <col min="3580" max="3580" width="15.7109375" style="1" hidden="1"/>
-    <col min="3581" max="3581" width="21.7109375" style="1" hidden="1"/>
-    <col min="3582" max="3584" width="11.42578125" style="1" hidden="1"/>
+    <col min="3330" max="3330" width="20.44140625" style="1" hidden="1"/>
+    <col min="3331" max="3577" width="11.44140625" style="1" hidden="1"/>
+    <col min="3578" max="3578" width="15.44140625" style="1" hidden="1"/>
+    <col min="3579" max="3579" width="11.44140625" style="1" hidden="1"/>
+    <col min="3580" max="3580" width="15.6640625" style="1" hidden="1"/>
+    <col min="3581" max="3581" width="21.6640625" style="1" hidden="1"/>
+    <col min="3582" max="3584" width="11.44140625" style="1" hidden="1"/>
     <col min="3585" max="3585" width="16" style="1" hidden="1"/>
-    <col min="3586" max="3586" width="20.42578125" style="1" hidden="1"/>
-    <col min="3587" max="3833" width="11.42578125" style="1" hidden="1"/>
-    <col min="3834" max="3834" width="15.42578125" style="1" hidden="1"/>
-    <col min="3835" max="3835" width="11.42578125" style="1" hidden="1"/>
-    <col min="3836" max="3836" width="15.7109375" style="1" hidden="1"/>
-    <col min="3837" max="3837" width="21.7109375" style="1" hidden="1"/>
-    <col min="3838" max="3840" width="11.42578125" style="1" hidden="1"/>
+    <col min="3586" max="3586" width="20.44140625" style="1" hidden="1"/>
+    <col min="3587" max="3833" width="11.44140625" style="1" hidden="1"/>
+    <col min="3834" max="3834" width="15.44140625" style="1" hidden="1"/>
+    <col min="3835" max="3835" width="11.44140625" style="1" hidden="1"/>
+    <col min="3836" max="3836" width="15.6640625" style="1" hidden="1"/>
+    <col min="3837" max="3837" width="21.6640625" style="1" hidden="1"/>
+    <col min="3838" max="3840" width="11.44140625" style="1" hidden="1"/>
     <col min="3841" max="3841" width="16" style="1" hidden="1"/>
-    <col min="3842" max="3842" width="20.42578125" style="1" hidden="1"/>
-    <col min="3843" max="4089" width="11.42578125" style="1" hidden="1"/>
-    <col min="4090" max="4090" width="15.42578125" style="1" hidden="1"/>
-    <col min="4091" max="4091" width="11.42578125" style="1" hidden="1"/>
-    <col min="4092" max="4092" width="15.7109375" style="1" hidden="1"/>
-    <col min="4093" max="4093" width="21.7109375" style="1" hidden="1"/>
-    <col min="4094" max="4096" width="11.42578125" style="1" hidden="1"/>
+    <col min="3842" max="3842" width="20.44140625" style="1" hidden="1"/>
+    <col min="3843" max="4089" width="11.44140625" style="1" hidden="1"/>
+    <col min="4090" max="4090" width="15.44140625" style="1" hidden="1"/>
+    <col min="4091" max="4091" width="11.44140625" style="1" hidden="1"/>
+    <col min="4092" max="4092" width="15.6640625" style="1" hidden="1"/>
+    <col min="4093" max="4093" width="21.6640625" style="1" hidden="1"/>
+    <col min="4094" max="4096" width="11.44140625" style="1" hidden="1"/>
     <col min="4097" max="4097" width="16" style="1" hidden="1"/>
-    <col min="4098" max="4098" width="20.42578125" style="1" hidden="1"/>
-    <col min="4099" max="4345" width="11.42578125" style="1" hidden="1"/>
-    <col min="4346" max="4346" width="15.42578125" style="1" hidden="1"/>
-    <col min="4347" max="4347" width="11.42578125" style="1" hidden="1"/>
-    <col min="4348" max="4348" width="15.7109375" style="1" hidden="1"/>
-    <col min="4349" max="4349" width="21.7109375" style="1" hidden="1"/>
-    <col min="4350" max="4352" width="11.42578125" style="1" hidden="1"/>
+    <col min="4098" max="4098" width="20.44140625" style="1" hidden="1"/>
+    <col min="4099" max="4345" width="11.44140625" style="1" hidden="1"/>
+    <col min="4346" max="4346" width="15.44140625" style="1" hidden="1"/>
+    <col min="4347" max="4347" width="11.44140625" style="1" hidden="1"/>
+    <col min="4348" max="4348" width="15.6640625" style="1" hidden="1"/>
+    <col min="4349" max="4349" width="21.6640625" style="1" hidden="1"/>
+    <col min="4350" max="4352" width="11.44140625" style="1" hidden="1"/>
     <col min="4353" max="4353" width="16" style="1" hidden="1"/>
-    <col min="4354" max="4354" width="20.42578125" style="1" hidden="1"/>
-    <col min="4355" max="4601" width="11.42578125" style="1" hidden="1"/>
-    <col min="4602" max="4602" width="15.42578125" style="1" hidden="1"/>
-    <col min="4603" max="4603" width="11.42578125" style="1" hidden="1"/>
-    <col min="4604" max="4604" width="15.7109375" style="1" hidden="1"/>
-    <col min="4605" max="4605" width="21.7109375" style="1" hidden="1"/>
-    <col min="4606" max="4608" width="11.42578125" style="1" hidden="1"/>
+    <col min="4354" max="4354" width="20.44140625" style="1" hidden="1"/>
+    <col min="4355" max="4601" width="11.44140625" style="1" hidden="1"/>
+    <col min="4602" max="4602" width="15.44140625" style="1" hidden="1"/>
+    <col min="4603" max="4603" width="11.44140625" style="1" hidden="1"/>
+    <col min="4604" max="4604" width="15.6640625" style="1" hidden="1"/>
+    <col min="4605" max="4605" width="21.6640625" style="1" hidden="1"/>
+    <col min="4606" max="4608" width="11.44140625" style="1" hidden="1"/>
     <col min="4609" max="4609" width="16" style="1" hidden="1"/>
-    <col min="4610" max="4610" width="20.42578125" style="1" hidden="1"/>
-    <col min="4611" max="4857" width="11.42578125" style="1" hidden="1"/>
-    <col min="4858" max="4858" width="15.42578125" style="1" hidden="1"/>
-    <col min="4859" max="4859" width="11.42578125" style="1" hidden="1"/>
-    <col min="4860" max="4860" width="15.7109375" style="1" hidden="1"/>
-    <col min="4861" max="4861" width="21.7109375" style="1" hidden="1"/>
-    <col min="4862" max="4864" width="11.42578125" style="1" hidden="1"/>
+    <col min="4610" max="4610" width="20.44140625" style="1" hidden="1"/>
+    <col min="4611" max="4857" width="11.44140625" style="1" hidden="1"/>
+    <col min="4858" max="4858" width="15.44140625" style="1" hidden="1"/>
+    <col min="4859" max="4859" width="11.44140625" style="1" hidden="1"/>
+    <col min="4860" max="4860" width="15.6640625" style="1" hidden="1"/>
+    <col min="4861" max="4861" width="21.6640625" style="1" hidden="1"/>
+    <col min="4862" max="4864" width="11.44140625" style="1" hidden="1"/>
     <col min="4865" max="4865" width="16" style="1" hidden="1"/>
-    <col min="4866" max="4866" width="20.42578125" style="1" hidden="1"/>
-    <col min="4867" max="5113" width="11.42578125" style="1" hidden="1"/>
-    <col min="5114" max="5114" width="15.42578125" style="1" hidden="1"/>
-    <col min="5115" max="5115" width="11.42578125" style="1" hidden="1"/>
-    <col min="5116" max="5116" width="15.7109375" style="1" hidden="1"/>
-    <col min="5117" max="5117" width="21.7109375" style="1" hidden="1"/>
-    <col min="5118" max="5120" width="11.42578125" style="1" hidden="1"/>
+    <col min="4866" max="4866" width="20.44140625" style="1" hidden="1"/>
+    <col min="4867" max="5113" width="11.44140625" style="1" hidden="1"/>
+    <col min="5114" max="5114" width="15.44140625" style="1" hidden="1"/>
+    <col min="5115" max="5115" width="11.44140625" style="1" hidden="1"/>
+    <col min="5116" max="5116" width="15.6640625" style="1" hidden="1"/>
+    <col min="5117" max="5117" width="21.6640625" style="1" hidden="1"/>
+    <col min="5118" max="5120" width="11.44140625" style="1" hidden="1"/>
     <col min="5121" max="5121" width="16" style="1" hidden="1"/>
-    <col min="5122" max="5122" width="20.42578125" style="1" hidden="1"/>
-    <col min="5123" max="5369" width="11.42578125" style="1" hidden="1"/>
-    <col min="5370" max="5370" width="15.42578125" style="1" hidden="1"/>
-    <col min="5371" max="5371" width="11.42578125" style="1" hidden="1"/>
-    <col min="5372" max="5372" width="15.7109375" style="1" hidden="1"/>
-    <col min="5373" max="5373" width="21.7109375" style="1" hidden="1"/>
-    <col min="5374" max="5376" width="11.42578125" style="1" hidden="1"/>
+    <col min="5122" max="5122" width="20.44140625" style="1" hidden="1"/>
+    <col min="5123" max="5369" width="11.44140625" style="1" hidden="1"/>
+    <col min="5370" max="5370" width="15.44140625" style="1" hidden="1"/>
+    <col min="5371" max="5371" width="11.44140625" style="1" hidden="1"/>
+    <col min="5372" max="5372" width="15.6640625" style="1" hidden="1"/>
+    <col min="5373" max="5373" width="21.6640625" style="1" hidden="1"/>
+    <col min="5374" max="5376" width="11.44140625" style="1" hidden="1"/>
     <col min="5377" max="5377" width="16" style="1" hidden="1"/>
-    <col min="5378" max="5378" width="20.42578125" style="1" hidden="1"/>
-    <col min="5379" max="5625" width="11.42578125" style="1" hidden="1"/>
-    <col min="5626" max="5626" width="15.42578125" style="1" hidden="1"/>
-    <col min="5627" max="5627" width="11.42578125" style="1" hidden="1"/>
-    <col min="5628" max="5628" width="15.7109375" style="1" hidden="1"/>
-    <col min="5629" max="5629" width="21.7109375" style="1" hidden="1"/>
-    <col min="5630" max="5632" width="11.42578125" style="1" hidden="1"/>
+    <col min="5378" max="5378" width="20.44140625" style="1" hidden="1"/>
+    <col min="5379" max="5625" width="11.44140625" style="1" hidden="1"/>
+    <col min="5626" max="5626" width="15.44140625" style="1" hidden="1"/>
+    <col min="5627" max="5627" width="11.44140625" style="1" hidden="1"/>
+    <col min="5628" max="5628" width="15.6640625" style="1" hidden="1"/>
+    <col min="5629" max="5629" width="21.6640625" style="1" hidden="1"/>
+    <col min="5630" max="5632" width="11.44140625" style="1" hidden="1"/>
     <col min="5633" max="5633" width="16" style="1" hidden="1"/>
-    <col min="5634" max="5634" width="20.42578125" style="1" hidden="1"/>
-    <col min="5635" max="5881" width="11.42578125" style="1" hidden="1"/>
-    <col min="5882" max="5882" width="15.42578125" style="1" hidden="1"/>
-    <col min="5883" max="5883" width="11.42578125" style="1" hidden="1"/>
-    <col min="5884" max="5884" width="15.7109375" style="1" hidden="1"/>
-    <col min="5885" max="5885" width="21.7109375" style="1" hidden="1"/>
-    <col min="5886" max="5888" width="11.42578125" style="1" hidden="1"/>
+    <col min="5634" max="5634" width="20.44140625" style="1" hidden="1"/>
+    <col min="5635" max="5881" width="11.44140625" style="1" hidden="1"/>
+    <col min="5882" max="5882" width="15.44140625" style="1" hidden="1"/>
+    <col min="5883" max="5883" width="11.44140625" style="1" hidden="1"/>
+    <col min="5884" max="5884" width="15.6640625" style="1" hidden="1"/>
+    <col min="5885" max="5885" width="21.6640625" style="1" hidden="1"/>
+    <col min="5886" max="5888" width="11.44140625" style="1" hidden="1"/>
     <col min="5889" max="5889" width="16" style="1" hidden="1"/>
-    <col min="5890" max="5890" width="20.42578125" style="1" hidden="1"/>
-    <col min="5891" max="6137" width="11.42578125" style="1" hidden="1"/>
-    <col min="6138" max="6138" width="15.42578125" style="1" hidden="1"/>
-    <col min="6139" max="6139" width="11.42578125" style="1" hidden="1"/>
-    <col min="6140" max="6140" width="15.7109375" style="1" hidden="1"/>
-    <col min="6141" max="6141" width="21.7109375" style="1" hidden="1"/>
-    <col min="6142" max="6144" width="11.42578125" style="1" hidden="1"/>
+    <col min="5890" max="5890" width="20.44140625" style="1" hidden="1"/>
+    <col min="5891" max="6137" width="11.44140625" style="1" hidden="1"/>
+    <col min="6138" max="6138" width="15.44140625" style="1" hidden="1"/>
+    <col min="6139" max="6139" width="11.44140625" style="1" hidden="1"/>
+    <col min="6140" max="6140" width="15.6640625" style="1" hidden="1"/>
+    <col min="6141" max="6141" width="21.6640625" style="1" hidden="1"/>
+    <col min="6142" max="6144" width="11.44140625" style="1" hidden="1"/>
     <col min="6145" max="6145" width="16" style="1" hidden="1"/>
-    <col min="6146" max="6146" width="20.42578125" style="1" hidden="1"/>
-    <col min="6147" max="6393" width="11.42578125" style="1" hidden="1"/>
-    <col min="6394" max="6394" width="15.42578125" style="1" hidden="1"/>
-    <col min="6395" max="6395" width="11.42578125" style="1" hidden="1"/>
-    <col min="6396" max="6396" width="15.7109375" style="1" hidden="1"/>
-    <col min="6397" max="6397" width="21.7109375" style="1" hidden="1"/>
-    <col min="6398" max="6400" width="11.42578125" style="1" hidden="1"/>
+    <col min="6146" max="6146" width="20.44140625" style="1" hidden="1"/>
+    <col min="6147" max="6393" width="11.44140625" style="1" hidden="1"/>
+    <col min="6394" max="6394" width="15.44140625" style="1" hidden="1"/>
+    <col min="6395" max="6395" width="11.44140625" style="1" hidden="1"/>
+    <col min="6396" max="6396" width="15.6640625" style="1" hidden="1"/>
+    <col min="6397" max="6397" width="21.6640625" style="1" hidden="1"/>
+    <col min="6398" max="6400" width="11.44140625" style="1" hidden="1"/>
     <col min="6401" max="6401" width="16" style="1" hidden="1"/>
-    <col min="6402" max="6402" width="20.42578125" style="1" hidden="1"/>
-    <col min="6403" max="6649" width="11.42578125" style="1" hidden="1"/>
-    <col min="6650" max="6650" width="15.42578125" style="1" hidden="1"/>
-    <col min="6651" max="6651" width="11.42578125" style="1" hidden="1"/>
-    <col min="6652" max="6652" width="15.7109375" style="1" hidden="1"/>
-    <col min="6653" max="6653" width="21.7109375" style="1" hidden="1"/>
-    <col min="6654" max="6656" width="11.42578125" style="1" hidden="1"/>
+    <col min="6402" max="6402" width="20.44140625" style="1" hidden="1"/>
+    <col min="6403" max="6649" width="11.44140625" style="1" hidden="1"/>
+    <col min="6650" max="6650" width="15.44140625" style="1" hidden="1"/>
+    <col min="6651" max="6651" width="11.44140625" style="1" hidden="1"/>
+    <col min="6652" max="6652" width="15.6640625" style="1" hidden="1"/>
+    <col min="6653" max="6653" width="21.6640625" style="1" hidden="1"/>
+    <col min="6654" max="6656" width="11.44140625" style="1" hidden="1"/>
     <col min="6657" max="6657" width="16" style="1" hidden="1"/>
-    <col min="6658" max="6658" width="20.42578125" style="1" hidden="1"/>
-    <col min="6659" max="6905" width="11.42578125" style="1" hidden="1"/>
-    <col min="6906" max="6906" width="15.42578125" style="1" hidden="1"/>
-    <col min="6907" max="6907" width="11.42578125" style="1" hidden="1"/>
-    <col min="6908" max="6908" width="15.7109375" style="1" hidden="1"/>
-    <col min="6909" max="6909" width="21.7109375" style="1" hidden="1"/>
-    <col min="6910" max="6912" width="11.42578125" style="1" hidden="1"/>
+    <col min="6658" max="6658" width="20.44140625" style="1" hidden="1"/>
+    <col min="6659" max="6905" width="11.44140625" style="1" hidden="1"/>
+    <col min="6906" max="6906" width="15.44140625" style="1" hidden="1"/>
+    <col min="6907" max="6907" width="11.44140625" style="1" hidden="1"/>
+    <col min="6908" max="6908" width="15.6640625" style="1" hidden="1"/>
+    <col min="6909" max="6909" width="21.6640625" style="1" hidden="1"/>
+    <col min="6910" max="6912" width="11.44140625" style="1" hidden="1"/>
     <col min="6913" max="6913" width="16" style="1" hidden="1"/>
-    <col min="6914" max="6914" width="20.42578125" style="1" hidden="1"/>
-    <col min="6915" max="7161" width="11.42578125" style="1" hidden="1"/>
-    <col min="7162" max="7162" width="15.42578125" style="1" hidden="1"/>
-    <col min="7163" max="7163" width="11.42578125" style="1" hidden="1"/>
-    <col min="7164" max="7164" width="15.7109375" style="1" hidden="1"/>
-    <col min="7165" max="7165" width="21.7109375" style="1" hidden="1"/>
-    <col min="7166" max="7168" width="11.42578125" style="1" hidden="1"/>
+    <col min="6914" max="6914" width="20.44140625" style="1" hidden="1"/>
+    <col min="6915" max="7161" width="11.44140625" style="1" hidden="1"/>
+    <col min="7162" max="7162" width="15.44140625" style="1" hidden="1"/>
+    <col min="7163" max="7163" width="11.44140625" style="1" hidden="1"/>
+    <col min="7164" max="7164" width="15.6640625" style="1" hidden="1"/>
+    <col min="7165" max="7165" width="21.6640625" style="1" hidden="1"/>
+    <col min="7166" max="7168" width="11.44140625" style="1" hidden="1"/>
     <col min="7169" max="7169" width="16" style="1" hidden="1"/>
-    <col min="7170" max="7170" width="20.42578125" style="1" hidden="1"/>
-    <col min="7171" max="7417" width="11.42578125" style="1" hidden="1"/>
-    <col min="7418" max="7418" width="15.42578125" style="1" hidden="1"/>
-    <col min="7419" max="7419" width="11.42578125" style="1" hidden="1"/>
-    <col min="7420" max="7420" width="15.7109375" style="1" hidden="1"/>
-    <col min="7421" max="7421" width="21.7109375" style="1" hidden="1"/>
-    <col min="7422" max="7424" width="11.42578125" style="1" hidden="1"/>
+    <col min="7170" max="7170" width="20.44140625" style="1" hidden="1"/>
+    <col min="7171" max="7417" width="11.44140625" style="1" hidden="1"/>
+    <col min="7418" max="7418" width="15.44140625" style="1" hidden="1"/>
+    <col min="7419" max="7419" width="11.44140625" style="1" hidden="1"/>
+    <col min="7420" max="7420" width="15.6640625" style="1" hidden="1"/>
+    <col min="7421" max="7421" width="21.6640625" style="1" hidden="1"/>
+    <col min="7422" max="7424" width="11.44140625" style="1" hidden="1"/>
     <col min="7425" max="7425" width="16" style="1" hidden="1"/>
-    <col min="7426" max="7426" width="20.42578125" style="1" hidden="1"/>
-    <col min="7427" max="7673" width="11.42578125" style="1" hidden="1"/>
-    <col min="7674" max="7674" width="15.42578125" style="1" hidden="1"/>
-    <col min="7675" max="7675" width="11.42578125" style="1" hidden="1"/>
-    <col min="7676" max="7676" width="15.7109375" style="1" hidden="1"/>
-    <col min="7677" max="7677" width="21.7109375" style="1" hidden="1"/>
-    <col min="7678" max="7680" width="11.42578125" style="1" hidden="1"/>
+    <col min="7426" max="7426" width="20.44140625" style="1" hidden="1"/>
+    <col min="7427" max="7673" width="11.44140625" style="1" hidden="1"/>
+    <col min="7674" max="7674" width="15.44140625" style="1" hidden="1"/>
+    <col min="7675" max="7675" width="11.44140625" style="1" hidden="1"/>
+    <col min="7676" max="7676" width="15.6640625" style="1" hidden="1"/>
+    <col min="7677" max="7677" width="21.6640625" style="1" hidden="1"/>
+    <col min="7678" max="7680" width="11.44140625" style="1" hidden="1"/>
     <col min="7681" max="7681" width="16" style="1" hidden="1"/>
-    <col min="7682" max="7682" width="20.42578125" style="1" hidden="1"/>
-    <col min="7683" max="7929" width="11.42578125" style="1" hidden="1"/>
-    <col min="7930" max="7930" width="15.42578125" style="1" hidden="1"/>
-    <col min="7931" max="7931" width="11.42578125" style="1" hidden="1"/>
-    <col min="7932" max="7932" width="15.7109375" style="1" hidden="1"/>
-    <col min="7933" max="7933" width="21.7109375" style="1" hidden="1"/>
-    <col min="7934" max="7936" width="11.42578125" style="1" hidden="1"/>
+    <col min="7682" max="7682" width="20.44140625" style="1" hidden="1"/>
+    <col min="7683" max="7929" width="11.44140625" style="1" hidden="1"/>
+    <col min="7930" max="7930" width="15.44140625" style="1" hidden="1"/>
+    <col min="7931" max="7931" width="11.44140625" style="1" hidden="1"/>
+    <col min="7932" max="7932" width="15.6640625" style="1" hidden="1"/>
+    <col min="7933" max="7933" width="21.6640625" style="1" hidden="1"/>
+    <col min="7934" max="7936" width="11.44140625" style="1" hidden="1"/>
     <col min="7937" max="7937" width="16" style="1" hidden="1"/>
-    <col min="7938" max="7938" width="20.42578125" style="1" hidden="1"/>
-    <col min="7939" max="8185" width="11.42578125" style="1" hidden="1"/>
-    <col min="8186" max="8186" width="15.42578125" style="1" hidden="1"/>
-    <col min="8187" max="8187" width="11.42578125" style="1" hidden="1"/>
-    <col min="8188" max="8188" width="15.7109375" style="1" hidden="1"/>
-    <col min="8189" max="8189" width="21.7109375" style="1" hidden="1"/>
-    <col min="8190" max="8192" width="11.42578125" style="1" hidden="1"/>
+    <col min="7938" max="7938" width="20.44140625" style="1" hidden="1"/>
+    <col min="7939" max="8185" width="11.44140625" style="1" hidden="1"/>
+    <col min="8186" max="8186" width="15.44140625" style="1" hidden="1"/>
+    <col min="8187" max="8187" width="11.44140625" style="1" hidden="1"/>
+    <col min="8188" max="8188" width="15.6640625" style="1" hidden="1"/>
+    <col min="8189" max="8189" width="21.6640625" style="1" hidden="1"/>
+    <col min="8190" max="8192" width="11.44140625" style="1" hidden="1"/>
     <col min="8193" max="8193" width="16" style="1" hidden="1"/>
-    <col min="8194" max="8194" width="20.42578125" style="1" hidden="1"/>
-    <col min="8195" max="8441" width="11.42578125" style="1" hidden="1"/>
-    <col min="8442" max="8442" width="15.42578125" style="1" hidden="1"/>
-    <col min="8443" max="8443" width="11.42578125" style="1" hidden="1"/>
-    <col min="8444" max="8444" width="15.7109375" style="1" hidden="1"/>
-    <col min="8445" max="8445" width="21.7109375" style="1" hidden="1"/>
-    <col min="8446" max="8448" width="11.42578125" style="1" hidden="1"/>
+    <col min="8194" max="8194" width="20.44140625" style="1" hidden="1"/>
+    <col min="8195" max="8441" width="11.44140625" style="1" hidden="1"/>
+    <col min="8442" max="8442" width="15.44140625" style="1" hidden="1"/>
+    <col min="8443" max="8443" width="11.44140625" style="1" hidden="1"/>
+    <col min="8444" max="8444" width="15.6640625" style="1" hidden="1"/>
+    <col min="8445" max="8445" width="21.6640625" style="1" hidden="1"/>
+    <col min="8446" max="8448" width="11.44140625" style="1" hidden="1"/>
     <col min="8449" max="8449" width="16" style="1" hidden="1"/>
-    <col min="8450" max="8450" width="20.42578125" style="1" hidden="1"/>
-    <col min="8451" max="8697" width="11.42578125" style="1" hidden="1"/>
-    <col min="8698" max="8698" width="15.42578125" style="1" hidden="1"/>
-    <col min="8699" max="8699" width="11.42578125" style="1" hidden="1"/>
-    <col min="8700" max="8700" width="15.7109375" style="1" hidden="1"/>
-    <col min="8701" max="8701" width="21.7109375" style="1" hidden="1"/>
-    <col min="8702" max="8704" width="11.42578125" style="1" hidden="1"/>
+    <col min="8450" max="8450" width="20.44140625" style="1" hidden="1"/>
+    <col min="8451" max="8697" width="11.44140625" style="1" hidden="1"/>
+    <col min="8698" max="8698" width="15.44140625" style="1" hidden="1"/>
+    <col min="8699" max="8699" width="11.44140625" style="1" hidden="1"/>
+    <col min="8700" max="8700" width="15.6640625" style="1" hidden="1"/>
+    <col min="8701" max="8701" width="21.6640625" style="1" hidden="1"/>
+    <col min="8702" max="8704" width="11.44140625" style="1" hidden="1"/>
     <col min="8705" max="8705" width="16" style="1" hidden="1"/>
-    <col min="8706" max="8706" width="20.42578125" style="1" hidden="1"/>
-    <col min="8707" max="8953" width="11.42578125" style="1" hidden="1"/>
-    <col min="8954" max="8954" width="15.42578125" style="1" hidden="1"/>
-    <col min="8955" max="8955" width="11.42578125" style="1" hidden="1"/>
-    <col min="8956" max="8956" width="15.7109375" style="1" hidden="1"/>
-    <col min="8957" max="8957" width="21.7109375" style="1" hidden="1"/>
-    <col min="8958" max="8960" width="11.42578125" style="1" hidden="1"/>
+    <col min="8706" max="8706" width="20.44140625" style="1" hidden="1"/>
+    <col min="8707" max="8953" width="11.44140625" style="1" hidden="1"/>
+    <col min="8954" max="8954" width="15.44140625" style="1" hidden="1"/>
+    <col min="8955" max="8955" width="11.44140625" style="1" hidden="1"/>
+    <col min="8956" max="8956" width="15.6640625" style="1" hidden="1"/>
+    <col min="8957" max="8957" width="21.6640625" style="1" hidden="1"/>
+    <col min="8958" max="8960" width="11.44140625" style="1" hidden="1"/>
     <col min="8961" max="8961" width="16" style="1" hidden="1"/>
-    <col min="8962" max="8962" width="20.42578125" style="1" hidden="1"/>
-    <col min="8963" max="9209" width="11.42578125" style="1" hidden="1"/>
-    <col min="9210" max="9210" width="15.42578125" style="1" hidden="1"/>
-    <col min="9211" max="9211" width="11.42578125" style="1" hidden="1"/>
-    <col min="9212" max="9212" width="15.7109375" style="1" hidden="1"/>
-    <col min="9213" max="9213" width="21.7109375" style="1" hidden="1"/>
-    <col min="9214" max="9216" width="11.42578125" style="1" hidden="1"/>
+    <col min="8962" max="8962" width="20.44140625" style="1" hidden="1"/>
+    <col min="8963" max="9209" width="11.44140625" style="1" hidden="1"/>
+    <col min="9210" max="9210" width="15.44140625" style="1" hidden="1"/>
+    <col min="9211" max="9211" width="11.44140625" style="1" hidden="1"/>
+    <col min="9212" max="9212" width="15.6640625" style="1" hidden="1"/>
+    <col min="9213" max="9213" width="21.6640625" style="1" hidden="1"/>
+    <col min="9214" max="9216" width="11.44140625" style="1" hidden="1"/>
     <col min="9217" max="9217" width="16" style="1" hidden="1"/>
-    <col min="9218" max="9218" width="20.42578125" style="1" hidden="1"/>
-    <col min="9219" max="9465" width="11.42578125" style="1" hidden="1"/>
-    <col min="9466" max="9466" width="15.42578125" style="1" hidden="1"/>
-    <col min="9467" max="9467" width="11.42578125" style="1" hidden="1"/>
-    <col min="9468" max="9468" width="15.7109375" style="1" hidden="1"/>
-    <col min="9469" max="9469" width="21.7109375" style="1" hidden="1"/>
-    <col min="9470" max="9472" width="11.42578125" style="1" hidden="1"/>
+    <col min="9218" max="9218" width="20.44140625" style="1" hidden="1"/>
+    <col min="9219" max="9465" width="11.44140625" style="1" hidden="1"/>
+    <col min="9466" max="9466" width="15.44140625" style="1" hidden="1"/>
+    <col min="9467" max="9467" width="11.44140625" style="1" hidden="1"/>
+    <col min="9468" max="9468" width="15.6640625" style="1" hidden="1"/>
+    <col min="9469" max="9469" width="21.6640625" style="1" hidden="1"/>
+    <col min="9470" max="9472" width="11.44140625" style="1" hidden="1"/>
     <col min="9473" max="9473" width="16" style="1" hidden="1"/>
-    <col min="9474" max="9474" width="20.42578125" style="1" hidden="1"/>
-    <col min="9475" max="9721" width="11.42578125" style="1" hidden="1"/>
-    <col min="9722" max="9722" width="15.42578125" style="1" hidden="1"/>
-    <col min="9723" max="9723" width="11.42578125" style="1" hidden="1"/>
-    <col min="9724" max="9724" width="15.7109375" style="1" hidden="1"/>
-    <col min="9725" max="9725" width="21.7109375" style="1" hidden="1"/>
-    <col min="9726" max="9728" width="11.42578125" style="1" hidden="1"/>
+    <col min="9474" max="9474" width="20.44140625" style="1" hidden="1"/>
+    <col min="9475" max="9721" width="11.44140625" style="1" hidden="1"/>
+    <col min="9722" max="9722" width="15.44140625" style="1" hidden="1"/>
+    <col min="9723" max="9723" width="11.44140625" style="1" hidden="1"/>
+    <col min="9724" max="9724" width="15.6640625" style="1" hidden="1"/>
+    <col min="9725" max="9725" width="21.6640625" style="1" hidden="1"/>
+    <col min="9726" max="9728" width="11.44140625" style="1" hidden="1"/>
     <col min="9729" max="9729" width="16" style="1" hidden="1"/>
-    <col min="9730" max="9730" width="20.42578125" style="1" hidden="1"/>
-    <col min="9731" max="9977" width="11.42578125" style="1" hidden="1"/>
-    <col min="9978" max="9978" width="15.42578125" style="1" hidden="1"/>
-    <col min="9979" max="9979" width="11.42578125" style="1" hidden="1"/>
-    <col min="9980" max="9980" width="15.7109375" style="1" hidden="1"/>
-    <col min="9981" max="9981" width="21.7109375" style="1" hidden="1"/>
-    <col min="9982" max="9984" width="11.42578125" style="1" hidden="1"/>
+    <col min="9730" max="9730" width="20.44140625" style="1" hidden="1"/>
+    <col min="9731" max="9977" width="11.44140625" style="1" hidden="1"/>
+    <col min="9978" max="9978" width="15.44140625" style="1" hidden="1"/>
+    <col min="9979" max="9979" width="11.44140625" style="1" hidden="1"/>
+    <col min="9980" max="9980" width="15.6640625" style="1" hidden="1"/>
+    <col min="9981" max="9981" width="21.6640625" style="1" hidden="1"/>
+    <col min="9982" max="9984" width="11.44140625" style="1" hidden="1"/>
     <col min="9985" max="9985" width="16" style="1" hidden="1"/>
-    <col min="9986" max="9986" width="20.42578125" style="1" hidden="1"/>
-    <col min="9987" max="10233" width="11.42578125" style="1" hidden="1"/>
-    <col min="10234" max="10234" width="15.42578125" style="1" hidden="1"/>
-    <col min="10235" max="10235" width="11.42578125" style="1" hidden="1"/>
-    <col min="10236" max="10236" width="15.7109375" style="1" hidden="1"/>
-    <col min="10237" max="10237" width="21.7109375" style="1" hidden="1"/>
-    <col min="10238" max="10240" width="11.42578125" style="1" hidden="1"/>
+    <col min="9986" max="9986" width="20.44140625" style="1" hidden="1"/>
+    <col min="9987" max="10233" width="11.44140625" style="1" hidden="1"/>
+    <col min="10234" max="10234" width="15.44140625" style="1" hidden="1"/>
+    <col min="10235" max="10235" width="11.44140625" style="1" hidden="1"/>
+    <col min="10236" max="10236" width="15.6640625" style="1" hidden="1"/>
+    <col min="10237" max="10237" width="21.6640625" style="1" hidden="1"/>
+    <col min="10238" max="10240" width="11.44140625" style="1" hidden="1"/>
     <col min="10241" max="10241" width="16" style="1" hidden="1"/>
-    <col min="10242" max="10242" width="20.42578125" style="1" hidden="1"/>
-    <col min="10243" max="10489" width="11.42578125" style="1" hidden="1"/>
-    <col min="10490" max="10490" width="15.42578125" style="1" hidden="1"/>
-    <col min="10491" max="10491" width="11.42578125" style="1" hidden="1"/>
-    <col min="10492" max="10492" width="15.7109375" style="1" hidden="1"/>
-    <col min="10493" max="10493" width="21.7109375" style="1" hidden="1"/>
-    <col min="10494" max="10496" width="11.42578125" style="1" hidden="1"/>
+    <col min="10242" max="10242" width="20.44140625" style="1" hidden="1"/>
+    <col min="10243" max="10489" width="11.44140625" style="1" hidden="1"/>
+    <col min="10490" max="10490" width="15.44140625" style="1" hidden="1"/>
+    <col min="10491" max="10491" width="11.44140625" style="1" hidden="1"/>
+    <col min="10492" max="10492" width="15.6640625" style="1" hidden="1"/>
+    <col min="10493" max="10493" width="21.6640625" style="1" hidden="1"/>
+    <col min="10494" max="10496" width="11.44140625" style="1" hidden="1"/>
     <col min="10497" max="10497" width="16" style="1" hidden="1"/>
-    <col min="10498" max="10498" width="20.42578125" style="1" hidden="1"/>
-    <col min="10499" max="10745" width="11.42578125" style="1" hidden="1"/>
-    <col min="10746" max="10746" width="15.42578125" style="1" hidden="1"/>
-    <col min="10747" max="10747" width="11.42578125" style="1" hidden="1"/>
-    <col min="10748" max="10748" width="15.7109375" style="1" hidden="1"/>
-    <col min="10749" max="10749" width="21.7109375" style="1" hidden="1"/>
-    <col min="10750" max="10752" width="11.42578125" style="1" hidden="1"/>
+    <col min="10498" max="10498" width="20.44140625" style="1" hidden="1"/>
+    <col min="10499" max="10745" width="11.44140625" style="1" hidden="1"/>
+    <col min="10746" max="10746" width="15.44140625" style="1" hidden="1"/>
+    <col min="10747" max="10747" width="11.44140625" style="1" hidden="1"/>
+    <col min="10748" max="10748" width="15.6640625" style="1" hidden="1"/>
+    <col min="10749" max="10749" width="21.6640625" style="1" hidden="1"/>
+    <col min="10750" max="10752" width="11.44140625" style="1" hidden="1"/>
     <col min="10753" max="10753" width="16" style="1" hidden="1"/>
-    <col min="10754" max="10754" width="20.42578125" style="1" hidden="1"/>
-    <col min="10755" max="11001" width="11.42578125" style="1" hidden="1"/>
-    <col min="11002" max="11002" width="15.42578125" style="1" hidden="1"/>
-    <col min="11003" max="11003" width="11.42578125" style="1" hidden="1"/>
-    <col min="11004" max="11004" width="15.7109375" style="1" hidden="1"/>
-    <col min="11005" max="11005" width="21.7109375" style="1" hidden="1"/>
-    <col min="11006" max="11008" width="11.42578125" style="1" hidden="1"/>
+    <col min="10754" max="10754" width="20.44140625" style="1" hidden="1"/>
+    <col min="10755" max="11001" width="11.44140625" style="1" hidden="1"/>
+    <col min="11002" max="11002" width="15.44140625" style="1" hidden="1"/>
+    <col min="11003" max="11003" width="11.44140625" style="1" hidden="1"/>
+    <col min="11004" max="11004" width="15.6640625" style="1" hidden="1"/>
+    <col min="11005" max="11005" width="21.6640625" style="1" hidden="1"/>
+    <col min="11006" max="11008" width="11.44140625" style="1" hidden="1"/>
     <col min="11009" max="11009" width="16" style="1" hidden="1"/>
-    <col min="11010" max="11010" width="20.42578125" style="1" hidden="1"/>
-    <col min="11011" max="11257" width="11.42578125" style="1" hidden="1"/>
-    <col min="11258" max="11258" width="15.42578125" style="1" hidden="1"/>
-    <col min="11259" max="11259" width="11.42578125" style="1" hidden="1"/>
-    <col min="11260" max="11260" width="15.7109375" style="1" hidden="1"/>
-    <col min="11261" max="11261" width="21.7109375" style="1" hidden="1"/>
-    <col min="11262" max="11264" width="11.42578125" style="1" hidden="1"/>
+    <col min="11010" max="11010" width="20.44140625" style="1" hidden="1"/>
+    <col min="11011" max="11257" width="11.44140625" style="1" hidden="1"/>
+    <col min="11258" max="11258" width="15.44140625" style="1" hidden="1"/>
+    <col min="11259" max="11259" width="11.44140625" style="1" hidden="1"/>
+    <col min="11260" max="11260" width="15.6640625" style="1" hidden="1"/>
+    <col min="11261" max="11261" width="21.6640625" style="1" hidden="1"/>
+    <col min="11262" max="11264" width="11.44140625" style="1" hidden="1"/>
     <col min="11265" max="11265" width="16" style="1" hidden="1"/>
-    <col min="11266" max="11266" width="20.42578125" style="1" hidden="1"/>
-    <col min="11267" max="11513" width="11.42578125" style="1" hidden="1"/>
-    <col min="11514" max="11514" width="15.42578125" style="1" hidden="1"/>
-    <col min="11515" max="11515" width="11.42578125" style="1" hidden="1"/>
-    <col min="11516" max="11516" width="15.7109375" style="1" hidden="1"/>
-    <col min="11517" max="11517" width="21.7109375" style="1" hidden="1"/>
-    <col min="11518" max="11520" width="11.42578125" style="1" hidden="1"/>
+    <col min="11266" max="11266" width="20.44140625" style="1" hidden="1"/>
+    <col min="11267" max="11513" width="11.44140625" style="1" hidden="1"/>
+    <col min="11514" max="11514" width="15.44140625" style="1" hidden="1"/>
+    <col min="11515" max="11515" width="11.44140625" style="1" hidden="1"/>
+    <col min="11516" max="11516" width="15.6640625" style="1" hidden="1"/>
+    <col min="11517" max="11517" width="21.6640625" style="1" hidden="1"/>
+    <col min="11518" max="11520" width="11.44140625" style="1" hidden="1"/>
     <col min="11521" max="11521" width="16" style="1" hidden="1"/>
-    <col min="11522" max="11522" width="20.42578125" style="1" hidden="1"/>
-    <col min="11523" max="11769" width="11.42578125" style="1" hidden="1"/>
-    <col min="11770" max="11770" width="15.42578125" style="1" hidden="1"/>
-    <col min="11771" max="11771" width="11.42578125" style="1" hidden="1"/>
-    <col min="11772" max="11772" width="15.7109375" style="1" hidden="1"/>
-    <col min="11773" max="11773" width="21.7109375" style="1" hidden="1"/>
-    <col min="11774" max="11776" width="11.42578125" style="1" hidden="1"/>
+    <col min="11522" max="11522" width="20.44140625" style="1" hidden="1"/>
+    <col min="11523" max="11769" width="11.44140625" style="1" hidden="1"/>
+    <col min="11770" max="11770" width="15.44140625" style="1" hidden="1"/>
+    <col min="11771" max="11771" width="11.44140625" style="1" hidden="1"/>
+    <col min="11772" max="11772" width="15.6640625" style="1" hidden="1"/>
+    <col min="11773" max="11773" width="21.6640625" style="1" hidden="1"/>
+    <col min="11774" max="11776" width="11.44140625" style="1" hidden="1"/>
     <col min="11777" max="11777" width="16" style="1" hidden="1"/>
-    <col min="11778" max="11778" width="20.42578125" style="1" hidden="1"/>
-    <col min="11779" max="12025" width="11.42578125" style="1" hidden="1"/>
-    <col min="12026" max="12026" width="15.42578125" style="1" hidden="1"/>
-    <col min="12027" max="12027" width="11.42578125" style="1" hidden="1"/>
-    <col min="12028" max="12028" width="15.7109375" style="1" hidden="1"/>
-    <col min="12029" max="12029" width="21.7109375" style="1" hidden="1"/>
-    <col min="12030" max="12032" width="11.42578125" style="1" hidden="1"/>
+    <col min="11778" max="11778" width="20.44140625" style="1" hidden="1"/>
+    <col min="11779" max="12025" width="11.44140625" style="1" hidden="1"/>
+    <col min="12026" max="12026" width="15.44140625" style="1" hidden="1"/>
+    <col min="12027" max="12027" width="11.44140625" style="1" hidden="1"/>
+    <col min="12028" max="12028" width="15.6640625" style="1" hidden="1"/>
+    <col min="12029" max="12029" width="21.6640625" style="1" hidden="1"/>
+    <col min="12030" max="12032" width="11.44140625" style="1" hidden="1"/>
     <col min="12033" max="12033" width="16" style="1" hidden="1"/>
-    <col min="12034" max="12034" width="20.42578125" style="1" hidden="1"/>
-    <col min="12035" max="12281" width="11.42578125" style="1" hidden="1"/>
-    <col min="12282" max="12282" width="15.42578125" style="1" hidden="1"/>
-    <col min="12283" max="12283" width="11.42578125" style="1" hidden="1"/>
-    <col min="12284" max="12284" width="15.7109375" style="1" hidden="1"/>
-    <col min="12285" max="12285" width="21.7109375" style="1" hidden="1"/>
-    <col min="12286" max="12288" width="11.42578125" style="1" hidden="1"/>
+    <col min="12034" max="12034" width="20.44140625" style="1" hidden="1"/>
+    <col min="12035" max="12281" width="11.44140625" style="1" hidden="1"/>
+    <col min="12282" max="12282" width="15.44140625" style="1" hidden="1"/>
+    <col min="12283" max="12283" width="11.44140625" style="1" hidden="1"/>
+    <col min="12284" max="12284" width="15.6640625" style="1" hidden="1"/>
+    <col min="12285" max="12285" width="21.6640625" style="1" hidden="1"/>
+    <col min="12286" max="12288" width="11.44140625" style="1" hidden="1"/>
     <col min="12289" max="12289" width="16" style="1" hidden="1"/>
-    <col min="12290" max="12290" width="20.42578125" style="1" hidden="1"/>
-    <col min="12291" max="12537" width="11.42578125" style="1" hidden="1"/>
-    <col min="12538" max="12538" width="15.42578125" style="1" hidden="1"/>
-    <col min="12539" max="12539" width="11.42578125" style="1" hidden="1"/>
-    <col min="12540" max="12540" width="15.7109375" style="1" hidden="1"/>
-    <col min="12541" max="12541" width="21.7109375" style="1" hidden="1"/>
-    <col min="12542" max="12544" width="11.42578125" style="1" hidden="1"/>
+    <col min="12290" max="12290" width="20.44140625" style="1" hidden="1"/>
+    <col min="12291" max="12537" width="11.44140625" style="1" hidden="1"/>
+    <col min="12538" max="12538" width="15.44140625" style="1" hidden="1"/>
+    <col min="12539" max="12539" width="11.44140625" style="1" hidden="1"/>
+    <col min="12540" max="12540" width="15.6640625" style="1" hidden="1"/>
+    <col min="12541" max="12541" width="21.6640625" style="1" hidden="1"/>
+    <col min="12542" max="12544" width="11.44140625" style="1" hidden="1"/>
     <col min="12545" max="12545" width="16" style="1" hidden="1"/>
-    <col min="12546" max="12546" width="20.42578125" style="1" hidden="1"/>
-    <col min="12547" max="12793" width="11.42578125" style="1" hidden="1"/>
-    <col min="12794" max="12794" width="15.42578125" style="1" hidden="1"/>
-    <col min="12795" max="12795" width="11.42578125" style="1" hidden="1"/>
-    <col min="12796" max="12796" width="15.7109375" style="1" hidden="1"/>
-    <col min="12797" max="12797" width="21.7109375" style="1" hidden="1"/>
-    <col min="12798" max="12800" width="11.42578125" style="1" hidden="1"/>
+    <col min="12546" max="12546" width="20.44140625" style="1" hidden="1"/>
+    <col min="12547" max="12793" width="11.44140625" style="1" hidden="1"/>
+    <col min="12794" max="12794" width="15.44140625" style="1" hidden="1"/>
+    <col min="12795" max="12795" width="11.44140625" style="1" hidden="1"/>
+    <col min="12796" max="12796" width="15.6640625" style="1" hidden="1"/>
+    <col min="12797" max="12797" width="21.6640625" style="1" hidden="1"/>
+    <col min="12798" max="12800" width="11.44140625" style="1" hidden="1"/>
     <col min="12801" max="12801" width="16" style="1" hidden="1"/>
-    <col min="12802" max="12802" width="20.42578125" style="1" hidden="1"/>
-    <col min="12803" max="13049" width="11.42578125" style="1" hidden="1"/>
-    <col min="13050" max="13050" width="15.42578125" style="1" hidden="1"/>
-    <col min="13051" max="13051" width="11.42578125" style="1" hidden="1"/>
-    <col min="13052" max="13052" width="15.7109375" style="1" hidden="1"/>
-    <col min="13053" max="13053" width="21.7109375" style="1" hidden="1"/>
-    <col min="13054" max="13056" width="11.42578125" style="1" hidden="1"/>
+    <col min="12802" max="12802" width="20.44140625" style="1" hidden="1"/>
+    <col min="12803" max="13049" width="11.44140625" style="1" hidden="1"/>
+    <col min="13050" max="13050" width="15.44140625" style="1" hidden="1"/>
+    <col min="13051" max="13051" width="11.44140625" style="1" hidden="1"/>
+    <col min="13052" max="13052" width="15.6640625" style="1" hidden="1"/>
+    <col min="13053" max="13053" width="21.6640625" style="1" hidden="1"/>
+    <col min="13054" max="13056" width="11.44140625" style="1" hidden="1"/>
     <col min="13057" max="13057" width="16" style="1" hidden="1"/>
-    <col min="13058" max="13058" width="20.42578125" style="1" hidden="1"/>
-    <col min="13059" max="13305" width="11.42578125" style="1" hidden="1"/>
-    <col min="13306" max="13306" width="15.42578125" style="1" hidden="1"/>
-    <col min="13307" max="13307" width="11.42578125" style="1" hidden="1"/>
-    <col min="13308" max="13308" width="15.7109375" style="1" hidden="1"/>
-    <col min="13309" max="13309" width="21.7109375" style="1" hidden="1"/>
-    <col min="13310" max="13312" width="11.42578125" style="1" hidden="1"/>
+    <col min="13058" max="13058" width="20.44140625" style="1" hidden="1"/>
+    <col min="13059" max="13305" width="11.44140625" style="1" hidden="1"/>
+    <col min="13306" max="13306" width="15.44140625" style="1" hidden="1"/>
+    <col min="13307" max="13307" width="11.44140625" style="1" hidden="1"/>
+    <col min="13308" max="13308" width="15.6640625" style="1" hidden="1"/>
+    <col min="13309" max="13309" width="21.6640625" style="1" hidden="1"/>
+    <col min="13310" max="13312" width="11.44140625" style="1" hidden="1"/>
     <col min="13313" max="13313" width="16" style="1" hidden="1"/>
-    <col min="13314" max="13314" width="20.42578125" style="1" hidden="1"/>
-    <col min="13315" max="13561" width="11.42578125" style="1" hidden="1"/>
-    <col min="13562" max="13562" width="15.42578125" style="1" hidden="1"/>
-    <col min="13563" max="13563" width="11.42578125" style="1" hidden="1"/>
-    <col min="13564" max="13564" width="15.7109375" style="1" hidden="1"/>
-    <col min="13565" max="13565" width="21.7109375" style="1" hidden="1"/>
-    <col min="13566" max="13568" width="11.42578125" style="1" hidden="1"/>
+    <col min="13314" max="13314" width="20.44140625" style="1" hidden="1"/>
+    <col min="13315" max="13561" width="11.44140625" style="1" hidden="1"/>
+    <col min="13562" max="13562" width="15.44140625" style="1" hidden="1"/>
+    <col min="13563" max="13563" width="11.44140625" style="1" hidden="1"/>
+    <col min="13564" max="13564" width="15.6640625" style="1" hidden="1"/>
+    <col min="13565" max="13565" width="21.6640625" style="1" hidden="1"/>
+    <col min="13566" max="13568" width="11.44140625" style="1" hidden="1"/>
     <col min="13569" max="13569" width="16" style="1" hidden="1"/>
-    <col min="13570" max="13570" width="20.42578125" style="1" hidden="1"/>
-    <col min="13571" max="13817" width="11.42578125" style="1" hidden="1"/>
-    <col min="13818" max="13818" width="15.42578125" style="1" hidden="1"/>
-    <col min="13819" max="13819" width="11.42578125" style="1" hidden="1"/>
-    <col min="13820" max="13820" width="15.7109375" style="1" hidden="1"/>
-    <col min="13821" max="13821" width="21.7109375" style="1" hidden="1"/>
-    <col min="13822" max="13824" width="11.42578125" style="1" hidden="1"/>
+    <col min="13570" max="13570" width="20.44140625" style="1" hidden="1"/>
+    <col min="13571" max="13817" width="11.44140625" style="1" hidden="1"/>
+    <col min="13818" max="13818" width="15.44140625" style="1" hidden="1"/>
+    <col min="13819" max="13819" width="11.44140625" style="1" hidden="1"/>
+    <col min="13820" max="13820" width="15.6640625" style="1" hidden="1"/>
+    <col min="13821" max="13821" width="21.6640625" style="1" hidden="1"/>
+    <col min="13822" max="13824" width="11.44140625" style="1" hidden="1"/>
     <col min="13825" max="13825" width="16" style="1" hidden="1"/>
-    <col min="13826" max="13826" width="20.42578125" style="1" hidden="1"/>
-    <col min="13827" max="14073" width="11.42578125" style="1" hidden="1"/>
-    <col min="14074" max="14074" width="15.42578125" style="1" hidden="1"/>
-    <col min="14075" max="14075" width="11.42578125" style="1" hidden="1"/>
-    <col min="14076" max="14076" width="15.7109375" style="1" hidden="1"/>
-    <col min="14077" max="14077" width="21.7109375" style="1" hidden="1"/>
-    <col min="14078" max="14080" width="11.42578125" style="1" hidden="1"/>
+    <col min="13826" max="13826" width="20.44140625" style="1" hidden="1"/>
+    <col min="13827" max="14073" width="11.44140625" style="1" hidden="1"/>
+    <col min="14074" max="14074" width="15.44140625" style="1" hidden="1"/>
+    <col min="14075" max="14075" width="11.44140625" style="1" hidden="1"/>
+    <col min="14076" max="14076" width="15.6640625" style="1" hidden="1"/>
+    <col min="14077" max="14077" width="21.6640625" style="1" hidden="1"/>
+    <col min="14078" max="14080" width="11.44140625" style="1" hidden="1"/>
     <col min="14081" max="14081" width="16" style="1" hidden="1"/>
-    <col min="14082" max="14082" width="20.42578125" style="1" hidden="1"/>
-    <col min="14083" max="14329" width="11.42578125" style="1" hidden="1"/>
-    <col min="14330" max="14330" width="15.42578125" style="1" hidden="1"/>
-    <col min="14331" max="14331" width="11.42578125" style="1" hidden="1"/>
-    <col min="14332" max="14332" width="15.7109375" style="1" hidden="1"/>
-    <col min="14333" max="14333" width="21.7109375" style="1" hidden="1"/>
-    <col min="14334" max="14336" width="11.42578125" style="1" hidden="1"/>
+    <col min="14082" max="14082" width="20.44140625" style="1" hidden="1"/>
+    <col min="14083" max="14329" width="11.44140625" style="1" hidden="1"/>
+    <col min="14330" max="14330" width="15.44140625" style="1" hidden="1"/>
+    <col min="14331" max="14331" width="11.44140625" style="1" hidden="1"/>
+    <col min="14332" max="14332" width="15.6640625" style="1" hidden="1"/>
+    <col min="14333" max="14333" width="21.6640625" style="1" hidden="1"/>
+    <col min="14334" max="14336" width="11.44140625" style="1" hidden="1"/>
     <col min="14337" max="14337" width="16" style="1" hidden="1"/>
-    <col min="14338" max="14338" width="20.42578125" style="1" hidden="1"/>
-    <col min="14339" max="14585" width="11.42578125" style="1" hidden="1"/>
-    <col min="14586" max="14586" width="15.42578125" style="1" hidden="1"/>
-    <col min="14587" max="14587" width="11.42578125" style="1" hidden="1"/>
-    <col min="14588" max="14588" width="15.7109375" style="1" hidden="1"/>
-    <col min="14589" max="14589" width="21.7109375" style="1" hidden="1"/>
-    <col min="14590" max="14592" width="11.42578125" style="1" hidden="1"/>
+    <col min="14338" max="14338" width="20.44140625" style="1" hidden="1"/>
+    <col min="14339" max="14585" width="11.44140625" style="1" hidden="1"/>
+    <col min="14586" max="14586" width="15.44140625" style="1" hidden="1"/>
+    <col min="14587" max="14587" width="11.44140625" style="1" hidden="1"/>
+    <col min="14588" max="14588" width="15.6640625" style="1" hidden="1"/>
+    <col min="14589" max="14589" width="21.6640625" style="1" hidden="1"/>
+    <col min="14590" max="14592" width="11.44140625" style="1" hidden="1"/>
     <col min="14593" max="14593" width="16" style="1" hidden="1"/>
-    <col min="14594" max="14594" width="20.42578125" style="1" hidden="1"/>
-    <col min="14595" max="14841" width="11.42578125" style="1" hidden="1"/>
-    <col min="14842" max="14842" width="15.42578125" style="1" hidden="1"/>
-    <col min="14843" max="14843" width="11.42578125" style="1" hidden="1"/>
-    <col min="14844" max="14844" width="15.7109375" style="1" hidden="1"/>
-    <col min="14845" max="14845" width="21.7109375" style="1" hidden="1"/>
-    <col min="14846" max="14848" width="11.42578125" style="1" hidden="1"/>
+    <col min="14594" max="14594" width="20.44140625" style="1" hidden="1"/>
+    <col min="14595" max="14841" width="11.44140625" style="1" hidden="1"/>
+    <col min="14842" max="14842" width="15.44140625" style="1" hidden="1"/>
+    <col min="14843" max="14843" width="11.44140625" style="1" hidden="1"/>
+    <col min="14844" max="14844" width="15.6640625" style="1" hidden="1"/>
+    <col min="14845" max="14845" width="21.6640625" style="1" hidden="1"/>
+    <col min="14846" max="14848" width="11.44140625" style="1" hidden="1"/>
     <col min="14849" max="14849" width="16" style="1" hidden="1"/>
-    <col min="14850" max="14850" width="20.42578125" style="1" hidden="1"/>
-    <col min="14851" max="15097" width="11.42578125" style="1" hidden="1"/>
-    <col min="15098" max="15098" width="15.42578125" style="1" hidden="1"/>
-    <col min="15099" max="15099" width="11.42578125" style="1" hidden="1"/>
-    <col min="15100" max="15100" width="15.7109375" style="1" hidden="1"/>
-    <col min="15101" max="15101" width="21.7109375" style="1" hidden="1"/>
-    <col min="15102" max="15104" width="11.42578125" style="1" hidden="1"/>
+    <col min="14850" max="14850" width="20.44140625" style="1" hidden="1"/>
+    <col min="14851" max="15097" width="11.44140625" style="1" hidden="1"/>
+    <col min="15098" max="15098" width="15.44140625" style="1" hidden="1"/>
+    <col min="15099" max="15099" width="11.44140625" style="1" hidden="1"/>
+    <col min="15100" max="15100" width="15.6640625" style="1" hidden="1"/>
+    <col min="15101" max="15101" width="21.6640625" style="1" hidden="1"/>
+    <col min="15102" max="15104" width="11.44140625" style="1" hidden="1"/>
     <col min="15105" max="15105" width="16" style="1" hidden="1"/>
-    <col min="15106" max="15106" width="20.42578125" style="1" hidden="1"/>
-    <col min="15107" max="15353" width="11.42578125" style="1" hidden="1"/>
-    <col min="15354" max="15354" width="15.42578125" style="1" hidden="1"/>
-    <col min="15355" max="15355" width="11.42578125" style="1" hidden="1"/>
-    <col min="15356" max="15356" width="15.7109375" style="1" hidden="1"/>
-    <col min="15357" max="15357" width="21.7109375" style="1" hidden="1"/>
-    <col min="15358" max="15360" width="11.42578125" style="1" hidden="1"/>
+    <col min="15106" max="15106" width="20.44140625" style="1" hidden="1"/>
+    <col min="15107" max="15353" width="11.44140625" style="1" hidden="1"/>
+    <col min="15354" max="15354" width="15.44140625" style="1" hidden="1"/>
+    <col min="15355" max="15355" width="11.44140625" style="1" hidden="1"/>
+    <col min="15356" max="15356" width="15.6640625" style="1" hidden="1"/>
+    <col min="15357" max="15357" width="21.6640625" style="1" hidden="1"/>
+    <col min="15358" max="15360" width="11.44140625" style="1" hidden="1"/>
     <col min="15361" max="15361" width="16" style="1" hidden="1"/>
-    <col min="15362" max="15362" width="20.42578125" style="1" hidden="1"/>
-    <col min="15363" max="15609" width="11.42578125" style="1" hidden="1"/>
-    <col min="15610" max="15610" width="15.42578125" style="1" hidden="1"/>
-    <col min="15611" max="15611" width="11.42578125" style="1" hidden="1"/>
-    <col min="15612" max="15612" width="15.7109375" style="1" hidden="1"/>
-    <col min="15613" max="15613" width="21.7109375" style="1" hidden="1"/>
-    <col min="15614" max="15616" width="11.42578125" style="1" hidden="1"/>
+    <col min="15362" max="15362" width="20.44140625" style="1" hidden="1"/>
+    <col min="15363" max="15609" width="11.44140625" style="1" hidden="1"/>
+    <col min="15610" max="15610" width="15.44140625" style="1" hidden="1"/>
+    <col min="15611" max="15611" width="11.44140625" style="1" hidden="1"/>
+    <col min="15612" max="15612" width="15.6640625" style="1" hidden="1"/>
+    <col min="15613" max="15613" width="21.6640625" style="1" hidden="1"/>
+    <col min="15614" max="15616" width="11.44140625" style="1" hidden="1"/>
     <col min="15617" max="15617" width="16" style="1" hidden="1"/>
-    <col min="15618" max="15618" width="20.42578125" style="1" hidden="1"/>
-    <col min="15619" max="15865" width="11.42578125" style="1" hidden="1"/>
-    <col min="15866" max="15866" width="15.42578125" style="1" hidden="1"/>
-    <col min="15867" max="15867" width="11.42578125" style="1" hidden="1"/>
-    <col min="15868" max="15868" width="15.7109375" style="1" hidden="1"/>
-    <col min="15869" max="15869" width="21.7109375" style="1" hidden="1"/>
-    <col min="15870" max="15872" width="11.42578125" style="1" hidden="1"/>
+    <col min="15618" max="15618" width="20.44140625" style="1" hidden="1"/>
+    <col min="15619" max="15865" width="11.44140625" style="1" hidden="1"/>
+    <col min="15866" max="15866" width="15.44140625" style="1" hidden="1"/>
+    <col min="15867" max="15867" width="11.44140625" style="1" hidden="1"/>
+    <col min="15868" max="15868" width="15.6640625" style="1" hidden="1"/>
+    <col min="15869" max="15869" width="21.6640625" style="1" hidden="1"/>
+    <col min="15870" max="15872" width="11.44140625" style="1" hidden="1"/>
     <col min="15873" max="15873" width="16" style="1" hidden="1"/>
-    <col min="15874" max="15874" width="20.42578125" style="1" hidden="1"/>
-    <col min="15875" max="16121" width="11.42578125" style="1" hidden="1"/>
-    <col min="16122" max="16122" width="15.42578125" style="1" hidden="1"/>
-    <col min="16123" max="16123" width="11.42578125" style="1" hidden="1"/>
-    <col min="16124" max="16124" width="15.7109375" style="1" hidden="1"/>
-    <col min="16125" max="16125" width="21.7109375" style="1" hidden="1"/>
-    <col min="16126" max="16128" width="11.42578125" style="1" hidden="1"/>
+    <col min="15874" max="15874" width="20.44140625" style="1" hidden="1"/>
+    <col min="15875" max="16121" width="11.44140625" style="1" hidden="1"/>
+    <col min="16122" max="16122" width="15.44140625" style="1" hidden="1"/>
+    <col min="16123" max="16123" width="11.44140625" style="1" hidden="1"/>
+    <col min="16124" max="16124" width="15.6640625" style="1" hidden="1"/>
+    <col min="16125" max="16125" width="21.6640625" style="1" hidden="1"/>
+    <col min="16126" max="16128" width="11.44140625" style="1" hidden="1"/>
     <col min="16129" max="16129" width="16" style="1" hidden="1"/>
-    <col min="16130" max="16130" width="20.42578125" style="1" hidden="1"/>
-    <col min="16131" max="16131" width="11.42578125" style="1" hidden="1"/>
+    <col min="16130" max="16130" width="20.44140625" style="1" hidden="1"/>
+    <col min="16131" max="16131" width="11.44140625" style="1" hidden="1"/>
     <col min="16132" max="16132" width="16" style="1" hidden="1"/>
-    <col min="16133" max="16133" width="20.42578125" style="1" hidden="1"/>
+    <col min="16133" max="16133" width="20.44140625" style="1" hidden="1"/>
     <col min="16134" max="16134" width="16" style="1" hidden="1"/>
-    <col min="16135" max="16140" width="20.42578125" style="1" hidden="1"/>
-    <col min="16141" max="16384" width="11.42578125" style="1" hidden="1"/>
+    <col min="16135" max="16140" width="20.44140625" style="1" hidden="1"/>
+    <col min="16141" max="16384" width="11.44140625" style="1" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="56.65" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:25" ht="56.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
@@ -2969,7 +2970,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:25" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:25" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="54" t="str">
         <f>RAWDATA!B2</f>
         <v>applicant.last_name</v>
@@ -3008,13 +3009,13 @@
       </c>
       <c r="M2" s="34" t="str">
         <f>IF(ISBLANK(RAWDATA!F2),SUM(K2:L2),RAWDATA!F2)</f>
-        <v>applicant.sanitized_grade</v>
+        <v>attendance.sanitized_grade</v>
       </c>
       <c r="N2" s="4"/>
       <c r="O2" s="4"/>
       <c r="P2" s="34" t="str">
         <f>RAWDATA!G2</f>
-        <v>applicant.ects_points</v>
+        <v>attendance.ects_points</v>
       </c>
       <c r="Q2" s="33"/>
       <c r="R2" s="34" t="e">
@@ -3044,7 +3045,7 @@
         <v>course.teacher_name</v>
       </c>
     </row>
-    <row r="3" spans="1:25" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:25" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="54">
         <f>RAWDATA!B3</f>
         <v>0</v>
@@ -3119,7 +3120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:25" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:25" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="54">
         <f>RAWDATA!B4</f>
         <v>0</v>
@@ -3194,7 +3195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:25" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="54">
         <f>RAWDATA!B5</f>
         <v>0</v>
@@ -3269,7 +3270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="54">
         <f>RAWDATA!B6</f>
         <v>0</v>
@@ -3344,7 +3345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:25" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="54">
         <f>RAWDATA!B7</f>
         <v>0</v>
@@ -3419,7 +3420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:25" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="54">
         <f>RAWDATA!B8</f>
         <v>0</v>
@@ -3494,7 +3495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:25" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="54">
         <f>RAWDATA!B9</f>
         <v>0</v>
@@ -3569,7 +3570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:25" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:25" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="54">
         <f>RAWDATA!B10</f>
         <v>0</v>
@@ -3644,7 +3645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:25" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:25" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="54">
         <f>RAWDATA!B11</f>
         <v>0</v>
@@ -3719,7 +3720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:25" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:25" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="54">
         <f>RAWDATA!B12</f>
         <v>0</v>
@@ -3794,7 +3795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:25" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:25" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="54">
         <f>RAWDATA!B13</f>
         <v>0</v>
@@ -3869,7 +3870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:25" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:25" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="54">
         <f>RAWDATA!B14</f>
         <v>0</v>
@@ -3944,7 +3945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:25" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:25" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="54">
         <f>RAWDATA!B15</f>
         <v>0</v>
@@ -4019,7 +4020,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:25" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:25" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="54">
         <f>RAWDATA!B16</f>
         <v>0</v>
@@ -4094,7 +4095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:25" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:25" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="54">
         <f>RAWDATA!B17</f>
         <v>0</v>
@@ -4169,7 +4170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:25" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:25" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="54">
         <f>RAWDATA!B18</f>
         <v>0</v>
@@ -4244,7 +4245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:25" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:25" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="54">
         <f>RAWDATA!B19</f>
         <v>0</v>
@@ -4319,7 +4320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:25" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:25" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="54">
         <f>RAWDATA!B20</f>
         <v>0</v>
@@ -4394,7 +4395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:25" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:25" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="54">
         <f>RAWDATA!B21</f>
         <v>0</v>
@@ -4469,7 +4470,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:25" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:25" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="54">
         <f>RAWDATA!B22</f>
         <v>0</v>
@@ -4544,7 +4545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:25" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:25" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="54">
         <f>RAWDATA!B23</f>
         <v>0</v>
@@ -4619,7 +4620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:25" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:25" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="54">
         <f>RAWDATA!B24</f>
         <v>0</v>
@@ -4694,7 +4695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:25" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:25" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="54">
         <f>RAWDATA!B25</f>
         <v>0</v>
@@ -4769,7 +4770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:25" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:25" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="54">
         <f>RAWDATA!B26</f>
         <v>0</v>
@@ -4844,7 +4845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:25" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:25" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="4"/>
       <c r="B27" s="4" t="s">
         <v>9</v>
@@ -4873,7 +4874,7 @@
       <c r="S27" s="4"/>
       <c r="T27" s="4"/>
     </row>
-    <row r="28" spans="1:25" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:25" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="1" t="s">
         <v>55</v>
       </c>
@@ -4914,7 +4915,7 @@
       <c r="S28" s="4"/>
       <c r="T28" s="4"/>
     </row>
-    <row r="29" spans="1:25" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:25" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="4"/>
       <c r="B29" s="4" t="s">
         <v>10</v>
@@ -4950,7 +4951,7 @@
       <c r="S29" s="4"/>
       <c r="T29" s="4"/>
     </row>
-    <row r="30" spans="1:25" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:25" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="22"/>
       <c r="B30" s="22"/>
       <c r="C30" s="23"/>
@@ -4972,12 +4973,12 @@
       <c r="S30" s="22"/>
       <c r="T30" s="22"/>
     </row>
-    <row r="31" spans="1:25" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:25" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
         <v>13</v>
       </c>
       <c r="B31" s="35" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C31" s="23"/>
       <c r="E31" s="86" t="s">
@@ -4999,7 +5000,7 @@
       <c r="S31" s="86"/>
       <c r="T31" s="31"/>
     </row>
-    <row r="32" spans="1:25" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:25" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
         <v>14</v>
       </c>
@@ -5025,7 +5026,7 @@
       <c r="S32" s="86"/>
       <c r="T32" s="31"/>
     </row>
-    <row r="33" spans="1:20" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:20" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
         <v>15</v>
       </c>
@@ -5051,7 +5052,7 @@
       <c r="S33" s="86"/>
       <c r="T33" s="31"/>
     </row>
-    <row r="34" spans="1:20" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:20" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
         <v>16</v>
       </c>
@@ -5079,7 +5080,7 @@
       <c r="S34" s="86"/>
       <c r="T34" s="31"/>
     </row>
-    <row r="35" spans="1:20" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:20" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
         <v>44</v>
       </c>
@@ -5105,7 +5106,7 @@
       <c r="S35" s="86"/>
       <c r="T35" s="31"/>
     </row>
-    <row r="36" spans="1:20" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:20" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
         <v>30</v>
       </c>
@@ -5131,7 +5132,7 @@
       <c r="S36" s="86"/>
       <c r="T36" s="31"/>
     </row>
-    <row r="37" spans="1:20" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:20" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
         <v>54</v>
       </c>
@@ -5157,7 +5158,7 @@
       <c r="S37" s="31"/>
       <c r="T37" s="31"/>
     </row>
-    <row r="38" spans="1:20" ht="13.9" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:20" ht="13.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="P38" s="25"/>
       <c r="Q38" s="22"/>
       <c r="R38" s="25"/>
@@ -5172,12 +5173,12 @@
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <conditionalFormatting sqref="H26">
-    <cfRule type="cellIs" dxfId="9" priority="9" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="9" stopIfTrue="1" operator="greaterThan">
       <formula>$H$27</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I26:J26">
-    <cfRule type="cellIs" dxfId="8" priority="3" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="0" priority="3" stopIfTrue="1" operator="greaterThan">
       <formula>$I$27</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5192,25 +5193,25 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:K30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" customWidth="1"/>
-    <col min="3" max="3" width="10.5703125" customWidth="1"/>
+    <col min="1" max="1" width="15.6640625" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" customWidth="1"/>
+    <col min="3" max="3" width="10.5546875" customWidth="1"/>
     <col min="4" max="4" width="14" customWidth="1"/>
-    <col min="5" max="9" width="10.7109375" customWidth="1"/>
-    <col min="10" max="10" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="5.7109375" customWidth="1"/>
+    <col min="5" max="9" width="10.6640625" customWidth="1"/>
+    <col min="10" max="10" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="84" t="str">
         <f>Notenliste!B34</f>
         <v>course.name</v>
@@ -5223,7 +5224,7 @@
       <c r="H1" s="88"/>
       <c r="I1" s="88"/>
     </row>
-    <row r="2" spans="1:11" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A2" s="26" t="s">
         <v>0</v>
       </c>
@@ -5256,7 +5257,7 @@
       </c>
       <c r="K2" s="4"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="82" t="str">
         <f>RAWDATA!B2</f>
         <v>applicant.last_name</v>
@@ -5284,7 +5285,7 @@
       </c>
       <c r="K3" s="4"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="82">
         <f>RAWDATA!B3</f>
         <v>0</v>
@@ -5312,7 +5313,7 @@
       </c>
       <c r="K4" s="4"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="82">
         <f>RAWDATA!B4</f>
         <v>0</v>
@@ -5340,7 +5341,7 @@
       </c>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="82">
         <f>RAWDATA!B5</f>
         <v>0</v>
@@ -5368,7 +5369,7 @@
       </c>
       <c r="K6" s="4"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="82">
         <f>RAWDATA!B6</f>
         <v>0</v>
@@ -5396,7 +5397,7 @@
       </c>
       <c r="K7" s="4"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="82">
         <f>RAWDATA!B7</f>
         <v>0</v>
@@ -5424,7 +5425,7 @@
       </c>
       <c r="K8" s="4"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="82">
         <f>RAWDATA!B8</f>
         <v>0</v>
@@ -5452,7 +5453,7 @@
       </c>
       <c r="K9" s="4"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="82">
         <f>RAWDATA!B9</f>
         <v>0</v>
@@ -5480,7 +5481,7 @@
       </c>
       <c r="K10" s="4"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="82">
         <f>RAWDATA!B10</f>
         <v>0</v>
@@ -5508,7 +5509,7 @@
       </c>
       <c r="K11" s="4"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="82">
         <f>RAWDATA!B11</f>
         <v>0</v>
@@ -5536,7 +5537,7 @@
       </c>
       <c r="K12" s="4"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="82">
         <f>RAWDATA!B12</f>
         <v>0</v>
@@ -5564,7 +5565,7 @@
       </c>
       <c r="K13" s="4"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="82">
         <f>RAWDATA!B13</f>
         <v>0</v>
@@ -5592,7 +5593,7 @@
       </c>
       <c r="K14" s="4"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="82">
         <f>RAWDATA!B14</f>
         <v>0</v>
@@ -5620,7 +5621,7 @@
       </c>
       <c r="K15" s="4"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="82">
         <f>RAWDATA!B15</f>
         <v>0</v>
@@ -5648,7 +5649,7 @@
       </c>
       <c r="K16" s="4"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="82">
         <f>RAWDATA!B16</f>
         <v>0</v>
@@ -5676,7 +5677,7 @@
       </c>
       <c r="K17" s="4"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="82">
         <f>RAWDATA!B17</f>
         <v>0</v>
@@ -5704,7 +5705,7 @@
       </c>
       <c r="K18" s="4"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="82">
         <f>RAWDATA!B18</f>
         <v>0</v>
@@ -5732,7 +5733,7 @@
       </c>
       <c r="K19" s="4"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="82">
         <f>RAWDATA!B19</f>
         <v>0</v>
@@ -5760,7 +5761,7 @@
       </c>
       <c r="K20" s="4"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="82">
         <f>RAWDATA!B20</f>
         <v>0</v>
@@ -5788,7 +5789,7 @@
       </c>
       <c r="K21" s="4"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="82">
         <f>RAWDATA!B21</f>
         <v>0</v>
@@ -5816,7 +5817,7 @@
       </c>
       <c r="K22" s="4"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="82">
         <f>RAWDATA!B22</f>
         <v>0</v>
@@ -5844,7 +5845,7 @@
       </c>
       <c r="K23" s="4"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="82">
         <f>RAWDATA!B23</f>
         <v>0</v>
@@ -5872,7 +5873,7 @@
       </c>
       <c r="K24" s="4"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="82">
         <f>RAWDATA!B24</f>
         <v>0</v>
@@ -5900,7 +5901,7 @@
       </c>
       <c r="K25" s="4"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="82">
         <f>RAWDATA!B25</f>
         <v>0</v>
@@ -5928,7 +5929,7 @@
       </c>
       <c r="K26" s="4"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="82">
         <f>RAWDATA!B26</f>
         <v>0</v>
@@ -5956,7 +5957,7 @@
       </c>
       <c r="K27" s="4"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="4"/>
       <c r="B28" s="4" t="s">
         <v>9</v>
@@ -5971,7 +5972,7 @@
       <c r="J28" s="4"/>
       <c r="K28" s="4"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="1" t="s">
         <v>129</v>
@@ -5989,7 +5990,7 @@
       </c>
       <c r="K29" s="4"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="4"/>
       <c r="B30" s="4" t="s">
         <v>10</v>
@@ -6018,7 +6019,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr codeName="Tabelle3">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -6028,15 +6029,15 @@
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4" zeroHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" style="7" customWidth="1"/>
-    <col min="3" max="8" width="11.42578125" customWidth="1"/>
-    <col min="9" max="16384" width="11.42578125" hidden="1"/>
+    <col min="1" max="1" width="11.44140625" customWidth="1"/>
+    <col min="2" max="2" width="11.44140625" style="7" customWidth="1"/>
+    <col min="3" max="8" width="11.44140625" customWidth="1"/>
+    <col min="9" max="16384" width="11.44140625" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="89" t="str">
         <f>Notenliste!B34</f>
         <v>course.name</v>
@@ -6050,7 +6051,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>5</v>
       </c>
@@ -6058,7 +6059,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="7">
         <v>1</v>
       </c>
@@ -6067,7 +6068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="7">
         <v>1.3</v>
       </c>
@@ -6076,7 +6077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="7">
         <v>1.7</v>
       </c>
@@ -6085,7 +6086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="7">
         <v>2</v>
       </c>
@@ -6094,7 +6095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="7">
         <v>2.2999999999999998</v>
       </c>
@@ -6103,7 +6104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="7">
         <v>2.7</v>
       </c>
@@ -6112,7 +6113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="7">
         <v>3</v>
       </c>
@@ -6121,7 +6122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="7">
         <v>3.3</v>
       </c>
@@ -6130,7 +6131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="7">
         <v>3.7</v>
       </c>
@@ -6139,7 +6140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="7">
         <v>4</v>
       </c>
@@ -6148,7 +6149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
         <v>31</v>
       </c>
@@ -6169,7 +6170,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr codeName="Tabelle4">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -6179,22 +6180,22 @@
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4" zeroHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.7109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="25.7109375" customWidth="1"/>
-    <col min="4" max="5" width="10.7109375" style="20" customWidth="1"/>
-    <col min="6" max="6" width="40.7109375" customWidth="1"/>
-    <col min="7" max="7" width="20.7109375" customWidth="1"/>
-    <col min="8" max="8" width="10.7109375" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="9.28515625" hidden="1" customWidth="1"/>
-    <col min="10" max="13" width="5.7109375" style="7" customWidth="1"/>
-    <col min="14" max="14" width="5.7109375" customWidth="1"/>
-    <col min="15" max="15" width="1.7109375" customWidth="1"/>
-    <col min="16" max="16384" width="11.42578125" hidden="1"/>
+    <col min="1" max="1" width="3.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="25.6640625" customWidth="1"/>
+    <col min="4" max="5" width="10.6640625" style="20" customWidth="1"/>
+    <col min="6" max="6" width="40.6640625" customWidth="1"/>
+    <col min="7" max="7" width="20.6640625" customWidth="1"/>
+    <col min="8" max="8" width="10.6640625" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="9.33203125" hidden="1" customWidth="1"/>
+    <col min="10" max="13" width="5.6640625" style="7" customWidth="1"/>
+    <col min="14" max="14" width="5.6640625" customWidth="1"/>
+    <col min="15" max="15" width="1.6640625" customWidth="1"/>
+    <col min="16" max="16384" width="11.44140625" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="90" t="str">
         <f>Notenliste!B34&amp;Notenliste!B35</f>
         <v>course.namecourse.alternative</v>
@@ -6213,7 +6214,7 @@
       <c r="M1" s="90"/>
       <c r="N1" s="90"/>
     </row>
-    <row r="2" spans="1:15" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="91" t="str">
         <f>"Dozent/in: "&amp;Notenliste!B31</f>
         <v>Dozent/in: course.teacher_name</v>
@@ -6236,7 +6237,7 @@
       <c r="N2" s="92"/>
       <c r="O2" s="62"/>
     </row>
-    <row r="3" spans="1:15" s="16" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" s="16" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="14" t="s">
         <v>24</v>
       </c>
@@ -6281,7 +6282,7 @@
       </c>
       <c r="O3" s="63"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="17">
         <v>1</v>
       </c>
@@ -6339,7 +6340,7 @@
       </c>
       <c r="O4" s="62"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" s="17">
         <v>2</v>
       </c>
@@ -6397,7 +6398,7 @@
       </c>
       <c r="O5" s="62"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="17">
         <v>3</v>
       </c>
@@ -6455,7 +6456,7 @@
       </c>
       <c r="O6" s="62"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" s="17">
         <v>4</v>
       </c>
@@ -6513,7 +6514,7 @@
       </c>
       <c r="O7" s="62"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" s="17">
         <v>5</v>
       </c>
@@ -6571,7 +6572,7 @@
       </c>
       <c r="O8" s="62"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" s="17">
         <v>6</v>
       </c>
@@ -6629,7 +6630,7 @@
       </c>
       <c r="O9" s="62"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" s="17">
         <v>7</v>
       </c>
@@ -6687,7 +6688,7 @@
       </c>
       <c r="O10" s="62"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" s="17">
         <v>8</v>
       </c>
@@ -6745,7 +6746,7 @@
       </c>
       <c r="O11" s="62"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" s="17">
         <v>9</v>
       </c>
@@ -6803,7 +6804,7 @@
       </c>
       <c r="O12" s="62"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="17">
         <v>10</v>
       </c>
@@ -6861,7 +6862,7 @@
       </c>
       <c r="O13" s="62"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" s="17">
         <v>11</v>
       </c>
@@ -6919,7 +6920,7 @@
       </c>
       <c r="O14" s="62"/>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="17">
         <v>12</v>
       </c>
@@ -6977,7 +6978,7 @@
       </c>
       <c r="O15" s="62"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" s="17">
         <v>13</v>
       </c>
@@ -7035,7 +7036,7 @@
       </c>
       <c r="O16" s="62"/>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" s="17">
         <v>14</v>
       </c>
@@ -7093,7 +7094,7 @@
       </c>
       <c r="O17" s="62"/>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18" s="17">
         <v>15</v>
       </c>
@@ -7151,7 +7152,7 @@
       </c>
       <c r="O18" s="62"/>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" s="17">
         <v>16</v>
       </c>
@@ -7209,7 +7210,7 @@
       </c>
       <c r="O19" s="62"/>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20" s="17">
         <v>17</v>
       </c>
@@ -7267,7 +7268,7 @@
       </c>
       <c r="O20" s="62"/>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" s="17">
         <v>18</v>
       </c>
@@ -7325,7 +7326,7 @@
       </c>
       <c r="O21" s="62"/>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A22" s="17">
         <v>19</v>
       </c>
@@ -7383,7 +7384,7 @@
       </c>
       <c r="O22" s="62"/>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A23" s="17">
         <v>20</v>
       </c>
@@ -7441,7 +7442,7 @@
       </c>
       <c r="O23" s="62"/>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A24" s="17">
         <v>21</v>
       </c>
@@ -7499,7 +7500,7 @@
       </c>
       <c r="O24" s="62"/>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A25" s="17">
         <v>22</v>
       </c>
@@ -7557,7 +7558,7 @@
       </c>
       <c r="O25" s="62"/>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A26" s="17">
         <v>23</v>
       </c>
@@ -7615,7 +7616,7 @@
       </c>
       <c r="O26" s="62"/>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A27" s="17">
         <v>24</v>
       </c>
@@ -7673,7 +7674,7 @@
       </c>
       <c r="O27" s="62"/>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A28" s="17">
         <v>25</v>
       </c>
@@ -7731,7 +7732,7 @@
       </c>
       <c r="O28" s="62"/>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A29" s="59"/>
       <c r="B29" s="60"/>
       <c r="C29" s="60"/>
@@ -7754,7 +7755,7 @@
       <c r="N29" s="59"/>
       <c r="O29" s="62"/>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A30" s="93" t="s">
         <v>43</v>
       </c>
@@ -7773,7 +7774,7 @@
       <c r="N30" s="93"/>
       <c r="O30" s="62"/>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A31" s="93"/>
       <c r="B31" s="93"/>
       <c r="C31" s="93"/>
@@ -7790,7 +7791,7 @@
       <c r="N31" s="93"/>
       <c r="O31" s="62"/>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A32" s="93"/>
       <c r="B32" s="93"/>
       <c r="C32" s="93"/>
@@ -7807,7 +7808,7 @@
       <c r="N32" s="93"/>
       <c r="O32" s="62"/>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A33" s="93"/>
       <c r="B33" s="93"/>
       <c r="C33" s="93"/>
@@ -7824,7 +7825,7 @@
       <c r="N33" s="93"/>
       <c r="O33" s="62"/>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A34" s="93"/>
       <c r="B34" s="93"/>
       <c r="C34" s="93"/>
@@ -7860,7 +7861,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr codeName="Tabelle5">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -7870,24 +7871,24 @@
       <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.7109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.42578125" customWidth="1"/>
-    <col min="4" max="4" width="6.42578125" style="20" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" style="20" customWidth="1"/>
-    <col min="6" max="6" width="0.7109375" style="20" customWidth="1"/>
-    <col min="7" max="20" width="4.7109375" style="20" customWidth="1"/>
-    <col min="21" max="21" width="0.7109375" style="20" customWidth="1"/>
-    <col min="22" max="22" width="5.7109375" style="52" customWidth="1"/>
-    <col min="23" max="23" width="5.7109375" style="53" customWidth="1"/>
-    <col min="24" max="24" width="5.7109375" style="37" customWidth="1"/>
+    <col min="1" max="1" width="3.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.44140625" customWidth="1"/>
+    <col min="4" max="4" width="6.44140625" style="20" customWidth="1"/>
+    <col min="5" max="5" width="9.6640625" style="20" customWidth="1"/>
+    <col min="6" max="6" width="0.6640625" style="20" customWidth="1"/>
+    <col min="7" max="20" width="4.6640625" style="20" customWidth="1"/>
+    <col min="21" max="21" width="0.6640625" style="20" customWidth="1"/>
+    <col min="22" max="22" width="5.6640625" style="52" customWidth="1"/>
+    <col min="23" max="23" width="5.6640625" style="53" customWidth="1"/>
+    <col min="24" max="24" width="5.6640625" style="37" customWidth="1"/>
     <col min="25" max="31" width="0" hidden="1" customWidth="1"/>
-    <col min="32" max="16384" width="11.42578125" hidden="1"/>
+    <col min="32" max="16384" width="11.44140625" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="97" t="str">
         <f>Notenliste!B34&amp;Notenliste!B35</f>
         <v>course.namecourse.alternative</v>
@@ -7916,7 +7917,7 @@
       <c r="W1" s="97"/>
       <c r="X1" s="97"/>
     </row>
-    <row r="2" spans="1:24" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="97" t="s">
         <v>41</v>
       </c>
@@ -7944,7 +7945,7 @@
       <c r="W2" s="97"/>
       <c r="X2" s="97"/>
     </row>
-    <row r="3" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="98" t="str">
         <f>"Dozent/in: "&amp;Notenliste!B31</f>
         <v>Dozent/in: course.teacher_name</v>
@@ -7973,7 +7974,7 @@
       <c r="W3" s="96"/>
       <c r="X3" s="96"/>
     </row>
-    <row r="4" spans="1:24" s="16" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24" s="16" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="94" t="s">
         <v>24</v>
       </c>
@@ -8015,7 +8016,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="5" spans="1:24" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:24" s="16" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A5" s="95"/>
       <c r="B5" s="95"/>
       <c r="C5" s="95"/>
@@ -8069,7 +8070,7 @@
       <c r="W5" s="102"/>
       <c r="X5" s="102"/>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A6" s="17">
         <v>1</v>
       </c>
@@ -8109,7 +8110,7 @@
       <c r="W6" s="51"/>
       <c r="X6" s="51"/>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A7" s="17">
         <v>2</v>
       </c>
@@ -8149,7 +8150,7 @@
       <c r="W7" s="51"/>
       <c r="X7" s="51"/>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A8" s="17">
         <v>3</v>
       </c>
@@ -8189,7 +8190,7 @@
       <c r="W8" s="51"/>
       <c r="X8" s="51"/>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A9" s="17">
         <v>4</v>
       </c>
@@ -8229,7 +8230,7 @@
       <c r="W9" s="51"/>
       <c r="X9" s="51"/>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A10" s="17">
         <v>5</v>
       </c>
@@ -8269,7 +8270,7 @@
       <c r="W10" s="51"/>
       <c r="X10" s="51"/>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A11" s="17">
         <v>6</v>
       </c>
@@ -8309,7 +8310,7 @@
       <c r="W11" s="51"/>
       <c r="X11" s="51"/>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A12" s="17">
         <v>7</v>
       </c>
@@ -8349,7 +8350,7 @@
       <c r="W12" s="51"/>
       <c r="X12" s="51"/>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A13" s="17">
         <v>8</v>
       </c>
@@ -8389,7 +8390,7 @@
       <c r="W13" s="51"/>
       <c r="X13" s="51"/>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A14" s="17">
         <v>9</v>
       </c>
@@ -8429,7 +8430,7 @@
       <c r="W14" s="51"/>
       <c r="X14" s="51"/>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A15" s="17">
         <v>10</v>
       </c>
@@ -8469,7 +8470,7 @@
       <c r="W15" s="51"/>
       <c r="X15" s="51"/>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A16" s="17">
         <v>11</v>
       </c>
@@ -8509,7 +8510,7 @@
       <c r="W16" s="51"/>
       <c r="X16" s="51"/>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A17" s="17">
         <v>12</v>
       </c>
@@ -8549,7 +8550,7 @@
       <c r="W17" s="51"/>
       <c r="X17" s="51"/>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A18" s="17">
         <v>13</v>
       </c>
@@ -8589,7 +8590,7 @@
       <c r="W18" s="51"/>
       <c r="X18" s="51"/>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A19" s="17">
         <v>14</v>
       </c>
@@ -8629,7 +8630,7 @@
       <c r="W19" s="51"/>
       <c r="X19" s="51"/>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A20" s="17">
         <v>15</v>
       </c>
@@ -8669,7 +8670,7 @@
       <c r="W20" s="51"/>
       <c r="X20" s="51"/>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A21" s="17">
         <v>16</v>
       </c>
@@ -8709,7 +8710,7 @@
       <c r="W21" s="51"/>
       <c r="X21" s="51"/>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A22" s="17">
         <v>17</v>
       </c>
@@ -8749,7 +8750,7 @@
       <c r="W22" s="51"/>
       <c r="X22" s="51"/>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A23" s="17">
         <v>18</v>
       </c>
@@ -8789,7 +8790,7 @@
       <c r="W23" s="51"/>
       <c r="X23" s="51"/>
     </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A24" s="17">
         <v>19</v>
       </c>
@@ -8829,7 +8830,7 @@
       <c r="W24" s="51"/>
       <c r="X24" s="51"/>
     </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A25" s="17">
         <v>20</v>
       </c>
@@ -8869,7 +8870,7 @@
       <c r="W25" s="51"/>
       <c r="X25" s="51"/>
     </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A26" s="17">
         <v>21</v>
       </c>
@@ -8909,7 +8910,7 @@
       <c r="W26" s="51"/>
       <c r="X26" s="51"/>
     </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A27" s="17">
         <v>22</v>
       </c>
@@ -8949,7 +8950,7 @@
       <c r="W27" s="51"/>
       <c r="X27" s="51"/>
     </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A28" s="17">
         <v>23</v>
       </c>
@@ -8989,7 +8990,7 @@
       <c r="W28" s="51"/>
       <c r="X28" s="51"/>
     </row>
-    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A29" s="17">
         <v>24</v>
       </c>
@@ -9029,7 +9030,7 @@
       <c r="W29" s="51"/>
       <c r="X29" s="51"/>
     </row>
-    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A30" s="17">
         <v>25</v>
       </c>
@@ -9096,25 +9097,25 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr codeName="Tabelle6"/>
   <dimension ref="A1:H26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="18" style="13" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.42578125" style="66" customWidth="1"/>
-    <col min="5" max="5" width="18.140625" style="65" customWidth="1"/>
-    <col min="6" max="7" width="19.7109375" customWidth="1"/>
-    <col min="8" max="8" width="46.42578125" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.44140625" style="66" customWidth="1"/>
+    <col min="5" max="5" width="18.109375" style="65" customWidth="1"/>
+    <col min="6" max="7" width="19.6640625" customWidth="1"/>
+    <col min="8" max="8" width="46.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
         <v>25</v>
       </c>
@@ -9140,14 +9141,14 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="13" t="str">
         <f>IF(Notenliste!D2=0," ",Notenliste!D2)</f>
         <v>applicant.tag</v>
       </c>
       <c r="C2" t="str">
         <f>IF(Notenliste!D2&lt;&gt;0,IF(Notenliste!P2&lt;&gt;0,Notenliste!P2,Notenliste!$B$33)," ")</f>
-        <v>applicant.ects_points</v>
+        <v>attendance.ects_points</v>
       </c>
       <c r="D2" s="69" t="e">
         <f>IF(Notenliste!D2=0," ",IF(Notenliste!F2="KP"," ",IF(Notenliste!F2="NB","nicht bestanden",Notenliste!F2)))</f>
@@ -9158,7 +9159,7 @@
         <v>exam_date</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="13" t="str">
         <f>IF(Notenliste!D3=0," ",Notenliste!D3)</f>
         <v xml:space="preserve"> </v>
@@ -9176,7 +9177,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="13" t="str">
         <f>IF(Notenliste!D4=0," ",Notenliste!D4)</f>
         <v xml:space="preserve"> </v>
@@ -9194,7 +9195,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="13" t="str">
         <f>IF(Notenliste!D5=0," ",Notenliste!D5)</f>
         <v xml:space="preserve"> </v>
@@ -9212,7 +9213,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="13" t="str">
         <f>IF(Notenliste!D6=0," ",Notenliste!D6)</f>
         <v xml:space="preserve"> </v>
@@ -9230,7 +9231,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="13" t="str">
         <f>IF(Notenliste!D7=0," ",Notenliste!D7)</f>
         <v xml:space="preserve"> </v>
@@ -9248,7 +9249,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="13" t="str">
         <f>IF(Notenliste!D8=0," ",Notenliste!D8)</f>
         <v xml:space="preserve"> </v>
@@ -9266,7 +9267,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="13" t="str">
         <f>IF(Notenliste!D9=0," ",Notenliste!D9)</f>
         <v xml:space="preserve"> </v>
@@ -9284,7 +9285,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="13" t="str">
         <f>IF(Notenliste!D10=0," ",Notenliste!D10)</f>
         <v xml:space="preserve"> </v>
@@ -9302,7 +9303,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="13" t="str">
         <f>IF(Notenliste!D11=0," ",Notenliste!D11)</f>
         <v xml:space="preserve"> </v>
@@ -9320,7 +9321,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="13" t="str">
         <f>IF(Notenliste!D12=0," ",Notenliste!D12)</f>
         <v xml:space="preserve"> </v>
@@ -9338,7 +9339,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="13" t="str">
         <f>IF(Notenliste!D13=0," ",Notenliste!D13)</f>
         <v xml:space="preserve"> </v>
@@ -9356,7 +9357,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="13" t="str">
         <f>IF(Notenliste!D14=0," ",Notenliste!D14)</f>
         <v xml:space="preserve"> </v>
@@ -9374,7 +9375,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="13" t="str">
         <f>IF(Notenliste!D15=0," ",Notenliste!D15)</f>
         <v xml:space="preserve"> </v>
@@ -9392,7 +9393,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="13" t="str">
         <f>IF(Notenliste!D16=0," ",Notenliste!D16)</f>
         <v xml:space="preserve"> </v>
@@ -9410,7 +9411,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="13" t="str">
         <f>IF(Notenliste!D17=0," ",Notenliste!D17)</f>
         <v xml:space="preserve"> </v>
@@ -9428,7 +9429,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="13" t="str">
         <f>IF(Notenliste!D18=0," ",Notenliste!D18)</f>
         <v xml:space="preserve"> </v>
@@ -9446,7 +9447,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="13" t="str">
         <f>IF(Notenliste!D19=0," ",Notenliste!D19)</f>
         <v xml:space="preserve"> </v>
@@ -9464,7 +9465,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="13" t="str">
         <f>IF(Notenliste!D20=0," ",Notenliste!D20)</f>
         <v xml:space="preserve"> </v>
@@ -9482,7 +9483,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="13" t="str">
         <f>IF(Notenliste!D21=0," ",Notenliste!D21)</f>
         <v xml:space="preserve"> </v>
@@ -9500,7 +9501,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="13" t="str">
         <f>IF(Notenliste!D22=0," ",Notenliste!D22)</f>
         <v xml:space="preserve"> </v>
@@ -9518,7 +9519,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="13" t="str">
         <f>IF(Notenliste!D23=0," ",Notenliste!D23)</f>
         <v xml:space="preserve"> </v>
@@ -9536,7 +9537,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="13" t="str">
         <f>IF(Notenliste!D24=0," ",Notenliste!D24)</f>
         <v xml:space="preserve"> </v>
@@ -9554,7 +9555,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="13" t="str">
         <f>IF(Notenliste!D25=0," ",Notenliste!D25)</f>
         <v xml:space="preserve"> </v>
@@ -9572,7 +9573,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="13" t="str">
         <f>IF(Notenliste!D26=0," ",Notenliste!D26)</f>
         <v xml:space="preserve"> </v>
@@ -9593,22 +9594,22 @@
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0" sort="0" autoFilter="0"/>
   <dataValidations count="5">
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1 A27:A1048576">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1 A27:A1048576" xr:uid="{00000000-0002-0000-0600-000000000000}">
       <formula1>0</formula1>
       <formula2>99999999</formula2>
     </dataValidation>
-    <dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1 E27:E1048576">
+    <dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1 E27:E1048576" xr:uid="{00000000-0002-0000-0600-000001000000}">
       <formula1>41275</formula1>
       <formula2>73050</formula2>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C27:C1048576">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C27:C1048576" xr:uid="{00000000-0002-0000-0600-000002000000}">
       <formula1>0</formula1>
       <formula2>120</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1" xr:uid="{00000000-0002-0000-0600-000003000000}">
       <formula1>Notenskala</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1" xr:uid="{00000000-0002-0000-0600-000004000000}">
       <formula1>Anmeldestatus</formula1>
     </dataValidation>
   </dataValidations>
@@ -9621,26 +9622,26 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="26.7109375" customWidth="1"/>
-    <col min="2" max="2" width="22.140625" customWidth="1"/>
-    <col min="3" max="3" width="3.42578125" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" customWidth="1"/>
-    <col min="5" max="5" width="2.7109375" customWidth="1"/>
-    <col min="6" max="6" width="25.7109375" customWidth="1"/>
-    <col min="7" max="7" width="2.42578125" customWidth="1"/>
-    <col min="8" max="8" width="11.42578125" style="20"/>
+    <col min="1" max="1" width="26.6640625" customWidth="1"/>
+    <col min="2" max="2" width="22.109375" customWidth="1"/>
+    <col min="3" max="3" width="3.44140625" customWidth="1"/>
+    <col min="4" max="4" width="11.44140625" customWidth="1"/>
+    <col min="5" max="5" width="2.6640625" customWidth="1"/>
+    <col min="6" max="6" width="25.6640625" customWidth="1"/>
+    <col min="7" max="7" width="2.44140625" customWidth="1"/>
+    <col min="8" max="8" width="11.44140625" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="72" t="s">
         <v>7</v>
       </c>
@@ -9657,7 +9658,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="73" t="s">
         <v>45</v>
       </c>
@@ -9674,7 +9675,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="73" t="s">
         <v>66</v>
       </c>
@@ -9691,7 +9692,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="73" t="s">
         <v>68</v>
       </c>
@@ -9708,7 +9709,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="73" t="s">
         <v>67</v>
       </c>
@@ -9723,7 +9724,7 @@
       </c>
       <c r="H5" s="76"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="73" t="s">
         <v>69</v>
       </c>
@@ -9738,7 +9739,7 @@
       </c>
       <c r="H6" s="76"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="73" t="s">
         <v>70</v>
       </c>
@@ -9753,7 +9754,7 @@
       </c>
       <c r="H7" s="76"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="73" t="s">
         <v>71</v>
       </c>
@@ -9768,7 +9769,7 @@
       </c>
       <c r="H8" s="76"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="73" t="s">
         <v>72</v>
       </c>
@@ -9783,7 +9784,7 @@
       </c>
       <c r="H9" s="76"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="73" t="s">
         <v>108</v>
       </c>
@@ -9798,7 +9799,7 @@
       </c>
       <c r="H10" s="76"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="73" t="s">
         <v>109</v>
       </c>
@@ -9813,7 +9814,7 @@
       </c>
       <c r="H11" s="76"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="73" t="s">
         <v>110</v>
       </c>
@@ -9828,7 +9829,7 @@
       </c>
       <c r="H12" s="76"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="73" t="s">
         <v>111</v>
       </c>
@@ -9843,7 +9844,7 @@
       </c>
       <c r="H13" s="76"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="73"/>
       <c r="B14" s="73"/>
       <c r="D14" s="73" t="s">
@@ -9854,7 +9855,7 @@
       </c>
       <c r="H14" s="76"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="73"/>
       <c r="B15" s="73"/>
       <c r="D15" s="73" t="s">
@@ -9865,7 +9866,7 @@
       </c>
       <c r="H15" s="76"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="73"/>
       <c r="B16" s="73"/>
       <c r="D16" s="73"/>
@@ -9874,7 +9875,7 @@
       </c>
       <c r="H16" s="76"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="73"/>
       <c r="B17" s="73"/>
       <c r="D17" s="73"/>
@@ -9883,7 +9884,7 @@
       </c>
       <c r="H17" s="76"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="73"/>
       <c r="B18" s="73"/>
       <c r="D18" s="73"/>
@@ -9892,14 +9893,14 @@
       </c>
       <c r="H18" s="76"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="73"/>
       <c r="B19" s="73"/>
       <c r="D19" s="73"/>
       <c r="F19" s="73"/>
       <c r="H19" s="76"/>
     </row>
-    <row r="20" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="74"/>
       <c r="B20" s="74"/>
       <c r="D20" s="74"/>

--- a/src/spz/templates/export/spanisch_hueber.xlsx
+++ b/src/spz/templates/export/spanisch_hueber.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28429"/>
   <workbookPr showInkAnnotation="0" updateLinks="never" codeName="DieseArbeitsmappe" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\04_Hiwi\Datenbank\excel_templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C94F4FF-4A29-4512-A9CE-4A606FCDE4ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A997B33D-783D-489C-AE14-0874D7AD7542}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RAWDATA" sheetId="11" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="147">
   <si>
     <t>Name</t>
   </si>
@@ -600,6 +600,18 @@
   </si>
   <si>
     <t>attendance.ects_points</t>
+  </si>
+  <si>
+    <t>Teilnahmeschein</t>
+  </si>
+  <si>
+    <t>Schein erhalten</t>
+  </si>
+  <si>
+    <t>attendance.ts_requested_str</t>
+  </si>
+  <si>
+    <t>attendance.ts_received_str</t>
   </si>
 </sst>
 </file>
@@ -916,7 +928,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="105">
+  <cellXfs count="107">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
@@ -1210,12 +1222,28 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Standard 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
-  <dxfs count="20">
+  <dxfs count="22">
+    <dxf>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <protection locked="0" hidden="0"/>
+    </dxf>
     <dxf>
       <font>
         <condense val="0"/>
@@ -1266,9 +1294,6 @@
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <protection locked="0" hidden="0"/>
     </dxf>
     <dxf>
       <protection locked="0" hidden="0"/>
@@ -1568,17 +1593,19 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="DATA" displayName="DATA" ref="B1:I2" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18">
-  <autoFilter ref="B1:I2" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
-  <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Nachname" dataDxfId="17"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Vorname" dataDxfId="16"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Hochschule" dataDxfId="15"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Matrikelnummer" dataDxfId="14"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Note" dataDxfId="13"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="LP" dataDxfId="12"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="E-Mail" dataDxfId="11"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Telefon" dataDxfId="10"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="DATA" displayName="DATA" ref="B1:K2" totalsRowShown="0" headerRowDxfId="21" dataDxfId="20">
+  <autoFilter ref="B1:K2" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+  <tableColumns count="10">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Nachname" dataDxfId="19"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Vorname" dataDxfId="18"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Hochschule" dataDxfId="17"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Matrikelnummer" dataDxfId="16"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Note" dataDxfId="15"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="LP" dataDxfId="14"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="E-Mail" dataDxfId="13"/>
+    <tableColumn id="10" xr3:uid="{997C5176-9425-4CF7-BE29-F0CD4F66AFDB}" name="Telefon" dataDxfId="2"/>
+    <tableColumn id="8" xr3:uid="{E0D82138-D581-4631-A97C-D5FBC4F95678}" name="Teilnahmeschein" dataDxfId="1"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Schein erhalten" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -1588,21 +1615,21 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tabelle1" displayName="Tabelle1" ref="A1:H26" totalsRowShown="0">
   <autoFilter ref="A1:H26" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Matrikelnummer" dataDxfId="9" totalsRowDxfId="8">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Matrikelnummer" dataDxfId="12" totalsRowDxfId="11">
       <calculatedColumnFormula>IF(Notenliste!D2=0," ",Notenliste!D2)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Status"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="LP" dataDxfId="7">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="LP" dataDxfId="10">
       <calculatedColumnFormula>IF(Notenliste!D2&lt;&gt;0,IF(Notenliste!P2&lt;&gt;0,Notenliste!P2,Notenliste!$B$33)," ")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Note" dataDxfId="6" totalsRowDxfId="5">
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Note" dataDxfId="9" totalsRowDxfId="8">
       <calculatedColumnFormula>IF(Notenliste!D2=0," ",IF(Notenliste!F2="KP"," ",IF(Notenliste!F2="NB","nicht bestanden",Notenliste!F2)))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="Datum" dataDxfId="4">
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="Datum" dataDxfId="7">
       <calculatedColumnFormula>IF(Notenliste!D2&lt;&gt;0,Notenliste!$B$37," ")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Individueller Titel deutsch" dataDxfId="3"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="Individueller Titel englisch" dataDxfId="2"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Individueller Titel deutsch" dataDxfId="6"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="Individueller Titel englisch" dataDxfId="5"/>
     <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="Anmerkungen"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1897,10 +1924,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Tabelle1"/>
-  <dimension ref="A1:K26"/>
+  <dimension ref="A1:M26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4" zeroHeight="1" x14ac:dyDescent="0.3"/>
@@ -1911,14 +1938,15 @@
     <col min="4" max="4" width="14" customWidth="1"/>
     <col min="5" max="5" width="18.44140625" style="13" customWidth="1"/>
     <col min="6" max="7" width="8.109375" style="13" customWidth="1"/>
-    <col min="8" max="8" width="37.109375" customWidth="1"/>
-    <col min="9" max="9" width="31" customWidth="1"/>
-    <col min="10" max="10" width="45.109375" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="10.33203125" hidden="1" customWidth="1"/>
-    <col min="12" max="16384" width="11.44140625" hidden="1"/>
+    <col min="8" max="9" width="37.109375" customWidth="1"/>
+    <col min="10" max="10" width="15.6640625" customWidth="1"/>
+    <col min="11" max="11" width="14.44140625" customWidth="1"/>
+    <col min="12" max="12" width="45.109375" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="10.33203125" hidden="1" customWidth="1"/>
+    <col min="14" max="16384" width="11.44140625" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="39" t="s">
         <v>24</v>
       </c>
@@ -1946,14 +1974,20 @@
       <c r="I1" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="J1" s="39" t="s">
+      <c r="J1" s="105" t="s">
+        <v>143</v>
+      </c>
+      <c r="K1" s="106" t="s">
+        <v>144</v>
+      </c>
+      <c r="L1" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="K1" s="39" t="s">
+      <c r="M1" s="39" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1981,10 +2015,16 @@
       <c r="I2" s="37" t="s">
         <v>119</v>
       </c>
-      <c r="J2" s="37"/>
-      <c r="K2" s="37"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J2" s="37" t="s">
+        <v>145</v>
+      </c>
+      <c r="K2" s="37" t="s">
+        <v>146</v>
+      </c>
+      <c r="L2" s="37"/>
+      <c r="M2" s="37"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1998,8 +2038,10 @@
       <c r="I3" s="37"/>
       <c r="J3" s="37"/>
       <c r="K3" s="37"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L3" s="37"/>
+      <c r="M3" s="37"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2013,8 +2055,10 @@
       <c r="I4" s="37"/>
       <c r="J4" s="37"/>
       <c r="K4" s="37"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L4" s="37"/>
+      <c r="M4" s="37"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2028,8 +2072,10 @@
       <c r="I5" s="37"/>
       <c r="J5" s="37"/>
       <c r="K5" s="37"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L5" s="37"/>
+      <c r="M5" s="37"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2043,8 +2089,10 @@
       <c r="I6" s="37"/>
       <c r="J6" s="37"/>
       <c r="K6" s="37"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L6" s="37"/>
+      <c r="M6" s="37"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2058,8 +2106,10 @@
       <c r="I7" s="37"/>
       <c r="J7" s="37"/>
       <c r="K7" s="37"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L7" s="37"/>
+      <c r="M7" s="37"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -2073,8 +2123,10 @@
       <c r="I8" s="37"/>
       <c r="J8" s="37"/>
       <c r="K8" s="37"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L8" s="37"/>
+      <c r="M8" s="37"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -2088,8 +2140,10 @@
       <c r="I9" s="37"/>
       <c r="J9" s="37"/>
       <c r="K9" s="37"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L9" s="37"/>
+      <c r="M9" s="37"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -2103,8 +2157,10 @@
       <c r="I10" s="37"/>
       <c r="J10" s="37"/>
       <c r="K10" s="37"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L10" s="37"/>
+      <c r="M10" s="37"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -2118,8 +2174,10 @@
       <c r="I11" s="37"/>
       <c r="J11" s="37"/>
       <c r="K11" s="37"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L11" s="37"/>
+      <c r="M11" s="37"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -2133,8 +2191,10 @@
       <c r="I12" s="37"/>
       <c r="J12" s="37"/>
       <c r="K12" s="37"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L12" s="37"/>
+      <c r="M12" s="37"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -2148,8 +2208,10 @@
       <c r="I13" s="37"/>
       <c r="J13" s="37"/>
       <c r="K13" s="37"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L13" s="37"/>
+      <c r="M13" s="37"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -2163,8 +2225,10 @@
       <c r="I14" s="37"/>
       <c r="J14" s="37"/>
       <c r="K14" s="37"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L14" s="37"/>
+      <c r="M14" s="37"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -2178,8 +2242,10 @@
       <c r="I15" s="37"/>
       <c r="J15" s="37"/>
       <c r="K15" s="37"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L15" s="37"/>
+      <c r="M15" s="37"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -2193,8 +2259,10 @@
       <c r="I16" s="37"/>
       <c r="J16" s="37"/>
       <c r="K16" s="37"/>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L16" s="37"/>
+      <c r="M16" s="37"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
@@ -2208,8 +2276,10 @@
       <c r="I17" s="37"/>
       <c r="J17" s="37"/>
       <c r="K17" s="37"/>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L17" s="37"/>
+      <c r="M17" s="37"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
@@ -2223,8 +2293,10 @@
       <c r="I18" s="37"/>
       <c r="J18" s="37"/>
       <c r="K18" s="37"/>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L18" s="37"/>
+      <c r="M18" s="37"/>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
@@ -2238,8 +2310,10 @@
       <c r="I19" s="37"/>
       <c r="J19" s="37"/>
       <c r="K19" s="37"/>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L19" s="37"/>
+      <c r="M19" s="37"/>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
@@ -2253,8 +2327,10 @@
       <c r="I20" s="37"/>
       <c r="J20" s="37"/>
       <c r="K20" s="37"/>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L20" s="37"/>
+      <c r="M20" s="37"/>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
@@ -2268,8 +2344,10 @@
       <c r="I21" s="37"/>
       <c r="J21" s="37"/>
       <c r="K21" s="37"/>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L21" s="37"/>
+      <c r="M21" s="37"/>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
@@ -2283,8 +2361,10 @@
       <c r="I22" s="37"/>
       <c r="J22" s="37"/>
       <c r="K22" s="37"/>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L22" s="37"/>
+      <c r="M22" s="37"/>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
@@ -2298,8 +2378,10 @@
       <c r="I23" s="37"/>
       <c r="J23" s="37"/>
       <c r="K23" s="37"/>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L23" s="37"/>
+      <c r="M23" s="37"/>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
@@ -2313,8 +2395,10 @@
       <c r="I24" s="37"/>
       <c r="J24" s="37"/>
       <c r="K24" s="37"/>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L24" s="37"/>
+      <c r="M24" s="37"/>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
@@ -2328,8 +2412,10 @@
       <c r="I25" s="37"/>
       <c r="J25" s="37"/>
       <c r="K25" s="37"/>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L25" s="37"/>
+      <c r="M25" s="37"/>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
@@ -2343,6 +2429,8 @@
       <c r="I26" s="37"/>
       <c r="J26" s="37"/>
       <c r="K26" s="37"/>
+      <c r="L26" s="37"/>
+      <c r="M26" s="37"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1" formatColumns="0" selectLockedCells="1"/>
@@ -2361,8 +2449,8 @@
   </sheetPr>
   <dimension ref="A1:WVT38"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="S2" sqref="S2:S26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="13.95" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.25"/>
@@ -3017,12 +3105,18 @@
         <f>RAWDATA!G2</f>
         <v>attendance.ects_points</v>
       </c>
-      <c r="Q2" s="33"/>
+      <c r="Q2" s="33" t="str">
+        <f>RAWDATA!J2</f>
+        <v>attendance.ts_requested_str</v>
+      </c>
       <c r="R2" s="34" t="e">
         <f t="shared" ref="R2:R26" si="1">IF(OR(F2="NB",F2="KP"),"","X")</f>
         <v>#VALUE!</v>
       </c>
-      <c r="S2" s="33"/>
+      <c r="S2" s="33" t="str">
+        <f>RAWDATA!K2</f>
+        <v>attendance.ts_received_str</v>
+      </c>
       <c r="T2" s="4"/>
       <c r="U2" s="2" t="str">
         <f>IF(M2&gt;0,$B$33,0)</f>
@@ -3092,12 +3186,18 @@
         <f>RAWDATA!G3</f>
         <v>0</v>
       </c>
-      <c r="Q3" s="33"/>
+      <c r="Q3" s="33">
+        <f>RAWDATA!J3</f>
+        <v>0</v>
+      </c>
       <c r="R3" s="34" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="S3" s="33"/>
+      <c r="S3" s="33">
+        <f>RAWDATA!K3</f>
+        <v>0</v>
+      </c>
       <c r="T3" s="4"/>
       <c r="U3" s="2">
         <f t="shared" ref="U3:U26" si="3">IF(M3&gt;0,$B$33,0)</f>
@@ -3167,12 +3267,18 @@
         <f>RAWDATA!G4</f>
         <v>0</v>
       </c>
-      <c r="Q4" s="33"/>
+      <c r="Q4" s="33">
+        <f>RAWDATA!J4</f>
+        <v>0</v>
+      </c>
       <c r="R4" s="34" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="S4" s="33"/>
+      <c r="S4" s="33">
+        <f>RAWDATA!K4</f>
+        <v>0</v>
+      </c>
       <c r="T4" s="4"/>
       <c r="U4" s="2">
         <f t="shared" si="3"/>
@@ -3242,12 +3348,18 @@
         <f>RAWDATA!G5</f>
         <v>0</v>
       </c>
-      <c r="Q5" s="33"/>
+      <c r="Q5" s="33">
+        <f>RAWDATA!J5</f>
+        <v>0</v>
+      </c>
       <c r="R5" s="34" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="S5" s="33"/>
+      <c r="S5" s="33">
+        <f>RAWDATA!K5</f>
+        <v>0</v>
+      </c>
       <c r="T5" s="4"/>
       <c r="U5" s="2">
         <f t="shared" si="3"/>
@@ -3317,12 +3429,18 @@
         <f>RAWDATA!G6</f>
         <v>0</v>
       </c>
-      <c r="Q6" s="33"/>
+      <c r="Q6" s="33">
+        <f>RAWDATA!J6</f>
+        <v>0</v>
+      </c>
       <c r="R6" s="34" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="S6" s="33"/>
+      <c r="S6" s="33">
+        <f>RAWDATA!K6</f>
+        <v>0</v>
+      </c>
       <c r="T6" s="4"/>
       <c r="U6" s="2">
         <f t="shared" si="3"/>
@@ -3392,12 +3510,18 @@
         <f>RAWDATA!G7</f>
         <v>0</v>
       </c>
-      <c r="Q7" s="33"/>
+      <c r="Q7" s="33">
+        <f>RAWDATA!J7</f>
+        <v>0</v>
+      </c>
       <c r="R7" s="34" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="S7" s="33"/>
+      <c r="S7" s="33">
+        <f>RAWDATA!K7</f>
+        <v>0</v>
+      </c>
       <c r="T7" s="4"/>
       <c r="U7" s="2">
         <f t="shared" si="3"/>
@@ -3467,12 +3591,18 @@
         <f>RAWDATA!G8</f>
         <v>0</v>
       </c>
-      <c r="Q8" s="33"/>
+      <c r="Q8" s="33">
+        <f>RAWDATA!J8</f>
+        <v>0</v>
+      </c>
       <c r="R8" s="34" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="S8" s="33"/>
+      <c r="S8" s="33">
+        <f>RAWDATA!K8</f>
+        <v>0</v>
+      </c>
       <c r="T8" s="4"/>
       <c r="U8" s="2">
         <f t="shared" si="3"/>
@@ -3542,12 +3672,18 @@
         <f>RAWDATA!G9</f>
         <v>0</v>
       </c>
-      <c r="Q9" s="33"/>
+      <c r="Q9" s="33">
+        <f>RAWDATA!J9</f>
+        <v>0</v>
+      </c>
       <c r="R9" s="34" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="S9" s="33"/>
+      <c r="S9" s="33">
+        <f>RAWDATA!K9</f>
+        <v>0</v>
+      </c>
       <c r="T9" s="4"/>
       <c r="U9" s="2">
         <f t="shared" si="3"/>
@@ -3617,12 +3753,18 @@
         <f>RAWDATA!G10</f>
         <v>0</v>
       </c>
-      <c r="Q10" s="33"/>
+      <c r="Q10" s="33">
+        <f>RAWDATA!J10</f>
+        <v>0</v>
+      </c>
       <c r="R10" s="34" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="S10" s="33"/>
+      <c r="S10" s="33">
+        <f>RAWDATA!K10</f>
+        <v>0</v>
+      </c>
       <c r="T10" s="4"/>
       <c r="U10" s="2">
         <f t="shared" si="3"/>
@@ -3692,12 +3834,18 @@
         <f>RAWDATA!G11</f>
         <v>0</v>
       </c>
-      <c r="Q11" s="33"/>
+      <c r="Q11" s="33">
+        <f>RAWDATA!J11</f>
+        <v>0</v>
+      </c>
       <c r="R11" s="34" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="S11" s="33"/>
+      <c r="S11" s="33">
+        <f>RAWDATA!K11</f>
+        <v>0</v>
+      </c>
       <c r="T11" s="4"/>
       <c r="U11" s="2">
         <f t="shared" si="3"/>
@@ -3767,12 +3915,18 @@
         <f>RAWDATA!G12</f>
         <v>0</v>
       </c>
-      <c r="Q12" s="33"/>
+      <c r="Q12" s="33">
+        <f>RAWDATA!J12</f>
+        <v>0</v>
+      </c>
       <c r="R12" s="34" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="S12" s="33"/>
+      <c r="S12" s="33">
+        <f>RAWDATA!K12</f>
+        <v>0</v>
+      </c>
       <c r="T12" s="4"/>
       <c r="U12" s="2">
         <f t="shared" si="3"/>
@@ -3842,12 +3996,18 @@
         <f>RAWDATA!G13</f>
         <v>0</v>
       </c>
-      <c r="Q13" s="33"/>
+      <c r="Q13" s="33">
+        <f>RAWDATA!J13</f>
+        <v>0</v>
+      </c>
       <c r="R13" s="34" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="S13" s="33"/>
+      <c r="S13" s="33">
+        <f>RAWDATA!K13</f>
+        <v>0</v>
+      </c>
       <c r="T13" s="4"/>
       <c r="U13" s="2">
         <f t="shared" si="3"/>
@@ -3917,12 +4077,18 @@
         <f>RAWDATA!G14</f>
         <v>0</v>
       </c>
-      <c r="Q14" s="33"/>
+      <c r="Q14" s="33">
+        <f>RAWDATA!J14</f>
+        <v>0</v>
+      </c>
       <c r="R14" s="34" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="S14" s="33"/>
+      <c r="S14" s="33">
+        <f>RAWDATA!K14</f>
+        <v>0</v>
+      </c>
       <c r="T14" s="4"/>
       <c r="U14" s="2">
         <f t="shared" si="3"/>
@@ -3992,12 +4158,18 @@
         <f>RAWDATA!G15</f>
         <v>0</v>
       </c>
-      <c r="Q15" s="33"/>
+      <c r="Q15" s="33">
+        <f>RAWDATA!J15</f>
+        <v>0</v>
+      </c>
       <c r="R15" s="34" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="S15" s="33"/>
+      <c r="S15" s="33">
+        <f>RAWDATA!K15</f>
+        <v>0</v>
+      </c>
       <c r="T15" s="4"/>
       <c r="U15" s="2">
         <f t="shared" si="3"/>
@@ -4067,12 +4239,18 @@
         <f>RAWDATA!G16</f>
         <v>0</v>
       </c>
-      <c r="Q16" s="33"/>
+      <c r="Q16" s="33">
+        <f>RAWDATA!J16</f>
+        <v>0</v>
+      </c>
       <c r="R16" s="34" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="S16" s="33"/>
+      <c r="S16" s="33">
+        <f>RAWDATA!K16</f>
+        <v>0</v>
+      </c>
       <c r="T16" s="4"/>
       <c r="U16" s="2">
         <f t="shared" si="3"/>
@@ -4142,12 +4320,18 @@
         <f>RAWDATA!G17</f>
         <v>0</v>
       </c>
-      <c r="Q17" s="33"/>
+      <c r="Q17" s="33">
+        <f>RAWDATA!J17</f>
+        <v>0</v>
+      </c>
       <c r="R17" s="34" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="S17" s="33"/>
+      <c r="S17" s="33">
+        <f>RAWDATA!K17</f>
+        <v>0</v>
+      </c>
       <c r="T17" s="4"/>
       <c r="U17" s="2">
         <f t="shared" si="3"/>
@@ -4217,12 +4401,18 @@
         <f>RAWDATA!G18</f>
         <v>0</v>
       </c>
-      <c r="Q18" s="33"/>
+      <c r="Q18" s="33">
+        <f>RAWDATA!J18</f>
+        <v>0</v>
+      </c>
       <c r="R18" s="34" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="S18" s="33"/>
+      <c r="S18" s="33">
+        <f>RAWDATA!K18</f>
+        <v>0</v>
+      </c>
       <c r="T18" s="4"/>
       <c r="U18" s="2">
         <f t="shared" si="3"/>
@@ -4292,12 +4482,18 @@
         <f>RAWDATA!G19</f>
         <v>0</v>
       </c>
-      <c r="Q19" s="33"/>
+      <c r="Q19" s="33">
+        <f>RAWDATA!J19</f>
+        <v>0</v>
+      </c>
       <c r="R19" s="34" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="S19" s="33"/>
+      <c r="S19" s="33">
+        <f>RAWDATA!K19</f>
+        <v>0</v>
+      </c>
       <c r="T19" s="4"/>
       <c r="U19" s="2">
         <f t="shared" si="3"/>
@@ -4367,12 +4563,18 @@
         <f>RAWDATA!G20</f>
         <v>0</v>
       </c>
-      <c r="Q20" s="33"/>
+      <c r="Q20" s="33">
+        <f>RAWDATA!J20</f>
+        <v>0</v>
+      </c>
       <c r="R20" s="34" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="S20" s="33"/>
+      <c r="S20" s="33">
+        <f>RAWDATA!K20</f>
+        <v>0</v>
+      </c>
       <c r="T20" s="4"/>
       <c r="U20" s="2">
         <f t="shared" si="3"/>
@@ -4442,12 +4644,18 @@
         <f>RAWDATA!G21</f>
         <v>0</v>
       </c>
-      <c r="Q21" s="33"/>
+      <c r="Q21" s="33">
+        <f>RAWDATA!J21</f>
+        <v>0</v>
+      </c>
       <c r="R21" s="34" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="S21" s="33"/>
+      <c r="S21" s="33">
+        <f>RAWDATA!K21</f>
+        <v>0</v>
+      </c>
       <c r="T21" s="4"/>
       <c r="U21" s="2">
         <f t="shared" si="3"/>
@@ -4517,12 +4725,18 @@
         <f>RAWDATA!G22</f>
         <v>0</v>
       </c>
-      <c r="Q22" s="33"/>
+      <c r="Q22" s="33">
+        <f>RAWDATA!J22</f>
+        <v>0</v>
+      </c>
       <c r="R22" s="34" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="S22" s="33"/>
+      <c r="S22" s="33">
+        <f>RAWDATA!K22</f>
+        <v>0</v>
+      </c>
       <c r="T22" s="4"/>
       <c r="U22" s="2">
         <f t="shared" si="3"/>
@@ -4592,12 +4806,18 @@
         <f>RAWDATA!G23</f>
         <v>0</v>
       </c>
-      <c r="Q23" s="33"/>
+      <c r="Q23" s="33">
+        <f>RAWDATA!J23</f>
+        <v>0</v>
+      </c>
       <c r="R23" s="34" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="S23" s="33"/>
+      <c r="S23" s="33">
+        <f>RAWDATA!K23</f>
+        <v>0</v>
+      </c>
       <c r="T23" s="4"/>
       <c r="U23" s="2">
         <f t="shared" si="3"/>
@@ -4667,12 +4887,18 @@
         <f>RAWDATA!G24</f>
         <v>0</v>
       </c>
-      <c r="Q24" s="33"/>
+      <c r="Q24" s="33">
+        <f>RAWDATA!J24</f>
+        <v>0</v>
+      </c>
       <c r="R24" s="34" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="S24" s="33"/>
+      <c r="S24" s="33">
+        <f>RAWDATA!K24</f>
+        <v>0</v>
+      </c>
       <c r="T24" s="4"/>
       <c r="U24" s="2">
         <f t="shared" si="3"/>
@@ -4742,12 +4968,18 @@
         <f>RAWDATA!G25</f>
         <v>0</v>
       </c>
-      <c r="Q25" s="33"/>
+      <c r="Q25" s="33">
+        <f>RAWDATA!J25</f>
+        <v>0</v>
+      </c>
       <c r="R25" s="34" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="S25" s="33"/>
+      <c r="S25" s="33">
+        <f>RAWDATA!K25</f>
+        <v>0</v>
+      </c>
       <c r="T25" s="4"/>
       <c r="U25" s="2">
         <f t="shared" si="3"/>
@@ -4817,12 +5049,18 @@
         <f>RAWDATA!G26</f>
         <v>0</v>
       </c>
-      <c r="Q26" s="33"/>
+      <c r="Q26" s="33">
+        <f>RAWDATA!J26</f>
+        <v>0</v>
+      </c>
       <c r="R26" s="34" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="S26" s="33"/>
+      <c r="S26" s="33">
+        <f>RAWDATA!K26</f>
+        <v>0</v>
+      </c>
       <c r="T26" s="4"/>
       <c r="U26" s="2">
         <f t="shared" si="3"/>
@@ -5173,12 +5411,12 @@
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <conditionalFormatting sqref="H26">
-    <cfRule type="cellIs" dxfId="1" priority="9" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="4" priority="9" stopIfTrue="1" operator="greaterThan">
       <formula>$H$27</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I26:J26">
-    <cfRule type="cellIs" dxfId="0" priority="3" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="3" priority="3" stopIfTrue="1" operator="greaterThan">
       <formula>$I$27</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6311,16 +6549,16 @@
         <v>applicant.phone</v>
       </c>
       <c r="H4" s="19">
-        <f>RAWDATA!J2</f>
+        <f>RAWDATA!L2</f>
         <v>0</v>
       </c>
       <c r="I4" s="19">
-        <f>RAWDATA!K2</f>
+        <f>RAWDATA!M2</f>
         <v>0</v>
       </c>
       <c r="J4" s="17" t="str">
         <f>UPPER(Notenliste!Q2)</f>
-        <v/>
+        <v>ATTENDANCE.TS_REQUESTED_STR</v>
       </c>
       <c r="K4" s="17" t="e">
         <f>IF(L4&lt;=4,"X","")</f>
@@ -6336,7 +6574,7 @@
       </c>
       <c r="N4" s="17" t="str">
         <f>UPPER(Notenliste!S2)</f>
-        <v/>
+        <v>ATTENDANCE.TS_RECEIVED_STR</v>
       </c>
       <c r="O4" s="62"/>
     </row>
@@ -6365,20 +6603,20 @@
         <v>0</v>
       </c>
       <c r="G5" s="18">
-        <f>RAWDATA!I3</f>
+        <f>RAWDATA!K3</f>
         <v>0</v>
       </c>
       <c r="H5" s="19">
-        <f>RAWDATA!J3</f>
+        <f>RAWDATA!L3</f>
         <v>0</v>
       </c>
       <c r="I5" s="19">
-        <f>RAWDATA!K3</f>
+        <f>RAWDATA!M3</f>
         <v>0</v>
       </c>
       <c r="J5" s="17" t="str">
         <f>UPPER(Notenliste!Q3)</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="K5" s="17" t="str">
         <f t="shared" ref="K5:K28" si="0">IF(L5&lt;=4,"X","")</f>
@@ -6394,7 +6632,7 @@
       </c>
       <c r="N5" s="17" t="str">
         <f>UPPER(Notenliste!S3)</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="O5" s="62"/>
     </row>
@@ -6423,20 +6661,20 @@
         <v>0</v>
       </c>
       <c r="G6" s="18">
-        <f>RAWDATA!I4</f>
+        <f>RAWDATA!K4</f>
         <v>0</v>
       </c>
       <c r="H6" s="19">
-        <f>RAWDATA!J4</f>
+        <f>RAWDATA!L4</f>
         <v>0</v>
       </c>
       <c r="I6" s="19">
-        <f>RAWDATA!K4</f>
+        <f>RAWDATA!M4</f>
         <v>0</v>
       </c>
       <c r="J6" s="17" t="str">
         <f>UPPER(Notenliste!Q4)</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="K6" s="17" t="str">
         <f t="shared" si="0"/>
@@ -6452,7 +6690,7 @@
       </c>
       <c r="N6" s="17" t="str">
         <f>UPPER(Notenliste!S4)</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="O6" s="62"/>
     </row>
@@ -6481,20 +6719,20 @@
         <v>0</v>
       </c>
       <c r="G7" s="18">
-        <f>RAWDATA!I5</f>
+        <f>RAWDATA!K5</f>
         <v>0</v>
       </c>
       <c r="H7" s="19">
-        <f>RAWDATA!J5</f>
+        <f>RAWDATA!L5</f>
         <v>0</v>
       </c>
       <c r="I7" s="19">
-        <f>RAWDATA!K5</f>
+        <f>RAWDATA!M5</f>
         <v>0</v>
       </c>
       <c r="J7" s="17" t="str">
         <f>UPPER(Notenliste!Q5)</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="K7" s="17" t="str">
         <f t="shared" si="0"/>
@@ -6510,7 +6748,7 @@
       </c>
       <c r="N7" s="17" t="str">
         <f>UPPER(Notenliste!S5)</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="O7" s="62"/>
     </row>
@@ -6539,20 +6777,20 @@
         <v>0</v>
       </c>
       <c r="G8" s="18">
-        <f>RAWDATA!I6</f>
+        <f>RAWDATA!K6</f>
         <v>0</v>
       </c>
       <c r="H8" s="19">
-        <f>RAWDATA!J6</f>
+        <f>RAWDATA!L6</f>
         <v>0</v>
       </c>
       <c r="I8" s="19">
-        <f>RAWDATA!K6</f>
+        <f>RAWDATA!M6</f>
         <v>0</v>
       </c>
       <c r="J8" s="17" t="str">
         <f>UPPER(Notenliste!Q6)</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="K8" s="17" t="str">
         <f t="shared" si="0"/>
@@ -6568,7 +6806,7 @@
       </c>
       <c r="N8" s="17" t="str">
         <f>UPPER(Notenliste!S6)</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="O8" s="62"/>
     </row>
@@ -6597,20 +6835,20 @@
         <v>0</v>
       </c>
       <c r="G9" s="18">
-        <f>RAWDATA!I7</f>
+        <f>RAWDATA!K7</f>
         <v>0</v>
       </c>
       <c r="H9" s="19">
-        <f>RAWDATA!J7</f>
+        <f>RAWDATA!L7</f>
         <v>0</v>
       </c>
       <c r="I9" s="19">
-        <f>RAWDATA!K7</f>
+        <f>RAWDATA!M7</f>
         <v>0</v>
       </c>
       <c r="J9" s="17" t="str">
         <f>UPPER(Notenliste!Q7)</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="K9" s="17" t="str">
         <f t="shared" si="0"/>
@@ -6626,7 +6864,7 @@
       </c>
       <c r="N9" s="17" t="str">
         <f>UPPER(Notenliste!S7)</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="O9" s="62"/>
     </row>
@@ -6655,20 +6893,20 @@
         <v>0</v>
       </c>
       <c r="G10" s="18">
-        <f>RAWDATA!I8</f>
+        <f>RAWDATA!K8</f>
         <v>0</v>
       </c>
       <c r="H10" s="19">
-        <f>RAWDATA!J8</f>
+        <f>RAWDATA!L8</f>
         <v>0</v>
       </c>
       <c r="I10" s="19">
-        <f>RAWDATA!K8</f>
+        <f>RAWDATA!M8</f>
         <v>0</v>
       </c>
       <c r="J10" s="17" t="str">
         <f>UPPER(Notenliste!Q8)</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="K10" s="17" t="str">
         <f t="shared" si="0"/>
@@ -6684,7 +6922,7 @@
       </c>
       <c r="N10" s="17" t="str">
         <f>UPPER(Notenliste!S8)</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="O10" s="62"/>
     </row>
@@ -6713,20 +6951,20 @@
         <v>0</v>
       </c>
       <c r="G11" s="18">
-        <f>RAWDATA!I9</f>
+        <f>RAWDATA!K9</f>
         <v>0</v>
       </c>
       <c r="H11" s="19">
-        <f>RAWDATA!J9</f>
+        <f>RAWDATA!L9</f>
         <v>0</v>
       </c>
       <c r="I11" s="19">
-        <f>RAWDATA!K9</f>
+        <f>RAWDATA!M9</f>
         <v>0</v>
       </c>
       <c r="J11" s="17" t="str">
         <f>UPPER(Notenliste!Q9)</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="K11" s="17" t="str">
         <f t="shared" si="0"/>
@@ -6742,7 +6980,7 @@
       </c>
       <c r="N11" s="17" t="str">
         <f>UPPER(Notenliste!S9)</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="O11" s="62"/>
     </row>
@@ -6771,20 +7009,20 @@
         <v>0</v>
       </c>
       <c r="G12" s="18">
-        <f>RAWDATA!I10</f>
+        <f>RAWDATA!K10</f>
         <v>0</v>
       </c>
       <c r="H12" s="19">
-        <f>RAWDATA!J10</f>
+        <f>RAWDATA!L10</f>
         <v>0</v>
       </c>
       <c r="I12" s="19">
-        <f>RAWDATA!K10</f>
+        <f>RAWDATA!M10</f>
         <v>0</v>
       </c>
       <c r="J12" s="17" t="str">
         <f>UPPER(Notenliste!Q10)</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="K12" s="17" t="str">
         <f t="shared" si="0"/>
@@ -6800,7 +7038,7 @@
       </c>
       <c r="N12" s="17" t="str">
         <f>UPPER(Notenliste!S10)</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="O12" s="62"/>
     </row>
@@ -6829,20 +7067,20 @@
         <v>0</v>
       </c>
       <c r="G13" s="18">
-        <f>RAWDATA!I11</f>
+        <f>RAWDATA!K11</f>
         <v>0</v>
       </c>
       <c r="H13" s="19">
-        <f>RAWDATA!J11</f>
+        <f>RAWDATA!L11</f>
         <v>0</v>
       </c>
       <c r="I13" s="19">
-        <f>RAWDATA!K11</f>
+        <f>RAWDATA!M11</f>
         <v>0</v>
       </c>
       <c r="J13" s="17" t="str">
         <f>UPPER(Notenliste!Q11)</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="K13" s="17" t="str">
         <f t="shared" si="0"/>
@@ -6858,7 +7096,7 @@
       </c>
       <c r="N13" s="17" t="str">
         <f>UPPER(Notenliste!S11)</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="O13" s="62"/>
     </row>
@@ -6887,20 +7125,20 @@
         <v>0</v>
       </c>
       <c r="G14" s="18">
-        <f>RAWDATA!I12</f>
+        <f>RAWDATA!K12</f>
         <v>0</v>
       </c>
       <c r="H14" s="19">
-        <f>RAWDATA!J12</f>
+        <f>RAWDATA!L12</f>
         <v>0</v>
       </c>
       <c r="I14" s="19">
-        <f>RAWDATA!K12</f>
+        <f>RAWDATA!M12</f>
         <v>0</v>
       </c>
       <c r="J14" s="17" t="str">
         <f>UPPER(Notenliste!Q12)</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="K14" s="17" t="str">
         <f t="shared" si="0"/>
@@ -6916,7 +7154,7 @@
       </c>
       <c r="N14" s="17" t="str">
         <f>UPPER(Notenliste!S12)</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="O14" s="62"/>
     </row>
@@ -6945,20 +7183,20 @@
         <v>0</v>
       </c>
       <c r="G15" s="18">
-        <f>RAWDATA!I13</f>
+        <f>RAWDATA!K13</f>
         <v>0</v>
       </c>
       <c r="H15" s="19">
-        <f>RAWDATA!J13</f>
+        <f>RAWDATA!L13</f>
         <v>0</v>
       </c>
       <c r="I15" s="19">
-        <f>RAWDATA!K13</f>
+        <f>RAWDATA!M13</f>
         <v>0</v>
       </c>
       <c r="J15" s="17" t="str">
         <f>UPPER(Notenliste!Q13)</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="K15" s="17" t="str">
         <f t="shared" si="0"/>
@@ -6974,7 +7212,7 @@
       </c>
       <c r="N15" s="17" t="str">
         <f>UPPER(Notenliste!S13)</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="O15" s="62"/>
     </row>
@@ -7003,20 +7241,20 @@
         <v>0</v>
       </c>
       <c r="G16" s="18">
-        <f>RAWDATA!I14</f>
+        <f>RAWDATA!K14</f>
         <v>0</v>
       </c>
       <c r="H16" s="19">
-        <f>RAWDATA!J14</f>
+        <f>RAWDATA!L14</f>
         <v>0</v>
       </c>
       <c r="I16" s="19">
-        <f>RAWDATA!K14</f>
+        <f>RAWDATA!M14</f>
         <v>0</v>
       </c>
       <c r="J16" s="17" t="str">
         <f>UPPER(Notenliste!Q14)</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="K16" s="17" t="str">
         <f t="shared" si="0"/>
@@ -7032,7 +7270,7 @@
       </c>
       <c r="N16" s="17" t="str">
         <f>UPPER(Notenliste!S14)</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="O16" s="62"/>
     </row>
@@ -7061,20 +7299,20 @@
         <v>0</v>
       </c>
       <c r="G17" s="18">
-        <f>RAWDATA!I15</f>
+        <f>RAWDATA!K15</f>
         <v>0</v>
       </c>
       <c r="H17" s="19">
-        <f>RAWDATA!J15</f>
+        <f>RAWDATA!L15</f>
         <v>0</v>
       </c>
       <c r="I17" s="19">
-        <f>RAWDATA!K15</f>
+        <f>RAWDATA!M15</f>
         <v>0</v>
       </c>
       <c r="J17" s="17" t="str">
         <f>UPPER(Notenliste!Q15)</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="K17" s="17" t="str">
         <f t="shared" si="0"/>
@@ -7090,7 +7328,7 @@
       </c>
       <c r="N17" s="17" t="str">
         <f>UPPER(Notenliste!S15)</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="O17" s="62"/>
     </row>
@@ -7119,20 +7357,20 @@
         <v>0</v>
       </c>
       <c r="G18" s="18">
-        <f>RAWDATA!I16</f>
+        <f>RAWDATA!K16</f>
         <v>0</v>
       </c>
       <c r="H18" s="19">
-        <f>RAWDATA!J16</f>
+        <f>RAWDATA!L16</f>
         <v>0</v>
       </c>
       <c r="I18" s="19">
-        <f>RAWDATA!K16</f>
+        <f>RAWDATA!M16</f>
         <v>0</v>
       </c>
       <c r="J18" s="17" t="str">
         <f>UPPER(Notenliste!Q16)</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="K18" s="17" t="str">
         <f t="shared" si="0"/>
@@ -7148,7 +7386,7 @@
       </c>
       <c r="N18" s="17" t="str">
         <f>UPPER(Notenliste!S16)</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="O18" s="62"/>
     </row>
@@ -7177,20 +7415,20 @@
         <v>0</v>
       </c>
       <c r="G19" s="18">
-        <f>RAWDATA!I17</f>
+        <f>RAWDATA!K17</f>
         <v>0</v>
       </c>
       <c r="H19" s="19">
-        <f>RAWDATA!J17</f>
+        <f>RAWDATA!L17</f>
         <v>0</v>
       </c>
       <c r="I19" s="19">
-        <f>RAWDATA!K17</f>
+        <f>RAWDATA!M17</f>
         <v>0</v>
       </c>
       <c r="J19" s="17" t="str">
         <f>UPPER(Notenliste!Q17)</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="K19" s="17" t="str">
         <f t="shared" si="0"/>
@@ -7206,7 +7444,7 @@
       </c>
       <c r="N19" s="17" t="str">
         <f>UPPER(Notenliste!S17)</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="O19" s="62"/>
     </row>
@@ -7235,20 +7473,20 @@
         <v>0</v>
       </c>
       <c r="G20" s="18">
-        <f>RAWDATA!I18</f>
+        <f>RAWDATA!K18</f>
         <v>0</v>
       </c>
       <c r="H20" s="19">
-        <f>RAWDATA!J18</f>
+        <f>RAWDATA!L18</f>
         <v>0</v>
       </c>
       <c r="I20" s="19">
-        <f>RAWDATA!K18</f>
+        <f>RAWDATA!M18</f>
         <v>0</v>
       </c>
       <c r="J20" s="17" t="str">
         <f>UPPER(Notenliste!Q18)</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="K20" s="17" t="str">
         <f t="shared" si="0"/>
@@ -7264,7 +7502,7 @@
       </c>
       <c r="N20" s="17" t="str">
         <f>UPPER(Notenliste!S18)</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="O20" s="62"/>
     </row>
@@ -7293,20 +7531,20 @@
         <v>0</v>
       </c>
       <c r="G21" s="18">
-        <f>RAWDATA!I19</f>
+        <f>RAWDATA!K19</f>
         <v>0</v>
       </c>
       <c r="H21" s="19">
-        <f>RAWDATA!J19</f>
+        <f>RAWDATA!L19</f>
         <v>0</v>
       </c>
       <c r="I21" s="19">
-        <f>RAWDATA!K19</f>
+        <f>RAWDATA!M19</f>
         <v>0</v>
       </c>
       <c r="J21" s="17" t="str">
         <f>UPPER(Notenliste!Q19)</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="K21" s="17" t="str">
         <f t="shared" si="0"/>
@@ -7322,7 +7560,7 @@
       </c>
       <c r="N21" s="17" t="str">
         <f>UPPER(Notenliste!S19)</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="O21" s="62"/>
     </row>
@@ -7351,20 +7589,20 @@
         <v>0</v>
       </c>
       <c r="G22" s="18">
-        <f>RAWDATA!I20</f>
+        <f>RAWDATA!K20</f>
         <v>0</v>
       </c>
       <c r="H22" s="19">
-        <f>RAWDATA!J20</f>
+        <f>RAWDATA!L20</f>
         <v>0</v>
       </c>
       <c r="I22" s="19">
-        <f>RAWDATA!K20</f>
+        <f>RAWDATA!M20</f>
         <v>0</v>
       </c>
       <c r="J22" s="17" t="str">
         <f>UPPER(Notenliste!Q20)</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="K22" s="17" t="str">
         <f t="shared" si="0"/>
@@ -7380,7 +7618,7 @@
       </c>
       <c r="N22" s="17" t="str">
         <f>UPPER(Notenliste!S20)</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="O22" s="62"/>
     </row>
@@ -7409,20 +7647,20 @@
         <v>0</v>
       </c>
       <c r="G23" s="18">
-        <f>RAWDATA!I21</f>
+        <f>RAWDATA!K21</f>
         <v>0</v>
       </c>
       <c r="H23" s="19">
-        <f>RAWDATA!J21</f>
+        <f>RAWDATA!L21</f>
         <v>0</v>
       </c>
       <c r="I23" s="19">
-        <f>RAWDATA!K21</f>
+        <f>RAWDATA!M21</f>
         <v>0</v>
       </c>
       <c r="J23" s="17" t="str">
         <f>UPPER(Notenliste!Q21)</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="K23" s="17" t="str">
         <f t="shared" si="0"/>
@@ -7438,7 +7676,7 @@
       </c>
       <c r="N23" s="17" t="str">
         <f>UPPER(Notenliste!S21)</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="O23" s="62"/>
     </row>
@@ -7467,20 +7705,20 @@
         <v>0</v>
       </c>
       <c r="G24" s="18">
-        <f>RAWDATA!I22</f>
+        <f>RAWDATA!K22</f>
         <v>0</v>
       </c>
       <c r="H24" s="19">
-        <f>RAWDATA!J22</f>
+        <f>RAWDATA!L22</f>
         <v>0</v>
       </c>
       <c r="I24" s="19">
-        <f>RAWDATA!K22</f>
+        <f>RAWDATA!M22</f>
         <v>0</v>
       </c>
       <c r="J24" s="17" t="str">
         <f>UPPER(Notenliste!Q22)</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="K24" s="17" t="str">
         <f t="shared" si="0"/>
@@ -7496,7 +7734,7 @@
       </c>
       <c r="N24" s="17" t="str">
         <f>UPPER(Notenliste!S22)</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="O24" s="62"/>
     </row>
@@ -7525,20 +7763,20 @@
         <v>0</v>
       </c>
       <c r="G25" s="18">
-        <f>RAWDATA!I23</f>
+        <f>RAWDATA!K23</f>
         <v>0</v>
       </c>
       <c r="H25" s="19">
-        <f>RAWDATA!J23</f>
+        <f>RAWDATA!L23</f>
         <v>0</v>
       </c>
       <c r="I25" s="19">
-        <f>RAWDATA!K23</f>
+        <f>RAWDATA!M23</f>
         <v>0</v>
       </c>
       <c r="J25" s="17" t="str">
         <f>UPPER(Notenliste!Q23)</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="K25" s="17" t="str">
         <f t="shared" si="0"/>
@@ -7554,7 +7792,7 @@
       </c>
       <c r="N25" s="17" t="str">
         <f>UPPER(Notenliste!S23)</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="O25" s="62"/>
     </row>
@@ -7583,20 +7821,20 @@
         <v>0</v>
       </c>
       <c r="G26" s="18">
-        <f>RAWDATA!I24</f>
+        <f>RAWDATA!K24</f>
         <v>0</v>
       </c>
       <c r="H26" s="19">
-        <f>RAWDATA!J24</f>
+        <f>RAWDATA!L24</f>
         <v>0</v>
       </c>
       <c r="I26" s="19">
-        <f>RAWDATA!K24</f>
+        <f>RAWDATA!M24</f>
         <v>0</v>
       </c>
       <c r="J26" s="17" t="str">
         <f>UPPER(Notenliste!Q24)</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="K26" s="17" t="str">
         <f t="shared" si="0"/>
@@ -7612,7 +7850,7 @@
       </c>
       <c r="N26" s="17" t="str">
         <f>UPPER(Notenliste!S24)</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="O26" s="62"/>
     </row>
@@ -7641,20 +7879,20 @@
         <v>0</v>
       </c>
       <c r="G27" s="18">
-        <f>RAWDATA!I25</f>
+        <f>RAWDATA!K25</f>
         <v>0</v>
       </c>
       <c r="H27" s="19">
-        <f>RAWDATA!J25</f>
+        <f>RAWDATA!L25</f>
         <v>0</v>
       </c>
       <c r="I27" s="19">
-        <f>RAWDATA!K25</f>
+        <f>RAWDATA!M25</f>
         <v>0</v>
       </c>
       <c r="J27" s="17" t="str">
         <f>UPPER(Notenliste!Q25)</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="K27" s="17" t="str">
         <f t="shared" si="0"/>
@@ -7670,7 +7908,7 @@
       </c>
       <c r="N27" s="17" t="str">
         <f>UPPER(Notenliste!S25)</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="O27" s="62"/>
     </row>
@@ -7699,20 +7937,20 @@
         <v>0</v>
       </c>
       <c r="G28" s="18">
-        <f>RAWDATA!I26</f>
+        <f>RAWDATA!K26</f>
         <v>0</v>
       </c>
       <c r="H28" s="19">
-        <f>RAWDATA!J26</f>
+        <f>RAWDATA!L26</f>
         <v>0</v>
       </c>
       <c r="I28" s="19">
-        <f>RAWDATA!K26</f>
+        <f>RAWDATA!M26</f>
         <v>0</v>
       </c>
       <c r="J28" s="17" t="str">
         <f>UPPER(Notenliste!Q26)</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="K28" s="17" t="str">
         <f t="shared" si="0"/>
@@ -7728,7 +7966,7 @@
       </c>
       <c r="N28" s="17" t="str">
         <f>UPPER(Notenliste!S26)</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="O28" s="62"/>
     </row>

--- a/src/spz/templates/export/spanisch_hueber.xlsx
+++ b/src/spz/templates/export/spanisch_hueber.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\04_Hiwi\Datenbank\excel_templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A997B33D-783D-489C-AE14-0874D7AD7542}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC15F82C-2DFE-462A-B025-AFB9EC6FC757}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="150">
   <si>
     <t>Name</t>
   </si>
@@ -612,6 +612,15 @@
   </si>
   <si>
     <t>attendance.ts_received_str</t>
+  </si>
+  <si>
+    <t>bestanden statt Note</t>
+  </si>
+  <si>
+    <t>bestanden</t>
+  </si>
+  <si>
+    <t>attendance.hide_grade_str</t>
   </si>
 </sst>
 </file>
@@ -1034,10 +1043,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
@@ -1095,9 +1100,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1165,6 +1167,16 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1222,11 +1234,8 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -1234,16 +1243,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Standard 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
-  <dxfs count="22">
-    <dxf>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <protection locked="0" hidden="0"/>
-    </dxf>
+  <dxfs count="23">
     <dxf>
       <font>
         <condense val="0"/>
@@ -1296,28 +1296,40 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <protection locked="0" hidden="0"/>
+      <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
-      <protection locked="0" hidden="0"/>
+      <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
-      <protection locked="0" hidden="0"/>
+      <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
-      <protection locked="0" hidden="0"/>
+      <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
-      <protection locked="0" hidden="0"/>
+      <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
-      <protection locked="0" hidden="0"/>
+      <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
-      <protection locked="0" hidden="0"/>
+      <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
-      <protection locked="0" hidden="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
       <fill>
@@ -1326,6 +1338,7 @@
           <bgColor theme="0" tint="-0.14999847407452621"/>
         </patternFill>
       </fill>
+      <protection locked="1" hidden="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1593,19 +1606,20 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="DATA" displayName="DATA" ref="B1:K2" totalsRowShown="0" headerRowDxfId="21" dataDxfId="20">
-  <autoFilter ref="B1:K2" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
-  <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Nachname" dataDxfId="19"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Vorname" dataDxfId="18"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Hochschule" dataDxfId="17"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Matrikelnummer" dataDxfId="16"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Note" dataDxfId="15"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="LP" dataDxfId="14"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="E-Mail" dataDxfId="13"/>
-    <tableColumn id="10" xr3:uid="{997C5176-9425-4CF7-BE29-F0CD4F66AFDB}" name="Telefon" dataDxfId="2"/>
-    <tableColumn id="8" xr3:uid="{E0D82138-D581-4631-A97C-D5FBC4F95678}" name="Teilnahmeschein" dataDxfId="1"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Schein erhalten" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="DATA" displayName="DATA" ref="B1:L2" totalsRowShown="0" headerRowDxfId="22" dataDxfId="21">
+  <autoFilter ref="B1:L2" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+  <tableColumns count="11">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Nachname" dataDxfId="20"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Vorname" dataDxfId="19"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Hochschule" dataDxfId="18"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Matrikelnummer" dataDxfId="17"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Note" dataDxfId="16"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="LP" dataDxfId="15"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="E-Mail" dataDxfId="14"/>
+    <tableColumn id="10" xr3:uid="{997C5176-9425-4CF7-BE29-F0CD4F66AFDB}" name="Telefon" dataDxfId="13"/>
+    <tableColumn id="11" xr3:uid="{0C9FB7AD-DA72-43EE-AA26-E537760E90AB}" name="bestanden" dataDxfId="12"/>
+    <tableColumn id="8" xr3:uid="{E0D82138-D581-4631-A97C-D5FBC4F95678}" name="Teilnahmeschein" dataDxfId="11"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Schein erhalten" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -1615,21 +1629,21 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tabelle1" displayName="Tabelle1" ref="A1:H26" totalsRowShown="0">
   <autoFilter ref="A1:H26" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Matrikelnummer" dataDxfId="12" totalsRowDxfId="11">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Matrikelnummer" dataDxfId="9" totalsRowDxfId="8">
       <calculatedColumnFormula>IF(Notenliste!D2=0," ",Notenliste!D2)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Status"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="LP" dataDxfId="10">
-      <calculatedColumnFormula>IF(Notenliste!D2&lt;&gt;0,IF(Notenliste!P2&lt;&gt;0,Notenliste!P2,Notenliste!$B$33)," ")</calculatedColumnFormula>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="LP" dataDxfId="7">
+      <calculatedColumnFormula>IF(Notenliste!D2&lt;&gt;0,IF(Notenliste!Q2&lt;&gt;0,Notenliste!Q2,Notenliste!$B$33)," ")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Note" dataDxfId="9" totalsRowDxfId="8">
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Note" dataDxfId="6" totalsRowDxfId="5">
       <calculatedColumnFormula>IF(Notenliste!D2=0," ",IF(Notenliste!F2="KP"," ",IF(Notenliste!F2="NB","nicht bestanden",Notenliste!F2)))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="Datum" dataDxfId="7">
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="Datum" dataDxfId="4">
       <calculatedColumnFormula>IF(Notenliste!D2&lt;&gt;0,Notenliste!$B$37," ")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Individueller Titel deutsch" dataDxfId="6"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="Individueller Titel englisch" dataDxfId="5"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Individueller Titel deutsch" dataDxfId="3"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="Individueller Titel englisch" dataDxfId="2"/>
     <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="Anmerkungen"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1924,10 +1938,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Tabelle1"/>
-  <dimension ref="A1:M26"/>
+  <dimension ref="A1:N26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4" zeroHeight="1" x14ac:dyDescent="0.3"/>
@@ -1939,498 +1953,278 @@
     <col min="5" max="5" width="18.44140625" style="13" customWidth="1"/>
     <col min="6" max="7" width="8.109375" style="13" customWidth="1"/>
     <col min="8" max="9" width="37.109375" customWidth="1"/>
-    <col min="10" max="10" width="15.6640625" customWidth="1"/>
-    <col min="11" max="11" width="14.44140625" customWidth="1"/>
-    <col min="12" max="12" width="45.109375" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="10.33203125" hidden="1" customWidth="1"/>
-    <col min="14" max="16384" width="11.44140625" hidden="1"/>
+    <col min="10" max="10" width="24.5546875" customWidth="1"/>
+    <col min="11" max="11" width="15.6640625" customWidth="1"/>
+    <col min="12" max="12" width="14.44140625" customWidth="1"/>
+    <col min="13" max="13" width="45.109375" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="10.33203125" hidden="1" customWidth="1"/>
+    <col min="15" max="16384" width="11.44140625" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A1" s="39" t="s">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A1" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="39" t="s">
+      <c r="B1" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="39" t="s">
+      <c r="C1" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="39" t="s">
+      <c r="D1" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="E1" s="58" t="s">
+      <c r="E1" s="84" t="s">
         <v>25</v>
       </c>
-      <c r="F1" s="58" t="s">
+      <c r="F1" s="84" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="58" t="s">
+      <c r="G1" s="84" t="s">
         <v>48</v>
       </c>
-      <c r="H1" s="39" t="s">
+      <c r="H1" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="I1" s="39" t="s">
+      <c r="I1" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="J1" s="105" t="s">
+      <c r="J1" s="85" t="s">
+        <v>148</v>
+      </c>
+      <c r="K1" s="85" t="s">
         <v>143</v>
       </c>
-      <c r="K1" s="106" t="s">
+      <c r="L1" s="85" t="s">
         <v>144</v>
       </c>
-      <c r="L1" s="39" t="s">
+      <c r="M1" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="M1" s="39" t="s">
+      <c r="N1" s="38" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="37" t="s">
+      <c r="B2" t="s">
         <v>114</v>
       </c>
-      <c r="C2" s="37" t="s">
+      <c r="C2" t="s">
         <v>115</v>
       </c>
-      <c r="D2" s="37" t="s">
+      <c r="D2" t="s">
         <v>116</v>
       </c>
-      <c r="E2" s="37" t="s">
+      <c r="E2" t="s">
         <v>117</v>
       </c>
-      <c r="F2" s="37" t="s">
+      <c r="F2" t="s">
         <v>141</v>
       </c>
-      <c r="G2" s="37" t="s">
+      <c r="G2" t="s">
         <v>142</v>
       </c>
-      <c r="H2" s="37" t="s">
+      <c r="H2" t="s">
         <v>118</v>
       </c>
-      <c r="I2" s="37" t="s">
+      <c r="I2" t="s">
         <v>119</v>
       </c>
-      <c r="J2" s="37" t="s">
+      <c r="J2" t="s">
+        <v>149</v>
+      </c>
+      <c r="K2" t="s">
         <v>145</v>
       </c>
-      <c r="K2" s="37" t="s">
+      <c r="L2" t="s">
         <v>146</v>
       </c>
-      <c r="L2" s="37"/>
-      <c r="M2" s="37"/>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="37"/>
-      <c r="C3" s="37"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37"/>
-      <c r="G3" s="37"/>
-      <c r="H3" s="37"/>
-      <c r="I3" s="37"/>
-      <c r="J3" s="37"/>
-      <c r="K3" s="37"/>
-      <c r="L3" s="37"/>
-      <c r="M3" s="37"/>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="E3"/>
+      <c r="F3"/>
+      <c r="G3"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="37"/>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="37"/>
-      <c r="H4" s="37"/>
-      <c r="I4" s="37"/>
-      <c r="J4" s="37"/>
-      <c r="K4" s="37"/>
-      <c r="L4" s="37"/>
-      <c r="M4" s="37"/>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="E4"/>
+      <c r="F4"/>
+      <c r="G4"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="37"/>
-      <c r="C5" s="37"/>
-      <c r="D5" s="37"/>
-      <c r="E5" s="37"/>
-      <c r="F5" s="37"/>
-      <c r="G5" s="37"/>
-      <c r="H5" s="37"/>
-      <c r="I5" s="37"/>
-      <c r="J5" s="37"/>
-      <c r="K5" s="37"/>
-      <c r="L5" s="37"/>
-      <c r="M5" s="37"/>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="E5"/>
+      <c r="F5"/>
+      <c r="G5"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" s="37"/>
-      <c r="C6" s="37"/>
-      <c r="D6" s="37"/>
-      <c r="E6" s="37"/>
-      <c r="F6" s="37"/>
-      <c r="G6" s="37"/>
-      <c r="H6" s="37"/>
-      <c r="I6" s="37"/>
-      <c r="J6" s="37"/>
-      <c r="K6" s="37"/>
-      <c r="L6" s="37"/>
-      <c r="M6" s="37"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="E6"/>
+      <c r="F6"/>
+      <c r="G6"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" s="37"/>
-      <c r="C7" s="37"/>
-      <c r="D7" s="37"/>
-      <c r="E7" s="37"/>
-      <c r="F7" s="37"/>
-      <c r="G7" s="37"/>
-      <c r="H7" s="37"/>
-      <c r="I7" s="37"/>
-      <c r="J7" s="37"/>
-      <c r="K7" s="37"/>
-      <c r="L7" s="37"/>
-      <c r="M7" s="37"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="E7"/>
+      <c r="F7"/>
+      <c r="G7"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" s="37"/>
-      <c r="C8" s="37"/>
-      <c r="D8" s="37"/>
-      <c r="E8" s="37"/>
-      <c r="F8" s="37"/>
-      <c r="G8" s="37"/>
-      <c r="H8" s="37"/>
-      <c r="I8" s="37"/>
-      <c r="J8" s="37"/>
-      <c r="K8" s="37"/>
-      <c r="L8" s="37"/>
-      <c r="M8" s="37"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="E8"/>
+      <c r="F8"/>
+      <c r="G8"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" s="37"/>
-      <c r="C9" s="37"/>
-      <c r="D9" s="37"/>
-      <c r="E9" s="37"/>
-      <c r="F9" s="37"/>
-      <c r="G9" s="37"/>
-      <c r="H9" s="37"/>
-      <c r="I9" s="37"/>
-      <c r="J9" s="37"/>
-      <c r="K9" s="37"/>
-      <c r="L9" s="37"/>
-      <c r="M9" s="37"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="E9"/>
+      <c r="F9"/>
+      <c r="G9"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" s="37"/>
-      <c r="C10" s="37"/>
-      <c r="D10" s="37"/>
-      <c r="E10" s="37"/>
-      <c r="F10" s="37"/>
-      <c r="G10" s="37"/>
-      <c r="H10" s="37"/>
-      <c r="I10" s="37"/>
-      <c r="J10" s="37"/>
-      <c r="K10" s="37"/>
-      <c r="L10" s="37"/>
-      <c r="M10" s="37"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="E10"/>
+      <c r="F10"/>
+      <c r="G10"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" s="37"/>
-      <c r="C11" s="37"/>
-      <c r="D11" s="37"/>
-      <c r="E11" s="37"/>
-      <c r="F11" s="37"/>
-      <c r="G11" s="37"/>
-      <c r="H11" s="37"/>
-      <c r="I11" s="37"/>
-      <c r="J11" s="37"/>
-      <c r="K11" s="37"/>
-      <c r="L11" s="37"/>
-      <c r="M11" s="37"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="E11"/>
+      <c r="F11"/>
+      <c r="G11"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12" s="37"/>
-      <c r="C12" s="37"/>
-      <c r="D12" s="37"/>
-      <c r="E12" s="37"/>
-      <c r="F12" s="37"/>
-      <c r="G12" s="37"/>
-      <c r="H12" s="37"/>
-      <c r="I12" s="37"/>
-      <c r="J12" s="37"/>
-      <c r="K12" s="37"/>
-      <c r="L12" s="37"/>
-      <c r="M12" s="37"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="E12"/>
+      <c r="F12"/>
+      <c r="G12"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13" s="37"/>
-      <c r="C13" s="37"/>
-      <c r="D13" s="37"/>
-      <c r="E13" s="37"/>
-      <c r="F13" s="37"/>
-      <c r="G13" s="37"/>
-      <c r="H13" s="37"/>
-      <c r="I13" s="37"/>
-      <c r="J13" s="37"/>
-      <c r="K13" s="37"/>
-      <c r="L13" s="37"/>
-      <c r="M13" s="37"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="E13"/>
+      <c r="F13"/>
+      <c r="G13"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
-      <c r="B14" s="37"/>
-      <c r="C14" s="37"/>
-      <c r="D14" s="37"/>
-      <c r="E14" s="37"/>
-      <c r="F14" s="37"/>
-      <c r="G14" s="37"/>
-      <c r="H14" s="37"/>
-      <c r="I14" s="37"/>
-      <c r="J14" s="37"/>
-      <c r="K14" s="37"/>
-      <c r="L14" s="37"/>
-      <c r="M14" s="37"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="E14"/>
+      <c r="F14"/>
+      <c r="G14"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
-      <c r="B15" s="37"/>
-      <c r="C15" s="37"/>
-      <c r="D15" s="37"/>
-      <c r="E15" s="37"/>
-      <c r="F15" s="37"/>
-      <c r="G15" s="37"/>
-      <c r="H15" s="37"/>
-      <c r="I15" s="37"/>
-      <c r="J15" s="37"/>
-      <c r="K15" s="37"/>
-      <c r="L15" s="37"/>
-      <c r="M15" s="37"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="E15"/>
+      <c r="F15"/>
+      <c r="G15"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
-      <c r="B16" s="37"/>
-      <c r="C16" s="37"/>
-      <c r="D16" s="37"/>
-      <c r="E16" s="37"/>
-      <c r="F16" s="37"/>
-      <c r="G16" s="37"/>
-      <c r="H16" s="37"/>
-      <c r="I16" s="37"/>
-      <c r="J16" s="37"/>
-      <c r="K16" s="37"/>
-      <c r="L16" s="37"/>
-      <c r="M16" s="37"/>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="E16"/>
+      <c r="F16"/>
+      <c r="G16"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
-      <c r="B17" s="37"/>
-      <c r="C17" s="37"/>
-      <c r="D17" s="37"/>
-      <c r="E17" s="37"/>
-      <c r="F17" s="37"/>
-      <c r="G17" s="37"/>
-      <c r="H17" s="37"/>
-      <c r="I17" s="37"/>
-      <c r="J17" s="37"/>
-      <c r="K17" s="37"/>
-      <c r="L17" s="37"/>
-      <c r="M17" s="37"/>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="E17"/>
+      <c r="F17"/>
+      <c r="G17"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
-      <c r="B18" s="37"/>
-      <c r="C18" s="37"/>
-      <c r="D18" s="37"/>
-      <c r="E18" s="37"/>
-      <c r="F18" s="37"/>
-      <c r="G18" s="37"/>
-      <c r="H18" s="37"/>
-      <c r="I18" s="37"/>
-      <c r="J18" s="37"/>
-      <c r="K18" s="37"/>
-      <c r="L18" s="37"/>
-      <c r="M18" s="37"/>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="E18"/>
+      <c r="F18"/>
+      <c r="G18"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
-      <c r="B19" s="37"/>
-      <c r="C19" s="37"/>
-      <c r="D19" s="37"/>
-      <c r="E19" s="37"/>
-      <c r="F19" s="37"/>
-      <c r="G19" s="37"/>
-      <c r="H19" s="37"/>
-      <c r="I19" s="37"/>
-      <c r="J19" s="37"/>
-      <c r="K19" s="37"/>
-      <c r="L19" s="37"/>
-      <c r="M19" s="37"/>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="E19"/>
+      <c r="F19"/>
+      <c r="G19"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
-      <c r="B20" s="37"/>
-      <c r="C20" s="37"/>
-      <c r="D20" s="37"/>
-      <c r="E20" s="37"/>
-      <c r="F20" s="37"/>
-      <c r="G20" s="37"/>
-      <c r="H20" s="37"/>
-      <c r="I20" s="37"/>
-      <c r="J20" s="37"/>
-      <c r="K20" s="37"/>
-      <c r="L20" s="37"/>
-      <c r="M20" s="37"/>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="E20"/>
+      <c r="F20"/>
+      <c r="G20"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
-      <c r="B21" s="37"/>
-      <c r="C21" s="37"/>
-      <c r="D21" s="37"/>
-      <c r="E21" s="37"/>
-      <c r="F21" s="37"/>
-      <c r="G21" s="37"/>
-      <c r="H21" s="37"/>
-      <c r="I21" s="37"/>
-      <c r="J21" s="37"/>
-      <c r="K21" s="37"/>
-      <c r="L21" s="37"/>
-      <c r="M21" s="37"/>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="E21"/>
+      <c r="F21"/>
+      <c r="G21"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
-      <c r="B22" s="37"/>
-      <c r="C22" s="37"/>
-      <c r="D22" s="37"/>
-      <c r="E22" s="37"/>
-      <c r="F22" s="37"/>
-      <c r="G22" s="37"/>
-      <c r="H22" s="37"/>
-      <c r="I22" s="37"/>
-      <c r="J22" s="37"/>
-      <c r="K22" s="37"/>
-      <c r="L22" s="37"/>
-      <c r="M22" s="37"/>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="E22"/>
+      <c r="F22"/>
+      <c r="G22"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
-      <c r="B23" s="37"/>
-      <c r="C23" s="37"/>
-      <c r="D23" s="37"/>
-      <c r="E23" s="37"/>
-      <c r="F23" s="37"/>
-      <c r="G23" s="37"/>
-      <c r="H23" s="37"/>
-      <c r="I23" s="37"/>
-      <c r="J23" s="37"/>
-      <c r="K23" s="37"/>
-      <c r="L23" s="37"/>
-      <c r="M23" s="37"/>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="E23"/>
+      <c r="F23"/>
+      <c r="G23"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
-      <c r="B24" s="37"/>
-      <c r="C24" s="37"/>
-      <c r="D24" s="37"/>
-      <c r="E24" s="38"/>
-      <c r="F24" s="38"/>
-      <c r="G24" s="38"/>
-      <c r="H24" s="37"/>
-      <c r="I24" s="37"/>
-      <c r="J24" s="37"/>
-      <c r="K24" s="37"/>
-      <c r="L24" s="37"/>
-      <c r="M24" s="37"/>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
-      <c r="B25" s="37"/>
-      <c r="C25" s="37"/>
-      <c r="D25" s="37"/>
-      <c r="E25" s="38"/>
-      <c r="F25" s="38"/>
-      <c r="G25" s="38"/>
-      <c r="H25" s="37"/>
-      <c r="I25" s="37"/>
-      <c r="J25" s="37"/>
-      <c r="K25" s="37"/>
-      <c r="L25" s="37"/>
-      <c r="M25" s="37"/>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
-      <c r="B26" s="37"/>
-      <c r="C26" s="37"/>
-      <c r="D26" s="37"/>
-      <c r="E26" s="38"/>
-      <c r="F26" s="38"/>
-      <c r="G26" s="38"/>
-      <c r="H26" s="37"/>
-      <c r="I26" s="37"/>
-      <c r="J26" s="37"/>
-      <c r="K26" s="37"/>
-      <c r="L26" s="37"/>
-      <c r="M26" s="37"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1" formatColumns="0" selectLockedCells="1"/>
@@ -2447,10 +2241,10 @@
   <sheetPr codeName="Tabelle2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:WVT38"/>
+  <dimension ref="A1:WVU38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S2" sqref="S2:S26"/>
+    <sheetView showZeros="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="13.95" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.25"/>
@@ -2468,528 +2262,529 @@
     <col min="12" max="12" width="7.44140625" style="2" customWidth="1"/>
     <col min="13" max="13" width="8" style="2" customWidth="1"/>
     <col min="14" max="15" width="2.6640625" style="1" customWidth="1"/>
-    <col min="16" max="16" width="5.6640625" style="2" customWidth="1"/>
-    <col min="17" max="17" width="5.6640625" style="1" customWidth="1"/>
-    <col min="18" max="18" width="5.6640625" style="2" customWidth="1"/>
-    <col min="19" max="19" width="5.6640625" style="1" customWidth="1"/>
-    <col min="20" max="20" width="2.6640625" style="1" customWidth="1"/>
-    <col min="21" max="21" width="17.6640625" style="1" hidden="1"/>
-    <col min="22" max="22" width="16" style="1" hidden="1"/>
-    <col min="23" max="23" width="17.6640625" style="1" hidden="1"/>
-    <col min="24" max="24" width="3" style="1" hidden="1"/>
-    <col min="25" max="249" width="11.44140625" style="1" hidden="1"/>
-    <col min="250" max="250" width="15.44140625" style="1" hidden="1"/>
-    <col min="251" max="251" width="11.44140625" style="1" hidden="1"/>
-    <col min="252" max="252" width="15.6640625" style="1" hidden="1"/>
-    <col min="253" max="253" width="21.6640625" style="1" hidden="1"/>
-    <col min="254" max="256" width="11.44140625" style="1" hidden="1"/>
-    <col min="257" max="257" width="16" style="1" hidden="1"/>
-    <col min="258" max="258" width="20.44140625" style="1" hidden="1"/>
-    <col min="259" max="505" width="11.44140625" style="1" hidden="1"/>
-    <col min="506" max="506" width="15.44140625" style="1" hidden="1"/>
-    <col min="507" max="507" width="11.44140625" style="1" hidden="1"/>
-    <col min="508" max="508" width="15.6640625" style="1" hidden="1"/>
-    <col min="509" max="509" width="21.6640625" style="1" hidden="1"/>
-    <col min="510" max="512" width="11.44140625" style="1" hidden="1"/>
-    <col min="513" max="513" width="16" style="1" hidden="1"/>
-    <col min="514" max="514" width="20.44140625" style="1" hidden="1"/>
-    <col min="515" max="761" width="11.44140625" style="1" hidden="1"/>
-    <col min="762" max="762" width="15.44140625" style="1" hidden="1"/>
-    <col min="763" max="763" width="11.44140625" style="1" hidden="1"/>
-    <col min="764" max="764" width="15.6640625" style="1" hidden="1"/>
-    <col min="765" max="765" width="21.6640625" style="1" hidden="1"/>
-    <col min="766" max="768" width="11.44140625" style="1" hidden="1"/>
-    <col min="769" max="769" width="16" style="1" hidden="1"/>
-    <col min="770" max="770" width="20.44140625" style="1" hidden="1"/>
-    <col min="771" max="1017" width="11.44140625" style="1" hidden="1"/>
-    <col min="1018" max="1018" width="15.44140625" style="1" hidden="1"/>
-    <col min="1019" max="1019" width="11.44140625" style="1" hidden="1"/>
-    <col min="1020" max="1020" width="15.6640625" style="1" hidden="1"/>
-    <col min="1021" max="1021" width="21.6640625" style="1" hidden="1"/>
-    <col min="1022" max="1024" width="11.44140625" style="1" hidden="1"/>
-    <col min="1025" max="1025" width="16" style="1" hidden="1"/>
-    <col min="1026" max="1026" width="20.44140625" style="1" hidden="1"/>
-    <col min="1027" max="1273" width="11.44140625" style="1" hidden="1"/>
-    <col min="1274" max="1274" width="15.44140625" style="1" hidden="1"/>
-    <col min="1275" max="1275" width="11.44140625" style="1" hidden="1"/>
-    <col min="1276" max="1276" width="15.6640625" style="1" hidden="1"/>
-    <col min="1277" max="1277" width="21.6640625" style="1" hidden="1"/>
-    <col min="1278" max="1280" width="11.44140625" style="1" hidden="1"/>
-    <col min="1281" max="1281" width="16" style="1" hidden="1"/>
-    <col min="1282" max="1282" width="20.44140625" style="1" hidden="1"/>
-    <col min="1283" max="1529" width="11.44140625" style="1" hidden="1"/>
-    <col min="1530" max="1530" width="15.44140625" style="1" hidden="1"/>
-    <col min="1531" max="1531" width="11.44140625" style="1" hidden="1"/>
-    <col min="1532" max="1532" width="15.6640625" style="1" hidden="1"/>
-    <col min="1533" max="1533" width="21.6640625" style="1" hidden="1"/>
-    <col min="1534" max="1536" width="11.44140625" style="1" hidden="1"/>
-    <col min="1537" max="1537" width="16" style="1" hidden="1"/>
-    <col min="1538" max="1538" width="20.44140625" style="1" hidden="1"/>
-    <col min="1539" max="1785" width="11.44140625" style="1" hidden="1"/>
-    <col min="1786" max="1786" width="15.44140625" style="1" hidden="1"/>
-    <col min="1787" max="1787" width="11.44140625" style="1" hidden="1"/>
-    <col min="1788" max="1788" width="15.6640625" style="1" hidden="1"/>
-    <col min="1789" max="1789" width="21.6640625" style="1" hidden="1"/>
-    <col min="1790" max="1792" width="11.44140625" style="1" hidden="1"/>
-    <col min="1793" max="1793" width="16" style="1" hidden="1"/>
-    <col min="1794" max="1794" width="20.44140625" style="1" hidden="1"/>
-    <col min="1795" max="2041" width="11.44140625" style="1" hidden="1"/>
-    <col min="2042" max="2042" width="15.44140625" style="1" hidden="1"/>
-    <col min="2043" max="2043" width="11.44140625" style="1" hidden="1"/>
-    <col min="2044" max="2044" width="15.6640625" style="1" hidden="1"/>
-    <col min="2045" max="2045" width="21.6640625" style="1" hidden="1"/>
-    <col min="2046" max="2048" width="11.44140625" style="1" hidden="1"/>
-    <col min="2049" max="2049" width="16" style="1" hidden="1"/>
-    <col min="2050" max="2050" width="20.44140625" style="1" hidden="1"/>
-    <col min="2051" max="2297" width="11.44140625" style="1" hidden="1"/>
-    <col min="2298" max="2298" width="15.44140625" style="1" hidden="1"/>
-    <col min="2299" max="2299" width="11.44140625" style="1" hidden="1"/>
-    <col min="2300" max="2300" width="15.6640625" style="1" hidden="1"/>
-    <col min="2301" max="2301" width="21.6640625" style="1" hidden="1"/>
-    <col min="2302" max="2304" width="11.44140625" style="1" hidden="1"/>
-    <col min="2305" max="2305" width="16" style="1" hidden="1"/>
-    <col min="2306" max="2306" width="20.44140625" style="1" hidden="1"/>
-    <col min="2307" max="2553" width="11.44140625" style="1" hidden="1"/>
-    <col min="2554" max="2554" width="15.44140625" style="1" hidden="1"/>
-    <col min="2555" max="2555" width="11.44140625" style="1" hidden="1"/>
-    <col min="2556" max="2556" width="15.6640625" style="1" hidden="1"/>
-    <col min="2557" max="2557" width="21.6640625" style="1" hidden="1"/>
-    <col min="2558" max="2560" width="11.44140625" style="1" hidden="1"/>
-    <col min="2561" max="2561" width="16" style="1" hidden="1"/>
-    <col min="2562" max="2562" width="20.44140625" style="1" hidden="1"/>
-    <col min="2563" max="2809" width="11.44140625" style="1" hidden="1"/>
-    <col min="2810" max="2810" width="15.44140625" style="1" hidden="1"/>
-    <col min="2811" max="2811" width="11.44140625" style="1" hidden="1"/>
-    <col min="2812" max="2812" width="15.6640625" style="1" hidden="1"/>
-    <col min="2813" max="2813" width="21.6640625" style="1" hidden="1"/>
-    <col min="2814" max="2816" width="11.44140625" style="1" hidden="1"/>
-    <col min="2817" max="2817" width="16" style="1" hidden="1"/>
-    <col min="2818" max="2818" width="20.44140625" style="1" hidden="1"/>
-    <col min="2819" max="3065" width="11.44140625" style="1" hidden="1"/>
-    <col min="3066" max="3066" width="15.44140625" style="1" hidden="1"/>
-    <col min="3067" max="3067" width="11.44140625" style="1" hidden="1"/>
-    <col min="3068" max="3068" width="15.6640625" style="1" hidden="1"/>
-    <col min="3069" max="3069" width="21.6640625" style="1" hidden="1"/>
-    <col min="3070" max="3072" width="11.44140625" style="1" hidden="1"/>
-    <col min="3073" max="3073" width="16" style="1" hidden="1"/>
-    <col min="3074" max="3074" width="20.44140625" style="1" hidden="1"/>
-    <col min="3075" max="3321" width="11.44140625" style="1" hidden="1"/>
-    <col min="3322" max="3322" width="15.44140625" style="1" hidden="1"/>
-    <col min="3323" max="3323" width="11.44140625" style="1" hidden="1"/>
-    <col min="3324" max="3324" width="15.6640625" style="1" hidden="1"/>
-    <col min="3325" max="3325" width="21.6640625" style="1" hidden="1"/>
-    <col min="3326" max="3328" width="11.44140625" style="1" hidden="1"/>
-    <col min="3329" max="3329" width="16" style="1" hidden="1"/>
-    <col min="3330" max="3330" width="20.44140625" style="1" hidden="1"/>
-    <col min="3331" max="3577" width="11.44140625" style="1" hidden="1"/>
-    <col min="3578" max="3578" width="15.44140625" style="1" hidden="1"/>
-    <col min="3579" max="3579" width="11.44140625" style="1" hidden="1"/>
-    <col min="3580" max="3580" width="15.6640625" style="1" hidden="1"/>
-    <col min="3581" max="3581" width="21.6640625" style="1" hidden="1"/>
-    <col min="3582" max="3584" width="11.44140625" style="1" hidden="1"/>
-    <col min="3585" max="3585" width="16" style="1" hidden="1"/>
-    <col min="3586" max="3586" width="20.44140625" style="1" hidden="1"/>
-    <col min="3587" max="3833" width="11.44140625" style="1" hidden="1"/>
-    <col min="3834" max="3834" width="15.44140625" style="1" hidden="1"/>
-    <col min="3835" max="3835" width="11.44140625" style="1" hidden="1"/>
-    <col min="3836" max="3836" width="15.6640625" style="1" hidden="1"/>
-    <col min="3837" max="3837" width="21.6640625" style="1" hidden="1"/>
-    <col min="3838" max="3840" width="11.44140625" style="1" hidden="1"/>
-    <col min="3841" max="3841" width="16" style="1" hidden="1"/>
-    <col min="3842" max="3842" width="20.44140625" style="1" hidden="1"/>
-    <col min="3843" max="4089" width="11.44140625" style="1" hidden="1"/>
-    <col min="4090" max="4090" width="15.44140625" style="1" hidden="1"/>
-    <col min="4091" max="4091" width="11.44140625" style="1" hidden="1"/>
-    <col min="4092" max="4092" width="15.6640625" style="1" hidden="1"/>
-    <col min="4093" max="4093" width="21.6640625" style="1" hidden="1"/>
-    <col min="4094" max="4096" width="11.44140625" style="1" hidden="1"/>
-    <col min="4097" max="4097" width="16" style="1" hidden="1"/>
-    <col min="4098" max="4098" width="20.44140625" style="1" hidden="1"/>
-    <col min="4099" max="4345" width="11.44140625" style="1" hidden="1"/>
-    <col min="4346" max="4346" width="15.44140625" style="1" hidden="1"/>
-    <col min="4347" max="4347" width="11.44140625" style="1" hidden="1"/>
-    <col min="4348" max="4348" width="15.6640625" style="1" hidden="1"/>
-    <col min="4349" max="4349" width="21.6640625" style="1" hidden="1"/>
-    <col min="4350" max="4352" width="11.44140625" style="1" hidden="1"/>
-    <col min="4353" max="4353" width="16" style="1" hidden="1"/>
-    <col min="4354" max="4354" width="20.44140625" style="1" hidden="1"/>
-    <col min="4355" max="4601" width="11.44140625" style="1" hidden="1"/>
-    <col min="4602" max="4602" width="15.44140625" style="1" hidden="1"/>
-    <col min="4603" max="4603" width="11.44140625" style="1" hidden="1"/>
-    <col min="4604" max="4604" width="15.6640625" style="1" hidden="1"/>
-    <col min="4605" max="4605" width="21.6640625" style="1" hidden="1"/>
-    <col min="4606" max="4608" width="11.44140625" style="1" hidden="1"/>
-    <col min="4609" max="4609" width="16" style="1" hidden="1"/>
-    <col min="4610" max="4610" width="20.44140625" style="1" hidden="1"/>
-    <col min="4611" max="4857" width="11.44140625" style="1" hidden="1"/>
-    <col min="4858" max="4858" width="15.44140625" style="1" hidden="1"/>
-    <col min="4859" max="4859" width="11.44140625" style="1" hidden="1"/>
-    <col min="4860" max="4860" width="15.6640625" style="1" hidden="1"/>
-    <col min="4861" max="4861" width="21.6640625" style="1" hidden="1"/>
-    <col min="4862" max="4864" width="11.44140625" style="1" hidden="1"/>
-    <col min="4865" max="4865" width="16" style="1" hidden="1"/>
-    <col min="4866" max="4866" width="20.44140625" style="1" hidden="1"/>
-    <col min="4867" max="5113" width="11.44140625" style="1" hidden="1"/>
-    <col min="5114" max="5114" width="15.44140625" style="1" hidden="1"/>
-    <col min="5115" max="5115" width="11.44140625" style="1" hidden="1"/>
-    <col min="5116" max="5116" width="15.6640625" style="1" hidden="1"/>
-    <col min="5117" max="5117" width="21.6640625" style="1" hidden="1"/>
-    <col min="5118" max="5120" width="11.44140625" style="1" hidden="1"/>
-    <col min="5121" max="5121" width="16" style="1" hidden="1"/>
-    <col min="5122" max="5122" width="20.44140625" style="1" hidden="1"/>
-    <col min="5123" max="5369" width="11.44140625" style="1" hidden="1"/>
-    <col min="5370" max="5370" width="15.44140625" style="1" hidden="1"/>
-    <col min="5371" max="5371" width="11.44140625" style="1" hidden="1"/>
-    <col min="5372" max="5372" width="15.6640625" style="1" hidden="1"/>
-    <col min="5373" max="5373" width="21.6640625" style="1" hidden="1"/>
-    <col min="5374" max="5376" width="11.44140625" style="1" hidden="1"/>
-    <col min="5377" max="5377" width="16" style="1" hidden="1"/>
-    <col min="5378" max="5378" width="20.44140625" style="1" hidden="1"/>
-    <col min="5379" max="5625" width="11.44140625" style="1" hidden="1"/>
-    <col min="5626" max="5626" width="15.44140625" style="1" hidden="1"/>
-    <col min="5627" max="5627" width="11.44140625" style="1" hidden="1"/>
-    <col min="5628" max="5628" width="15.6640625" style="1" hidden="1"/>
-    <col min="5629" max="5629" width="21.6640625" style="1" hidden="1"/>
-    <col min="5630" max="5632" width="11.44140625" style="1" hidden="1"/>
-    <col min="5633" max="5633" width="16" style="1" hidden="1"/>
-    <col min="5634" max="5634" width="20.44140625" style="1" hidden="1"/>
-    <col min="5635" max="5881" width="11.44140625" style="1" hidden="1"/>
-    <col min="5882" max="5882" width="15.44140625" style="1" hidden="1"/>
-    <col min="5883" max="5883" width="11.44140625" style="1" hidden="1"/>
-    <col min="5884" max="5884" width="15.6640625" style="1" hidden="1"/>
-    <col min="5885" max="5885" width="21.6640625" style="1" hidden="1"/>
-    <col min="5886" max="5888" width="11.44140625" style="1" hidden="1"/>
-    <col min="5889" max="5889" width="16" style="1" hidden="1"/>
-    <col min="5890" max="5890" width="20.44140625" style="1" hidden="1"/>
-    <col min="5891" max="6137" width="11.44140625" style="1" hidden="1"/>
-    <col min="6138" max="6138" width="15.44140625" style="1" hidden="1"/>
-    <col min="6139" max="6139" width="11.44140625" style="1" hidden="1"/>
-    <col min="6140" max="6140" width="15.6640625" style="1" hidden="1"/>
-    <col min="6141" max="6141" width="21.6640625" style="1" hidden="1"/>
-    <col min="6142" max="6144" width="11.44140625" style="1" hidden="1"/>
-    <col min="6145" max="6145" width="16" style="1" hidden="1"/>
-    <col min="6146" max="6146" width="20.44140625" style="1" hidden="1"/>
-    <col min="6147" max="6393" width="11.44140625" style="1" hidden="1"/>
-    <col min="6394" max="6394" width="15.44140625" style="1" hidden="1"/>
-    <col min="6395" max="6395" width="11.44140625" style="1" hidden="1"/>
-    <col min="6396" max="6396" width="15.6640625" style="1" hidden="1"/>
-    <col min="6397" max="6397" width="21.6640625" style="1" hidden="1"/>
-    <col min="6398" max="6400" width="11.44140625" style="1" hidden="1"/>
-    <col min="6401" max="6401" width="16" style="1" hidden="1"/>
-    <col min="6402" max="6402" width="20.44140625" style="1" hidden="1"/>
-    <col min="6403" max="6649" width="11.44140625" style="1" hidden="1"/>
-    <col min="6650" max="6650" width="15.44140625" style="1" hidden="1"/>
-    <col min="6651" max="6651" width="11.44140625" style="1" hidden="1"/>
-    <col min="6652" max="6652" width="15.6640625" style="1" hidden="1"/>
-    <col min="6653" max="6653" width="21.6640625" style="1" hidden="1"/>
-    <col min="6654" max="6656" width="11.44140625" style="1" hidden="1"/>
-    <col min="6657" max="6657" width="16" style="1" hidden="1"/>
-    <col min="6658" max="6658" width="20.44140625" style="1" hidden="1"/>
-    <col min="6659" max="6905" width="11.44140625" style="1" hidden="1"/>
-    <col min="6906" max="6906" width="15.44140625" style="1" hidden="1"/>
-    <col min="6907" max="6907" width="11.44140625" style="1" hidden="1"/>
-    <col min="6908" max="6908" width="15.6640625" style="1" hidden="1"/>
-    <col min="6909" max="6909" width="21.6640625" style="1" hidden="1"/>
-    <col min="6910" max="6912" width="11.44140625" style="1" hidden="1"/>
-    <col min="6913" max="6913" width="16" style="1" hidden="1"/>
-    <col min="6914" max="6914" width="20.44140625" style="1" hidden="1"/>
-    <col min="6915" max="7161" width="11.44140625" style="1" hidden="1"/>
-    <col min="7162" max="7162" width="15.44140625" style="1" hidden="1"/>
-    <col min="7163" max="7163" width="11.44140625" style="1" hidden="1"/>
-    <col min="7164" max="7164" width="15.6640625" style="1" hidden="1"/>
-    <col min="7165" max="7165" width="21.6640625" style="1" hidden="1"/>
-    <col min="7166" max="7168" width="11.44140625" style="1" hidden="1"/>
-    <col min="7169" max="7169" width="16" style="1" hidden="1"/>
-    <col min="7170" max="7170" width="20.44140625" style="1" hidden="1"/>
-    <col min="7171" max="7417" width="11.44140625" style="1" hidden="1"/>
-    <col min="7418" max="7418" width="15.44140625" style="1" hidden="1"/>
-    <col min="7419" max="7419" width="11.44140625" style="1" hidden="1"/>
-    <col min="7420" max="7420" width="15.6640625" style="1" hidden="1"/>
-    <col min="7421" max="7421" width="21.6640625" style="1" hidden="1"/>
-    <col min="7422" max="7424" width="11.44140625" style="1" hidden="1"/>
-    <col min="7425" max="7425" width="16" style="1" hidden="1"/>
-    <col min="7426" max="7426" width="20.44140625" style="1" hidden="1"/>
-    <col min="7427" max="7673" width="11.44140625" style="1" hidden="1"/>
-    <col min="7674" max="7674" width="15.44140625" style="1" hidden="1"/>
-    <col min="7675" max="7675" width="11.44140625" style="1" hidden="1"/>
-    <col min="7676" max="7676" width="15.6640625" style="1" hidden="1"/>
-    <col min="7677" max="7677" width="21.6640625" style="1" hidden="1"/>
-    <col min="7678" max="7680" width="11.44140625" style="1" hidden="1"/>
-    <col min="7681" max="7681" width="16" style="1" hidden="1"/>
-    <col min="7682" max="7682" width="20.44140625" style="1" hidden="1"/>
-    <col min="7683" max="7929" width="11.44140625" style="1" hidden="1"/>
-    <col min="7930" max="7930" width="15.44140625" style="1" hidden="1"/>
-    <col min="7931" max="7931" width="11.44140625" style="1" hidden="1"/>
-    <col min="7932" max="7932" width="15.6640625" style="1" hidden="1"/>
-    <col min="7933" max="7933" width="21.6640625" style="1" hidden="1"/>
-    <col min="7934" max="7936" width="11.44140625" style="1" hidden="1"/>
-    <col min="7937" max="7937" width="16" style="1" hidden="1"/>
-    <col min="7938" max="7938" width="20.44140625" style="1" hidden="1"/>
-    <col min="7939" max="8185" width="11.44140625" style="1" hidden="1"/>
-    <col min="8186" max="8186" width="15.44140625" style="1" hidden="1"/>
-    <col min="8187" max="8187" width="11.44140625" style="1" hidden="1"/>
-    <col min="8188" max="8188" width="15.6640625" style="1" hidden="1"/>
-    <col min="8189" max="8189" width="21.6640625" style="1" hidden="1"/>
-    <col min="8190" max="8192" width="11.44140625" style="1" hidden="1"/>
-    <col min="8193" max="8193" width="16" style="1" hidden="1"/>
-    <col min="8194" max="8194" width="20.44140625" style="1" hidden="1"/>
-    <col min="8195" max="8441" width="11.44140625" style="1" hidden="1"/>
-    <col min="8442" max="8442" width="15.44140625" style="1" hidden="1"/>
-    <col min="8443" max="8443" width="11.44140625" style="1" hidden="1"/>
-    <col min="8444" max="8444" width="15.6640625" style="1" hidden="1"/>
-    <col min="8445" max="8445" width="21.6640625" style="1" hidden="1"/>
-    <col min="8446" max="8448" width="11.44140625" style="1" hidden="1"/>
-    <col min="8449" max="8449" width="16" style="1" hidden="1"/>
-    <col min="8450" max="8450" width="20.44140625" style="1" hidden="1"/>
-    <col min="8451" max="8697" width="11.44140625" style="1" hidden="1"/>
-    <col min="8698" max="8698" width="15.44140625" style="1" hidden="1"/>
-    <col min="8699" max="8699" width="11.44140625" style="1" hidden="1"/>
-    <col min="8700" max="8700" width="15.6640625" style="1" hidden="1"/>
-    <col min="8701" max="8701" width="21.6640625" style="1" hidden="1"/>
-    <col min="8702" max="8704" width="11.44140625" style="1" hidden="1"/>
-    <col min="8705" max="8705" width="16" style="1" hidden="1"/>
-    <col min="8706" max="8706" width="20.44140625" style="1" hidden="1"/>
-    <col min="8707" max="8953" width="11.44140625" style="1" hidden="1"/>
-    <col min="8954" max="8954" width="15.44140625" style="1" hidden="1"/>
-    <col min="8955" max="8955" width="11.44140625" style="1" hidden="1"/>
-    <col min="8956" max="8956" width="15.6640625" style="1" hidden="1"/>
-    <col min="8957" max="8957" width="21.6640625" style="1" hidden="1"/>
-    <col min="8958" max="8960" width="11.44140625" style="1" hidden="1"/>
-    <col min="8961" max="8961" width="16" style="1" hidden="1"/>
-    <col min="8962" max="8962" width="20.44140625" style="1" hidden="1"/>
-    <col min="8963" max="9209" width="11.44140625" style="1" hidden="1"/>
-    <col min="9210" max="9210" width="15.44140625" style="1" hidden="1"/>
-    <col min="9211" max="9211" width="11.44140625" style="1" hidden="1"/>
-    <col min="9212" max="9212" width="15.6640625" style="1" hidden="1"/>
-    <col min="9213" max="9213" width="21.6640625" style="1" hidden="1"/>
-    <col min="9214" max="9216" width="11.44140625" style="1" hidden="1"/>
-    <col min="9217" max="9217" width="16" style="1" hidden="1"/>
-    <col min="9218" max="9218" width="20.44140625" style="1" hidden="1"/>
-    <col min="9219" max="9465" width="11.44140625" style="1" hidden="1"/>
-    <col min="9466" max="9466" width="15.44140625" style="1" hidden="1"/>
-    <col min="9467" max="9467" width="11.44140625" style="1" hidden="1"/>
-    <col min="9468" max="9468" width="15.6640625" style="1" hidden="1"/>
-    <col min="9469" max="9469" width="21.6640625" style="1" hidden="1"/>
-    <col min="9470" max="9472" width="11.44140625" style="1" hidden="1"/>
-    <col min="9473" max="9473" width="16" style="1" hidden="1"/>
-    <col min="9474" max="9474" width="20.44140625" style="1" hidden="1"/>
-    <col min="9475" max="9721" width="11.44140625" style="1" hidden="1"/>
-    <col min="9722" max="9722" width="15.44140625" style="1" hidden="1"/>
-    <col min="9723" max="9723" width="11.44140625" style="1" hidden="1"/>
-    <col min="9724" max="9724" width="15.6640625" style="1" hidden="1"/>
-    <col min="9725" max="9725" width="21.6640625" style="1" hidden="1"/>
-    <col min="9726" max="9728" width="11.44140625" style="1" hidden="1"/>
-    <col min="9729" max="9729" width="16" style="1" hidden="1"/>
-    <col min="9730" max="9730" width="20.44140625" style="1" hidden="1"/>
-    <col min="9731" max="9977" width="11.44140625" style="1" hidden="1"/>
-    <col min="9978" max="9978" width="15.44140625" style="1" hidden="1"/>
-    <col min="9979" max="9979" width="11.44140625" style="1" hidden="1"/>
-    <col min="9980" max="9980" width="15.6640625" style="1" hidden="1"/>
-    <col min="9981" max="9981" width="21.6640625" style="1" hidden="1"/>
-    <col min="9982" max="9984" width="11.44140625" style="1" hidden="1"/>
-    <col min="9985" max="9985" width="16" style="1" hidden="1"/>
-    <col min="9986" max="9986" width="20.44140625" style="1" hidden="1"/>
-    <col min="9987" max="10233" width="11.44140625" style="1" hidden="1"/>
-    <col min="10234" max="10234" width="15.44140625" style="1" hidden="1"/>
-    <col min="10235" max="10235" width="11.44140625" style="1" hidden="1"/>
-    <col min="10236" max="10236" width="15.6640625" style="1" hidden="1"/>
-    <col min="10237" max="10237" width="21.6640625" style="1" hidden="1"/>
-    <col min="10238" max="10240" width="11.44140625" style="1" hidden="1"/>
-    <col min="10241" max="10241" width="16" style="1" hidden="1"/>
-    <col min="10242" max="10242" width="20.44140625" style="1" hidden="1"/>
-    <col min="10243" max="10489" width="11.44140625" style="1" hidden="1"/>
-    <col min="10490" max="10490" width="15.44140625" style="1" hidden="1"/>
-    <col min="10491" max="10491" width="11.44140625" style="1" hidden="1"/>
-    <col min="10492" max="10492" width="15.6640625" style="1" hidden="1"/>
-    <col min="10493" max="10493" width="21.6640625" style="1" hidden="1"/>
-    <col min="10494" max="10496" width="11.44140625" style="1" hidden="1"/>
-    <col min="10497" max="10497" width="16" style="1" hidden="1"/>
-    <col min="10498" max="10498" width="20.44140625" style="1" hidden="1"/>
-    <col min="10499" max="10745" width="11.44140625" style="1" hidden="1"/>
-    <col min="10746" max="10746" width="15.44140625" style="1" hidden="1"/>
-    <col min="10747" max="10747" width="11.44140625" style="1" hidden="1"/>
-    <col min="10748" max="10748" width="15.6640625" style="1" hidden="1"/>
-    <col min="10749" max="10749" width="21.6640625" style="1" hidden="1"/>
-    <col min="10750" max="10752" width="11.44140625" style="1" hidden="1"/>
-    <col min="10753" max="10753" width="16" style="1" hidden="1"/>
-    <col min="10754" max="10754" width="20.44140625" style="1" hidden="1"/>
-    <col min="10755" max="11001" width="11.44140625" style="1" hidden="1"/>
-    <col min="11002" max="11002" width="15.44140625" style="1" hidden="1"/>
-    <col min="11003" max="11003" width="11.44140625" style="1" hidden="1"/>
-    <col min="11004" max="11004" width="15.6640625" style="1" hidden="1"/>
-    <col min="11005" max="11005" width="21.6640625" style="1" hidden="1"/>
-    <col min="11006" max="11008" width="11.44140625" style="1" hidden="1"/>
-    <col min="11009" max="11009" width="16" style="1" hidden="1"/>
-    <col min="11010" max="11010" width="20.44140625" style="1" hidden="1"/>
-    <col min="11011" max="11257" width="11.44140625" style="1" hidden="1"/>
-    <col min="11258" max="11258" width="15.44140625" style="1" hidden="1"/>
-    <col min="11259" max="11259" width="11.44140625" style="1" hidden="1"/>
-    <col min="11260" max="11260" width="15.6640625" style="1" hidden="1"/>
-    <col min="11261" max="11261" width="21.6640625" style="1" hidden="1"/>
-    <col min="11262" max="11264" width="11.44140625" style="1" hidden="1"/>
-    <col min="11265" max="11265" width="16" style="1" hidden="1"/>
-    <col min="11266" max="11266" width="20.44140625" style="1" hidden="1"/>
-    <col min="11267" max="11513" width="11.44140625" style="1" hidden="1"/>
-    <col min="11514" max="11514" width="15.44140625" style="1" hidden="1"/>
-    <col min="11515" max="11515" width="11.44140625" style="1" hidden="1"/>
-    <col min="11516" max="11516" width="15.6640625" style="1" hidden="1"/>
-    <col min="11517" max="11517" width="21.6640625" style="1" hidden="1"/>
-    <col min="11518" max="11520" width="11.44140625" style="1" hidden="1"/>
-    <col min="11521" max="11521" width="16" style="1" hidden="1"/>
-    <col min="11522" max="11522" width="20.44140625" style="1" hidden="1"/>
-    <col min="11523" max="11769" width="11.44140625" style="1" hidden="1"/>
-    <col min="11770" max="11770" width="15.44140625" style="1" hidden="1"/>
-    <col min="11771" max="11771" width="11.44140625" style="1" hidden="1"/>
-    <col min="11772" max="11772" width="15.6640625" style="1" hidden="1"/>
-    <col min="11773" max="11773" width="21.6640625" style="1" hidden="1"/>
-    <col min="11774" max="11776" width="11.44140625" style="1" hidden="1"/>
-    <col min="11777" max="11777" width="16" style="1" hidden="1"/>
-    <col min="11778" max="11778" width="20.44140625" style="1" hidden="1"/>
-    <col min="11779" max="12025" width="11.44140625" style="1" hidden="1"/>
-    <col min="12026" max="12026" width="15.44140625" style="1" hidden="1"/>
-    <col min="12027" max="12027" width="11.44140625" style="1" hidden="1"/>
-    <col min="12028" max="12028" width="15.6640625" style="1" hidden="1"/>
-    <col min="12029" max="12029" width="21.6640625" style="1" hidden="1"/>
-    <col min="12030" max="12032" width="11.44140625" style="1" hidden="1"/>
-    <col min="12033" max="12033" width="16" style="1" hidden="1"/>
-    <col min="12034" max="12034" width="20.44140625" style="1" hidden="1"/>
-    <col min="12035" max="12281" width="11.44140625" style="1" hidden="1"/>
-    <col min="12282" max="12282" width="15.44140625" style="1" hidden="1"/>
-    <col min="12283" max="12283" width="11.44140625" style="1" hidden="1"/>
-    <col min="12284" max="12284" width="15.6640625" style="1" hidden="1"/>
-    <col min="12285" max="12285" width="21.6640625" style="1" hidden="1"/>
-    <col min="12286" max="12288" width="11.44140625" style="1" hidden="1"/>
-    <col min="12289" max="12289" width="16" style="1" hidden="1"/>
-    <col min="12290" max="12290" width="20.44140625" style="1" hidden="1"/>
-    <col min="12291" max="12537" width="11.44140625" style="1" hidden="1"/>
-    <col min="12538" max="12538" width="15.44140625" style="1" hidden="1"/>
-    <col min="12539" max="12539" width="11.44140625" style="1" hidden="1"/>
-    <col min="12540" max="12540" width="15.6640625" style="1" hidden="1"/>
-    <col min="12541" max="12541" width="21.6640625" style="1" hidden="1"/>
-    <col min="12542" max="12544" width="11.44140625" style="1" hidden="1"/>
-    <col min="12545" max="12545" width="16" style="1" hidden="1"/>
-    <col min="12546" max="12546" width="20.44140625" style="1" hidden="1"/>
-    <col min="12547" max="12793" width="11.44140625" style="1" hidden="1"/>
-    <col min="12794" max="12794" width="15.44140625" style="1" hidden="1"/>
-    <col min="12795" max="12795" width="11.44140625" style="1" hidden="1"/>
-    <col min="12796" max="12796" width="15.6640625" style="1" hidden="1"/>
-    <col min="12797" max="12797" width="21.6640625" style="1" hidden="1"/>
-    <col min="12798" max="12800" width="11.44140625" style="1" hidden="1"/>
-    <col min="12801" max="12801" width="16" style="1" hidden="1"/>
-    <col min="12802" max="12802" width="20.44140625" style="1" hidden="1"/>
-    <col min="12803" max="13049" width="11.44140625" style="1" hidden="1"/>
-    <col min="13050" max="13050" width="15.44140625" style="1" hidden="1"/>
-    <col min="13051" max="13051" width="11.44140625" style="1" hidden="1"/>
-    <col min="13052" max="13052" width="15.6640625" style="1" hidden="1"/>
-    <col min="13053" max="13053" width="21.6640625" style="1" hidden="1"/>
-    <col min="13054" max="13056" width="11.44140625" style="1" hidden="1"/>
-    <col min="13057" max="13057" width="16" style="1" hidden="1"/>
-    <col min="13058" max="13058" width="20.44140625" style="1" hidden="1"/>
-    <col min="13059" max="13305" width="11.44140625" style="1" hidden="1"/>
-    <col min="13306" max="13306" width="15.44140625" style="1" hidden="1"/>
-    <col min="13307" max="13307" width="11.44140625" style="1" hidden="1"/>
-    <col min="13308" max="13308" width="15.6640625" style="1" hidden="1"/>
-    <col min="13309" max="13309" width="21.6640625" style="1" hidden="1"/>
-    <col min="13310" max="13312" width="11.44140625" style="1" hidden="1"/>
-    <col min="13313" max="13313" width="16" style="1" hidden="1"/>
-    <col min="13314" max="13314" width="20.44140625" style="1" hidden="1"/>
-    <col min="13315" max="13561" width="11.44140625" style="1" hidden="1"/>
-    <col min="13562" max="13562" width="15.44140625" style="1" hidden="1"/>
-    <col min="13563" max="13563" width="11.44140625" style="1" hidden="1"/>
-    <col min="13564" max="13564" width="15.6640625" style="1" hidden="1"/>
-    <col min="13565" max="13565" width="21.6640625" style="1" hidden="1"/>
-    <col min="13566" max="13568" width="11.44140625" style="1" hidden="1"/>
-    <col min="13569" max="13569" width="16" style="1" hidden="1"/>
-    <col min="13570" max="13570" width="20.44140625" style="1" hidden="1"/>
-    <col min="13571" max="13817" width="11.44140625" style="1" hidden="1"/>
-    <col min="13818" max="13818" width="15.44140625" style="1" hidden="1"/>
-    <col min="13819" max="13819" width="11.44140625" style="1" hidden="1"/>
-    <col min="13820" max="13820" width="15.6640625" style="1" hidden="1"/>
-    <col min="13821" max="13821" width="21.6640625" style="1" hidden="1"/>
-    <col min="13822" max="13824" width="11.44140625" style="1" hidden="1"/>
-    <col min="13825" max="13825" width="16" style="1" hidden="1"/>
-    <col min="13826" max="13826" width="20.44140625" style="1" hidden="1"/>
-    <col min="13827" max="14073" width="11.44140625" style="1" hidden="1"/>
-    <col min="14074" max="14074" width="15.44140625" style="1" hidden="1"/>
-    <col min="14075" max="14075" width="11.44140625" style="1" hidden="1"/>
-    <col min="14076" max="14076" width="15.6640625" style="1" hidden="1"/>
-    <col min="14077" max="14077" width="21.6640625" style="1" hidden="1"/>
-    <col min="14078" max="14080" width="11.44140625" style="1" hidden="1"/>
-    <col min="14081" max="14081" width="16" style="1" hidden="1"/>
-    <col min="14082" max="14082" width="20.44140625" style="1" hidden="1"/>
-    <col min="14083" max="14329" width="11.44140625" style="1" hidden="1"/>
-    <col min="14330" max="14330" width="15.44140625" style="1" hidden="1"/>
-    <col min="14331" max="14331" width="11.44140625" style="1" hidden="1"/>
-    <col min="14332" max="14332" width="15.6640625" style="1" hidden="1"/>
-    <col min="14333" max="14333" width="21.6640625" style="1" hidden="1"/>
-    <col min="14334" max="14336" width="11.44140625" style="1" hidden="1"/>
-    <col min="14337" max="14337" width="16" style="1" hidden="1"/>
-    <col min="14338" max="14338" width="20.44140625" style="1" hidden="1"/>
-    <col min="14339" max="14585" width="11.44140625" style="1" hidden="1"/>
-    <col min="14586" max="14586" width="15.44140625" style="1" hidden="1"/>
-    <col min="14587" max="14587" width="11.44140625" style="1" hidden="1"/>
-    <col min="14588" max="14588" width="15.6640625" style="1" hidden="1"/>
-    <col min="14589" max="14589" width="21.6640625" style="1" hidden="1"/>
-    <col min="14590" max="14592" width="11.44140625" style="1" hidden="1"/>
-    <col min="14593" max="14593" width="16" style="1" hidden="1"/>
-    <col min="14594" max="14594" width="20.44140625" style="1" hidden="1"/>
-    <col min="14595" max="14841" width="11.44140625" style="1" hidden="1"/>
-    <col min="14842" max="14842" width="15.44140625" style="1" hidden="1"/>
-    <col min="14843" max="14843" width="11.44140625" style="1" hidden="1"/>
-    <col min="14844" max="14844" width="15.6640625" style="1" hidden="1"/>
-    <col min="14845" max="14845" width="21.6640625" style="1" hidden="1"/>
-    <col min="14846" max="14848" width="11.44140625" style="1" hidden="1"/>
-    <col min="14849" max="14849" width="16" style="1" hidden="1"/>
-    <col min="14850" max="14850" width="20.44140625" style="1" hidden="1"/>
-    <col min="14851" max="15097" width="11.44140625" style="1" hidden="1"/>
-    <col min="15098" max="15098" width="15.44140625" style="1" hidden="1"/>
-    <col min="15099" max="15099" width="11.44140625" style="1" hidden="1"/>
-    <col min="15100" max="15100" width="15.6640625" style="1" hidden="1"/>
-    <col min="15101" max="15101" width="21.6640625" style="1" hidden="1"/>
-    <col min="15102" max="15104" width="11.44140625" style="1" hidden="1"/>
-    <col min="15105" max="15105" width="16" style="1" hidden="1"/>
-    <col min="15106" max="15106" width="20.44140625" style="1" hidden="1"/>
-    <col min="15107" max="15353" width="11.44140625" style="1" hidden="1"/>
-    <col min="15354" max="15354" width="15.44140625" style="1" hidden="1"/>
-    <col min="15355" max="15355" width="11.44140625" style="1" hidden="1"/>
-    <col min="15356" max="15356" width="15.6640625" style="1" hidden="1"/>
-    <col min="15357" max="15357" width="21.6640625" style="1" hidden="1"/>
-    <col min="15358" max="15360" width="11.44140625" style="1" hidden="1"/>
-    <col min="15361" max="15361" width="16" style="1" hidden="1"/>
-    <col min="15362" max="15362" width="20.44140625" style="1" hidden="1"/>
-    <col min="15363" max="15609" width="11.44140625" style="1" hidden="1"/>
-    <col min="15610" max="15610" width="15.44140625" style="1" hidden="1"/>
-    <col min="15611" max="15611" width="11.44140625" style="1" hidden="1"/>
-    <col min="15612" max="15612" width="15.6640625" style="1" hidden="1"/>
-    <col min="15613" max="15613" width="21.6640625" style="1" hidden="1"/>
-    <col min="15614" max="15616" width="11.44140625" style="1" hidden="1"/>
-    <col min="15617" max="15617" width="16" style="1" hidden="1"/>
-    <col min="15618" max="15618" width="20.44140625" style="1" hidden="1"/>
-    <col min="15619" max="15865" width="11.44140625" style="1" hidden="1"/>
-    <col min="15866" max="15866" width="15.44140625" style="1" hidden="1"/>
-    <col min="15867" max="15867" width="11.44140625" style="1" hidden="1"/>
-    <col min="15868" max="15868" width="15.6640625" style="1" hidden="1"/>
-    <col min="15869" max="15869" width="21.6640625" style="1" hidden="1"/>
-    <col min="15870" max="15872" width="11.44140625" style="1" hidden="1"/>
-    <col min="15873" max="15873" width="16" style="1" hidden="1"/>
-    <col min="15874" max="15874" width="20.44140625" style="1" hidden="1"/>
-    <col min="15875" max="16121" width="11.44140625" style="1" hidden="1"/>
-    <col min="16122" max="16122" width="15.44140625" style="1" hidden="1"/>
-    <col min="16123" max="16123" width="11.44140625" style="1" hidden="1"/>
-    <col min="16124" max="16124" width="15.6640625" style="1" hidden="1"/>
-    <col min="16125" max="16125" width="21.6640625" style="1" hidden="1"/>
-    <col min="16126" max="16128" width="11.44140625" style="1" hidden="1"/>
-    <col min="16129" max="16129" width="16" style="1" hidden="1"/>
-    <col min="16130" max="16130" width="20.44140625" style="1" hidden="1"/>
-    <col min="16131" max="16131" width="11.44140625" style="1" hidden="1"/>
-    <col min="16132" max="16132" width="16" style="1" hidden="1"/>
-    <col min="16133" max="16133" width="20.44140625" style="1" hidden="1"/>
-    <col min="16134" max="16134" width="16" style="1" hidden="1"/>
-    <col min="16135" max="16140" width="20.44140625" style="1" hidden="1"/>
-    <col min="16141" max="16384" width="11.44140625" style="1" hidden="1"/>
+    <col min="16" max="16" width="5.44140625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="5.6640625" style="2" customWidth="1"/>
+    <col min="18" max="18" width="5.6640625" style="1" customWidth="1"/>
+    <col min="19" max="19" width="5.6640625" style="2" customWidth="1"/>
+    <col min="20" max="20" width="5.6640625" style="1" customWidth="1"/>
+    <col min="21" max="21" width="2.6640625" style="1" customWidth="1"/>
+    <col min="22" max="22" width="17.6640625" style="1" hidden="1"/>
+    <col min="23" max="23" width="16" style="1" hidden="1"/>
+    <col min="24" max="24" width="17.6640625" style="1" hidden="1"/>
+    <col min="25" max="25" width="3" style="1" hidden="1"/>
+    <col min="26" max="250" width="11.44140625" style="1" hidden="1"/>
+    <col min="251" max="251" width="15.44140625" style="1" hidden="1"/>
+    <col min="252" max="252" width="11.44140625" style="1" hidden="1"/>
+    <col min="253" max="253" width="15.6640625" style="1" hidden="1"/>
+    <col min="254" max="254" width="21.6640625" style="1" hidden="1"/>
+    <col min="255" max="257" width="11.44140625" style="1" hidden="1"/>
+    <col min="258" max="258" width="16" style="1" hidden="1"/>
+    <col min="259" max="259" width="20.44140625" style="1" hidden="1"/>
+    <col min="260" max="506" width="11.44140625" style="1" hidden="1"/>
+    <col min="507" max="507" width="15.44140625" style="1" hidden="1"/>
+    <col min="508" max="508" width="11.44140625" style="1" hidden="1"/>
+    <col min="509" max="509" width="15.6640625" style="1" hidden="1"/>
+    <col min="510" max="510" width="21.6640625" style="1" hidden="1"/>
+    <col min="511" max="513" width="11.44140625" style="1" hidden="1"/>
+    <col min="514" max="514" width="16" style="1" hidden="1"/>
+    <col min="515" max="515" width="20.44140625" style="1" hidden="1"/>
+    <col min="516" max="762" width="11.44140625" style="1" hidden="1"/>
+    <col min="763" max="763" width="15.44140625" style="1" hidden="1"/>
+    <col min="764" max="764" width="11.44140625" style="1" hidden="1"/>
+    <col min="765" max="765" width="15.6640625" style="1" hidden="1"/>
+    <col min="766" max="766" width="21.6640625" style="1" hidden="1"/>
+    <col min="767" max="769" width="11.44140625" style="1" hidden="1"/>
+    <col min="770" max="770" width="16" style="1" hidden="1"/>
+    <col min="771" max="771" width="20.44140625" style="1" hidden="1"/>
+    <col min="772" max="1018" width="11.44140625" style="1" hidden="1"/>
+    <col min="1019" max="1019" width="15.44140625" style="1" hidden="1"/>
+    <col min="1020" max="1020" width="11.44140625" style="1" hidden="1"/>
+    <col min="1021" max="1021" width="15.6640625" style="1" hidden="1"/>
+    <col min="1022" max="1022" width="21.6640625" style="1" hidden="1"/>
+    <col min="1023" max="1025" width="11.44140625" style="1" hidden="1"/>
+    <col min="1026" max="1026" width="16" style="1" hidden="1"/>
+    <col min="1027" max="1027" width="20.44140625" style="1" hidden="1"/>
+    <col min="1028" max="1274" width="11.44140625" style="1" hidden="1"/>
+    <col min="1275" max="1275" width="15.44140625" style="1" hidden="1"/>
+    <col min="1276" max="1276" width="11.44140625" style="1" hidden="1"/>
+    <col min="1277" max="1277" width="15.6640625" style="1" hidden="1"/>
+    <col min="1278" max="1278" width="21.6640625" style="1" hidden="1"/>
+    <col min="1279" max="1281" width="11.44140625" style="1" hidden="1"/>
+    <col min="1282" max="1282" width="16" style="1" hidden="1"/>
+    <col min="1283" max="1283" width="20.44140625" style="1" hidden="1"/>
+    <col min="1284" max="1530" width="11.44140625" style="1" hidden="1"/>
+    <col min="1531" max="1531" width="15.44140625" style="1" hidden="1"/>
+    <col min="1532" max="1532" width="11.44140625" style="1" hidden="1"/>
+    <col min="1533" max="1533" width="15.6640625" style="1" hidden="1"/>
+    <col min="1534" max="1534" width="21.6640625" style="1" hidden="1"/>
+    <col min="1535" max="1537" width="11.44140625" style="1" hidden="1"/>
+    <col min="1538" max="1538" width="16" style="1" hidden="1"/>
+    <col min="1539" max="1539" width="20.44140625" style="1" hidden="1"/>
+    <col min="1540" max="1786" width="11.44140625" style="1" hidden="1"/>
+    <col min="1787" max="1787" width="15.44140625" style="1" hidden="1"/>
+    <col min="1788" max="1788" width="11.44140625" style="1" hidden="1"/>
+    <col min="1789" max="1789" width="15.6640625" style="1" hidden="1"/>
+    <col min="1790" max="1790" width="21.6640625" style="1" hidden="1"/>
+    <col min="1791" max="1793" width="11.44140625" style="1" hidden="1"/>
+    <col min="1794" max="1794" width="16" style="1" hidden="1"/>
+    <col min="1795" max="1795" width="20.44140625" style="1" hidden="1"/>
+    <col min="1796" max="2042" width="11.44140625" style="1" hidden="1"/>
+    <col min="2043" max="2043" width="15.44140625" style="1" hidden="1"/>
+    <col min="2044" max="2044" width="11.44140625" style="1" hidden="1"/>
+    <col min="2045" max="2045" width="15.6640625" style="1" hidden="1"/>
+    <col min="2046" max="2046" width="21.6640625" style="1" hidden="1"/>
+    <col min="2047" max="2049" width="11.44140625" style="1" hidden="1"/>
+    <col min="2050" max="2050" width="16" style="1" hidden="1"/>
+    <col min="2051" max="2051" width="20.44140625" style="1" hidden="1"/>
+    <col min="2052" max="2298" width="11.44140625" style="1" hidden="1"/>
+    <col min="2299" max="2299" width="15.44140625" style="1" hidden="1"/>
+    <col min="2300" max="2300" width="11.44140625" style="1" hidden="1"/>
+    <col min="2301" max="2301" width="15.6640625" style="1" hidden="1"/>
+    <col min="2302" max="2302" width="21.6640625" style="1" hidden="1"/>
+    <col min="2303" max="2305" width="11.44140625" style="1" hidden="1"/>
+    <col min="2306" max="2306" width="16" style="1" hidden="1"/>
+    <col min="2307" max="2307" width="20.44140625" style="1" hidden="1"/>
+    <col min="2308" max="2554" width="11.44140625" style="1" hidden="1"/>
+    <col min="2555" max="2555" width="15.44140625" style="1" hidden="1"/>
+    <col min="2556" max="2556" width="11.44140625" style="1" hidden="1"/>
+    <col min="2557" max="2557" width="15.6640625" style="1" hidden="1"/>
+    <col min="2558" max="2558" width="21.6640625" style="1" hidden="1"/>
+    <col min="2559" max="2561" width="11.44140625" style="1" hidden="1"/>
+    <col min="2562" max="2562" width="16" style="1" hidden="1"/>
+    <col min="2563" max="2563" width="20.44140625" style="1" hidden="1"/>
+    <col min="2564" max="2810" width="11.44140625" style="1" hidden="1"/>
+    <col min="2811" max="2811" width="15.44140625" style="1" hidden="1"/>
+    <col min="2812" max="2812" width="11.44140625" style="1" hidden="1"/>
+    <col min="2813" max="2813" width="15.6640625" style="1" hidden="1"/>
+    <col min="2814" max="2814" width="21.6640625" style="1" hidden="1"/>
+    <col min="2815" max="2817" width="11.44140625" style="1" hidden="1"/>
+    <col min="2818" max="2818" width="16" style="1" hidden="1"/>
+    <col min="2819" max="2819" width="20.44140625" style="1" hidden="1"/>
+    <col min="2820" max="3066" width="11.44140625" style="1" hidden="1"/>
+    <col min="3067" max="3067" width="15.44140625" style="1" hidden="1"/>
+    <col min="3068" max="3068" width="11.44140625" style="1" hidden="1"/>
+    <col min="3069" max="3069" width="15.6640625" style="1" hidden="1"/>
+    <col min="3070" max="3070" width="21.6640625" style="1" hidden="1"/>
+    <col min="3071" max="3073" width="11.44140625" style="1" hidden="1"/>
+    <col min="3074" max="3074" width="16" style="1" hidden="1"/>
+    <col min="3075" max="3075" width="20.44140625" style="1" hidden="1"/>
+    <col min="3076" max="3322" width="11.44140625" style="1" hidden="1"/>
+    <col min="3323" max="3323" width="15.44140625" style="1" hidden="1"/>
+    <col min="3324" max="3324" width="11.44140625" style="1" hidden="1"/>
+    <col min="3325" max="3325" width="15.6640625" style="1" hidden="1"/>
+    <col min="3326" max="3326" width="21.6640625" style="1" hidden="1"/>
+    <col min="3327" max="3329" width="11.44140625" style="1" hidden="1"/>
+    <col min="3330" max="3330" width="16" style="1" hidden="1"/>
+    <col min="3331" max="3331" width="20.44140625" style="1" hidden="1"/>
+    <col min="3332" max="3578" width="11.44140625" style="1" hidden="1"/>
+    <col min="3579" max="3579" width="15.44140625" style="1" hidden="1"/>
+    <col min="3580" max="3580" width="11.44140625" style="1" hidden="1"/>
+    <col min="3581" max="3581" width="15.6640625" style="1" hidden="1"/>
+    <col min="3582" max="3582" width="21.6640625" style="1" hidden="1"/>
+    <col min="3583" max="3585" width="11.44140625" style="1" hidden="1"/>
+    <col min="3586" max="3586" width="16" style="1" hidden="1"/>
+    <col min="3587" max="3587" width="20.44140625" style="1" hidden="1"/>
+    <col min="3588" max="3834" width="11.44140625" style="1" hidden="1"/>
+    <col min="3835" max="3835" width="15.44140625" style="1" hidden="1"/>
+    <col min="3836" max="3836" width="11.44140625" style="1" hidden="1"/>
+    <col min="3837" max="3837" width="15.6640625" style="1" hidden="1"/>
+    <col min="3838" max="3838" width="21.6640625" style="1" hidden="1"/>
+    <col min="3839" max="3841" width="11.44140625" style="1" hidden="1"/>
+    <col min="3842" max="3842" width="16" style="1" hidden="1"/>
+    <col min="3843" max="3843" width="20.44140625" style="1" hidden="1"/>
+    <col min="3844" max="4090" width="11.44140625" style="1" hidden="1"/>
+    <col min="4091" max="4091" width="15.44140625" style="1" hidden="1"/>
+    <col min="4092" max="4092" width="11.44140625" style="1" hidden="1"/>
+    <col min="4093" max="4093" width="15.6640625" style="1" hidden="1"/>
+    <col min="4094" max="4094" width="21.6640625" style="1" hidden="1"/>
+    <col min="4095" max="4097" width="11.44140625" style="1" hidden="1"/>
+    <col min="4098" max="4098" width="16" style="1" hidden="1"/>
+    <col min="4099" max="4099" width="20.44140625" style="1" hidden="1"/>
+    <col min="4100" max="4346" width="11.44140625" style="1" hidden="1"/>
+    <col min="4347" max="4347" width="15.44140625" style="1" hidden="1"/>
+    <col min="4348" max="4348" width="11.44140625" style="1" hidden="1"/>
+    <col min="4349" max="4349" width="15.6640625" style="1" hidden="1"/>
+    <col min="4350" max="4350" width="21.6640625" style="1" hidden="1"/>
+    <col min="4351" max="4353" width="11.44140625" style="1" hidden="1"/>
+    <col min="4354" max="4354" width="16" style="1" hidden="1"/>
+    <col min="4355" max="4355" width="20.44140625" style="1" hidden="1"/>
+    <col min="4356" max="4602" width="11.44140625" style="1" hidden="1"/>
+    <col min="4603" max="4603" width="15.44140625" style="1" hidden="1"/>
+    <col min="4604" max="4604" width="11.44140625" style="1" hidden="1"/>
+    <col min="4605" max="4605" width="15.6640625" style="1" hidden="1"/>
+    <col min="4606" max="4606" width="21.6640625" style="1" hidden="1"/>
+    <col min="4607" max="4609" width="11.44140625" style="1" hidden="1"/>
+    <col min="4610" max="4610" width="16" style="1" hidden="1"/>
+    <col min="4611" max="4611" width="20.44140625" style="1" hidden="1"/>
+    <col min="4612" max="4858" width="11.44140625" style="1" hidden="1"/>
+    <col min="4859" max="4859" width="15.44140625" style="1" hidden="1"/>
+    <col min="4860" max="4860" width="11.44140625" style="1" hidden="1"/>
+    <col min="4861" max="4861" width="15.6640625" style="1" hidden="1"/>
+    <col min="4862" max="4862" width="21.6640625" style="1" hidden="1"/>
+    <col min="4863" max="4865" width="11.44140625" style="1" hidden="1"/>
+    <col min="4866" max="4866" width="16" style="1" hidden="1"/>
+    <col min="4867" max="4867" width="20.44140625" style="1" hidden="1"/>
+    <col min="4868" max="5114" width="11.44140625" style="1" hidden="1"/>
+    <col min="5115" max="5115" width="15.44140625" style="1" hidden="1"/>
+    <col min="5116" max="5116" width="11.44140625" style="1" hidden="1"/>
+    <col min="5117" max="5117" width="15.6640625" style="1" hidden="1"/>
+    <col min="5118" max="5118" width="21.6640625" style="1" hidden="1"/>
+    <col min="5119" max="5121" width="11.44140625" style="1" hidden="1"/>
+    <col min="5122" max="5122" width="16" style="1" hidden="1"/>
+    <col min="5123" max="5123" width="20.44140625" style="1" hidden="1"/>
+    <col min="5124" max="5370" width="11.44140625" style="1" hidden="1"/>
+    <col min="5371" max="5371" width="15.44140625" style="1" hidden="1"/>
+    <col min="5372" max="5372" width="11.44140625" style="1" hidden="1"/>
+    <col min="5373" max="5373" width="15.6640625" style="1" hidden="1"/>
+    <col min="5374" max="5374" width="21.6640625" style="1" hidden="1"/>
+    <col min="5375" max="5377" width="11.44140625" style="1" hidden="1"/>
+    <col min="5378" max="5378" width="16" style="1" hidden="1"/>
+    <col min="5379" max="5379" width="20.44140625" style="1" hidden="1"/>
+    <col min="5380" max="5626" width="11.44140625" style="1" hidden="1"/>
+    <col min="5627" max="5627" width="15.44140625" style="1" hidden="1"/>
+    <col min="5628" max="5628" width="11.44140625" style="1" hidden="1"/>
+    <col min="5629" max="5629" width="15.6640625" style="1" hidden="1"/>
+    <col min="5630" max="5630" width="21.6640625" style="1" hidden="1"/>
+    <col min="5631" max="5633" width="11.44140625" style="1" hidden="1"/>
+    <col min="5634" max="5634" width="16" style="1" hidden="1"/>
+    <col min="5635" max="5635" width="20.44140625" style="1" hidden="1"/>
+    <col min="5636" max="5882" width="11.44140625" style="1" hidden="1"/>
+    <col min="5883" max="5883" width="15.44140625" style="1" hidden="1"/>
+    <col min="5884" max="5884" width="11.44140625" style="1" hidden="1"/>
+    <col min="5885" max="5885" width="15.6640625" style="1" hidden="1"/>
+    <col min="5886" max="5886" width="21.6640625" style="1" hidden="1"/>
+    <col min="5887" max="5889" width="11.44140625" style="1" hidden="1"/>
+    <col min="5890" max="5890" width="16" style="1" hidden="1"/>
+    <col min="5891" max="5891" width="20.44140625" style="1" hidden="1"/>
+    <col min="5892" max="6138" width="11.44140625" style="1" hidden="1"/>
+    <col min="6139" max="6139" width="15.44140625" style="1" hidden="1"/>
+    <col min="6140" max="6140" width="11.44140625" style="1" hidden="1"/>
+    <col min="6141" max="6141" width="15.6640625" style="1" hidden="1"/>
+    <col min="6142" max="6142" width="21.6640625" style="1" hidden="1"/>
+    <col min="6143" max="6145" width="11.44140625" style="1" hidden="1"/>
+    <col min="6146" max="6146" width="16" style="1" hidden="1"/>
+    <col min="6147" max="6147" width="20.44140625" style="1" hidden="1"/>
+    <col min="6148" max="6394" width="11.44140625" style="1" hidden="1"/>
+    <col min="6395" max="6395" width="15.44140625" style="1" hidden="1"/>
+    <col min="6396" max="6396" width="11.44140625" style="1" hidden="1"/>
+    <col min="6397" max="6397" width="15.6640625" style="1" hidden="1"/>
+    <col min="6398" max="6398" width="21.6640625" style="1" hidden="1"/>
+    <col min="6399" max="6401" width="11.44140625" style="1" hidden="1"/>
+    <col min="6402" max="6402" width="16" style="1" hidden="1"/>
+    <col min="6403" max="6403" width="20.44140625" style="1" hidden="1"/>
+    <col min="6404" max="6650" width="11.44140625" style="1" hidden="1"/>
+    <col min="6651" max="6651" width="15.44140625" style="1" hidden="1"/>
+    <col min="6652" max="6652" width="11.44140625" style="1" hidden="1"/>
+    <col min="6653" max="6653" width="15.6640625" style="1" hidden="1"/>
+    <col min="6654" max="6654" width="21.6640625" style="1" hidden="1"/>
+    <col min="6655" max="6657" width="11.44140625" style="1" hidden="1"/>
+    <col min="6658" max="6658" width="16" style="1" hidden="1"/>
+    <col min="6659" max="6659" width="20.44140625" style="1" hidden="1"/>
+    <col min="6660" max="6906" width="11.44140625" style="1" hidden="1"/>
+    <col min="6907" max="6907" width="15.44140625" style="1" hidden="1"/>
+    <col min="6908" max="6908" width="11.44140625" style="1" hidden="1"/>
+    <col min="6909" max="6909" width="15.6640625" style="1" hidden="1"/>
+    <col min="6910" max="6910" width="21.6640625" style="1" hidden="1"/>
+    <col min="6911" max="6913" width="11.44140625" style="1" hidden="1"/>
+    <col min="6914" max="6914" width="16" style="1" hidden="1"/>
+    <col min="6915" max="6915" width="20.44140625" style="1" hidden="1"/>
+    <col min="6916" max="7162" width="11.44140625" style="1" hidden="1"/>
+    <col min="7163" max="7163" width="15.44140625" style="1" hidden="1"/>
+    <col min="7164" max="7164" width="11.44140625" style="1" hidden="1"/>
+    <col min="7165" max="7165" width="15.6640625" style="1" hidden="1"/>
+    <col min="7166" max="7166" width="21.6640625" style="1" hidden="1"/>
+    <col min="7167" max="7169" width="11.44140625" style="1" hidden="1"/>
+    <col min="7170" max="7170" width="16" style="1" hidden="1"/>
+    <col min="7171" max="7171" width="20.44140625" style="1" hidden="1"/>
+    <col min="7172" max="7418" width="11.44140625" style="1" hidden="1"/>
+    <col min="7419" max="7419" width="15.44140625" style="1" hidden="1"/>
+    <col min="7420" max="7420" width="11.44140625" style="1" hidden="1"/>
+    <col min="7421" max="7421" width="15.6640625" style="1" hidden="1"/>
+    <col min="7422" max="7422" width="21.6640625" style="1" hidden="1"/>
+    <col min="7423" max="7425" width="11.44140625" style="1" hidden="1"/>
+    <col min="7426" max="7426" width="16" style="1" hidden="1"/>
+    <col min="7427" max="7427" width="20.44140625" style="1" hidden="1"/>
+    <col min="7428" max="7674" width="11.44140625" style="1" hidden="1"/>
+    <col min="7675" max="7675" width="15.44140625" style="1" hidden="1"/>
+    <col min="7676" max="7676" width="11.44140625" style="1" hidden="1"/>
+    <col min="7677" max="7677" width="15.6640625" style="1" hidden="1"/>
+    <col min="7678" max="7678" width="21.6640625" style="1" hidden="1"/>
+    <col min="7679" max="7681" width="11.44140625" style="1" hidden="1"/>
+    <col min="7682" max="7682" width="16" style="1" hidden="1"/>
+    <col min="7683" max="7683" width="20.44140625" style="1" hidden="1"/>
+    <col min="7684" max="7930" width="11.44140625" style="1" hidden="1"/>
+    <col min="7931" max="7931" width="15.44140625" style="1" hidden="1"/>
+    <col min="7932" max="7932" width="11.44140625" style="1" hidden="1"/>
+    <col min="7933" max="7933" width="15.6640625" style="1" hidden="1"/>
+    <col min="7934" max="7934" width="21.6640625" style="1" hidden="1"/>
+    <col min="7935" max="7937" width="11.44140625" style="1" hidden="1"/>
+    <col min="7938" max="7938" width="16" style="1" hidden="1"/>
+    <col min="7939" max="7939" width="20.44140625" style="1" hidden="1"/>
+    <col min="7940" max="8186" width="11.44140625" style="1" hidden="1"/>
+    <col min="8187" max="8187" width="15.44140625" style="1" hidden="1"/>
+    <col min="8188" max="8188" width="11.44140625" style="1" hidden="1"/>
+    <col min="8189" max="8189" width="15.6640625" style="1" hidden="1"/>
+    <col min="8190" max="8190" width="21.6640625" style="1" hidden="1"/>
+    <col min="8191" max="8193" width="11.44140625" style="1" hidden="1"/>
+    <col min="8194" max="8194" width="16" style="1" hidden="1"/>
+    <col min="8195" max="8195" width="20.44140625" style="1" hidden="1"/>
+    <col min="8196" max="8442" width="11.44140625" style="1" hidden="1"/>
+    <col min="8443" max="8443" width="15.44140625" style="1" hidden="1"/>
+    <col min="8444" max="8444" width="11.44140625" style="1" hidden="1"/>
+    <col min="8445" max="8445" width="15.6640625" style="1" hidden="1"/>
+    <col min="8446" max="8446" width="21.6640625" style="1" hidden="1"/>
+    <col min="8447" max="8449" width="11.44140625" style="1" hidden="1"/>
+    <col min="8450" max="8450" width="16" style="1" hidden="1"/>
+    <col min="8451" max="8451" width="20.44140625" style="1" hidden="1"/>
+    <col min="8452" max="8698" width="11.44140625" style="1" hidden="1"/>
+    <col min="8699" max="8699" width="15.44140625" style="1" hidden="1"/>
+    <col min="8700" max="8700" width="11.44140625" style="1" hidden="1"/>
+    <col min="8701" max="8701" width="15.6640625" style="1" hidden="1"/>
+    <col min="8702" max="8702" width="21.6640625" style="1" hidden="1"/>
+    <col min="8703" max="8705" width="11.44140625" style="1" hidden="1"/>
+    <col min="8706" max="8706" width="16" style="1" hidden="1"/>
+    <col min="8707" max="8707" width="20.44140625" style="1" hidden="1"/>
+    <col min="8708" max="8954" width="11.44140625" style="1" hidden="1"/>
+    <col min="8955" max="8955" width="15.44140625" style="1" hidden="1"/>
+    <col min="8956" max="8956" width="11.44140625" style="1" hidden="1"/>
+    <col min="8957" max="8957" width="15.6640625" style="1" hidden="1"/>
+    <col min="8958" max="8958" width="21.6640625" style="1" hidden="1"/>
+    <col min="8959" max="8961" width="11.44140625" style="1" hidden="1"/>
+    <col min="8962" max="8962" width="16" style="1" hidden="1"/>
+    <col min="8963" max="8963" width="20.44140625" style="1" hidden="1"/>
+    <col min="8964" max="9210" width="11.44140625" style="1" hidden="1"/>
+    <col min="9211" max="9211" width="15.44140625" style="1" hidden="1"/>
+    <col min="9212" max="9212" width="11.44140625" style="1" hidden="1"/>
+    <col min="9213" max="9213" width="15.6640625" style="1" hidden="1"/>
+    <col min="9214" max="9214" width="21.6640625" style="1" hidden="1"/>
+    <col min="9215" max="9217" width="11.44140625" style="1" hidden="1"/>
+    <col min="9218" max="9218" width="16" style="1" hidden="1"/>
+    <col min="9219" max="9219" width="20.44140625" style="1" hidden="1"/>
+    <col min="9220" max="9466" width="11.44140625" style="1" hidden="1"/>
+    <col min="9467" max="9467" width="15.44140625" style="1" hidden="1"/>
+    <col min="9468" max="9468" width="11.44140625" style="1" hidden="1"/>
+    <col min="9469" max="9469" width="15.6640625" style="1" hidden="1"/>
+    <col min="9470" max="9470" width="21.6640625" style="1" hidden="1"/>
+    <col min="9471" max="9473" width="11.44140625" style="1" hidden="1"/>
+    <col min="9474" max="9474" width="16" style="1" hidden="1"/>
+    <col min="9475" max="9475" width="20.44140625" style="1" hidden="1"/>
+    <col min="9476" max="9722" width="11.44140625" style="1" hidden="1"/>
+    <col min="9723" max="9723" width="15.44140625" style="1" hidden="1"/>
+    <col min="9724" max="9724" width="11.44140625" style="1" hidden="1"/>
+    <col min="9725" max="9725" width="15.6640625" style="1" hidden="1"/>
+    <col min="9726" max="9726" width="21.6640625" style="1" hidden="1"/>
+    <col min="9727" max="9729" width="11.44140625" style="1" hidden="1"/>
+    <col min="9730" max="9730" width="16" style="1" hidden="1"/>
+    <col min="9731" max="9731" width="20.44140625" style="1" hidden="1"/>
+    <col min="9732" max="9978" width="11.44140625" style="1" hidden="1"/>
+    <col min="9979" max="9979" width="15.44140625" style="1" hidden="1"/>
+    <col min="9980" max="9980" width="11.44140625" style="1" hidden="1"/>
+    <col min="9981" max="9981" width="15.6640625" style="1" hidden="1"/>
+    <col min="9982" max="9982" width="21.6640625" style="1" hidden="1"/>
+    <col min="9983" max="9985" width="11.44140625" style="1" hidden="1"/>
+    <col min="9986" max="9986" width="16" style="1" hidden="1"/>
+    <col min="9987" max="9987" width="20.44140625" style="1" hidden="1"/>
+    <col min="9988" max="10234" width="11.44140625" style="1" hidden="1"/>
+    <col min="10235" max="10235" width="15.44140625" style="1" hidden="1"/>
+    <col min="10236" max="10236" width="11.44140625" style="1" hidden="1"/>
+    <col min="10237" max="10237" width="15.6640625" style="1" hidden="1"/>
+    <col min="10238" max="10238" width="21.6640625" style="1" hidden="1"/>
+    <col min="10239" max="10241" width="11.44140625" style="1" hidden="1"/>
+    <col min="10242" max="10242" width="16" style="1" hidden="1"/>
+    <col min="10243" max="10243" width="20.44140625" style="1" hidden="1"/>
+    <col min="10244" max="10490" width="11.44140625" style="1" hidden="1"/>
+    <col min="10491" max="10491" width="15.44140625" style="1" hidden="1"/>
+    <col min="10492" max="10492" width="11.44140625" style="1" hidden="1"/>
+    <col min="10493" max="10493" width="15.6640625" style="1" hidden="1"/>
+    <col min="10494" max="10494" width="21.6640625" style="1" hidden="1"/>
+    <col min="10495" max="10497" width="11.44140625" style="1" hidden="1"/>
+    <col min="10498" max="10498" width="16" style="1" hidden="1"/>
+    <col min="10499" max="10499" width="20.44140625" style="1" hidden="1"/>
+    <col min="10500" max="10746" width="11.44140625" style="1" hidden="1"/>
+    <col min="10747" max="10747" width="15.44140625" style="1" hidden="1"/>
+    <col min="10748" max="10748" width="11.44140625" style="1" hidden="1"/>
+    <col min="10749" max="10749" width="15.6640625" style="1" hidden="1"/>
+    <col min="10750" max="10750" width="21.6640625" style="1" hidden="1"/>
+    <col min="10751" max="10753" width="11.44140625" style="1" hidden="1"/>
+    <col min="10754" max="10754" width="16" style="1" hidden="1"/>
+    <col min="10755" max="10755" width="20.44140625" style="1" hidden="1"/>
+    <col min="10756" max="11002" width="11.44140625" style="1" hidden="1"/>
+    <col min="11003" max="11003" width="15.44140625" style="1" hidden="1"/>
+    <col min="11004" max="11004" width="11.44140625" style="1" hidden="1"/>
+    <col min="11005" max="11005" width="15.6640625" style="1" hidden="1"/>
+    <col min="11006" max="11006" width="21.6640625" style="1" hidden="1"/>
+    <col min="11007" max="11009" width="11.44140625" style="1" hidden="1"/>
+    <col min="11010" max="11010" width="16" style="1" hidden="1"/>
+    <col min="11011" max="11011" width="20.44140625" style="1" hidden="1"/>
+    <col min="11012" max="11258" width="11.44140625" style="1" hidden="1"/>
+    <col min="11259" max="11259" width="15.44140625" style="1" hidden="1"/>
+    <col min="11260" max="11260" width="11.44140625" style="1" hidden="1"/>
+    <col min="11261" max="11261" width="15.6640625" style="1" hidden="1"/>
+    <col min="11262" max="11262" width="21.6640625" style="1" hidden="1"/>
+    <col min="11263" max="11265" width="11.44140625" style="1" hidden="1"/>
+    <col min="11266" max="11266" width="16" style="1" hidden="1"/>
+    <col min="11267" max="11267" width="20.44140625" style="1" hidden="1"/>
+    <col min="11268" max="11514" width="11.44140625" style="1" hidden="1"/>
+    <col min="11515" max="11515" width="15.44140625" style="1" hidden="1"/>
+    <col min="11516" max="11516" width="11.44140625" style="1" hidden="1"/>
+    <col min="11517" max="11517" width="15.6640625" style="1" hidden="1"/>
+    <col min="11518" max="11518" width="21.6640625" style="1" hidden="1"/>
+    <col min="11519" max="11521" width="11.44140625" style="1" hidden="1"/>
+    <col min="11522" max="11522" width="16" style="1" hidden="1"/>
+    <col min="11523" max="11523" width="20.44140625" style="1" hidden="1"/>
+    <col min="11524" max="11770" width="11.44140625" style="1" hidden="1"/>
+    <col min="11771" max="11771" width="15.44140625" style="1" hidden="1"/>
+    <col min="11772" max="11772" width="11.44140625" style="1" hidden="1"/>
+    <col min="11773" max="11773" width="15.6640625" style="1" hidden="1"/>
+    <col min="11774" max="11774" width="21.6640625" style="1" hidden="1"/>
+    <col min="11775" max="11777" width="11.44140625" style="1" hidden="1"/>
+    <col min="11778" max="11778" width="16" style="1" hidden="1"/>
+    <col min="11779" max="11779" width="20.44140625" style="1" hidden="1"/>
+    <col min="11780" max="12026" width="11.44140625" style="1" hidden="1"/>
+    <col min="12027" max="12027" width="15.44140625" style="1" hidden="1"/>
+    <col min="12028" max="12028" width="11.44140625" style="1" hidden="1"/>
+    <col min="12029" max="12029" width="15.6640625" style="1" hidden="1"/>
+    <col min="12030" max="12030" width="21.6640625" style="1" hidden="1"/>
+    <col min="12031" max="12033" width="11.44140625" style="1" hidden="1"/>
+    <col min="12034" max="12034" width="16" style="1" hidden="1"/>
+    <col min="12035" max="12035" width="20.44140625" style="1" hidden="1"/>
+    <col min="12036" max="12282" width="11.44140625" style="1" hidden="1"/>
+    <col min="12283" max="12283" width="15.44140625" style="1" hidden="1"/>
+    <col min="12284" max="12284" width="11.44140625" style="1" hidden="1"/>
+    <col min="12285" max="12285" width="15.6640625" style="1" hidden="1"/>
+    <col min="12286" max="12286" width="21.6640625" style="1" hidden="1"/>
+    <col min="12287" max="12289" width="11.44140625" style="1" hidden="1"/>
+    <col min="12290" max="12290" width="16" style="1" hidden="1"/>
+    <col min="12291" max="12291" width="20.44140625" style="1" hidden="1"/>
+    <col min="12292" max="12538" width="11.44140625" style="1" hidden="1"/>
+    <col min="12539" max="12539" width="15.44140625" style="1" hidden="1"/>
+    <col min="12540" max="12540" width="11.44140625" style="1" hidden="1"/>
+    <col min="12541" max="12541" width="15.6640625" style="1" hidden="1"/>
+    <col min="12542" max="12542" width="21.6640625" style="1" hidden="1"/>
+    <col min="12543" max="12545" width="11.44140625" style="1" hidden="1"/>
+    <col min="12546" max="12546" width="16" style="1" hidden="1"/>
+    <col min="12547" max="12547" width="20.44140625" style="1" hidden="1"/>
+    <col min="12548" max="12794" width="11.44140625" style="1" hidden="1"/>
+    <col min="12795" max="12795" width="15.44140625" style="1" hidden="1"/>
+    <col min="12796" max="12796" width="11.44140625" style="1" hidden="1"/>
+    <col min="12797" max="12797" width="15.6640625" style="1" hidden="1"/>
+    <col min="12798" max="12798" width="21.6640625" style="1" hidden="1"/>
+    <col min="12799" max="12801" width="11.44140625" style="1" hidden="1"/>
+    <col min="12802" max="12802" width="16" style="1" hidden="1"/>
+    <col min="12803" max="12803" width="20.44140625" style="1" hidden="1"/>
+    <col min="12804" max="13050" width="11.44140625" style="1" hidden="1"/>
+    <col min="13051" max="13051" width="15.44140625" style="1" hidden="1"/>
+    <col min="13052" max="13052" width="11.44140625" style="1" hidden="1"/>
+    <col min="13053" max="13053" width="15.6640625" style="1" hidden="1"/>
+    <col min="13054" max="13054" width="21.6640625" style="1" hidden="1"/>
+    <col min="13055" max="13057" width="11.44140625" style="1" hidden="1"/>
+    <col min="13058" max="13058" width="16" style="1" hidden="1"/>
+    <col min="13059" max="13059" width="20.44140625" style="1" hidden="1"/>
+    <col min="13060" max="13306" width="11.44140625" style="1" hidden="1"/>
+    <col min="13307" max="13307" width="15.44140625" style="1" hidden="1"/>
+    <col min="13308" max="13308" width="11.44140625" style="1" hidden="1"/>
+    <col min="13309" max="13309" width="15.6640625" style="1" hidden="1"/>
+    <col min="13310" max="13310" width="21.6640625" style="1" hidden="1"/>
+    <col min="13311" max="13313" width="11.44140625" style="1" hidden="1"/>
+    <col min="13314" max="13314" width="16" style="1" hidden="1"/>
+    <col min="13315" max="13315" width="20.44140625" style="1" hidden="1"/>
+    <col min="13316" max="13562" width="11.44140625" style="1" hidden="1"/>
+    <col min="13563" max="13563" width="15.44140625" style="1" hidden="1"/>
+    <col min="13564" max="13564" width="11.44140625" style="1" hidden="1"/>
+    <col min="13565" max="13565" width="15.6640625" style="1" hidden="1"/>
+    <col min="13566" max="13566" width="21.6640625" style="1" hidden="1"/>
+    <col min="13567" max="13569" width="11.44140625" style="1" hidden="1"/>
+    <col min="13570" max="13570" width="16" style="1" hidden="1"/>
+    <col min="13571" max="13571" width="20.44140625" style="1" hidden="1"/>
+    <col min="13572" max="13818" width="11.44140625" style="1" hidden="1"/>
+    <col min="13819" max="13819" width="15.44140625" style="1" hidden="1"/>
+    <col min="13820" max="13820" width="11.44140625" style="1" hidden="1"/>
+    <col min="13821" max="13821" width="15.6640625" style="1" hidden="1"/>
+    <col min="13822" max="13822" width="21.6640625" style="1" hidden="1"/>
+    <col min="13823" max="13825" width="11.44140625" style="1" hidden="1"/>
+    <col min="13826" max="13826" width="16" style="1" hidden="1"/>
+    <col min="13827" max="13827" width="20.44140625" style="1" hidden="1"/>
+    <col min="13828" max="14074" width="11.44140625" style="1" hidden="1"/>
+    <col min="14075" max="14075" width="15.44140625" style="1" hidden="1"/>
+    <col min="14076" max="14076" width="11.44140625" style="1" hidden="1"/>
+    <col min="14077" max="14077" width="15.6640625" style="1" hidden="1"/>
+    <col min="14078" max="14078" width="21.6640625" style="1" hidden="1"/>
+    <col min="14079" max="14081" width="11.44140625" style="1" hidden="1"/>
+    <col min="14082" max="14082" width="16" style="1" hidden="1"/>
+    <col min="14083" max="14083" width="20.44140625" style="1" hidden="1"/>
+    <col min="14084" max="14330" width="11.44140625" style="1" hidden="1"/>
+    <col min="14331" max="14331" width="15.44140625" style="1" hidden="1"/>
+    <col min="14332" max="14332" width="11.44140625" style="1" hidden="1"/>
+    <col min="14333" max="14333" width="15.6640625" style="1" hidden="1"/>
+    <col min="14334" max="14334" width="21.6640625" style="1" hidden="1"/>
+    <col min="14335" max="14337" width="11.44140625" style="1" hidden="1"/>
+    <col min="14338" max="14338" width="16" style="1" hidden="1"/>
+    <col min="14339" max="14339" width="20.44140625" style="1" hidden="1"/>
+    <col min="14340" max="14586" width="11.44140625" style="1" hidden="1"/>
+    <col min="14587" max="14587" width="15.44140625" style="1" hidden="1"/>
+    <col min="14588" max="14588" width="11.44140625" style="1" hidden="1"/>
+    <col min="14589" max="14589" width="15.6640625" style="1" hidden="1"/>
+    <col min="14590" max="14590" width="21.6640625" style="1" hidden="1"/>
+    <col min="14591" max="14593" width="11.44140625" style="1" hidden="1"/>
+    <col min="14594" max="14594" width="16" style="1" hidden="1"/>
+    <col min="14595" max="14595" width="20.44140625" style="1" hidden="1"/>
+    <col min="14596" max="14842" width="11.44140625" style="1" hidden="1"/>
+    <col min="14843" max="14843" width="15.44140625" style="1" hidden="1"/>
+    <col min="14844" max="14844" width="11.44140625" style="1" hidden="1"/>
+    <col min="14845" max="14845" width="15.6640625" style="1" hidden="1"/>
+    <col min="14846" max="14846" width="21.6640625" style="1" hidden="1"/>
+    <col min="14847" max="14849" width="11.44140625" style="1" hidden="1"/>
+    <col min="14850" max="14850" width="16" style="1" hidden="1"/>
+    <col min="14851" max="14851" width="20.44140625" style="1" hidden="1"/>
+    <col min="14852" max="15098" width="11.44140625" style="1" hidden="1"/>
+    <col min="15099" max="15099" width="15.44140625" style="1" hidden="1"/>
+    <col min="15100" max="15100" width="11.44140625" style="1" hidden="1"/>
+    <col min="15101" max="15101" width="15.6640625" style="1" hidden="1"/>
+    <col min="15102" max="15102" width="21.6640625" style="1" hidden="1"/>
+    <col min="15103" max="15105" width="11.44140625" style="1" hidden="1"/>
+    <col min="15106" max="15106" width="16" style="1" hidden="1"/>
+    <col min="15107" max="15107" width="20.44140625" style="1" hidden="1"/>
+    <col min="15108" max="15354" width="11.44140625" style="1" hidden="1"/>
+    <col min="15355" max="15355" width="15.44140625" style="1" hidden="1"/>
+    <col min="15356" max="15356" width="11.44140625" style="1" hidden="1"/>
+    <col min="15357" max="15357" width="15.6640625" style="1" hidden="1"/>
+    <col min="15358" max="15358" width="21.6640625" style="1" hidden="1"/>
+    <col min="15359" max="15361" width="11.44140625" style="1" hidden="1"/>
+    <col min="15362" max="15362" width="16" style="1" hidden="1"/>
+    <col min="15363" max="15363" width="20.44140625" style="1" hidden="1"/>
+    <col min="15364" max="15610" width="11.44140625" style="1" hidden="1"/>
+    <col min="15611" max="15611" width="15.44140625" style="1" hidden="1"/>
+    <col min="15612" max="15612" width="11.44140625" style="1" hidden="1"/>
+    <col min="15613" max="15613" width="15.6640625" style="1" hidden="1"/>
+    <col min="15614" max="15614" width="21.6640625" style="1" hidden="1"/>
+    <col min="15615" max="15617" width="11.44140625" style="1" hidden="1"/>
+    <col min="15618" max="15618" width="16" style="1" hidden="1"/>
+    <col min="15619" max="15619" width="20.44140625" style="1" hidden="1"/>
+    <col min="15620" max="15866" width="11.44140625" style="1" hidden="1"/>
+    <col min="15867" max="15867" width="15.44140625" style="1" hidden="1"/>
+    <col min="15868" max="15868" width="11.44140625" style="1" hidden="1"/>
+    <col min="15869" max="15869" width="15.6640625" style="1" hidden="1"/>
+    <col min="15870" max="15870" width="21.6640625" style="1" hidden="1"/>
+    <col min="15871" max="15873" width="11.44140625" style="1" hidden="1"/>
+    <col min="15874" max="15874" width="16" style="1" hidden="1"/>
+    <col min="15875" max="15875" width="20.44140625" style="1" hidden="1"/>
+    <col min="15876" max="16122" width="11.44140625" style="1" hidden="1"/>
+    <col min="16123" max="16123" width="15.44140625" style="1" hidden="1"/>
+    <col min="16124" max="16124" width="11.44140625" style="1" hidden="1"/>
+    <col min="16125" max="16125" width="15.6640625" style="1" hidden="1"/>
+    <col min="16126" max="16126" width="21.6640625" style="1" hidden="1"/>
+    <col min="16127" max="16129" width="11.44140625" style="1" hidden="1"/>
+    <col min="16130" max="16130" width="16" style="1" hidden="1"/>
+    <col min="16131" max="16131" width="20.44140625" style="1" hidden="1"/>
+    <col min="16132" max="16132" width="11.44140625" style="1" hidden="1"/>
+    <col min="16133" max="16133" width="16" style="1" hidden="1"/>
+    <col min="16134" max="16134" width="20.44140625" style="1" hidden="1"/>
+    <col min="16135" max="16135" width="16" style="1" hidden="1"/>
+    <col min="16136" max="16141" width="20.44140625" style="1" hidden="1"/>
+    <col min="16142" max="16384" width="11.44140625" style="1" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="56.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" ht="56.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
@@ -3009,13 +2804,13 @@
         <v>5</v>
       </c>
       <c r="G1" s="29"/>
-      <c r="H1" s="70" t="s">
+      <c r="H1" s="68" t="s">
         <v>89</v>
       </c>
-      <c r="I1" s="71" t="s">
+      <c r="I1" s="69" t="s">
         <v>90</v>
       </c>
-      <c r="J1" s="71" t="s">
+      <c r="J1" s="69" t="s">
         <v>91</v>
       </c>
       <c r="K1" s="27" t="s">
@@ -3029,53 +2824,56 @@
       </c>
       <c r="N1" s="4"/>
       <c r="O1" s="4"/>
-      <c r="P1" s="40" t="s">
+      <c r="P1" s="39" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q1" s="39" t="s">
         <v>48</v>
       </c>
-      <c r="Q1" s="32" t="s">
+      <c r="R1" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="R1" s="40" t="s">
+      <c r="S1" s="39" t="s">
         <v>35</v>
       </c>
-      <c r="S1" s="32" t="s">
+      <c r="T1" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="T1" s="4"/>
-      <c r="U1" s="5" t="s">
+      <c r="U1" s="4"/>
+      <c r="V1" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="V1" s="5" t="s">
+      <c r="W1" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="W1" s="5" t="s">
+      <c r="X1" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="X1" s="5" t="s">
+      <c r="Y1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="Y1" s="4" t="s">
+      <c r="Z1" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:25" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="54" t="str">
+    <row r="2" spans="1:26" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="53" t="str">
         <f>RAWDATA!B2</f>
         <v>applicant.last_name</v>
       </c>
-      <c r="B2" s="54" t="str">
+      <c r="B2" s="53" t="str">
         <f>RAWDATA!C2</f>
         <v>applicant.first_name</v>
       </c>
-      <c r="C2" s="55" t="str">
+      <c r="C2" s="54" t="str">
         <f>RAWDATA!D2</f>
         <v>applicant.origin.short_name</v>
       </c>
-      <c r="D2" s="55" t="str">
+      <c r="D2" s="54" t="str">
         <f>RAWDATA!E2</f>
         <v>applicant.tag</v>
       </c>
-      <c r="E2" s="57" t="e">
+      <c r="E2" s="56" t="e">
         <f>ROUNDUP(M2/0.5,0)*0.5</f>
         <v>#VALUE!</v>
       </c>
@@ -3084,14 +2882,14 @@
         <v>#VALUE!</v>
       </c>
       <c r="G2" s="29"/>
-      <c r="H2" s="56"/>
-      <c r="I2" s="56"/>
-      <c r="J2" s="56"/>
+      <c r="H2" s="55"/>
+      <c r="I2" s="55"/>
+      <c r="J2" s="55"/>
       <c r="K2" s="34">
         <f t="shared" ref="K2:K25" si="0">SUM(H2:J2)</f>
         <v>0</v>
       </c>
-      <c r="L2" s="85">
+      <c r="L2" s="83">
         <f>IF(ISBLANK(Extrapunkte!J3),0,Extrapunkte!J3)</f>
         <v>0</v>
       </c>
@@ -3101,62 +2899,66 @@
       </c>
       <c r="N2" s="4"/>
       <c r="O2" s="4"/>
-      <c r="P2" s="34" t="str">
+      <c r="P2" s="106" t="str">
+        <f>RAWDATA!J2</f>
+        <v>attendance.hide_grade_str</v>
+      </c>
+      <c r="Q2" s="86" t="str">
         <f>RAWDATA!G2</f>
         <v>attendance.ects_points</v>
       </c>
-      <c r="Q2" s="33" t="str">
-        <f>RAWDATA!J2</f>
+      <c r="R2" s="33" t="str">
+        <f>RAWDATA!K2</f>
         <v>attendance.ts_requested_str</v>
       </c>
-      <c r="R2" s="34" t="e">
-        <f t="shared" ref="R2:R26" si="1">IF(OR(F2="NB",F2="KP"),"","X")</f>
+      <c r="S2" s="34" t="e">
+        <f t="shared" ref="S2:S26" si="1">IF(OR(F2="NB",F2="KP"),"","X")</f>
         <v>#VALUE!</v>
       </c>
-      <c r="S2" s="33" t="str">
-        <f>RAWDATA!K2</f>
+      <c r="T2" s="33" t="str">
+        <f>RAWDATA!L2</f>
         <v>attendance.ts_received_str</v>
       </c>
-      <c r="T2" s="4"/>
-      <c r="U2" s="2" t="str">
+      <c r="U2" s="4"/>
+      <c r="V2" s="2" t="str">
         <f>IF(M2&gt;0,$B$33,0)</f>
         <v>course.ects_points</v>
       </c>
-      <c r="V2" s="2" t="str">
+      <c r="W2" s="2" t="str">
         <f>IF(M2&gt;0,$B$32,0)</f>
         <v>course.ger</v>
       </c>
-      <c r="W2" s="10" t="e">
+      <c r="X2" s="10" t="e">
         <f>IF(M2&gt;0,$F$28,0)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="X2" s="1" t="str">
+      <c r="Y2" s="1" t="str">
         <f>IF(M2&gt;0,$B$34,0)</f>
         <v>course.name</v>
       </c>
-      <c r="Y2" s="1" t="str">
+      <c r="Z2" s="1" t="str">
         <f>IF(M2&gt;0,$B$31,0)</f>
         <v>course.teacher_name</v>
       </c>
     </row>
-    <row r="3" spans="1:25" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="54">
+    <row r="3" spans="1:26" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="53">
         <f>RAWDATA!B3</f>
         <v>0</v>
       </c>
-      <c r="B3" s="54">
+      <c r="B3" s="53">
         <f>RAWDATA!C3</f>
         <v>0</v>
       </c>
-      <c r="C3" s="55">
+      <c r="C3" s="54">
         <f>RAWDATA!D3</f>
         <v>0</v>
       </c>
-      <c r="D3" s="55">
+      <c r="D3" s="54">
         <f>RAWDATA!E3</f>
         <v>0</v>
       </c>
-      <c r="E3" s="57">
+      <c r="E3" s="56">
         <f t="shared" ref="E3:E26" si="2">ROUNDUP(M3/0.5,0)*0.5</f>
         <v>0</v>
       </c>
@@ -3165,14 +2967,14 @@
         <v>KP</v>
       </c>
       <c r="G3" s="29"/>
-      <c r="H3" s="56"/>
-      <c r="I3" s="56"/>
-      <c r="J3" s="56"/>
+      <c r="H3" s="55"/>
+      <c r="I3" s="55"/>
+      <c r="J3" s="55"/>
       <c r="K3" s="34">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L3" s="85">
+      <c r="L3" s="83">
         <f>IF(ISBLANK(Extrapunkte!J4),0,Extrapunkte!J4)</f>
         <v>0</v>
       </c>
@@ -3182,62 +2984,66 @@
       </c>
       <c r="N3" s="4"/>
       <c r="O3" s="4"/>
-      <c r="P3" s="34">
+      <c r="P3" s="106">
+        <f>RAWDATA!J3</f>
+        <v>0</v>
+      </c>
+      <c r="Q3" s="86">
         <f>RAWDATA!G3</f>
         <v>0</v>
       </c>
-      <c r="Q3" s="33">
-        <f>RAWDATA!J3</f>
-        <v>0</v>
-      </c>
-      <c r="R3" s="34" t="str">
+      <c r="R3" s="33">
+        <f>RAWDATA!K3</f>
+        <v>0</v>
+      </c>
+      <c r="S3" s="34" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="S3" s="33">
-        <f>RAWDATA!K3</f>
-        <v>0</v>
-      </c>
-      <c r="T3" s="4"/>
-      <c r="U3" s="2">
-        <f t="shared" ref="U3:U26" si="3">IF(M3&gt;0,$B$33,0)</f>
-        <v>0</v>
-      </c>
+      <c r="T3" s="33">
+        <f>RAWDATA!L3</f>
+        <v>0</v>
+      </c>
+      <c r="U3" s="4"/>
       <c r="V3" s="2">
-        <f t="shared" ref="V3:V26" si="4">IF(M3&gt;0,$B$32,0)</f>
-        <v>0</v>
-      </c>
-      <c r="W3" s="10">
-        <f t="shared" ref="W3:W26" si="5">IF(M3&gt;0,$F$28,0)</f>
-        <v>0</v>
-      </c>
-      <c r="X3" s="1">
-        <f t="shared" ref="X3:X26" si="6">IF(M3&gt;0,$B$34,0)</f>
+        <f t="shared" ref="V3:V26" si="3">IF(M3&gt;0,$B$33,0)</f>
+        <v>0</v>
+      </c>
+      <c r="W3" s="2">
+        <f t="shared" ref="W3:W26" si="4">IF(M3&gt;0,$B$32,0)</f>
+        <v>0</v>
+      </c>
+      <c r="X3" s="10">
+        <f t="shared" ref="X3:X26" si="5">IF(M3&gt;0,$F$28,0)</f>
         <v>0</v>
       </c>
       <c r="Y3" s="1">
-        <f t="shared" ref="Y3:Y26" si="7">IF(M3&gt;0,$B$31,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:25" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="54">
+        <f t="shared" ref="Y3:Y26" si="6">IF(M3&gt;0,$B$34,0)</f>
+        <v>0</v>
+      </c>
+      <c r="Z3" s="1">
+        <f t="shared" ref="Z3:Z26" si="7">IF(M3&gt;0,$B$31,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="53">
         <f>RAWDATA!B4</f>
         <v>0</v>
       </c>
-      <c r="B4" s="54">
+      <c r="B4" s="53">
         <f>RAWDATA!C4</f>
         <v>0</v>
       </c>
-      <c r="C4" s="55">
+      <c r="C4" s="54">
         <f>RAWDATA!D4</f>
         <v>0</v>
       </c>
-      <c r="D4" s="55">
+      <c r="D4" s="54">
         <f>RAWDATA!E4</f>
         <v>0</v>
       </c>
-      <c r="E4" s="57">
+      <c r="E4" s="56">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -3246,14 +3052,14 @@
         <v>KP</v>
       </c>
       <c r="G4" s="29"/>
-      <c r="H4" s="56"/>
-      <c r="I4" s="56"/>
-      <c r="J4" s="56"/>
+      <c r="H4" s="55"/>
+      <c r="I4" s="55"/>
+      <c r="J4" s="55"/>
       <c r="K4" s="34">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L4" s="85">
+      <c r="L4" s="83">
         <f>IF(ISBLANK(Extrapunkte!J5),0,Extrapunkte!J5)</f>
         <v>0</v>
       </c>
@@ -3263,62 +3069,66 @@
       </c>
       <c r="N4" s="4"/>
       <c r="O4" s="4"/>
-      <c r="P4" s="34">
+      <c r="P4" s="106">
+        <f>RAWDATA!J4</f>
+        <v>0</v>
+      </c>
+      <c r="Q4" s="86">
         <f>RAWDATA!G4</f>
         <v>0</v>
       </c>
-      <c r="Q4" s="33">
-        <f>RAWDATA!J4</f>
-        <v>0</v>
-      </c>
-      <c r="R4" s="34" t="str">
+      <c r="R4" s="33">
+        <f>RAWDATA!K4</f>
+        <v>0</v>
+      </c>
+      <c r="S4" s="34" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="S4" s="33">
-        <f>RAWDATA!K4</f>
-        <v>0</v>
-      </c>
-      <c r="T4" s="4"/>
-      <c r="U4" s="2">
+      <c r="T4" s="33">
+        <f>RAWDATA!L4</f>
+        <v>0</v>
+      </c>
+      <c r="U4" s="4"/>
+      <c r="V4" s="2">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="V4" s="2">
+      <c r="W4" s="2">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="W4" s="10">
+      <c r="X4" s="10">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="X4" s="1">
+      <c r="Y4" s="1">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="Y4" s="1">
+      <c r="Z4" s="1">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:25" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="54">
+    <row r="5" spans="1:26" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="53">
         <f>RAWDATA!B5</f>
         <v>0</v>
       </c>
-      <c r="B5" s="54">
+      <c r="B5" s="53">
         <f>RAWDATA!C5</f>
         <v>0</v>
       </c>
-      <c r="C5" s="55">
+      <c r="C5" s="54">
         <f>RAWDATA!D5</f>
         <v>0</v>
       </c>
-      <c r="D5" s="55">
+      <c r="D5" s="54">
         <f>RAWDATA!E5</f>
         <v>0</v>
       </c>
-      <c r="E5" s="57">
+      <c r="E5" s="56">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -3327,14 +3137,14 @@
         <v>KP</v>
       </c>
       <c r="G5" s="29"/>
-      <c r="H5" s="56"/>
-      <c r="I5" s="56"/>
-      <c r="J5" s="56"/>
+      <c r="H5" s="55"/>
+      <c r="I5" s="55"/>
+      <c r="J5" s="55"/>
       <c r="K5" s="34">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L5" s="85">
+      <c r="L5" s="83">
         <f>IF(ISBLANK(Extrapunkte!J6),0,Extrapunkte!J6)</f>
         <v>0</v>
       </c>
@@ -3344,62 +3154,66 @@
       </c>
       <c r="N5" s="4"/>
       <c r="O5" s="4"/>
-      <c r="P5" s="34">
+      <c r="P5" s="106">
+        <f>RAWDATA!J5</f>
+        <v>0</v>
+      </c>
+      <c r="Q5" s="86">
         <f>RAWDATA!G5</f>
         <v>0</v>
       </c>
-      <c r="Q5" s="33">
-        <f>RAWDATA!J5</f>
-        <v>0</v>
-      </c>
-      <c r="R5" s="34" t="str">
+      <c r="R5" s="33">
+        <f>RAWDATA!K5</f>
+        <v>0</v>
+      </c>
+      <c r="S5" s="34" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="S5" s="33">
-        <f>RAWDATA!K5</f>
-        <v>0</v>
-      </c>
-      <c r="T5" s="4"/>
-      <c r="U5" s="2">
+      <c r="T5" s="33">
+        <f>RAWDATA!L5</f>
+        <v>0</v>
+      </c>
+      <c r="U5" s="4"/>
+      <c r="V5" s="2">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="V5" s="2">
+      <c r="W5" s="2">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="W5" s="10">
+      <c r="X5" s="10">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="X5" s="1">
+      <c r="Y5" s="1">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="Y5" s="1">
+      <c r="Z5" s="1">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="54">
+    <row r="6" spans="1:26" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="53">
         <f>RAWDATA!B6</f>
         <v>0</v>
       </c>
-      <c r="B6" s="54">
+      <c r="B6" s="53">
         <f>RAWDATA!C6</f>
         <v>0</v>
       </c>
-      <c r="C6" s="55">
+      <c r="C6" s="54">
         <f>RAWDATA!D6</f>
         <v>0</v>
       </c>
-      <c r="D6" s="55">
+      <c r="D6" s="54">
         <f>RAWDATA!E6</f>
         <v>0</v>
       </c>
-      <c r="E6" s="57">
+      <c r="E6" s="56">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -3408,14 +3222,14 @@
         <v>KP</v>
       </c>
       <c r="G6" s="29"/>
-      <c r="H6" s="56"/>
-      <c r="I6" s="56"/>
-      <c r="J6" s="56"/>
+      <c r="H6" s="55"/>
+      <c r="I6" s="55"/>
+      <c r="J6" s="55"/>
       <c r="K6" s="34">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L6" s="85">
+      <c r="L6" s="83">
         <f>IF(ISBLANK(Extrapunkte!J7),0,Extrapunkte!J7)</f>
         <v>0</v>
       </c>
@@ -3425,62 +3239,66 @@
       </c>
       <c r="N6" s="4"/>
       <c r="O6" s="4"/>
-      <c r="P6" s="34">
+      <c r="P6" s="106">
+        <f>RAWDATA!J6</f>
+        <v>0</v>
+      </c>
+      <c r="Q6" s="86">
         <f>RAWDATA!G6</f>
         <v>0</v>
       </c>
-      <c r="Q6" s="33">
-        <f>RAWDATA!J6</f>
-        <v>0</v>
-      </c>
-      <c r="R6" s="34" t="str">
+      <c r="R6" s="33">
+        <f>RAWDATA!K6</f>
+        <v>0</v>
+      </c>
+      <c r="S6" s="34" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="S6" s="33">
-        <f>RAWDATA!K6</f>
-        <v>0</v>
-      </c>
-      <c r="T6" s="4"/>
-      <c r="U6" s="2">
+      <c r="T6" s="33">
+        <f>RAWDATA!L6</f>
+        <v>0</v>
+      </c>
+      <c r="U6" s="4"/>
+      <c r="V6" s="2">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="V6" s="2">
+      <c r="W6" s="2">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="W6" s="10">
+      <c r="X6" s="10">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="X6" s="1">
+      <c r="Y6" s="1">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="Y6" s="1">
+      <c r="Z6" s="1">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:25" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="54">
+    <row r="7" spans="1:26" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="53">
         <f>RAWDATA!B7</f>
         <v>0</v>
       </c>
-      <c r="B7" s="54">
+      <c r="B7" s="53">
         <f>RAWDATA!C7</f>
         <v>0</v>
       </c>
-      <c r="C7" s="55">
+      <c r="C7" s="54">
         <f>RAWDATA!D7</f>
         <v>0</v>
       </c>
-      <c r="D7" s="55">
+      <c r="D7" s="54">
         <f>RAWDATA!E7</f>
         <v>0</v>
       </c>
-      <c r="E7" s="57">
+      <c r="E7" s="56">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -3489,14 +3307,14 @@
         <v>KP</v>
       </c>
       <c r="G7" s="29"/>
-      <c r="H7" s="56"/>
-      <c r="I7" s="56"/>
-      <c r="J7" s="56"/>
+      <c r="H7" s="55"/>
+      <c r="I7" s="55"/>
+      <c r="J7" s="55"/>
       <c r="K7" s="34">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L7" s="85">
+      <c r="L7" s="83">
         <f>IF(ISBLANK(Extrapunkte!J8),0,Extrapunkte!J8)</f>
         <v>0</v>
       </c>
@@ -3506,62 +3324,66 @@
       </c>
       <c r="N7" s="4"/>
       <c r="O7" s="4"/>
-      <c r="P7" s="34">
+      <c r="P7" s="106">
+        <f>RAWDATA!J7</f>
+        <v>0</v>
+      </c>
+      <c r="Q7" s="86">
         <f>RAWDATA!G7</f>
         <v>0</v>
       </c>
-      <c r="Q7" s="33">
-        <f>RAWDATA!J7</f>
-        <v>0</v>
-      </c>
-      <c r="R7" s="34" t="str">
+      <c r="R7" s="33">
+        <f>RAWDATA!K7</f>
+        <v>0</v>
+      </c>
+      <c r="S7" s="34" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="S7" s="33">
-        <f>RAWDATA!K7</f>
-        <v>0</v>
-      </c>
-      <c r="T7" s="4"/>
-      <c r="U7" s="2">
+      <c r="T7" s="33">
+        <f>RAWDATA!L7</f>
+        <v>0</v>
+      </c>
+      <c r="U7" s="4"/>
+      <c r="V7" s="2">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="W7" s="10">
+      <c r="X7" s="10">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="X7" s="1">
+      <c r="Y7" s="1">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="Y7" s="1">
+      <c r="Z7" s="1">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:25" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="54">
+    <row r="8" spans="1:26" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="53">
         <f>RAWDATA!B8</f>
         <v>0</v>
       </c>
-      <c r="B8" s="54">
+      <c r="B8" s="53">
         <f>RAWDATA!C8</f>
         <v>0</v>
       </c>
-      <c r="C8" s="55">
+      <c r="C8" s="54">
         <f>RAWDATA!D8</f>
         <v>0</v>
       </c>
-      <c r="D8" s="55">
+      <c r="D8" s="54">
         <f>RAWDATA!E8</f>
         <v>0</v>
       </c>
-      <c r="E8" s="57">
+      <c r="E8" s="56">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -3570,14 +3392,14 @@
         <v>KP</v>
       </c>
       <c r="G8" s="29"/>
-      <c r="H8" s="56"/>
-      <c r="I8" s="56"/>
-      <c r="J8" s="56"/>
+      <c r="H8" s="55"/>
+      <c r="I8" s="55"/>
+      <c r="J8" s="55"/>
       <c r="K8" s="34">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L8" s="85">
+      <c r="L8" s="83">
         <f>IF(ISBLANK(Extrapunkte!J9),0,Extrapunkte!J9)</f>
         <v>0</v>
       </c>
@@ -3587,62 +3409,66 @@
       </c>
       <c r="N8" s="4"/>
       <c r="O8" s="4"/>
-      <c r="P8" s="34">
+      <c r="P8" s="106">
+        <f>RAWDATA!J8</f>
+        <v>0</v>
+      </c>
+      <c r="Q8" s="86">
         <f>RAWDATA!G8</f>
         <v>0</v>
       </c>
-      <c r="Q8" s="33">
-        <f>RAWDATA!J8</f>
-        <v>0</v>
-      </c>
-      <c r="R8" s="34" t="str">
+      <c r="R8" s="33">
+        <f>RAWDATA!K8</f>
+        <v>0</v>
+      </c>
+      <c r="S8" s="34" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="S8" s="33">
-        <f>RAWDATA!K8</f>
-        <v>0</v>
-      </c>
-      <c r="T8" s="4"/>
-      <c r="U8" s="2">
+      <c r="T8" s="33">
+        <f>RAWDATA!L8</f>
+        <v>0</v>
+      </c>
+      <c r="U8" s="4"/>
+      <c r="V8" s="2">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="V8" s="2">
+      <c r="W8" s="2">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="W8" s="10">
+      <c r="X8" s="10">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="X8" s="1">
+      <c r="Y8" s="1">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="Y8" s="1">
+      <c r="Z8" s="1">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:25" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="54">
+    <row r="9" spans="1:26" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="53">
         <f>RAWDATA!B9</f>
         <v>0</v>
       </c>
-      <c r="B9" s="54">
+      <c r="B9" s="53">
         <f>RAWDATA!C9</f>
         <v>0</v>
       </c>
-      <c r="C9" s="55">
+      <c r="C9" s="54">
         <f>RAWDATA!D9</f>
         <v>0</v>
       </c>
-      <c r="D9" s="55">
+      <c r="D9" s="54">
         <f>RAWDATA!E9</f>
         <v>0</v>
       </c>
-      <c r="E9" s="57">
+      <c r="E9" s="56">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -3651,14 +3477,14 @@
         <v>KP</v>
       </c>
       <c r="G9" s="29"/>
-      <c r="H9" s="56"/>
-      <c r="I9" s="56"/>
-      <c r="J9" s="56"/>
+      <c r="H9" s="55"/>
+      <c r="I9" s="55"/>
+      <c r="J9" s="55"/>
       <c r="K9" s="34">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L9" s="85">
+      <c r="L9" s="83">
         <f>IF(ISBLANK(Extrapunkte!J10),0,Extrapunkte!J10)</f>
         <v>0</v>
       </c>
@@ -3668,62 +3494,66 @@
       </c>
       <c r="N9" s="4"/>
       <c r="O9" s="4"/>
-      <c r="P9" s="34">
+      <c r="P9" s="106">
+        <f>RAWDATA!J9</f>
+        <v>0</v>
+      </c>
+      <c r="Q9" s="86">
         <f>RAWDATA!G9</f>
         <v>0</v>
       </c>
-      <c r="Q9" s="33">
-        <f>RAWDATA!J9</f>
-        <v>0</v>
-      </c>
-      <c r="R9" s="34" t="str">
+      <c r="R9" s="33">
+        <f>RAWDATA!K9</f>
+        <v>0</v>
+      </c>
+      <c r="S9" s="34" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="S9" s="33">
-        <f>RAWDATA!K9</f>
-        <v>0</v>
-      </c>
-      <c r="T9" s="4"/>
-      <c r="U9" s="2">
+      <c r="T9" s="33">
+        <f>RAWDATA!L9</f>
+        <v>0</v>
+      </c>
+      <c r="U9" s="4"/>
+      <c r="V9" s="2">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="V9" s="2">
+      <c r="W9" s="2">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="W9" s="10">
+      <c r="X9" s="10">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="X9" s="1">
+      <c r="Y9" s="1">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="Y9" s="1">
+      <c r="Z9" s="1">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:25" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="54">
+    <row r="10" spans="1:26" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="53">
         <f>RAWDATA!B10</f>
         <v>0</v>
       </c>
-      <c r="B10" s="54">
+      <c r="B10" s="53">
         <f>RAWDATA!C10</f>
         <v>0</v>
       </c>
-      <c r="C10" s="55">
+      <c r="C10" s="54">
         <f>RAWDATA!D10</f>
         <v>0</v>
       </c>
-      <c r="D10" s="55">
+      <c r="D10" s="54">
         <f>RAWDATA!E10</f>
         <v>0</v>
       </c>
-      <c r="E10" s="57">
+      <c r="E10" s="56">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -3732,14 +3562,14 @@
         <v>KP</v>
       </c>
       <c r="G10" s="29"/>
-      <c r="H10" s="56"/>
-      <c r="I10" s="56"/>
-      <c r="J10" s="56"/>
+      <c r="H10" s="55"/>
+      <c r="I10" s="55"/>
+      <c r="J10" s="55"/>
       <c r="K10" s="34">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L10" s="85">
+      <c r="L10" s="83">
         <f>IF(ISBLANK(Extrapunkte!J11),0,Extrapunkte!J11)</f>
         <v>0</v>
       </c>
@@ -3749,62 +3579,66 @@
       </c>
       <c r="N10" s="4"/>
       <c r="O10" s="4"/>
-      <c r="P10" s="34">
+      <c r="P10" s="106">
+        <f>RAWDATA!J10</f>
+        <v>0</v>
+      </c>
+      <c r="Q10" s="86">
         <f>RAWDATA!G10</f>
         <v>0</v>
       </c>
-      <c r="Q10" s="33">
-        <f>RAWDATA!J10</f>
-        <v>0</v>
-      </c>
-      <c r="R10" s="34" t="str">
+      <c r="R10" s="33">
+        <f>RAWDATA!K10</f>
+        <v>0</v>
+      </c>
+      <c r="S10" s="34" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="S10" s="33">
-        <f>RAWDATA!K10</f>
-        <v>0</v>
-      </c>
-      <c r="T10" s="4"/>
-      <c r="U10" s="2">
+      <c r="T10" s="33">
+        <f>RAWDATA!L10</f>
+        <v>0</v>
+      </c>
+      <c r="U10" s="4"/>
+      <c r="V10" s="2">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="V10" s="2">
+      <c r="W10" s="2">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="W10" s="10">
+      <c r="X10" s="10">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="X10" s="1">
+      <c r="Y10" s="1">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="Y10" s="1">
+      <c r="Z10" s="1">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:25" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="54">
+    <row r="11" spans="1:26" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="53">
         <f>RAWDATA!B11</f>
         <v>0</v>
       </c>
-      <c r="B11" s="54">
+      <c r="B11" s="53">
         <f>RAWDATA!C11</f>
         <v>0</v>
       </c>
-      <c r="C11" s="55">
+      <c r="C11" s="54">
         <f>RAWDATA!D11</f>
         <v>0</v>
       </c>
-      <c r="D11" s="55">
+      <c r="D11" s="54">
         <f>RAWDATA!E11</f>
         <v>0</v>
       </c>
-      <c r="E11" s="57">
+      <c r="E11" s="56">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -3813,14 +3647,14 @@
         <v>KP</v>
       </c>
       <c r="G11" s="29"/>
-      <c r="H11" s="56"/>
-      <c r="I11" s="56"/>
-      <c r="J11" s="56"/>
+      <c r="H11" s="55"/>
+      <c r="I11" s="55"/>
+      <c r="J11" s="55"/>
       <c r="K11" s="34">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L11" s="85">
+      <c r="L11" s="83">
         <f>IF(ISBLANK(Extrapunkte!J12),0,Extrapunkte!J12)</f>
         <v>0</v>
       </c>
@@ -3830,62 +3664,66 @@
       </c>
       <c r="N11" s="4"/>
       <c r="O11" s="4"/>
-      <c r="P11" s="34">
+      <c r="P11" s="106">
+        <f>RAWDATA!J11</f>
+        <v>0</v>
+      </c>
+      <c r="Q11" s="86">
         <f>RAWDATA!G11</f>
         <v>0</v>
       </c>
-      <c r="Q11" s="33">
-        <f>RAWDATA!J11</f>
-        <v>0</v>
-      </c>
-      <c r="R11" s="34" t="str">
+      <c r="R11" s="33">
+        <f>RAWDATA!K11</f>
+        <v>0</v>
+      </c>
+      <c r="S11" s="34" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="S11" s="33">
-        <f>RAWDATA!K11</f>
-        <v>0</v>
-      </c>
-      <c r="T11" s="4"/>
-      <c r="U11" s="2">
+      <c r="T11" s="33">
+        <f>RAWDATA!L11</f>
+        <v>0</v>
+      </c>
+      <c r="U11" s="4"/>
+      <c r="V11" s="2">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="V11" s="2">
+      <c r="W11" s="2">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="W11" s="10">
+      <c r="X11" s="10">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="X11" s="1">
+      <c r="Y11" s="1">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="Y11" s="1">
+      <c r="Z11" s="1">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:25" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="54">
+    <row r="12" spans="1:26" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="53">
         <f>RAWDATA!B12</f>
         <v>0</v>
       </c>
-      <c r="B12" s="54">
+      <c r="B12" s="53">
         <f>RAWDATA!C12</f>
         <v>0</v>
       </c>
-      <c r="C12" s="55">
+      <c r="C12" s="54">
         <f>RAWDATA!D12</f>
         <v>0</v>
       </c>
-      <c r="D12" s="55">
+      <c r="D12" s="54">
         <f>RAWDATA!E12</f>
         <v>0</v>
       </c>
-      <c r="E12" s="57">
+      <c r="E12" s="56">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -3894,14 +3732,14 @@
         <v>KP</v>
       </c>
       <c r="G12" s="29"/>
-      <c r="H12" s="56"/>
-      <c r="I12" s="56"/>
-      <c r="J12" s="56"/>
+      <c r="H12" s="55"/>
+      <c r="I12" s="55"/>
+      <c r="J12" s="55"/>
       <c r="K12" s="34">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L12" s="85">
+      <c r="L12" s="83">
         <f>IF(ISBLANK(Extrapunkte!J13),0,Extrapunkte!J13)</f>
         <v>0</v>
       </c>
@@ -3911,62 +3749,66 @@
       </c>
       <c r="N12" s="4"/>
       <c r="O12" s="4"/>
-      <c r="P12" s="34">
+      <c r="P12" s="106">
+        <f>RAWDATA!J12</f>
+        <v>0</v>
+      </c>
+      <c r="Q12" s="86">
         <f>RAWDATA!G12</f>
         <v>0</v>
       </c>
-      <c r="Q12" s="33">
-        <f>RAWDATA!J12</f>
-        <v>0</v>
-      </c>
-      <c r="R12" s="34" t="str">
+      <c r="R12" s="33">
+        <f>RAWDATA!K12</f>
+        <v>0</v>
+      </c>
+      <c r="S12" s="34" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="S12" s="33">
-        <f>RAWDATA!K12</f>
-        <v>0</v>
-      </c>
-      <c r="T12" s="4"/>
-      <c r="U12" s="2">
+      <c r="T12" s="33">
+        <f>RAWDATA!L12</f>
+        <v>0</v>
+      </c>
+      <c r="U12" s="4"/>
+      <c r="V12" s="2">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="V12" s="2">
+      <c r="W12" s="2">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="W12" s="10">
+      <c r="X12" s="10">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="X12" s="1">
+      <c r="Y12" s="1">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="Y12" s="1">
+      <c r="Z12" s="1">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:25" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="54">
+    <row r="13" spans="1:26" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="53">
         <f>RAWDATA!B13</f>
         <v>0</v>
       </c>
-      <c r="B13" s="54">
+      <c r="B13" s="53">
         <f>RAWDATA!C13</f>
         <v>0</v>
       </c>
-      <c r="C13" s="55">
+      <c r="C13" s="54">
         <f>RAWDATA!D13</f>
         <v>0</v>
       </c>
-      <c r="D13" s="55">
+      <c r="D13" s="54">
         <f>RAWDATA!E13</f>
         <v>0</v>
       </c>
-      <c r="E13" s="57">
+      <c r="E13" s="56">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -3975,14 +3817,14 @@
         <v>KP</v>
       </c>
       <c r="G13" s="29"/>
-      <c r="H13" s="56"/>
-      <c r="I13" s="56"/>
-      <c r="J13" s="56"/>
+      <c r="H13" s="55"/>
+      <c r="I13" s="55"/>
+      <c r="J13" s="55"/>
       <c r="K13" s="34">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L13" s="85">
+      <c r="L13" s="83">
         <f>IF(ISBLANK(Extrapunkte!J14),0,Extrapunkte!J14)</f>
         <v>0</v>
       </c>
@@ -3992,62 +3834,66 @@
       </c>
       <c r="N13" s="4"/>
       <c r="O13" s="4"/>
-      <c r="P13" s="34">
+      <c r="P13" s="106">
+        <f>RAWDATA!J13</f>
+        <v>0</v>
+      </c>
+      <c r="Q13" s="86">
         <f>RAWDATA!G13</f>
         <v>0</v>
       </c>
-      <c r="Q13" s="33">
-        <f>RAWDATA!J13</f>
-        <v>0</v>
-      </c>
-      <c r="R13" s="34" t="str">
+      <c r="R13" s="33">
+        <f>RAWDATA!K13</f>
+        <v>0</v>
+      </c>
+      <c r="S13" s="34" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="S13" s="33">
-        <f>RAWDATA!K13</f>
-        <v>0</v>
-      </c>
-      <c r="T13" s="4"/>
-      <c r="U13" s="2">
+      <c r="T13" s="33">
+        <f>RAWDATA!L13</f>
+        <v>0</v>
+      </c>
+      <c r="U13" s="4"/>
+      <c r="V13" s="2">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="V13" s="2">
+      <c r="W13" s="2">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="W13" s="10">
+      <c r="X13" s="10">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="X13" s="1">
+      <c r="Y13" s="1">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="Y13" s="1">
+      <c r="Z13" s="1">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:25" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="54">
+    <row r="14" spans="1:26" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="53">
         <f>RAWDATA!B14</f>
         <v>0</v>
       </c>
-      <c r="B14" s="54">
+      <c r="B14" s="53">
         <f>RAWDATA!C14</f>
         <v>0</v>
       </c>
-      <c r="C14" s="55">
+      <c r="C14" s="54">
         <f>RAWDATA!D14</f>
         <v>0</v>
       </c>
-      <c r="D14" s="55">
+      <c r="D14" s="54">
         <f>RAWDATA!E14</f>
         <v>0</v>
       </c>
-      <c r="E14" s="57">
+      <c r="E14" s="56">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -4056,14 +3902,14 @@
         <v>KP</v>
       </c>
       <c r="G14" s="29"/>
-      <c r="H14" s="56"/>
-      <c r="I14" s="56"/>
-      <c r="J14" s="56"/>
+      <c r="H14" s="55"/>
+      <c r="I14" s="55"/>
+      <c r="J14" s="55"/>
       <c r="K14" s="34">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L14" s="85">
+      <c r="L14" s="83">
         <f>IF(ISBLANK(Extrapunkte!J15),0,Extrapunkte!J15)</f>
         <v>0</v>
       </c>
@@ -4073,62 +3919,66 @@
       </c>
       <c r="N14" s="4"/>
       <c r="O14" s="4"/>
-      <c r="P14" s="34">
+      <c r="P14" s="106">
+        <f>RAWDATA!J14</f>
+        <v>0</v>
+      </c>
+      <c r="Q14" s="86">
         <f>RAWDATA!G14</f>
         <v>0</v>
       </c>
-      <c r="Q14" s="33">
-        <f>RAWDATA!J14</f>
-        <v>0</v>
-      </c>
-      <c r="R14" s="34" t="str">
+      <c r="R14" s="33">
+        <f>RAWDATA!K14</f>
+        <v>0</v>
+      </c>
+      <c r="S14" s="34" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="S14" s="33">
-        <f>RAWDATA!K14</f>
-        <v>0</v>
-      </c>
-      <c r="T14" s="4"/>
-      <c r="U14" s="2">
+      <c r="T14" s="33">
+        <f>RAWDATA!L14</f>
+        <v>0</v>
+      </c>
+      <c r="U14" s="4"/>
+      <c r="V14" s="2">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="V14" s="2">
+      <c r="W14" s="2">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="W14" s="10">
+      <c r="X14" s="10">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="X14" s="1">
+      <c r="Y14" s="1">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="Y14" s="1">
+      <c r="Z14" s="1">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:25" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="54">
+    <row r="15" spans="1:26" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="53">
         <f>RAWDATA!B15</f>
         <v>0</v>
       </c>
-      <c r="B15" s="54">
+      <c r="B15" s="53">
         <f>RAWDATA!C15</f>
         <v>0</v>
       </c>
-      <c r="C15" s="55">
+      <c r="C15" s="54">
         <f>RAWDATA!D15</f>
         <v>0</v>
       </c>
-      <c r="D15" s="55">
+      <c r="D15" s="54">
         <f>RAWDATA!E15</f>
         <v>0</v>
       </c>
-      <c r="E15" s="57">
+      <c r="E15" s="56">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -4137,14 +3987,14 @@
         <v>KP</v>
       </c>
       <c r="G15" s="29"/>
-      <c r="H15" s="56"/>
-      <c r="I15" s="56"/>
-      <c r="J15" s="56"/>
+      <c r="H15" s="55"/>
+      <c r="I15" s="55"/>
+      <c r="J15" s="55"/>
       <c r="K15" s="34">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L15" s="85">
+      <c r="L15" s="83">
         <f>IF(ISBLANK(Extrapunkte!J16),0,Extrapunkte!J16)</f>
         <v>0</v>
       </c>
@@ -4154,62 +4004,66 @@
       </c>
       <c r="N15" s="4"/>
       <c r="O15" s="4"/>
-      <c r="P15" s="34">
+      <c r="P15" s="106">
+        <f>RAWDATA!J15</f>
+        <v>0</v>
+      </c>
+      <c r="Q15" s="86">
         <f>RAWDATA!G15</f>
         <v>0</v>
       </c>
-      <c r="Q15" s="33">
-        <f>RAWDATA!J15</f>
-        <v>0</v>
-      </c>
-      <c r="R15" s="34" t="str">
+      <c r="R15" s="33">
+        <f>RAWDATA!K15</f>
+        <v>0</v>
+      </c>
+      <c r="S15" s="34" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="S15" s="33">
-        <f>RAWDATA!K15</f>
-        <v>0</v>
-      </c>
-      <c r="T15" s="4"/>
-      <c r="U15" s="2">
+      <c r="T15" s="33">
+        <f>RAWDATA!L15</f>
+        <v>0</v>
+      </c>
+      <c r="U15" s="4"/>
+      <c r="V15" s="2">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="V15" s="2">
+      <c r="W15" s="2">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="W15" s="10">
+      <c r="X15" s="10">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="X15" s="1">
+      <c r="Y15" s="1">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="Y15" s="1">
+      <c r="Z15" s="1">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:25" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="54">
+    <row r="16" spans="1:26" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="53">
         <f>RAWDATA!B16</f>
         <v>0</v>
       </c>
-      <c r="B16" s="54">
+      <c r="B16" s="53">
         <f>RAWDATA!C16</f>
         <v>0</v>
       </c>
-      <c r="C16" s="55">
+      <c r="C16" s="54">
         <f>RAWDATA!D16</f>
         <v>0</v>
       </c>
-      <c r="D16" s="55">
+      <c r="D16" s="54">
         <f>RAWDATA!E16</f>
         <v>0</v>
       </c>
-      <c r="E16" s="57">
+      <c r="E16" s="56">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -4218,14 +4072,14 @@
         <v>KP</v>
       </c>
       <c r="G16" s="29"/>
-      <c r="H16" s="56"/>
-      <c r="I16" s="56"/>
-      <c r="J16" s="56"/>
+      <c r="H16" s="55"/>
+      <c r="I16" s="55"/>
+      <c r="J16" s="55"/>
       <c r="K16" s="34">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L16" s="85">
+      <c r="L16" s="83">
         <f>IF(ISBLANK(Extrapunkte!J17),0,Extrapunkte!J17)</f>
         <v>0</v>
       </c>
@@ -4235,62 +4089,66 @@
       </c>
       <c r="N16" s="4"/>
       <c r="O16" s="4"/>
-      <c r="P16" s="34">
+      <c r="P16" s="106">
+        <f>RAWDATA!J16</f>
+        <v>0</v>
+      </c>
+      <c r="Q16" s="86">
         <f>RAWDATA!G16</f>
         <v>0</v>
       </c>
-      <c r="Q16" s="33">
-        <f>RAWDATA!J16</f>
-        <v>0</v>
-      </c>
-      <c r="R16" s="34" t="str">
+      <c r="R16" s="33">
+        <f>RAWDATA!K16</f>
+        <v>0</v>
+      </c>
+      <c r="S16" s="34" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="S16" s="33">
-        <f>RAWDATA!K16</f>
-        <v>0</v>
-      </c>
-      <c r="T16" s="4"/>
-      <c r="U16" s="2">
+      <c r="T16" s="33">
+        <f>RAWDATA!L16</f>
+        <v>0</v>
+      </c>
+      <c r="U16" s="4"/>
+      <c r="V16" s="2">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="V16" s="2">
+      <c r="W16" s="2">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="W16" s="10">
+      <c r="X16" s="10">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="X16" s="1">
+      <c r="Y16" s="1">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="Y16" s="1">
+      <c r="Z16" s="1">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:25" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="54">
+    <row r="17" spans="1:26" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="53">
         <f>RAWDATA!B17</f>
         <v>0</v>
       </c>
-      <c r="B17" s="54">
+      <c r="B17" s="53">
         <f>RAWDATA!C17</f>
         <v>0</v>
       </c>
-      <c r="C17" s="55">
+      <c r="C17" s="54">
         <f>RAWDATA!D17</f>
         <v>0</v>
       </c>
-      <c r="D17" s="55">
+      <c r="D17" s="54">
         <f>RAWDATA!E17</f>
         <v>0</v>
       </c>
-      <c r="E17" s="57">
+      <c r="E17" s="56">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -4299,14 +4157,14 @@
         <v>KP</v>
       </c>
       <c r="G17" s="29"/>
-      <c r="H17" s="56"/>
-      <c r="I17" s="56"/>
-      <c r="J17" s="56"/>
+      <c r="H17" s="55"/>
+      <c r="I17" s="55"/>
+      <c r="J17" s="55"/>
       <c r="K17" s="34">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L17" s="85">
+      <c r="L17" s="83">
         <f>IF(ISBLANK(Extrapunkte!J18),0,Extrapunkte!J18)</f>
         <v>0</v>
       </c>
@@ -4316,62 +4174,66 @@
       </c>
       <c r="N17" s="4"/>
       <c r="O17" s="4"/>
-      <c r="P17" s="34">
+      <c r="P17" s="106">
+        <f>RAWDATA!J17</f>
+        <v>0</v>
+      </c>
+      <c r="Q17" s="86">
         <f>RAWDATA!G17</f>
         <v>0</v>
       </c>
-      <c r="Q17" s="33">
-        <f>RAWDATA!J17</f>
-        <v>0</v>
-      </c>
-      <c r="R17" s="34" t="str">
+      <c r="R17" s="33">
+        <f>RAWDATA!K17</f>
+        <v>0</v>
+      </c>
+      <c r="S17" s="34" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="S17" s="33">
-        <f>RAWDATA!K17</f>
-        <v>0</v>
-      </c>
-      <c r="T17" s="4"/>
-      <c r="U17" s="2">
+      <c r="T17" s="33">
+        <f>RAWDATA!L17</f>
+        <v>0</v>
+      </c>
+      <c r="U17" s="4"/>
+      <c r="V17" s="2">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="V17" s="2">
+      <c r="W17" s="2">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="W17" s="10">
+      <c r="X17" s="10">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="X17" s="1">
+      <c r="Y17" s="1">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="Y17" s="1">
+      <c r="Z17" s="1">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:25" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="54">
+    <row r="18" spans="1:26" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="53">
         <f>RAWDATA!B18</f>
         <v>0</v>
       </c>
-      <c r="B18" s="54">
+      <c r="B18" s="53">
         <f>RAWDATA!C18</f>
         <v>0</v>
       </c>
-      <c r="C18" s="55">
+      <c r="C18" s="54">
         <f>RAWDATA!D18</f>
         <v>0</v>
       </c>
-      <c r="D18" s="55">
+      <c r="D18" s="54">
         <f>RAWDATA!E18</f>
         <v>0</v>
       </c>
-      <c r="E18" s="57">
+      <c r="E18" s="56">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -4380,14 +4242,14 @@
         <v>KP</v>
       </c>
       <c r="G18" s="29"/>
-      <c r="H18" s="56"/>
-      <c r="I18" s="56"/>
-      <c r="J18" s="56"/>
+      <c r="H18" s="55"/>
+      <c r="I18" s="55"/>
+      <c r="J18" s="55"/>
       <c r="K18" s="34">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L18" s="85">
+      <c r="L18" s="83">
         <f>IF(ISBLANK(Extrapunkte!J19),0,Extrapunkte!J19)</f>
         <v>0</v>
       </c>
@@ -4397,62 +4259,66 @@
       </c>
       <c r="N18" s="4"/>
       <c r="O18" s="4"/>
-      <c r="P18" s="34">
+      <c r="P18" s="106">
+        <f>RAWDATA!J18</f>
+        <v>0</v>
+      </c>
+      <c r="Q18" s="86">
         <f>RAWDATA!G18</f>
         <v>0</v>
       </c>
-      <c r="Q18" s="33">
-        <f>RAWDATA!J18</f>
-        <v>0</v>
-      </c>
-      <c r="R18" s="34" t="str">
+      <c r="R18" s="33">
+        <f>RAWDATA!K18</f>
+        <v>0</v>
+      </c>
+      <c r="S18" s="34" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="S18" s="33">
-        <f>RAWDATA!K18</f>
-        <v>0</v>
-      </c>
-      <c r="T18" s="4"/>
-      <c r="U18" s="2">
+      <c r="T18" s="33">
+        <f>RAWDATA!L18</f>
+        <v>0</v>
+      </c>
+      <c r="U18" s="4"/>
+      <c r="V18" s="2">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="V18" s="2">
+      <c r="W18" s="2">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="W18" s="10">
+      <c r="X18" s="10">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="X18" s="1">
+      <c r="Y18" s="1">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="Y18" s="1">
+      <c r="Z18" s="1">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:25" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="54">
+    <row r="19" spans="1:26" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="53">
         <f>RAWDATA!B19</f>
         <v>0</v>
       </c>
-      <c r="B19" s="54">
+      <c r="B19" s="53">
         <f>RAWDATA!C19</f>
         <v>0</v>
       </c>
-      <c r="C19" s="55">
+      <c r="C19" s="54">
         <f>RAWDATA!D19</f>
         <v>0</v>
       </c>
-      <c r="D19" s="55">
+      <c r="D19" s="54">
         <f>RAWDATA!E19</f>
         <v>0</v>
       </c>
-      <c r="E19" s="57">
+      <c r="E19" s="56">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -4461,14 +4327,14 @@
         <v>KP</v>
       </c>
       <c r="G19" s="29"/>
-      <c r="H19" s="56"/>
-      <c r="I19" s="56"/>
-      <c r="J19" s="56"/>
+      <c r="H19" s="55"/>
+      <c r="I19" s="55"/>
+      <c r="J19" s="55"/>
       <c r="K19" s="34">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L19" s="85">
+      <c r="L19" s="83">
         <f>IF(ISBLANK(Extrapunkte!J20),0,Extrapunkte!J20)</f>
         <v>0</v>
       </c>
@@ -4478,62 +4344,66 @@
       </c>
       <c r="N19" s="4"/>
       <c r="O19" s="4"/>
-      <c r="P19" s="34">
+      <c r="P19" s="106">
+        <f>RAWDATA!J19</f>
+        <v>0</v>
+      </c>
+      <c r="Q19" s="86">
         <f>RAWDATA!G19</f>
         <v>0</v>
       </c>
-      <c r="Q19" s="33">
-        <f>RAWDATA!J19</f>
-        <v>0</v>
-      </c>
-      <c r="R19" s="34" t="str">
+      <c r="R19" s="33">
+        <f>RAWDATA!K19</f>
+        <v>0</v>
+      </c>
+      <c r="S19" s="34" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="S19" s="33">
-        <f>RAWDATA!K19</f>
-        <v>0</v>
-      </c>
-      <c r="T19" s="4"/>
-      <c r="U19" s="2">
+      <c r="T19" s="33">
+        <f>RAWDATA!L19</f>
+        <v>0</v>
+      </c>
+      <c r="U19" s="4"/>
+      <c r="V19" s="2">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="V19" s="2">
+      <c r="W19" s="2">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="W19" s="10">
+      <c r="X19" s="10">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="X19" s="1">
+      <c r="Y19" s="1">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="Y19" s="1">
+      <c r="Z19" s="1">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:25" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="54">
+    <row r="20" spans="1:26" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="53">
         <f>RAWDATA!B20</f>
         <v>0</v>
       </c>
-      <c r="B20" s="54">
+      <c r="B20" s="53">
         <f>RAWDATA!C20</f>
         <v>0</v>
       </c>
-      <c r="C20" s="55">
+      <c r="C20" s="54">
         <f>RAWDATA!D20</f>
         <v>0</v>
       </c>
-      <c r="D20" s="55">
+      <c r="D20" s="54">
         <f>RAWDATA!E20</f>
         <v>0</v>
       </c>
-      <c r="E20" s="57">
+      <c r="E20" s="56">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -4542,14 +4412,14 @@
         <v>KP</v>
       </c>
       <c r="G20" s="29"/>
-      <c r="H20" s="56"/>
-      <c r="I20" s="56"/>
-      <c r="J20" s="56"/>
+      <c r="H20" s="55"/>
+      <c r="I20" s="55"/>
+      <c r="J20" s="55"/>
       <c r="K20" s="34">
         <f>SUM(H20:J20)</f>
         <v>0</v>
       </c>
-      <c r="L20" s="85">
+      <c r="L20" s="83">
         <f>IF(ISBLANK(Extrapunkte!J21),0,Extrapunkte!J21)</f>
         <v>0</v>
       </c>
@@ -4559,62 +4429,66 @@
       </c>
       <c r="N20" s="4"/>
       <c r="O20" s="4"/>
-      <c r="P20" s="34">
+      <c r="P20" s="106">
+        <f>RAWDATA!J20</f>
+        <v>0</v>
+      </c>
+      <c r="Q20" s="86">
         <f>RAWDATA!G20</f>
         <v>0</v>
       </c>
-      <c r="Q20" s="33">
-        <f>RAWDATA!J20</f>
-        <v>0</v>
-      </c>
-      <c r="R20" s="34" t="str">
+      <c r="R20" s="33">
+        <f>RAWDATA!K20</f>
+        <v>0</v>
+      </c>
+      <c r="S20" s="34" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="S20" s="33">
-        <f>RAWDATA!K20</f>
-        <v>0</v>
-      </c>
-      <c r="T20" s="4"/>
-      <c r="U20" s="2">
+      <c r="T20" s="33">
+        <f>RAWDATA!L20</f>
+        <v>0</v>
+      </c>
+      <c r="U20" s="4"/>
+      <c r="V20" s="2">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="V20" s="2">
+      <c r="W20" s="2">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="W20" s="10">
+      <c r="X20" s="10">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="X20" s="1">
+      <c r="Y20" s="1">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="Y20" s="1">
+      <c r="Z20" s="1">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:25" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="54">
+    <row r="21" spans="1:26" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="53">
         <f>RAWDATA!B21</f>
         <v>0</v>
       </c>
-      <c r="B21" s="54">
+      <c r="B21" s="53">
         <f>RAWDATA!C21</f>
         <v>0</v>
       </c>
-      <c r="C21" s="55">
+      <c r="C21" s="54">
         <f>RAWDATA!D21</f>
         <v>0</v>
       </c>
-      <c r="D21" s="55">
+      <c r="D21" s="54">
         <f>RAWDATA!E21</f>
         <v>0</v>
       </c>
-      <c r="E21" s="57">
+      <c r="E21" s="56">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -4623,14 +4497,14 @@
         <v>KP</v>
       </c>
       <c r="G21" s="29"/>
-      <c r="H21" s="56"/>
-      <c r="I21" s="56"/>
-      <c r="J21" s="56"/>
+      <c r="H21" s="55"/>
+      <c r="I21" s="55"/>
+      <c r="J21" s="55"/>
       <c r="K21" s="34">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L21" s="85">
+      <c r="L21" s="83">
         <f>IF(ISBLANK(Extrapunkte!J22),0,Extrapunkte!J22)</f>
         <v>0</v>
       </c>
@@ -4640,62 +4514,66 @@
       </c>
       <c r="N21" s="4"/>
       <c r="O21" s="4"/>
-      <c r="P21" s="34">
+      <c r="P21" s="106">
+        <f>RAWDATA!J21</f>
+        <v>0</v>
+      </c>
+      <c r="Q21" s="86">
         <f>RAWDATA!G21</f>
         <v>0</v>
       </c>
-      <c r="Q21" s="33">
-        <f>RAWDATA!J21</f>
-        <v>0</v>
-      </c>
-      <c r="R21" s="34" t="str">
+      <c r="R21" s="33">
+        <f>RAWDATA!K21</f>
+        <v>0</v>
+      </c>
+      <c r="S21" s="34" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="S21" s="33">
-        <f>RAWDATA!K21</f>
-        <v>0</v>
-      </c>
-      <c r="T21" s="4"/>
-      <c r="U21" s="2">
+      <c r="T21" s="33">
+        <f>RAWDATA!L21</f>
+        <v>0</v>
+      </c>
+      <c r="U21" s="4"/>
+      <c r="V21" s="2">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="V21" s="2">
+      <c r="W21" s="2">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="W21" s="10">
+      <c r="X21" s="10">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="X21" s="1">
+      <c r="Y21" s="1">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="Y21" s="1">
+      <c r="Z21" s="1">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:25" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="54">
+    <row r="22" spans="1:26" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="53">
         <f>RAWDATA!B22</f>
         <v>0</v>
       </c>
-      <c r="B22" s="54">
+      <c r="B22" s="53">
         <f>RAWDATA!C22</f>
         <v>0</v>
       </c>
-      <c r="C22" s="55">
+      <c r="C22" s="54">
         <f>RAWDATA!D22</f>
         <v>0</v>
       </c>
-      <c r="D22" s="55">
+      <c r="D22" s="54">
         <f>RAWDATA!E22</f>
         <v>0</v>
       </c>
-      <c r="E22" s="57">
+      <c r="E22" s="56">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -4704,14 +4582,14 @@
         <v>KP</v>
       </c>
       <c r="G22" s="29"/>
-      <c r="H22" s="56"/>
-      <c r="I22" s="56"/>
-      <c r="J22" s="56"/>
+      <c r="H22" s="55"/>
+      <c r="I22" s="55"/>
+      <c r="J22" s="55"/>
       <c r="K22" s="34">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L22" s="85">
+      <c r="L22" s="83">
         <f>IF(ISBLANK(Extrapunkte!J23),0,Extrapunkte!J23)</f>
         <v>0</v>
       </c>
@@ -4721,62 +4599,66 @@
       </c>
       <c r="N22" s="4"/>
       <c r="O22" s="4"/>
-      <c r="P22" s="34">
+      <c r="P22" s="106">
+        <f>RAWDATA!J22</f>
+        <v>0</v>
+      </c>
+      <c r="Q22" s="86">
         <f>RAWDATA!G22</f>
         <v>0</v>
       </c>
-      <c r="Q22" s="33">
-        <f>RAWDATA!J22</f>
-        <v>0</v>
-      </c>
-      <c r="R22" s="34" t="str">
+      <c r="R22" s="33">
+        <f>RAWDATA!K22</f>
+        <v>0</v>
+      </c>
+      <c r="S22" s="34" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="S22" s="33">
-        <f>RAWDATA!K22</f>
-        <v>0</v>
-      </c>
-      <c r="T22" s="4"/>
-      <c r="U22" s="2">
+      <c r="T22" s="33">
+        <f>RAWDATA!L22</f>
+        <v>0</v>
+      </c>
+      <c r="U22" s="4"/>
+      <c r="V22" s="2">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="V22" s="2">
+      <c r="W22" s="2">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="W22" s="10">
+      <c r="X22" s="10">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="X22" s="1">
+      <c r="Y22" s="1">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="Y22" s="1">
+      <c r="Z22" s="1">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:25" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="54">
+    <row r="23" spans="1:26" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="53">
         <f>RAWDATA!B23</f>
         <v>0</v>
       </c>
-      <c r="B23" s="54">
+      <c r="B23" s="53">
         <f>RAWDATA!C23</f>
         <v>0</v>
       </c>
-      <c r="C23" s="55">
+      <c r="C23" s="54">
         <f>RAWDATA!D23</f>
         <v>0</v>
       </c>
-      <c r="D23" s="55">
+      <c r="D23" s="54">
         <f>RAWDATA!E23</f>
         <v>0</v>
       </c>
-      <c r="E23" s="57">
+      <c r="E23" s="56">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -4785,14 +4667,14 @@
         <v>KP</v>
       </c>
       <c r="G23" s="29"/>
-      <c r="H23" s="56"/>
-      <c r="I23" s="56"/>
-      <c r="J23" s="56"/>
+      <c r="H23" s="55"/>
+      <c r="I23" s="55"/>
+      <c r="J23" s="55"/>
       <c r="K23" s="34">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L23" s="85">
+      <c r="L23" s="83">
         <f>IF(ISBLANK(Extrapunkte!J24),0,Extrapunkte!J24)</f>
         <v>0</v>
       </c>
@@ -4802,62 +4684,66 @@
       </c>
       <c r="N23" s="4"/>
       <c r="O23" s="4"/>
-      <c r="P23" s="34">
+      <c r="P23" s="106">
+        <f>RAWDATA!J23</f>
+        <v>0</v>
+      </c>
+      <c r="Q23" s="86">
         <f>RAWDATA!G23</f>
         <v>0</v>
       </c>
-      <c r="Q23" s="33">
-        <f>RAWDATA!J23</f>
-        <v>0</v>
-      </c>
-      <c r="R23" s="34" t="str">
+      <c r="R23" s="33">
+        <f>RAWDATA!K23</f>
+        <v>0</v>
+      </c>
+      <c r="S23" s="34" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="S23" s="33">
-        <f>RAWDATA!K23</f>
-        <v>0</v>
-      </c>
-      <c r="T23" s="4"/>
-      <c r="U23" s="2">
+      <c r="T23" s="33">
+        <f>RAWDATA!L23</f>
+        <v>0</v>
+      </c>
+      <c r="U23" s="4"/>
+      <c r="V23" s="2">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="V23" s="2">
+      <c r="W23" s="2">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="W23" s="10">
+      <c r="X23" s="10">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="X23" s="1">
+      <c r="Y23" s="1">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="Y23" s="1">
+      <c r="Z23" s="1">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:25" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="54">
+    <row r="24" spans="1:26" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="53">
         <f>RAWDATA!B24</f>
         <v>0</v>
       </c>
-      <c r="B24" s="54">
+      <c r="B24" s="53">
         <f>RAWDATA!C24</f>
         <v>0</v>
       </c>
-      <c r="C24" s="55">
+      <c r="C24" s="54">
         <f>RAWDATA!D24</f>
         <v>0</v>
       </c>
-      <c r="D24" s="55">
+      <c r="D24" s="54">
         <f>RAWDATA!E24</f>
         <v>0</v>
       </c>
-      <c r="E24" s="57">
+      <c r="E24" s="56">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -4866,14 +4752,14 @@
         <v>KP</v>
       </c>
       <c r="G24" s="29"/>
-      <c r="H24" s="56"/>
-      <c r="I24" s="56"/>
-      <c r="J24" s="56"/>
+      <c r="H24" s="55"/>
+      <c r="I24" s="55"/>
+      <c r="J24" s="55"/>
       <c r="K24" s="34">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L24" s="85">
+      <c r="L24" s="83">
         <f>IF(ISBLANK(Extrapunkte!J25),0,Extrapunkte!J25)</f>
         <v>0</v>
       </c>
@@ -4883,62 +4769,66 @@
       </c>
       <c r="N24" s="4"/>
       <c r="O24" s="4"/>
-      <c r="P24" s="34">
+      <c r="P24" s="106">
+        <f>RAWDATA!J24</f>
+        <v>0</v>
+      </c>
+      <c r="Q24" s="86">
         <f>RAWDATA!G24</f>
         <v>0</v>
       </c>
-      <c r="Q24" s="33">
-        <f>RAWDATA!J24</f>
-        <v>0</v>
-      </c>
-      <c r="R24" s="34" t="str">
+      <c r="R24" s="33">
+        <f>RAWDATA!K24</f>
+        <v>0</v>
+      </c>
+      <c r="S24" s="34" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="S24" s="33">
-        <f>RAWDATA!K24</f>
-        <v>0</v>
-      </c>
-      <c r="T24" s="4"/>
-      <c r="U24" s="2">
+      <c r="T24" s="33">
+        <f>RAWDATA!L24</f>
+        <v>0</v>
+      </c>
+      <c r="U24" s="4"/>
+      <c r="V24" s="2">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="V24" s="2">
+      <c r="W24" s="2">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="W24" s="10">
+      <c r="X24" s="10">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="X24" s="1">
+      <c r="Y24" s="1">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="Y24" s="1">
+      <c r="Z24" s="1">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:25" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="54">
+    <row r="25" spans="1:26" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="53">
         <f>RAWDATA!B25</f>
         <v>0</v>
       </c>
-      <c r="B25" s="54">
+      <c r="B25" s="53">
         <f>RAWDATA!C25</f>
         <v>0</v>
       </c>
-      <c r="C25" s="55">
+      <c r="C25" s="54">
         <f>RAWDATA!D25</f>
         <v>0</v>
       </c>
-      <c r="D25" s="55">
+      <c r="D25" s="54">
         <f>RAWDATA!E25</f>
         <v>0</v>
       </c>
-      <c r="E25" s="57">
+      <c r="E25" s="56">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -4947,14 +4837,14 @@
         <v>KP</v>
       </c>
       <c r="G25" s="29"/>
-      <c r="H25" s="56"/>
-      <c r="I25" s="56"/>
-      <c r="J25" s="56"/>
+      <c r="H25" s="55"/>
+      <c r="I25" s="55"/>
+      <c r="J25" s="55"/>
       <c r="K25" s="34">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L25" s="85">
+      <c r="L25" s="83">
         <f>IF(ISBLANK(Extrapunkte!J26),0,Extrapunkte!J26)</f>
         <v>0</v>
       </c>
@@ -4964,62 +4854,66 @@
       </c>
       <c r="N25" s="4"/>
       <c r="O25" s="4"/>
-      <c r="P25" s="34">
+      <c r="P25" s="106">
+        <f>RAWDATA!J25</f>
+        <v>0</v>
+      </c>
+      <c r="Q25" s="86">
         <f>RAWDATA!G25</f>
         <v>0</v>
       </c>
-      <c r="Q25" s="33">
-        <f>RAWDATA!J25</f>
-        <v>0</v>
-      </c>
-      <c r="R25" s="34" t="str">
+      <c r="R25" s="33">
+        <f>RAWDATA!K25</f>
+        <v>0</v>
+      </c>
+      <c r="S25" s="34" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="S25" s="33">
-        <f>RAWDATA!K25</f>
-        <v>0</v>
-      </c>
-      <c r="T25" s="4"/>
-      <c r="U25" s="2">
+      <c r="T25" s="33">
+        <f>RAWDATA!L25</f>
+        <v>0</v>
+      </c>
+      <c r="U25" s="4"/>
+      <c r="V25" s="2">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="V25" s="2">
+      <c r="W25" s="2">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="W25" s="10">
+      <c r="X25" s="10">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="X25" s="1">
+      <c r="Y25" s="1">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="Y25" s="1">
+      <c r="Z25" s="1">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:25" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="54">
+    <row r="26" spans="1:26" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="53">
         <f>RAWDATA!B26</f>
         <v>0</v>
       </c>
-      <c r="B26" s="54">
+      <c r="B26" s="53">
         <f>RAWDATA!C26</f>
         <v>0</v>
       </c>
-      <c r="C26" s="55">
+      <c r="C26" s="54">
         <f>RAWDATA!D26</f>
         <v>0</v>
       </c>
-      <c r="D26" s="55">
+      <c r="D26" s="54">
         <f>RAWDATA!E26</f>
         <v>0</v>
       </c>
-      <c r="E26" s="57">
+      <c r="E26" s="56">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -5028,14 +4922,14 @@
         <v>KP</v>
       </c>
       <c r="G26" s="29"/>
-      <c r="H26" s="56"/>
-      <c r="I26" s="56"/>
-      <c r="J26" s="56"/>
+      <c r="H26" s="55"/>
+      <c r="I26" s="55"/>
+      <c r="J26" s="55"/>
       <c r="K26" s="34">
         <f>SUM(H26:J26)</f>
         <v>0</v>
       </c>
-      <c r="L26" s="85">
+      <c r="L26" s="83">
         <f>IF(ISBLANK(Extrapunkte!J27),0,Extrapunkte!J27)</f>
         <v>0</v>
       </c>
@@ -5045,45 +4939,49 @@
       </c>
       <c r="N26" s="4"/>
       <c r="O26" s="4"/>
-      <c r="P26" s="34">
+      <c r="P26" s="106">
+        <f>RAWDATA!J26</f>
+        <v>0</v>
+      </c>
+      <c r="Q26" s="86">
         <f>RAWDATA!G26</f>
         <v>0</v>
       </c>
-      <c r="Q26" s="33">
-        <f>RAWDATA!J26</f>
-        <v>0</v>
-      </c>
-      <c r="R26" s="34" t="str">
+      <c r="R26" s="33">
+        <f>RAWDATA!K26</f>
+        <v>0</v>
+      </c>
+      <c r="S26" s="34" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="S26" s="33">
-        <f>RAWDATA!K26</f>
-        <v>0</v>
-      </c>
-      <c r="T26" s="4"/>
-      <c r="U26" s="2">
+      <c r="T26" s="33">
+        <f>RAWDATA!L26</f>
+        <v>0</v>
+      </c>
+      <c r="U26" s="4"/>
+      <c r="V26" s="2">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="V26" s="2">
+      <c r="W26" s="2">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="W26" s="10">
+      <c r="X26" s="10">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="X26" s="1">
+      <c r="Y26" s="1">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="Y26" s="1">
+      <c r="Z26" s="1">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:25" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:26" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="4"/>
       <c r="B27" s="4" t="s">
         <v>9</v>
@@ -5106,13 +5004,14 @@
       </c>
       <c r="N27" s="4"/>
       <c r="O27" s="4"/>
-      <c r="P27" s="5"/>
-      <c r="Q27" s="4"/>
-      <c r="R27" s="5"/>
-      <c r="S27" s="4"/>
+      <c r="P27" s="4"/>
+      <c r="Q27" s="5"/>
+      <c r="R27" s="4"/>
+      <c r="S27" s="5"/>
       <c r="T27" s="4"/>
-    </row>
-    <row r="28" spans="1:25" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U27" s="4"/>
+    </row>
+    <row r="28" spans="1:26" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="1" t="s">
         <v>55</v>
       </c>
@@ -5147,13 +5046,14 @@
       </c>
       <c r="N28" s="4"/>
       <c r="O28" s="4"/>
-      <c r="P28" s="5"/>
-      <c r="Q28" s="4"/>
-      <c r="R28" s="5"/>
-      <c r="S28" s="4"/>
+      <c r="P28" s="4"/>
+      <c r="Q28" s="5"/>
+      <c r="R28" s="4"/>
+      <c r="S28" s="5"/>
       <c r="T28" s="4"/>
-    </row>
-    <row r="29" spans="1:25" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U28" s="4"/>
+    </row>
+    <row r="29" spans="1:26" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="4"/>
       <c r="B29" s="4" t="s">
         <v>10</v>
@@ -5183,13 +5083,14 @@
       <c r="M29" s="5"/>
       <c r="N29" s="4"/>
       <c r="O29" s="4"/>
-      <c r="P29" s="5"/>
-      <c r="Q29" s="4"/>
-      <c r="R29" s="5"/>
-      <c r="S29" s="4"/>
+      <c r="P29" s="4"/>
+      <c r="Q29" s="5"/>
+      <c r="R29" s="4"/>
+      <c r="S29" s="5"/>
       <c r="T29" s="4"/>
-    </row>
-    <row r="30" spans="1:25" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U29" s="4"/>
+    </row>
+    <row r="30" spans="1:26" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="22"/>
       <c r="B30" s="22"/>
       <c r="C30" s="23"/>
@@ -5205,13 +5106,14 @@
       <c r="M30" s="25"/>
       <c r="N30" s="22"/>
       <c r="O30" s="22"/>
-      <c r="P30" s="25"/>
-      <c r="Q30" s="22"/>
-      <c r="R30" s="25"/>
-      <c r="S30" s="22"/>
+      <c r="P30" s="22"/>
+      <c r="Q30" s="25"/>
+      <c r="R30" s="22"/>
+      <c r="S30" s="25"/>
       <c r="T30" s="22"/>
-    </row>
-    <row r="31" spans="1:25" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U30" s="22"/>
+    </row>
+    <row r="31" spans="1:26" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
         <v>13</v>
       </c>
@@ -5219,26 +5121,27 @@
         <v>140</v>
       </c>
       <c r="C31" s="23"/>
-      <c r="E31" s="86" t="s">
+      <c r="E31" s="87" t="s">
         <v>32</v>
       </c>
-      <c r="F31" s="86"/>
-      <c r="G31" s="86"/>
-      <c r="H31" s="86"/>
-      <c r="I31" s="86"/>
-      <c r="J31" s="86"/>
-      <c r="K31" s="86"/>
-      <c r="L31" s="86"/>
-      <c r="M31" s="86"/>
-      <c r="N31" s="86"/>
-      <c r="O31" s="86"/>
-      <c r="P31" s="86"/>
-      <c r="Q31" s="86"/>
-      <c r="R31" s="86"/>
-      <c r="S31" s="86"/>
-      <c r="T31" s="31"/>
-    </row>
-    <row r="32" spans="1:25" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F31" s="87"/>
+      <c r="G31" s="87"/>
+      <c r="H31" s="87"/>
+      <c r="I31" s="87"/>
+      <c r="J31" s="87"/>
+      <c r="K31" s="87"/>
+      <c r="L31" s="87"/>
+      <c r="M31" s="87"/>
+      <c r="N31" s="87"/>
+      <c r="O31" s="87"/>
+      <c r="P31" s="87"/>
+      <c r="Q31" s="87"/>
+      <c r="R31" s="87"/>
+      <c r="S31" s="87"/>
+      <c r="T31" s="87"/>
+      <c r="U31" s="31"/>
+    </row>
+    <row r="32" spans="1:26" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
         <v>14</v>
       </c>
@@ -5246,25 +5149,26 @@
         <v>120</v>
       </c>
       <c r="C32" s="23"/>
-      <c r="D32" s="79"/>
-      <c r="E32" s="86"/>
-      <c r="F32" s="86"/>
-      <c r="G32" s="86"/>
-      <c r="H32" s="86"/>
-      <c r="I32" s="86"/>
-      <c r="J32" s="86"/>
-      <c r="K32" s="86"/>
-      <c r="L32" s="86"/>
-      <c r="M32" s="86"/>
-      <c r="N32" s="86"/>
-      <c r="O32" s="86"/>
-      <c r="P32" s="86"/>
-      <c r="Q32" s="86"/>
-      <c r="R32" s="86"/>
-      <c r="S32" s="86"/>
-      <c r="T32" s="31"/>
-    </row>
-    <row r="33" spans="1:20" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D32" s="77"/>
+      <c r="E32" s="87"/>
+      <c r="F32" s="87"/>
+      <c r="G32" s="87"/>
+      <c r="H32" s="87"/>
+      <c r="I32" s="87"/>
+      <c r="J32" s="87"/>
+      <c r="K32" s="87"/>
+      <c r="L32" s="87"/>
+      <c r="M32" s="87"/>
+      <c r="N32" s="87"/>
+      <c r="O32" s="87"/>
+      <c r="P32" s="87"/>
+      <c r="Q32" s="87"/>
+      <c r="R32" s="87"/>
+      <c r="S32" s="87"/>
+      <c r="T32" s="87"/>
+      <c r="U32" s="31"/>
+    </row>
+    <row r="33" spans="1:21" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
         <v>15</v>
       </c>
@@ -5272,53 +5176,55 @@
         <v>121</v>
       </c>
       <c r="C33" s="23"/>
-      <c r="D33" s="79"/>
-      <c r="E33" s="86"/>
-      <c r="F33" s="86"/>
-      <c r="G33" s="86"/>
-      <c r="H33" s="86"/>
-      <c r="I33" s="86"/>
-      <c r="J33" s="86"/>
-      <c r="K33" s="86"/>
-      <c r="L33" s="86"/>
-      <c r="M33" s="86"/>
-      <c r="N33" s="86"/>
-      <c r="O33" s="86"/>
-      <c r="P33" s="86"/>
-      <c r="Q33" s="86"/>
-      <c r="R33" s="86"/>
-      <c r="S33" s="86"/>
-      <c r="T33" s="31"/>
-    </row>
-    <row r="34" spans="1:20" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D33" s="77"/>
+      <c r="E33" s="87"/>
+      <c r="F33" s="87"/>
+      <c r="G33" s="87"/>
+      <c r="H33" s="87"/>
+      <c r="I33" s="87"/>
+      <c r="J33" s="87"/>
+      <c r="K33" s="87"/>
+      <c r="L33" s="87"/>
+      <c r="M33" s="87"/>
+      <c r="N33" s="87"/>
+      <c r="O33" s="87"/>
+      <c r="P33" s="87"/>
+      <c r="Q33" s="87"/>
+      <c r="R33" s="87"/>
+      <c r="S33" s="87"/>
+      <c r="T33" s="87"/>
+      <c r="U33" s="31"/>
+    </row>
+    <row r="34" spans="1:21" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
         <v>16</v>
       </c>
       <c r="B34" s="35" t="s">
         <v>122</v>
       </c>
-      <c r="C34" s="80" t="s">
+      <c r="C34" s="78" t="s">
         <v>126</v>
       </c>
-      <c r="D34" s="79"/>
-      <c r="E34" s="86"/>
-      <c r="F34" s="86"/>
-      <c r="G34" s="86"/>
-      <c r="H34" s="86"/>
-      <c r="I34" s="86"/>
-      <c r="J34" s="86"/>
-      <c r="K34" s="86"/>
-      <c r="L34" s="86"/>
-      <c r="M34" s="86"/>
-      <c r="N34" s="86"/>
-      <c r="O34" s="86"/>
-      <c r="P34" s="86"/>
-      <c r="Q34" s="86"/>
-      <c r="R34" s="86"/>
-      <c r="S34" s="86"/>
-      <c r="T34" s="31"/>
-    </row>
-    <row r="35" spans="1:20" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D34" s="77"/>
+      <c r="E34" s="87"/>
+      <c r="F34" s="87"/>
+      <c r="G34" s="87"/>
+      <c r="H34" s="87"/>
+      <c r="I34" s="87"/>
+      <c r="J34" s="87"/>
+      <c r="K34" s="87"/>
+      <c r="L34" s="87"/>
+      <c r="M34" s="87"/>
+      <c r="N34" s="87"/>
+      <c r="O34" s="87"/>
+      <c r="P34" s="87"/>
+      <c r="Q34" s="87"/>
+      <c r="R34" s="87"/>
+      <c r="S34" s="87"/>
+      <c r="T34" s="87"/>
+      <c r="U34" s="31"/>
+    </row>
+    <row r="35" spans="1:21" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
         <v>44</v>
       </c>
@@ -5326,25 +5232,26 @@
         <v>123</v>
       </c>
       <c r="C35" s="23"/>
-      <c r="D35" s="79"/>
-      <c r="E35" s="86"/>
-      <c r="F35" s="86"/>
-      <c r="G35" s="86"/>
-      <c r="H35" s="86"/>
-      <c r="I35" s="86"/>
-      <c r="J35" s="86"/>
-      <c r="K35" s="86"/>
-      <c r="L35" s="86"/>
-      <c r="M35" s="86"/>
-      <c r="N35" s="86"/>
-      <c r="O35" s="86"/>
-      <c r="P35" s="86"/>
-      <c r="Q35" s="86"/>
-      <c r="R35" s="86"/>
-      <c r="S35" s="86"/>
-      <c r="T35" s="31"/>
-    </row>
-    <row r="36" spans="1:20" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D35" s="77"/>
+      <c r="E35" s="87"/>
+      <c r="F35" s="87"/>
+      <c r="G35" s="87"/>
+      <c r="H35" s="87"/>
+      <c r="I35" s="87"/>
+      <c r="J35" s="87"/>
+      <c r="K35" s="87"/>
+      <c r="L35" s="87"/>
+      <c r="M35" s="87"/>
+      <c r="N35" s="87"/>
+      <c r="O35" s="87"/>
+      <c r="P35" s="87"/>
+      <c r="Q35" s="87"/>
+      <c r="R35" s="87"/>
+      <c r="S35" s="87"/>
+      <c r="T35" s="87"/>
+      <c r="U35" s="31"/>
+    </row>
+    <row r="36" spans="1:21" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
         <v>30</v>
       </c>
@@ -5352,71 +5259,73 @@
         <v>124</v>
       </c>
       <c r="C36" s="23"/>
-      <c r="D36" s="79"/>
-      <c r="E36" s="86"/>
-      <c r="F36" s="86"/>
-      <c r="G36" s="86"/>
-      <c r="H36" s="86"/>
-      <c r="I36" s="86"/>
-      <c r="J36" s="86"/>
-      <c r="K36" s="86"/>
-      <c r="L36" s="86"/>
-      <c r="M36" s="86"/>
-      <c r="N36" s="86"/>
-      <c r="O36" s="86"/>
-      <c r="P36" s="86"/>
-      <c r="Q36" s="86"/>
-      <c r="R36" s="86"/>
-      <c r="S36" s="86"/>
-      <c r="T36" s="31"/>
-    </row>
-    <row r="37" spans="1:20" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D36" s="77"/>
+      <c r="E36" s="87"/>
+      <c r="F36" s="87"/>
+      <c r="G36" s="87"/>
+      <c r="H36" s="87"/>
+      <c r="I36" s="87"/>
+      <c r="J36" s="87"/>
+      <c r="K36" s="87"/>
+      <c r="L36" s="87"/>
+      <c r="M36" s="87"/>
+      <c r="N36" s="87"/>
+      <c r="O36" s="87"/>
+      <c r="P36" s="87"/>
+      <c r="Q36" s="87"/>
+      <c r="R36" s="87"/>
+      <c r="S36" s="87"/>
+      <c r="T36" s="87"/>
+      <c r="U36" s="31"/>
+    </row>
+    <row r="37" spans="1:21" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="B37" s="68" t="s">
+      <c r="B37" s="66" t="s">
         <v>125</v>
       </c>
       <c r="C37" s="23"/>
-      <c r="D37" s="79"/>
-      <c r="E37" s="79"/>
-      <c r="F37" s="79"/>
-      <c r="G37" s="79"/>
-      <c r="H37" s="79"/>
-      <c r="I37" s="79"/>
-      <c r="J37" s="79"/>
-      <c r="K37" s="79"/>
-      <c r="L37" s="79"/>
-      <c r="M37" s="79"/>
+      <c r="D37" s="77"/>
+      <c r="E37" s="77"/>
+      <c r="F37" s="77"/>
+      <c r="G37" s="77"/>
+      <c r="H37" s="77"/>
+      <c r="I37" s="77"/>
+      <c r="J37" s="77"/>
+      <c r="K37" s="77"/>
+      <c r="L37" s="77"/>
+      <c r="M37" s="77"/>
       <c r="N37" s="22"/>
       <c r="O37" s="22"/>
-      <c r="P37" s="25"/>
-      <c r="Q37" s="31"/>
-      <c r="R37" s="25"/>
-      <c r="S37" s="31"/>
+      <c r="P37" s="22"/>
+      <c r="Q37" s="25"/>
+      <c r="R37" s="31"/>
+      <c r="S37" s="25"/>
       <c r="T37" s="31"/>
-    </row>
-    <row r="38" spans="1:20" ht="13.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="P38" s="25"/>
-      <c r="Q38" s="22"/>
-      <c r="R38" s="25"/>
-      <c r="S38" s="22"/>
+      <c r="U37" s="31"/>
+    </row>
+    <row r="38" spans="1:21" ht="13.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q38" s="25"/>
+      <c r="R38" s="22"/>
+      <c r="S38" s="25"/>
       <c r="T38" s="22"/>
+      <c r="U38" s="22"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1" formatColumns="0" selectLockedCells="1"/>
   <dataConsolidate/>
   <mergeCells count="1">
-    <mergeCell ref="E31:S36"/>
+    <mergeCell ref="E31:T36"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <conditionalFormatting sqref="H26">
-    <cfRule type="cellIs" dxfId="4" priority="9" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="9" stopIfTrue="1" operator="greaterThan">
       <formula>$H$27</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I26:J26">
-    <cfRule type="cellIs" dxfId="3" priority="3" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="0" priority="3" stopIfTrue="1" operator="greaterThan">
       <formula>$I$27</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5450,17 +5359,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="84" t="str">
+      <c r="A1" s="82" t="str">
         <f>Notenliste!B34</f>
         <v>course.name</v>
       </c>
-      <c r="E1" s="87" t="s">
+      <c r="E1" s="88" t="s">
         <v>131</v>
       </c>
-      <c r="F1" s="88"/>
-      <c r="G1" s="88"/>
-      <c r="H1" s="88"/>
-      <c r="I1" s="88"/>
+      <c r="F1" s="89"/>
+      <c r="G1" s="89"/>
+      <c r="H1" s="89"/>
+      <c r="I1" s="89"/>
     </row>
     <row r="2" spans="1:11" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A2" s="26" t="s">
@@ -5496,11 +5405,11 @@
       <c r="K2" s="4"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" s="82" t="str">
+      <c r="A3" s="80" t="str">
         <f>RAWDATA!B2</f>
         <v>applicant.last_name</v>
       </c>
-      <c r="B3" s="82" t="str">
+      <c r="B3" s="80" t="str">
         <f>RAWDATA!C2</f>
         <v>applicant.first_name</v>
       </c>
@@ -5512,11 +5421,11 @@
         <f>RAWDATA!E2</f>
         <v>applicant.tag</v>
       </c>
-      <c r="E3" s="83"/>
-      <c r="F3" s="83"/>
-      <c r="G3" s="83"/>
-      <c r="H3" s="83"/>
-      <c r="I3" s="83"/>
+      <c r="E3" s="81"/>
+      <c r="F3" s="81"/>
+      <c r="G3" s="81"/>
+      <c r="H3" s="81"/>
+      <c r="I3" s="81"/>
       <c r="J3" s="30">
         <f>SUM(E3:I3)</f>
         <v>0</v>
@@ -5524,11 +5433,11 @@
       <c r="K3" s="4"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" s="82">
+      <c r="A4" s="80">
         <f>RAWDATA!B3</f>
         <v>0</v>
       </c>
-      <c r="B4" s="82">
+      <c r="B4" s="80">
         <f>RAWDATA!C3</f>
         <v>0</v>
       </c>
@@ -5540,11 +5449,11 @@
         <f>RAWDATA!E3</f>
         <v>0</v>
       </c>
-      <c r="E4" s="83"/>
-      <c r="F4" s="83"/>
-      <c r="G4" s="83"/>
-      <c r="H4" s="83"/>
-      <c r="I4" s="83"/>
+      <c r="E4" s="81"/>
+      <c r="F4" s="81"/>
+      <c r="G4" s="81"/>
+      <c r="H4" s="81"/>
+      <c r="I4" s="81"/>
       <c r="J4" s="30">
         <f t="shared" ref="J4:J27" si="0">SUM(E4:I4)</f>
         <v>0</v>
@@ -5552,11 +5461,11 @@
       <c r="K4" s="4"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" s="82">
+      <c r="A5" s="80">
         <f>RAWDATA!B4</f>
         <v>0</v>
       </c>
-      <c r="B5" s="82">
+      <c r="B5" s="80">
         <f>RAWDATA!C4</f>
         <v>0</v>
       </c>
@@ -5568,11 +5477,11 @@
         <f>RAWDATA!E4</f>
         <v>0</v>
       </c>
-      <c r="E5" s="83"/>
-      <c r="F5" s="83"/>
-      <c r="G5" s="83"/>
-      <c r="H5" s="83"/>
-      <c r="I5" s="83"/>
+      <c r="E5" s="81"/>
+      <c r="F5" s="81"/>
+      <c r="G5" s="81"/>
+      <c r="H5" s="81"/>
+      <c r="I5" s="81"/>
       <c r="J5" s="30">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -5580,11 +5489,11 @@
       <c r="K5" s="4"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6" s="82">
+      <c r="A6" s="80">
         <f>RAWDATA!B5</f>
         <v>0</v>
       </c>
-      <c r="B6" s="82">
+      <c r="B6" s="80">
         <f>RAWDATA!C5</f>
         <v>0</v>
       </c>
@@ -5596,11 +5505,11 @@
         <f>RAWDATA!E5</f>
         <v>0</v>
       </c>
-      <c r="E6" s="83"/>
-      <c r="F6" s="83"/>
-      <c r="G6" s="83"/>
-      <c r="H6" s="83"/>
-      <c r="I6" s="83"/>
+      <c r="E6" s="81"/>
+      <c r="F6" s="81"/>
+      <c r="G6" s="81"/>
+      <c r="H6" s="81"/>
+      <c r="I6" s="81"/>
       <c r="J6" s="30">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -5608,11 +5517,11 @@
       <c r="K6" s="4"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" s="82">
+      <c r="A7" s="80">
         <f>RAWDATA!B6</f>
         <v>0</v>
       </c>
-      <c r="B7" s="82">
+      <c r="B7" s="80">
         <f>RAWDATA!C6</f>
         <v>0</v>
       </c>
@@ -5624,11 +5533,11 @@
         <f>RAWDATA!E6</f>
         <v>0</v>
       </c>
-      <c r="E7" s="83"/>
-      <c r="F7" s="83"/>
-      <c r="G7" s="83"/>
-      <c r="H7" s="83"/>
-      <c r="I7" s="83"/>
+      <c r="E7" s="81"/>
+      <c r="F7" s="81"/>
+      <c r="G7" s="81"/>
+      <c r="H7" s="81"/>
+      <c r="I7" s="81"/>
       <c r="J7" s="30">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -5636,11 +5545,11 @@
       <c r="K7" s="4"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8" s="82">
+      <c r="A8" s="80">
         <f>RAWDATA!B7</f>
         <v>0</v>
       </c>
-      <c r="B8" s="82">
+      <c r="B8" s="80">
         <f>RAWDATA!C7</f>
         <v>0</v>
       </c>
@@ -5652,11 +5561,11 @@
         <f>RAWDATA!E7</f>
         <v>0</v>
       </c>
-      <c r="E8" s="83"/>
-      <c r="F8" s="83"/>
-      <c r="G8" s="83"/>
-      <c r="H8" s="83"/>
-      <c r="I8" s="83"/>
+      <c r="E8" s="81"/>
+      <c r="F8" s="81"/>
+      <c r="G8" s="81"/>
+      <c r="H8" s="81"/>
+      <c r="I8" s="81"/>
       <c r="J8" s="30">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -5664,11 +5573,11 @@
       <c r="K8" s="4"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9" s="82">
+      <c r="A9" s="80">
         <f>RAWDATA!B8</f>
         <v>0</v>
       </c>
-      <c r="B9" s="82">
+      <c r="B9" s="80">
         <f>RAWDATA!C8</f>
         <v>0</v>
       </c>
@@ -5680,11 +5589,11 @@
         <f>RAWDATA!E8</f>
         <v>0</v>
       </c>
-      <c r="E9" s="83"/>
-      <c r="F9" s="83"/>
-      <c r="G9" s="83"/>
-      <c r="H9" s="83"/>
-      <c r="I9" s="83"/>
+      <c r="E9" s="81"/>
+      <c r="F9" s="81"/>
+      <c r="G9" s="81"/>
+      <c r="H9" s="81"/>
+      <c r="I9" s="81"/>
       <c r="J9" s="30">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -5692,11 +5601,11 @@
       <c r="K9" s="4"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10" s="82">
+      <c r="A10" s="80">
         <f>RAWDATA!B9</f>
         <v>0</v>
       </c>
-      <c r="B10" s="82">
+      <c r="B10" s="80">
         <f>RAWDATA!C9</f>
         <v>0</v>
       </c>
@@ -5708,11 +5617,11 @@
         <f>RAWDATA!E9</f>
         <v>0</v>
       </c>
-      <c r="E10" s="83"/>
-      <c r="F10" s="83"/>
-      <c r="G10" s="83"/>
-      <c r="H10" s="83"/>
-      <c r="I10" s="83"/>
+      <c r="E10" s="81"/>
+      <c r="F10" s="81"/>
+      <c r="G10" s="81"/>
+      <c r="H10" s="81"/>
+      <c r="I10" s="81"/>
       <c r="J10" s="30">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -5720,11 +5629,11 @@
       <c r="K10" s="4"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11" s="82">
+      <c r="A11" s="80">
         <f>RAWDATA!B10</f>
         <v>0</v>
       </c>
-      <c r="B11" s="82">
+      <c r="B11" s="80">
         <f>RAWDATA!C10</f>
         <v>0</v>
       </c>
@@ -5736,11 +5645,11 @@
         <f>RAWDATA!E10</f>
         <v>0</v>
       </c>
-      <c r="E11" s="83"/>
-      <c r="F11" s="83"/>
-      <c r="G11" s="83"/>
-      <c r="H11" s="83"/>
-      <c r="I11" s="83"/>
+      <c r="E11" s="81"/>
+      <c r="F11" s="81"/>
+      <c r="G11" s="81"/>
+      <c r="H11" s="81"/>
+      <c r="I11" s="81"/>
       <c r="J11" s="30">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -5748,11 +5657,11 @@
       <c r="K11" s="4"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12" s="82">
+      <c r="A12" s="80">
         <f>RAWDATA!B11</f>
         <v>0</v>
       </c>
-      <c r="B12" s="82">
+      <c r="B12" s="80">
         <f>RAWDATA!C11</f>
         <v>0</v>
       </c>
@@ -5764,11 +5673,11 @@
         <f>RAWDATA!E11</f>
         <v>0</v>
       </c>
-      <c r="E12" s="83"/>
-      <c r="F12" s="83"/>
-      <c r="G12" s="83"/>
-      <c r="H12" s="83"/>
-      <c r="I12" s="83"/>
+      <c r="E12" s="81"/>
+      <c r="F12" s="81"/>
+      <c r="G12" s="81"/>
+      <c r="H12" s="81"/>
+      <c r="I12" s="81"/>
       <c r="J12" s="30">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -5776,11 +5685,11 @@
       <c r="K12" s="4"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A13" s="82">
+      <c r="A13" s="80">
         <f>RAWDATA!B12</f>
         <v>0</v>
       </c>
-      <c r="B13" s="82">
+      <c r="B13" s="80">
         <f>RAWDATA!C12</f>
         <v>0</v>
       </c>
@@ -5792,11 +5701,11 @@
         <f>RAWDATA!E12</f>
         <v>0</v>
       </c>
-      <c r="E13" s="83"/>
-      <c r="F13" s="83"/>
-      <c r="G13" s="83"/>
-      <c r="H13" s="83"/>
-      <c r="I13" s="83"/>
+      <c r="E13" s="81"/>
+      <c r="F13" s="81"/>
+      <c r="G13" s="81"/>
+      <c r="H13" s="81"/>
+      <c r="I13" s="81"/>
       <c r="J13" s="30">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -5804,11 +5713,11 @@
       <c r="K13" s="4"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A14" s="82">
+      <c r="A14" s="80">
         <f>RAWDATA!B13</f>
         <v>0</v>
       </c>
-      <c r="B14" s="82">
+      <c r="B14" s="80">
         <f>RAWDATA!C13</f>
         <v>0</v>
       </c>
@@ -5820,11 +5729,11 @@
         <f>RAWDATA!E13</f>
         <v>0</v>
       </c>
-      <c r="E14" s="83"/>
-      <c r="F14" s="83"/>
-      <c r="G14" s="83"/>
-      <c r="H14" s="83"/>
-      <c r="I14" s="83"/>
+      <c r="E14" s="81"/>
+      <c r="F14" s="81"/>
+      <c r="G14" s="81"/>
+      <c r="H14" s="81"/>
+      <c r="I14" s="81"/>
       <c r="J14" s="30">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -5832,11 +5741,11 @@
       <c r="K14" s="4"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A15" s="82">
+      <c r="A15" s="80">
         <f>RAWDATA!B14</f>
         <v>0</v>
       </c>
-      <c r="B15" s="82">
+      <c r="B15" s="80">
         <f>RAWDATA!C14</f>
         <v>0</v>
       </c>
@@ -5848,11 +5757,11 @@
         <f>RAWDATA!E14</f>
         <v>0</v>
       </c>
-      <c r="E15" s="83"/>
-      <c r="F15" s="83"/>
-      <c r="G15" s="83"/>
-      <c r="H15" s="83"/>
-      <c r="I15" s="83"/>
+      <c r="E15" s="81"/>
+      <c r="F15" s="81"/>
+      <c r="G15" s="81"/>
+      <c r="H15" s="81"/>
+      <c r="I15" s="81"/>
       <c r="J15" s="30">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -5860,11 +5769,11 @@
       <c r="K15" s="4"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A16" s="82">
+      <c r="A16" s="80">
         <f>RAWDATA!B15</f>
         <v>0</v>
       </c>
-      <c r="B16" s="82">
+      <c r="B16" s="80">
         <f>RAWDATA!C15</f>
         <v>0</v>
       </c>
@@ -5876,11 +5785,11 @@
         <f>RAWDATA!E15</f>
         <v>0</v>
       </c>
-      <c r="E16" s="83"/>
-      <c r="F16" s="83"/>
-      <c r="G16" s="83"/>
-      <c r="H16" s="83"/>
-      <c r="I16" s="83"/>
+      <c r="E16" s="81"/>
+      <c r="F16" s="81"/>
+      <c r="G16" s="81"/>
+      <c r="H16" s="81"/>
+      <c r="I16" s="81"/>
       <c r="J16" s="30">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -5888,11 +5797,11 @@
       <c r="K16" s="4"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A17" s="82">
+      <c r="A17" s="80">
         <f>RAWDATA!B16</f>
         <v>0</v>
       </c>
-      <c r="B17" s="82">
+      <c r="B17" s="80">
         <f>RAWDATA!C16</f>
         <v>0</v>
       </c>
@@ -5904,11 +5813,11 @@
         <f>RAWDATA!E16</f>
         <v>0</v>
       </c>
-      <c r="E17" s="83"/>
-      <c r="F17" s="83"/>
-      <c r="G17" s="83"/>
-      <c r="H17" s="83"/>
-      <c r="I17" s="83"/>
+      <c r="E17" s="81"/>
+      <c r="F17" s="81"/>
+      <c r="G17" s="81"/>
+      <c r="H17" s="81"/>
+      <c r="I17" s="81"/>
       <c r="J17" s="30">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -5916,11 +5825,11 @@
       <c r="K17" s="4"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A18" s="82">
+      <c r="A18" s="80">
         <f>RAWDATA!B17</f>
         <v>0</v>
       </c>
-      <c r="B18" s="82">
+      <c r="B18" s="80">
         <f>RAWDATA!C17</f>
         <v>0</v>
       </c>
@@ -5932,11 +5841,11 @@
         <f>RAWDATA!E17</f>
         <v>0</v>
       </c>
-      <c r="E18" s="83"/>
-      <c r="F18" s="83"/>
-      <c r="G18" s="83"/>
-      <c r="H18" s="83"/>
-      <c r="I18" s="83"/>
+      <c r="E18" s="81"/>
+      <c r="F18" s="81"/>
+      <c r="G18" s="81"/>
+      <c r="H18" s="81"/>
+      <c r="I18" s="81"/>
       <c r="J18" s="30">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -5944,11 +5853,11 @@
       <c r="K18" s="4"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A19" s="82">
+      <c r="A19" s="80">
         <f>RAWDATA!B18</f>
         <v>0</v>
       </c>
-      <c r="B19" s="82">
+      <c r="B19" s="80">
         <f>RAWDATA!C18</f>
         <v>0</v>
       </c>
@@ -5960,11 +5869,11 @@
         <f>RAWDATA!E18</f>
         <v>0</v>
       </c>
-      <c r="E19" s="83"/>
-      <c r="F19" s="83"/>
-      <c r="G19" s="83"/>
-      <c r="H19" s="83"/>
-      <c r="I19" s="83"/>
+      <c r="E19" s="81"/>
+      <c r="F19" s="81"/>
+      <c r="G19" s="81"/>
+      <c r="H19" s="81"/>
+      <c r="I19" s="81"/>
       <c r="J19" s="30">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -5972,11 +5881,11 @@
       <c r="K19" s="4"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A20" s="82">
+      <c r="A20" s="80">
         <f>RAWDATA!B19</f>
         <v>0</v>
       </c>
-      <c r="B20" s="82">
+      <c r="B20" s="80">
         <f>RAWDATA!C19</f>
         <v>0</v>
       </c>
@@ -5988,11 +5897,11 @@
         <f>RAWDATA!E19</f>
         <v>0</v>
       </c>
-      <c r="E20" s="83"/>
-      <c r="F20" s="83"/>
-      <c r="G20" s="83"/>
-      <c r="H20" s="83"/>
-      <c r="I20" s="83"/>
+      <c r="E20" s="81"/>
+      <c r="F20" s="81"/>
+      <c r="G20" s="81"/>
+      <c r="H20" s="81"/>
+      <c r="I20" s="81"/>
       <c r="J20" s="30">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -6000,11 +5909,11 @@
       <c r="K20" s="4"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A21" s="82">
+      <c r="A21" s="80">
         <f>RAWDATA!B20</f>
         <v>0</v>
       </c>
-      <c r="B21" s="82">
+      <c r="B21" s="80">
         <f>RAWDATA!C20</f>
         <v>0</v>
       </c>
@@ -6016,11 +5925,11 @@
         <f>RAWDATA!E20</f>
         <v>0</v>
       </c>
-      <c r="E21" s="83"/>
-      <c r="F21" s="83"/>
-      <c r="G21" s="83"/>
-      <c r="H21" s="83"/>
-      <c r="I21" s="83"/>
+      <c r="E21" s="81"/>
+      <c r="F21" s="81"/>
+      <c r="G21" s="81"/>
+      <c r="H21" s="81"/>
+      <c r="I21" s="81"/>
       <c r="J21" s="30">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -6028,11 +5937,11 @@
       <c r="K21" s="4"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A22" s="82">
+      <c r="A22" s="80">
         <f>RAWDATA!B21</f>
         <v>0</v>
       </c>
-      <c r="B22" s="82">
+      <c r="B22" s="80">
         <f>RAWDATA!C21</f>
         <v>0</v>
       </c>
@@ -6044,11 +5953,11 @@
         <f>RAWDATA!E21</f>
         <v>0</v>
       </c>
-      <c r="E22" s="83"/>
-      <c r="F22" s="83"/>
-      <c r="G22" s="83"/>
-      <c r="H22" s="83"/>
-      <c r="I22" s="83"/>
+      <c r="E22" s="81"/>
+      <c r="F22" s="81"/>
+      <c r="G22" s="81"/>
+      <c r="H22" s="81"/>
+      <c r="I22" s="81"/>
       <c r="J22" s="30">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -6056,11 +5965,11 @@
       <c r="K22" s="4"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A23" s="82">
+      <c r="A23" s="80">
         <f>RAWDATA!B22</f>
         <v>0</v>
       </c>
-      <c r="B23" s="82">
+      <c r="B23" s="80">
         <f>RAWDATA!C22</f>
         <v>0</v>
       </c>
@@ -6072,11 +5981,11 @@
         <f>RAWDATA!E22</f>
         <v>0</v>
       </c>
-      <c r="E23" s="83"/>
-      <c r="F23" s="83"/>
-      <c r="G23" s="83"/>
-      <c r="H23" s="83"/>
-      <c r="I23" s="83"/>
+      <c r="E23" s="81"/>
+      <c r="F23" s="81"/>
+      <c r="G23" s="81"/>
+      <c r="H23" s="81"/>
+      <c r="I23" s="81"/>
       <c r="J23" s="30">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -6084,11 +5993,11 @@
       <c r="K23" s="4"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A24" s="82">
+      <c r="A24" s="80">
         <f>RAWDATA!B23</f>
         <v>0</v>
       </c>
-      <c r="B24" s="82">
+      <c r="B24" s="80">
         <f>RAWDATA!C23</f>
         <v>0</v>
       </c>
@@ -6100,11 +6009,11 @@
         <f>RAWDATA!E23</f>
         <v>0</v>
       </c>
-      <c r="E24" s="83"/>
-      <c r="F24" s="83"/>
-      <c r="G24" s="83"/>
-      <c r="H24" s="83"/>
-      <c r="I24" s="83"/>
+      <c r="E24" s="81"/>
+      <c r="F24" s="81"/>
+      <c r="G24" s="81"/>
+      <c r="H24" s="81"/>
+      <c r="I24" s="81"/>
       <c r="J24" s="30">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -6112,11 +6021,11 @@
       <c r="K24" s="4"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A25" s="82">
+      <c r="A25" s="80">
         <f>RAWDATA!B24</f>
         <v>0</v>
       </c>
-      <c r="B25" s="82">
+      <c r="B25" s="80">
         <f>RAWDATA!C24</f>
         <v>0</v>
       </c>
@@ -6128,11 +6037,11 @@
         <f>RAWDATA!E24</f>
         <v>0</v>
       </c>
-      <c r="E25" s="83"/>
-      <c r="F25" s="83"/>
-      <c r="G25" s="83"/>
-      <c r="H25" s="83"/>
-      <c r="I25" s="83"/>
+      <c r="E25" s="81"/>
+      <c r="F25" s="81"/>
+      <c r="G25" s="81"/>
+      <c r="H25" s="81"/>
+      <c r="I25" s="81"/>
       <c r="J25" s="30">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -6140,11 +6049,11 @@
       <c r="K25" s="4"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A26" s="82">
+      <c r="A26" s="80">
         <f>RAWDATA!B25</f>
         <v>0</v>
       </c>
-      <c r="B26" s="82">
+      <c r="B26" s="80">
         <f>RAWDATA!C25</f>
         <v>0</v>
       </c>
@@ -6156,11 +6065,11 @@
         <f>RAWDATA!E25</f>
         <v>0</v>
       </c>
-      <c r="E26" s="83"/>
-      <c r="F26" s="83"/>
-      <c r="G26" s="83"/>
-      <c r="H26" s="83"/>
-      <c r="I26" s="83"/>
+      <c r="E26" s="81"/>
+      <c r="F26" s="81"/>
+      <c r="G26" s="81"/>
+      <c r="H26" s="81"/>
+      <c r="I26" s="81"/>
       <c r="J26" s="30">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -6168,11 +6077,11 @@
       <c r="K26" s="4"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A27" s="82">
+      <c r="A27" s="80">
         <f>RAWDATA!B26</f>
         <v>0</v>
       </c>
-      <c r="B27" s="82">
+      <c r="B27" s="80">
         <f>RAWDATA!C26</f>
         <v>0</v>
       </c>
@@ -6184,11 +6093,11 @@
         <f>RAWDATA!E26</f>
         <v>0</v>
       </c>
-      <c r="E27" s="83"/>
-      <c r="F27" s="83"/>
-      <c r="G27" s="83"/>
-      <c r="H27" s="83"/>
-      <c r="I27" s="83"/>
+      <c r="E27" s="81"/>
+      <c r="F27" s="81"/>
+      <c r="G27" s="81"/>
+      <c r="H27" s="81"/>
+      <c r="I27" s="81"/>
       <c r="J27" s="30">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -6276,11 +6185,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="89" t="str">
+      <c r="A1" s="90" t="str">
         <f>Notenliste!B34</f>
         <v>course.name</v>
       </c>
-      <c r="B1" s="89"/>
+      <c r="B1" s="90"/>
       <c r="C1" s="8" t="s">
         <v>12</v>
       </c>
@@ -6434,46 +6343,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="90" t="str">
+      <c r="A1" s="91" t="str">
         <f>Notenliste!B34&amp;Notenliste!B35</f>
         <v>course.namecourse.alternative</v>
       </c>
-      <c r="B1" s="90"/>
-      <c r="C1" s="90"/>
-      <c r="D1" s="90"/>
-      <c r="E1" s="90"/>
-      <c r="F1" s="90"/>
-      <c r="G1" s="90"/>
-      <c r="H1" s="90"/>
-      <c r="I1" s="90"/>
-      <c r="J1" s="90"/>
-      <c r="K1" s="90"/>
-      <c r="L1" s="90"/>
-      <c r="M1" s="90"/>
-      <c r="N1" s="90"/>
+      <c r="B1" s="91"/>
+      <c r="C1" s="91"/>
+      <c r="D1" s="91"/>
+      <c r="E1" s="91"/>
+      <c r="F1" s="91"/>
+      <c r="G1" s="91"/>
+      <c r="H1" s="91"/>
+      <c r="I1" s="91"/>
+      <c r="J1" s="91"/>
+      <c r="K1" s="91"/>
+      <c r="L1" s="91"/>
+      <c r="M1" s="91"/>
+      <c r="N1" s="91"/>
     </row>
     <row r="2" spans="1:15" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="91" t="str">
+      <c r="A2" s="92" t="str">
         <f>"Dozent/in: "&amp;Notenliste!B31</f>
         <v>Dozent/in: course.teacher_name</v>
       </c>
-      <c r="B2" s="91"/>
-      <c r="C2" s="91"/>
-      <c r="D2" s="91"/>
-      <c r="E2" s="91"/>
-      <c r="F2" s="91"/>
-      <c r="G2" s="92" t="str">
+      <c r="B2" s="92"/>
+      <c r="C2" s="92"/>
+      <c r="D2" s="92"/>
+      <c r="E2" s="92"/>
+      <c r="F2" s="92"/>
+      <c r="G2" s="93" t="str">
         <f>"Semester: "&amp;Notenliste!B36</f>
         <v>Semester: semester</v>
       </c>
-      <c r="H2" s="92"/>
-      <c r="I2" s="92"/>
-      <c r="J2" s="92"/>
-      <c r="K2" s="92"/>
-      <c r="L2" s="92"/>
-      <c r="M2" s="92"/>
-      <c r="N2" s="92"/>
-      <c r="O2" s="62"/>
+      <c r="H2" s="93"/>
+      <c r="I2" s="93"/>
+      <c r="J2" s="93"/>
+      <c r="K2" s="93"/>
+      <c r="L2" s="93"/>
+      <c r="M2" s="93"/>
+      <c r="N2" s="93"/>
+      <c r="O2" s="60"/>
     </row>
     <row r="3" spans="1:15" s="16" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="14" t="s">
@@ -6518,7 +6427,7 @@
       <c r="N3" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="O3" s="63"/>
+      <c r="O3" s="61"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="17">
@@ -6549,15 +6458,15 @@
         <v>applicant.phone</v>
       </c>
       <c r="H4" s="19">
-        <f>RAWDATA!L2</f>
+        <f>RAWDATA!M2</f>
         <v>0</v>
       </c>
       <c r="I4" s="19">
-        <f>RAWDATA!M2</f>
+        <f>RAWDATA!N2</f>
         <v>0</v>
       </c>
       <c r="J4" s="17" t="str">
-        <f>UPPER(Notenliste!Q2)</f>
+        <f>UPPER(Notenliste!R2)</f>
         <v>ATTENDANCE.TS_REQUESTED_STR</v>
       </c>
       <c r="K4" s="17" t="e">
@@ -6573,10 +6482,10 @@
         <v>#VALUE!</v>
       </c>
       <c r="N4" s="17" t="str">
-        <f>UPPER(Notenliste!S2)</f>
+        <f>UPPER(Notenliste!T2)</f>
         <v>ATTENDANCE.TS_RECEIVED_STR</v>
       </c>
-      <c r="O4" s="62"/>
+      <c r="O4" s="60"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" s="17">
@@ -6603,19 +6512,19 @@
         <v>0</v>
       </c>
       <c r="G5" s="18">
-        <f>RAWDATA!K3</f>
+        <f>RAWDATA!L3</f>
         <v>0</v>
       </c>
       <c r="H5" s="19">
-        <f>RAWDATA!L3</f>
+        <f>RAWDATA!M3</f>
         <v>0</v>
       </c>
       <c r="I5" s="19">
-        <f>RAWDATA!M3</f>
+        <f>RAWDATA!N3</f>
         <v>0</v>
       </c>
       <c r="J5" s="17" t="str">
-        <f>UPPER(Notenliste!Q3)</f>
+        <f>UPPER(Notenliste!R3)</f>
         <v>0</v>
       </c>
       <c r="K5" s="17" t="str">
@@ -6631,10 +6540,10 @@
         <v>0</v>
       </c>
       <c r="N5" s="17" t="str">
-        <f>UPPER(Notenliste!S3)</f>
-        <v>0</v>
-      </c>
-      <c r="O5" s="62"/>
+        <f>UPPER(Notenliste!T3)</f>
+        <v>0</v>
+      </c>
+      <c r="O5" s="60"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="17">
@@ -6661,19 +6570,19 @@
         <v>0</v>
       </c>
       <c r="G6" s="18">
-        <f>RAWDATA!K4</f>
+        <f>RAWDATA!L4</f>
         <v>0</v>
       </c>
       <c r="H6" s="19">
-        <f>RAWDATA!L4</f>
+        <f>RAWDATA!M4</f>
         <v>0</v>
       </c>
       <c r="I6" s="19">
-        <f>RAWDATA!M4</f>
+        <f>RAWDATA!N4</f>
         <v>0</v>
       </c>
       <c r="J6" s="17" t="str">
-        <f>UPPER(Notenliste!Q4)</f>
+        <f>UPPER(Notenliste!R4)</f>
         <v>0</v>
       </c>
       <c r="K6" s="17" t="str">
@@ -6689,10 +6598,10 @@
         <v>0</v>
       </c>
       <c r="N6" s="17" t="str">
-        <f>UPPER(Notenliste!S4)</f>
-        <v>0</v>
-      </c>
-      <c r="O6" s="62"/>
+        <f>UPPER(Notenliste!T4)</f>
+        <v>0</v>
+      </c>
+      <c r="O6" s="60"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" s="17">
@@ -6719,19 +6628,19 @@
         <v>0</v>
       </c>
       <c r="G7" s="18">
-        <f>RAWDATA!K5</f>
+        <f>RAWDATA!L5</f>
         <v>0</v>
       </c>
       <c r="H7" s="19">
-        <f>RAWDATA!L5</f>
+        <f>RAWDATA!M5</f>
         <v>0</v>
       </c>
       <c r="I7" s="19">
-        <f>RAWDATA!M5</f>
+        <f>RAWDATA!N5</f>
         <v>0</v>
       </c>
       <c r="J7" s="17" t="str">
-        <f>UPPER(Notenliste!Q5)</f>
+        <f>UPPER(Notenliste!R5)</f>
         <v>0</v>
       </c>
       <c r="K7" s="17" t="str">
@@ -6747,10 +6656,10 @@
         <v>0</v>
       </c>
       <c r="N7" s="17" t="str">
-        <f>UPPER(Notenliste!S5)</f>
-        <v>0</v>
-      </c>
-      <c r="O7" s="62"/>
+        <f>UPPER(Notenliste!T5)</f>
+        <v>0</v>
+      </c>
+      <c r="O7" s="60"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" s="17">
@@ -6777,19 +6686,19 @@
         <v>0</v>
       </c>
       <c r="G8" s="18">
-        <f>RAWDATA!K6</f>
+        <f>RAWDATA!L6</f>
         <v>0</v>
       </c>
       <c r="H8" s="19">
-        <f>RAWDATA!L6</f>
+        <f>RAWDATA!M6</f>
         <v>0</v>
       </c>
       <c r="I8" s="19">
-        <f>RAWDATA!M6</f>
+        <f>RAWDATA!N6</f>
         <v>0</v>
       </c>
       <c r="J8" s="17" t="str">
-        <f>UPPER(Notenliste!Q6)</f>
+        <f>UPPER(Notenliste!R6)</f>
         <v>0</v>
       </c>
       <c r="K8" s="17" t="str">
@@ -6805,10 +6714,10 @@
         <v>0</v>
       </c>
       <c r="N8" s="17" t="str">
-        <f>UPPER(Notenliste!S6)</f>
-        <v>0</v>
-      </c>
-      <c r="O8" s="62"/>
+        <f>UPPER(Notenliste!T6)</f>
+        <v>0</v>
+      </c>
+      <c r="O8" s="60"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" s="17">
@@ -6835,19 +6744,19 @@
         <v>0</v>
       </c>
       <c r="G9" s="18">
-        <f>RAWDATA!K7</f>
+        <f>RAWDATA!L7</f>
         <v>0</v>
       </c>
       <c r="H9" s="19">
-        <f>RAWDATA!L7</f>
+        <f>RAWDATA!M7</f>
         <v>0</v>
       </c>
       <c r="I9" s="19">
-        <f>RAWDATA!M7</f>
+        <f>RAWDATA!N7</f>
         <v>0</v>
       </c>
       <c r="J9" s="17" t="str">
-        <f>UPPER(Notenliste!Q7)</f>
+        <f>UPPER(Notenliste!R7)</f>
         <v>0</v>
       </c>
       <c r="K9" s="17" t="str">
@@ -6863,10 +6772,10 @@
         <v>0</v>
       </c>
       <c r="N9" s="17" t="str">
-        <f>UPPER(Notenliste!S7)</f>
-        <v>0</v>
-      </c>
-      <c r="O9" s="62"/>
+        <f>UPPER(Notenliste!T7)</f>
+        <v>0</v>
+      </c>
+      <c r="O9" s="60"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" s="17">
@@ -6893,19 +6802,19 @@
         <v>0</v>
       </c>
       <c r="G10" s="18">
-        <f>RAWDATA!K8</f>
+        <f>RAWDATA!L8</f>
         <v>0</v>
       </c>
       <c r="H10" s="19">
-        <f>RAWDATA!L8</f>
+        <f>RAWDATA!M8</f>
         <v>0</v>
       </c>
       <c r="I10" s="19">
-        <f>RAWDATA!M8</f>
+        <f>RAWDATA!N8</f>
         <v>0</v>
       </c>
       <c r="J10" s="17" t="str">
-        <f>UPPER(Notenliste!Q8)</f>
+        <f>UPPER(Notenliste!R8)</f>
         <v>0</v>
       </c>
       <c r="K10" s="17" t="str">
@@ -6921,10 +6830,10 @@
         <v>0</v>
       </c>
       <c r="N10" s="17" t="str">
-        <f>UPPER(Notenliste!S8)</f>
-        <v>0</v>
-      </c>
-      <c r="O10" s="62"/>
+        <f>UPPER(Notenliste!T8)</f>
+        <v>0</v>
+      </c>
+      <c r="O10" s="60"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" s="17">
@@ -6951,19 +6860,19 @@
         <v>0</v>
       </c>
       <c r="G11" s="18">
-        <f>RAWDATA!K9</f>
+        <f>RAWDATA!L9</f>
         <v>0</v>
       </c>
       <c r="H11" s="19">
-        <f>RAWDATA!L9</f>
+        <f>RAWDATA!M9</f>
         <v>0</v>
       </c>
       <c r="I11" s="19">
-        <f>RAWDATA!M9</f>
+        <f>RAWDATA!N9</f>
         <v>0</v>
       </c>
       <c r="J11" s="17" t="str">
-        <f>UPPER(Notenliste!Q9)</f>
+        <f>UPPER(Notenliste!R9)</f>
         <v>0</v>
       </c>
       <c r="K11" s="17" t="str">
@@ -6979,10 +6888,10 @@
         <v>0</v>
       </c>
       <c r="N11" s="17" t="str">
-        <f>UPPER(Notenliste!S9)</f>
-        <v>0</v>
-      </c>
-      <c r="O11" s="62"/>
+        <f>UPPER(Notenliste!T9)</f>
+        <v>0</v>
+      </c>
+      <c r="O11" s="60"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" s="17">
@@ -7009,19 +6918,19 @@
         <v>0</v>
       </c>
       <c r="G12" s="18">
-        <f>RAWDATA!K10</f>
+        <f>RAWDATA!L10</f>
         <v>0</v>
       </c>
       <c r="H12" s="19">
-        <f>RAWDATA!L10</f>
+        <f>RAWDATA!M10</f>
         <v>0</v>
       </c>
       <c r="I12" s="19">
-        <f>RAWDATA!M10</f>
+        <f>RAWDATA!N10</f>
         <v>0</v>
       </c>
       <c r="J12" s="17" t="str">
-        <f>UPPER(Notenliste!Q10)</f>
+        <f>UPPER(Notenliste!R10)</f>
         <v>0</v>
       </c>
       <c r="K12" s="17" t="str">
@@ -7037,10 +6946,10 @@
         <v>0</v>
       </c>
       <c r="N12" s="17" t="str">
-        <f>UPPER(Notenliste!S10)</f>
-        <v>0</v>
-      </c>
-      <c r="O12" s="62"/>
+        <f>UPPER(Notenliste!T10)</f>
+        <v>0</v>
+      </c>
+      <c r="O12" s="60"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="17">
@@ -7067,19 +6976,19 @@
         <v>0</v>
       </c>
       <c r="G13" s="18">
-        <f>RAWDATA!K11</f>
+        <f>RAWDATA!L11</f>
         <v>0</v>
       </c>
       <c r="H13" s="19">
-        <f>RAWDATA!L11</f>
+        <f>RAWDATA!M11</f>
         <v>0</v>
       </c>
       <c r="I13" s="19">
-        <f>RAWDATA!M11</f>
+        <f>RAWDATA!N11</f>
         <v>0</v>
       </c>
       <c r="J13" s="17" t="str">
-        <f>UPPER(Notenliste!Q11)</f>
+        <f>UPPER(Notenliste!R11)</f>
         <v>0</v>
       </c>
       <c r="K13" s="17" t="str">
@@ -7095,10 +7004,10 @@
         <v>0</v>
       </c>
       <c r="N13" s="17" t="str">
-        <f>UPPER(Notenliste!S11)</f>
-        <v>0</v>
-      </c>
-      <c r="O13" s="62"/>
+        <f>UPPER(Notenliste!T11)</f>
+        <v>0</v>
+      </c>
+      <c r="O13" s="60"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" s="17">
@@ -7125,19 +7034,19 @@
         <v>0</v>
       </c>
       <c r="G14" s="18">
-        <f>RAWDATA!K12</f>
+        <f>RAWDATA!L12</f>
         <v>0</v>
       </c>
       <c r="H14" s="19">
-        <f>RAWDATA!L12</f>
+        <f>RAWDATA!M12</f>
         <v>0</v>
       </c>
       <c r="I14" s="19">
-        <f>RAWDATA!M12</f>
+        <f>RAWDATA!N12</f>
         <v>0</v>
       </c>
       <c r="J14" s="17" t="str">
-        <f>UPPER(Notenliste!Q12)</f>
+        <f>UPPER(Notenliste!R12)</f>
         <v>0</v>
       </c>
       <c r="K14" s="17" t="str">
@@ -7153,10 +7062,10 @@
         <v>0</v>
       </c>
       <c r="N14" s="17" t="str">
-        <f>UPPER(Notenliste!S12)</f>
-        <v>0</v>
-      </c>
-      <c r="O14" s="62"/>
+        <f>UPPER(Notenliste!T12)</f>
+        <v>0</v>
+      </c>
+      <c r="O14" s="60"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="17">
@@ -7183,19 +7092,19 @@
         <v>0</v>
       </c>
       <c r="G15" s="18">
-        <f>RAWDATA!K13</f>
+        <f>RAWDATA!L13</f>
         <v>0</v>
       </c>
       <c r="H15" s="19">
-        <f>RAWDATA!L13</f>
+        <f>RAWDATA!M13</f>
         <v>0</v>
       </c>
       <c r="I15" s="19">
-        <f>RAWDATA!M13</f>
+        <f>RAWDATA!N13</f>
         <v>0</v>
       </c>
       <c r="J15" s="17" t="str">
-        <f>UPPER(Notenliste!Q13)</f>
+        <f>UPPER(Notenliste!R13)</f>
         <v>0</v>
       </c>
       <c r="K15" s="17" t="str">
@@ -7211,10 +7120,10 @@
         <v>0</v>
       </c>
       <c r="N15" s="17" t="str">
-        <f>UPPER(Notenliste!S13)</f>
-        <v>0</v>
-      </c>
-      <c r="O15" s="62"/>
+        <f>UPPER(Notenliste!T13)</f>
+        <v>0</v>
+      </c>
+      <c r="O15" s="60"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" s="17">
@@ -7241,19 +7150,19 @@
         <v>0</v>
       </c>
       <c r="G16" s="18">
-        <f>RAWDATA!K14</f>
+        <f>RAWDATA!L14</f>
         <v>0</v>
       </c>
       <c r="H16" s="19">
-        <f>RAWDATA!L14</f>
+        <f>RAWDATA!M14</f>
         <v>0</v>
       </c>
       <c r="I16" s="19">
-        <f>RAWDATA!M14</f>
+        <f>RAWDATA!N14</f>
         <v>0</v>
       </c>
       <c r="J16" s="17" t="str">
-        <f>UPPER(Notenliste!Q14)</f>
+        <f>UPPER(Notenliste!R14)</f>
         <v>0</v>
       </c>
       <c r="K16" s="17" t="str">
@@ -7269,10 +7178,10 @@
         <v>0</v>
       </c>
       <c r="N16" s="17" t="str">
-        <f>UPPER(Notenliste!S14)</f>
-        <v>0</v>
-      </c>
-      <c r="O16" s="62"/>
+        <f>UPPER(Notenliste!T14)</f>
+        <v>0</v>
+      </c>
+      <c r="O16" s="60"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" s="17">
@@ -7299,19 +7208,19 @@
         <v>0</v>
       </c>
       <c r="G17" s="18">
-        <f>RAWDATA!K15</f>
+        <f>RAWDATA!L15</f>
         <v>0</v>
       </c>
       <c r="H17" s="19">
-        <f>RAWDATA!L15</f>
+        <f>RAWDATA!M15</f>
         <v>0</v>
       </c>
       <c r="I17" s="19">
-        <f>RAWDATA!M15</f>
+        <f>RAWDATA!N15</f>
         <v>0</v>
       </c>
       <c r="J17" s="17" t="str">
-        <f>UPPER(Notenliste!Q15)</f>
+        <f>UPPER(Notenliste!R15)</f>
         <v>0</v>
       </c>
       <c r="K17" s="17" t="str">
@@ -7327,10 +7236,10 @@
         <v>0</v>
       </c>
       <c r="N17" s="17" t="str">
-        <f>UPPER(Notenliste!S15)</f>
-        <v>0</v>
-      </c>
-      <c r="O17" s="62"/>
+        <f>UPPER(Notenliste!T15)</f>
+        <v>0</v>
+      </c>
+      <c r="O17" s="60"/>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18" s="17">
@@ -7357,19 +7266,19 @@
         <v>0</v>
       </c>
       <c r="G18" s="18">
-        <f>RAWDATA!K16</f>
+        <f>RAWDATA!L16</f>
         <v>0</v>
       </c>
       <c r="H18" s="19">
-        <f>RAWDATA!L16</f>
+        <f>RAWDATA!M16</f>
         <v>0</v>
       </c>
       <c r="I18" s="19">
-        <f>RAWDATA!M16</f>
+        <f>RAWDATA!N16</f>
         <v>0</v>
       </c>
       <c r="J18" s="17" t="str">
-        <f>UPPER(Notenliste!Q16)</f>
+        <f>UPPER(Notenliste!R16)</f>
         <v>0</v>
       </c>
       <c r="K18" s="17" t="str">
@@ -7385,10 +7294,10 @@
         <v>0</v>
       </c>
       <c r="N18" s="17" t="str">
-        <f>UPPER(Notenliste!S16)</f>
-        <v>0</v>
-      </c>
-      <c r="O18" s="62"/>
+        <f>UPPER(Notenliste!T16)</f>
+        <v>0</v>
+      </c>
+      <c r="O18" s="60"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" s="17">
@@ -7415,19 +7324,19 @@
         <v>0</v>
       </c>
       <c r="G19" s="18">
-        <f>RAWDATA!K17</f>
+        <f>RAWDATA!L17</f>
         <v>0</v>
       </c>
       <c r="H19" s="19">
-        <f>RAWDATA!L17</f>
+        <f>RAWDATA!M17</f>
         <v>0</v>
       </c>
       <c r="I19" s="19">
-        <f>RAWDATA!M17</f>
+        <f>RAWDATA!N17</f>
         <v>0</v>
       </c>
       <c r="J19" s="17" t="str">
-        <f>UPPER(Notenliste!Q17)</f>
+        <f>UPPER(Notenliste!R17)</f>
         <v>0</v>
       </c>
       <c r="K19" s="17" t="str">
@@ -7443,10 +7352,10 @@
         <v>0</v>
       </c>
       <c r="N19" s="17" t="str">
-        <f>UPPER(Notenliste!S17)</f>
-        <v>0</v>
-      </c>
-      <c r="O19" s="62"/>
+        <f>UPPER(Notenliste!T17)</f>
+        <v>0</v>
+      </c>
+      <c r="O19" s="60"/>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20" s="17">
@@ -7473,19 +7382,19 @@
         <v>0</v>
       </c>
       <c r="G20" s="18">
-        <f>RAWDATA!K18</f>
+        <f>RAWDATA!L18</f>
         <v>0</v>
       </c>
       <c r="H20" s="19">
-        <f>RAWDATA!L18</f>
+        <f>RAWDATA!M18</f>
         <v>0</v>
       </c>
       <c r="I20" s="19">
-        <f>RAWDATA!M18</f>
+        <f>RAWDATA!N18</f>
         <v>0</v>
       </c>
       <c r="J20" s="17" t="str">
-        <f>UPPER(Notenliste!Q18)</f>
+        <f>UPPER(Notenliste!R18)</f>
         <v>0</v>
       </c>
       <c r="K20" s="17" t="str">
@@ -7501,10 +7410,10 @@
         <v>0</v>
       </c>
       <c r="N20" s="17" t="str">
-        <f>UPPER(Notenliste!S18)</f>
-        <v>0</v>
-      </c>
-      <c r="O20" s="62"/>
+        <f>UPPER(Notenliste!T18)</f>
+        <v>0</v>
+      </c>
+      <c r="O20" s="60"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" s="17">
@@ -7531,19 +7440,19 @@
         <v>0</v>
       </c>
       <c r="G21" s="18">
-        <f>RAWDATA!K19</f>
+        <f>RAWDATA!L19</f>
         <v>0</v>
       </c>
       <c r="H21" s="19">
-        <f>RAWDATA!L19</f>
+        <f>RAWDATA!M19</f>
         <v>0</v>
       </c>
       <c r="I21" s="19">
-        <f>RAWDATA!M19</f>
+        <f>RAWDATA!N19</f>
         <v>0</v>
       </c>
       <c r="J21" s="17" t="str">
-        <f>UPPER(Notenliste!Q19)</f>
+        <f>UPPER(Notenliste!R19)</f>
         <v>0</v>
       </c>
       <c r="K21" s="17" t="str">
@@ -7559,10 +7468,10 @@
         <v>0</v>
       </c>
       <c r="N21" s="17" t="str">
-        <f>UPPER(Notenliste!S19)</f>
-        <v>0</v>
-      </c>
-      <c r="O21" s="62"/>
+        <f>UPPER(Notenliste!T19)</f>
+        <v>0</v>
+      </c>
+      <c r="O21" s="60"/>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A22" s="17">
@@ -7589,19 +7498,19 @@
         <v>0</v>
       </c>
       <c r="G22" s="18">
-        <f>RAWDATA!K20</f>
+        <f>RAWDATA!L20</f>
         <v>0</v>
       </c>
       <c r="H22" s="19">
-        <f>RAWDATA!L20</f>
+        <f>RAWDATA!M20</f>
         <v>0</v>
       </c>
       <c r="I22" s="19">
-        <f>RAWDATA!M20</f>
+        <f>RAWDATA!N20</f>
         <v>0</v>
       </c>
       <c r="J22" s="17" t="str">
-        <f>UPPER(Notenliste!Q20)</f>
+        <f>UPPER(Notenliste!R20)</f>
         <v>0</v>
       </c>
       <c r="K22" s="17" t="str">
@@ -7617,10 +7526,10 @@
         <v>0</v>
       </c>
       <c r="N22" s="17" t="str">
-        <f>UPPER(Notenliste!S20)</f>
-        <v>0</v>
-      </c>
-      <c r="O22" s="62"/>
+        <f>UPPER(Notenliste!T20)</f>
+        <v>0</v>
+      </c>
+      <c r="O22" s="60"/>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A23" s="17">
@@ -7647,19 +7556,19 @@
         <v>0</v>
       </c>
       <c r="G23" s="18">
-        <f>RAWDATA!K21</f>
+        <f>RAWDATA!L21</f>
         <v>0</v>
       </c>
       <c r="H23" s="19">
-        <f>RAWDATA!L21</f>
+        <f>RAWDATA!M21</f>
         <v>0</v>
       </c>
       <c r="I23" s="19">
-        <f>RAWDATA!M21</f>
+        <f>RAWDATA!N21</f>
         <v>0</v>
       </c>
       <c r="J23" s="17" t="str">
-        <f>UPPER(Notenliste!Q21)</f>
+        <f>UPPER(Notenliste!R21)</f>
         <v>0</v>
       </c>
       <c r="K23" s="17" t="str">
@@ -7675,10 +7584,10 @@
         <v>0</v>
       </c>
       <c r="N23" s="17" t="str">
-        <f>UPPER(Notenliste!S21)</f>
-        <v>0</v>
-      </c>
-      <c r="O23" s="62"/>
+        <f>UPPER(Notenliste!T21)</f>
+        <v>0</v>
+      </c>
+      <c r="O23" s="60"/>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A24" s="17">
@@ -7705,19 +7614,19 @@
         <v>0</v>
       </c>
       <c r="G24" s="18">
-        <f>RAWDATA!K22</f>
+        <f>RAWDATA!L22</f>
         <v>0</v>
       </c>
       <c r="H24" s="19">
-        <f>RAWDATA!L22</f>
+        <f>RAWDATA!M22</f>
         <v>0</v>
       </c>
       <c r="I24" s="19">
-        <f>RAWDATA!M22</f>
+        <f>RAWDATA!N22</f>
         <v>0</v>
       </c>
       <c r="J24" s="17" t="str">
-        <f>UPPER(Notenliste!Q22)</f>
+        <f>UPPER(Notenliste!R22)</f>
         <v>0</v>
       </c>
       <c r="K24" s="17" t="str">
@@ -7733,10 +7642,10 @@
         <v>0</v>
       </c>
       <c r="N24" s="17" t="str">
-        <f>UPPER(Notenliste!S22)</f>
-        <v>0</v>
-      </c>
-      <c r="O24" s="62"/>
+        <f>UPPER(Notenliste!T22)</f>
+        <v>0</v>
+      </c>
+      <c r="O24" s="60"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A25" s="17">
@@ -7763,19 +7672,19 @@
         <v>0</v>
       </c>
       <c r="G25" s="18">
-        <f>RAWDATA!K23</f>
+        <f>RAWDATA!L23</f>
         <v>0</v>
       </c>
       <c r="H25" s="19">
-        <f>RAWDATA!L23</f>
+        <f>RAWDATA!M23</f>
         <v>0</v>
       </c>
       <c r="I25" s="19">
-        <f>RAWDATA!M23</f>
+        <f>RAWDATA!N23</f>
         <v>0</v>
       </c>
       <c r="J25" s="17" t="str">
-        <f>UPPER(Notenliste!Q23)</f>
+        <f>UPPER(Notenliste!R23)</f>
         <v>0</v>
       </c>
       <c r="K25" s="17" t="str">
@@ -7791,10 +7700,10 @@
         <v>0</v>
       </c>
       <c r="N25" s="17" t="str">
-        <f>UPPER(Notenliste!S23)</f>
-        <v>0</v>
-      </c>
-      <c r="O25" s="62"/>
+        <f>UPPER(Notenliste!T23)</f>
+        <v>0</v>
+      </c>
+      <c r="O25" s="60"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A26" s="17">
@@ -7821,19 +7730,19 @@
         <v>0</v>
       </c>
       <c r="G26" s="18">
-        <f>RAWDATA!K24</f>
+        <f>RAWDATA!L24</f>
         <v>0</v>
       </c>
       <c r="H26" s="19">
-        <f>RAWDATA!L24</f>
+        <f>RAWDATA!M24</f>
         <v>0</v>
       </c>
       <c r="I26" s="19">
-        <f>RAWDATA!M24</f>
+        <f>RAWDATA!N24</f>
         <v>0</v>
       </c>
       <c r="J26" s="17" t="str">
-        <f>UPPER(Notenliste!Q24)</f>
+        <f>UPPER(Notenliste!R24)</f>
         <v>0</v>
       </c>
       <c r="K26" s="17" t="str">
@@ -7849,10 +7758,10 @@
         <v>0</v>
       </c>
       <c r="N26" s="17" t="str">
-        <f>UPPER(Notenliste!S24)</f>
-        <v>0</v>
-      </c>
-      <c r="O26" s="62"/>
+        <f>UPPER(Notenliste!T24)</f>
+        <v>0</v>
+      </c>
+      <c r="O26" s="60"/>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A27" s="17">
@@ -7879,19 +7788,19 @@
         <v>0</v>
       </c>
       <c r="G27" s="18">
-        <f>RAWDATA!K25</f>
+        <f>RAWDATA!L25</f>
         <v>0</v>
       </c>
       <c r="H27" s="19">
-        <f>RAWDATA!L25</f>
+        <f>RAWDATA!M25</f>
         <v>0</v>
       </c>
       <c r="I27" s="19">
-        <f>RAWDATA!M25</f>
+        <f>RAWDATA!N25</f>
         <v>0</v>
       </c>
       <c r="J27" s="17" t="str">
-        <f>UPPER(Notenliste!Q25)</f>
+        <f>UPPER(Notenliste!R25)</f>
         <v>0</v>
       </c>
       <c r="K27" s="17" t="str">
@@ -7907,10 +7816,10 @@
         <v>0</v>
       </c>
       <c r="N27" s="17" t="str">
-        <f>UPPER(Notenliste!S25)</f>
-        <v>0</v>
-      </c>
-      <c r="O27" s="62"/>
+        <f>UPPER(Notenliste!T25)</f>
+        <v>0</v>
+      </c>
+      <c r="O27" s="60"/>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A28" s="17">
@@ -7937,19 +7846,19 @@
         <v>0</v>
       </c>
       <c r="G28" s="18">
-        <f>RAWDATA!K26</f>
+        <f>RAWDATA!L26</f>
         <v>0</v>
       </c>
       <c r="H28" s="19">
-        <f>RAWDATA!L26</f>
+        <f>RAWDATA!M26</f>
         <v>0</v>
       </c>
       <c r="I28" s="19">
-        <f>RAWDATA!M26</f>
+        <f>RAWDATA!N26</f>
         <v>0</v>
       </c>
       <c r="J28" s="17" t="str">
-        <f>UPPER(Notenliste!Q26)</f>
+        <f>UPPER(Notenliste!R26)</f>
         <v>0</v>
       </c>
       <c r="K28" s="17" t="str">
@@ -7965,120 +7874,120 @@
         <v>0</v>
       </c>
       <c r="N28" s="17" t="str">
-        <f>UPPER(Notenliste!S26)</f>
-        <v>0</v>
-      </c>
-      <c r="O28" s="62"/>
+        <f>UPPER(Notenliste!T26)</f>
+        <v>0</v>
+      </c>
+      <c r="O28" s="60"/>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A29" s="59"/>
-      <c r="B29" s="60"/>
-      <c r="C29" s="60"/>
-      <c r="D29" s="61"/>
-      <c r="E29" s="61"/>
-      <c r="F29" s="60"/>
-      <c r="G29" s="60"/>
-      <c r="H29" s="61"/>
-      <c r="I29" s="61"/>
-      <c r="J29" s="64">
+      <c r="A29" s="57"/>
+      <c r="B29" s="58"/>
+      <c r="C29" s="58"/>
+      <c r="D29" s="59"/>
+      <c r="E29" s="59"/>
+      <c r="F29" s="58"/>
+      <c r="G29" s="58"/>
+      <c r="H29" s="59"/>
+      <c r="I29" s="59"/>
+      <c r="J29" s="62">
         <f>COUNTIF(J4:J28,"X")</f>
         <v>0</v>
       </c>
-      <c r="K29" s="64">
+      <c r="K29" s="62">
         <f>COUNTIF(K4:K28,"X")</f>
         <v>0</v>
       </c>
-      <c r="L29" s="59"/>
-      <c r="M29" s="59"/>
-      <c r="N29" s="59"/>
-      <c r="O29" s="62"/>
+      <c r="L29" s="57"/>
+      <c r="M29" s="57"/>
+      <c r="N29" s="57"/>
+      <c r="O29" s="60"/>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A30" s="93" t="s">
+      <c r="A30" s="94" t="s">
         <v>43</v>
       </c>
-      <c r="B30" s="93"/>
-      <c r="C30" s="93"/>
-      <c r="D30" s="93"/>
-      <c r="E30" s="93"/>
-      <c r="F30" s="93"/>
-      <c r="G30" s="93"/>
-      <c r="H30" s="93"/>
-      <c r="I30" s="93"/>
-      <c r="J30" s="93"/>
-      <c r="K30" s="93"/>
-      <c r="L30" s="93"/>
-      <c r="M30" s="93"/>
-      <c r="N30" s="93"/>
-      <c r="O30" s="62"/>
+      <c r="B30" s="94"/>
+      <c r="C30" s="94"/>
+      <c r="D30" s="94"/>
+      <c r="E30" s="94"/>
+      <c r="F30" s="94"/>
+      <c r="G30" s="94"/>
+      <c r="H30" s="94"/>
+      <c r="I30" s="94"/>
+      <c r="J30" s="94"/>
+      <c r="K30" s="94"/>
+      <c r="L30" s="94"/>
+      <c r="M30" s="94"/>
+      <c r="N30" s="94"/>
+      <c r="O30" s="60"/>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A31" s="93"/>
-      <c r="B31" s="93"/>
-      <c r="C31" s="93"/>
-      <c r="D31" s="93"/>
-      <c r="E31" s="93"/>
-      <c r="F31" s="93"/>
-      <c r="G31" s="93"/>
-      <c r="H31" s="93"/>
-      <c r="I31" s="93"/>
-      <c r="J31" s="93"/>
-      <c r="K31" s="93"/>
-      <c r="L31" s="93"/>
-      <c r="M31" s="93"/>
-      <c r="N31" s="93"/>
-      <c r="O31" s="62"/>
+      <c r="A31" s="94"/>
+      <c r="B31" s="94"/>
+      <c r="C31" s="94"/>
+      <c r="D31" s="94"/>
+      <c r="E31" s="94"/>
+      <c r="F31" s="94"/>
+      <c r="G31" s="94"/>
+      <c r="H31" s="94"/>
+      <c r="I31" s="94"/>
+      <c r="J31" s="94"/>
+      <c r="K31" s="94"/>
+      <c r="L31" s="94"/>
+      <c r="M31" s="94"/>
+      <c r="N31" s="94"/>
+      <c r="O31" s="60"/>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A32" s="93"/>
-      <c r="B32" s="93"/>
-      <c r="C32" s="93"/>
-      <c r="D32" s="93"/>
-      <c r="E32" s="93"/>
-      <c r="F32" s="93"/>
-      <c r="G32" s="93"/>
-      <c r="H32" s="93"/>
-      <c r="I32" s="93"/>
-      <c r="J32" s="93"/>
-      <c r="K32" s="93"/>
-      <c r="L32" s="93"/>
-      <c r="M32" s="93"/>
-      <c r="N32" s="93"/>
-      <c r="O32" s="62"/>
+      <c r="A32" s="94"/>
+      <c r="B32" s="94"/>
+      <c r="C32" s="94"/>
+      <c r="D32" s="94"/>
+      <c r="E32" s="94"/>
+      <c r="F32" s="94"/>
+      <c r="G32" s="94"/>
+      <c r="H32" s="94"/>
+      <c r="I32" s="94"/>
+      <c r="J32" s="94"/>
+      <c r="K32" s="94"/>
+      <c r="L32" s="94"/>
+      <c r="M32" s="94"/>
+      <c r="N32" s="94"/>
+      <c r="O32" s="60"/>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A33" s="93"/>
-      <c r="B33" s="93"/>
-      <c r="C33" s="93"/>
-      <c r="D33" s="93"/>
-      <c r="E33" s="93"/>
-      <c r="F33" s="93"/>
-      <c r="G33" s="93"/>
-      <c r="H33" s="93"/>
-      <c r="I33" s="93"/>
-      <c r="J33" s="93"/>
-      <c r="K33" s="93"/>
-      <c r="L33" s="93"/>
-      <c r="M33" s="93"/>
-      <c r="N33" s="93"/>
-      <c r="O33" s="62"/>
+      <c r="A33" s="94"/>
+      <c r="B33" s="94"/>
+      <c r="C33" s="94"/>
+      <c r="D33" s="94"/>
+      <c r="E33" s="94"/>
+      <c r="F33" s="94"/>
+      <c r="G33" s="94"/>
+      <c r="H33" s="94"/>
+      <c r="I33" s="94"/>
+      <c r="J33" s="94"/>
+      <c r="K33" s="94"/>
+      <c r="L33" s="94"/>
+      <c r="M33" s="94"/>
+      <c r="N33" s="94"/>
+      <c r="O33" s="60"/>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A34" s="93"/>
-      <c r="B34" s="93"/>
-      <c r="C34" s="93"/>
-      <c r="D34" s="93"/>
-      <c r="E34" s="93"/>
-      <c r="F34" s="93"/>
-      <c r="G34" s="93"/>
-      <c r="H34" s="93"/>
-      <c r="I34" s="93"/>
-      <c r="J34" s="93"/>
-      <c r="K34" s="93"/>
-      <c r="L34" s="93"/>
-      <c r="M34" s="93"/>
-      <c r="N34" s="93"/>
-      <c r="O34" s="62"/>
+      <c r="A34" s="94"/>
+      <c r="B34" s="94"/>
+      <c r="C34" s="94"/>
+      <c r="D34" s="94"/>
+      <c r="E34" s="94"/>
+      <c r="F34" s="94"/>
+      <c r="G34" s="94"/>
+      <c r="H34" s="94"/>
+      <c r="I34" s="94"/>
+      <c r="J34" s="94"/>
+      <c r="K34" s="94"/>
+      <c r="L34" s="94"/>
+      <c r="M34" s="94"/>
+      <c r="N34" s="94"/>
+      <c r="O34" s="60"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1" formatColumns="0" selectLockedCells="1"/>
@@ -8119,117 +8028,117 @@
     <col min="6" max="6" width="0.6640625" style="20" customWidth="1"/>
     <col min="7" max="20" width="4.6640625" style="20" customWidth="1"/>
     <col min="21" max="21" width="0.6640625" style="20" customWidth="1"/>
-    <col min="22" max="22" width="5.6640625" style="52" customWidth="1"/>
-    <col min="23" max="23" width="5.6640625" style="53" customWidth="1"/>
+    <col min="22" max="22" width="5.6640625" style="51" customWidth="1"/>
+    <col min="23" max="23" width="5.6640625" style="52" customWidth="1"/>
     <col min="24" max="24" width="5.6640625" style="37" customWidth="1"/>
     <col min="25" max="31" width="0" hidden="1" customWidth="1"/>
     <col min="32" max="16384" width="11.44140625" hidden="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="97" t="str">
+      <c r="A1" s="98" t="str">
         <f>Notenliste!B34&amp;Notenliste!B35</f>
         <v>course.namecourse.alternative</v>
       </c>
-      <c r="B1" s="97"/>
-      <c r="C1" s="97"/>
-      <c r="D1" s="97"/>
-      <c r="E1" s="97"/>
-      <c r="F1" s="97"/>
-      <c r="G1" s="97"/>
-      <c r="H1" s="97"/>
-      <c r="I1" s="97"/>
-      <c r="J1" s="97"/>
-      <c r="K1" s="97"/>
-      <c r="L1" s="97"/>
-      <c r="M1" s="97"/>
-      <c r="N1" s="97"/>
-      <c r="O1" s="97"/>
-      <c r="P1" s="97"/>
-      <c r="Q1" s="97"/>
-      <c r="R1" s="97"/>
-      <c r="S1" s="97"/>
-      <c r="T1" s="97"/>
-      <c r="U1" s="97"/>
-      <c r="V1" s="97"/>
-      <c r="W1" s="97"/>
-      <c r="X1" s="97"/>
+      <c r="B1" s="98"/>
+      <c r="C1" s="98"/>
+      <c r="D1" s="98"/>
+      <c r="E1" s="98"/>
+      <c r="F1" s="98"/>
+      <c r="G1" s="98"/>
+      <c r="H1" s="98"/>
+      <c r="I1" s="98"/>
+      <c r="J1" s="98"/>
+      <c r="K1" s="98"/>
+      <c r="L1" s="98"/>
+      <c r="M1" s="98"/>
+      <c r="N1" s="98"/>
+      <c r="O1" s="98"/>
+      <c r="P1" s="98"/>
+      <c r="Q1" s="98"/>
+      <c r="R1" s="98"/>
+      <c r="S1" s="98"/>
+      <c r="T1" s="98"/>
+      <c r="U1" s="98"/>
+      <c r="V1" s="98"/>
+      <c r="W1" s="98"/>
+      <c r="X1" s="98"/>
     </row>
     <row r="2" spans="1:24" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="97" t="s">
+      <c r="A2" s="98" t="s">
         <v>41</v>
       </c>
-      <c r="B2" s="97"/>
-      <c r="C2" s="97"/>
-      <c r="D2" s="97"/>
-      <c r="E2" s="97"/>
-      <c r="F2" s="97"/>
-      <c r="G2" s="97"/>
-      <c r="H2" s="97"/>
-      <c r="I2" s="97"/>
-      <c r="J2" s="97"/>
-      <c r="K2" s="97"/>
-      <c r="L2" s="97"/>
-      <c r="M2" s="97"/>
-      <c r="N2" s="97"/>
-      <c r="O2" s="97"/>
-      <c r="P2" s="97"/>
-      <c r="Q2" s="97"/>
-      <c r="R2" s="97"/>
-      <c r="S2" s="97"/>
-      <c r="T2" s="97"/>
-      <c r="U2" s="97"/>
-      <c r="V2" s="97"/>
-      <c r="W2" s="97"/>
-      <c r="X2" s="97"/>
+      <c r="B2" s="98"/>
+      <c r="C2" s="98"/>
+      <c r="D2" s="98"/>
+      <c r="E2" s="98"/>
+      <c r="F2" s="98"/>
+      <c r="G2" s="98"/>
+      <c r="H2" s="98"/>
+      <c r="I2" s="98"/>
+      <c r="J2" s="98"/>
+      <c r="K2" s="98"/>
+      <c r="L2" s="98"/>
+      <c r="M2" s="98"/>
+      <c r="N2" s="98"/>
+      <c r="O2" s="98"/>
+      <c r="P2" s="98"/>
+      <c r="Q2" s="98"/>
+      <c r="R2" s="98"/>
+      <c r="S2" s="98"/>
+      <c r="T2" s="98"/>
+      <c r="U2" s="98"/>
+      <c r="V2" s="98"/>
+      <c r="W2" s="98"/>
+      <c r="X2" s="98"/>
     </row>
     <row r="3" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="98" t="str">
+      <c r="A3" s="99" t="str">
         <f>"Dozent/in: "&amp;Notenliste!B31</f>
         <v>Dozent/in: course.teacher_name</v>
       </c>
-      <c r="B3" s="98"/>
-      <c r="C3" s="98"/>
-      <c r="D3" s="98"/>
-      <c r="E3" s="98"/>
-      <c r="F3" s="43"/>
-      <c r="G3" s="96"/>
-      <c r="H3" s="96"/>
-      <c r="I3" s="96"/>
-      <c r="J3" s="96"/>
-      <c r="K3" s="96"/>
-      <c r="L3" s="96"/>
-      <c r="M3" s="96"/>
-      <c r="N3" s="96"/>
-      <c r="O3" s="96"/>
-      <c r="P3" s="96"/>
-      <c r="Q3" s="96"/>
-      <c r="R3" s="96"/>
-      <c r="S3" s="96"/>
-      <c r="T3" s="96"/>
-      <c r="U3" s="96"/>
-      <c r="V3" s="96"/>
-      <c r="W3" s="96"/>
-      <c r="X3" s="96"/>
+      <c r="B3" s="99"/>
+      <c r="C3" s="99"/>
+      <c r="D3" s="99"/>
+      <c r="E3" s="99"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="97"/>
+      <c r="H3" s="97"/>
+      <c r="I3" s="97"/>
+      <c r="J3" s="97"/>
+      <c r="K3" s="97"/>
+      <c r="L3" s="97"/>
+      <c r="M3" s="97"/>
+      <c r="N3" s="97"/>
+      <c r="O3" s="97"/>
+      <c r="P3" s="97"/>
+      <c r="Q3" s="97"/>
+      <c r="R3" s="97"/>
+      <c r="S3" s="97"/>
+      <c r="T3" s="97"/>
+      <c r="U3" s="97"/>
+      <c r="V3" s="97"/>
+      <c r="W3" s="97"/>
+      <c r="X3" s="97"/>
     </row>
     <row r="4" spans="1:24" s="16" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="94" t="s">
+      <c r="A4" s="95" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="94" t="s">
+      <c r="B4" s="95" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="94" t="s">
+      <c r="C4" s="95" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="94" t="s">
+      <c r="D4" s="95" t="s">
         <v>33</v>
       </c>
-      <c r="E4" s="103" t="s">
+      <c r="E4" s="104" t="s">
         <v>27</v>
       </c>
-      <c r="F4" s="48"/>
-      <c r="G4" s="42"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="41"/>
       <c r="H4" s="14"/>
       <c r="I4" s="14"/>
       <c r="J4" s="14"/>
@@ -8243,25 +8152,25 @@
       <c r="R4" s="14"/>
       <c r="S4" s="14"/>
       <c r="T4" s="14"/>
-      <c r="U4" s="45"/>
-      <c r="V4" s="99" t="s">
+      <c r="U4" s="44"/>
+      <c r="V4" s="100" t="s">
         <v>36</v>
       </c>
-      <c r="W4" s="101" t="s">
+      <c r="W4" s="102" t="s">
         <v>37</v>
       </c>
-      <c r="X4" s="101" t="s">
+      <c r="X4" s="102" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:24" s="16" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A5" s="95"/>
-      <c r="B5" s="95"/>
-      <c r="C5" s="95"/>
-      <c r="D5" s="95"/>
-      <c r="E5" s="104"/>
-      <c r="F5" s="49"/>
-      <c r="G5" s="42">
+      <c r="A5" s="96"/>
+      <c r="B5" s="96"/>
+      <c r="C5" s="96"/>
+      <c r="D5" s="96"/>
+      <c r="E5" s="105"/>
+      <c r="F5" s="48"/>
+      <c r="G5" s="41">
         <v>1</v>
       </c>
       <c r="H5" s="14">
@@ -8303,10 +8212,10 @@
       <c r="T5" s="14">
         <v>14</v>
       </c>
-      <c r="U5" s="44"/>
-      <c r="V5" s="100"/>
-      <c r="W5" s="102"/>
-      <c r="X5" s="102"/>
+      <c r="U5" s="43"/>
+      <c r="V5" s="101"/>
+      <c r="W5" s="103"/>
+      <c r="X5" s="103"/>
     </row>
     <row r="6" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A6" s="17">
@@ -8328,25 +8237,25 @@
         <f>RAWDATA!E2</f>
         <v>applicant.tag</v>
       </c>
-      <c r="F6" s="47"/>
-      <c r="G6" s="50"/>
-      <c r="H6" s="50"/>
-      <c r="I6" s="50"/>
-      <c r="J6" s="50"/>
-      <c r="K6" s="50"/>
-      <c r="L6" s="50"/>
-      <c r="M6" s="50"/>
-      <c r="N6" s="50"/>
-      <c r="O6" s="50"/>
-      <c r="P6" s="50"/>
-      <c r="Q6" s="50"/>
-      <c r="R6" s="50"/>
-      <c r="S6" s="50"/>
-      <c r="T6" s="50"/>
-      <c r="U6" s="47"/>
-      <c r="V6" s="50"/>
-      <c r="W6" s="51"/>
-      <c r="X6" s="51"/>
+      <c r="F6" s="46"/>
+      <c r="G6" s="49"/>
+      <c r="H6" s="49"/>
+      <c r="I6" s="49"/>
+      <c r="J6" s="49"/>
+      <c r="K6" s="49"/>
+      <c r="L6" s="49"/>
+      <c r="M6" s="49"/>
+      <c r="N6" s="49"/>
+      <c r="O6" s="49"/>
+      <c r="P6" s="49"/>
+      <c r="Q6" s="49"/>
+      <c r="R6" s="49"/>
+      <c r="S6" s="49"/>
+      <c r="T6" s="49"/>
+      <c r="U6" s="46"/>
+      <c r="V6" s="49"/>
+      <c r="W6" s="50"/>
+      <c r="X6" s="50"/>
     </row>
     <row r="7" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A7" s="17">
@@ -8368,25 +8277,25 @@
         <f>RAWDATA!E3</f>
         <v>0</v>
       </c>
-      <c r="F7" s="41"/>
-      <c r="G7" s="50"/>
-      <c r="H7" s="50"/>
-      <c r="I7" s="50"/>
-      <c r="J7" s="50"/>
-      <c r="K7" s="50"/>
-      <c r="L7" s="50"/>
-      <c r="M7" s="50"/>
-      <c r="N7" s="50"/>
-      <c r="O7" s="50"/>
-      <c r="P7" s="50"/>
-      <c r="Q7" s="50"/>
-      <c r="R7" s="50"/>
-      <c r="S7" s="50"/>
-      <c r="T7" s="50"/>
-      <c r="U7" s="41"/>
-      <c r="V7" s="50"/>
-      <c r="W7" s="51"/>
-      <c r="X7" s="51"/>
+      <c r="F7" s="40"/>
+      <c r="G7" s="49"/>
+      <c r="H7" s="49"/>
+      <c r="I7" s="49"/>
+      <c r="J7" s="49"/>
+      <c r="K7" s="49"/>
+      <c r="L7" s="49"/>
+      <c r="M7" s="49"/>
+      <c r="N7" s="49"/>
+      <c r="O7" s="49"/>
+      <c r="P7" s="49"/>
+      <c r="Q7" s="49"/>
+      <c r="R7" s="49"/>
+      <c r="S7" s="49"/>
+      <c r="T7" s="49"/>
+      <c r="U7" s="40"/>
+      <c r="V7" s="49"/>
+      <c r="W7" s="50"/>
+      <c r="X7" s="50"/>
     </row>
     <row r="8" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A8" s="17">
@@ -8408,25 +8317,25 @@
         <f>RAWDATA!E4</f>
         <v>0</v>
       </c>
-      <c r="F8" s="41"/>
-      <c r="G8" s="50"/>
-      <c r="H8" s="50"/>
-      <c r="I8" s="50"/>
-      <c r="J8" s="50"/>
-      <c r="K8" s="50"/>
-      <c r="L8" s="50"/>
-      <c r="M8" s="50"/>
-      <c r="N8" s="50"/>
-      <c r="O8" s="50"/>
-      <c r="P8" s="50"/>
-      <c r="Q8" s="50"/>
-      <c r="R8" s="50"/>
-      <c r="S8" s="50"/>
-      <c r="T8" s="50"/>
-      <c r="U8" s="41"/>
-      <c r="V8" s="50"/>
-      <c r="W8" s="51"/>
-      <c r="X8" s="51"/>
+      <c r="F8" s="40"/>
+      <c r="G8" s="49"/>
+      <c r="H8" s="49"/>
+      <c r="I8" s="49"/>
+      <c r="J8" s="49"/>
+      <c r="K8" s="49"/>
+      <c r="L8" s="49"/>
+      <c r="M8" s="49"/>
+      <c r="N8" s="49"/>
+      <c r="O8" s="49"/>
+      <c r="P8" s="49"/>
+      <c r="Q8" s="49"/>
+      <c r="R8" s="49"/>
+      <c r="S8" s="49"/>
+      <c r="T8" s="49"/>
+      <c r="U8" s="40"/>
+      <c r="V8" s="49"/>
+      <c r="W8" s="50"/>
+      <c r="X8" s="50"/>
     </row>
     <row r="9" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A9" s="17">
@@ -8448,25 +8357,25 @@
         <f>RAWDATA!E5</f>
         <v>0</v>
       </c>
-      <c r="F9" s="41"/>
-      <c r="G9" s="50"/>
-      <c r="H9" s="50"/>
-      <c r="I9" s="50"/>
-      <c r="J9" s="50"/>
-      <c r="K9" s="50"/>
-      <c r="L9" s="50"/>
-      <c r="M9" s="50"/>
-      <c r="N9" s="50"/>
-      <c r="O9" s="50"/>
-      <c r="P9" s="50"/>
-      <c r="Q9" s="50"/>
-      <c r="R9" s="50"/>
-      <c r="S9" s="50"/>
-      <c r="T9" s="50"/>
-      <c r="U9" s="41"/>
-      <c r="V9" s="50"/>
-      <c r="W9" s="51"/>
-      <c r="X9" s="51"/>
+      <c r="F9" s="40"/>
+      <c r="G9" s="49"/>
+      <c r="H9" s="49"/>
+      <c r="I9" s="49"/>
+      <c r="J9" s="49"/>
+      <c r="K9" s="49"/>
+      <c r="L9" s="49"/>
+      <c r="M9" s="49"/>
+      <c r="N9" s="49"/>
+      <c r="O9" s="49"/>
+      <c r="P9" s="49"/>
+      <c r="Q9" s="49"/>
+      <c r="R9" s="49"/>
+      <c r="S9" s="49"/>
+      <c r="T9" s="49"/>
+      <c r="U9" s="40"/>
+      <c r="V9" s="49"/>
+      <c r="W9" s="50"/>
+      <c r="X9" s="50"/>
     </row>
     <row r="10" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A10" s="17">
@@ -8488,25 +8397,25 @@
         <f>RAWDATA!E6</f>
         <v>0</v>
       </c>
-      <c r="F10" s="41"/>
-      <c r="G10" s="50"/>
-      <c r="H10" s="50"/>
-      <c r="I10" s="50"/>
-      <c r="J10" s="50"/>
-      <c r="K10" s="50"/>
-      <c r="L10" s="50"/>
-      <c r="M10" s="50"/>
-      <c r="N10" s="50"/>
-      <c r="O10" s="50"/>
-      <c r="P10" s="50"/>
-      <c r="Q10" s="50"/>
-      <c r="R10" s="50"/>
-      <c r="S10" s="50"/>
-      <c r="T10" s="50"/>
-      <c r="U10" s="41"/>
-      <c r="V10" s="50"/>
-      <c r="W10" s="51"/>
-      <c r="X10" s="51"/>
+      <c r="F10" s="40"/>
+      <c r="G10" s="49"/>
+      <c r="H10" s="49"/>
+      <c r="I10" s="49"/>
+      <c r="J10" s="49"/>
+      <c r="K10" s="49"/>
+      <c r="L10" s="49"/>
+      <c r="M10" s="49"/>
+      <c r="N10" s="49"/>
+      <c r="O10" s="49"/>
+      <c r="P10" s="49"/>
+      <c r="Q10" s="49"/>
+      <c r="R10" s="49"/>
+      <c r="S10" s="49"/>
+      <c r="T10" s="49"/>
+      <c r="U10" s="40"/>
+      <c r="V10" s="49"/>
+      <c r="W10" s="50"/>
+      <c r="X10" s="50"/>
     </row>
     <row r="11" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A11" s="17">
@@ -8528,25 +8437,25 @@
         <f>RAWDATA!E7</f>
         <v>0</v>
       </c>
-      <c r="F11" s="41"/>
-      <c r="G11" s="50"/>
-      <c r="H11" s="50"/>
-      <c r="I11" s="50"/>
-      <c r="J11" s="50"/>
-      <c r="K11" s="50"/>
-      <c r="L11" s="50"/>
-      <c r="M11" s="50"/>
-      <c r="N11" s="50"/>
-      <c r="O11" s="50"/>
-      <c r="P11" s="50"/>
-      <c r="Q11" s="50"/>
-      <c r="R11" s="50"/>
-      <c r="S11" s="50"/>
-      <c r="T11" s="50"/>
-      <c r="U11" s="41"/>
-      <c r="V11" s="50"/>
-      <c r="W11" s="51"/>
-      <c r="X11" s="51"/>
+      <c r="F11" s="40"/>
+      <c r="G11" s="49"/>
+      <c r="H11" s="49"/>
+      <c r="I11" s="49"/>
+      <c r="J11" s="49"/>
+      <c r="K11" s="49"/>
+      <c r="L11" s="49"/>
+      <c r="M11" s="49"/>
+      <c r="N11" s="49"/>
+      <c r="O11" s="49"/>
+      <c r="P11" s="49"/>
+      <c r="Q11" s="49"/>
+      <c r="R11" s="49"/>
+      <c r="S11" s="49"/>
+      <c r="T11" s="49"/>
+      <c r="U11" s="40"/>
+      <c r="V11" s="49"/>
+      <c r="W11" s="50"/>
+      <c r="X11" s="50"/>
     </row>
     <row r="12" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A12" s="17">
@@ -8568,25 +8477,25 @@
         <f>RAWDATA!E8</f>
         <v>0</v>
       </c>
-      <c r="F12" s="41"/>
-      <c r="G12" s="50"/>
-      <c r="H12" s="50"/>
-      <c r="I12" s="50"/>
-      <c r="J12" s="50"/>
-      <c r="K12" s="50"/>
-      <c r="L12" s="50"/>
-      <c r="M12" s="50"/>
-      <c r="N12" s="50"/>
-      <c r="O12" s="50"/>
-      <c r="P12" s="50"/>
-      <c r="Q12" s="50"/>
-      <c r="R12" s="50"/>
-      <c r="S12" s="50"/>
-      <c r="T12" s="50"/>
-      <c r="U12" s="41"/>
-      <c r="V12" s="50"/>
-      <c r="W12" s="51"/>
-      <c r="X12" s="51"/>
+      <c r="F12" s="40"/>
+      <c r="G12" s="49"/>
+      <c r="H12" s="49"/>
+      <c r="I12" s="49"/>
+      <c r="J12" s="49"/>
+      <c r="K12" s="49"/>
+      <c r="L12" s="49"/>
+      <c r="M12" s="49"/>
+      <c r="N12" s="49"/>
+      <c r="O12" s="49"/>
+      <c r="P12" s="49"/>
+      <c r="Q12" s="49"/>
+      <c r="R12" s="49"/>
+      <c r="S12" s="49"/>
+      <c r="T12" s="49"/>
+      <c r="U12" s="40"/>
+      <c r="V12" s="49"/>
+      <c r="W12" s="50"/>
+      <c r="X12" s="50"/>
     </row>
     <row r="13" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A13" s="17">
@@ -8608,25 +8517,25 @@
         <f>RAWDATA!E9</f>
         <v>0</v>
       </c>
-      <c r="F13" s="41"/>
-      <c r="G13" s="50"/>
-      <c r="H13" s="50"/>
-      <c r="I13" s="50"/>
-      <c r="J13" s="50"/>
-      <c r="K13" s="50"/>
-      <c r="L13" s="50"/>
-      <c r="M13" s="50"/>
-      <c r="N13" s="50"/>
-      <c r="O13" s="50"/>
-      <c r="P13" s="50"/>
-      <c r="Q13" s="50"/>
-      <c r="R13" s="50"/>
-      <c r="S13" s="50"/>
-      <c r="T13" s="50"/>
-      <c r="U13" s="41"/>
-      <c r="V13" s="50"/>
-      <c r="W13" s="51"/>
-      <c r="X13" s="51"/>
+      <c r="F13" s="40"/>
+      <c r="G13" s="49"/>
+      <c r="H13" s="49"/>
+      <c r="I13" s="49"/>
+      <c r="J13" s="49"/>
+      <c r="K13" s="49"/>
+      <c r="L13" s="49"/>
+      <c r="M13" s="49"/>
+      <c r="N13" s="49"/>
+      <c r="O13" s="49"/>
+      <c r="P13" s="49"/>
+      <c r="Q13" s="49"/>
+      <c r="R13" s="49"/>
+      <c r="S13" s="49"/>
+      <c r="T13" s="49"/>
+      <c r="U13" s="40"/>
+      <c r="V13" s="49"/>
+      <c r="W13" s="50"/>
+      <c r="X13" s="50"/>
     </row>
     <row r="14" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A14" s="17">
@@ -8648,25 +8557,25 @@
         <f>RAWDATA!E10</f>
         <v>0</v>
       </c>
-      <c r="F14" s="41"/>
-      <c r="G14" s="50"/>
-      <c r="H14" s="50"/>
-      <c r="I14" s="50"/>
-      <c r="J14" s="50"/>
-      <c r="K14" s="50"/>
-      <c r="L14" s="50"/>
-      <c r="M14" s="50"/>
-      <c r="N14" s="50"/>
-      <c r="O14" s="50"/>
-      <c r="P14" s="50"/>
-      <c r="Q14" s="50"/>
-      <c r="R14" s="50"/>
-      <c r="S14" s="50"/>
-      <c r="T14" s="50"/>
-      <c r="U14" s="41"/>
-      <c r="V14" s="50"/>
-      <c r="W14" s="51"/>
-      <c r="X14" s="51"/>
+      <c r="F14" s="40"/>
+      <c r="G14" s="49"/>
+      <c r="H14" s="49"/>
+      <c r="I14" s="49"/>
+      <c r="J14" s="49"/>
+      <c r="K14" s="49"/>
+      <c r="L14" s="49"/>
+      <c r="M14" s="49"/>
+      <c r="N14" s="49"/>
+      <c r="O14" s="49"/>
+      <c r="P14" s="49"/>
+      <c r="Q14" s="49"/>
+      <c r="R14" s="49"/>
+      <c r="S14" s="49"/>
+      <c r="T14" s="49"/>
+      <c r="U14" s="40"/>
+      <c r="V14" s="49"/>
+      <c r="W14" s="50"/>
+      <c r="X14" s="50"/>
     </row>
     <row r="15" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A15" s="17">
@@ -8688,25 +8597,25 @@
         <f>RAWDATA!E11</f>
         <v>0</v>
       </c>
-      <c r="F15" s="41"/>
-      <c r="G15" s="50"/>
-      <c r="H15" s="50"/>
-      <c r="I15" s="50"/>
-      <c r="J15" s="50"/>
-      <c r="K15" s="50"/>
-      <c r="L15" s="50"/>
-      <c r="M15" s="50"/>
-      <c r="N15" s="50"/>
-      <c r="O15" s="50"/>
-      <c r="P15" s="50"/>
-      <c r="Q15" s="50"/>
-      <c r="R15" s="50"/>
-      <c r="S15" s="50"/>
-      <c r="T15" s="50"/>
-      <c r="U15" s="41"/>
-      <c r="V15" s="50"/>
-      <c r="W15" s="51"/>
-      <c r="X15" s="51"/>
+      <c r="F15" s="40"/>
+      <c r="G15" s="49"/>
+      <c r="H15" s="49"/>
+      <c r="I15" s="49"/>
+      <c r="J15" s="49"/>
+      <c r="K15" s="49"/>
+      <c r="L15" s="49"/>
+      <c r="M15" s="49"/>
+      <c r="N15" s="49"/>
+      <c r="O15" s="49"/>
+      <c r="P15" s="49"/>
+      <c r="Q15" s="49"/>
+      <c r="R15" s="49"/>
+      <c r="S15" s="49"/>
+      <c r="T15" s="49"/>
+      <c r="U15" s="40"/>
+      <c r="V15" s="49"/>
+      <c r="W15" s="50"/>
+      <c r="X15" s="50"/>
     </row>
     <row r="16" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A16" s="17">
@@ -8728,25 +8637,25 @@
         <f>RAWDATA!E12</f>
         <v>0</v>
       </c>
-      <c r="F16" s="41"/>
-      <c r="G16" s="50"/>
-      <c r="H16" s="50"/>
-      <c r="I16" s="50"/>
-      <c r="J16" s="50"/>
-      <c r="K16" s="50"/>
-      <c r="L16" s="50"/>
-      <c r="M16" s="50"/>
-      <c r="N16" s="50"/>
-      <c r="O16" s="50"/>
-      <c r="P16" s="50"/>
-      <c r="Q16" s="50"/>
-      <c r="R16" s="50"/>
-      <c r="S16" s="50"/>
-      <c r="T16" s="50"/>
-      <c r="U16" s="41"/>
-      <c r="V16" s="50"/>
-      <c r="W16" s="51"/>
-      <c r="X16" s="51"/>
+      <c r="F16" s="40"/>
+      <c r="G16" s="49"/>
+      <c r="H16" s="49"/>
+      <c r="I16" s="49"/>
+      <c r="J16" s="49"/>
+      <c r="K16" s="49"/>
+      <c r="L16" s="49"/>
+      <c r="M16" s="49"/>
+      <c r="N16" s="49"/>
+      <c r="O16" s="49"/>
+      <c r="P16" s="49"/>
+      <c r="Q16" s="49"/>
+      <c r="R16" s="49"/>
+      <c r="S16" s="49"/>
+      <c r="T16" s="49"/>
+      <c r="U16" s="40"/>
+      <c r="V16" s="49"/>
+      <c r="W16" s="50"/>
+      <c r="X16" s="50"/>
     </row>
     <row r="17" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A17" s="17">
@@ -8768,25 +8677,25 @@
         <f>RAWDATA!E13</f>
         <v>0</v>
       </c>
-      <c r="F17" s="41"/>
-      <c r="G17" s="50"/>
-      <c r="H17" s="50"/>
-      <c r="I17" s="50"/>
-      <c r="J17" s="50"/>
-      <c r="K17" s="50"/>
-      <c r="L17" s="50"/>
-      <c r="M17" s="50"/>
-      <c r="N17" s="50"/>
-      <c r="O17" s="50"/>
-      <c r="P17" s="50"/>
-      <c r="Q17" s="50"/>
-      <c r="R17" s="50"/>
-      <c r="S17" s="50"/>
-      <c r="T17" s="50"/>
-      <c r="U17" s="41"/>
-      <c r="V17" s="50"/>
-      <c r="W17" s="51"/>
-      <c r="X17" s="51"/>
+      <c r="F17" s="40"/>
+      <c r="G17" s="49"/>
+      <c r="H17" s="49"/>
+      <c r="I17" s="49"/>
+      <c r="J17" s="49"/>
+      <c r="K17" s="49"/>
+      <c r="L17" s="49"/>
+      <c r="M17" s="49"/>
+      <c r="N17" s="49"/>
+      <c r="O17" s="49"/>
+      <c r="P17" s="49"/>
+      <c r="Q17" s="49"/>
+      <c r="R17" s="49"/>
+      <c r="S17" s="49"/>
+      <c r="T17" s="49"/>
+      <c r="U17" s="40"/>
+      <c r="V17" s="49"/>
+      <c r="W17" s="50"/>
+      <c r="X17" s="50"/>
     </row>
     <row r="18" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A18" s="17">
@@ -8808,25 +8717,25 @@
         <f>RAWDATA!E14</f>
         <v>0</v>
       </c>
-      <c r="F18" s="41"/>
-      <c r="G18" s="50"/>
-      <c r="H18" s="50"/>
-      <c r="I18" s="50"/>
-      <c r="J18" s="50"/>
-      <c r="K18" s="50"/>
-      <c r="L18" s="50"/>
-      <c r="M18" s="50"/>
-      <c r="N18" s="50"/>
-      <c r="O18" s="50"/>
-      <c r="P18" s="50"/>
-      <c r="Q18" s="50"/>
-      <c r="R18" s="50"/>
-      <c r="S18" s="50"/>
-      <c r="T18" s="50"/>
-      <c r="U18" s="41"/>
-      <c r="V18" s="50"/>
-      <c r="W18" s="51"/>
-      <c r="X18" s="51"/>
+      <c r="F18" s="40"/>
+      <c r="G18" s="49"/>
+      <c r="H18" s="49"/>
+      <c r="I18" s="49"/>
+      <c r="J18" s="49"/>
+      <c r="K18" s="49"/>
+      <c r="L18" s="49"/>
+      <c r="M18" s="49"/>
+      <c r="N18" s="49"/>
+      <c r="O18" s="49"/>
+      <c r="P18" s="49"/>
+      <c r="Q18" s="49"/>
+      <c r="R18" s="49"/>
+      <c r="S18" s="49"/>
+      <c r="T18" s="49"/>
+      <c r="U18" s="40"/>
+      <c r="V18" s="49"/>
+      <c r="W18" s="50"/>
+      <c r="X18" s="50"/>
     </row>
     <row r="19" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A19" s="17">
@@ -8848,25 +8757,25 @@
         <f>RAWDATA!E15</f>
         <v>0</v>
       </c>
-      <c r="F19" s="41"/>
-      <c r="G19" s="50"/>
-      <c r="H19" s="50"/>
-      <c r="I19" s="50"/>
-      <c r="J19" s="50"/>
-      <c r="K19" s="50"/>
-      <c r="L19" s="50"/>
-      <c r="M19" s="50"/>
-      <c r="N19" s="50"/>
-      <c r="O19" s="50"/>
-      <c r="P19" s="50"/>
-      <c r="Q19" s="50"/>
-      <c r="R19" s="50"/>
-      <c r="S19" s="50"/>
-      <c r="T19" s="50"/>
-      <c r="U19" s="41"/>
-      <c r="V19" s="50"/>
-      <c r="W19" s="51"/>
-      <c r="X19" s="51"/>
+      <c r="F19" s="40"/>
+      <c r="G19" s="49"/>
+      <c r="H19" s="49"/>
+      <c r="I19" s="49"/>
+      <c r="J19" s="49"/>
+      <c r="K19" s="49"/>
+      <c r="L19" s="49"/>
+      <c r="M19" s="49"/>
+      <c r="N19" s="49"/>
+      <c r="O19" s="49"/>
+      <c r="P19" s="49"/>
+      <c r="Q19" s="49"/>
+      <c r="R19" s="49"/>
+      <c r="S19" s="49"/>
+      <c r="T19" s="49"/>
+      <c r="U19" s="40"/>
+      <c r="V19" s="49"/>
+      <c r="W19" s="50"/>
+      <c r="X19" s="50"/>
     </row>
     <row r="20" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A20" s="17">
@@ -8888,25 +8797,25 @@
         <f>RAWDATA!E16</f>
         <v>0</v>
       </c>
-      <c r="F20" s="41"/>
-      <c r="G20" s="50"/>
-      <c r="H20" s="50"/>
-      <c r="I20" s="50"/>
-      <c r="J20" s="50"/>
-      <c r="K20" s="50"/>
-      <c r="L20" s="50"/>
-      <c r="M20" s="50"/>
-      <c r="N20" s="50"/>
-      <c r="O20" s="50"/>
-      <c r="P20" s="50"/>
-      <c r="Q20" s="50"/>
-      <c r="R20" s="50"/>
-      <c r="S20" s="50"/>
-      <c r="T20" s="50"/>
-      <c r="U20" s="41"/>
-      <c r="V20" s="50"/>
-      <c r="W20" s="51"/>
-      <c r="X20" s="51"/>
+      <c r="F20" s="40"/>
+      <c r="G20" s="49"/>
+      <c r="H20" s="49"/>
+      <c r="I20" s="49"/>
+      <c r="J20" s="49"/>
+      <c r="K20" s="49"/>
+      <c r="L20" s="49"/>
+      <c r="M20" s="49"/>
+      <c r="N20" s="49"/>
+      <c r="O20" s="49"/>
+      <c r="P20" s="49"/>
+      <c r="Q20" s="49"/>
+      <c r="R20" s="49"/>
+      <c r="S20" s="49"/>
+      <c r="T20" s="49"/>
+      <c r="U20" s="40"/>
+      <c r="V20" s="49"/>
+      <c r="W20" s="50"/>
+      <c r="X20" s="50"/>
     </row>
     <row r="21" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A21" s="17">
@@ -8928,25 +8837,25 @@
         <f>RAWDATA!E17</f>
         <v>0</v>
       </c>
-      <c r="F21" s="41"/>
-      <c r="G21" s="50"/>
-      <c r="H21" s="50"/>
-      <c r="I21" s="50"/>
-      <c r="J21" s="50"/>
-      <c r="K21" s="50"/>
-      <c r="L21" s="50"/>
-      <c r="M21" s="50"/>
-      <c r="N21" s="50"/>
-      <c r="O21" s="50"/>
-      <c r="P21" s="50"/>
-      <c r="Q21" s="50"/>
-      <c r="R21" s="50"/>
-      <c r="S21" s="50"/>
-      <c r="T21" s="50"/>
-      <c r="U21" s="41"/>
-      <c r="V21" s="50"/>
-      <c r="W21" s="51"/>
-      <c r="X21" s="51"/>
+      <c r="F21" s="40"/>
+      <c r="G21" s="49"/>
+      <c r="H21" s="49"/>
+      <c r="I21" s="49"/>
+      <c r="J21" s="49"/>
+      <c r="K21" s="49"/>
+      <c r="L21" s="49"/>
+      <c r="M21" s="49"/>
+      <c r="N21" s="49"/>
+      <c r="O21" s="49"/>
+      <c r="P21" s="49"/>
+      <c r="Q21" s="49"/>
+      <c r="R21" s="49"/>
+      <c r="S21" s="49"/>
+      <c r="T21" s="49"/>
+      <c r="U21" s="40"/>
+      <c r="V21" s="49"/>
+      <c r="W21" s="50"/>
+      <c r="X21" s="50"/>
     </row>
     <row r="22" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A22" s="17">
@@ -8968,25 +8877,25 @@
         <f>RAWDATA!E18</f>
         <v>0</v>
       </c>
-      <c r="F22" s="41"/>
-      <c r="G22" s="50"/>
-      <c r="H22" s="50"/>
-      <c r="I22" s="50"/>
-      <c r="J22" s="50"/>
-      <c r="K22" s="50"/>
-      <c r="L22" s="50"/>
-      <c r="M22" s="50"/>
-      <c r="N22" s="50"/>
-      <c r="O22" s="50"/>
-      <c r="P22" s="50"/>
-      <c r="Q22" s="50"/>
-      <c r="R22" s="50"/>
-      <c r="S22" s="50"/>
-      <c r="T22" s="50"/>
-      <c r="U22" s="41"/>
-      <c r="V22" s="50"/>
-      <c r="W22" s="51"/>
-      <c r="X22" s="51"/>
+      <c r="F22" s="40"/>
+      <c r="G22" s="49"/>
+      <c r="H22" s="49"/>
+      <c r="I22" s="49"/>
+      <c r="J22" s="49"/>
+      <c r="K22" s="49"/>
+      <c r="L22" s="49"/>
+      <c r="M22" s="49"/>
+      <c r="N22" s="49"/>
+      <c r="O22" s="49"/>
+      <c r="P22" s="49"/>
+      <c r="Q22" s="49"/>
+      <c r="R22" s="49"/>
+      <c r="S22" s="49"/>
+      <c r="T22" s="49"/>
+      <c r="U22" s="40"/>
+      <c r="V22" s="49"/>
+      <c r="W22" s="50"/>
+      <c r="X22" s="50"/>
     </row>
     <row r="23" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A23" s="17">
@@ -9008,25 +8917,25 @@
         <f>RAWDATA!E19</f>
         <v>0</v>
       </c>
-      <c r="F23" s="41"/>
-      <c r="G23" s="50"/>
-      <c r="H23" s="50"/>
-      <c r="I23" s="50"/>
-      <c r="J23" s="50"/>
-      <c r="K23" s="50"/>
-      <c r="L23" s="50"/>
-      <c r="M23" s="50"/>
-      <c r="N23" s="50"/>
-      <c r="O23" s="50"/>
-      <c r="P23" s="50"/>
-      <c r="Q23" s="50"/>
-      <c r="R23" s="50"/>
-      <c r="S23" s="50"/>
-      <c r="T23" s="50"/>
-      <c r="U23" s="41"/>
-      <c r="V23" s="50"/>
-      <c r="W23" s="51"/>
-      <c r="X23" s="51"/>
+      <c r="F23" s="40"/>
+      <c r="G23" s="49"/>
+      <c r="H23" s="49"/>
+      <c r="I23" s="49"/>
+      <c r="J23" s="49"/>
+      <c r="K23" s="49"/>
+      <c r="L23" s="49"/>
+      <c r="M23" s="49"/>
+      <c r="N23" s="49"/>
+      <c r="O23" s="49"/>
+      <c r="P23" s="49"/>
+      <c r="Q23" s="49"/>
+      <c r="R23" s="49"/>
+      <c r="S23" s="49"/>
+      <c r="T23" s="49"/>
+      <c r="U23" s="40"/>
+      <c r="V23" s="49"/>
+      <c r="W23" s="50"/>
+      <c r="X23" s="50"/>
     </row>
     <row r="24" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A24" s="17">
@@ -9048,25 +8957,25 @@
         <f>RAWDATA!E20</f>
         <v>0</v>
       </c>
-      <c r="F24" s="41"/>
-      <c r="G24" s="50"/>
-      <c r="H24" s="50"/>
-      <c r="I24" s="50"/>
-      <c r="J24" s="50"/>
-      <c r="K24" s="50"/>
-      <c r="L24" s="50"/>
-      <c r="M24" s="50"/>
-      <c r="N24" s="50"/>
-      <c r="O24" s="50"/>
-      <c r="P24" s="50"/>
-      <c r="Q24" s="50"/>
-      <c r="R24" s="50"/>
-      <c r="S24" s="50"/>
-      <c r="T24" s="50"/>
-      <c r="U24" s="41"/>
-      <c r="V24" s="50"/>
-      <c r="W24" s="51"/>
-      <c r="X24" s="51"/>
+      <c r="F24" s="40"/>
+      <c r="G24" s="49"/>
+      <c r="H24" s="49"/>
+      <c r="I24" s="49"/>
+      <c r="J24" s="49"/>
+      <c r="K24" s="49"/>
+      <c r="L24" s="49"/>
+      <c r="M24" s="49"/>
+      <c r="N24" s="49"/>
+      <c r="O24" s="49"/>
+      <c r="P24" s="49"/>
+      <c r="Q24" s="49"/>
+      <c r="R24" s="49"/>
+      <c r="S24" s="49"/>
+      <c r="T24" s="49"/>
+      <c r="U24" s="40"/>
+      <c r="V24" s="49"/>
+      <c r="W24" s="50"/>
+      <c r="X24" s="50"/>
     </row>
     <row r="25" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A25" s="17">
@@ -9088,25 +8997,25 @@
         <f>RAWDATA!E21</f>
         <v>0</v>
       </c>
-      <c r="F25" s="41"/>
-      <c r="G25" s="50"/>
-      <c r="H25" s="50"/>
-      <c r="I25" s="50"/>
-      <c r="J25" s="50"/>
-      <c r="K25" s="50"/>
-      <c r="L25" s="50"/>
-      <c r="M25" s="50"/>
-      <c r="N25" s="50"/>
-      <c r="O25" s="50"/>
-      <c r="P25" s="50"/>
-      <c r="Q25" s="50"/>
-      <c r="R25" s="50"/>
-      <c r="S25" s="50"/>
-      <c r="T25" s="50"/>
-      <c r="U25" s="41"/>
-      <c r="V25" s="50"/>
-      <c r="W25" s="51"/>
-      <c r="X25" s="51"/>
+      <c r="F25" s="40"/>
+      <c r="G25" s="49"/>
+      <c r="H25" s="49"/>
+      <c r="I25" s="49"/>
+      <c r="J25" s="49"/>
+      <c r="K25" s="49"/>
+      <c r="L25" s="49"/>
+      <c r="M25" s="49"/>
+      <c r="N25" s="49"/>
+      <c r="O25" s="49"/>
+      <c r="P25" s="49"/>
+      <c r="Q25" s="49"/>
+      <c r="R25" s="49"/>
+      <c r="S25" s="49"/>
+      <c r="T25" s="49"/>
+      <c r="U25" s="40"/>
+      <c r="V25" s="49"/>
+      <c r="W25" s="50"/>
+      <c r="X25" s="50"/>
     </row>
     <row r="26" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A26" s="17">
@@ -9128,25 +9037,25 @@
         <f>RAWDATA!E22</f>
         <v>0</v>
       </c>
-      <c r="F26" s="41"/>
-      <c r="G26" s="50"/>
-      <c r="H26" s="50"/>
-      <c r="I26" s="50"/>
-      <c r="J26" s="50"/>
-      <c r="K26" s="50"/>
-      <c r="L26" s="50"/>
-      <c r="M26" s="50"/>
-      <c r="N26" s="50"/>
-      <c r="O26" s="50"/>
-      <c r="P26" s="50"/>
-      <c r="Q26" s="50"/>
-      <c r="R26" s="50"/>
-      <c r="S26" s="50"/>
-      <c r="T26" s="50"/>
-      <c r="U26" s="41"/>
-      <c r="V26" s="50"/>
-      <c r="W26" s="51"/>
-      <c r="X26" s="51"/>
+      <c r="F26" s="40"/>
+      <c r="G26" s="49"/>
+      <c r="H26" s="49"/>
+      <c r="I26" s="49"/>
+      <c r="J26" s="49"/>
+      <c r="K26" s="49"/>
+      <c r="L26" s="49"/>
+      <c r="M26" s="49"/>
+      <c r="N26" s="49"/>
+      <c r="O26" s="49"/>
+      <c r="P26" s="49"/>
+      <c r="Q26" s="49"/>
+      <c r="R26" s="49"/>
+      <c r="S26" s="49"/>
+      <c r="T26" s="49"/>
+      <c r="U26" s="40"/>
+      <c r="V26" s="49"/>
+      <c r="W26" s="50"/>
+      <c r="X26" s="50"/>
     </row>
     <row r="27" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A27" s="17">
@@ -9168,25 +9077,25 @@
         <f>RAWDATA!E23</f>
         <v>0</v>
       </c>
-      <c r="F27" s="41"/>
-      <c r="G27" s="50"/>
-      <c r="H27" s="50"/>
-      <c r="I27" s="50"/>
-      <c r="J27" s="50"/>
-      <c r="K27" s="50"/>
-      <c r="L27" s="50"/>
-      <c r="M27" s="50"/>
-      <c r="N27" s="50"/>
-      <c r="O27" s="50"/>
-      <c r="P27" s="50"/>
-      <c r="Q27" s="50"/>
-      <c r="R27" s="50"/>
-      <c r="S27" s="50"/>
-      <c r="T27" s="50"/>
-      <c r="U27" s="41"/>
-      <c r="V27" s="50"/>
-      <c r="W27" s="51"/>
-      <c r="X27" s="51"/>
+      <c r="F27" s="40"/>
+      <c r="G27" s="49"/>
+      <c r="H27" s="49"/>
+      <c r="I27" s="49"/>
+      <c r="J27" s="49"/>
+      <c r="K27" s="49"/>
+      <c r="L27" s="49"/>
+      <c r="M27" s="49"/>
+      <c r="N27" s="49"/>
+      <c r="O27" s="49"/>
+      <c r="P27" s="49"/>
+      <c r="Q27" s="49"/>
+      <c r="R27" s="49"/>
+      <c r="S27" s="49"/>
+      <c r="T27" s="49"/>
+      <c r="U27" s="40"/>
+      <c r="V27" s="49"/>
+      <c r="W27" s="50"/>
+      <c r="X27" s="50"/>
     </row>
     <row r="28" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A28" s="17">
@@ -9208,25 +9117,25 @@
         <f>RAWDATA!E24</f>
         <v>0</v>
       </c>
-      <c r="F28" s="41"/>
-      <c r="G28" s="50"/>
-      <c r="H28" s="50"/>
-      <c r="I28" s="50"/>
-      <c r="J28" s="50"/>
-      <c r="K28" s="50"/>
-      <c r="L28" s="50"/>
-      <c r="M28" s="50"/>
-      <c r="N28" s="50"/>
-      <c r="O28" s="50"/>
-      <c r="P28" s="50"/>
-      <c r="Q28" s="50"/>
-      <c r="R28" s="50"/>
-      <c r="S28" s="50"/>
-      <c r="T28" s="50"/>
-      <c r="U28" s="41"/>
-      <c r="V28" s="50"/>
-      <c r="W28" s="51"/>
-      <c r="X28" s="51"/>
+      <c r="F28" s="40"/>
+      <c r="G28" s="49"/>
+      <c r="H28" s="49"/>
+      <c r="I28" s="49"/>
+      <c r="J28" s="49"/>
+      <c r="K28" s="49"/>
+      <c r="L28" s="49"/>
+      <c r="M28" s="49"/>
+      <c r="N28" s="49"/>
+      <c r="O28" s="49"/>
+      <c r="P28" s="49"/>
+      <c r="Q28" s="49"/>
+      <c r="R28" s="49"/>
+      <c r="S28" s="49"/>
+      <c r="T28" s="49"/>
+      <c r="U28" s="40"/>
+      <c r="V28" s="49"/>
+      <c r="W28" s="50"/>
+      <c r="X28" s="50"/>
     </row>
     <row r="29" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A29" s="17">
@@ -9248,25 +9157,25 @@
         <f>RAWDATA!E25</f>
         <v>0</v>
       </c>
-      <c r="F29" s="41"/>
-      <c r="G29" s="50"/>
-      <c r="H29" s="50"/>
-      <c r="I29" s="50"/>
-      <c r="J29" s="50"/>
-      <c r="K29" s="50"/>
-      <c r="L29" s="50"/>
-      <c r="M29" s="50"/>
-      <c r="N29" s="50"/>
-      <c r="O29" s="50"/>
-      <c r="P29" s="50"/>
-      <c r="Q29" s="50"/>
-      <c r="R29" s="50"/>
-      <c r="S29" s="50"/>
-      <c r="T29" s="50"/>
-      <c r="U29" s="41"/>
-      <c r="V29" s="50"/>
-      <c r="W29" s="51"/>
-      <c r="X29" s="51"/>
+      <c r="F29" s="40"/>
+      <c r="G29" s="49"/>
+      <c r="H29" s="49"/>
+      <c r="I29" s="49"/>
+      <c r="J29" s="49"/>
+      <c r="K29" s="49"/>
+      <c r="L29" s="49"/>
+      <c r="M29" s="49"/>
+      <c r="N29" s="49"/>
+      <c r="O29" s="49"/>
+      <c r="P29" s="49"/>
+      <c r="Q29" s="49"/>
+      <c r="R29" s="49"/>
+      <c r="S29" s="49"/>
+      <c r="T29" s="49"/>
+      <c r="U29" s="40"/>
+      <c r="V29" s="49"/>
+      <c r="W29" s="50"/>
+      <c r="X29" s="50"/>
     </row>
     <row r="30" spans="1:24" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A30" s="17">
@@ -9288,25 +9197,25 @@
         <f>RAWDATA!E26</f>
         <v>0</v>
       </c>
-      <c r="F30" s="46"/>
-      <c r="G30" s="50"/>
-      <c r="H30" s="50"/>
-      <c r="I30" s="50"/>
-      <c r="J30" s="50"/>
-      <c r="K30" s="50"/>
-      <c r="L30" s="50"/>
-      <c r="M30" s="50"/>
-      <c r="N30" s="50"/>
-      <c r="O30" s="50"/>
-      <c r="P30" s="50"/>
-      <c r="Q30" s="50"/>
-      <c r="R30" s="50"/>
-      <c r="S30" s="50"/>
-      <c r="T30" s="50"/>
-      <c r="U30" s="46"/>
-      <c r="V30" s="50"/>
-      <c r="W30" s="51"/>
-      <c r="X30" s="51"/>
+      <c r="F30" s="45"/>
+      <c r="G30" s="49"/>
+      <c r="H30" s="49"/>
+      <c r="I30" s="49"/>
+      <c r="J30" s="49"/>
+      <c r="K30" s="49"/>
+      <c r="L30" s="49"/>
+      <c r="M30" s="49"/>
+      <c r="N30" s="49"/>
+      <c r="O30" s="49"/>
+      <c r="P30" s="49"/>
+      <c r="Q30" s="49"/>
+      <c r="R30" s="49"/>
+      <c r="S30" s="49"/>
+      <c r="T30" s="49"/>
+      <c r="U30" s="45"/>
+      <c r="V30" s="49"/>
+      <c r="W30" s="50"/>
+      <c r="X30" s="50"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1" formatColumns="0" selectLockedCells="1"/>
@@ -9347,8 +9256,8 @@
   <cols>
     <col min="1" max="1" width="18" style="13" customWidth="1"/>
     <col min="2" max="2" width="12.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.44140625" style="66" customWidth="1"/>
-    <col min="5" max="5" width="18.109375" style="65" customWidth="1"/>
+    <col min="4" max="4" width="15.44140625" style="64" customWidth="1"/>
+    <col min="5" max="5" width="18.109375" style="63" customWidth="1"/>
     <col min="6" max="7" width="19.6640625" customWidth="1"/>
     <col min="8" max="8" width="46.44140625" customWidth="1"/>
   </cols>
@@ -9363,10 +9272,10 @@
       <c r="C1" t="s">
         <v>48</v>
       </c>
-      <c r="D1" s="67" t="s">
+      <c r="D1" s="65" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="65" t="s">
+      <c r="E1" s="63" t="s">
         <v>49</v>
       </c>
       <c r="F1" t="s">
@@ -9385,14 +9294,14 @@
         <v>applicant.tag</v>
       </c>
       <c r="C2" t="str">
-        <f>IF(Notenliste!D2&lt;&gt;0,IF(Notenliste!P2&lt;&gt;0,Notenliste!P2,Notenliste!$B$33)," ")</f>
+        <f>IF(Notenliste!D2&lt;&gt;0,IF(Notenliste!Q2&lt;&gt;0,Notenliste!Q2,Notenliste!$B$33)," ")</f>
         <v>attendance.ects_points</v>
       </c>
-      <c r="D2" s="69" t="e">
+      <c r="D2" s="67" t="e">
         <f>IF(Notenliste!D2=0," ",IF(Notenliste!F2="KP"," ",IF(Notenliste!F2="NB","nicht bestanden",Notenliste!F2)))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="E2" s="65" t="str">
+      <c r="E2" s="63" t="str">
         <f>IF(Notenliste!D2&lt;&gt;0,Notenliste!$B$37," ")</f>
         <v>exam_date</v>
       </c>
@@ -9403,14 +9312,14 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="C3" t="str">
-        <f>IF(Notenliste!D3&lt;&gt;0,IF(Notenliste!P3&lt;&gt;0,Notenliste!P3,Notenliste!$B$33)," ")</f>
+        <f>IF(Notenliste!D3&lt;&gt;0,IF(Notenliste!Q3&lt;&gt;0,Notenliste!Q3,Notenliste!$B$33)," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="D3" s="69" t="str">
+      <c r="D3" s="67" t="str">
         <f>IF(Notenliste!D3=0," ",IF(Notenliste!F3="KP"," ",IF(Notenliste!F3="NB","nicht bestanden",Notenliste!F3)))</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E3" s="65" t="str">
+      <c r="E3" s="63" t="str">
         <f>IF(Notenliste!D3&lt;&gt;0,Notenliste!$B$37," ")</f>
         <v xml:space="preserve"> </v>
       </c>
@@ -9421,14 +9330,14 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="C4" t="str">
-        <f>IF(Notenliste!D4&lt;&gt;0,IF(Notenliste!P4&lt;&gt;0,Notenliste!P4,Notenliste!$B$33)," ")</f>
+        <f>IF(Notenliste!D4&lt;&gt;0,IF(Notenliste!Q4&lt;&gt;0,Notenliste!Q4,Notenliste!$B$33)," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="D4" s="69" t="str">
+      <c r="D4" s="67" t="str">
         <f>IF(Notenliste!D4=0," ",IF(Notenliste!F4="KP"," ",IF(Notenliste!F4="NB","nicht bestanden",Notenliste!F4)))</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E4" s="65" t="str">
+      <c r="E4" s="63" t="str">
         <f>IF(Notenliste!D4&lt;&gt;0,Notenliste!$B$37," ")</f>
         <v xml:space="preserve"> </v>
       </c>
@@ -9439,14 +9348,14 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="C5" t="str">
-        <f>IF(Notenliste!D5&lt;&gt;0,IF(Notenliste!P5&lt;&gt;0,Notenliste!P5,Notenliste!$B$33)," ")</f>
+        <f>IF(Notenliste!D5&lt;&gt;0,IF(Notenliste!Q5&lt;&gt;0,Notenliste!Q5,Notenliste!$B$33)," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="D5" s="69" t="str">
+      <c r="D5" s="67" t="str">
         <f>IF(Notenliste!D5=0," ",IF(Notenliste!F5="KP"," ",IF(Notenliste!F5="NB","nicht bestanden",Notenliste!F5)))</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E5" s="65" t="str">
+      <c r="E5" s="63" t="str">
         <f>IF(Notenliste!D5&lt;&gt;0,Notenliste!$B$37," ")</f>
         <v xml:space="preserve"> </v>
       </c>
@@ -9457,14 +9366,14 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="C6" t="str">
-        <f>IF(Notenliste!D6&lt;&gt;0,IF(Notenliste!P6&lt;&gt;0,Notenliste!P6,Notenliste!$B$33)," ")</f>
+        <f>IF(Notenliste!D6&lt;&gt;0,IF(Notenliste!Q6&lt;&gt;0,Notenliste!Q6,Notenliste!$B$33)," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="D6" s="69" t="str">
+      <c r="D6" s="67" t="str">
         <f>IF(Notenliste!D6=0," ",IF(Notenliste!F6="KP"," ",IF(Notenliste!F6="NB","nicht bestanden",Notenliste!F6)))</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E6" s="65" t="str">
+      <c r="E6" s="63" t="str">
         <f>IF(Notenliste!D6&lt;&gt;0,Notenliste!$B$37," ")</f>
         <v xml:space="preserve"> </v>
       </c>
@@ -9475,14 +9384,14 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="C7" t="str">
-        <f>IF(Notenliste!D7&lt;&gt;0,IF(Notenliste!P7&lt;&gt;0,Notenliste!P7,Notenliste!$B$33)," ")</f>
+        <f>IF(Notenliste!D7&lt;&gt;0,IF(Notenliste!Q7&lt;&gt;0,Notenliste!Q7,Notenliste!$B$33)," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="D7" s="69" t="str">
+      <c r="D7" s="67" t="str">
         <f>IF(Notenliste!D7=0," ",IF(Notenliste!F7="KP"," ",IF(Notenliste!F7="NB","nicht bestanden",Notenliste!F7)))</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E7" s="65" t="str">
+      <c r="E7" s="63" t="str">
         <f>IF(Notenliste!D7&lt;&gt;0,Notenliste!$B$37," ")</f>
         <v xml:space="preserve"> </v>
       </c>
@@ -9493,14 +9402,14 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="C8" t="str">
-        <f>IF(Notenliste!D8&lt;&gt;0,IF(Notenliste!P8&lt;&gt;0,Notenliste!P8,Notenliste!$B$33)," ")</f>
+        <f>IF(Notenliste!D8&lt;&gt;0,IF(Notenliste!Q8&lt;&gt;0,Notenliste!Q8,Notenliste!$B$33)," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="D8" s="69" t="str">
+      <c r="D8" s="67" t="str">
         <f>IF(Notenliste!D8=0," ",IF(Notenliste!F8="KP"," ",IF(Notenliste!F8="NB","nicht bestanden",Notenliste!F8)))</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E8" s="65" t="str">
+      <c r="E8" s="63" t="str">
         <f>IF(Notenliste!D8&lt;&gt;0,Notenliste!$B$37," ")</f>
         <v xml:space="preserve"> </v>
       </c>
@@ -9511,14 +9420,14 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="C9" t="str">
-        <f>IF(Notenliste!D9&lt;&gt;0,IF(Notenliste!P9&lt;&gt;0,Notenliste!P9,Notenliste!$B$33)," ")</f>
+        <f>IF(Notenliste!D9&lt;&gt;0,IF(Notenliste!Q9&lt;&gt;0,Notenliste!Q9,Notenliste!$B$33)," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="D9" s="69" t="str">
+      <c r="D9" s="67" t="str">
         <f>IF(Notenliste!D9=0," ",IF(Notenliste!F9="KP"," ",IF(Notenliste!F9="NB","nicht bestanden",Notenliste!F9)))</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E9" s="65" t="str">
+      <c r="E9" s="63" t="str">
         <f>IF(Notenliste!D9&lt;&gt;0,Notenliste!$B$37," ")</f>
         <v xml:space="preserve"> </v>
       </c>
@@ -9529,14 +9438,14 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="C10" t="str">
-        <f>IF(Notenliste!D10&lt;&gt;0,IF(Notenliste!P10&lt;&gt;0,Notenliste!P10,Notenliste!$B$33)," ")</f>
+        <f>IF(Notenliste!D10&lt;&gt;0,IF(Notenliste!Q10&lt;&gt;0,Notenliste!Q10,Notenliste!$B$33)," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="D10" s="69" t="str">
+      <c r="D10" s="67" t="str">
         <f>IF(Notenliste!D10=0," ",IF(Notenliste!F10="KP"," ",IF(Notenliste!F10="NB","nicht bestanden",Notenliste!F10)))</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E10" s="65" t="str">
+      <c r="E10" s="63" t="str">
         <f>IF(Notenliste!D10&lt;&gt;0,Notenliste!$B$37," ")</f>
         <v xml:space="preserve"> </v>
       </c>
@@ -9547,14 +9456,14 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="C11" t="str">
-        <f>IF(Notenliste!D11&lt;&gt;0,IF(Notenliste!P11&lt;&gt;0,Notenliste!P11,Notenliste!$B$33)," ")</f>
+        <f>IF(Notenliste!D11&lt;&gt;0,IF(Notenliste!Q11&lt;&gt;0,Notenliste!Q11,Notenliste!$B$33)," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="D11" s="69" t="str">
+      <c r="D11" s="67" t="str">
         <f>IF(Notenliste!D11=0," ",IF(Notenliste!F11="KP"," ",IF(Notenliste!F11="NB","nicht bestanden",Notenliste!F11)))</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E11" s="65" t="str">
+      <c r="E11" s="63" t="str">
         <f>IF(Notenliste!D11&lt;&gt;0,Notenliste!$B$37," ")</f>
         <v xml:space="preserve"> </v>
       </c>
@@ -9565,14 +9474,14 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="C12" t="str">
-        <f>IF(Notenliste!D12&lt;&gt;0,IF(Notenliste!P12&lt;&gt;0,Notenliste!P12,Notenliste!$B$33)," ")</f>
+        <f>IF(Notenliste!D12&lt;&gt;0,IF(Notenliste!Q12&lt;&gt;0,Notenliste!Q12,Notenliste!$B$33)," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="D12" s="69" t="str">
+      <c r="D12" s="67" t="str">
         <f>IF(Notenliste!D12=0," ",IF(Notenliste!F12="KP"," ",IF(Notenliste!F12="NB","nicht bestanden",Notenliste!F12)))</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E12" s="65" t="str">
+      <c r="E12" s="63" t="str">
         <f>IF(Notenliste!D12&lt;&gt;0,Notenliste!$B$37," ")</f>
         <v xml:space="preserve"> </v>
       </c>
@@ -9583,14 +9492,14 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="C13" t="str">
-        <f>IF(Notenliste!D13&lt;&gt;0,IF(Notenliste!P13&lt;&gt;0,Notenliste!P13,Notenliste!$B$33)," ")</f>
+        <f>IF(Notenliste!D13&lt;&gt;0,IF(Notenliste!Q13&lt;&gt;0,Notenliste!Q13,Notenliste!$B$33)," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="D13" s="69" t="str">
+      <c r="D13" s="67" t="str">
         <f>IF(Notenliste!D13=0," ",IF(Notenliste!F13="KP"," ",IF(Notenliste!F13="NB","nicht bestanden",Notenliste!F13)))</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E13" s="65" t="str">
+      <c r="E13" s="63" t="str">
         <f>IF(Notenliste!D13&lt;&gt;0,Notenliste!$B$37," ")</f>
         <v xml:space="preserve"> </v>
       </c>
@@ -9601,14 +9510,14 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="C14" t="str">
-        <f>IF(Notenliste!D14&lt;&gt;0,IF(Notenliste!P14&lt;&gt;0,Notenliste!P14,Notenliste!$B$33)," ")</f>
+        <f>IF(Notenliste!D14&lt;&gt;0,IF(Notenliste!Q14&lt;&gt;0,Notenliste!Q14,Notenliste!$B$33)," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="D14" s="69" t="str">
+      <c r="D14" s="67" t="str">
         <f>IF(Notenliste!D14=0," ",IF(Notenliste!F14="KP"," ",IF(Notenliste!F14="NB","nicht bestanden",Notenliste!F14)))</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E14" s="65" t="str">
+      <c r="E14" s="63" t="str">
         <f>IF(Notenliste!D14&lt;&gt;0,Notenliste!$B$37," ")</f>
         <v xml:space="preserve"> </v>
       </c>
@@ -9619,14 +9528,14 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="C15" t="str">
-        <f>IF(Notenliste!D15&lt;&gt;0,IF(Notenliste!P15&lt;&gt;0,Notenliste!P15,Notenliste!$B$33)," ")</f>
+        <f>IF(Notenliste!D15&lt;&gt;0,IF(Notenliste!Q15&lt;&gt;0,Notenliste!Q15,Notenliste!$B$33)," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="D15" s="69" t="str">
+      <c r="D15" s="67" t="str">
         <f>IF(Notenliste!D15=0," ",IF(Notenliste!F15="KP"," ",IF(Notenliste!F15="NB","nicht bestanden",Notenliste!F15)))</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E15" s="65" t="str">
+      <c r="E15" s="63" t="str">
         <f>IF(Notenliste!D15&lt;&gt;0,Notenliste!$B$37," ")</f>
         <v xml:space="preserve"> </v>
       </c>
@@ -9637,14 +9546,14 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="C16" t="str">
-        <f>IF(Notenliste!D16&lt;&gt;0,IF(Notenliste!P16&lt;&gt;0,Notenliste!P16,Notenliste!$B$33)," ")</f>
+        <f>IF(Notenliste!D16&lt;&gt;0,IF(Notenliste!Q16&lt;&gt;0,Notenliste!Q16,Notenliste!$B$33)," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="D16" s="69" t="str">
+      <c r="D16" s="67" t="str">
         <f>IF(Notenliste!D16=0," ",IF(Notenliste!F16="KP"," ",IF(Notenliste!F16="NB","nicht bestanden",Notenliste!F16)))</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E16" s="65" t="str">
+      <c r="E16" s="63" t="str">
         <f>IF(Notenliste!D16&lt;&gt;0,Notenliste!$B$37," ")</f>
         <v xml:space="preserve"> </v>
       </c>
@@ -9655,14 +9564,14 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="C17" t="str">
-        <f>IF(Notenliste!D17&lt;&gt;0,IF(Notenliste!P17&lt;&gt;0,Notenliste!P17,Notenliste!$B$33)," ")</f>
+        <f>IF(Notenliste!D17&lt;&gt;0,IF(Notenliste!Q17&lt;&gt;0,Notenliste!Q17,Notenliste!$B$33)," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="D17" s="69" t="str">
+      <c r="D17" s="67" t="str">
         <f>IF(Notenliste!D17=0," ",IF(Notenliste!F17="KP"," ",IF(Notenliste!F17="NB","nicht bestanden",Notenliste!F17)))</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E17" s="65" t="str">
+      <c r="E17" s="63" t="str">
         <f>IF(Notenliste!D17&lt;&gt;0,Notenliste!$B$37," ")</f>
         <v xml:space="preserve"> </v>
       </c>
@@ -9673,14 +9582,14 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="C18" t="str">
-        <f>IF(Notenliste!D18&lt;&gt;0,IF(Notenliste!P18&lt;&gt;0,Notenliste!P18,Notenliste!$B$33)," ")</f>
+        <f>IF(Notenliste!D18&lt;&gt;0,IF(Notenliste!Q18&lt;&gt;0,Notenliste!Q18,Notenliste!$B$33)," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="D18" s="69" t="str">
+      <c r="D18" s="67" t="str">
         <f>IF(Notenliste!D18=0," ",IF(Notenliste!F18="KP"," ",IF(Notenliste!F18="NB","nicht bestanden",Notenliste!F18)))</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E18" s="65" t="str">
+      <c r="E18" s="63" t="str">
         <f>IF(Notenliste!D18&lt;&gt;0,Notenliste!$B$37," ")</f>
         <v xml:space="preserve"> </v>
       </c>
@@ -9691,14 +9600,14 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="C19" t="str">
-        <f>IF(Notenliste!D19&lt;&gt;0,IF(Notenliste!P19&lt;&gt;0,Notenliste!P19,Notenliste!$B$33)," ")</f>
+        <f>IF(Notenliste!D19&lt;&gt;0,IF(Notenliste!Q19&lt;&gt;0,Notenliste!Q19,Notenliste!$B$33)," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="D19" s="69" t="str">
+      <c r="D19" s="67" t="str">
         <f>IF(Notenliste!D19=0," ",IF(Notenliste!F19="KP"," ",IF(Notenliste!F19="NB","nicht bestanden",Notenliste!F19)))</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E19" s="65" t="str">
+      <c r="E19" s="63" t="str">
         <f>IF(Notenliste!D19&lt;&gt;0,Notenliste!$B$37," ")</f>
         <v xml:space="preserve"> </v>
       </c>
@@ -9709,14 +9618,14 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="C20" t="str">
-        <f>IF(Notenliste!D20&lt;&gt;0,IF(Notenliste!P20&lt;&gt;0,Notenliste!P20,Notenliste!$B$33)," ")</f>
+        <f>IF(Notenliste!D20&lt;&gt;0,IF(Notenliste!Q20&lt;&gt;0,Notenliste!Q20,Notenliste!$B$33)," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="D20" s="69" t="str">
+      <c r="D20" s="67" t="str">
         <f>IF(Notenliste!D20=0," ",IF(Notenliste!F20="KP"," ",IF(Notenliste!F20="NB","nicht bestanden",Notenliste!F20)))</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E20" s="65" t="str">
+      <c r="E20" s="63" t="str">
         <f>IF(Notenliste!D20&lt;&gt;0,Notenliste!$B$37," ")</f>
         <v xml:space="preserve"> </v>
       </c>
@@ -9727,14 +9636,14 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="C21" t="str">
-        <f>IF(Notenliste!D21&lt;&gt;0,IF(Notenliste!P21&lt;&gt;0,Notenliste!P21,Notenliste!$B$33)," ")</f>
+        <f>IF(Notenliste!D21&lt;&gt;0,IF(Notenliste!Q21&lt;&gt;0,Notenliste!Q21,Notenliste!$B$33)," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="D21" s="69" t="str">
+      <c r="D21" s="67" t="str">
         <f>IF(Notenliste!D21=0," ",IF(Notenliste!F21="KP"," ",IF(Notenliste!F21="NB","nicht bestanden",Notenliste!F21)))</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E21" s="65" t="str">
+      <c r="E21" s="63" t="str">
         <f>IF(Notenliste!D21&lt;&gt;0,Notenliste!$B$37," ")</f>
         <v xml:space="preserve"> </v>
       </c>
@@ -9745,14 +9654,14 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="C22" t="str">
-        <f>IF(Notenliste!D22&lt;&gt;0,IF(Notenliste!P22&lt;&gt;0,Notenliste!P22,Notenliste!$B$33)," ")</f>
+        <f>IF(Notenliste!D22&lt;&gt;0,IF(Notenliste!Q22&lt;&gt;0,Notenliste!Q22,Notenliste!$B$33)," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="D22" s="69" t="str">
+      <c r="D22" s="67" t="str">
         <f>IF(Notenliste!D22=0," ",IF(Notenliste!F22="KP"," ",IF(Notenliste!F22="NB","nicht bestanden",Notenliste!F22)))</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E22" s="65" t="str">
+      <c r="E22" s="63" t="str">
         <f>IF(Notenliste!D22&lt;&gt;0,Notenliste!$B$37," ")</f>
         <v xml:space="preserve"> </v>
       </c>
@@ -9763,14 +9672,14 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="C23" t="str">
-        <f>IF(Notenliste!D23&lt;&gt;0,IF(Notenliste!P23&lt;&gt;0,Notenliste!P23,Notenliste!$B$33)," ")</f>
+        <f>IF(Notenliste!D23&lt;&gt;0,IF(Notenliste!Q23&lt;&gt;0,Notenliste!Q23,Notenliste!$B$33)," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="D23" s="69" t="str">
+      <c r="D23" s="67" t="str">
         <f>IF(Notenliste!D23=0," ",IF(Notenliste!F23="KP"," ",IF(Notenliste!F23="NB","nicht bestanden",Notenliste!F23)))</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E23" s="65" t="str">
+      <c r="E23" s="63" t="str">
         <f>IF(Notenliste!D23&lt;&gt;0,Notenliste!$B$37," ")</f>
         <v xml:space="preserve"> </v>
       </c>
@@ -9781,14 +9690,14 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="C24" t="str">
-        <f>IF(Notenliste!D24&lt;&gt;0,IF(Notenliste!P24&lt;&gt;0,Notenliste!P24,Notenliste!$B$33)," ")</f>
+        <f>IF(Notenliste!D24&lt;&gt;0,IF(Notenliste!Q24&lt;&gt;0,Notenliste!Q24,Notenliste!$B$33)," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="D24" s="69" t="str">
+      <c r="D24" s="67" t="str">
         <f>IF(Notenliste!D24=0," ",IF(Notenliste!F24="KP"," ",IF(Notenliste!F24="NB","nicht bestanden",Notenliste!F24)))</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E24" s="65" t="str">
+      <c r="E24" s="63" t="str">
         <f>IF(Notenliste!D24&lt;&gt;0,Notenliste!$B$37," ")</f>
         <v xml:space="preserve"> </v>
       </c>
@@ -9799,14 +9708,14 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="C25" t="str">
-        <f>IF(Notenliste!D25&lt;&gt;0,IF(Notenliste!P25&lt;&gt;0,Notenliste!P25,Notenliste!$B$33)," ")</f>
+        <f>IF(Notenliste!D25&lt;&gt;0,IF(Notenliste!Q25&lt;&gt;0,Notenliste!Q25,Notenliste!$B$33)," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="D25" s="69" t="str">
+      <c r="D25" s="67" t="str">
         <f>IF(Notenliste!D25=0," ",IF(Notenliste!F25="KP"," ",IF(Notenliste!F25="NB","nicht bestanden",Notenliste!F25)))</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E25" s="65" t="str">
+      <c r="E25" s="63" t="str">
         <f>IF(Notenliste!D25&lt;&gt;0,Notenliste!$B$37," ")</f>
         <v xml:space="preserve"> </v>
       </c>
@@ -9817,14 +9726,14 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="C26" t="str">
-        <f>IF(Notenliste!D26&lt;&gt;0,IF(Notenliste!P26&lt;&gt;0,Notenliste!P26,Notenliste!$B$33)," ")</f>
+        <f>IF(Notenliste!D26&lt;&gt;0,IF(Notenliste!Q26&lt;&gt;0,Notenliste!Q26,Notenliste!$B$33)," ")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="D26" s="69" t="str">
+      <c r="D26" s="67" t="str">
         <f>IF(Notenliste!D26=0," ",IF(Notenliste!F26="KP"," ",IF(Notenliste!F26="NB","nicht bestanden",Notenliste!F26)))</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E26" s="65" t="str">
+      <c r="E26" s="63" t="str">
         <f>IF(Notenliste!D26&lt;&gt;0,Notenliste!$B$37," ")</f>
         <v xml:space="preserve"> </v>
       </c>
@@ -9880,270 +9789,270 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="72" t="s">
+      <c r="A1" s="70" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="72" t="s">
+      <c r="B1" s="70" t="s">
         <v>65</v>
       </c>
-      <c r="D1" s="72" t="s">
+      <c r="D1" s="70" t="s">
         <v>57</v>
       </c>
-      <c r="F1" s="72" t="s">
+      <c r="F1" s="70" t="s">
         <v>80</v>
       </c>
-      <c r="H1" s="75" t="s">
+      <c r="H1" s="73" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="73" t="s">
+      <c r="A2" s="71" t="s">
         <v>45</v>
       </c>
-      <c r="B2" s="73" t="s">
+      <c r="B2" s="71" t="s">
         <v>53</v>
       </c>
-      <c r="D2" s="81" t="s">
+      <c r="D2" s="79" t="s">
         <v>46</v>
       </c>
-      <c r="F2" s="81" t="s">
+      <c r="F2" s="79" t="s">
         <v>81</v>
       </c>
-      <c r="H2" s="78" t="s">
+      <c r="H2" s="76" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="73" t="s">
+      <c r="A3" s="71" t="s">
         <v>66</v>
       </c>
-      <c r="B3" s="73" t="s">
+      <c r="B3" s="71" t="s">
         <v>74</v>
       </c>
-      <c r="D3" s="73" t="s">
+      <c r="D3" s="71" t="s">
         <v>58</v>
       </c>
-      <c r="F3" s="73" t="s">
+      <c r="F3" s="71" t="s">
         <v>92</v>
       </c>
-      <c r="H3" s="78" t="s">
+      <c r="H3" s="76" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="73" t="s">
+      <c r="A4" s="71" t="s">
         <v>68</v>
       </c>
-      <c r="B4" s="73" t="s">
+      <c r="B4" s="71" t="s">
         <v>75</v>
       </c>
-      <c r="D4" s="73" t="s">
+      <c r="D4" s="71" t="s">
         <v>59</v>
       </c>
-      <c r="F4" s="73" t="s">
+      <c r="F4" s="71" t="s">
         <v>93</v>
       </c>
-      <c r="H4" s="78" t="s">
+      <c r="H4" s="76" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="73" t="s">
+      <c r="A5" s="71" t="s">
         <v>67</v>
       </c>
-      <c r="B5" s="73" t="s">
+      <c r="B5" s="71" t="s">
         <v>76</v>
       </c>
-      <c r="D5" s="73" t="s">
+      <c r="D5" s="71" t="s">
         <v>60</v>
       </c>
-      <c r="F5" s="73" t="s">
+      <c r="F5" s="71" t="s">
         <v>94</v>
       </c>
-      <c r="H5" s="76"/>
+      <c r="H5" s="74"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="73" t="s">
+      <c r="A6" s="71" t="s">
         <v>69</v>
       </c>
-      <c r="B6" s="73" t="s">
+      <c r="B6" s="71" t="s">
         <v>77</v>
       </c>
-      <c r="D6" s="73" t="s">
+      <c r="D6" s="71" t="s">
         <v>61</v>
       </c>
-      <c r="F6" s="73" t="s">
+      <c r="F6" s="71" t="s">
         <v>139</v>
       </c>
-      <c r="H6" s="76"/>
+      <c r="H6" s="74"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="73" t="s">
+      <c r="A7" s="71" t="s">
         <v>70</v>
       </c>
-      <c r="B7" s="73" t="s">
+      <c r="B7" s="71" t="s">
         <v>78</v>
       </c>
-      <c r="D7" s="73" t="s">
+      <c r="D7" s="71" t="s">
         <v>62</v>
       </c>
-      <c r="F7" s="73" t="s">
+      <c r="F7" s="71" t="s">
         <v>95</v>
       </c>
-      <c r="H7" s="76"/>
+      <c r="H7" s="74"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="73" t="s">
+      <c r="A8" s="71" t="s">
         <v>71</v>
       </c>
-      <c r="B8" s="73" t="s">
+      <c r="B8" s="71" t="s">
         <v>79</v>
       </c>
-      <c r="D8" s="73" t="s">
+      <c r="D8" s="71" t="s">
         <v>112</v>
       </c>
-      <c r="F8" s="73" t="s">
+      <c r="F8" s="71" t="s">
         <v>96</v>
       </c>
-      <c r="H8" s="76"/>
+      <c r="H8" s="74"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="73" t="s">
+      <c r="A9" s="71" t="s">
         <v>72</v>
       </c>
-      <c r="B9" s="73" t="s">
+      <c r="B9" s="71" t="s">
         <v>73</v>
       </c>
-      <c r="D9" s="73" t="s">
+      <c r="D9" s="71" t="s">
         <v>113</v>
       </c>
-      <c r="F9" s="73" t="s">
+      <c r="F9" s="71" t="s">
         <v>97</v>
       </c>
-      <c r="H9" s="76"/>
+      <c r="H9" s="74"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="73" t="s">
+      <c r="A10" s="71" t="s">
         <v>108</v>
       </c>
-      <c r="B10" s="73" t="s">
+      <c r="B10" s="71" t="s">
         <v>85</v>
       </c>
-      <c r="D10" s="73" t="s">
+      <c r="D10" s="71" t="s">
         <v>63</v>
       </c>
-      <c r="F10" s="73" t="s">
+      <c r="F10" s="71" t="s">
         <v>98</v>
       </c>
-      <c r="H10" s="76"/>
+      <c r="H10" s="74"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="73" t="s">
+      <c r="A11" s="71" t="s">
         <v>109</v>
       </c>
-      <c r="B11" s="73" t="s">
+      <c r="B11" s="71" t="s">
         <v>86</v>
       </c>
-      <c r="D11" s="73" t="s">
+      <c r="D11" s="71" t="s">
         <v>64</v>
       </c>
-      <c r="F11" s="73" t="s">
+      <c r="F11" s="71" t="s">
         <v>99</v>
       </c>
-      <c r="H11" s="76"/>
+      <c r="H11" s="74"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="73" t="s">
+      <c r="A12" s="71" t="s">
         <v>110</v>
       </c>
-      <c r="B12" s="73" t="s">
+      <c r="B12" s="71" t="s">
         <v>87</v>
       </c>
-      <c r="D12" s="73" t="s">
+      <c r="D12" s="71" t="s">
         <v>104</v>
       </c>
-      <c r="F12" s="73" t="s">
+      <c r="F12" s="71" t="s">
         <v>100</v>
       </c>
-      <c r="H12" s="76"/>
+      <c r="H12" s="74"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="73" t="s">
+      <c r="A13" s="71" t="s">
         <v>111</v>
       </c>
-      <c r="B13" s="73" t="s">
+      <c r="B13" s="71" t="s">
         <v>88</v>
       </c>
-      <c r="D13" s="73" t="s">
+      <c r="D13" s="71" t="s">
         <v>105</v>
       </c>
-      <c r="F13" s="73" t="s">
+      <c r="F13" s="71" t="s">
         <v>101</v>
       </c>
-      <c r="H13" s="76"/>
+      <c r="H13" s="74"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="73"/>
-      <c r="B14" s="73"/>
-      <c r="D14" s="73" t="s">
+      <c r="A14" s="71"/>
+      <c r="B14" s="71"/>
+      <c r="D14" s="71" t="s">
         <v>106</v>
       </c>
-      <c r="F14" s="73" t="s">
+      <c r="F14" s="71" t="s">
         <v>128</v>
       </c>
-      <c r="H14" s="76"/>
+      <c r="H14" s="74"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="73"/>
-      <c r="B15" s="73"/>
-      <c r="D15" s="73" t="s">
+      <c r="A15" s="71"/>
+      <c r="B15" s="71"/>
+      <c r="D15" s="71" t="s">
         <v>107</v>
       </c>
-      <c r="F15" s="73" t="s">
+      <c r="F15" s="71" t="s">
         <v>102</v>
       </c>
-      <c r="H15" s="76"/>
+      <c r="H15" s="74"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="73"/>
-      <c r="B16" s="73"/>
-      <c r="D16" s="73"/>
-      <c r="F16" s="73" t="s">
+      <c r="A16" s="71"/>
+      <c r="B16" s="71"/>
+      <c r="D16" s="71"/>
+      <c r="F16" s="71" t="s">
         <v>103</v>
       </c>
-      <c r="H16" s="76"/>
+      <c r="H16" s="74"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" s="73"/>
-      <c r="B17" s="73"/>
-      <c r="D17" s="73"/>
-      <c r="F17" s="73" t="s">
+      <c r="A17" s="71"/>
+      <c r="B17" s="71"/>
+      <c r="D17" s="71"/>
+      <c r="F17" s="71" t="s">
         <v>127</v>
       </c>
-      <c r="H17" s="76"/>
+      <c r="H17" s="74"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" s="73"/>
-      <c r="B18" s="73"/>
-      <c r="D18" s="73"/>
-      <c r="F18" s="73" t="s">
+      <c r="A18" s="71"/>
+      <c r="B18" s="71"/>
+      <c r="D18" s="71"/>
+      <c r="F18" s="71" t="s">
         <v>138</v>
       </c>
-      <c r="H18" s="76"/>
+      <c r="H18" s="74"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19" s="73"/>
-      <c r="B19" s="73"/>
-      <c r="D19" s="73"/>
-      <c r="F19" s="73"/>
-      <c r="H19" s="76"/>
+      <c r="A19" s="71"/>
+      <c r="B19" s="71"/>
+      <c r="D19" s="71"/>
+      <c r="F19" s="71"/>
+      <c r="H19" s="74"/>
     </row>
     <row r="20" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="74"/>
-      <c r="B20" s="74"/>
-      <c r="D20" s="74"/>
-      <c r="F20" s="74"/>
-      <c r="H20" s="77"/>
+      <c r="A20" s="72"/>
+      <c r="B20" s="72"/>
+      <c r="D20" s="72"/>
+      <c r="F20" s="72"/>
+      <c r="H20" s="75"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
